--- a/howell11.xlsx
+++ b/howell11.xlsx
@@ -520,7 +520,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>For public domain. No rights reserved. Generated on Sep 04, 2025.</t>
+          <t>For public domain. No rights reserved. Generated on Sep 10, 2025.</t>
         </is>
       </c>
     </row>
@@ -695,12 +695,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PH55</t>
+          <t>PH21</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PH68</t>
+          <t>PH36</t>
         </is>
       </c>
       <c r="D2" s="4">
@@ -714,12 +714,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PH43</t>
+          <t>PH51</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PH61</t>
+          <t>PH67</t>
         </is>
       </c>
       <c r="D3" s="4">
@@ -733,12 +733,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PH31</t>
+          <t>PH68</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PH27</t>
+          <t>PH95</t>
         </is>
       </c>
       <c r="D4" s="4">
@@ -752,12 +752,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PH31</t>
+          <t>PH84</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PH62</t>
+          <t>PH46</t>
         </is>
       </c>
       <c r="D5" s="4">
@@ -771,12 +771,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PH19</t>
+          <t>PH63</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PH20</t>
+          <t>PH45</t>
         </is>
       </c>
       <c r="D6" s="4">
@@ -790,12 +790,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PH41</t>
+          <t>PH19</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PH30</t>
+          <t>PH34</t>
         </is>
       </c>
       <c r="D7" s="4">
@@ -809,12 +809,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PH38</t>
+          <t>PH92</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PH71</t>
+          <t>PH55</t>
         </is>
       </c>
       <c r="D8" s="4">
@@ -828,12 +828,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PH36</t>
+          <t>PH18</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>PH53</t>
+          <t>PH76</t>
         </is>
       </c>
       <c r="D9" s="4">
@@ -847,12 +847,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PH26</t>
+          <t>PH60</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>PH16</t>
+          <t>PH67</t>
         </is>
       </c>
       <c r="D10" s="4">
@@ -866,12 +866,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PH90</t>
+          <t>PH86</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>PH38</t>
+          <t>PH49</t>
         </is>
       </c>
       <c r="D11" s="4">
@@ -885,12 +885,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PH85</t>
+          <t>PH81</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>PH60</t>
+          <t>PH96</t>
         </is>
       </c>
       <c r="D12" s="4">

--- a/howell11.xlsx
+++ b/howell11.xlsx
@@ -536,7 +536,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>For public domain. No rights reserved. Generated on Jan 14, 2026.</t>
+          <t>For public domain. No rights reserved. Generated on Jan 18, 2026.</t>
         </is>
       </c>
     </row>
@@ -711,12 +711,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PH70</t>
+          <t>PH46</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PH80</t>
+          <t>PH84</t>
         </is>
       </c>
       <c r="D2" s="4">
@@ -730,12 +730,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PH78</t>
+          <t>PH85</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PH54</t>
+          <t>PH69</t>
         </is>
       </c>
       <c r="D3" s="4">
@@ -749,12 +749,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PH17</t>
+          <t>PH44</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PH78</t>
+          <t>PH88</t>
         </is>
       </c>
       <c r="D4" s="4">
@@ -768,12 +768,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PH76</t>
+          <t>PH13</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PH11</t>
+          <t>PH80</t>
         </is>
       </c>
       <c r="D5" s="4">
@@ -787,12 +787,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PH84</t>
+          <t>PH95</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PH44</t>
+          <t>PH32</t>
         </is>
       </c>
       <c r="D6" s="4">
@@ -806,12 +806,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PH97</t>
+          <t>PH52</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PH93</t>
+          <t>PH85</t>
         </is>
       </c>
       <c r="D7" s="4">
@@ -825,7 +825,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PH29</t>
+          <t>PH50</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -844,12 +844,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PH98</t>
+          <t>PH50</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>PH92</t>
+          <t>PH21</t>
         </is>
       </c>
       <c r="D9" s="4">
@@ -863,12 +863,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PH46</t>
+          <t>PH89</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>PH46</t>
+          <t>PH62</t>
         </is>
       </c>
       <c r="D10" s="4">
@@ -882,12 +882,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PH32</t>
+          <t>PH79</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>PH71</t>
+          <t>PH48</t>
         </is>
       </c>
       <c r="D11" s="4">
@@ -901,12 +901,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PH41</t>
+          <t>PH34</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>PH62</t>
+          <t>PH89</t>
         </is>
       </c>
       <c r="D12" s="4">
@@ -1674,23 +1674,23 @@
         </is>
       </c>
       <c r="G9">
-        <f>'By Round'!G3</f>
+        <f>'By Round'!G2</f>
         <v/>
       </c>
       <c r="H9">
-        <f>'By Round'!H3</f>
+        <f>'By Round'!H2</f>
         <v/>
       </c>
       <c r="I9">
-        <f>'By Round'!I3</f>
+        <f>'By Round'!I2</f>
         <v/>
       </c>
       <c r="J9">
-        <f>'By Round'!J3</f>
+        <f>'By Round'!J2</f>
         <v/>
       </c>
       <c r="K9">
-        <f>'By Round'!K3</f>
+        <f>'By Round'!K2</f>
         <v/>
       </c>
       <c r="L9" s="11">
@@ -1773,23 +1773,23 @@
         </is>
       </c>
       <c r="G10">
-        <f>'By Round'!G37</f>
+        <f>'By Round'!G36</f>
         <v/>
       </c>
       <c r="H10">
-        <f>'By Round'!H37</f>
+        <f>'By Round'!H36</f>
         <v/>
       </c>
       <c r="I10">
-        <f>'By Round'!I37</f>
+        <f>'By Round'!I36</f>
         <v/>
       </c>
       <c r="J10">
-        <f>'By Round'!J37</f>
+        <f>'By Round'!J36</f>
         <v/>
       </c>
       <c r="K10">
-        <f>'By Round'!K37</f>
+        <f>'By Round'!K36</f>
         <v/>
       </c>
       <c r="L10" s="11">
@@ -1872,23 +1872,23 @@
         </is>
       </c>
       <c r="G11">
-        <f>'By Round'!G47</f>
+        <f>'By Round'!G46</f>
         <v/>
       </c>
       <c r="H11">
-        <f>'By Round'!H47</f>
+        <f>'By Round'!H46</f>
         <v/>
       </c>
       <c r="I11">
-        <f>'By Round'!I47</f>
+        <f>'By Round'!I46</f>
         <v/>
       </c>
       <c r="J11">
-        <f>'By Round'!J47</f>
+        <f>'By Round'!J46</f>
         <v/>
       </c>
       <c r="K11">
-        <f>'By Round'!K47</f>
+        <f>'By Round'!K46</f>
         <v/>
       </c>
       <c r="L11" s="11">
@@ -1971,23 +1971,23 @@
         </is>
       </c>
       <c r="G12">
-        <f>'By Round'!G57</f>
+        <f>'By Round'!G56</f>
         <v/>
       </c>
       <c r="H12">
-        <f>'By Round'!H57</f>
+        <f>'By Round'!H56</f>
         <v/>
       </c>
       <c r="I12">
-        <f>'By Round'!I57</f>
+        <f>'By Round'!I56</f>
         <v/>
       </c>
       <c r="J12">
-        <f>'By Round'!J57</f>
+        <f>'By Round'!J56</f>
         <v/>
       </c>
       <c r="K12">
-        <f>'By Round'!K57</f>
+        <f>'By Round'!K56</f>
         <v/>
       </c>
       <c r="L12" s="11">
@@ -2070,23 +2070,23 @@
         </is>
       </c>
       <c r="G13">
-        <f>'By Round'!G79</f>
+        <f>'By Round'!G78</f>
         <v/>
       </c>
       <c r="H13">
-        <f>'By Round'!H79</f>
+        <f>'By Round'!H78</f>
         <v/>
       </c>
       <c r="I13">
-        <f>'By Round'!I79</f>
+        <f>'By Round'!I78</f>
         <v/>
       </c>
       <c r="J13">
-        <f>'By Round'!J79</f>
+        <f>'By Round'!J78</f>
         <v/>
       </c>
       <c r="K13">
-        <f>'By Round'!K79</f>
+        <f>'By Round'!K78</f>
         <v/>
       </c>
       <c r="L13" s="11">
@@ -2169,23 +2169,23 @@
         </is>
       </c>
       <c r="G14">
-        <f>'By Round'!G89</f>
+        <f>'By Round'!G88</f>
         <v/>
       </c>
       <c r="H14">
-        <f>'By Round'!H89</f>
+        <f>'By Round'!H88</f>
         <v/>
       </c>
       <c r="I14">
-        <f>'By Round'!I89</f>
+        <f>'By Round'!I88</f>
         <v/>
       </c>
       <c r="J14">
-        <f>'By Round'!J89</f>
+        <f>'By Round'!J88</f>
         <v/>
       </c>
       <c r="K14">
-        <f>'By Round'!K89</f>
+        <f>'By Round'!K88</f>
         <v/>
       </c>
       <c r="L14" s="11">
@@ -2868,23 +2868,23 @@
         </is>
       </c>
       <c r="G21">
-        <f>'By Round'!G15</f>
+        <f>'By Round'!G14</f>
         <v/>
       </c>
       <c r="H21">
-        <f>'By Round'!H15</f>
+        <f>'By Round'!H14</f>
         <v/>
       </c>
       <c r="I21">
-        <f>'By Round'!I15</f>
+        <f>'By Round'!I14</f>
         <v/>
       </c>
       <c r="J21">
-        <f>'By Round'!J15</f>
+        <f>'By Round'!J14</f>
         <v/>
       </c>
       <c r="K21">
-        <f>'By Round'!K15</f>
+        <f>'By Round'!K14</f>
         <v/>
       </c>
       <c r="L21" s="11">
@@ -2967,23 +2967,23 @@
         </is>
       </c>
       <c r="G22">
-        <f>'By Round'!G49</f>
+        <f>'By Round'!G48</f>
         <v/>
       </c>
       <c r="H22">
-        <f>'By Round'!H49</f>
+        <f>'By Round'!H48</f>
         <v/>
       </c>
       <c r="I22">
-        <f>'By Round'!I49</f>
+        <f>'By Round'!I48</f>
         <v/>
       </c>
       <c r="J22">
-        <f>'By Round'!J49</f>
+        <f>'By Round'!J48</f>
         <v/>
       </c>
       <c r="K22">
-        <f>'By Round'!K49</f>
+        <f>'By Round'!K48</f>
         <v/>
       </c>
       <c r="L22" s="11">
@@ -3066,23 +3066,23 @@
         </is>
       </c>
       <c r="G23">
-        <f>'By Round'!G59</f>
+        <f>'By Round'!G58</f>
         <v/>
       </c>
       <c r="H23">
-        <f>'By Round'!H59</f>
+        <f>'By Round'!H58</f>
         <v/>
       </c>
       <c r="I23">
-        <f>'By Round'!I59</f>
+        <f>'By Round'!I58</f>
         <v/>
       </c>
       <c r="J23">
-        <f>'By Round'!J59</f>
+        <f>'By Round'!J58</f>
         <v/>
       </c>
       <c r="K23">
-        <f>'By Round'!K59</f>
+        <f>'By Round'!K58</f>
         <v/>
       </c>
       <c r="L23" s="11">
@@ -3165,23 +3165,23 @@
         </is>
       </c>
       <c r="G24">
-        <f>'By Round'!G69</f>
+        <f>'By Round'!G68</f>
         <v/>
       </c>
       <c r="H24">
-        <f>'By Round'!H69</f>
+        <f>'By Round'!H68</f>
         <v/>
       </c>
       <c r="I24">
-        <f>'By Round'!I69</f>
+        <f>'By Round'!I68</f>
         <v/>
       </c>
       <c r="J24">
-        <f>'By Round'!J69</f>
+        <f>'By Round'!J68</f>
         <v/>
       </c>
       <c r="K24">
-        <f>'By Round'!K69</f>
+        <f>'By Round'!K68</f>
         <v/>
       </c>
       <c r="L24" s="11">
@@ -3264,23 +3264,23 @@
         </is>
       </c>
       <c r="G25">
-        <f>'By Round'!G91</f>
+        <f>'By Round'!G90</f>
         <v/>
       </c>
       <c r="H25">
-        <f>'By Round'!H91</f>
+        <f>'By Round'!H90</f>
         <v/>
       </c>
       <c r="I25">
-        <f>'By Round'!I91</f>
+        <f>'By Round'!I90</f>
         <v/>
       </c>
       <c r="J25">
-        <f>'By Round'!J91</f>
+        <f>'By Round'!J90</f>
         <v/>
       </c>
       <c r="K25">
-        <f>'By Round'!K91</f>
+        <f>'By Round'!K90</f>
         <v/>
       </c>
       <c r="L25" s="11">
@@ -3363,23 +3363,23 @@
         </is>
       </c>
       <c r="G26">
-        <f>'By Round'!G101</f>
+        <f>'By Round'!G100</f>
         <v/>
       </c>
       <c r="H26">
-        <f>'By Round'!H101</f>
+        <f>'By Round'!H100</f>
         <v/>
       </c>
       <c r="I26">
-        <f>'By Round'!I101</f>
+        <f>'By Round'!I100</f>
         <v/>
       </c>
       <c r="J26">
-        <f>'By Round'!J101</f>
+        <f>'By Round'!J100</f>
         <v/>
       </c>
       <c r="K26">
-        <f>'By Round'!K101</f>
+        <f>'By Round'!K100</f>
         <v/>
       </c>
       <c r="L26" s="11">
@@ -4062,23 +4062,23 @@
         </is>
       </c>
       <c r="G33">
-        <f>'By Round'!G27</f>
+        <f>'By Round'!G26</f>
         <v/>
       </c>
       <c r="H33">
-        <f>'By Round'!H27</f>
+        <f>'By Round'!H26</f>
         <v/>
       </c>
       <c r="I33">
-        <f>'By Round'!I27</f>
+        <f>'By Round'!I26</f>
         <v/>
       </c>
       <c r="J33">
-        <f>'By Round'!J27</f>
+        <f>'By Round'!J26</f>
         <v/>
       </c>
       <c r="K33">
-        <f>'By Round'!K27</f>
+        <f>'By Round'!K26</f>
         <v/>
       </c>
       <c r="L33" s="11">
@@ -4161,23 +4161,23 @@
         </is>
       </c>
       <c r="G34">
-        <f>'By Round'!G61</f>
+        <f>'By Round'!G60</f>
         <v/>
       </c>
       <c r="H34">
-        <f>'By Round'!H61</f>
+        <f>'By Round'!H60</f>
         <v/>
       </c>
       <c r="I34">
-        <f>'By Round'!I61</f>
+        <f>'By Round'!I60</f>
         <v/>
       </c>
       <c r="J34">
-        <f>'By Round'!J61</f>
+        <f>'By Round'!J60</f>
         <v/>
       </c>
       <c r="K34">
-        <f>'By Round'!K61</f>
+        <f>'By Round'!K60</f>
         <v/>
       </c>
       <c r="L34" s="11">
@@ -4260,23 +4260,23 @@
         </is>
       </c>
       <c r="G35">
-        <f>'By Round'!G71</f>
+        <f>'By Round'!G70</f>
         <v/>
       </c>
       <c r="H35">
-        <f>'By Round'!H71</f>
+        <f>'By Round'!H70</f>
         <v/>
       </c>
       <c r="I35">
-        <f>'By Round'!I71</f>
+        <f>'By Round'!I70</f>
         <v/>
       </c>
       <c r="J35">
-        <f>'By Round'!J71</f>
+        <f>'By Round'!J70</f>
         <v/>
       </c>
       <c r="K35">
-        <f>'By Round'!K71</f>
+        <f>'By Round'!K70</f>
         <v/>
       </c>
       <c r="L35" s="11">
@@ -4359,23 +4359,23 @@
         </is>
       </c>
       <c r="G36">
-        <f>'By Round'!G81</f>
+        <f>'By Round'!G80</f>
         <v/>
       </c>
       <c r="H36">
-        <f>'By Round'!H81</f>
+        <f>'By Round'!H80</f>
         <v/>
       </c>
       <c r="I36">
-        <f>'By Round'!I81</f>
+        <f>'By Round'!I80</f>
         <v/>
       </c>
       <c r="J36">
-        <f>'By Round'!J81</f>
+        <f>'By Round'!J80</f>
         <v/>
       </c>
       <c r="K36">
-        <f>'By Round'!K81</f>
+        <f>'By Round'!K80</f>
         <v/>
       </c>
       <c r="L36" s="11">
@@ -4458,23 +4458,23 @@
         </is>
       </c>
       <c r="G37">
-        <f>'By Round'!G103</f>
+        <f>'By Round'!G102</f>
         <v/>
       </c>
       <c r="H37">
-        <f>'By Round'!H103</f>
+        <f>'By Round'!H102</f>
         <v/>
       </c>
       <c r="I37">
-        <f>'By Round'!I103</f>
+        <f>'By Round'!I102</f>
         <v/>
       </c>
       <c r="J37">
-        <f>'By Round'!J103</f>
+        <f>'By Round'!J102</f>
         <v/>
       </c>
       <c r="K37">
-        <f>'By Round'!K103</f>
+        <f>'By Round'!K102</f>
         <v/>
       </c>
       <c r="L37" s="11">
@@ -4557,23 +4557,23 @@
         </is>
       </c>
       <c r="G38">
-        <f>'By Round'!G113</f>
+        <f>'By Round'!G112</f>
         <v/>
       </c>
       <c r="H38">
-        <f>'By Round'!H113</f>
+        <f>'By Round'!H112</f>
         <v/>
       </c>
       <c r="I38">
-        <f>'By Round'!I113</f>
+        <f>'By Round'!I112</f>
         <v/>
       </c>
       <c r="J38">
-        <f>'By Round'!J113</f>
+        <f>'By Round'!J112</f>
         <v/>
       </c>
       <c r="K38">
-        <f>'By Round'!K113</f>
+        <f>'By Round'!K112</f>
         <v/>
       </c>
       <c r="L38" s="11">
@@ -5256,23 +5256,23 @@
         </is>
       </c>
       <c r="G45">
-        <f>'By Round'!G39</f>
+        <f>'By Round'!G38</f>
         <v/>
       </c>
       <c r="H45">
-        <f>'By Round'!H39</f>
+        <f>'By Round'!H38</f>
         <v/>
       </c>
       <c r="I45">
-        <f>'By Round'!I39</f>
+        <f>'By Round'!I38</f>
         <v/>
       </c>
       <c r="J45">
-        <f>'By Round'!J39</f>
+        <f>'By Round'!J38</f>
         <v/>
       </c>
       <c r="K45">
-        <f>'By Round'!K39</f>
+        <f>'By Round'!K38</f>
         <v/>
       </c>
       <c r="L45" s="11">
@@ -5355,23 +5355,23 @@
         </is>
       </c>
       <c r="G46">
-        <f>'By Round'!G73</f>
+        <f>'By Round'!G72</f>
         <v/>
       </c>
       <c r="H46">
-        <f>'By Round'!H73</f>
+        <f>'By Round'!H72</f>
         <v/>
       </c>
       <c r="I46">
-        <f>'By Round'!I73</f>
+        <f>'By Round'!I72</f>
         <v/>
       </c>
       <c r="J46">
-        <f>'By Round'!J73</f>
+        <f>'By Round'!J72</f>
         <v/>
       </c>
       <c r="K46">
-        <f>'By Round'!K73</f>
+        <f>'By Round'!K72</f>
         <v/>
       </c>
       <c r="L46" s="11">
@@ -5454,23 +5454,23 @@
         </is>
       </c>
       <c r="G47">
-        <f>'By Round'!G83</f>
+        <f>'By Round'!G82</f>
         <v/>
       </c>
       <c r="H47">
-        <f>'By Round'!H83</f>
+        <f>'By Round'!H82</f>
         <v/>
       </c>
       <c r="I47">
-        <f>'By Round'!I83</f>
+        <f>'By Round'!I82</f>
         <v/>
       </c>
       <c r="J47">
-        <f>'By Round'!J83</f>
+        <f>'By Round'!J82</f>
         <v/>
       </c>
       <c r="K47">
-        <f>'By Round'!K83</f>
+        <f>'By Round'!K82</f>
         <v/>
       </c>
       <c r="L47" s="11">
@@ -5553,23 +5553,23 @@
         </is>
       </c>
       <c r="G48">
-        <f>'By Round'!G93</f>
+        <f>'By Round'!G92</f>
         <v/>
       </c>
       <c r="H48">
-        <f>'By Round'!H93</f>
+        <f>'By Round'!H92</f>
         <v/>
       </c>
       <c r="I48">
-        <f>'By Round'!I93</f>
+        <f>'By Round'!I92</f>
         <v/>
       </c>
       <c r="J48">
-        <f>'By Round'!J93</f>
+        <f>'By Round'!J92</f>
         <v/>
       </c>
       <c r="K48">
-        <f>'By Round'!K93</f>
+        <f>'By Round'!K92</f>
         <v/>
       </c>
       <c r="L48" s="11">
@@ -5652,23 +5652,23 @@
         </is>
       </c>
       <c r="G49">
-        <f>'By Round'!G115</f>
+        <f>'By Round'!G114</f>
         <v/>
       </c>
       <c r="H49">
-        <f>'By Round'!H115</f>
+        <f>'By Round'!H114</f>
         <v/>
       </c>
       <c r="I49">
-        <f>'By Round'!I115</f>
+        <f>'By Round'!I114</f>
         <v/>
       </c>
       <c r="J49">
-        <f>'By Round'!J115</f>
+        <f>'By Round'!J114</f>
         <v/>
       </c>
       <c r="K49">
-        <f>'By Round'!K115</f>
+        <f>'By Round'!K114</f>
         <v/>
       </c>
       <c r="L49" s="11">
@@ -5751,23 +5751,23 @@
         </is>
       </c>
       <c r="G50">
-        <f>'By Round'!G125</f>
+        <f>'By Round'!G124</f>
         <v/>
       </c>
       <c r="H50">
-        <f>'By Round'!H125</f>
+        <f>'By Round'!H124</f>
         <v/>
       </c>
       <c r="I50">
-        <f>'By Round'!I125</f>
+        <f>'By Round'!I124</f>
         <v/>
       </c>
       <c r="J50">
-        <f>'By Round'!J125</f>
+        <f>'By Round'!J124</f>
         <v/>
       </c>
       <c r="K50">
-        <f>'By Round'!K125</f>
+        <f>'By Round'!K124</f>
         <v/>
       </c>
       <c r="L50" s="11">
@@ -6450,23 +6450,23 @@
         </is>
       </c>
       <c r="G57">
-        <f>'By Round'!G5</f>
+        <f>'By Round'!G4</f>
         <v/>
       </c>
       <c r="H57">
-        <f>'By Round'!H5</f>
+        <f>'By Round'!H4</f>
         <v/>
       </c>
       <c r="I57">
-        <f>'By Round'!I5</f>
+        <f>'By Round'!I4</f>
         <v/>
       </c>
       <c r="J57">
-        <f>'By Round'!J5</f>
+        <f>'By Round'!J4</f>
         <v/>
       </c>
       <c r="K57">
-        <f>'By Round'!K5</f>
+        <f>'By Round'!K4</f>
         <v/>
       </c>
       <c r="L57" s="11">
@@ -6549,23 +6549,23 @@
         </is>
       </c>
       <c r="G58">
-        <f>'By Round'!G51</f>
+        <f>'By Round'!G50</f>
         <v/>
       </c>
       <c r="H58">
-        <f>'By Round'!H51</f>
+        <f>'By Round'!H50</f>
         <v/>
       </c>
       <c r="I58">
-        <f>'By Round'!I51</f>
+        <f>'By Round'!I50</f>
         <v/>
       </c>
       <c r="J58">
-        <f>'By Round'!J51</f>
+        <f>'By Round'!J50</f>
         <v/>
       </c>
       <c r="K58">
-        <f>'By Round'!K51</f>
+        <f>'By Round'!K50</f>
         <v/>
       </c>
       <c r="L58" s="11">
@@ -6648,23 +6648,23 @@
         </is>
       </c>
       <c r="G59">
-        <f>'By Round'!G85</f>
+        <f>'By Round'!G84</f>
         <v/>
       </c>
       <c r="H59">
-        <f>'By Round'!H85</f>
+        <f>'By Round'!H84</f>
         <v/>
       </c>
       <c r="I59">
-        <f>'By Round'!I85</f>
+        <f>'By Round'!I84</f>
         <v/>
       </c>
       <c r="J59">
-        <f>'By Round'!J85</f>
+        <f>'By Round'!J84</f>
         <v/>
       </c>
       <c r="K59">
-        <f>'By Round'!K85</f>
+        <f>'By Round'!K84</f>
         <v/>
       </c>
       <c r="L59" s="11">
@@ -6747,23 +6747,23 @@
         </is>
       </c>
       <c r="G60">
-        <f>'By Round'!G95</f>
+        <f>'By Round'!G94</f>
         <v/>
       </c>
       <c r="H60">
-        <f>'By Round'!H95</f>
+        <f>'By Round'!H94</f>
         <v/>
       </c>
       <c r="I60">
-        <f>'By Round'!I95</f>
+        <f>'By Round'!I94</f>
         <v/>
       </c>
       <c r="J60">
-        <f>'By Round'!J95</f>
+        <f>'By Round'!J94</f>
         <v/>
       </c>
       <c r="K60">
-        <f>'By Round'!K95</f>
+        <f>'By Round'!K94</f>
         <v/>
       </c>
       <c r="L60" s="11">
@@ -6846,23 +6846,23 @@
         </is>
       </c>
       <c r="G61">
-        <f>'By Round'!G105</f>
+        <f>'By Round'!G104</f>
         <v/>
       </c>
       <c r="H61">
-        <f>'By Round'!H105</f>
+        <f>'By Round'!H104</f>
         <v/>
       </c>
       <c r="I61">
-        <f>'By Round'!I105</f>
+        <f>'By Round'!I104</f>
         <v/>
       </c>
       <c r="J61">
-        <f>'By Round'!J105</f>
+        <f>'By Round'!J104</f>
         <v/>
       </c>
       <c r="K61">
-        <f>'By Round'!K105</f>
+        <f>'By Round'!K104</f>
         <v/>
       </c>
       <c r="L61" s="11">
@@ -6945,23 +6945,23 @@
         </is>
       </c>
       <c r="G62">
-        <f>'By Round'!G127</f>
+        <f>'By Round'!G126</f>
         <v/>
       </c>
       <c r="H62">
-        <f>'By Round'!H127</f>
+        <f>'By Round'!H126</f>
         <v/>
       </c>
       <c r="I62">
-        <f>'By Round'!I127</f>
+        <f>'By Round'!I126</f>
         <v/>
       </c>
       <c r="J62">
-        <f>'By Round'!J127</f>
+        <f>'By Round'!J126</f>
         <v/>
       </c>
       <c r="K62">
-        <f>'By Round'!K127</f>
+        <f>'By Round'!K126</f>
         <v/>
       </c>
       <c r="L62" s="11">
@@ -7644,23 +7644,23 @@
         </is>
       </c>
       <c r="G69">
-        <f>'By Round'!G7</f>
+        <f>'By Round'!G6</f>
         <v/>
       </c>
       <c r="H69">
-        <f>'By Round'!H7</f>
+        <f>'By Round'!H6</f>
         <v/>
       </c>
       <c r="I69">
-        <f>'By Round'!I7</f>
+        <f>'By Round'!I6</f>
         <v/>
       </c>
       <c r="J69">
-        <f>'By Round'!J7</f>
+        <f>'By Round'!J6</f>
         <v/>
       </c>
       <c r="K69">
-        <f>'By Round'!K7</f>
+        <f>'By Round'!K6</f>
         <v/>
       </c>
       <c r="L69" s="11">
@@ -7743,23 +7743,23 @@
         </is>
       </c>
       <c r="G70">
-        <f>'By Round'!G17</f>
+        <f>'By Round'!G16</f>
         <v/>
       </c>
       <c r="H70">
-        <f>'By Round'!H17</f>
+        <f>'By Round'!H16</f>
         <v/>
       </c>
       <c r="I70">
-        <f>'By Round'!I17</f>
+        <f>'By Round'!I16</f>
         <v/>
       </c>
       <c r="J70">
-        <f>'By Round'!J17</f>
+        <f>'By Round'!J16</f>
         <v/>
       </c>
       <c r="K70">
-        <f>'By Round'!K17</f>
+        <f>'By Round'!K16</f>
         <v/>
       </c>
       <c r="L70" s="11">
@@ -7842,23 +7842,23 @@
         </is>
       </c>
       <c r="G71">
-        <f>'By Round'!G63</f>
+        <f>'By Round'!G62</f>
         <v/>
       </c>
       <c r="H71">
-        <f>'By Round'!H63</f>
+        <f>'By Round'!H62</f>
         <v/>
       </c>
       <c r="I71">
-        <f>'By Round'!I63</f>
+        <f>'By Round'!I62</f>
         <v/>
       </c>
       <c r="J71">
-        <f>'By Round'!J63</f>
+        <f>'By Round'!J62</f>
         <v/>
       </c>
       <c r="K71">
-        <f>'By Round'!K63</f>
+        <f>'By Round'!K62</f>
         <v/>
       </c>
       <c r="L71" s="11">
@@ -7941,23 +7941,23 @@
         </is>
       </c>
       <c r="G72">
-        <f>'By Round'!G97</f>
+        <f>'By Round'!G96</f>
         <v/>
       </c>
       <c r="H72">
-        <f>'By Round'!H97</f>
+        <f>'By Round'!H96</f>
         <v/>
       </c>
       <c r="I72">
-        <f>'By Round'!I97</f>
+        <f>'By Round'!I96</f>
         <v/>
       </c>
       <c r="J72">
-        <f>'By Round'!J97</f>
+        <f>'By Round'!J96</f>
         <v/>
       </c>
       <c r="K72">
-        <f>'By Round'!K97</f>
+        <f>'By Round'!K96</f>
         <v/>
       </c>
       <c r="L72" s="11">
@@ -8040,23 +8040,23 @@
         </is>
       </c>
       <c r="G73">
-        <f>'By Round'!G107</f>
+        <f>'By Round'!G106</f>
         <v/>
       </c>
       <c r="H73">
-        <f>'By Round'!H107</f>
+        <f>'By Round'!H106</f>
         <v/>
       </c>
       <c r="I73">
-        <f>'By Round'!I107</f>
+        <f>'By Round'!I106</f>
         <v/>
       </c>
       <c r="J73">
-        <f>'By Round'!J107</f>
+        <f>'By Round'!J106</f>
         <v/>
       </c>
       <c r="K73">
-        <f>'By Round'!K107</f>
+        <f>'By Round'!K106</f>
         <v/>
       </c>
       <c r="L73" s="11">
@@ -8139,23 +8139,23 @@
         </is>
       </c>
       <c r="G74">
-        <f>'By Round'!G117</f>
+        <f>'By Round'!G116</f>
         <v/>
       </c>
       <c r="H74">
-        <f>'By Round'!H117</f>
+        <f>'By Round'!H116</f>
         <v/>
       </c>
       <c r="I74">
-        <f>'By Round'!I117</f>
+        <f>'By Round'!I116</f>
         <v/>
       </c>
       <c r="J74">
-        <f>'By Round'!J117</f>
+        <f>'By Round'!J116</f>
         <v/>
       </c>
       <c r="K74">
-        <f>'By Round'!K117</f>
+        <f>'By Round'!K116</f>
         <v/>
       </c>
       <c r="L74" s="11">
@@ -8838,23 +8838,23 @@
         </is>
       </c>
       <c r="G81">
-        <f>'By Round'!G19</f>
+        <f>'By Round'!G18</f>
         <v/>
       </c>
       <c r="H81">
-        <f>'By Round'!H19</f>
+        <f>'By Round'!H18</f>
         <v/>
       </c>
       <c r="I81">
-        <f>'By Round'!I19</f>
+        <f>'By Round'!I18</f>
         <v/>
       </c>
       <c r="J81">
-        <f>'By Round'!J19</f>
+        <f>'By Round'!J18</f>
         <v/>
       </c>
       <c r="K81">
-        <f>'By Round'!K19</f>
+        <f>'By Round'!K18</f>
         <v/>
       </c>
       <c r="L81" s="11">
@@ -8937,23 +8937,23 @@
         </is>
       </c>
       <c r="G82">
-        <f>'By Round'!G29</f>
+        <f>'By Round'!G28</f>
         <v/>
       </c>
       <c r="H82">
-        <f>'By Round'!H29</f>
+        <f>'By Round'!H28</f>
         <v/>
       </c>
       <c r="I82">
-        <f>'By Round'!I29</f>
+        <f>'By Round'!I28</f>
         <v/>
       </c>
       <c r="J82">
-        <f>'By Round'!J29</f>
+        <f>'By Round'!J28</f>
         <v/>
       </c>
       <c r="K82">
-        <f>'By Round'!K29</f>
+        <f>'By Round'!K28</f>
         <v/>
       </c>
       <c r="L82" s="11">
@@ -9036,23 +9036,23 @@
         </is>
       </c>
       <c r="G83">
-        <f>'By Round'!G75</f>
+        <f>'By Round'!G74</f>
         <v/>
       </c>
       <c r="H83">
-        <f>'By Round'!H75</f>
+        <f>'By Round'!H74</f>
         <v/>
       </c>
       <c r="I83">
-        <f>'By Round'!I75</f>
+        <f>'By Round'!I74</f>
         <v/>
       </c>
       <c r="J83">
-        <f>'By Round'!J75</f>
+        <f>'By Round'!J74</f>
         <v/>
       </c>
       <c r="K83">
-        <f>'By Round'!K75</f>
+        <f>'By Round'!K74</f>
         <v/>
       </c>
       <c r="L83" s="11">
@@ -9135,23 +9135,23 @@
         </is>
       </c>
       <c r="G84">
-        <f>'By Round'!G109</f>
+        <f>'By Round'!G108</f>
         <v/>
       </c>
       <c r="H84">
-        <f>'By Round'!H109</f>
+        <f>'By Round'!H108</f>
         <v/>
       </c>
       <c r="I84">
-        <f>'By Round'!I109</f>
+        <f>'By Round'!I108</f>
         <v/>
       </c>
       <c r="J84">
-        <f>'By Round'!J109</f>
+        <f>'By Round'!J108</f>
         <v/>
       </c>
       <c r="K84">
-        <f>'By Round'!K109</f>
+        <f>'By Round'!K108</f>
         <v/>
       </c>
       <c r="L84" s="11">
@@ -9234,23 +9234,23 @@
         </is>
       </c>
       <c r="G85">
-        <f>'By Round'!G119</f>
+        <f>'By Round'!G118</f>
         <v/>
       </c>
       <c r="H85">
-        <f>'By Round'!H119</f>
+        <f>'By Round'!H118</f>
         <v/>
       </c>
       <c r="I85">
-        <f>'By Round'!I119</f>
+        <f>'By Round'!I118</f>
         <v/>
       </c>
       <c r="J85">
-        <f>'By Round'!J119</f>
+        <f>'By Round'!J118</f>
         <v/>
       </c>
       <c r="K85">
-        <f>'By Round'!K119</f>
+        <f>'By Round'!K118</f>
         <v/>
       </c>
       <c r="L85" s="11">
@@ -9333,23 +9333,23 @@
         </is>
       </c>
       <c r="G86">
-        <f>'By Round'!G129</f>
+        <f>'By Round'!G128</f>
         <v/>
       </c>
       <c r="H86">
-        <f>'By Round'!H129</f>
+        <f>'By Round'!H128</f>
         <v/>
       </c>
       <c r="I86">
-        <f>'By Round'!I129</f>
+        <f>'By Round'!I128</f>
         <v/>
       </c>
       <c r="J86">
-        <f>'By Round'!J129</f>
+        <f>'By Round'!J128</f>
         <v/>
       </c>
       <c r="K86">
-        <f>'By Round'!K129</f>
+        <f>'By Round'!K128</f>
         <v/>
       </c>
       <c r="L86" s="11">
@@ -10032,23 +10032,23 @@
         </is>
       </c>
       <c r="G93">
-        <f>'By Round'!G9</f>
+        <f>'By Round'!G8</f>
         <v/>
       </c>
       <c r="H93">
-        <f>'By Round'!H9</f>
+        <f>'By Round'!H8</f>
         <v/>
       </c>
       <c r="I93">
-        <f>'By Round'!I9</f>
+        <f>'By Round'!I8</f>
         <v/>
       </c>
       <c r="J93">
-        <f>'By Round'!J9</f>
+        <f>'By Round'!J8</f>
         <v/>
       </c>
       <c r="K93">
-        <f>'By Round'!K9</f>
+        <f>'By Round'!K8</f>
         <v/>
       </c>
       <c r="L93" s="11">
@@ -10131,23 +10131,23 @@
         </is>
       </c>
       <c r="G94">
-        <f>'By Round'!G31</f>
+        <f>'By Round'!G30</f>
         <v/>
       </c>
       <c r="H94">
-        <f>'By Round'!H31</f>
+        <f>'By Round'!H30</f>
         <v/>
       </c>
       <c r="I94">
-        <f>'By Round'!I31</f>
+        <f>'By Round'!I30</f>
         <v/>
       </c>
       <c r="J94">
-        <f>'By Round'!J31</f>
+        <f>'By Round'!J30</f>
         <v/>
       </c>
       <c r="K94">
-        <f>'By Round'!K31</f>
+        <f>'By Round'!K30</f>
         <v/>
       </c>
       <c r="L94" s="11">
@@ -10230,23 +10230,23 @@
         </is>
       </c>
       <c r="G95">
-        <f>'By Round'!G41</f>
+        <f>'By Round'!G40</f>
         <v/>
       </c>
       <c r="H95">
-        <f>'By Round'!H41</f>
+        <f>'By Round'!H40</f>
         <v/>
       </c>
       <c r="I95">
-        <f>'By Round'!I41</f>
+        <f>'By Round'!I40</f>
         <v/>
       </c>
       <c r="J95">
-        <f>'By Round'!J41</f>
+        <f>'By Round'!J40</f>
         <v/>
       </c>
       <c r="K95">
-        <f>'By Round'!K41</f>
+        <f>'By Round'!K40</f>
         <v/>
       </c>
       <c r="L95" s="11">
@@ -10329,23 +10329,23 @@
         </is>
       </c>
       <c r="G96">
-        <f>'By Round'!G87</f>
+        <f>'By Round'!G86</f>
         <v/>
       </c>
       <c r="H96">
-        <f>'By Round'!H87</f>
+        <f>'By Round'!H86</f>
         <v/>
       </c>
       <c r="I96">
-        <f>'By Round'!I87</f>
+        <f>'By Round'!I86</f>
         <v/>
       </c>
       <c r="J96">
-        <f>'By Round'!J87</f>
+        <f>'By Round'!J86</f>
         <v/>
       </c>
       <c r="K96">
-        <f>'By Round'!K87</f>
+        <f>'By Round'!K86</f>
         <v/>
       </c>
       <c r="L96" s="11">
@@ -10428,23 +10428,23 @@
         </is>
       </c>
       <c r="G97">
-        <f>'By Round'!G121</f>
+        <f>'By Round'!G120</f>
         <v/>
       </c>
       <c r="H97">
-        <f>'By Round'!H121</f>
+        <f>'By Round'!H120</f>
         <v/>
       </c>
       <c r="I97">
-        <f>'By Round'!I121</f>
+        <f>'By Round'!I120</f>
         <v/>
       </c>
       <c r="J97">
-        <f>'By Round'!J121</f>
+        <f>'By Round'!J120</f>
         <v/>
       </c>
       <c r="K97">
-        <f>'By Round'!K121</f>
+        <f>'By Round'!K120</f>
         <v/>
       </c>
       <c r="L97" s="11">
@@ -10527,23 +10527,23 @@
         </is>
       </c>
       <c r="G98">
-        <f>'By Round'!G131</f>
+        <f>'By Round'!G130</f>
         <v/>
       </c>
       <c r="H98">
-        <f>'By Round'!H131</f>
+        <f>'By Round'!H130</f>
         <v/>
       </c>
       <c r="I98">
-        <f>'By Round'!I131</f>
+        <f>'By Round'!I130</f>
         <v/>
       </c>
       <c r="J98">
-        <f>'By Round'!J131</f>
+        <f>'By Round'!J130</f>
         <v/>
       </c>
       <c r="K98">
-        <f>'By Round'!K131</f>
+        <f>'By Round'!K130</f>
         <v/>
       </c>
       <c r="L98" s="11">
@@ -11226,23 +11226,23 @@
         </is>
       </c>
       <c r="G105">
-        <f>'By Round'!G11</f>
+        <f>'By Round'!G10</f>
         <v/>
       </c>
       <c r="H105">
-        <f>'By Round'!H11</f>
+        <f>'By Round'!H10</f>
         <v/>
       </c>
       <c r="I105">
-        <f>'By Round'!I11</f>
+        <f>'By Round'!I10</f>
         <v/>
       </c>
       <c r="J105">
-        <f>'By Round'!J11</f>
+        <f>'By Round'!J10</f>
         <v/>
       </c>
       <c r="K105">
-        <f>'By Round'!K11</f>
+        <f>'By Round'!K10</f>
         <v/>
       </c>
       <c r="L105" s="11">
@@ -11325,23 +11325,23 @@
         </is>
       </c>
       <c r="G106">
-        <f>'By Round'!G21</f>
+        <f>'By Round'!G20</f>
         <v/>
       </c>
       <c r="H106">
-        <f>'By Round'!H21</f>
+        <f>'By Round'!H20</f>
         <v/>
       </c>
       <c r="I106">
-        <f>'By Round'!I21</f>
+        <f>'By Round'!I20</f>
         <v/>
       </c>
       <c r="J106">
-        <f>'By Round'!J21</f>
+        <f>'By Round'!J20</f>
         <v/>
       </c>
       <c r="K106">
-        <f>'By Round'!K21</f>
+        <f>'By Round'!K20</f>
         <v/>
       </c>
       <c r="L106" s="11">
@@ -11424,23 +11424,23 @@
         </is>
       </c>
       <c r="G107">
-        <f>'By Round'!G43</f>
+        <f>'By Round'!G42</f>
         <v/>
       </c>
       <c r="H107">
-        <f>'By Round'!H43</f>
+        <f>'By Round'!H42</f>
         <v/>
       </c>
       <c r="I107">
-        <f>'By Round'!I43</f>
+        <f>'By Round'!I42</f>
         <v/>
       </c>
       <c r="J107">
-        <f>'By Round'!J43</f>
+        <f>'By Round'!J42</f>
         <v/>
       </c>
       <c r="K107">
-        <f>'By Round'!K43</f>
+        <f>'By Round'!K42</f>
         <v/>
       </c>
       <c r="L107" s="11">
@@ -11523,23 +11523,23 @@
         </is>
       </c>
       <c r="G108">
-        <f>'By Round'!G53</f>
+        <f>'By Round'!G52</f>
         <v/>
       </c>
       <c r="H108">
-        <f>'By Round'!H53</f>
+        <f>'By Round'!H52</f>
         <v/>
       </c>
       <c r="I108">
-        <f>'By Round'!I53</f>
+        <f>'By Round'!I52</f>
         <v/>
       </c>
       <c r="J108">
-        <f>'By Round'!J53</f>
+        <f>'By Round'!J52</f>
         <v/>
       </c>
       <c r="K108">
-        <f>'By Round'!K53</f>
+        <f>'By Round'!K52</f>
         <v/>
       </c>
       <c r="L108" s="11">
@@ -11622,23 +11622,23 @@
         </is>
       </c>
       <c r="G109">
-        <f>'By Round'!G99</f>
+        <f>'By Round'!G98</f>
         <v/>
       </c>
       <c r="H109">
-        <f>'By Round'!H99</f>
+        <f>'By Round'!H98</f>
         <v/>
       </c>
       <c r="I109">
-        <f>'By Round'!I99</f>
+        <f>'By Round'!I98</f>
         <v/>
       </c>
       <c r="J109">
-        <f>'By Round'!J99</f>
+        <f>'By Round'!J98</f>
         <v/>
       </c>
       <c r="K109">
-        <f>'By Round'!K99</f>
+        <f>'By Round'!K98</f>
         <v/>
       </c>
       <c r="L109" s="11">
@@ -11721,23 +11721,23 @@
         </is>
       </c>
       <c r="G110">
-        <f>'By Round'!G133</f>
+        <f>'By Round'!G132</f>
         <v/>
       </c>
       <c r="H110">
-        <f>'By Round'!H133</f>
+        <f>'By Round'!H132</f>
         <v/>
       </c>
       <c r="I110">
-        <f>'By Round'!I133</f>
+        <f>'By Round'!I132</f>
         <v/>
       </c>
       <c r="J110">
-        <f>'By Round'!J133</f>
+        <f>'By Round'!J132</f>
         <v/>
       </c>
       <c r="K110">
-        <f>'By Round'!K133</f>
+        <f>'By Round'!K132</f>
         <v/>
       </c>
       <c r="L110" s="11">
@@ -12420,23 +12420,23 @@
         </is>
       </c>
       <c r="G117">
-        <f>'By Round'!G13</f>
+        <f>'By Round'!G12</f>
         <v/>
       </c>
       <c r="H117">
-        <f>'By Round'!H13</f>
+        <f>'By Round'!H12</f>
         <v/>
       </c>
       <c r="I117">
-        <f>'By Round'!I13</f>
+        <f>'By Round'!I12</f>
         <v/>
       </c>
       <c r="J117">
-        <f>'By Round'!J13</f>
+        <f>'By Round'!J12</f>
         <v/>
       </c>
       <c r="K117">
-        <f>'By Round'!K13</f>
+        <f>'By Round'!K12</f>
         <v/>
       </c>
       <c r="L117" s="11">
@@ -12519,23 +12519,23 @@
         </is>
       </c>
       <c r="G118">
-        <f>'By Round'!G23</f>
+        <f>'By Round'!G22</f>
         <v/>
       </c>
       <c r="H118">
-        <f>'By Round'!H23</f>
+        <f>'By Round'!H22</f>
         <v/>
       </c>
       <c r="I118">
-        <f>'By Round'!I23</f>
+        <f>'By Round'!I22</f>
         <v/>
       </c>
       <c r="J118">
-        <f>'By Round'!J23</f>
+        <f>'By Round'!J22</f>
         <v/>
       </c>
       <c r="K118">
-        <f>'By Round'!K23</f>
+        <f>'By Round'!K22</f>
         <v/>
       </c>
       <c r="L118" s="11">
@@ -12618,23 +12618,23 @@
         </is>
       </c>
       <c r="G119">
-        <f>'By Round'!G33</f>
+        <f>'By Round'!G32</f>
         <v/>
       </c>
       <c r="H119">
-        <f>'By Round'!H33</f>
+        <f>'By Round'!H32</f>
         <v/>
       </c>
       <c r="I119">
-        <f>'By Round'!I33</f>
+        <f>'By Round'!I32</f>
         <v/>
       </c>
       <c r="J119">
-        <f>'By Round'!J33</f>
+        <f>'By Round'!J32</f>
         <v/>
       </c>
       <c r="K119">
-        <f>'By Round'!K33</f>
+        <f>'By Round'!K32</f>
         <v/>
       </c>
       <c r="L119" s="11">
@@ -12717,23 +12717,23 @@
         </is>
       </c>
       <c r="G120">
-        <f>'By Round'!G55</f>
+        <f>'By Round'!G54</f>
         <v/>
       </c>
       <c r="H120">
-        <f>'By Round'!H55</f>
+        <f>'By Round'!H54</f>
         <v/>
       </c>
       <c r="I120">
-        <f>'By Round'!I55</f>
+        <f>'By Round'!I54</f>
         <v/>
       </c>
       <c r="J120">
-        <f>'By Round'!J55</f>
+        <f>'By Round'!J54</f>
         <v/>
       </c>
       <c r="K120">
-        <f>'By Round'!K55</f>
+        <f>'By Round'!K54</f>
         <v/>
       </c>
       <c r="L120" s="11">
@@ -12816,23 +12816,23 @@
         </is>
       </c>
       <c r="G121">
-        <f>'By Round'!G65</f>
+        <f>'By Round'!G64</f>
         <v/>
       </c>
       <c r="H121">
-        <f>'By Round'!H65</f>
+        <f>'By Round'!H64</f>
         <v/>
       </c>
       <c r="I121">
-        <f>'By Round'!I65</f>
+        <f>'By Round'!I64</f>
         <v/>
       </c>
       <c r="J121">
-        <f>'By Round'!J65</f>
+        <f>'By Round'!J64</f>
         <v/>
       </c>
       <c r="K121">
-        <f>'By Round'!K65</f>
+        <f>'By Round'!K64</f>
         <v/>
       </c>
       <c r="L121" s="11">
@@ -12915,23 +12915,23 @@
         </is>
       </c>
       <c r="G122">
-        <f>'By Round'!G111</f>
+        <f>'By Round'!G110</f>
         <v/>
       </c>
       <c r="H122">
-        <f>'By Round'!H111</f>
+        <f>'By Round'!H110</f>
         <v/>
       </c>
       <c r="I122">
-        <f>'By Round'!I111</f>
+        <f>'By Round'!I110</f>
         <v/>
       </c>
       <c r="J122">
-        <f>'By Round'!J111</f>
+        <f>'By Round'!J110</f>
         <v/>
       </c>
       <c r="K122">
-        <f>'By Round'!K111</f>
+        <f>'By Round'!K110</f>
         <v/>
       </c>
       <c r="L122" s="11">
@@ -13614,23 +13614,23 @@
         </is>
       </c>
       <c r="G129">
-        <f>'By Round'!G25</f>
+        <f>'By Round'!G24</f>
         <v/>
       </c>
       <c r="H129">
-        <f>'By Round'!H25</f>
+        <f>'By Round'!H24</f>
         <v/>
       </c>
       <c r="I129">
-        <f>'By Round'!I25</f>
+        <f>'By Round'!I24</f>
         <v/>
       </c>
       <c r="J129">
-        <f>'By Round'!J25</f>
+        <f>'By Round'!J24</f>
         <v/>
       </c>
       <c r="K129">
-        <f>'By Round'!K25</f>
+        <f>'By Round'!K24</f>
         <v/>
       </c>
       <c r="L129" s="11">
@@ -13713,23 +13713,23 @@
         </is>
       </c>
       <c r="G130">
-        <f>'By Round'!G35</f>
+        <f>'By Round'!G34</f>
         <v/>
       </c>
       <c r="H130">
-        <f>'By Round'!H35</f>
+        <f>'By Round'!H34</f>
         <v/>
       </c>
       <c r="I130">
-        <f>'By Round'!I35</f>
+        <f>'By Round'!I34</f>
         <v/>
       </c>
       <c r="J130">
-        <f>'By Round'!J35</f>
+        <f>'By Round'!J34</f>
         <v/>
       </c>
       <c r="K130">
-        <f>'By Round'!K35</f>
+        <f>'By Round'!K34</f>
         <v/>
       </c>
       <c r="L130" s="11">
@@ -13812,23 +13812,23 @@
         </is>
       </c>
       <c r="G131">
-        <f>'By Round'!G45</f>
+        <f>'By Round'!G44</f>
         <v/>
       </c>
       <c r="H131">
-        <f>'By Round'!H45</f>
+        <f>'By Round'!H44</f>
         <v/>
       </c>
       <c r="I131">
-        <f>'By Round'!I45</f>
+        <f>'By Round'!I44</f>
         <v/>
       </c>
       <c r="J131">
-        <f>'By Round'!J45</f>
+        <f>'By Round'!J44</f>
         <v/>
       </c>
       <c r="K131">
-        <f>'By Round'!K45</f>
+        <f>'By Round'!K44</f>
         <v/>
       </c>
       <c r="L131" s="11">
@@ -13911,23 +13911,23 @@
         </is>
       </c>
       <c r="G132">
-        <f>'By Round'!G67</f>
+        <f>'By Round'!G66</f>
         <v/>
       </c>
       <c r="H132">
-        <f>'By Round'!H67</f>
+        <f>'By Round'!H66</f>
         <v/>
       </c>
       <c r="I132">
-        <f>'By Round'!I67</f>
+        <f>'By Round'!I66</f>
         <v/>
       </c>
       <c r="J132">
-        <f>'By Round'!J67</f>
+        <f>'By Round'!J66</f>
         <v/>
       </c>
       <c r="K132">
-        <f>'By Round'!K67</f>
+        <f>'By Round'!K66</f>
         <v/>
       </c>
       <c r="L132" s="11">
@@ -14010,23 +14010,23 @@
         </is>
       </c>
       <c r="G133">
-        <f>'By Round'!G77</f>
+        <f>'By Round'!G76</f>
         <v/>
       </c>
       <c r="H133">
-        <f>'By Round'!H77</f>
+        <f>'By Round'!H76</f>
         <v/>
       </c>
       <c r="I133">
-        <f>'By Round'!I77</f>
+        <f>'By Round'!I76</f>
         <v/>
       </c>
       <c r="J133">
-        <f>'By Round'!J77</f>
+        <f>'By Round'!J76</f>
         <v/>
       </c>
       <c r="K133">
-        <f>'By Round'!K77</f>
+        <f>'By Round'!K76</f>
         <v/>
       </c>
       <c r="L133" s="11">
@@ -14109,23 +14109,23 @@
         </is>
       </c>
       <c r="G134">
-        <f>'By Round'!G123</f>
+        <f>'By Round'!G122</f>
         <v/>
       </c>
       <c r="H134">
-        <f>'By Round'!H123</f>
+        <f>'By Round'!H122</f>
         <v/>
       </c>
       <c r="I134">
-        <f>'By Round'!I123</f>
+        <f>'By Round'!I122</f>
         <v/>
       </c>
       <c r="J134">
-        <f>'By Round'!J123</f>
+        <f>'By Round'!J122</f>
         <v/>
       </c>
       <c r="K134">
-        <f>'By Round'!K123</f>
+        <f>'By Round'!K122</f>
         <v/>
       </c>
       <c r="L134" s="11">
@@ -17084,6 +17084,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="C1" s="3" t="inlineStr">

--- a/howell11.xlsx
+++ b/howell11.xlsx
@@ -535,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>For public domain. No rights reserved. Generated on Feb 01, 2026.</t>
+          <t>For public domain. No rights reserved. Generated on Feb 02, 2026.</t>
         </is>
       </c>
     </row>
@@ -652,12 +652,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Name 25</t>
+          <t>Name 47</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Name 87</t>
+          <t>Name 48</t>
         </is>
       </c>
       <c r="D2" s="4">
@@ -675,12 +675,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Name 63</t>
+          <t>Name 29</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Name 40</t>
+          <t>Name 19</t>
         </is>
       </c>
       <c r="D3" s="4">
@@ -698,12 +698,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Name 61</t>
+          <t>Name 88</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Name 86</t>
+          <t>Name 41</t>
         </is>
       </c>
       <c r="D4" s="4">
@@ -721,12 +721,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Name 37</t>
+          <t>Name 68</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Name 59</t>
+          <t>Name 23</t>
         </is>
       </c>
       <c r="D5" s="4">
@@ -744,12 +744,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Name 70</t>
+          <t>Name 43</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Name 77</t>
+          <t>Name 73</t>
         </is>
       </c>
       <c r="D6" s="4">
@@ -767,12 +767,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Name 69</t>
+          <t>Name 23</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Name 75</t>
+          <t>Name 45</t>
         </is>
       </c>
       <c r="D7" s="4">
@@ -790,12 +790,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Name 30</t>
+          <t>Name 81</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Name 17</t>
+          <t>Name 89</t>
         </is>
       </c>
       <c r="D8" s="4">
@@ -813,12 +813,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Name 46</t>
+          <t>Name 26</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Name 46</t>
+          <t>Name 71</t>
         </is>
       </c>
       <c r="D9" s="4">
@@ -836,12 +836,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Name 39</t>
+          <t>Name 88</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Name 18</t>
+          <t>Name 20</t>
         </is>
       </c>
       <c r="D10" s="4">
@@ -859,12 +859,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Name 21</t>
+          <t>Name 60</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Name 39</t>
+          <t>Name 83</t>
         </is>
       </c>
       <c r="D11" s="4">
@@ -882,12 +882,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Name 35</t>
+          <t>Name 19</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Name 48</t>
+          <t>Name 76</t>
         </is>
       </c>
       <c r="D12" s="4">

--- a/howell11.xlsx
+++ b/howell11.xlsx
@@ -7,13 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Tournament" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Roster" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="By Board" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="By Round" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Traveler Template" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="IMP Table" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Scoring Table" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Roster" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="By Board" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="By Round" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="IMP Table" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Scoring Table" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -23,12 +21,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="#0.00"/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="#0.00"/>
     <numFmt numFmtId="166" formatCode="#0.0"/>
     <numFmt numFmtId="167" formatCode="#0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -54,10 +52,6 @@
       <i val="1"/>
       <color rgb="00FF0000"/>
     </font>
-    <font>
-      <b val="1"/>
-      <sz val="22"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -67,7 +61,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -99,35 +93,21 @@
         <color rgb="00000000"/>
       </bottom>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="00000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="00000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="00000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="00000000"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -148,13 +128,8 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -521,93 +496,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="30" customWidth="1" min="1" max="1"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>For public domain. No rights reserved. Generated on Feb 02, 2026.</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Howell Arrangement (IMP &amp; MP)</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>Pairs</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>Tables</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>Rounds</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>Boards per round</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>Total Boards to play</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -620,424 +509,485 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>Pair #</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>Player 1</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>Player 2</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>For public domain. No rights reserved. Generated on Feb 04, 2026.</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Howell Tournament</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Pairs</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>Tables</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>Rounds</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>Boards per round</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>Total Boards to play</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>Pairs</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
         <is>
           <t>IMP</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Name 59</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Name 11</t>
+        </is>
+      </c>
+      <c r="D10" s="4">
+        <f>SUMIF('By Board'!$D$3:$D$122,"=1",'By Board'!$N$3:$N$122)/20+SUMIF('By Board'!$E$3:$E$122,"=1",'By Board'!$O$3:$O$122)/20</f>
+        <v/>
+      </c>
+      <c r="E10" s="5">
+        <f>SUMIF('By Board'!$D$3:$D$122,"=1",'By Board'!$L$3:$L$122)+SUMIF('By Board'!$E$3:$E$122,"=1",'By Board'!$M$3:$M$122)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Name 28</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Name 37</t>
+        </is>
+      </c>
+      <c r="D11" s="4">
+        <f>SUMIF('By Board'!$D$3:$D$122,"=2",'By Board'!$N$3:$N$122)/20+SUMIF('By Board'!$E$3:$E$122,"=2",'By Board'!$O$3:$O$122)/20</f>
+        <v/>
+      </c>
+      <c r="E11" s="5">
+        <f>SUMIF('By Board'!$D$3:$D$122,"=2",'By Board'!$L$3:$L$122)+SUMIF('By Board'!$E$3:$E$122,"=2",'By Board'!$M$3:$M$122)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Name 55</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Name 88</t>
+        </is>
+      </c>
+      <c r="D12" s="4">
+        <f>SUMIF('By Board'!$D$3:$D$122,"=3",'By Board'!$N$3:$N$122)/20+SUMIF('By Board'!$E$3:$E$122,"=3",'By Board'!$O$3:$O$122)/20</f>
+        <v/>
+      </c>
+      <c r="E12" s="5">
+        <f>SUMIF('By Board'!$D$3:$D$122,"=3",'By Board'!$L$3:$L$122)+SUMIF('By Board'!$E$3:$E$122,"=3",'By Board'!$M$3:$M$122)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Name 30</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Name 30</t>
+        </is>
+      </c>
+      <c r="D13" s="4">
+        <f>SUMIF('By Board'!$D$3:$D$122,"=4",'By Board'!$N$3:$N$122)/20+SUMIF('By Board'!$E$3:$E$122,"=4",'By Board'!$O$3:$O$122)/20</f>
+        <v/>
+      </c>
+      <c r="E13" s="5">
+        <f>SUMIF('By Board'!$D$3:$D$122,"=4",'By Board'!$L$3:$L$122)+SUMIF('By Board'!$E$3:$E$122,"=4",'By Board'!$M$3:$M$122)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Name 86</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Name 71</t>
+        </is>
+      </c>
+      <c r="D14" s="4">
+        <f>SUMIF('By Board'!$D$3:$D$122,"=5",'By Board'!$N$3:$N$122)/20+SUMIF('By Board'!$E$3:$E$122,"=5",'By Board'!$O$3:$O$122)/20</f>
+        <v/>
+      </c>
+      <c r="E14" s="5">
+        <f>SUMIF('By Board'!$D$3:$D$122,"=5",'By Board'!$L$3:$L$122)+SUMIF('By Board'!$E$3:$E$122,"=5",'By Board'!$M$3:$M$122)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Name 37</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Name 53</t>
+        </is>
+      </c>
+      <c r="D15" s="4">
+        <f>SUMIF('By Board'!$D$3:$D$122,"=6",'By Board'!$N$3:$N$122)/20+SUMIF('By Board'!$E$3:$E$122,"=6",'By Board'!$O$3:$O$122)/20</f>
+        <v/>
+      </c>
+      <c r="E15" s="5">
+        <f>SUMIF('By Board'!$D$3:$D$122,"=6",'By Board'!$L$3:$L$122)+SUMIF('By Board'!$E$3:$E$122,"=6",'By Board'!$M$3:$M$122)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>Name 47</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Name 48</t>
-        </is>
-      </c>
-      <c r="D2" s="4">
-        <f>SUMIF('By Board'!$D$3:$D$122,"=1",'By Board'!$L$3:$L$122)+SUMIF('By Board'!$E$3:$E$122,"=1",'By Board'!$M$3:$M$122)</f>
-        <v/>
-      </c>
-      <c r="E2" s="5">
-        <f>SUMIF('By Board'!$D$3:$D$122,"=1",'By Board'!$N$3:$N$122)/20+SUMIF('By Board'!$E$3:$E$122,"=1",'By Board'!$O$3:$O$122)/20</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Name 29</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Name 19</t>
-        </is>
-      </c>
-      <c r="D3" s="4">
-        <f>SUMIF('By Board'!$D$3:$D$122,"=2",'By Board'!$L$3:$L$122)+SUMIF('By Board'!$E$3:$E$122,"=2",'By Board'!$M$3:$M$122)</f>
-        <v/>
-      </c>
-      <c r="E3" s="5">
-        <f>SUMIF('By Board'!$D$3:$D$122,"=2",'By Board'!$N$3:$N$122)/20+SUMIF('By Board'!$E$3:$E$122,"=2",'By Board'!$O$3:$O$122)/20</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Name 88</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Name 41</t>
-        </is>
-      </c>
-      <c r="D4" s="4">
-        <f>SUMIF('By Board'!$D$3:$D$122,"=3",'By Board'!$L$3:$L$122)+SUMIF('By Board'!$E$3:$E$122,"=3",'By Board'!$M$3:$M$122)</f>
-        <v/>
-      </c>
-      <c r="E4" s="5">
-        <f>SUMIF('By Board'!$D$3:$D$122,"=3",'By Board'!$N$3:$N$122)/20+SUMIF('By Board'!$E$3:$E$122,"=3",'By Board'!$O$3:$O$122)/20</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Name 68</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Name 23</t>
-        </is>
-      </c>
-      <c r="D5" s="4">
-        <f>SUMIF('By Board'!$D$3:$D$122,"=4",'By Board'!$L$3:$L$122)+SUMIF('By Board'!$E$3:$E$122,"=4",'By Board'!$M$3:$M$122)</f>
-        <v/>
-      </c>
-      <c r="E5" s="5">
-        <f>SUMIF('By Board'!$D$3:$D$122,"=4",'By Board'!$N$3:$N$122)/20+SUMIF('By Board'!$E$3:$E$122,"=4",'By Board'!$O$3:$O$122)/20</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Name 43</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Name 73</t>
-        </is>
-      </c>
-      <c r="D6" s="4">
-        <f>SUMIF('By Board'!$D$3:$D$122,"=5",'By Board'!$L$3:$L$122)+SUMIF('By Board'!$E$3:$E$122,"=5",'By Board'!$M$3:$M$122)</f>
-        <v/>
-      </c>
-      <c r="E6" s="5">
-        <f>SUMIF('By Board'!$D$3:$D$122,"=5",'By Board'!$N$3:$N$122)/20+SUMIF('By Board'!$E$3:$E$122,"=5",'By Board'!$O$3:$O$122)/20</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Name 23</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Name 45</t>
-        </is>
-      </c>
-      <c r="D7" s="4">
-        <f>SUMIF('By Board'!$D$3:$D$122,"=6",'By Board'!$L$3:$L$122)+SUMIF('By Board'!$E$3:$E$122,"=6",'By Board'!$M$3:$M$122)</f>
-        <v/>
-      </c>
-      <c r="E7" s="5">
-        <f>SUMIF('By Board'!$D$3:$D$122,"=6",'By Board'!$N$3:$N$122)/20+SUMIF('By Board'!$E$3:$E$122,"=6",'By Board'!$O$3:$O$122)/20</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Name 81</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Name 89</t>
-        </is>
-      </c>
-      <c r="D8" s="4">
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Name 31</t>
+        </is>
+      </c>
+      <c r="D16" s="4">
+        <f>SUMIF('By Board'!$D$3:$D$122,"=7",'By Board'!$N$3:$N$122)/20+SUMIF('By Board'!$E$3:$E$122,"=7",'By Board'!$O$3:$O$122)/20</f>
+        <v/>
+      </c>
+      <c r="E16" s="5">
         <f>SUMIF('By Board'!$D$3:$D$122,"=7",'By Board'!$L$3:$L$122)+SUMIF('By Board'!$E$3:$E$122,"=7",'By Board'!$M$3:$M$122)</f>
         <v/>
       </c>
-      <c r="E8" s="5">
-        <f>SUMIF('By Board'!$D$3:$D$122,"=7",'By Board'!$N$3:$N$122)/20+SUMIF('By Board'!$E$3:$E$122,"=7",'By Board'!$O$3:$O$122)/20</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Name 26</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Name 71</t>
-        </is>
-      </c>
-      <c r="D9" s="4">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Name 11</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Name 20</t>
+        </is>
+      </c>
+      <c r="D17" s="4">
+        <f>SUMIF('By Board'!$D$3:$D$122,"=8",'By Board'!$N$3:$N$122)/20+SUMIF('By Board'!$E$3:$E$122,"=8",'By Board'!$O$3:$O$122)/20</f>
+        <v/>
+      </c>
+      <c r="E17" s="5">
         <f>SUMIF('By Board'!$D$3:$D$122,"=8",'By Board'!$L$3:$L$122)+SUMIF('By Board'!$E$3:$E$122,"=8",'By Board'!$M$3:$M$122)</f>
         <v/>
       </c>
-      <c r="E9" s="5">
-        <f>SUMIF('By Board'!$D$3:$D$122,"=8",'By Board'!$N$3:$N$122)/20+SUMIF('By Board'!$E$3:$E$122,"=8",'By Board'!$O$3:$O$122)/20</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Name 88</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Name 20</t>
-        </is>
-      </c>
-      <c r="D10" s="4">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Name 70</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Name 52</t>
+        </is>
+      </c>
+      <c r="D18" s="4">
+        <f>SUMIF('By Board'!$D$3:$D$122,"=9",'By Board'!$N$3:$N$122)/20+SUMIF('By Board'!$E$3:$E$122,"=9",'By Board'!$O$3:$O$122)/20</f>
+        <v/>
+      </c>
+      <c r="E18" s="5">
         <f>SUMIF('By Board'!$D$3:$D$122,"=9",'By Board'!$L$3:$L$122)+SUMIF('By Board'!$E$3:$E$122,"=9",'By Board'!$M$3:$M$122)</f>
         <v/>
       </c>
-      <c r="E10" s="5">
-        <f>SUMIF('By Board'!$D$3:$D$122,"=9",'By Board'!$N$3:$N$122)/20+SUMIF('By Board'!$E$3:$E$122,"=9",'By Board'!$O$3:$O$122)/20</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Name 60</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Name 83</t>
-        </is>
-      </c>
-      <c r="D11" s="4">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Name 44</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Name 31</t>
+        </is>
+      </c>
+      <c r="D19" s="4">
+        <f>SUMIF('By Board'!$D$3:$D$122,"=10",'By Board'!$N$3:$N$122)/20+SUMIF('By Board'!$E$3:$E$122,"=10",'By Board'!$O$3:$O$122)/20</f>
+        <v/>
+      </c>
+      <c r="E19" s="5">
         <f>SUMIF('By Board'!$D$3:$D$122,"=10",'By Board'!$L$3:$L$122)+SUMIF('By Board'!$E$3:$E$122,"=10",'By Board'!$M$3:$M$122)</f>
         <v/>
       </c>
-      <c r="E11" s="5">
-        <f>SUMIF('By Board'!$D$3:$D$122,"=10",'By Board'!$N$3:$N$122)/20+SUMIF('By Board'!$E$3:$E$122,"=10",'By Board'!$O$3:$O$122)/20</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Name 19</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Name 76</t>
-        </is>
-      </c>
-      <c r="D12" s="4">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Name 31</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Name 79</t>
+        </is>
+      </c>
+      <c r="D20" s="4">
+        <f>SUMIF('By Board'!$D$3:$D$122,"=11",'By Board'!$N$3:$N$122)/20+SUMIF('By Board'!$E$3:$E$122,"=11",'By Board'!$O$3:$O$122)/20</f>
+        <v/>
+      </c>
+      <c r="E20" s="5">
         <f>SUMIF('By Board'!$D$3:$D$122,"=11",'By Board'!$L$3:$L$122)+SUMIF('By Board'!$E$3:$E$122,"=11",'By Board'!$M$3:$M$122)</f>
         <v/>
       </c>
-      <c r="E12" s="5">
-        <f>SUMIF('By Board'!$D$3:$D$122,"=11",'By Board'!$N$3:$N$122)/20+SUMIF('By Board'!$E$3:$E$122,"=11",'By Board'!$O$3:$O$122)/20</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13">
-      <c r="D13" s="6">
-        <f>SUM(D2:D12)</f>
-        <v/>
-      </c>
-      <c r="E13" s="7">
-        <f>AVERAGE(E2:E12)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Array Formula below, remove single quote</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="inlineStr">
+    </row>
+    <row r="21">
+      <c r="D21" s="6">
+        <f>AVERAGE(D10:D20)</f>
+        <v/>
+      </c>
+      <c r="E21" s="7">
+        <f>SUM(E10:E20)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>To sort, remove single quote below</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
         <is>
           <t>IMP Ranking</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>'=SORT(A2:E12,4,-1)</t>
-        </is>
-      </c>
-      <c r="D17" s="4" t="n"/>
-      <c r="E17" s="8" t="n"/>
-    </row>
-    <row r="18">
-      <c r="D18" s="4" t="n"/>
-      <c r="E18" s="8" t="n"/>
-    </row>
-    <row r="19">
-      <c r="D19" s="4" t="n"/>
-      <c r="E19" s="8" t="n"/>
-    </row>
-    <row r="20">
-      <c r="D20" s="4" t="n"/>
-      <c r="E20" s="8" t="n"/>
-    </row>
-    <row r="21">
-      <c r="D21" s="4" t="n"/>
-      <c r="E21" s="8" t="n"/>
-    </row>
-    <row r="22">
-      <c r="D22" s="4" t="n"/>
-      <c r="E22" s="8" t="n"/>
-    </row>
-    <row r="23">
-      <c r="D23" s="4" t="n"/>
-      <c r="E23" s="8" t="n"/>
-    </row>
-    <row r="24">
-      <c r="D24" s="4" t="n"/>
-      <c r="E24" s="8" t="n"/>
-    </row>
     <row r="25">
-      <c r="D25" s="4" t="n"/>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>'=SORT(A10:E20,4,-1)</t>
+        </is>
+      </c>
+      <c r="D25" s="5" t="n"/>
       <c r="E25" s="8" t="n"/>
     </row>
     <row r="26">
-      <c r="D26" s="4" t="n"/>
+      <c r="D26" s="5" t="n"/>
       <c r="E26" s="8" t="n"/>
     </row>
     <row r="27">
-      <c r="D27" s="4" t="n"/>
+      <c r="D27" s="5" t="n"/>
       <c r="E27" s="8" t="n"/>
     </row>
+    <row r="28">
+      <c r="D28" s="5" t="n"/>
+      <c r="E28" s="8" t="n"/>
+    </row>
+    <row r="29">
+      <c r="D29" s="5" t="n"/>
+      <c r="E29" s="8" t="n"/>
+    </row>
+    <row r="30">
+      <c r="D30" s="5" t="n"/>
+      <c r="E30" s="8" t="n"/>
+    </row>
+    <row r="31">
+      <c r="D31" s="5" t="n"/>
+      <c r="E31" s="8" t="n"/>
+    </row>
     <row r="32">
-      <c r="A32" s="3" t="inlineStr">
+      <c r="D32" s="5" t="n"/>
+      <c r="E32" s="8" t="n"/>
+    </row>
+    <row r="33">
+      <c r="D33" s="5" t="n"/>
+      <c r="E33" s="8" t="n"/>
+    </row>
+    <row r="34">
+      <c r="D34" s="5" t="n"/>
+      <c r="E34" s="8" t="n"/>
+    </row>
+    <row r="35">
+      <c r="D35" s="5" t="n"/>
+      <c r="E35" s="8" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="inlineStr">
         <is>
           <t>MP Ranking</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>'=SORT(A2:E12,5,-1)</t>
-        </is>
-      </c>
-      <c r="D33" s="4" t="n"/>
-      <c r="E33" s="8" t="n"/>
-    </row>
-    <row r="34">
-      <c r="D34" s="4" t="n"/>
-      <c r="E34" s="8" t="n"/>
-    </row>
-    <row r="35">
-      <c r="D35" s="4" t="n"/>
-      <c r="E35" s="8" t="n"/>
-    </row>
-    <row r="36">
-      <c r="D36" s="4" t="n"/>
-      <c r="E36" s="8" t="n"/>
-    </row>
-    <row r="37">
-      <c r="D37" s="4" t="n"/>
-      <c r="E37" s="8" t="n"/>
-    </row>
-    <row r="38">
-      <c r="D38" s="4" t="n"/>
-      <c r="E38" s="8" t="n"/>
-    </row>
-    <row r="39">
-      <c r="D39" s="4" t="n"/>
-      <c r="E39" s="8" t="n"/>
-    </row>
-    <row r="40">
-      <c r="D40" s="4" t="n"/>
-      <c r="E40" s="8" t="n"/>
-    </row>
     <row r="41">
-      <c r="D41" s="4" t="n"/>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>'=SORT(A10:E20,5,-1)</t>
+        </is>
+      </c>
+      <c r="D41" s="5" t="n"/>
       <c r="E41" s="8" t="n"/>
     </row>
     <row r="42">
-      <c r="D42" s="4" t="n"/>
+      <c r="D42" s="5" t="n"/>
       <c r="E42" s="8" t="n"/>
     </row>
     <row r="43">
-      <c r="D43" s="4" t="n"/>
+      <c r="D43" s="5" t="n"/>
       <c r="E43" s="8" t="n"/>
     </row>
+    <row r="44">
+      <c r="D44" s="5" t="n"/>
+      <c r="E44" s="8" t="n"/>
+    </row>
+    <row r="45">
+      <c r="D45" s="5" t="n"/>
+      <c r="E45" s="8" t="n"/>
+    </row>
+    <row r="46">
+      <c r="D46" s="5" t="n"/>
+      <c r="E46" s="8" t="n"/>
+    </row>
+    <row r="47">
+      <c r="D47" s="5" t="n"/>
+      <c r="E47" s="8" t="n"/>
+    </row>
+    <row r="48">
+      <c r="D48" s="5" t="n"/>
+      <c r="E48" s="8" t="n"/>
+    </row>
+    <row r="49">
+      <c r="D49" s="5" t="n"/>
+      <c r="E49" s="8" t="n"/>
+    </row>
+    <row r="50">
+      <c r="D50" s="5" t="n"/>
+      <c r="E50" s="8" t="n"/>
+    </row>
+    <row r="51">
+      <c r="D51" s="5" t="n"/>
+      <c r="E51" s="8" t="n"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A32:E32"/>
+  <mergeCells count="9">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1092,57 +1042,57 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>Board</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>Round</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>Table</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>Vul</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t>Contract</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>By</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="I2" s="2" t="inlineStr">
         <is>
           <t>Result</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="J2" s="2" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="K2" s="2" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
@@ -1152,27 +1102,27 @@
           <t>NS</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="M2" s="2" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="N2" s="2" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="O2" s="2" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="P2" s="2" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="Q2" s="2" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
@@ -1182,7 +1132,7 @@
           <t>NS</t>
         </is>
       </c>
-      <c r="S2" s="3" t="inlineStr">
+      <c r="S2" s="2" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
@@ -1192,7 +1142,7 @@
           <t>NS MP Scores</t>
         </is>
       </c>
-      <c r="Y2" s="3" t="inlineStr">
+      <c r="Y2" s="2" t="inlineStr">
         <is>
           <t>EW MP Scores</t>
         </is>
@@ -1202,7 +1152,7 @@
           <t>NS IMP Pair-wise</t>
         </is>
       </c>
-      <c r="AI2" s="3" t="inlineStr">
+      <c r="AI2" s="2" t="inlineStr">
         <is>
           <t>EW IMP Pair-wise</t>
         </is>
@@ -1269,11 +1219,11 @@
         <f>IF(COUNT(Y3:AC3)&gt;0,Q3/COUNT(Y3:AC3),0.5)</f>
         <v/>
       </c>
-      <c r="P3" s="4">
+      <c r="P3" s="5">
         <f>SUM(T3:X3)</f>
         <v/>
       </c>
-      <c r="Q3" s="4">
+      <c r="Q3" s="5">
         <f>SUM(Y3:AC3)</f>
         <v/>
       </c>
@@ -1424,11 +1374,11 @@
         <f>IF(COUNT(Y4:AC4)&gt;0,Q4/COUNT(Y4:AC4),0.5)</f>
         <v/>
       </c>
-      <c r="P4" s="4">
+      <c r="P4" s="5">
         <f>SUM(T4:X4)</f>
         <v/>
       </c>
-      <c r="Q4" s="4">
+      <c r="Q4" s="5">
         <f>SUM(Y4:AC4)</f>
         <v/>
       </c>
@@ -1579,11 +1529,11 @@
         <f>IF(COUNT(Y5:AC5)&gt;0,Q5/COUNT(Y5:AC5),0.5)</f>
         <v/>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="5">
         <f>SUM(T5:X5)</f>
         <v/>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q5" s="5">
         <f>SUM(Y5:AC5)</f>
         <v/>
       </c>
@@ -1734,11 +1684,11 @@
         <f>IF(COUNT(Y6:AC6)&gt;0,Q6/COUNT(Y6:AC6),0.5)</f>
         <v/>
       </c>
-      <c r="P6" s="4">
+      <c r="P6" s="5">
         <f>SUM(T6:X6)</f>
         <v/>
       </c>
-      <c r="Q6" s="4">
+      <c r="Q6" s="5">
         <f>SUM(Y6:AC6)</f>
         <v/>
       </c>
@@ -1889,11 +1839,11 @@
         <f>IF(COUNT(Y7:AC7)&gt;0,Q7/COUNT(Y7:AC7),0.5)</f>
         <v/>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="5">
         <f>SUM(T7:X7)</f>
         <v/>
       </c>
-      <c r="Q7" s="4">
+      <c r="Q7" s="5">
         <f>SUM(Y7:AC7)</f>
         <v/>
       </c>
@@ -2203,11 +2153,11 @@
         <f>IF(COUNT(Y9:AC9)&gt;0,Q9/COUNT(Y9:AC9),0.5)</f>
         <v/>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="5">
         <f>SUM(T9:X9)</f>
         <v/>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q9" s="5">
         <f>SUM(Y9:AC9)</f>
         <v/>
       </c>
@@ -2358,11 +2308,11 @@
         <f>IF(COUNT(Y10:AC10)&gt;0,Q10/COUNT(Y10:AC10),0.5)</f>
         <v/>
       </c>
-      <c r="P10" s="4">
+      <c r="P10" s="5">
         <f>SUM(T10:X10)</f>
         <v/>
       </c>
-      <c r="Q10" s="4">
+      <c r="Q10" s="5">
         <f>SUM(Y10:AC10)</f>
         <v/>
       </c>
@@ -2513,11 +2463,11 @@
         <f>IF(COUNT(Y11:AC11)&gt;0,Q11/COUNT(Y11:AC11),0.5)</f>
         <v/>
       </c>
-      <c r="P11" s="4">
+      <c r="P11" s="5">
         <f>SUM(T11:X11)</f>
         <v/>
       </c>
-      <c r="Q11" s="4">
+      <c r="Q11" s="5">
         <f>SUM(Y11:AC11)</f>
         <v/>
       </c>
@@ -2668,11 +2618,11 @@
         <f>IF(COUNT(Y12:AC12)&gt;0,Q12/COUNT(Y12:AC12),0.5)</f>
         <v/>
       </c>
-      <c r="P12" s="4">
+      <c r="P12" s="5">
         <f>SUM(T12:X12)</f>
         <v/>
       </c>
-      <c r="Q12" s="4">
+      <c r="Q12" s="5">
         <f>SUM(Y12:AC12)</f>
         <v/>
       </c>
@@ -2823,11 +2773,11 @@
         <f>IF(COUNT(Y13:AC13)&gt;0,Q13/COUNT(Y13:AC13),0.5)</f>
         <v/>
       </c>
-      <c r="P13" s="4">
+      <c r="P13" s="5">
         <f>SUM(T13:X13)</f>
         <v/>
       </c>
-      <c r="Q13" s="4">
+      <c r="Q13" s="5">
         <f>SUM(Y13:AC13)</f>
         <v/>
       </c>
@@ -3137,11 +3087,11 @@
         <f>IF(COUNT(Y15:AC15)&gt;0,Q15/COUNT(Y15:AC15),0.5)</f>
         <v/>
       </c>
-      <c r="P15" s="4">
+      <c r="P15" s="5">
         <f>SUM(T15:X15)</f>
         <v/>
       </c>
-      <c r="Q15" s="4">
+      <c r="Q15" s="5">
         <f>SUM(Y15:AC15)</f>
         <v/>
       </c>
@@ -3292,11 +3242,11 @@
         <f>IF(COUNT(Y16:AC16)&gt;0,Q16/COUNT(Y16:AC16),0.5)</f>
         <v/>
       </c>
-      <c r="P16" s="4">
+      <c r="P16" s="5">
         <f>SUM(T16:X16)</f>
         <v/>
       </c>
-      <c r="Q16" s="4">
+      <c r="Q16" s="5">
         <f>SUM(Y16:AC16)</f>
         <v/>
       </c>
@@ -3447,11 +3397,11 @@
         <f>IF(COUNT(Y17:AC17)&gt;0,Q17/COUNT(Y17:AC17),0.5)</f>
         <v/>
       </c>
-      <c r="P17" s="4">
+      <c r="P17" s="5">
         <f>SUM(T17:X17)</f>
         <v/>
       </c>
-      <c r="Q17" s="4">
+      <c r="Q17" s="5">
         <f>SUM(Y17:AC17)</f>
         <v/>
       </c>
@@ -3602,11 +3552,11 @@
         <f>IF(COUNT(Y18:AC18)&gt;0,Q18/COUNT(Y18:AC18),0.5)</f>
         <v/>
       </c>
-      <c r="P18" s="4">
+      <c r="P18" s="5">
         <f>SUM(T18:X18)</f>
         <v/>
       </c>
-      <c r="Q18" s="4">
+      <c r="Q18" s="5">
         <f>SUM(Y18:AC18)</f>
         <v/>
       </c>
@@ -3757,11 +3707,11 @@
         <f>IF(COUNT(Y19:AC19)&gt;0,Q19/COUNT(Y19:AC19),0.5)</f>
         <v/>
       </c>
-      <c r="P19" s="4">
+      <c r="P19" s="5">
         <f>SUM(T19:X19)</f>
         <v/>
       </c>
-      <c r="Q19" s="4">
+      <c r="Q19" s="5">
         <f>SUM(Y19:AC19)</f>
         <v/>
       </c>
@@ -4071,11 +4021,11 @@
         <f>IF(COUNT(Y21:AC21)&gt;0,Q21/COUNT(Y21:AC21),0.5)</f>
         <v/>
       </c>
-      <c r="P21" s="4">
+      <c r="P21" s="5">
         <f>SUM(T21:X21)</f>
         <v/>
       </c>
-      <c r="Q21" s="4">
+      <c r="Q21" s="5">
         <f>SUM(Y21:AC21)</f>
         <v/>
       </c>
@@ -4226,11 +4176,11 @@
         <f>IF(COUNT(Y22:AC22)&gt;0,Q22/COUNT(Y22:AC22),0.5)</f>
         <v/>
       </c>
-      <c r="P22" s="4">
+      <c r="P22" s="5">
         <f>SUM(T22:X22)</f>
         <v/>
       </c>
-      <c r="Q22" s="4">
+      <c r="Q22" s="5">
         <f>SUM(Y22:AC22)</f>
         <v/>
       </c>
@@ -4381,11 +4331,11 @@
         <f>IF(COUNT(Y23:AC23)&gt;0,Q23/COUNT(Y23:AC23),0.5)</f>
         <v/>
       </c>
-      <c r="P23" s="4">
+      <c r="P23" s="5">
         <f>SUM(T23:X23)</f>
         <v/>
       </c>
-      <c r="Q23" s="4">
+      <c r="Q23" s="5">
         <f>SUM(Y23:AC23)</f>
         <v/>
       </c>
@@ -4536,11 +4486,11 @@
         <f>IF(COUNT(Y24:AC24)&gt;0,Q24/COUNT(Y24:AC24),0.5)</f>
         <v/>
       </c>
-      <c r="P24" s="4">
+      <c r="P24" s="5">
         <f>SUM(T24:X24)</f>
         <v/>
       </c>
-      <c r="Q24" s="4">
+      <c r="Q24" s="5">
         <f>SUM(Y24:AC24)</f>
         <v/>
       </c>
@@ -4691,11 +4641,11 @@
         <f>IF(COUNT(Y25:AC25)&gt;0,Q25/COUNT(Y25:AC25),0.5)</f>
         <v/>
       </c>
-      <c r="P25" s="4">
+      <c r="P25" s="5">
         <f>SUM(T25:X25)</f>
         <v/>
       </c>
-      <c r="Q25" s="4">
+      <c r="Q25" s="5">
         <f>SUM(Y25:AC25)</f>
         <v/>
       </c>
@@ -5005,11 +4955,11 @@
         <f>IF(COUNT(Y27:AC27)&gt;0,Q27/COUNT(Y27:AC27),0.5)</f>
         <v/>
       </c>
-      <c r="P27" s="4">
+      <c r="P27" s="5">
         <f>SUM(T27:X27)</f>
         <v/>
       </c>
-      <c r="Q27" s="4">
+      <c r="Q27" s="5">
         <f>SUM(Y27:AC27)</f>
         <v/>
       </c>
@@ -5160,11 +5110,11 @@
         <f>IF(COUNT(Y28:AC28)&gt;0,Q28/COUNT(Y28:AC28),0.5)</f>
         <v/>
       </c>
-      <c r="P28" s="4">
+      <c r="P28" s="5">
         <f>SUM(T28:X28)</f>
         <v/>
       </c>
-      <c r="Q28" s="4">
+      <c r="Q28" s="5">
         <f>SUM(Y28:AC28)</f>
         <v/>
       </c>
@@ -5315,11 +5265,11 @@
         <f>IF(COUNT(Y29:AC29)&gt;0,Q29/COUNT(Y29:AC29),0.5)</f>
         <v/>
       </c>
-      <c r="P29" s="4">
+      <c r="P29" s="5">
         <f>SUM(T29:X29)</f>
         <v/>
       </c>
-      <c r="Q29" s="4">
+      <c r="Q29" s="5">
         <f>SUM(Y29:AC29)</f>
         <v/>
       </c>
@@ -5470,11 +5420,11 @@
         <f>IF(COUNT(Y30:AC30)&gt;0,Q30/COUNT(Y30:AC30),0.5)</f>
         <v/>
       </c>
-      <c r="P30" s="4">
+      <c r="P30" s="5">
         <f>SUM(T30:X30)</f>
         <v/>
       </c>
-      <c r="Q30" s="4">
+      <c r="Q30" s="5">
         <f>SUM(Y30:AC30)</f>
         <v/>
       </c>
@@ -5625,11 +5575,11 @@
         <f>IF(COUNT(Y31:AC31)&gt;0,Q31/COUNT(Y31:AC31),0.5)</f>
         <v/>
       </c>
-      <c r="P31" s="4">
+      <c r="P31" s="5">
         <f>SUM(T31:X31)</f>
         <v/>
       </c>
-      <c r="Q31" s="4">
+      <c r="Q31" s="5">
         <f>SUM(Y31:AC31)</f>
         <v/>
       </c>
@@ -5939,11 +5889,11 @@
         <f>IF(COUNT(Y33:AC33)&gt;0,Q33/COUNT(Y33:AC33),0.5)</f>
         <v/>
       </c>
-      <c r="P33" s="4">
+      <c r="P33" s="5">
         <f>SUM(T33:X33)</f>
         <v/>
       </c>
-      <c r="Q33" s="4">
+      <c r="Q33" s="5">
         <f>SUM(Y33:AC33)</f>
         <v/>
       </c>
@@ -6094,11 +6044,11 @@
         <f>IF(COUNT(Y34:AC34)&gt;0,Q34/COUNT(Y34:AC34),0.5)</f>
         <v/>
       </c>
-      <c r="P34" s="4">
+      <c r="P34" s="5">
         <f>SUM(T34:X34)</f>
         <v/>
       </c>
-      <c r="Q34" s="4">
+      <c r="Q34" s="5">
         <f>SUM(Y34:AC34)</f>
         <v/>
       </c>
@@ -6249,11 +6199,11 @@
         <f>IF(COUNT(Y35:AC35)&gt;0,Q35/COUNT(Y35:AC35),0.5)</f>
         <v/>
       </c>
-      <c r="P35" s="4">
+      <c r="P35" s="5">
         <f>SUM(T35:X35)</f>
         <v/>
       </c>
-      <c r="Q35" s="4">
+      <c r="Q35" s="5">
         <f>SUM(Y35:AC35)</f>
         <v/>
       </c>
@@ -6404,11 +6354,11 @@
         <f>IF(COUNT(Y36:AC36)&gt;0,Q36/COUNT(Y36:AC36),0.5)</f>
         <v/>
       </c>
-      <c r="P36" s="4">
+      <c r="P36" s="5">
         <f>SUM(T36:X36)</f>
         <v/>
       </c>
-      <c r="Q36" s="4">
+      <c r="Q36" s="5">
         <f>SUM(Y36:AC36)</f>
         <v/>
       </c>
@@ -6559,11 +6509,11 @@
         <f>IF(COUNT(Y37:AC37)&gt;0,Q37/COUNT(Y37:AC37),0.5)</f>
         <v/>
       </c>
-      <c r="P37" s="4">
+      <c r="P37" s="5">
         <f>SUM(T37:X37)</f>
         <v/>
       </c>
-      <c r="Q37" s="4">
+      <c r="Q37" s="5">
         <f>SUM(Y37:AC37)</f>
         <v/>
       </c>
@@ -6873,11 +6823,11 @@
         <f>IF(COUNT(Y39:AC39)&gt;0,Q39/COUNT(Y39:AC39),0.5)</f>
         <v/>
       </c>
-      <c r="P39" s="4">
+      <c r="P39" s="5">
         <f>SUM(T39:X39)</f>
         <v/>
       </c>
-      <c r="Q39" s="4">
+      <c r="Q39" s="5">
         <f>SUM(Y39:AC39)</f>
         <v/>
       </c>
@@ -7028,11 +6978,11 @@
         <f>IF(COUNT(Y40:AC40)&gt;0,Q40/COUNT(Y40:AC40),0.5)</f>
         <v/>
       </c>
-      <c r="P40" s="4">
+      <c r="P40" s="5">
         <f>SUM(T40:X40)</f>
         <v/>
       </c>
-      <c r="Q40" s="4">
+      <c r="Q40" s="5">
         <f>SUM(Y40:AC40)</f>
         <v/>
       </c>
@@ -7183,11 +7133,11 @@
         <f>IF(COUNT(Y41:AC41)&gt;0,Q41/COUNT(Y41:AC41),0.5)</f>
         <v/>
       </c>
-      <c r="P41" s="4">
+      <c r="P41" s="5">
         <f>SUM(T41:X41)</f>
         <v/>
       </c>
-      <c r="Q41" s="4">
+      <c r="Q41" s="5">
         <f>SUM(Y41:AC41)</f>
         <v/>
       </c>
@@ -7338,11 +7288,11 @@
         <f>IF(COUNT(Y42:AC42)&gt;0,Q42/COUNT(Y42:AC42),0.5)</f>
         <v/>
       </c>
-      <c r="P42" s="4">
+      <c r="P42" s="5">
         <f>SUM(T42:X42)</f>
         <v/>
       </c>
-      <c r="Q42" s="4">
+      <c r="Q42" s="5">
         <f>SUM(Y42:AC42)</f>
         <v/>
       </c>
@@ -7493,11 +7443,11 @@
         <f>IF(COUNT(Y43:AC43)&gt;0,Q43/COUNT(Y43:AC43),0.5)</f>
         <v/>
       </c>
-      <c r="P43" s="4">
+      <c r="P43" s="5">
         <f>SUM(T43:X43)</f>
         <v/>
       </c>
-      <c r="Q43" s="4">
+      <c r="Q43" s="5">
         <f>SUM(Y43:AC43)</f>
         <v/>
       </c>
@@ -7807,11 +7757,11 @@
         <f>IF(COUNT(Y45:AC45)&gt;0,Q45/COUNT(Y45:AC45),0.5)</f>
         <v/>
       </c>
-      <c r="P45" s="4">
+      <c r="P45" s="5">
         <f>SUM(T45:X45)</f>
         <v/>
       </c>
-      <c r="Q45" s="4">
+      <c r="Q45" s="5">
         <f>SUM(Y45:AC45)</f>
         <v/>
       </c>
@@ -7962,11 +7912,11 @@
         <f>IF(COUNT(Y46:AC46)&gt;0,Q46/COUNT(Y46:AC46),0.5)</f>
         <v/>
       </c>
-      <c r="P46" s="4">
+      <c r="P46" s="5">
         <f>SUM(T46:X46)</f>
         <v/>
       </c>
-      <c r="Q46" s="4">
+      <c r="Q46" s="5">
         <f>SUM(Y46:AC46)</f>
         <v/>
       </c>
@@ -8117,11 +8067,11 @@
         <f>IF(COUNT(Y47:AC47)&gt;0,Q47/COUNT(Y47:AC47),0.5)</f>
         <v/>
       </c>
-      <c r="P47" s="4">
+      <c r="P47" s="5">
         <f>SUM(T47:X47)</f>
         <v/>
       </c>
-      <c r="Q47" s="4">
+      <c r="Q47" s="5">
         <f>SUM(Y47:AC47)</f>
         <v/>
       </c>
@@ -8272,11 +8222,11 @@
         <f>IF(COUNT(Y48:AC48)&gt;0,Q48/COUNT(Y48:AC48),0.5)</f>
         <v/>
       </c>
-      <c r="P48" s="4">
+      <c r="P48" s="5">
         <f>SUM(T48:X48)</f>
         <v/>
       </c>
-      <c r="Q48" s="4">
+      <c r="Q48" s="5">
         <f>SUM(Y48:AC48)</f>
         <v/>
       </c>
@@ -8427,11 +8377,11 @@
         <f>IF(COUNT(Y49:AC49)&gt;0,Q49/COUNT(Y49:AC49),0.5)</f>
         <v/>
       </c>
-      <c r="P49" s="4">
+      <c r="P49" s="5">
         <f>SUM(T49:X49)</f>
         <v/>
       </c>
-      <c r="Q49" s="4">
+      <c r="Q49" s="5">
         <f>SUM(Y49:AC49)</f>
         <v/>
       </c>
@@ -8741,11 +8691,11 @@
         <f>IF(COUNT(Y51:AC51)&gt;0,Q51/COUNT(Y51:AC51),0.5)</f>
         <v/>
       </c>
-      <c r="P51" s="4">
+      <c r="P51" s="5">
         <f>SUM(T51:X51)</f>
         <v/>
       </c>
-      <c r="Q51" s="4">
+      <c r="Q51" s="5">
         <f>SUM(Y51:AC51)</f>
         <v/>
       </c>
@@ -8896,11 +8846,11 @@
         <f>IF(COUNT(Y52:AC52)&gt;0,Q52/COUNT(Y52:AC52),0.5)</f>
         <v/>
       </c>
-      <c r="P52" s="4">
+      <c r="P52" s="5">
         <f>SUM(T52:X52)</f>
         <v/>
       </c>
-      <c r="Q52" s="4">
+      <c r="Q52" s="5">
         <f>SUM(Y52:AC52)</f>
         <v/>
       </c>
@@ -9051,11 +9001,11 @@
         <f>IF(COUNT(Y53:AC53)&gt;0,Q53/COUNT(Y53:AC53),0.5)</f>
         <v/>
       </c>
-      <c r="P53" s="4">
+      <c r="P53" s="5">
         <f>SUM(T53:X53)</f>
         <v/>
       </c>
-      <c r="Q53" s="4">
+      <c r="Q53" s="5">
         <f>SUM(Y53:AC53)</f>
         <v/>
       </c>
@@ -9206,11 +9156,11 @@
         <f>IF(COUNT(Y54:AC54)&gt;0,Q54/COUNT(Y54:AC54),0.5)</f>
         <v/>
       </c>
-      <c r="P54" s="4">
+      <c r="P54" s="5">
         <f>SUM(T54:X54)</f>
         <v/>
       </c>
-      <c r="Q54" s="4">
+      <c r="Q54" s="5">
         <f>SUM(Y54:AC54)</f>
         <v/>
       </c>
@@ -9361,11 +9311,11 @@
         <f>IF(COUNT(Y55:AC55)&gt;0,Q55/COUNT(Y55:AC55),0.5)</f>
         <v/>
       </c>
-      <c r="P55" s="4">
+      <c r="P55" s="5">
         <f>SUM(T55:X55)</f>
         <v/>
       </c>
-      <c r="Q55" s="4">
+      <c r="Q55" s="5">
         <f>SUM(Y55:AC55)</f>
         <v/>
       </c>
@@ -9675,11 +9625,11 @@
         <f>IF(COUNT(Y57:AC57)&gt;0,Q57/COUNT(Y57:AC57),0.5)</f>
         <v/>
       </c>
-      <c r="P57" s="4">
+      <c r="P57" s="5">
         <f>SUM(T57:X57)</f>
         <v/>
       </c>
-      <c r="Q57" s="4">
+      <c r="Q57" s="5">
         <f>SUM(Y57:AC57)</f>
         <v/>
       </c>
@@ -9830,11 +9780,11 @@
         <f>IF(COUNT(Y58:AC58)&gt;0,Q58/COUNT(Y58:AC58),0.5)</f>
         <v/>
       </c>
-      <c r="P58" s="4">
+      <c r="P58" s="5">
         <f>SUM(T58:X58)</f>
         <v/>
       </c>
-      <c r="Q58" s="4">
+      <c r="Q58" s="5">
         <f>SUM(Y58:AC58)</f>
         <v/>
       </c>
@@ -9985,11 +9935,11 @@
         <f>IF(COUNT(Y59:AC59)&gt;0,Q59/COUNT(Y59:AC59),0.5)</f>
         <v/>
       </c>
-      <c r="P59" s="4">
+      <c r="P59" s="5">
         <f>SUM(T59:X59)</f>
         <v/>
       </c>
-      <c r="Q59" s="4">
+      <c r="Q59" s="5">
         <f>SUM(Y59:AC59)</f>
         <v/>
       </c>
@@ -10140,11 +10090,11 @@
         <f>IF(COUNT(Y60:AC60)&gt;0,Q60/COUNT(Y60:AC60),0.5)</f>
         <v/>
       </c>
-      <c r="P60" s="4">
+      <c r="P60" s="5">
         <f>SUM(T60:X60)</f>
         <v/>
       </c>
-      <c r="Q60" s="4">
+      <c r="Q60" s="5">
         <f>SUM(Y60:AC60)</f>
         <v/>
       </c>
@@ -10295,11 +10245,11 @@
         <f>IF(COUNT(Y61:AC61)&gt;0,Q61/COUNT(Y61:AC61),0.5)</f>
         <v/>
       </c>
-      <c r="P61" s="4">
+      <c r="P61" s="5">
         <f>SUM(T61:X61)</f>
         <v/>
       </c>
-      <c r="Q61" s="4">
+      <c r="Q61" s="5">
         <f>SUM(Y61:AC61)</f>
         <v/>
       </c>
@@ -10609,11 +10559,11 @@
         <f>IF(COUNT(Y63:AC63)&gt;0,Q63/COUNT(Y63:AC63),0.5)</f>
         <v/>
       </c>
-      <c r="P63" s="4">
+      <c r="P63" s="5">
         <f>SUM(T63:X63)</f>
         <v/>
       </c>
-      <c r="Q63" s="4">
+      <c r="Q63" s="5">
         <f>SUM(Y63:AC63)</f>
         <v/>
       </c>
@@ -10764,11 +10714,11 @@
         <f>IF(COUNT(Y64:AC64)&gt;0,Q64/COUNT(Y64:AC64),0.5)</f>
         <v/>
       </c>
-      <c r="P64" s="4">
+      <c r="P64" s="5">
         <f>SUM(T64:X64)</f>
         <v/>
       </c>
-      <c r="Q64" s="4">
+      <c r="Q64" s="5">
         <f>SUM(Y64:AC64)</f>
         <v/>
       </c>
@@ -10919,11 +10869,11 @@
         <f>IF(COUNT(Y65:AC65)&gt;0,Q65/COUNT(Y65:AC65),0.5)</f>
         <v/>
       </c>
-      <c r="P65" s="4">
+      <c r="P65" s="5">
         <f>SUM(T65:X65)</f>
         <v/>
       </c>
-      <c r="Q65" s="4">
+      <c r="Q65" s="5">
         <f>SUM(Y65:AC65)</f>
         <v/>
       </c>
@@ -11074,11 +11024,11 @@
         <f>IF(COUNT(Y66:AC66)&gt;0,Q66/COUNT(Y66:AC66),0.5)</f>
         <v/>
       </c>
-      <c r="P66" s="4">
+      <c r="P66" s="5">
         <f>SUM(T66:X66)</f>
         <v/>
       </c>
-      <c r="Q66" s="4">
+      <c r="Q66" s="5">
         <f>SUM(Y66:AC66)</f>
         <v/>
       </c>
@@ -11229,11 +11179,11 @@
         <f>IF(COUNT(Y67:AC67)&gt;0,Q67/COUNT(Y67:AC67),0.5)</f>
         <v/>
       </c>
-      <c r="P67" s="4">
+      <c r="P67" s="5">
         <f>SUM(T67:X67)</f>
         <v/>
       </c>
-      <c r="Q67" s="4">
+      <c r="Q67" s="5">
         <f>SUM(Y67:AC67)</f>
         <v/>
       </c>
@@ -11543,11 +11493,11 @@
         <f>IF(COUNT(Y69:AC69)&gt;0,Q69/COUNT(Y69:AC69),0.5)</f>
         <v/>
       </c>
-      <c r="P69" s="4">
+      <c r="P69" s="5">
         <f>SUM(T69:X69)</f>
         <v/>
       </c>
-      <c r="Q69" s="4">
+      <c r="Q69" s="5">
         <f>SUM(Y69:AC69)</f>
         <v/>
       </c>
@@ -11698,11 +11648,11 @@
         <f>IF(COUNT(Y70:AC70)&gt;0,Q70/COUNT(Y70:AC70),0.5)</f>
         <v/>
       </c>
-      <c r="P70" s="4">
+      <c r="P70" s="5">
         <f>SUM(T70:X70)</f>
         <v/>
       </c>
-      <c r="Q70" s="4">
+      <c r="Q70" s="5">
         <f>SUM(Y70:AC70)</f>
         <v/>
       </c>
@@ -11853,11 +11803,11 @@
         <f>IF(COUNT(Y71:AC71)&gt;0,Q71/COUNT(Y71:AC71),0.5)</f>
         <v/>
       </c>
-      <c r="P71" s="4">
+      <c r="P71" s="5">
         <f>SUM(T71:X71)</f>
         <v/>
       </c>
-      <c r="Q71" s="4">
+      <c r="Q71" s="5">
         <f>SUM(Y71:AC71)</f>
         <v/>
       </c>
@@ -12008,11 +11958,11 @@
         <f>IF(COUNT(Y72:AC72)&gt;0,Q72/COUNT(Y72:AC72),0.5)</f>
         <v/>
       </c>
-      <c r="P72" s="4">
+      <c r="P72" s="5">
         <f>SUM(T72:X72)</f>
         <v/>
       </c>
-      <c r="Q72" s="4">
+      <c r="Q72" s="5">
         <f>SUM(Y72:AC72)</f>
         <v/>
       </c>
@@ -12163,11 +12113,11 @@
         <f>IF(COUNT(Y73:AC73)&gt;0,Q73/COUNT(Y73:AC73),0.5)</f>
         <v/>
       </c>
-      <c r="P73" s="4">
+      <c r="P73" s="5">
         <f>SUM(T73:X73)</f>
         <v/>
       </c>
-      <c r="Q73" s="4">
+      <c r="Q73" s="5">
         <f>SUM(Y73:AC73)</f>
         <v/>
       </c>
@@ -12477,11 +12427,11 @@
         <f>IF(COUNT(Y75:AC75)&gt;0,Q75/COUNT(Y75:AC75),0.5)</f>
         <v/>
       </c>
-      <c r="P75" s="4">
+      <c r="P75" s="5">
         <f>SUM(T75:X75)</f>
         <v/>
       </c>
-      <c r="Q75" s="4">
+      <c r="Q75" s="5">
         <f>SUM(Y75:AC75)</f>
         <v/>
       </c>
@@ -12632,11 +12582,11 @@
         <f>IF(COUNT(Y76:AC76)&gt;0,Q76/COUNT(Y76:AC76),0.5)</f>
         <v/>
       </c>
-      <c r="P76" s="4">
+      <c r="P76" s="5">
         <f>SUM(T76:X76)</f>
         <v/>
       </c>
-      <c r="Q76" s="4">
+      <c r="Q76" s="5">
         <f>SUM(Y76:AC76)</f>
         <v/>
       </c>
@@ -12787,11 +12737,11 @@
         <f>IF(COUNT(Y77:AC77)&gt;0,Q77/COUNT(Y77:AC77),0.5)</f>
         <v/>
       </c>
-      <c r="P77" s="4">
+      <c r="P77" s="5">
         <f>SUM(T77:X77)</f>
         <v/>
       </c>
-      <c r="Q77" s="4">
+      <c r="Q77" s="5">
         <f>SUM(Y77:AC77)</f>
         <v/>
       </c>
@@ -12942,11 +12892,11 @@
         <f>IF(COUNT(Y78:AC78)&gt;0,Q78/COUNT(Y78:AC78),0.5)</f>
         <v/>
       </c>
-      <c r="P78" s="4">
+      <c r="P78" s="5">
         <f>SUM(T78:X78)</f>
         <v/>
       </c>
-      <c r="Q78" s="4">
+      <c r="Q78" s="5">
         <f>SUM(Y78:AC78)</f>
         <v/>
       </c>
@@ -13097,11 +13047,11 @@
         <f>IF(COUNT(Y79:AC79)&gt;0,Q79/COUNT(Y79:AC79),0.5)</f>
         <v/>
       </c>
-      <c r="P79" s="4">
+      <c r="P79" s="5">
         <f>SUM(T79:X79)</f>
         <v/>
       </c>
-      <c r="Q79" s="4">
+      <c r="Q79" s="5">
         <f>SUM(Y79:AC79)</f>
         <v/>
       </c>
@@ -13411,11 +13361,11 @@
         <f>IF(COUNT(Y81:AC81)&gt;0,Q81/COUNT(Y81:AC81),0.5)</f>
         <v/>
       </c>
-      <c r="P81" s="4">
+      <c r="P81" s="5">
         <f>SUM(T81:X81)</f>
         <v/>
       </c>
-      <c r="Q81" s="4">
+      <c r="Q81" s="5">
         <f>SUM(Y81:AC81)</f>
         <v/>
       </c>
@@ -13566,11 +13516,11 @@
         <f>IF(COUNT(Y82:AC82)&gt;0,Q82/COUNT(Y82:AC82),0.5)</f>
         <v/>
       </c>
-      <c r="P82" s="4">
+      <c r="P82" s="5">
         <f>SUM(T82:X82)</f>
         <v/>
       </c>
-      <c r="Q82" s="4">
+      <c r="Q82" s="5">
         <f>SUM(Y82:AC82)</f>
         <v/>
       </c>
@@ -13721,11 +13671,11 @@
         <f>IF(COUNT(Y83:AC83)&gt;0,Q83/COUNT(Y83:AC83),0.5)</f>
         <v/>
       </c>
-      <c r="P83" s="4">
+      <c r="P83" s="5">
         <f>SUM(T83:X83)</f>
         <v/>
       </c>
-      <c r="Q83" s="4">
+      <c r="Q83" s="5">
         <f>SUM(Y83:AC83)</f>
         <v/>
       </c>
@@ -13876,11 +13826,11 @@
         <f>IF(COUNT(Y84:AC84)&gt;0,Q84/COUNT(Y84:AC84),0.5)</f>
         <v/>
       </c>
-      <c r="P84" s="4">
+      <c r="P84" s="5">
         <f>SUM(T84:X84)</f>
         <v/>
       </c>
-      <c r="Q84" s="4">
+      <c r="Q84" s="5">
         <f>SUM(Y84:AC84)</f>
         <v/>
       </c>
@@ -14031,11 +13981,11 @@
         <f>IF(COUNT(Y85:AC85)&gt;0,Q85/COUNT(Y85:AC85),0.5)</f>
         <v/>
       </c>
-      <c r="P85" s="4">
+      <c r="P85" s="5">
         <f>SUM(T85:X85)</f>
         <v/>
       </c>
-      <c r="Q85" s="4">
+      <c r="Q85" s="5">
         <f>SUM(Y85:AC85)</f>
         <v/>
       </c>
@@ -14345,11 +14295,11 @@
         <f>IF(COUNT(Y87:AC87)&gt;0,Q87/COUNT(Y87:AC87),0.5)</f>
         <v/>
       </c>
-      <c r="P87" s="4">
+      <c r="P87" s="5">
         <f>SUM(T87:X87)</f>
         <v/>
       </c>
-      <c r="Q87" s="4">
+      <c r="Q87" s="5">
         <f>SUM(Y87:AC87)</f>
         <v/>
       </c>
@@ -14500,11 +14450,11 @@
         <f>IF(COUNT(Y88:AC88)&gt;0,Q88/COUNT(Y88:AC88),0.5)</f>
         <v/>
       </c>
-      <c r="P88" s="4">
+      <c r="P88" s="5">
         <f>SUM(T88:X88)</f>
         <v/>
       </c>
-      <c r="Q88" s="4">
+      <c r="Q88" s="5">
         <f>SUM(Y88:AC88)</f>
         <v/>
       </c>
@@ -14655,11 +14605,11 @@
         <f>IF(COUNT(Y89:AC89)&gt;0,Q89/COUNT(Y89:AC89),0.5)</f>
         <v/>
       </c>
-      <c r="P89" s="4">
+      <c r="P89" s="5">
         <f>SUM(T89:X89)</f>
         <v/>
       </c>
-      <c r="Q89" s="4">
+      <c r="Q89" s="5">
         <f>SUM(Y89:AC89)</f>
         <v/>
       </c>
@@ -14810,11 +14760,11 @@
         <f>IF(COUNT(Y90:AC90)&gt;0,Q90/COUNT(Y90:AC90),0.5)</f>
         <v/>
       </c>
-      <c r="P90" s="4">
+      <c r="P90" s="5">
         <f>SUM(T90:X90)</f>
         <v/>
       </c>
-      <c r="Q90" s="4">
+      <c r="Q90" s="5">
         <f>SUM(Y90:AC90)</f>
         <v/>
       </c>
@@ -14965,11 +14915,11 @@
         <f>IF(COUNT(Y91:AC91)&gt;0,Q91/COUNT(Y91:AC91),0.5)</f>
         <v/>
       </c>
-      <c r="P91" s="4">
+      <c r="P91" s="5">
         <f>SUM(T91:X91)</f>
         <v/>
       </c>
-      <c r="Q91" s="4">
+      <c r="Q91" s="5">
         <f>SUM(Y91:AC91)</f>
         <v/>
       </c>
@@ -15279,11 +15229,11 @@
         <f>IF(COUNT(Y93:AC93)&gt;0,Q93/COUNT(Y93:AC93),0.5)</f>
         <v/>
       </c>
-      <c r="P93" s="4">
+      <c r="P93" s="5">
         <f>SUM(T93:X93)</f>
         <v/>
       </c>
-      <c r="Q93" s="4">
+      <c r="Q93" s="5">
         <f>SUM(Y93:AC93)</f>
         <v/>
       </c>
@@ -15434,11 +15384,11 @@
         <f>IF(COUNT(Y94:AC94)&gt;0,Q94/COUNT(Y94:AC94),0.5)</f>
         <v/>
       </c>
-      <c r="P94" s="4">
+      <c r="P94" s="5">
         <f>SUM(T94:X94)</f>
         <v/>
       </c>
-      <c r="Q94" s="4">
+      <c r="Q94" s="5">
         <f>SUM(Y94:AC94)</f>
         <v/>
       </c>
@@ -15589,11 +15539,11 @@
         <f>IF(COUNT(Y95:AC95)&gt;0,Q95/COUNT(Y95:AC95),0.5)</f>
         <v/>
       </c>
-      <c r="P95" s="4">
+      <c r="P95" s="5">
         <f>SUM(T95:X95)</f>
         <v/>
       </c>
-      <c r="Q95" s="4">
+      <c r="Q95" s="5">
         <f>SUM(Y95:AC95)</f>
         <v/>
       </c>
@@ -15744,11 +15694,11 @@
         <f>IF(COUNT(Y96:AC96)&gt;0,Q96/COUNT(Y96:AC96),0.5)</f>
         <v/>
       </c>
-      <c r="P96" s="4">
+      <c r="P96" s="5">
         <f>SUM(T96:X96)</f>
         <v/>
       </c>
-      <c r="Q96" s="4">
+      <c r="Q96" s="5">
         <f>SUM(Y96:AC96)</f>
         <v/>
       </c>
@@ -15899,11 +15849,11 @@
         <f>IF(COUNT(Y97:AC97)&gt;0,Q97/COUNT(Y97:AC97),0.5)</f>
         <v/>
       </c>
-      <c r="P97" s="4">
+      <c r="P97" s="5">
         <f>SUM(T97:X97)</f>
         <v/>
       </c>
-      <c r="Q97" s="4">
+      <c r="Q97" s="5">
         <f>SUM(Y97:AC97)</f>
         <v/>
       </c>
@@ -16213,11 +16163,11 @@
         <f>IF(COUNT(Y99:AC99)&gt;0,Q99/COUNT(Y99:AC99),0.5)</f>
         <v/>
       </c>
-      <c r="P99" s="4">
+      <c r="P99" s="5">
         <f>SUM(T99:X99)</f>
         <v/>
       </c>
-      <c r="Q99" s="4">
+      <c r="Q99" s="5">
         <f>SUM(Y99:AC99)</f>
         <v/>
       </c>
@@ -16368,11 +16318,11 @@
         <f>IF(COUNT(Y100:AC100)&gt;0,Q100/COUNT(Y100:AC100),0.5)</f>
         <v/>
       </c>
-      <c r="P100" s="4">
+      <c r="P100" s="5">
         <f>SUM(T100:X100)</f>
         <v/>
       </c>
-      <c r="Q100" s="4">
+      <c r="Q100" s="5">
         <f>SUM(Y100:AC100)</f>
         <v/>
       </c>
@@ -16523,11 +16473,11 @@
         <f>IF(COUNT(Y101:AC101)&gt;0,Q101/COUNT(Y101:AC101),0.5)</f>
         <v/>
       </c>
-      <c r="P101" s="4">
+      <c r="P101" s="5">
         <f>SUM(T101:X101)</f>
         <v/>
       </c>
-      <c r="Q101" s="4">
+      <c r="Q101" s="5">
         <f>SUM(Y101:AC101)</f>
         <v/>
       </c>
@@ -16678,11 +16628,11 @@
         <f>IF(COUNT(Y102:AC102)&gt;0,Q102/COUNT(Y102:AC102),0.5)</f>
         <v/>
       </c>
-      <c r="P102" s="4">
+      <c r="P102" s="5">
         <f>SUM(T102:X102)</f>
         <v/>
       </c>
-      <c r="Q102" s="4">
+      <c r="Q102" s="5">
         <f>SUM(Y102:AC102)</f>
         <v/>
       </c>
@@ -16833,11 +16783,11 @@
         <f>IF(COUNT(Y103:AC103)&gt;0,Q103/COUNT(Y103:AC103),0.5)</f>
         <v/>
       </c>
-      <c r="P103" s="4">
+      <c r="P103" s="5">
         <f>SUM(T103:X103)</f>
         <v/>
       </c>
-      <c r="Q103" s="4">
+      <c r="Q103" s="5">
         <f>SUM(Y103:AC103)</f>
         <v/>
       </c>
@@ -17147,11 +17097,11 @@
         <f>IF(COUNT(Y105:AC105)&gt;0,Q105/COUNT(Y105:AC105),0.5)</f>
         <v/>
       </c>
-      <c r="P105" s="4">
+      <c r="P105" s="5">
         <f>SUM(T105:X105)</f>
         <v/>
       </c>
-      <c r="Q105" s="4">
+      <c r="Q105" s="5">
         <f>SUM(Y105:AC105)</f>
         <v/>
       </c>
@@ -17302,11 +17252,11 @@
         <f>IF(COUNT(Y106:AC106)&gt;0,Q106/COUNT(Y106:AC106),0.5)</f>
         <v/>
       </c>
-      <c r="P106" s="4">
+      <c r="P106" s="5">
         <f>SUM(T106:X106)</f>
         <v/>
       </c>
-      <c r="Q106" s="4">
+      <c r="Q106" s="5">
         <f>SUM(Y106:AC106)</f>
         <v/>
       </c>
@@ -17457,11 +17407,11 @@
         <f>IF(COUNT(Y107:AC107)&gt;0,Q107/COUNT(Y107:AC107),0.5)</f>
         <v/>
       </c>
-      <c r="P107" s="4">
+      <c r="P107" s="5">
         <f>SUM(T107:X107)</f>
         <v/>
       </c>
-      <c r="Q107" s="4">
+      <c r="Q107" s="5">
         <f>SUM(Y107:AC107)</f>
         <v/>
       </c>
@@ -17612,11 +17562,11 @@
         <f>IF(COUNT(Y108:AC108)&gt;0,Q108/COUNT(Y108:AC108),0.5)</f>
         <v/>
       </c>
-      <c r="P108" s="4">
+      <c r="P108" s="5">
         <f>SUM(T108:X108)</f>
         <v/>
       </c>
-      <c r="Q108" s="4">
+      <c r="Q108" s="5">
         <f>SUM(Y108:AC108)</f>
         <v/>
       </c>
@@ -17767,11 +17717,11 @@
         <f>IF(COUNT(Y109:AC109)&gt;0,Q109/COUNT(Y109:AC109),0.5)</f>
         <v/>
       </c>
-      <c r="P109" s="4">
+      <c r="P109" s="5">
         <f>SUM(T109:X109)</f>
         <v/>
       </c>
-      <c r="Q109" s="4">
+      <c r="Q109" s="5">
         <f>SUM(Y109:AC109)</f>
         <v/>
       </c>
@@ -18081,11 +18031,11 @@
         <f>IF(COUNT(Y111:AC111)&gt;0,Q111/COUNT(Y111:AC111),0.5)</f>
         <v/>
       </c>
-      <c r="P111" s="4">
+      <c r="P111" s="5">
         <f>SUM(T111:X111)</f>
         <v/>
       </c>
-      <c r="Q111" s="4">
+      <c r="Q111" s="5">
         <f>SUM(Y111:AC111)</f>
         <v/>
       </c>
@@ -18236,11 +18186,11 @@
         <f>IF(COUNT(Y112:AC112)&gt;0,Q112/COUNT(Y112:AC112),0.5)</f>
         <v/>
       </c>
-      <c r="P112" s="4">
+      <c r="P112" s="5">
         <f>SUM(T112:X112)</f>
         <v/>
       </c>
-      <c r="Q112" s="4">
+      <c r="Q112" s="5">
         <f>SUM(Y112:AC112)</f>
         <v/>
       </c>
@@ -18391,11 +18341,11 @@
         <f>IF(COUNT(Y113:AC113)&gt;0,Q113/COUNT(Y113:AC113),0.5)</f>
         <v/>
       </c>
-      <c r="P113" s="4">
+      <c r="P113" s="5">
         <f>SUM(T113:X113)</f>
         <v/>
       </c>
-      <c r="Q113" s="4">
+      <c r="Q113" s="5">
         <f>SUM(Y113:AC113)</f>
         <v/>
       </c>
@@ -18546,11 +18496,11 @@
         <f>IF(COUNT(Y114:AC114)&gt;0,Q114/COUNT(Y114:AC114),0.5)</f>
         <v/>
       </c>
-      <c r="P114" s="4">
+      <c r="P114" s="5">
         <f>SUM(T114:X114)</f>
         <v/>
       </c>
-      <c r="Q114" s="4">
+      <c r="Q114" s="5">
         <f>SUM(Y114:AC114)</f>
         <v/>
       </c>
@@ -18701,11 +18651,11 @@
         <f>IF(COUNT(Y115:AC115)&gt;0,Q115/COUNT(Y115:AC115),0.5)</f>
         <v/>
       </c>
-      <c r="P115" s="4">
+      <c r="P115" s="5">
         <f>SUM(T115:X115)</f>
         <v/>
       </c>
-      <c r="Q115" s="4">
+      <c r="Q115" s="5">
         <f>SUM(Y115:AC115)</f>
         <v/>
       </c>
@@ -19015,11 +18965,11 @@
         <f>IF(COUNT(Y117:AC117)&gt;0,Q117/COUNT(Y117:AC117),0.5)</f>
         <v/>
       </c>
-      <c r="P117" s="4">
+      <c r="P117" s="5">
         <f>SUM(T117:X117)</f>
         <v/>
       </c>
-      <c r="Q117" s="4">
+      <c r="Q117" s="5">
         <f>SUM(Y117:AC117)</f>
         <v/>
       </c>
@@ -19170,11 +19120,11 @@
         <f>IF(COUNT(Y118:AC118)&gt;0,Q118/COUNT(Y118:AC118),0.5)</f>
         <v/>
       </c>
-      <c r="P118" s="4">
+      <c r="P118" s="5">
         <f>SUM(T118:X118)</f>
         <v/>
       </c>
-      <c r="Q118" s="4">
+      <c r="Q118" s="5">
         <f>SUM(Y118:AC118)</f>
         <v/>
       </c>
@@ -19325,11 +19275,11 @@
         <f>IF(COUNT(Y119:AC119)&gt;0,Q119/COUNT(Y119:AC119),0.5)</f>
         <v/>
       </c>
-      <c r="P119" s="4">
+      <c r="P119" s="5">
         <f>SUM(T119:X119)</f>
         <v/>
       </c>
-      <c r="Q119" s="4">
+      <c r="Q119" s="5">
         <f>SUM(Y119:AC119)</f>
         <v/>
       </c>
@@ -19480,11 +19430,11 @@
         <f>IF(COUNT(Y120:AC120)&gt;0,Q120/COUNT(Y120:AC120),0.5)</f>
         <v/>
       </c>
-      <c r="P120" s="4">
+      <c r="P120" s="5">
         <f>SUM(T120:X120)</f>
         <v/>
       </c>
-      <c r="Q120" s="4">
+      <c r="Q120" s="5">
         <f>SUM(Y120:AC120)</f>
         <v/>
       </c>
@@ -19635,11 +19585,11 @@
         <f>IF(COUNT(Y121:AC121)&gt;0,Q121/COUNT(Y121:AC121),0.5)</f>
         <v/>
       </c>
-      <c r="P121" s="4">
+      <c r="P121" s="5">
         <f>SUM(T121:X121)</f>
         <v/>
       </c>
-      <c r="Q121" s="4">
+      <c r="Q121" s="5">
         <f>SUM(Y121:AC121)</f>
         <v/>
       </c>
@@ -19949,11 +19899,11 @@
         <f>IF(COUNT(Y123:AC123)&gt;0,Q123/COUNT(Y123:AC123),0.5)</f>
         <v/>
       </c>
-      <c r="P123" s="4">
+      <c r="P123" s="5">
         <f>SUM(T123:X123)</f>
         <v/>
       </c>
-      <c r="Q123" s="4">
+      <c r="Q123" s="5">
         <f>SUM(Y123:AC123)</f>
         <v/>
       </c>
@@ -20104,11 +20054,11 @@
         <f>IF(COUNT(Y124:AC124)&gt;0,Q124/COUNT(Y124:AC124),0.5)</f>
         <v/>
       </c>
-      <c r="P124" s="4">
+      <c r="P124" s="5">
         <f>SUM(T124:X124)</f>
         <v/>
       </c>
-      <c r="Q124" s="4">
+      <c r="Q124" s="5">
         <f>SUM(Y124:AC124)</f>
         <v/>
       </c>
@@ -20259,11 +20209,11 @@
         <f>IF(COUNT(Y125:AC125)&gt;0,Q125/COUNT(Y125:AC125),0.5)</f>
         <v/>
       </c>
-      <c r="P125" s="4">
+      <c r="P125" s="5">
         <f>SUM(T125:X125)</f>
         <v/>
       </c>
-      <c r="Q125" s="4">
+      <c r="Q125" s="5">
         <f>SUM(Y125:AC125)</f>
         <v/>
       </c>
@@ -20414,11 +20364,11 @@
         <f>IF(COUNT(Y126:AC126)&gt;0,Q126/COUNT(Y126:AC126),0.5)</f>
         <v/>
       </c>
-      <c r="P126" s="4">
+      <c r="P126" s="5">
         <f>SUM(T126:X126)</f>
         <v/>
       </c>
-      <c r="Q126" s="4">
+      <c r="Q126" s="5">
         <f>SUM(Y126:AC126)</f>
         <v/>
       </c>
@@ -20569,11 +20519,11 @@
         <f>IF(COUNT(Y127:AC127)&gt;0,Q127/COUNT(Y127:AC127),0.5)</f>
         <v/>
       </c>
-      <c r="P127" s="4">
+      <c r="P127" s="5">
         <f>SUM(T127:X127)</f>
         <v/>
       </c>
-      <c r="Q127" s="4">
+      <c r="Q127" s="5">
         <f>SUM(Y127:AC127)</f>
         <v/>
       </c>
@@ -20883,11 +20833,11 @@
         <f>IF(COUNT(Y129:AC129)&gt;0,Q129/COUNT(Y129:AC129),0.5)</f>
         <v/>
       </c>
-      <c r="P129" s="4">
+      <c r="P129" s="5">
         <f>SUM(T129:X129)</f>
         <v/>
       </c>
-      <c r="Q129" s="4">
+      <c r="Q129" s="5">
         <f>SUM(Y129:AC129)</f>
         <v/>
       </c>
@@ -21038,11 +20988,11 @@
         <f>IF(COUNT(Y130:AC130)&gt;0,Q130/COUNT(Y130:AC130),0.5)</f>
         <v/>
       </c>
-      <c r="P130" s="4">
+      <c r="P130" s="5">
         <f>SUM(T130:X130)</f>
         <v/>
       </c>
-      <c r="Q130" s="4">
+      <c r="Q130" s="5">
         <f>SUM(Y130:AC130)</f>
         <v/>
       </c>
@@ -21193,11 +21143,11 @@
         <f>IF(COUNT(Y131:AC131)&gt;0,Q131/COUNT(Y131:AC131),0.5)</f>
         <v/>
       </c>
-      <c r="P131" s="4">
+      <c r="P131" s="5">
         <f>SUM(T131:X131)</f>
         <v/>
       </c>
-      <c r="Q131" s="4">
+      <c r="Q131" s="5">
         <f>SUM(Y131:AC131)</f>
         <v/>
       </c>
@@ -21348,11 +21298,11 @@
         <f>IF(COUNT(Y132:AC132)&gt;0,Q132/COUNT(Y132:AC132),0.5)</f>
         <v/>
       </c>
-      <c r="P132" s="4">
+      <c r="P132" s="5">
         <f>SUM(T132:X132)</f>
         <v/>
       </c>
-      <c r="Q132" s="4">
+      <c r="Q132" s="5">
         <f>SUM(Y132:AC132)</f>
         <v/>
       </c>
@@ -21503,11 +21453,11 @@
         <f>IF(COUNT(Y133:AC133)&gt;0,Q133/COUNT(Y133:AC133),0.5)</f>
         <v/>
       </c>
-      <c r="P133" s="4">
+      <c r="P133" s="5">
         <f>SUM(T133:X133)</f>
         <v/>
       </c>
-      <c r="Q133" s="4">
+      <c r="Q133" s="5">
         <f>SUM(Y133:AC133)</f>
         <v/>
       </c>
@@ -21774,7 +21724,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -21792,64 +21742,64 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="J1" s="3" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>Scores</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>Round</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>Table</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>Board</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>Vul</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t>Contract</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>By</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="I2" s="2" t="inlineStr">
         <is>
           <t>Result</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="J2" s="2" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="K2" s="2" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
@@ -24349,208 +24299,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="30" customWidth="1" min="4" max="4"/>
-    <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
-    <col width="8" customWidth="1" min="8" max="8"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="22" t="inlineStr">
-        <is>
-          <t>Board #</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>Round</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>Contract</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="inlineStr">
-        <is>
-          <t>By</t>
-        </is>
-      </c>
-      <c r="F3" s="3" t="inlineStr">
-        <is>
-          <t>Result</t>
-        </is>
-      </c>
-      <c r="G3" s="3" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="H3" s="3" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" s="24" t="n"/>
-      <c r="C4" s="24" t="n"/>
-      <c r="D4" s="24" t="n"/>
-      <c r="E4" s="24" t="n"/>
-      <c r="F4" s="24" t="n"/>
-      <c r="G4" s="24" t="n"/>
-      <c r="H4" s="24" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" s="24" t="n"/>
-      <c r="C5" s="24" t="n"/>
-      <c r="D5" s="24" t="n"/>
-      <c r="E5" s="24" t="n"/>
-      <c r="F5" s="24" t="n"/>
-      <c r="G5" s="24" t="n"/>
-      <c r="H5" s="24" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="23" t="n">
-        <v>3</v>
-      </c>
-      <c r="B6" s="24" t="n"/>
-      <c r="C6" s="24" t="n"/>
-      <c r="D6" s="24" t="n"/>
-      <c r="E6" s="24" t="n"/>
-      <c r="F6" s="24" t="n"/>
-      <c r="G6" s="24" t="n"/>
-      <c r="H6" s="24" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="23" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" s="24" t="n"/>
-      <c r="C7" s="24" t="n"/>
-      <c r="D7" s="24" t="n"/>
-      <c r="E7" s="24" t="n"/>
-      <c r="F7" s="24" t="n"/>
-      <c r="G7" s="24" t="n"/>
-      <c r="H7" s="24" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="23" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" s="24" t="n"/>
-      <c r="C8" s="24" t="n"/>
-      <c r="D8" s="24" t="n"/>
-      <c r="E8" s="24" t="n"/>
-      <c r="F8" s="24" t="n"/>
-      <c r="G8" s="24" t="n"/>
-      <c r="H8" s="24" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="23" t="n">
-        <v>6</v>
-      </c>
-      <c r="B9" s="24" t="n"/>
-      <c r="C9" s="24" t="n"/>
-      <c r="D9" s="24" t="n"/>
-      <c r="E9" s="24" t="n"/>
-      <c r="F9" s="24" t="n"/>
-      <c r="G9" s="24" t="n"/>
-      <c r="H9" s="24" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="23" t="n">
-        <v>7</v>
-      </c>
-      <c r="B10" s="24" t="n"/>
-      <c r="C10" s="24" t="n"/>
-      <c r="D10" s="24" t="n"/>
-      <c r="E10" s="24" t="n"/>
-      <c r="F10" s="24" t="n"/>
-      <c r="G10" s="24" t="n"/>
-      <c r="H10" s="24" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="23" t="n">
-        <v>8</v>
-      </c>
-      <c r="B11" s="24" t="n"/>
-      <c r="C11" s="24" t="n"/>
-      <c r="D11" s="24" t="n"/>
-      <c r="E11" s="24" t="n"/>
-      <c r="F11" s="24" t="n"/>
-      <c r="G11" s="24" t="n"/>
-      <c r="H11" s="24" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="23" t="n">
-        <v>9</v>
-      </c>
-      <c r="B12" s="24" t="n"/>
-      <c r="C12" s="24" t="n"/>
-      <c r="D12" s="24" t="n"/>
-      <c r="E12" s="24" t="n"/>
-      <c r="F12" s="24" t="n"/>
-      <c r="G12" s="24" t="n"/>
-      <c r="H12" s="24" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="23" t="n">
-        <v>10</v>
-      </c>
-      <c r="B13" s="24" t="n"/>
-      <c r="C13" s="24" t="n"/>
-      <c r="D13" s="24" t="n"/>
-      <c r="E13" s="24" t="n"/>
-      <c r="F13" s="24" t="n"/>
-      <c r="G13" s="24" t="n"/>
-      <c r="H13" s="24" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -24565,17 +24314,17 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>From</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>To</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>IMP</t>
         </is>
@@ -24861,7 +24610,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -24879,90 +24628,90 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Not Vulnerable</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>Vulnerable</t>
         </is>
       </c>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>Not Vulnerable</t>
         </is>
       </c>
-      <c r="N1" s="3" t="inlineStr">
+      <c r="N1" s="2" t="inlineStr">
         <is>
           <t>Vulnerable</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>Contract</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>Made</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr"/>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr"/>
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>XX</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr"/>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr"/>
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>XX</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="J2" s="2" t="inlineStr">
         <is>
           <t>Down by</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr"/>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="K2" s="2" t="inlineStr"/>
+      <c r="L2" s="2" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="M2" s="2" t="inlineStr">
         <is>
           <t>XX</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr"/>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="N2" s="2" t="inlineStr"/>
+      <c r="O2" s="2" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="P2" s="2" t="inlineStr">
         <is>
           <t>XX</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>1 D/C</t>
         </is>
@@ -24970,22 +24719,22 @@
       <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="25" t="n">
+      <c r="C3" s="22" t="n">
         <v>70</v>
       </c>
-      <c r="D3" s="25" t="n">
+      <c r="D3" s="22" t="n">
         <v>140</v>
       </c>
-      <c r="E3" s="25" t="n">
+      <c r="E3" s="22" t="n">
         <v>230</v>
       </c>
-      <c r="F3" s="25" t="n">
+      <c r="F3" s="22" t="n">
         <v>70</v>
       </c>
-      <c r="G3" s="25" t="n">
+      <c r="G3" s="22" t="n">
         <v>140</v>
       </c>
-      <c r="H3" s="25" t="n">
+      <c r="H3" s="22" t="n">
         <v>230</v>
       </c>
       <c r="J3" t="n">
@@ -25016,22 +24765,22 @@
       <c r="B4" t="n">
         <v>2</v>
       </c>
-      <c r="C4" s="25" t="n">
+      <c r="C4" s="22" t="n">
         <v>90</v>
       </c>
-      <c r="D4" s="25" t="n">
+      <c r="D4" s="22" t="n">
         <v>240</v>
       </c>
-      <c r="E4" s="25" t="n">
+      <c r="E4" s="22" t="n">
         <v>430</v>
       </c>
-      <c r="F4" s="25" t="n">
+      <c r="F4" s="22" t="n">
         <v>90</v>
       </c>
-      <c r="G4" s="25" t="n">
+      <c r="G4" s="22" t="n">
         <v>340</v>
       </c>
-      <c r="H4" s="25" t="n">
+      <c r="H4" s="22" t="n">
         <v>630</v>
       </c>
       <c r="J4" t="n">
@@ -25066,22 +24815,22 @@
       <c r="B5" t="n">
         <v>3</v>
       </c>
-      <c r="C5" s="25" t="n">
+      <c r="C5" s="22" t="n">
         <v>110</v>
       </c>
-      <c r="D5" s="25" t="n">
+      <c r="D5" s="22" t="n">
         <v>340</v>
       </c>
-      <c r="E5" s="25" t="n">
+      <c r="E5" s="22" t="n">
         <v>630</v>
       </c>
-      <c r="F5" s="25" t="n">
+      <c r="F5" s="22" t="n">
         <v>110</v>
       </c>
-      <c r="G5" s="25" t="n">
+      <c r="G5" s="22" t="n">
         <v>540</v>
       </c>
-      <c r="H5" s="25" t="n">
+      <c r="H5" s="22" t="n">
         <v>1030</v>
       </c>
       <c r="J5" t="n">
@@ -25116,22 +24865,22 @@
       <c r="B6" t="n">
         <v>4</v>
       </c>
-      <c r="C6" s="25" t="n">
+      <c r="C6" s="22" t="n">
         <v>130</v>
       </c>
-      <c r="D6" s="25" t="n">
+      <c r="D6" s="22" t="n">
         <v>440</v>
       </c>
-      <c r="E6" s="25" t="n">
+      <c r="E6" s="22" t="n">
         <v>830</v>
       </c>
-      <c r="F6" s="25" t="n">
+      <c r="F6" s="22" t="n">
         <v>130</v>
       </c>
-      <c r="G6" s="25" t="n">
+      <c r="G6" s="22" t="n">
         <v>740</v>
       </c>
-      <c r="H6" s="25" t="n">
+      <c r="H6" s="22" t="n">
         <v>1430</v>
       </c>
       <c r="J6" t="n">
@@ -25166,22 +24915,22 @@
       <c r="B7" t="n">
         <v>5</v>
       </c>
-      <c r="C7" s="25" t="n">
+      <c r="C7" s="22" t="n">
         <v>150</v>
       </c>
-      <c r="D7" s="25" t="n">
+      <c r="D7" s="22" t="n">
         <v>540</v>
       </c>
-      <c r="E7" s="25" t="n">
+      <c r="E7" s="22" t="n">
         <v>1030</v>
       </c>
-      <c r="F7" s="25" t="n">
+      <c r="F7" s="22" t="n">
         <v>150</v>
       </c>
-      <c r="G7" s="25" t="n">
+      <c r="G7" s="22" t="n">
         <v>940</v>
       </c>
-      <c r="H7" s="25" t="n">
+      <c r="H7" s="22" t="n">
         <v>1830</v>
       </c>
       <c r="J7" t="n">
@@ -25216,22 +24965,22 @@
       <c r="B8" t="n">
         <v>6</v>
       </c>
-      <c r="C8" s="25" t="n">
+      <c r="C8" s="22" t="n">
         <v>170</v>
       </c>
-      <c r="D8" s="25" t="n">
+      <c r="D8" s="22" t="n">
         <v>640</v>
       </c>
-      <c r="E8" s="25" t="n">
+      <c r="E8" s="22" t="n">
         <v>1230</v>
       </c>
-      <c r="F8" s="25" t="n">
+      <c r="F8" s="22" t="n">
         <v>170</v>
       </c>
-      <c r="G8" s="25" t="n">
+      <c r="G8" s="22" t="n">
         <v>1140</v>
       </c>
-      <c r="H8" s="25" t="n">
+      <c r="H8" s="22" t="n">
         <v>2230</v>
       </c>
       <c r="J8" t="n">
@@ -25266,22 +25015,22 @@
       <c r="B9" t="n">
         <v>7</v>
       </c>
-      <c r="C9" s="25" t="n">
+      <c r="C9" s="22" t="n">
         <v>190</v>
       </c>
-      <c r="D9" s="25" t="n">
+      <c r="D9" s="22" t="n">
         <v>740</v>
       </c>
-      <c r="E9" s="25" t="n">
+      <c r="E9" s="22" t="n">
         <v>1430</v>
       </c>
-      <c r="F9" s="25" t="n">
+      <c r="F9" s="22" t="n">
         <v>190</v>
       </c>
-      <c r="G9" s="25" t="n">
+      <c r="G9" s="22" t="n">
         <v>1340</v>
       </c>
-      <c r="H9" s="25" t="n">
+      <c r="H9" s="22" t="n">
         <v>2630</v>
       </c>
       <c r="J9" t="n">
@@ -25313,7 +25062,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="inlineStr">
+      <c r="A10" s="2" t="inlineStr">
         <is>
           <t>1 H/S</t>
         </is>
@@ -25321,22 +25070,22 @@
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="25" t="n">
+      <c r="C10" s="22" t="n">
         <v>80</v>
       </c>
-      <c r="D10" s="25" t="n">
+      <c r="D10" s="22" t="n">
         <v>160</v>
       </c>
-      <c r="E10" s="25" t="n">
+      <c r="E10" s="22" t="n">
         <v>520</v>
       </c>
-      <c r="F10" s="25" t="n">
+      <c r="F10" s="22" t="n">
         <v>80</v>
       </c>
-      <c r="G10" s="25" t="n">
+      <c r="G10" s="22" t="n">
         <v>160</v>
       </c>
-      <c r="H10" s="25" t="n">
+      <c r="H10" s="22" t="n">
         <v>720</v>
       </c>
       <c r="J10" t="n">
@@ -25371,22 +25120,22 @@
       <c r="B11" t="n">
         <v>2</v>
       </c>
-      <c r="C11" s="25" t="n">
+      <c r="C11" s="22" t="n">
         <v>110</v>
       </c>
-      <c r="D11" s="25" t="n">
+      <c r="D11" s="22" t="n">
         <v>260</v>
       </c>
-      <c r="E11" s="25" t="n">
+      <c r="E11" s="22" t="n">
         <v>720</v>
       </c>
-      <c r="F11" s="25" t="n">
+      <c r="F11" s="22" t="n">
         <v>110</v>
       </c>
-      <c r="G11" s="25" t="n">
+      <c r="G11" s="22" t="n">
         <v>360</v>
       </c>
-      <c r="H11" s="25" t="n">
+      <c r="H11" s="22" t="n">
         <v>1120</v>
       </c>
       <c r="J11" t="n">
@@ -25421,22 +25170,22 @@
       <c r="B12" t="n">
         <v>3</v>
       </c>
-      <c r="C12" s="25" t="n">
+      <c r="C12" s="22" t="n">
         <v>140</v>
       </c>
-      <c r="D12" s="25" t="n">
+      <c r="D12" s="22" t="n">
         <v>360</v>
       </c>
-      <c r="E12" s="25" t="n">
+      <c r="E12" s="22" t="n">
         <v>920</v>
       </c>
-      <c r="F12" s="25" t="n">
+      <c r="F12" s="22" t="n">
         <v>140</v>
       </c>
-      <c r="G12" s="25" t="n">
+      <c r="G12" s="22" t="n">
         <v>560</v>
       </c>
-      <c r="H12" s="25" t="n">
+      <c r="H12" s="22" t="n">
         <v>1520</v>
       </c>
       <c r="J12" t="n">
@@ -25471,22 +25220,22 @@
       <c r="B13" t="n">
         <v>4</v>
       </c>
-      <c r="C13" s="25" t="n">
+      <c r="C13" s="22" t="n">
         <v>170</v>
       </c>
-      <c r="D13" s="25" t="n">
+      <c r="D13" s="22" t="n">
         <v>460</v>
       </c>
-      <c r="E13" s="25" t="n">
+      <c r="E13" s="22" t="n">
         <v>1120</v>
       </c>
-      <c r="F13" s="25" t="n">
+      <c r="F13" s="22" t="n">
         <v>170</v>
       </c>
-      <c r="G13" s="25" t="n">
+      <c r="G13" s="22" t="n">
         <v>760</v>
       </c>
-      <c r="H13" s="25" t="n">
+      <c r="H13" s="22" t="n">
         <v>1920</v>
       </c>
       <c r="J13" t="n">
@@ -25521,22 +25270,22 @@
       <c r="B14" t="n">
         <v>5</v>
       </c>
-      <c r="C14" s="25" t="n">
+      <c r="C14" s="22" t="n">
         <v>200</v>
       </c>
-      <c r="D14" s="25" t="n">
+      <c r="D14" s="22" t="n">
         <v>560</v>
       </c>
-      <c r="E14" s="25" t="n">
+      <c r="E14" s="22" t="n">
         <v>1320</v>
       </c>
-      <c r="F14" s="25" t="n">
+      <c r="F14" s="22" t="n">
         <v>200</v>
       </c>
-      <c r="G14" s="25" t="n">
+      <c r="G14" s="22" t="n">
         <v>960</v>
       </c>
-      <c r="H14" s="25" t="n">
+      <c r="H14" s="22" t="n">
         <v>2320</v>
       </c>
       <c r="J14" t="n">
@@ -25571,22 +25320,22 @@
       <c r="B15" t="n">
         <v>6</v>
       </c>
-      <c r="C15" s="25" t="n">
+      <c r="C15" s="22" t="n">
         <v>230</v>
       </c>
-      <c r="D15" s="25" t="n">
+      <c r="D15" s="22" t="n">
         <v>660</v>
       </c>
-      <c r="E15" s="25" t="n">
+      <c r="E15" s="22" t="n">
         <v>1520</v>
       </c>
-      <c r="F15" s="25" t="n">
+      <c r="F15" s="22" t="n">
         <v>230</v>
       </c>
-      <c r="G15" s="25" t="n">
+      <c r="G15" s="22" t="n">
         <v>1160</v>
       </c>
-      <c r="H15" s="25" t="n">
+      <c r="H15" s="22" t="n">
         <v>2720</v>
       </c>
       <c r="J15" t="n">
@@ -25621,27 +25370,27 @@
       <c r="B16" t="n">
         <v>7</v>
       </c>
-      <c r="C16" s="25" t="n">
+      <c r="C16" s="22" t="n">
         <v>260</v>
       </c>
-      <c r="D16" s="25" t="n">
+      <c r="D16" s="22" t="n">
         <v>760</v>
       </c>
-      <c r="E16" s="25" t="n">
+      <c r="E16" s="22" t="n">
         <v>1720</v>
       </c>
-      <c r="F16" s="25" t="n">
+      <c r="F16" s="22" t="n">
         <v>260</v>
       </c>
-      <c r="G16" s="25" t="n">
+      <c r="G16" s="22" t="n">
         <v>1360</v>
       </c>
-      <c r="H16" s="25" t="n">
+      <c r="H16" s="22" t="n">
         <v>3120</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="inlineStr">
+      <c r="A17" s="2" t="inlineStr">
         <is>
           <t>1 NT</t>
         </is>
@@ -25649,22 +25398,22 @@
       <c r="B17" t="n">
         <v>1</v>
       </c>
-      <c r="C17" s="25" t="n">
+      <c r="C17" s="22" t="n">
         <v>90</v>
       </c>
-      <c r="D17" s="25" t="n">
+      <c r="D17" s="22" t="n">
         <v>180</v>
       </c>
-      <c r="E17" s="25" t="n">
+      <c r="E17" s="22" t="n">
         <v>560</v>
       </c>
-      <c r="F17" s="25" t="n">
+      <c r="F17" s="22" t="n">
         <v>90</v>
       </c>
-      <c r="G17" s="25" t="n">
+      <c r="G17" s="22" t="n">
         <v>180</v>
       </c>
-      <c r="H17" s="25" t="n">
+      <c r="H17" s="22" t="n">
         <v>760</v>
       </c>
     </row>
@@ -25672,22 +25421,22 @@
       <c r="B18" t="n">
         <v>2</v>
       </c>
-      <c r="C18" s="25" t="n">
+      <c r="C18" s="22" t="n">
         <v>120</v>
       </c>
-      <c r="D18" s="25" t="n">
+      <c r="D18" s="22" t="n">
         <v>280</v>
       </c>
-      <c r="E18" s="25" t="n">
+      <c r="E18" s="22" t="n">
         <v>760</v>
       </c>
-      <c r="F18" s="25" t="n">
+      <c r="F18" s="22" t="n">
         <v>120</v>
       </c>
-      <c r="G18" s="25" t="n">
+      <c r="G18" s="22" t="n">
         <v>380</v>
       </c>
-      <c r="H18" s="25" t="n">
+      <c r="H18" s="22" t="n">
         <v>1160</v>
       </c>
     </row>
@@ -25695,22 +25444,22 @@
       <c r="B19" t="n">
         <v>3</v>
       </c>
-      <c r="C19" s="25" t="n">
+      <c r="C19" s="22" t="n">
         <v>150</v>
       </c>
-      <c r="D19" s="25" t="n">
+      <c r="D19" s="22" t="n">
         <v>380</v>
       </c>
-      <c r="E19" s="25" t="n">
+      <c r="E19" s="22" t="n">
         <v>960</v>
       </c>
-      <c r="F19" s="25" t="n">
+      <c r="F19" s="22" t="n">
         <v>150</v>
       </c>
-      <c r="G19" s="25" t="n">
+      <c r="G19" s="22" t="n">
         <v>580</v>
       </c>
-      <c r="H19" s="25" t="n">
+      <c r="H19" s="22" t="n">
         <v>1560</v>
       </c>
     </row>
@@ -25718,22 +25467,22 @@
       <c r="B20" t="n">
         <v>4</v>
       </c>
-      <c r="C20" s="25" t="n">
+      <c r="C20" s="22" t="n">
         <v>180</v>
       </c>
-      <c r="D20" s="25" t="n">
+      <c r="D20" s="22" t="n">
         <v>480</v>
       </c>
-      <c r="E20" s="25" t="n">
+      <c r="E20" s="22" t="n">
         <v>1160</v>
       </c>
-      <c r="F20" s="25" t="n">
+      <c r="F20" s="22" t="n">
         <v>180</v>
       </c>
-      <c r="G20" s="25" t="n">
+      <c r="G20" s="22" t="n">
         <v>780</v>
       </c>
-      <c r="H20" s="25" t="n">
+      <c r="H20" s="22" t="n">
         <v>1960</v>
       </c>
     </row>
@@ -25741,22 +25490,22 @@
       <c r="B21" t="n">
         <v>5</v>
       </c>
-      <c r="C21" s="25" t="n">
+      <c r="C21" s="22" t="n">
         <v>210</v>
       </c>
-      <c r="D21" s="25" t="n">
+      <c r="D21" s="22" t="n">
         <v>580</v>
       </c>
-      <c r="E21" s="25" t="n">
+      <c r="E21" s="22" t="n">
         <v>1360</v>
       </c>
-      <c r="F21" s="25" t="n">
+      <c r="F21" s="22" t="n">
         <v>210</v>
       </c>
-      <c r="G21" s="25" t="n">
+      <c r="G21" s="22" t="n">
         <v>980</v>
       </c>
-      <c r="H21" s="25" t="n">
+      <c r="H21" s="22" t="n">
         <v>2360</v>
       </c>
     </row>
@@ -25764,22 +25513,22 @@
       <c r="B22" t="n">
         <v>6</v>
       </c>
-      <c r="C22" s="25" t="n">
+      <c r="C22" s="22" t="n">
         <v>240</v>
       </c>
-      <c r="D22" s="25" t="n">
+      <c r="D22" s="22" t="n">
         <v>680</v>
       </c>
-      <c r="E22" s="25" t="n">
+      <c r="E22" s="22" t="n">
         <v>1560</v>
       </c>
-      <c r="F22" s="25" t="n">
+      <c r="F22" s="22" t="n">
         <v>240</v>
       </c>
-      <c r="G22" s="25" t="n">
+      <c r="G22" s="22" t="n">
         <v>1180</v>
       </c>
-      <c r="H22" s="25" t="n">
+      <c r="H22" s="22" t="n">
         <v>2760</v>
       </c>
     </row>
@@ -25787,27 +25536,27 @@
       <c r="B23" t="n">
         <v>7</v>
       </c>
-      <c r="C23" s="25" t="n">
+      <c r="C23" s="22" t="n">
         <v>270</v>
       </c>
-      <c r="D23" s="25" t="n">
+      <c r="D23" s="22" t="n">
         <v>780</v>
       </c>
-      <c r="E23" s="25" t="n">
+      <c r="E23" s="22" t="n">
         <v>1760</v>
       </c>
-      <c r="F23" s="25" t="n">
+      <c r="F23" s="22" t="n">
         <v>270</v>
       </c>
-      <c r="G23" s="25" t="n">
+      <c r="G23" s="22" t="n">
         <v>1380</v>
       </c>
-      <c r="H23" s="25" t="n">
+      <c r="H23" s="22" t="n">
         <v>3160</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="inlineStr">
+      <c r="A24" s="2" t="inlineStr">
         <is>
           <t>2 D/C</t>
         </is>
@@ -25815,22 +25564,22 @@
       <c r="B24" t="n">
         <v>1</v>
       </c>
-      <c r="C24" s="25" t="n">
+      <c r="C24" s="22" t="n">
         <v>90</v>
       </c>
-      <c r="D24" s="25" t="n">
+      <c r="D24" s="22" t="n">
         <v>180</v>
       </c>
-      <c r="E24" s="25" t="n">
+      <c r="E24" s="22" t="n">
         <v>560</v>
       </c>
-      <c r="F24" s="25" t="n">
+      <c r="F24" s="22" t="n">
         <v>90</v>
       </c>
-      <c r="G24" s="25" t="n">
+      <c r="G24" s="22" t="n">
         <v>180</v>
       </c>
-      <c r="H24" s="25" t="n">
+      <c r="H24" s="22" t="n">
         <v>760</v>
       </c>
     </row>
@@ -25838,22 +25587,22 @@
       <c r="B25" t="n">
         <v>2</v>
       </c>
-      <c r="C25" s="25" t="n">
+      <c r="C25" s="22" t="n">
         <v>110</v>
       </c>
-      <c r="D25" s="25" t="n">
+      <c r="D25" s="22" t="n">
         <v>280</v>
       </c>
-      <c r="E25" s="25" t="n">
+      <c r="E25" s="22" t="n">
         <v>760</v>
       </c>
-      <c r="F25" s="25" t="n">
+      <c r="F25" s="22" t="n">
         <v>110</v>
       </c>
-      <c r="G25" s="25" t="n">
+      <c r="G25" s="22" t="n">
         <v>380</v>
       </c>
-      <c r="H25" s="25" t="n">
+      <c r="H25" s="22" t="n">
         <v>1160</v>
       </c>
     </row>
@@ -25861,22 +25610,22 @@
       <c r="B26" t="n">
         <v>3</v>
       </c>
-      <c r="C26" s="25" t="n">
+      <c r="C26" s="22" t="n">
         <v>130</v>
       </c>
-      <c r="D26" s="25" t="n">
+      <c r="D26" s="22" t="n">
         <v>380</v>
       </c>
-      <c r="E26" s="25" t="n">
+      <c r="E26" s="22" t="n">
         <v>960</v>
       </c>
-      <c r="F26" s="25" t="n">
+      <c r="F26" s="22" t="n">
         <v>130</v>
       </c>
-      <c r="G26" s="25" t="n">
+      <c r="G26" s="22" t="n">
         <v>580</v>
       </c>
-      <c r="H26" s="25" t="n">
+      <c r="H26" s="22" t="n">
         <v>1560</v>
       </c>
     </row>
@@ -25884,22 +25633,22 @@
       <c r="B27" t="n">
         <v>4</v>
       </c>
-      <c r="C27" s="25" t="n">
+      <c r="C27" s="22" t="n">
         <v>150</v>
       </c>
-      <c r="D27" s="25" t="n">
+      <c r="D27" s="22" t="n">
         <v>480</v>
       </c>
-      <c r="E27" s="25" t="n">
+      <c r="E27" s="22" t="n">
         <v>1160</v>
       </c>
-      <c r="F27" s="25" t="n">
+      <c r="F27" s="22" t="n">
         <v>150</v>
       </c>
-      <c r="G27" s="25" t="n">
+      <c r="G27" s="22" t="n">
         <v>780</v>
       </c>
-      <c r="H27" s="25" t="n">
+      <c r="H27" s="22" t="n">
         <v>1960</v>
       </c>
     </row>
@@ -25907,22 +25656,22 @@
       <c r="B28" t="n">
         <v>5</v>
       </c>
-      <c r="C28" s="25" t="n">
+      <c r="C28" s="22" t="n">
         <v>170</v>
       </c>
-      <c r="D28" s="25" t="n">
+      <c r="D28" s="22" t="n">
         <v>580</v>
       </c>
-      <c r="E28" s="25" t="n">
+      <c r="E28" s="22" t="n">
         <v>1360</v>
       </c>
-      <c r="F28" s="25" t="n">
+      <c r="F28" s="22" t="n">
         <v>170</v>
       </c>
-      <c r="G28" s="25" t="n">
+      <c r="G28" s="22" t="n">
         <v>980</v>
       </c>
-      <c r="H28" s="25" t="n">
+      <c r="H28" s="22" t="n">
         <v>2360</v>
       </c>
     </row>
@@ -25930,27 +25679,27 @@
       <c r="B29" t="n">
         <v>6</v>
       </c>
-      <c r="C29" s="25" t="n">
+      <c r="C29" s="22" t="n">
         <v>190</v>
       </c>
-      <c r="D29" s="25" t="n">
+      <c r="D29" s="22" t="n">
         <v>680</v>
       </c>
-      <c r="E29" s="25" t="n">
+      <c r="E29" s="22" t="n">
         <v>1560</v>
       </c>
-      <c r="F29" s="25" t="n">
+      <c r="F29" s="22" t="n">
         <v>190</v>
       </c>
-      <c r="G29" s="25" t="n">
+      <c r="G29" s="22" t="n">
         <v>1180</v>
       </c>
-      <c r="H29" s="25" t="n">
+      <c r="H29" s="22" t="n">
         <v>2760</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="inlineStr">
+      <c r="A30" s="2" t="inlineStr">
         <is>
           <t>2 H/S</t>
         </is>
@@ -25958,22 +25707,22 @@
       <c r="B30" t="n">
         <v>1</v>
       </c>
-      <c r="C30" s="25" t="n">
+      <c r="C30" s="22" t="n">
         <v>110</v>
       </c>
-      <c r="D30" s="25" t="n">
+      <c r="D30" s="22" t="n">
         <v>470</v>
       </c>
-      <c r="E30" s="25" t="n">
+      <c r="E30" s="22" t="n">
         <v>640</v>
       </c>
-      <c r="F30" s="25" t="n">
+      <c r="F30" s="22" t="n">
         <v>110</v>
       </c>
-      <c r="G30" s="25" t="n">
+      <c r="G30" s="22" t="n">
         <v>670</v>
       </c>
-      <c r="H30" s="25" t="n">
+      <c r="H30" s="22" t="n">
         <v>840</v>
       </c>
     </row>
@@ -25981,22 +25730,22 @@
       <c r="B31" t="n">
         <v>2</v>
       </c>
-      <c r="C31" s="25" t="n">
+      <c r="C31" s="22" t="n">
         <v>140</v>
       </c>
-      <c r="D31" s="25" t="n">
+      <c r="D31" s="22" t="n">
         <v>570</v>
       </c>
-      <c r="E31" s="25" t="n">
+      <c r="E31" s="22" t="n">
         <v>840</v>
       </c>
-      <c r="F31" s="25" t="n">
+      <c r="F31" s="22" t="n">
         <v>140</v>
       </c>
-      <c r="G31" s="25" t="n">
+      <c r="G31" s="22" t="n">
         <v>870</v>
       </c>
-      <c r="H31" s="25" t="n">
+      <c r="H31" s="22" t="n">
         <v>1240</v>
       </c>
     </row>
@@ -26004,22 +25753,22 @@
       <c r="B32" t="n">
         <v>3</v>
       </c>
-      <c r="C32" s="25" t="n">
+      <c r="C32" s="22" t="n">
         <v>170</v>
       </c>
-      <c r="D32" s="25" t="n">
+      <c r="D32" s="22" t="n">
         <v>670</v>
       </c>
-      <c r="E32" s="25" t="n">
+      <c r="E32" s="22" t="n">
         <v>1040</v>
       </c>
-      <c r="F32" s="25" t="n">
+      <c r="F32" s="22" t="n">
         <v>170</v>
       </c>
-      <c r="G32" s="25" t="n">
+      <c r="G32" s="22" t="n">
         <v>1070</v>
       </c>
-      <c r="H32" s="25" t="n">
+      <c r="H32" s="22" t="n">
         <v>1640</v>
       </c>
     </row>
@@ -26027,22 +25776,22 @@
       <c r="B33" t="n">
         <v>4</v>
       </c>
-      <c r="C33" s="25" t="n">
+      <c r="C33" s="22" t="n">
         <v>200</v>
       </c>
-      <c r="D33" s="25" t="n">
+      <c r="D33" s="22" t="n">
         <v>770</v>
       </c>
-      <c r="E33" s="25" t="n">
+      <c r="E33" s="22" t="n">
         <v>1240</v>
       </c>
-      <c r="F33" s="25" t="n">
+      <c r="F33" s="22" t="n">
         <v>200</v>
       </c>
-      <c r="G33" s="25" t="n">
+      <c r="G33" s="22" t="n">
         <v>1270</v>
       </c>
-      <c r="H33" s="25" t="n">
+      <c r="H33" s="22" t="n">
         <v>2040</v>
       </c>
     </row>
@@ -26050,22 +25799,22 @@
       <c r="B34" t="n">
         <v>5</v>
       </c>
-      <c r="C34" s="25" t="n">
+      <c r="C34" s="22" t="n">
         <v>230</v>
       </c>
-      <c r="D34" s="25" t="n">
+      <c r="D34" s="22" t="n">
         <v>870</v>
       </c>
-      <c r="E34" s="25" t="n">
+      <c r="E34" s="22" t="n">
         <v>1440</v>
       </c>
-      <c r="F34" s="25" t="n">
+      <c r="F34" s="22" t="n">
         <v>230</v>
       </c>
-      <c r="G34" s="25" t="n">
+      <c r="G34" s="22" t="n">
         <v>1470</v>
       </c>
-      <c r="H34" s="25" t="n">
+      <c r="H34" s="22" t="n">
         <v>2440</v>
       </c>
     </row>
@@ -26073,27 +25822,27 @@
       <c r="B35" t="n">
         <v>6</v>
       </c>
-      <c r="C35" s="25" t="n">
+      <c r="C35" s="22" t="n">
         <v>260</v>
       </c>
-      <c r="D35" s="25" t="n">
+      <c r="D35" s="22" t="n">
         <v>970</v>
       </c>
-      <c r="E35" s="25" t="n">
+      <c r="E35" s="22" t="n">
         <v>1640</v>
       </c>
-      <c r="F35" s="25" t="n">
+      <c r="F35" s="22" t="n">
         <v>260</v>
       </c>
-      <c r="G35" s="25" t="n">
+      <c r="G35" s="22" t="n">
         <v>1670</v>
       </c>
-      <c r="H35" s="25" t="n">
+      <c r="H35" s="22" t="n">
         <v>2840</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="3" t="inlineStr">
+      <c r="A36" s="2" t="inlineStr">
         <is>
           <t>2 NT</t>
         </is>
@@ -26101,22 +25850,22 @@
       <c r="B36" t="n">
         <v>1</v>
       </c>
-      <c r="C36" s="25" t="n">
+      <c r="C36" s="22" t="n">
         <v>120</v>
       </c>
-      <c r="D36" s="25" t="n">
+      <c r="D36" s="22" t="n">
         <v>490</v>
       </c>
-      <c r="E36" s="25" t="n">
+      <c r="E36" s="22" t="n">
         <v>680</v>
       </c>
-      <c r="F36" s="25" t="n">
+      <c r="F36" s="22" t="n">
         <v>120</v>
       </c>
-      <c r="G36" s="25" t="n">
+      <c r="G36" s="22" t="n">
         <v>690</v>
       </c>
-      <c r="H36" s="25" t="n">
+      <c r="H36" s="22" t="n">
         <v>880</v>
       </c>
     </row>
@@ -26124,22 +25873,22 @@
       <c r="B37" t="n">
         <v>2</v>
       </c>
-      <c r="C37" s="25" t="n">
+      <c r="C37" s="22" t="n">
         <v>150</v>
       </c>
-      <c r="D37" s="25" t="n">
+      <c r="D37" s="22" t="n">
         <v>590</v>
       </c>
-      <c r="E37" s="25" t="n">
+      <c r="E37" s="22" t="n">
         <v>880</v>
       </c>
-      <c r="F37" s="25" t="n">
+      <c r="F37" s="22" t="n">
         <v>150</v>
       </c>
-      <c r="G37" s="25" t="n">
+      <c r="G37" s="22" t="n">
         <v>890</v>
       </c>
-      <c r="H37" s="25" t="n">
+      <c r="H37" s="22" t="n">
         <v>1280</v>
       </c>
     </row>
@@ -26147,22 +25896,22 @@
       <c r="B38" t="n">
         <v>3</v>
       </c>
-      <c r="C38" s="25" t="n">
+      <c r="C38" s="22" t="n">
         <v>180</v>
       </c>
-      <c r="D38" s="25" t="n">
+      <c r="D38" s="22" t="n">
         <v>690</v>
       </c>
-      <c r="E38" s="25" t="n">
+      <c r="E38" s="22" t="n">
         <v>1080</v>
       </c>
-      <c r="F38" s="25" t="n">
+      <c r="F38" s="22" t="n">
         <v>180</v>
       </c>
-      <c r="G38" s="25" t="n">
+      <c r="G38" s="22" t="n">
         <v>1090</v>
       </c>
-      <c r="H38" s="25" t="n">
+      <c r="H38" s="22" t="n">
         <v>1680</v>
       </c>
     </row>
@@ -26170,22 +25919,22 @@
       <c r="B39" t="n">
         <v>4</v>
       </c>
-      <c r="C39" s="25" t="n">
+      <c r="C39" s="22" t="n">
         <v>210</v>
       </c>
-      <c r="D39" s="25" t="n">
+      <c r="D39" s="22" t="n">
         <v>790</v>
       </c>
-      <c r="E39" s="25" t="n">
+      <c r="E39" s="22" t="n">
         <v>1280</v>
       </c>
-      <c r="F39" s="25" t="n">
+      <c r="F39" s="22" t="n">
         <v>210</v>
       </c>
-      <c r="G39" s="25" t="n">
+      <c r="G39" s="22" t="n">
         <v>1290</v>
       </c>
-      <c r="H39" s="25" t="n">
+      <c r="H39" s="22" t="n">
         <v>2080</v>
       </c>
     </row>
@@ -26193,22 +25942,22 @@
       <c r="B40" t="n">
         <v>5</v>
       </c>
-      <c r="C40" s="25" t="n">
+      <c r="C40" s="22" t="n">
         <v>240</v>
       </c>
-      <c r="D40" s="25" t="n">
+      <c r="D40" s="22" t="n">
         <v>890</v>
       </c>
-      <c r="E40" s="25" t="n">
+      <c r="E40" s="22" t="n">
         <v>1480</v>
       </c>
-      <c r="F40" s="25" t="n">
+      <c r="F40" s="22" t="n">
         <v>240</v>
       </c>
-      <c r="G40" s="25" t="n">
+      <c r="G40" s="22" t="n">
         <v>1490</v>
       </c>
-      <c r="H40" s="25" t="n">
+      <c r="H40" s="22" t="n">
         <v>2480</v>
       </c>
     </row>
@@ -26216,27 +25965,27 @@
       <c r="B41" t="n">
         <v>6</v>
       </c>
-      <c r="C41" s="25" t="n">
+      <c r="C41" s="22" t="n">
         <v>270</v>
       </c>
-      <c r="D41" s="25" t="n">
+      <c r="D41" s="22" t="n">
         <v>990</v>
       </c>
-      <c r="E41" s="25" t="n">
+      <c r="E41" s="22" t="n">
         <v>1680</v>
       </c>
-      <c r="F41" s="25" t="n">
+      <c r="F41" s="22" t="n">
         <v>270</v>
       </c>
-      <c r="G41" s="25" t="n">
+      <c r="G41" s="22" t="n">
         <v>1690</v>
       </c>
-      <c r="H41" s="25" t="n">
+      <c r="H41" s="22" t="n">
         <v>2880</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="3" t="inlineStr">
+      <c r="A42" s="2" t="inlineStr">
         <is>
           <t>3 D/C</t>
         </is>
@@ -26244,22 +25993,22 @@
       <c r="B42" t="n">
         <v>1</v>
       </c>
-      <c r="C42" s="25" t="n">
+      <c r="C42" s="22" t="n">
         <v>110</v>
       </c>
-      <c r="D42" s="25" t="n">
+      <c r="D42" s="22" t="n">
         <v>470</v>
       </c>
-      <c r="E42" s="25" t="n">
+      <c r="E42" s="22" t="n">
         <v>640</v>
       </c>
-      <c r="F42" s="25" t="n">
+      <c r="F42" s="22" t="n">
         <v>110</v>
       </c>
-      <c r="G42" s="25" t="n">
+      <c r="G42" s="22" t="n">
         <v>670</v>
       </c>
-      <c r="H42" s="25" t="n">
+      <c r="H42" s="22" t="n">
         <v>840</v>
       </c>
     </row>
@@ -26267,22 +26016,22 @@
       <c r="B43" t="n">
         <v>2</v>
       </c>
-      <c r="C43" s="25" t="n">
+      <c r="C43" s="22" t="n">
         <v>130</v>
       </c>
-      <c r="D43" s="25" t="n">
+      <c r="D43" s="22" t="n">
         <v>570</v>
       </c>
-      <c r="E43" s="25" t="n">
+      <c r="E43" s="22" t="n">
         <v>840</v>
       </c>
-      <c r="F43" s="25" t="n">
+      <c r="F43" s="22" t="n">
         <v>130</v>
       </c>
-      <c r="G43" s="25" t="n">
+      <c r="G43" s="22" t="n">
         <v>870</v>
       </c>
-      <c r="H43" s="25" t="n">
+      <c r="H43" s="22" t="n">
         <v>1240</v>
       </c>
     </row>
@@ -26290,22 +26039,22 @@
       <c r="B44" t="n">
         <v>3</v>
       </c>
-      <c r="C44" s="25" t="n">
+      <c r="C44" s="22" t="n">
         <v>150</v>
       </c>
-      <c r="D44" s="25" t="n">
+      <c r="D44" s="22" t="n">
         <v>670</v>
       </c>
-      <c r="E44" s="25" t="n">
+      <c r="E44" s="22" t="n">
         <v>1040</v>
       </c>
-      <c r="F44" s="25" t="n">
+      <c r="F44" s="22" t="n">
         <v>150</v>
       </c>
-      <c r="G44" s="25" t="n">
+      <c r="G44" s="22" t="n">
         <v>1070</v>
       </c>
-      <c r="H44" s="25" t="n">
+      <c r="H44" s="22" t="n">
         <v>1640</v>
       </c>
     </row>
@@ -26313,22 +26062,22 @@
       <c r="B45" t="n">
         <v>4</v>
       </c>
-      <c r="C45" s="25" t="n">
+      <c r="C45" s="22" t="n">
         <v>170</v>
       </c>
-      <c r="D45" s="25" t="n">
+      <c r="D45" s="22" t="n">
         <v>770</v>
       </c>
-      <c r="E45" s="25" t="n">
+      <c r="E45" s="22" t="n">
         <v>1240</v>
       </c>
-      <c r="F45" s="25" t="n">
+      <c r="F45" s="22" t="n">
         <v>170</v>
       </c>
-      <c r="G45" s="25" t="n">
+      <c r="G45" s="22" t="n">
         <v>1270</v>
       </c>
-      <c r="H45" s="25" t="n">
+      <c r="H45" s="22" t="n">
         <v>2040</v>
       </c>
     </row>
@@ -26336,27 +26085,27 @@
       <c r="B46" t="n">
         <v>5</v>
       </c>
-      <c r="C46" s="25" t="n">
+      <c r="C46" s="22" t="n">
         <v>190</v>
       </c>
-      <c r="D46" s="25" t="n">
+      <c r="D46" s="22" t="n">
         <v>870</v>
       </c>
-      <c r="E46" s="25" t="n">
+      <c r="E46" s="22" t="n">
         <v>1440</v>
       </c>
-      <c r="F46" s="25" t="n">
+      <c r="F46" s="22" t="n">
         <v>190</v>
       </c>
-      <c r="G46" s="25" t="n">
+      <c r="G46" s="22" t="n">
         <v>1470</v>
       </c>
-      <c r="H46" s="25" t="n">
+      <c r="H46" s="22" t="n">
         <v>2440</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="3" t="inlineStr">
+      <c r="A47" s="2" t="inlineStr">
         <is>
           <t>3 H/S</t>
         </is>
@@ -26364,22 +26113,22 @@
       <c r="B47" t="n">
         <v>1</v>
       </c>
-      <c r="C47" s="25" t="n">
+      <c r="C47" s="22" t="n">
         <v>140</v>
       </c>
-      <c r="D47" s="25" t="n">
+      <c r="D47" s="22" t="n">
         <v>530</v>
       </c>
-      <c r="E47" s="25" t="n">
+      <c r="E47" s="22" t="n">
         <v>760</v>
       </c>
-      <c r="F47" s="25" t="n">
+      <c r="F47" s="22" t="n">
         <v>140</v>
       </c>
-      <c r="G47" s="25" t="n">
+      <c r="G47" s="22" t="n">
         <v>730</v>
       </c>
-      <c r="H47" s="25" t="n">
+      <c r="H47" s="22" t="n">
         <v>960</v>
       </c>
     </row>
@@ -26387,22 +26136,22 @@
       <c r="B48" t="n">
         <v>2</v>
       </c>
-      <c r="C48" s="25" t="n">
+      <c r="C48" s="22" t="n">
         <v>170</v>
       </c>
-      <c r="D48" s="25" t="n">
+      <c r="D48" s="22" t="n">
         <v>630</v>
       </c>
-      <c r="E48" s="25" t="n">
+      <c r="E48" s="22" t="n">
         <v>960</v>
       </c>
-      <c r="F48" s="25" t="n">
+      <c r="F48" s="22" t="n">
         <v>170</v>
       </c>
-      <c r="G48" s="25" t="n">
+      <c r="G48" s="22" t="n">
         <v>930</v>
       </c>
-      <c r="H48" s="25" t="n">
+      <c r="H48" s="22" t="n">
         <v>1360</v>
       </c>
     </row>
@@ -26410,22 +26159,22 @@
       <c r="B49" t="n">
         <v>3</v>
       </c>
-      <c r="C49" s="25" t="n">
+      <c r="C49" s="22" t="n">
         <v>200</v>
       </c>
-      <c r="D49" s="25" t="n">
+      <c r="D49" s="22" t="n">
         <v>730</v>
       </c>
-      <c r="E49" s="25" t="n">
+      <c r="E49" s="22" t="n">
         <v>1160</v>
       </c>
-      <c r="F49" s="25" t="n">
+      <c r="F49" s="22" t="n">
         <v>200</v>
       </c>
-      <c r="G49" s="25" t="n">
+      <c r="G49" s="22" t="n">
         <v>1130</v>
       </c>
-      <c r="H49" s="25" t="n">
+      <c r="H49" s="22" t="n">
         <v>1760</v>
       </c>
     </row>
@@ -26433,22 +26182,22 @@
       <c r="B50" t="n">
         <v>4</v>
       </c>
-      <c r="C50" s="25" t="n">
+      <c r="C50" s="22" t="n">
         <v>230</v>
       </c>
-      <c r="D50" s="25" t="n">
+      <c r="D50" s="22" t="n">
         <v>830</v>
       </c>
-      <c r="E50" s="25" t="n">
+      <c r="E50" s="22" t="n">
         <v>1360</v>
       </c>
-      <c r="F50" s="25" t="n">
+      <c r="F50" s="22" t="n">
         <v>230</v>
       </c>
-      <c r="G50" s="25" t="n">
+      <c r="G50" s="22" t="n">
         <v>1330</v>
       </c>
-      <c r="H50" s="25" t="n">
+      <c r="H50" s="22" t="n">
         <v>2160</v>
       </c>
     </row>
@@ -26456,27 +26205,27 @@
       <c r="B51" t="n">
         <v>5</v>
       </c>
-      <c r="C51" s="25" t="n">
+      <c r="C51" s="22" t="n">
         <v>260</v>
       </c>
-      <c r="D51" s="25" t="n">
+      <c r="D51" s="22" t="n">
         <v>930</v>
       </c>
-      <c r="E51" s="25" t="n">
+      <c r="E51" s="22" t="n">
         <v>1560</v>
       </c>
-      <c r="F51" s="25" t="n">
+      <c r="F51" s="22" t="n">
         <v>260</v>
       </c>
-      <c r="G51" s="25" t="n">
+      <c r="G51" s="22" t="n">
         <v>1530</v>
       </c>
-      <c r="H51" s="25" t="n">
+      <c r="H51" s="22" t="n">
         <v>2560</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="3" t="inlineStr">
+      <c r="A52" s="2" t="inlineStr">
         <is>
           <t>3 NT</t>
         </is>
@@ -26484,22 +26233,22 @@
       <c r="B52" t="n">
         <v>1</v>
       </c>
-      <c r="C52" s="25" t="n">
+      <c r="C52" s="22" t="n">
         <v>400</v>
       </c>
-      <c r="D52" s="25" t="n">
+      <c r="D52" s="22" t="n">
         <v>550</v>
       </c>
-      <c r="E52" s="25" t="n">
+      <c r="E52" s="22" t="n">
         <v>800</v>
       </c>
-      <c r="F52" s="25" t="n">
+      <c r="F52" s="22" t="n">
         <v>600</v>
       </c>
-      <c r="G52" s="25" t="n">
+      <c r="G52" s="22" t="n">
         <v>750</v>
       </c>
-      <c r="H52" s="25" t="n">
+      <c r="H52" s="22" t="n">
         <v>1000</v>
       </c>
     </row>
@@ -26507,22 +26256,22 @@
       <c r="B53" t="n">
         <v>2</v>
       </c>
-      <c r="C53" s="25" t="n">
+      <c r="C53" s="22" t="n">
         <v>430</v>
       </c>
-      <c r="D53" s="25" t="n">
+      <c r="D53" s="22" t="n">
         <v>650</v>
       </c>
-      <c r="E53" s="25" t="n">
+      <c r="E53" s="22" t="n">
         <v>1000</v>
       </c>
-      <c r="F53" s="25" t="n">
+      <c r="F53" s="22" t="n">
         <v>630</v>
       </c>
-      <c r="G53" s="25" t="n">
+      <c r="G53" s="22" t="n">
         <v>950</v>
       </c>
-      <c r="H53" s="25" t="n">
+      <c r="H53" s="22" t="n">
         <v>1400</v>
       </c>
     </row>
@@ -26530,22 +26279,22 @@
       <c r="B54" t="n">
         <v>3</v>
       </c>
-      <c r="C54" s="25" t="n">
+      <c r="C54" s="22" t="n">
         <v>460</v>
       </c>
-      <c r="D54" s="25" t="n">
+      <c r="D54" s="22" t="n">
         <v>750</v>
       </c>
-      <c r="E54" s="25" t="n">
+      <c r="E54" s="22" t="n">
         <v>1200</v>
       </c>
-      <c r="F54" s="25" t="n">
+      <c r="F54" s="22" t="n">
         <v>660</v>
       </c>
-      <c r="G54" s="25" t="n">
+      <c r="G54" s="22" t="n">
         <v>1150</v>
       </c>
-      <c r="H54" s="25" t="n">
+      <c r="H54" s="22" t="n">
         <v>1800</v>
       </c>
     </row>
@@ -26553,22 +26302,22 @@
       <c r="B55" t="n">
         <v>4</v>
       </c>
-      <c r="C55" s="25" t="n">
+      <c r="C55" s="22" t="n">
         <v>490</v>
       </c>
-      <c r="D55" s="25" t="n">
+      <c r="D55" s="22" t="n">
         <v>850</v>
       </c>
-      <c r="E55" s="25" t="n">
+      <c r="E55" s="22" t="n">
         <v>1400</v>
       </c>
-      <c r="F55" s="25" t="n">
+      <c r="F55" s="22" t="n">
         <v>690</v>
       </c>
-      <c r="G55" s="25" t="n">
+      <c r="G55" s="22" t="n">
         <v>1350</v>
       </c>
-      <c r="H55" s="25" t="n">
+      <c r="H55" s="22" t="n">
         <v>2200</v>
       </c>
     </row>
@@ -26576,27 +26325,27 @@
       <c r="B56" t="n">
         <v>5</v>
       </c>
-      <c r="C56" s="25" t="n">
+      <c r="C56" s="22" t="n">
         <v>520</v>
       </c>
-      <c r="D56" s="25" t="n">
+      <c r="D56" s="22" t="n">
         <v>950</v>
       </c>
-      <c r="E56" s="25" t="n">
+      <c r="E56" s="22" t="n">
         <v>1600</v>
       </c>
-      <c r="F56" s="25" t="n">
+      <c r="F56" s="22" t="n">
         <v>720</v>
       </c>
-      <c r="G56" s="25" t="n">
+      <c r="G56" s="22" t="n">
         <v>1550</v>
       </c>
-      <c r="H56" s="25" t="n">
+      <c r="H56" s="22" t="n">
         <v>2600</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="3" t="inlineStr">
+      <c r="A57" s="2" t="inlineStr">
         <is>
           <t>4 D/C</t>
         </is>
@@ -26604,22 +26353,22 @@
       <c r="B57" t="n">
         <v>1</v>
       </c>
-      <c r="C57" s="25" t="n">
+      <c r="C57" s="22" t="n">
         <v>130</v>
       </c>
-      <c r="D57" s="25" t="n">
+      <c r="D57" s="22" t="n">
         <v>510</v>
       </c>
-      <c r="E57" s="25" t="n">
+      <c r="E57" s="22" t="n">
         <v>720</v>
       </c>
-      <c r="F57" s="25" t="n">
+      <c r="F57" s="22" t="n">
         <v>130</v>
       </c>
-      <c r="G57" s="25" t="n">
+      <c r="G57" s="22" t="n">
         <v>710</v>
       </c>
-      <c r="H57" s="25" t="n">
+      <c r="H57" s="22" t="n">
         <v>920</v>
       </c>
     </row>
@@ -26627,22 +26376,22 @@
       <c r="B58" t="n">
         <v>2</v>
       </c>
-      <c r="C58" s="25" t="n">
+      <c r="C58" s="22" t="n">
         <v>150</v>
       </c>
-      <c r="D58" s="25" t="n">
+      <c r="D58" s="22" t="n">
         <v>610</v>
       </c>
-      <c r="E58" s="25" t="n">
+      <c r="E58" s="22" t="n">
         <v>920</v>
       </c>
-      <c r="F58" s="25" t="n">
+      <c r="F58" s="22" t="n">
         <v>150</v>
       </c>
-      <c r="G58" s="25" t="n">
+      <c r="G58" s="22" t="n">
         <v>910</v>
       </c>
-      <c r="H58" s="25" t="n">
+      <c r="H58" s="22" t="n">
         <v>1320</v>
       </c>
     </row>
@@ -26650,22 +26399,22 @@
       <c r="B59" t="n">
         <v>3</v>
       </c>
-      <c r="C59" s="25" t="n">
+      <c r="C59" s="22" t="n">
         <v>170</v>
       </c>
-      <c r="D59" s="25" t="n">
+      <c r="D59" s="22" t="n">
         <v>710</v>
       </c>
-      <c r="E59" s="25" t="n">
+      <c r="E59" s="22" t="n">
         <v>1120</v>
       </c>
-      <c r="F59" s="25" t="n">
+      <c r="F59" s="22" t="n">
         <v>170</v>
       </c>
-      <c r="G59" s="25" t="n">
+      <c r="G59" s="22" t="n">
         <v>1110</v>
       </c>
-      <c r="H59" s="25" t="n">
+      <c r="H59" s="22" t="n">
         <v>1720</v>
       </c>
     </row>
@@ -26673,27 +26422,27 @@
       <c r="B60" t="n">
         <v>4</v>
       </c>
-      <c r="C60" s="25" t="n">
+      <c r="C60" s="22" t="n">
         <v>190</v>
       </c>
-      <c r="D60" s="25" t="n">
+      <c r="D60" s="22" t="n">
         <v>810</v>
       </c>
-      <c r="E60" s="25" t="n">
+      <c r="E60" s="22" t="n">
         <v>1320</v>
       </c>
-      <c r="F60" s="25" t="n">
+      <c r="F60" s="22" t="n">
         <v>190</v>
       </c>
-      <c r="G60" s="25" t="n">
+      <c r="G60" s="22" t="n">
         <v>1310</v>
       </c>
-      <c r="H60" s="25" t="n">
+      <c r="H60" s="22" t="n">
         <v>2120</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="3" t="inlineStr">
+      <c r="A61" s="2" t="inlineStr">
         <is>
           <t>4 H/S</t>
         </is>
@@ -26701,22 +26450,22 @@
       <c r="B61" t="n">
         <v>1</v>
       </c>
-      <c r="C61" s="25" t="n">
+      <c r="C61" s="22" t="n">
         <v>420</v>
       </c>
-      <c r="D61" s="25" t="n">
+      <c r="D61" s="22" t="n">
         <v>590</v>
       </c>
-      <c r="E61" s="25" t="n">
+      <c r="E61" s="22" t="n">
         <v>880</v>
       </c>
-      <c r="F61" s="25" t="n">
+      <c r="F61" s="22" t="n">
         <v>620</v>
       </c>
-      <c r="G61" s="25" t="n">
+      <c r="G61" s="22" t="n">
         <v>790</v>
       </c>
-      <c r="H61" s="25" t="n">
+      <c r="H61" s="22" t="n">
         <v>1080</v>
       </c>
     </row>
@@ -26724,22 +26473,22 @@
       <c r="B62" t="n">
         <v>2</v>
       </c>
-      <c r="C62" s="25" t="n">
+      <c r="C62" s="22" t="n">
         <v>450</v>
       </c>
-      <c r="D62" s="25" t="n">
+      <c r="D62" s="22" t="n">
         <v>690</v>
       </c>
-      <c r="E62" s="25" t="n">
+      <c r="E62" s="22" t="n">
         <v>1080</v>
       </c>
-      <c r="F62" s="25" t="n">
+      <c r="F62" s="22" t="n">
         <v>650</v>
       </c>
-      <c r="G62" s="25" t="n">
+      <c r="G62" s="22" t="n">
         <v>990</v>
       </c>
-      <c r="H62" s="25" t="n">
+      <c r="H62" s="22" t="n">
         <v>1480</v>
       </c>
     </row>
@@ -26747,22 +26496,22 @@
       <c r="B63" t="n">
         <v>3</v>
       </c>
-      <c r="C63" s="25" t="n">
+      <c r="C63" s="22" t="n">
         <v>480</v>
       </c>
-      <c r="D63" s="25" t="n">
+      <c r="D63" s="22" t="n">
         <v>790</v>
       </c>
-      <c r="E63" s="25" t="n">
+      <c r="E63" s="22" t="n">
         <v>1280</v>
       </c>
-      <c r="F63" s="25" t="n">
+      <c r="F63" s="22" t="n">
         <v>680</v>
       </c>
-      <c r="G63" s="25" t="n">
+      <c r="G63" s="22" t="n">
         <v>1190</v>
       </c>
-      <c r="H63" s="25" t="n">
+      <c r="H63" s="22" t="n">
         <v>1880</v>
       </c>
     </row>
@@ -26770,27 +26519,27 @@
       <c r="B64" t="n">
         <v>4</v>
       </c>
-      <c r="C64" s="25" t="n">
+      <c r="C64" s="22" t="n">
         <v>510</v>
       </c>
-      <c r="D64" s="25" t="n">
+      <c r="D64" s="22" t="n">
         <v>890</v>
       </c>
-      <c r="E64" s="25" t="n">
+      <c r="E64" s="22" t="n">
         <v>1480</v>
       </c>
-      <c r="F64" s="25" t="n">
+      <c r="F64" s="22" t="n">
         <v>710</v>
       </c>
-      <c r="G64" s="25" t="n">
+      <c r="G64" s="22" t="n">
         <v>1390</v>
       </c>
-      <c r="H64" s="25" t="n">
+      <c r="H64" s="22" t="n">
         <v>2280</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="3" t="inlineStr">
+      <c r="A65" s="2" t="inlineStr">
         <is>
           <t>4 NT</t>
         </is>
@@ -26798,22 +26547,22 @@
       <c r="B65" t="n">
         <v>1</v>
       </c>
-      <c r="C65" s="25" t="n">
+      <c r="C65" s="22" t="n">
         <v>430</v>
       </c>
-      <c r="D65" s="25" t="n">
+      <c r="D65" s="22" t="n">
         <v>610</v>
       </c>
-      <c r="E65" s="25" t="n">
+      <c r="E65" s="22" t="n">
         <v>920</v>
       </c>
-      <c r="F65" s="25" t="n">
+      <c r="F65" s="22" t="n">
         <v>630</v>
       </c>
-      <c r="G65" s="25" t="n">
+      <c r="G65" s="22" t="n">
         <v>810</v>
       </c>
-      <c r="H65" s="25" t="n">
+      <c r="H65" s="22" t="n">
         <v>1120</v>
       </c>
     </row>
@@ -26821,22 +26570,22 @@
       <c r="B66" t="n">
         <v>2</v>
       </c>
-      <c r="C66" s="25" t="n">
+      <c r="C66" s="22" t="n">
         <v>460</v>
       </c>
-      <c r="D66" s="25" t="n">
+      <c r="D66" s="22" t="n">
         <v>710</v>
       </c>
-      <c r="E66" s="25" t="n">
+      <c r="E66" s="22" t="n">
         <v>1120</v>
       </c>
-      <c r="F66" s="25" t="n">
+      <c r="F66" s="22" t="n">
         <v>660</v>
       </c>
-      <c r="G66" s="25" t="n">
+      <c r="G66" s="22" t="n">
         <v>1010</v>
       </c>
-      <c r="H66" s="25" t="n">
+      <c r="H66" s="22" t="n">
         <v>1520</v>
       </c>
     </row>
@@ -26844,22 +26593,22 @@
       <c r="B67" t="n">
         <v>3</v>
       </c>
-      <c r="C67" s="25" t="n">
+      <c r="C67" s="22" t="n">
         <v>490</v>
       </c>
-      <c r="D67" s="25" t="n">
+      <c r="D67" s="22" t="n">
         <v>810</v>
       </c>
-      <c r="E67" s="25" t="n">
+      <c r="E67" s="22" t="n">
         <v>1320</v>
       </c>
-      <c r="F67" s="25" t="n">
+      <c r="F67" s="22" t="n">
         <v>690</v>
       </c>
-      <c r="G67" s="25" t="n">
+      <c r="G67" s="22" t="n">
         <v>1210</v>
       </c>
-      <c r="H67" s="25" t="n">
+      <c r="H67" s="22" t="n">
         <v>1920</v>
       </c>
     </row>
@@ -26867,27 +26616,27 @@
       <c r="B68" t="n">
         <v>4</v>
       </c>
-      <c r="C68" s="25" t="n">
+      <c r="C68" s="22" t="n">
         <v>520</v>
       </c>
-      <c r="D68" s="25" t="n">
+      <c r="D68" s="22" t="n">
         <v>910</v>
       </c>
-      <c r="E68" s="25" t="n">
+      <c r="E68" s="22" t="n">
         <v>1520</v>
       </c>
-      <c r="F68" s="25" t="n">
+      <c r="F68" s="22" t="n">
         <v>720</v>
       </c>
-      <c r="G68" s="25" t="n">
+      <c r="G68" s="22" t="n">
         <v>1410</v>
       </c>
-      <c r="H68" s="25" t="n">
+      <c r="H68" s="22" t="n">
         <v>2320</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="3" t="inlineStr">
+      <c r="A69" s="2" t="inlineStr">
         <is>
           <t>5 D/C</t>
         </is>
@@ -26895,22 +26644,22 @@
       <c r="B69" t="n">
         <v>1</v>
       </c>
-      <c r="C69" s="25" t="n">
+      <c r="C69" s="22" t="n">
         <v>400</v>
       </c>
-      <c r="D69" s="25" t="n">
+      <c r="D69" s="22" t="n">
         <v>550</v>
       </c>
-      <c r="E69" s="25" t="n">
+      <c r="E69" s="22" t="n">
         <v>800</v>
       </c>
-      <c r="F69" s="25" t="n">
+      <c r="F69" s="22" t="n">
         <v>600</v>
       </c>
-      <c r="G69" s="25" t="n">
+      <c r="G69" s="22" t="n">
         <v>750</v>
       </c>
-      <c r="H69" s="25" t="n">
+      <c r="H69" s="22" t="n">
         <v>1000</v>
       </c>
     </row>
@@ -26918,22 +26667,22 @@
       <c r="B70" t="n">
         <v>2</v>
       </c>
-      <c r="C70" s="25" t="n">
+      <c r="C70" s="22" t="n">
         <v>420</v>
       </c>
-      <c r="D70" s="25" t="n">
+      <c r="D70" s="22" t="n">
         <v>650</v>
       </c>
-      <c r="E70" s="25" t="n">
+      <c r="E70" s="22" t="n">
         <v>1000</v>
       </c>
-      <c r="F70" s="25" t="n">
+      <c r="F70" s="22" t="n">
         <v>620</v>
       </c>
-      <c r="G70" s="25" t="n">
+      <c r="G70" s="22" t="n">
         <v>950</v>
       </c>
-      <c r="H70" s="25" t="n">
+      <c r="H70" s="22" t="n">
         <v>1400</v>
       </c>
     </row>
@@ -26941,27 +26690,27 @@
       <c r="B71" t="n">
         <v>3</v>
       </c>
-      <c r="C71" s="25" t="n">
+      <c r="C71" s="22" t="n">
         <v>440</v>
       </c>
-      <c r="D71" s="25" t="n">
+      <c r="D71" s="22" t="n">
         <v>750</v>
       </c>
-      <c r="E71" s="25" t="n">
+      <c r="E71" s="22" t="n">
         <v>1200</v>
       </c>
-      <c r="F71" s="25" t="n">
+      <c r="F71" s="22" t="n">
         <v>640</v>
       </c>
-      <c r="G71" s="25" t="n">
+      <c r="G71" s="22" t="n">
         <v>1150</v>
       </c>
-      <c r="H71" s="25" t="n">
+      <c r="H71" s="22" t="n">
         <v>1800</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="3" t="inlineStr">
+      <c r="A72" s="2" t="inlineStr">
         <is>
           <t>5 H/S</t>
         </is>
@@ -26969,22 +26718,22 @@
       <c r="B72" t="n">
         <v>1</v>
       </c>
-      <c r="C72" s="25" t="n">
+      <c r="C72" s="22" t="n">
         <v>450</v>
       </c>
-      <c r="D72" s="25" t="n">
+      <c r="D72" s="22" t="n">
         <v>650</v>
       </c>
-      <c r="E72" s="25" t="n">
+      <c r="E72" s="22" t="n">
         <v>1000</v>
       </c>
-      <c r="F72" s="25" t="n">
+      <c r="F72" s="22" t="n">
         <v>650</v>
       </c>
-      <c r="G72" s="25" t="n">
+      <c r="G72" s="22" t="n">
         <v>850</v>
       </c>
-      <c r="H72" s="25" t="n">
+      <c r="H72" s="22" t="n">
         <v>1200</v>
       </c>
     </row>
@@ -26992,22 +26741,22 @@
       <c r="B73" t="n">
         <v>2</v>
       </c>
-      <c r="C73" s="25" t="n">
+      <c r="C73" s="22" t="n">
         <v>480</v>
       </c>
-      <c r="D73" s="25" t="n">
+      <c r="D73" s="22" t="n">
         <v>750</v>
       </c>
-      <c r="E73" s="25" t="n">
+      <c r="E73" s="22" t="n">
         <v>1200</v>
       </c>
-      <c r="F73" s="25" t="n">
+      <c r="F73" s="22" t="n">
         <v>680</v>
       </c>
-      <c r="G73" s="25" t="n">
+      <c r="G73" s="22" t="n">
         <v>1050</v>
       </c>
-      <c r="H73" s="25" t="n">
+      <c r="H73" s="22" t="n">
         <v>1600</v>
       </c>
     </row>
@@ -27015,27 +26764,27 @@
       <c r="B74" t="n">
         <v>3</v>
       </c>
-      <c r="C74" s="25" t="n">
+      <c r="C74" s="22" t="n">
         <v>510</v>
       </c>
-      <c r="D74" s="25" t="n">
+      <c r="D74" s="22" t="n">
         <v>850</v>
       </c>
-      <c r="E74" s="25" t="n">
+      <c r="E74" s="22" t="n">
         <v>1400</v>
       </c>
-      <c r="F74" s="25" t="n">
+      <c r="F74" s="22" t="n">
         <v>710</v>
       </c>
-      <c r="G74" s="25" t="n">
+      <c r="G74" s="22" t="n">
         <v>1250</v>
       </c>
-      <c r="H74" s="25" t="n">
+      <c r="H74" s="22" t="n">
         <v>2000</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="3" t="inlineStr">
+      <c r="A75" s="2" t="inlineStr">
         <is>
           <t>5 NT</t>
         </is>
@@ -27043,22 +26792,22 @@
       <c r="B75" t="n">
         <v>1</v>
       </c>
-      <c r="C75" s="25" t="n">
+      <c r="C75" s="22" t="n">
         <v>460</v>
       </c>
-      <c r="D75" s="25" t="n">
+      <c r="D75" s="22" t="n">
         <v>670</v>
       </c>
-      <c r="E75" s="25" t="n">
+      <c r="E75" s="22" t="n">
         <v>1040</v>
       </c>
-      <c r="F75" s="25" t="n">
+      <c r="F75" s="22" t="n">
         <v>660</v>
       </c>
-      <c r="G75" s="25" t="n">
+      <c r="G75" s="22" t="n">
         <v>870</v>
       </c>
-      <c r="H75" s="25" t="n">
+      <c r="H75" s="22" t="n">
         <v>1240</v>
       </c>
     </row>
@@ -27066,22 +26815,22 @@
       <c r="B76" t="n">
         <v>2</v>
       </c>
-      <c r="C76" s="25" t="n">
+      <c r="C76" s="22" t="n">
         <v>490</v>
       </c>
-      <c r="D76" s="25" t="n">
+      <c r="D76" s="22" t="n">
         <v>770</v>
       </c>
-      <c r="E76" s="25" t="n">
+      <c r="E76" s="22" t="n">
         <v>1240</v>
       </c>
-      <c r="F76" s="25" t="n">
+      <c r="F76" s="22" t="n">
         <v>690</v>
       </c>
-      <c r="G76" s="25" t="n">
+      <c r="G76" s="22" t="n">
         <v>1070</v>
       </c>
-      <c r="H76" s="25" t="n">
+      <c r="H76" s="22" t="n">
         <v>1640</v>
       </c>
     </row>
@@ -27089,27 +26838,27 @@
       <c r="B77" t="n">
         <v>3</v>
       </c>
-      <c r="C77" s="25" t="n">
+      <c r="C77" s="22" t="n">
         <v>520</v>
       </c>
-      <c r="D77" s="25" t="n">
+      <c r="D77" s="22" t="n">
         <v>870</v>
       </c>
-      <c r="E77" s="25" t="n">
+      <c r="E77" s="22" t="n">
         <v>1440</v>
       </c>
-      <c r="F77" s="25" t="n">
+      <c r="F77" s="22" t="n">
         <v>720</v>
       </c>
-      <c r="G77" s="25" t="n">
+      <c r="G77" s="22" t="n">
         <v>1270</v>
       </c>
-      <c r="H77" s="25" t="n">
+      <c r="H77" s="22" t="n">
         <v>2040</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="3" t="inlineStr">
+      <c r="A78" s="2" t="inlineStr">
         <is>
           <t>6 D/C</t>
         </is>
@@ -27117,22 +26866,22 @@
       <c r="B78" t="n">
         <v>1</v>
       </c>
-      <c r="C78" s="25" t="n">
+      <c r="C78" s="22" t="n">
         <v>920</v>
       </c>
-      <c r="D78" s="25" t="n">
+      <c r="D78" s="22" t="n">
         <v>1090</v>
       </c>
-      <c r="E78" s="25" t="n">
+      <c r="E78" s="22" t="n">
         <v>1380</v>
       </c>
-      <c r="F78" s="25" t="n">
+      <c r="F78" s="22" t="n">
         <v>1370</v>
       </c>
-      <c r="G78" s="25" t="n">
+      <c r="G78" s="22" t="n">
         <v>1540</v>
       </c>
-      <c r="H78" s="25" t="n">
+      <c r="H78" s="22" t="n">
         <v>1830</v>
       </c>
     </row>
@@ -27140,27 +26889,27 @@
       <c r="B79" t="n">
         <v>2</v>
       </c>
-      <c r="C79" s="25" t="n">
+      <c r="C79" s="22" t="n">
         <v>940</v>
       </c>
-      <c r="D79" s="25" t="n">
+      <c r="D79" s="22" t="n">
         <v>1190</v>
       </c>
-      <c r="E79" s="25" t="n">
+      <c r="E79" s="22" t="n">
         <v>1580</v>
       </c>
-      <c r="F79" s="25" t="n">
+      <c r="F79" s="22" t="n">
         <v>1390</v>
       </c>
-      <c r="G79" s="25" t="n">
+      <c r="G79" s="22" t="n">
         <v>1740</v>
       </c>
-      <c r="H79" s="25" t="n">
+      <c r="H79" s="22" t="n">
         <v>2230</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="3" t="inlineStr">
+      <c r="A80" s="2" t="inlineStr">
         <is>
           <t>6 H/S</t>
         </is>
@@ -27168,22 +26917,22 @@
       <c r="B80" t="n">
         <v>1</v>
       </c>
-      <c r="C80" s="25" t="n">
+      <c r="C80" s="22" t="n">
         <v>980</v>
       </c>
-      <c r="D80" s="25" t="n">
+      <c r="D80" s="22" t="n">
         <v>1210</v>
       </c>
-      <c r="E80" s="25" t="n">
+      <c r="E80" s="22" t="n">
         <v>1620</v>
       </c>
-      <c r="F80" s="25" t="n">
+      <c r="F80" s="22" t="n">
         <v>1430</v>
       </c>
-      <c r="G80" s="25" t="n">
+      <c r="G80" s="22" t="n">
         <v>1660</v>
       </c>
-      <c r="H80" s="25" t="n">
+      <c r="H80" s="22" t="n">
         <v>2070</v>
       </c>
     </row>
@@ -27191,27 +26940,27 @@
       <c r="B81" t="n">
         <v>2</v>
       </c>
-      <c r="C81" s="25" t="n">
+      <c r="C81" s="22" t="n">
         <v>1010</v>
       </c>
-      <c r="D81" s="25" t="n">
+      <c r="D81" s="22" t="n">
         <v>1310</v>
       </c>
-      <c r="E81" s="25" t="n">
+      <c r="E81" s="22" t="n">
         <v>1820</v>
       </c>
-      <c r="F81" s="25" t="n">
+      <c r="F81" s="22" t="n">
         <v>1460</v>
       </c>
-      <c r="G81" s="25" t="n">
+      <c r="G81" s="22" t="n">
         <v>1860</v>
       </c>
-      <c r="H81" s="25" t="n">
+      <c r="H81" s="22" t="n">
         <v>2470</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="3" t="inlineStr">
+      <c r="A82" s="2" t="inlineStr">
         <is>
           <t>6 NT</t>
         </is>
@@ -27219,22 +26968,22 @@
       <c r="B82" t="n">
         <v>1</v>
       </c>
-      <c r="C82" s="25" t="n">
+      <c r="C82" s="22" t="n">
         <v>990</v>
       </c>
-      <c r="D82" s="25" t="n">
+      <c r="D82" s="22" t="n">
         <v>1230</v>
       </c>
-      <c r="E82" s="25" t="n">
+      <c r="E82" s="22" t="n">
         <v>1660</v>
       </c>
-      <c r="F82" s="25" t="n">
+      <c r="F82" s="22" t="n">
         <v>1440</v>
       </c>
-      <c r="G82" s="25" t="n">
+      <c r="G82" s="22" t="n">
         <v>1680</v>
       </c>
-      <c r="H82" s="25" t="n">
+      <c r="H82" s="22" t="n">
         <v>2110</v>
       </c>
     </row>
@@ -27242,27 +26991,27 @@
       <c r="B83" t="n">
         <v>2</v>
       </c>
-      <c r="C83" s="25" t="n">
+      <c r="C83" s="22" t="n">
         <v>1020</v>
       </c>
-      <c r="D83" s="25" t="n">
+      <c r="D83" s="22" t="n">
         <v>1330</v>
       </c>
-      <c r="E83" s="25" t="n">
+      <c r="E83" s="22" t="n">
         <v>1860</v>
       </c>
-      <c r="F83" s="25" t="n">
+      <c r="F83" s="22" t="n">
         <v>1470</v>
       </c>
-      <c r="G83" s="25" t="n">
+      <c r="G83" s="22" t="n">
         <v>1880</v>
       </c>
-      <c r="H83" s="25" t="n">
+      <c r="H83" s="22" t="n">
         <v>2510</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="3" t="inlineStr">
+      <c r="A84" s="2" t="inlineStr">
         <is>
           <t>7 D/C</t>
         </is>
@@ -27270,27 +27019,27 @@
       <c r="B84" t="n">
         <v>1</v>
       </c>
-      <c r="C84" s="25" t="n">
+      <c r="C84" s="22" t="n">
         <v>1440</v>
       </c>
-      <c r="D84" s="25" t="n">
+      <c r="D84" s="22" t="n">
         <v>1630</v>
       </c>
-      <c r="E84" s="25" t="n">
+      <c r="E84" s="22" t="n">
         <v>1960</v>
       </c>
-      <c r="F84" s="25" t="n">
+      <c r="F84" s="22" t="n">
         <v>2140</v>
       </c>
-      <c r="G84" s="25" t="n">
+      <c r="G84" s="22" t="n">
         <v>2330</v>
       </c>
-      <c r="H84" s="25" t="n">
+      <c r="H84" s="22" t="n">
         <v>2660</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="3" t="inlineStr">
+      <c r="A85" s="2" t="inlineStr">
         <is>
           <t>7 H/S</t>
         </is>
@@ -27298,27 +27047,27 @@
       <c r="B85" t="n">
         <v>1</v>
       </c>
-      <c r="C85" s="25" t="n">
+      <c r="C85" s="22" t="n">
         <v>1510</v>
       </c>
-      <c r="D85" s="25" t="n">
+      <c r="D85" s="22" t="n">
         <v>1770</v>
       </c>
-      <c r="E85" s="25" t="n">
+      <c r="E85" s="22" t="n">
         <v>2240</v>
       </c>
-      <c r="F85" s="25" t="n">
+      <c r="F85" s="22" t="n">
         <v>2210</v>
       </c>
-      <c r="G85" s="25" t="n">
+      <c r="G85" s="22" t="n">
         <v>2470</v>
       </c>
-      <c r="H85" s="25" t="n">
+      <c r="H85" s="22" t="n">
         <v>2940</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="3" t="inlineStr">
+      <c r="A86" s="2" t="inlineStr">
         <is>
           <t>7 NT</t>
         </is>
@@ -27326,22 +27075,22 @@
       <c r="B86" t="n">
         <v>1</v>
       </c>
-      <c r="C86" s="25" t="n">
+      <c r="C86" s="22" t="n">
         <v>1520</v>
       </c>
-      <c r="D86" s="25" t="n">
+      <c r="D86" s="22" t="n">
         <v>1790</v>
       </c>
-      <c r="E86" s="25" t="n">
+      <c r="E86" s="22" t="n">
         <v>2280</v>
       </c>
-      <c r="F86" s="25" t="n">
+      <c r="F86" s="22" t="n">
         <v>2220</v>
       </c>
-      <c r="G86" s="25" t="n">
+      <c r="G86" s="22" t="n">
         <v>2490</v>
       </c>
-      <c r="H86" s="25" t="n">
+      <c r="H86" s="22" t="n">
         <v>2980</v>
       </c>
     </row>

--- a/howell11.xlsx
+++ b/howell11.xlsx
@@ -511,7 +511,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>For public domain. No rights reserved. Generated on Feb 04, 2026.</t>
+          <t>For public domain. No rights reserved. Generated on Feb 05, 2026.</t>
         </is>
       </c>
     </row>
@@ -595,12 +595,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Name 59</t>
+          <t>Name 13</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Name 11</t>
+          <t>Name 35</t>
         </is>
       </c>
       <c r="D10" s="4">
@@ -618,12 +618,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Name 28</t>
+          <t>Name 50</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Name 37</t>
+          <t>Name 73</t>
         </is>
       </c>
       <c r="D11" s="4">
@@ -641,12 +641,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Name 55</t>
+          <t>Name 33</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Name 88</t>
+          <t>Name 15</t>
         </is>
       </c>
       <c r="D12" s="4">
@@ -664,12 +664,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Name 30</t>
+          <t>Name 87</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Name 30</t>
+          <t>Name 71</t>
         </is>
       </c>
       <c r="D13" s="4">
@@ -687,12 +687,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Name 86</t>
+          <t>Name 32</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Name 71</t>
+          <t>Name 87</t>
         </is>
       </c>
       <c r="D14" s="4">
@@ -710,12 +710,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Name 37</t>
+          <t>Name 16</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Name 53</t>
+          <t>Name 56</t>
         </is>
       </c>
       <c r="D15" s="4">
@@ -733,12 +733,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Name 47</t>
+          <t>Name 35</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Name 31</t>
+          <t>Name 88</t>
         </is>
       </c>
       <c r="D16" s="4">
@@ -756,12 +756,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Name 11</t>
+          <t>Name 33</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Name 20</t>
+          <t>Name 51</t>
         </is>
       </c>
       <c r="D17" s="4">
@@ -779,12 +779,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Name 70</t>
+          <t>Name 82</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Name 52</t>
+          <t>Name 32</t>
         </is>
       </c>
       <c r="D18" s="4">
@@ -802,12 +802,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Name 44</t>
+          <t>Name 29</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Name 31</t>
+          <t>Name 38</t>
         </is>
       </c>
       <c r="D19" s="4">
@@ -825,12 +825,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Name 31</t>
+          <t>Name 38</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Name 79</t>
+          <t>Name 87</t>
         </is>
       </c>
       <c r="D20" s="4">

--- a/howell11.xlsx
+++ b/howell11.xlsx
@@ -511,7 +511,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>For public domain. No rights reserved. Generated on Feb 05, 2026.</t>
+          <t>For public domain. No rights reserved. Generated on Feb 06, 2026.</t>
         </is>
       </c>
     </row>
@@ -595,12 +595,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Name 13</t>
+          <t>Name 52</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Name 35</t>
+          <t>Name 53</t>
         </is>
       </c>
       <c r="D10" s="4">
@@ -618,12 +618,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Name 50</t>
+          <t>Name 14</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Name 73</t>
+          <t>Name 57</t>
         </is>
       </c>
       <c r="D11" s="4">
@@ -641,12 +641,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Name 33</t>
+          <t>Name 46</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Name 15</t>
+          <t>Name 40</t>
         </is>
       </c>
       <c r="D12" s="4">
@@ -664,12 +664,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Name 87</t>
+          <t>Name 33</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Name 71</t>
+          <t>Name 77</t>
         </is>
       </c>
       <c r="D13" s="4">
@@ -687,12 +687,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Name 32</t>
+          <t>Name 66</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Name 87</t>
+          <t>Name 70</t>
         </is>
       </c>
       <c r="D14" s="4">
@@ -710,12 +710,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Name 16</t>
+          <t>Name 80</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Name 56</t>
+          <t>Name 27</t>
         </is>
       </c>
       <c r="D15" s="4">
@@ -733,12 +733,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Name 35</t>
+          <t>Name 11</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Name 88</t>
+          <t>Name 33</t>
         </is>
       </c>
       <c r="D16" s="4">
@@ -756,12 +756,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Name 33</t>
+          <t>Name 89</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Name 51</t>
+          <t>Name 50</t>
         </is>
       </c>
       <c r="D17" s="4">
@@ -779,12 +779,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Name 82</t>
+          <t>Name 31</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Name 32</t>
+          <t>Name 62</t>
         </is>
       </c>
       <c r="D18" s="4">
@@ -802,12 +802,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Name 29</t>
+          <t>Name 41</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Name 38</t>
+          <t>Name 48</t>
         </is>
       </c>
       <c r="D19" s="4">
@@ -825,12 +825,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Name 38</t>
+          <t>Name 80</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Name 87</t>
+          <t>Name 83</t>
         </is>
       </c>
       <c r="D20" s="4">
@@ -21730,7 +21730,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K134"/>
+  <dimension ref="A1:M133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21742,2558 +21742,2644 @@
   </cols>
   <sheetData>
     <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Round</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Table</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Board</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Vul</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>By</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
+      </c>
       <c r="J1" s="2" t="inlineStr">
         <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
           <t>Scores</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Round</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Table</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="A2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11" t="inlineStr">
+        <is>
+          <t>Sit-Out</t>
+        </is>
+      </c>
+      <c r="D2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="16" t="n"/>
+      <c r="C3" s="16" t="n"/>
+      <c r="D3" s="16" t="n"/>
+      <c r="E3" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" s="16" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="G3" s="15" t="n"/>
+      <c r="H3" s="15" t="n"/>
+      <c r="I3" s="15" t="n"/>
+      <c r="J3" s="15" t="n"/>
+      <c r="K3" s="15" t="n"/>
+      <c r="L3" s="15" t="n"/>
+    </row>
+    <row r="4">
+      <c r="B4" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E4" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="F4" s="11" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>Board</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>Vul</t>
-        </is>
-      </c>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t>Contract</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>By</t>
-        </is>
-      </c>
-      <c r="I2" s="2" t="inlineStr">
-        <is>
-          <t>Result</t>
-        </is>
-      </c>
-      <c r="J2" s="2" t="inlineStr">
+    </row>
+    <row r="5">
+      <c r="B5" s="16" t="n"/>
+      <c r="C5" s="16" t="n"/>
+      <c r="D5" s="16" t="n"/>
+      <c r="E5" s="16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F5" s="16" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="G5" s="15" t="n"/>
+      <c r="H5" s="15" t="n"/>
+      <c r="I5" s="15" t="n"/>
+      <c r="J5" s="15" t="n"/>
+      <c r="K5" s="15" t="n"/>
+      <c r="L5" s="15" t="n"/>
+    </row>
+    <row r="6">
+      <c r="B6" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="E6" s="11" t="n">
+        <v>11</v>
+      </c>
+      <c r="F6" s="11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="16" t="n"/>
+      <c r="C7" s="16" t="n"/>
+      <c r="D7" s="16" t="n"/>
+      <c r="E7" s="16" t="n">
+        <v>12</v>
+      </c>
+      <c r="F7" s="16" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="K2" s="2" t="inlineStr">
+      <c r="G7" s="15" t="n"/>
+      <c r="H7" s="15" t="n"/>
+      <c r="I7" s="15" t="n"/>
+      <c r="J7" s="15" t="n"/>
+      <c r="K7" s="15" t="n"/>
+      <c r="L7" s="15" t="n"/>
+    </row>
+    <row r="8">
+      <c r="B8" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" s="11" t="n">
+        <v>11</v>
+      </c>
+      <c r="E8" s="11" t="n">
+        <v>15</v>
+      </c>
+      <c r="F8" s="11" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="16" t="n"/>
+      <c r="C9" s="16" t="n"/>
+      <c r="D9" s="16" t="n"/>
+      <c r="E9" s="16" t="n">
+        <v>16</v>
+      </c>
+      <c r="F9" s="16" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="11" t="n">
+      <c r="G9" s="15" t="n"/>
+      <c r="H9" s="15" t="n"/>
+      <c r="I9" s="15" t="n"/>
+      <c r="J9" s="15" t="n"/>
+      <c r="K9" s="15" t="n"/>
+      <c r="L9" s="15" t="n"/>
+    </row>
+    <row r="10">
+      <c r="B10" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" s="11" t="n">
+        <v>17</v>
+      </c>
+      <c r="F10" s="11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="16" t="n"/>
+      <c r="C11" s="16" t="n"/>
+      <c r="D11" s="16" t="n"/>
+      <c r="E11" s="16" t="n">
+        <v>18</v>
+      </c>
+      <c r="F11" s="16" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="G11" s="15" t="n"/>
+      <c r="H11" s="15" t="n"/>
+      <c r="I11" s="15" t="n"/>
+      <c r="J11" s="15" t="n"/>
+      <c r="K11" s="15" t="n"/>
+      <c r="L11" s="15" t="n"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="C12" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D12" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="E12" s="11" t="n">
+        <v>19</v>
+      </c>
+      <c r="F12" s="11" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="15" t="n"/>
+      <c r="B13" s="16" t="n"/>
+      <c r="C13" s="16" t="n"/>
+      <c r="D13" s="16" t="n"/>
+      <c r="E13" s="16" t="n">
+        <v>20</v>
+      </c>
+      <c r="F13" s="16" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="G13" s="15" t="n"/>
+      <c r="H13" s="15" t="n"/>
+      <c r="I13" s="15" t="n"/>
+      <c r="J13" s="15" t="n"/>
+      <c r="K13" s="15" t="n"/>
+      <c r="L13" s="15" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B14" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="n">
+      <c r="C14" s="11" t="inlineStr">
+        <is>
+          <t>Sit-Out</t>
+        </is>
+      </c>
+      <c r="D14" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="F14" s="11" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="16" t="n"/>
+      <c r="C15" s="16" t="n"/>
+      <c r="D15" s="16" t="n"/>
+      <c r="E15" s="16" t="n">
+        <v>4</v>
+      </c>
+      <c r="F15" s="16" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="G15" s="15" t="n"/>
+      <c r="H15" s="15" t="n"/>
+      <c r="I15" s="15" t="n"/>
+      <c r="J15" s="15" t="n"/>
+      <c r="K15" s="15" t="n"/>
+      <c r="L15" s="15" t="n"/>
+    </row>
+    <row r="16">
+      <c r="B16" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D16" s="11" t="n">
+        <v>11</v>
+      </c>
+      <c r="E16" s="11" t="n">
+        <v>11</v>
+      </c>
+      <c r="F16" s="11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="16" t="n"/>
+      <c r="C17" s="16" t="n"/>
+      <c r="D17" s="16" t="n"/>
+      <c r="E17" s="16" t="n">
+        <v>12</v>
+      </c>
+      <c r="F17" s="16" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="G17" s="15" t="n"/>
+      <c r="H17" s="15" t="n"/>
+      <c r="I17" s="15" t="n"/>
+      <c r="J17" s="15" t="n"/>
+      <c r="K17" s="15" t="n"/>
+      <c r="L17" s="15" t="n"/>
+    </row>
+    <row r="18">
+      <c r="B18" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D18" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="E18" s="11" t="n">
+        <v>13</v>
+      </c>
+      <c r="F18" s="11" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="16" t="n"/>
+      <c r="C19" s="16" t="n"/>
+      <c r="D19" s="16" t="n"/>
+      <c r="E19" s="16" t="n">
+        <v>14</v>
+      </c>
+      <c r="F19" s="16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G19" s="15" t="n"/>
+      <c r="H19" s="15" t="n"/>
+      <c r="I19" s="15" t="n"/>
+      <c r="J19" s="15" t="n"/>
+      <c r="K19" s="15" t="n"/>
+      <c r="L19" s="15" t="n"/>
+    </row>
+    <row r="20">
+      <c r="B20" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C20" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="D20" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="11" t="n">
+      <c r="E20" s="11" t="n">
+        <v>17</v>
+      </c>
+      <c r="F20" s="11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="16" t="n"/>
+      <c r="C21" s="16" t="n"/>
+      <c r="D21" s="16" t="n"/>
+      <c r="E21" s="16" t="n">
+        <v>18</v>
+      </c>
+      <c r="F21" s="16" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="G21" s="15" t="n"/>
+      <c r="H21" s="15" t="n"/>
+      <c r="I21" s="15" t="n"/>
+      <c r="J21" s="15" t="n"/>
+      <c r="K21" s="15" t="n"/>
+      <c r="L21" s="15" t="n"/>
+    </row>
+    <row r="22">
+      <c r="B22" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C22" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D22" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="E22" s="11" t="n">
+        <v>19</v>
+      </c>
+      <c r="F22" s="11" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="16" t="n"/>
+      <c r="C23" s="16" t="n"/>
+      <c r="D23" s="16" t="n"/>
+      <c r="E23" s="16" t="n">
+        <v>20</v>
+      </c>
+      <c r="F23" s="16" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="G23" s="15" t="n"/>
+      <c r="H23" s="15" t="n"/>
+      <c r="I23" s="15" t="n"/>
+      <c r="J23" s="15" t="n"/>
+      <c r="K23" s="15" t="n"/>
+      <c r="L23" s="15" t="n"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="C24" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="D24" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="E24" s="11" t="n">
+        <v>21</v>
+      </c>
+      <c r="F24" s="11" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="15" t="n"/>
+      <c r="B25" s="16" t="n"/>
+      <c r="C25" s="16" t="n"/>
+      <c r="D25" s="16" t="n"/>
+      <c r="E25" s="16" t="n">
+        <v>22</v>
+      </c>
+      <c r="F25" s="16" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="G25" s="15" t="n"/>
+      <c r="H25" s="15" t="n"/>
+      <c r="I25" s="15" t="n"/>
+      <c r="J25" s="15" t="n"/>
+      <c r="K25" s="15" t="n"/>
+      <c r="L25" s="15" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B26" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="E3" s="11" t="n">
+      <c r="C26" s="11" t="inlineStr">
+        <is>
+          <t>Sit-Out</t>
+        </is>
+      </c>
+      <c r="D26" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="E26" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="F26" s="11" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" s="16" t="n"/>
+      <c r="C27" s="16" t="n"/>
+      <c r="D27" s="16" t="n"/>
+      <c r="E27" s="16" t="n">
+        <v>6</v>
+      </c>
+      <c r="F27" s="16" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="G27" s="15" t="n"/>
+      <c r="H27" s="15" t="n"/>
+      <c r="I27" s="15" t="n"/>
+      <c r="J27" s="15" t="n"/>
+      <c r="K27" s="15" t="n"/>
+      <c r="L27" s="15" t="n"/>
+    </row>
+    <row r="28">
+      <c r="B28" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C28" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D28" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="F3" s="11" t="inlineStr">
+      <c r="E28" s="11" t="n">
+        <v>13</v>
+      </c>
+      <c r="F28" s="11" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="16" t="n"/>
+      <c r="C29" s="16" t="n"/>
+      <c r="D29" s="16" t="n"/>
+      <c r="E29" s="16" t="n">
+        <v>14</v>
+      </c>
+      <c r="F29" s="16" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="16" t="n"/>
-      <c r="C4" s="16" t="n"/>
-      <c r="D4" s="16" t="n"/>
-      <c r="E4" s="16" t="n">
+      <c r="G29" s="15" t="n"/>
+      <c r="H29" s="15" t="n"/>
+      <c r="I29" s="15" t="n"/>
+      <c r="J29" s="15" t="n"/>
+      <c r="K29" s="15" t="n"/>
+      <c r="L29" s="15" t="n"/>
+    </row>
+    <row r="30">
+      <c r="B30" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C30" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="D30" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="E30" s="11" t="n">
+        <v>15</v>
+      </c>
+      <c r="F30" s="11" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" s="16" t="n"/>
+      <c r="C31" s="16" t="n"/>
+      <c r="D31" s="16" t="n"/>
+      <c r="E31" s="16" t="n">
+        <v>16</v>
+      </c>
+      <c r="F31" s="16" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="G31" s="15" t="n"/>
+      <c r="H31" s="15" t="n"/>
+      <c r="I31" s="15" t="n"/>
+      <c r="J31" s="15" t="n"/>
+      <c r="K31" s="15" t="n"/>
+      <c r="L31" s="15" t="n"/>
+    </row>
+    <row r="32">
+      <c r="B32" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C32" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="D32" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="F4" s="16" t="inlineStr">
+      <c r="E32" s="11" t="n">
+        <v>19</v>
+      </c>
+      <c r="F32" s="11" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" s="16" t="n"/>
+      <c r="C33" s="16" t="n"/>
+      <c r="D33" s="16" t="n"/>
+      <c r="E33" s="16" t="n">
+        <v>20</v>
+      </c>
+      <c r="F33" s="16" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="G33" s="15" t="n"/>
+      <c r="H33" s="15" t="n"/>
+      <c r="I33" s="15" t="n"/>
+      <c r="J33" s="15" t="n"/>
+      <c r="K33" s="15" t="n"/>
+      <c r="L33" s="15" t="n"/>
+    </row>
+    <row r="34">
+      <c r="B34" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C34" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="D34" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="E34" s="11" t="n">
+        <v>21</v>
+      </c>
+      <c r="F34" s="11" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G4" s="15" t="n"/>
-      <c r="H4" s="15" t="n"/>
-      <c r="I4" s="15" t="n"/>
-      <c r="J4" s="15" t="n"/>
-      <c r="K4" s="15" t="n"/>
-    </row>
-    <row r="5">
-      <c r="B5" s="11" t="n">
+    </row>
+    <row r="35">
+      <c r="B35" s="16" t="n"/>
+      <c r="C35" s="16" t="n"/>
+      <c r="D35" s="16" t="n"/>
+      <c r="E35" s="16" t="n">
+        <v>22</v>
+      </c>
+      <c r="F35" s="16" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="G35" s="15" t="n"/>
+      <c r="H35" s="15" t="n"/>
+      <c r="I35" s="15" t="n"/>
+      <c r="J35" s="15" t="n"/>
+      <c r="K35" s="15" t="n"/>
+      <c r="L35" s="15" t="n"/>
+    </row>
+    <row r="36">
+      <c r="B36" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="C36" s="11" t="n">
+        <v>11</v>
+      </c>
+      <c r="D36" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="E36" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" s="11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="15" t="n"/>
+      <c r="B37" s="16" t="n"/>
+      <c r="C37" s="16" t="n"/>
+      <c r="D37" s="16" t="n"/>
+      <c r="E37" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="C5" s="11" t="n">
+      <c r="F37" s="16" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="G37" s="15" t="n"/>
+      <c r="H37" s="15" t="n"/>
+      <c r="I37" s="15" t="n"/>
+      <c r="J37" s="15" t="n"/>
+      <c r="K37" s="15" t="n"/>
+      <c r="L37" s="15" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="B38" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" s="11" t="inlineStr">
+        <is>
+          <t>Sit-Out</t>
+        </is>
+      </c>
+      <c r="D38" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="E38" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="F38" s="11" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" s="16" t="n"/>
+      <c r="C39" s="16" t="n"/>
+      <c r="D39" s="16" t="n"/>
+      <c r="E39" s="16" t="n">
+        <v>8</v>
+      </c>
+      <c r="F39" s="16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G39" s="15" t="n"/>
+      <c r="H39" s="15" t="n"/>
+      <c r="I39" s="15" t="n"/>
+      <c r="J39" s="15" t="n"/>
+      <c r="K39" s="15" t="n"/>
+      <c r="L39" s="15" t="n"/>
+    </row>
+    <row r="40">
+      <c r="B40" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C40" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="D40" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E40" s="11" t="n">
+        <v>15</v>
+      </c>
+      <c r="F40" s="11" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" s="16" t="n"/>
+      <c r="C41" s="16" t="n"/>
+      <c r="D41" s="16" t="n"/>
+      <c r="E41" s="16" t="n">
+        <v>16</v>
+      </c>
+      <c r="F41" s="16" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="G41" s="15" t="n"/>
+      <c r="H41" s="15" t="n"/>
+      <c r="I41" s="15" t="n"/>
+      <c r="J41" s="15" t="n"/>
+      <c r="K41" s="15" t="n"/>
+      <c r="L41" s="15" t="n"/>
+    </row>
+    <row r="42">
+      <c r="B42" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="D5" s="11" t="n">
+      <c r="C42" s="11" t="n">
+        <v>11</v>
+      </c>
+      <c r="D42" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="E5" s="11" t="n">
+      <c r="E42" s="11" t="n">
+        <v>17</v>
+      </c>
+      <c r="F42" s="11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" s="16" t="n"/>
+      <c r="C43" s="16" t="n"/>
+      <c r="D43" s="16" t="n"/>
+      <c r="E43" s="16" t="n">
+        <v>18</v>
+      </c>
+      <c r="F43" s="16" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="G43" s="15" t="n"/>
+      <c r="H43" s="15" t="n"/>
+      <c r="I43" s="15" t="n"/>
+      <c r="J43" s="15" t="n"/>
+      <c r="K43" s="15" t="n"/>
+      <c r="L43" s="15" t="n"/>
+    </row>
+    <row r="44">
+      <c r="B44" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C44" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="D44" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="E44" s="11" t="n">
+        <v>21</v>
+      </c>
+      <c r="F44" s="11" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" s="16" t="n"/>
+      <c r="C45" s="16" t="n"/>
+      <c r="D45" s="16" t="n"/>
+      <c r="E45" s="16" t="n">
+        <v>22</v>
+      </c>
+      <c r="F45" s="16" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="G45" s="15" t="n"/>
+      <c r="H45" s="15" t="n"/>
+      <c r="I45" s="15" t="n"/>
+      <c r="J45" s="15" t="n"/>
+      <c r="K45" s="15" t="n"/>
+      <c r="L45" s="15" t="n"/>
+    </row>
+    <row r="46">
+      <c r="B46" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C46" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="D46" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E46" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F46" s="11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" s="16" t="n"/>
+      <c r="C47" s="16" t="n"/>
+      <c r="D47" s="16" t="n"/>
+      <c r="E47" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="F47" s="16" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="G47" s="15" t="n"/>
+      <c r="H47" s="15" t="n"/>
+      <c r="I47" s="15" t="n"/>
+      <c r="J47" s="15" t="n"/>
+      <c r="K47" s="15" t="n"/>
+      <c r="L47" s="15" t="n"/>
+    </row>
+    <row r="48">
+      <c r="B48" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="C48" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="F5" s="11" t="inlineStr">
+      <c r="E48" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="F48" s="11" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="B6" s="16" t="n"/>
-      <c r="C6" s="16" t="n"/>
-      <c r="D6" s="16" t="n"/>
-      <c r="E6" s="16" t="n">
+    <row r="49">
+      <c r="A49" s="15" t="n"/>
+      <c r="B49" s="16" t="n"/>
+      <c r="C49" s="16" t="n"/>
+      <c r="D49" s="16" t="n"/>
+      <c r="E49" s="16" t="n">
+        <v>4</v>
+      </c>
+      <c r="F49" s="16" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="G49" s="15" t="n"/>
+      <c r="H49" s="15" t="n"/>
+      <c r="I49" s="15" t="n"/>
+      <c r="J49" s="15" t="n"/>
+      <c r="K49" s="15" t="n"/>
+      <c r="L49" s="15" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B50" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" s="11" t="inlineStr">
+        <is>
+          <t>Sit-Out</t>
+        </is>
+      </c>
+      <c r="D50" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E50" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="F50" s="11" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" s="16" t="n"/>
+      <c r="C51" s="16" t="n"/>
+      <c r="D51" s="16" t="n"/>
+      <c r="E51" s="16" t="n">
         <v>10</v>
       </c>
-      <c r="F6" s="16" t="inlineStr">
+      <c r="F51" s="16" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
-      <c r="G6" s="15" t="n"/>
-      <c r="H6" s="15" t="n"/>
-      <c r="I6" s="15" t="n"/>
-      <c r="J6" s="15" t="n"/>
-      <c r="K6" s="15" t="n"/>
-    </row>
-    <row r="7">
-      <c r="B7" s="11" t="n">
+      <c r="G51" s="15" t="n"/>
+      <c r="H51" s="15" t="n"/>
+      <c r="I51" s="15" t="n"/>
+      <c r="J51" s="15" t="n"/>
+      <c r="K51" s="15" t="n"/>
+      <c r="L51" s="15" t="n"/>
+    </row>
+    <row r="52">
+      <c r="B52" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C52" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="D52" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="C7" s="11" t="n">
+      <c r="E52" s="11" t="n">
+        <v>17</v>
+      </c>
+      <c r="F52" s="11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" s="16" t="n"/>
+      <c r="C53" s="16" t="n"/>
+      <c r="D53" s="16" t="n"/>
+      <c r="E53" s="16" t="n">
+        <v>18</v>
+      </c>
+      <c r="F53" s="16" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="G53" s="15" t="n"/>
+      <c r="H53" s="15" t="n"/>
+      <c r="I53" s="15" t="n"/>
+      <c r="J53" s="15" t="n"/>
+      <c r="K53" s="15" t="n"/>
+      <c r="L53" s="15" t="n"/>
+    </row>
+    <row r="54">
+      <c r="B54" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C54" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" s="11" t="n">
+        <v>11</v>
+      </c>
+      <c r="E54" s="11" t="n">
+        <v>19</v>
+      </c>
+      <c r="F54" s="11" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" s="16" t="n"/>
+      <c r="C55" s="16" t="n"/>
+      <c r="D55" s="16" t="n"/>
+      <c r="E55" s="16" t="n">
+        <v>20</v>
+      </c>
+      <c r="F55" s="16" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="G55" s="15" t="n"/>
+      <c r="H55" s="15" t="n"/>
+      <c r="I55" s="15" t="n"/>
+      <c r="J55" s="15" t="n"/>
+      <c r="K55" s="15" t="n"/>
+      <c r="L55" s="15" t="n"/>
+    </row>
+    <row r="56">
+      <c r="B56" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C56" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D56" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="E56" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F56" s="11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" s="16" t="n"/>
+      <c r="C57" s="16" t="n"/>
+      <c r="D57" s="16" t="n"/>
+      <c r="E57" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="F57" s="16" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="G57" s="15" t="n"/>
+      <c r="H57" s="15" t="n"/>
+      <c r="I57" s="15" t="n"/>
+      <c r="J57" s="15" t="n"/>
+      <c r="K57" s="15" t="n"/>
+      <c r="L57" s="15" t="n"/>
+    </row>
+    <row r="58">
+      <c r="B58" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C58" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="D7" s="11" t="n">
+      <c r="D58" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="E58" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="F58" s="11" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" s="16" t="n"/>
+      <c r="C59" s="16" t="n"/>
+      <c r="D59" s="16" t="n"/>
+      <c r="E59" s="16" t="n">
+        <v>4</v>
+      </c>
+      <c r="F59" s="16" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="G59" s="15" t="n"/>
+      <c r="H59" s="15" t="n"/>
+      <c r="I59" s="15" t="n"/>
+      <c r="J59" s="15" t="n"/>
+      <c r="K59" s="15" t="n"/>
+      <c r="L59" s="15" t="n"/>
+    </row>
+    <row r="60">
+      <c r="B60" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="C60" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D60" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E60" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="F60" s="11" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="15" t="n"/>
+      <c r="B61" s="16" t="n"/>
+      <c r="C61" s="16" t="n"/>
+      <c r="D61" s="16" t="n"/>
+      <c r="E61" s="16" t="n">
+        <v>6</v>
+      </c>
+      <c r="F61" s="16" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="G61" s="15" t="n"/>
+      <c r="H61" s="15" t="n"/>
+      <c r="I61" s="15" t="n"/>
+      <c r="J61" s="15" t="n"/>
+      <c r="K61" s="15" t="n"/>
+      <c r="L61" s="15" t="n"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="B62" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C62" s="11" t="inlineStr">
+        <is>
+          <t>Sit-Out</t>
+        </is>
+      </c>
+      <c r="D62" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="E62" s="11" t="n">
+        <v>11</v>
+      </c>
+      <c r="F62" s="11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" s="16" t="n"/>
+      <c r="C63" s="16" t="n"/>
+      <c r="D63" s="16" t="n"/>
+      <c r="E63" s="16" t="n">
+        <v>12</v>
+      </c>
+      <c r="F63" s="16" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="G63" s="15" t="n"/>
+      <c r="H63" s="15" t="n"/>
+      <c r="I63" s="15" t="n"/>
+      <c r="J63" s="15" t="n"/>
+      <c r="K63" s="15" t="n"/>
+      <c r="L63" s="15" t="n"/>
+    </row>
+    <row r="64">
+      <c r="B64" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C64" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="D64" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="E64" s="11" t="n">
+        <v>19</v>
+      </c>
+      <c r="F64" s="11" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" s="16" t="n"/>
+      <c r="C65" s="16" t="n"/>
+      <c r="D65" s="16" t="n"/>
+      <c r="E65" s="16" t="n">
+        <v>20</v>
+      </c>
+      <c r="F65" s="16" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="G65" s="15" t="n"/>
+      <c r="H65" s="15" t="n"/>
+      <c r="I65" s="15" t="n"/>
+      <c r="J65" s="15" t="n"/>
+      <c r="K65" s="15" t="n"/>
+      <c r="L65" s="15" t="n"/>
+    </row>
+    <row r="66">
+      <c r="B66" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C66" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D66" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E66" s="11" t="n">
+        <v>21</v>
+      </c>
+      <c r="F66" s="11" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" s="16" t="n"/>
+      <c r="C67" s="16" t="n"/>
+      <c r="D67" s="16" t="n"/>
+      <c r="E67" s="16" t="n">
+        <v>22</v>
+      </c>
+      <c r="F67" s="16" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="G67" s="15" t="n"/>
+      <c r="H67" s="15" t="n"/>
+      <c r="I67" s="15" t="n"/>
+      <c r="J67" s="15" t="n"/>
+      <c r="K67" s="15" t="n"/>
+      <c r="L67" s="15" t="n"/>
+    </row>
+    <row r="68">
+      <c r="B68" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C68" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="D68" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E68" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="F68" s="11" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="B69" s="16" t="n"/>
+      <c r="C69" s="16" t="n"/>
+      <c r="D69" s="16" t="n"/>
+      <c r="E69" s="16" t="n">
+        <v>4</v>
+      </c>
+      <c r="F69" s="16" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="G69" s="15" t="n"/>
+      <c r="H69" s="15" t="n"/>
+      <c r="I69" s="15" t="n"/>
+      <c r="J69" s="15" t="n"/>
+      <c r="K69" s="15" t="n"/>
+      <c r="L69" s="15" t="n"/>
+    </row>
+    <row r="70">
+      <c r="B70" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C70" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D70" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="E7" s="11" t="n">
+      <c r="E70" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="F70" s="11" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" s="16" t="n"/>
+      <c r="C71" s="16" t="n"/>
+      <c r="D71" s="16" t="n"/>
+      <c r="E71" s="16" t="n">
+        <v>6</v>
+      </c>
+      <c r="F71" s="16" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="G71" s="15" t="n"/>
+      <c r="H71" s="15" t="n"/>
+      <c r="I71" s="15" t="n"/>
+      <c r="J71" s="15" t="n"/>
+      <c r="K71" s="15" t="n"/>
+      <c r="L71" s="15" t="n"/>
+    </row>
+    <row r="72">
+      <c r="B72" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="C72" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D72" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="F7" s="11" t="inlineStr">
+      <c r="E72" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="F72" s="11" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="15" t="n"/>
+      <c r="B73" s="16" t="n"/>
+      <c r="C73" s="16" t="n"/>
+      <c r="D73" s="16" t="n"/>
+      <c r="E73" s="16" t="n">
+        <v>8</v>
+      </c>
+      <c r="F73" s="16" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="16" t="n"/>
-      <c r="C8" s="16" t="n"/>
-      <c r="D8" s="16" t="n"/>
-      <c r="E8" s="16" t="n">
+      <c r="G73" s="15" t="n"/>
+      <c r="H73" s="15" t="n"/>
+      <c r="I73" s="15" t="n"/>
+      <c r="J73" s="15" t="n"/>
+      <c r="K73" s="15" t="n"/>
+      <c r="L73" s="15" t="n"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="B74" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C74" s="11" t="inlineStr">
+        <is>
+          <t>Sit-Out</t>
+        </is>
+      </c>
+      <c r="D74" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="E74" s="11" t="n">
+        <v>13</v>
+      </c>
+      <c r="F74" s="11" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="B75" s="16" t="n"/>
+      <c r="C75" s="16" t="n"/>
+      <c r="D75" s="16" t="n"/>
+      <c r="E75" s="16" t="n">
+        <v>14</v>
+      </c>
+      <c r="F75" s="16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G75" s="15" t="n"/>
+      <c r="H75" s="15" t="n"/>
+      <c r="I75" s="15" t="n"/>
+      <c r="J75" s="15" t="n"/>
+      <c r="K75" s="15" t="n"/>
+      <c r="L75" s="15" t="n"/>
+    </row>
+    <row r="76">
+      <c r="B76" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C76" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D76" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E76" s="11" t="n">
+        <v>21</v>
+      </c>
+      <c r="F76" s="11" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" s="16" t="n"/>
+      <c r="C77" s="16" t="n"/>
+      <c r="D77" s="16" t="n"/>
+      <c r="E77" s="16" t="n">
+        <v>22</v>
+      </c>
+      <c r="F77" s="16" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="G77" s="15" t="n"/>
+      <c r="H77" s="15" t="n"/>
+      <c r="I77" s="15" t="n"/>
+      <c r="J77" s="15" t="n"/>
+      <c r="K77" s="15" t="n"/>
+      <c r="L77" s="15" t="n"/>
+    </row>
+    <row r="78">
+      <c r="B78" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C78" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D78" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E78" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F78" s="11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="B79" s="16" t="n"/>
+      <c r="C79" s="16" t="n"/>
+      <c r="D79" s="16" t="n"/>
+      <c r="E79" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="F79" s="16" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="G79" s="15" t="n"/>
+      <c r="H79" s="15" t="n"/>
+      <c r="I79" s="15" t="n"/>
+      <c r="J79" s="15" t="n"/>
+      <c r="K79" s="15" t="n"/>
+      <c r="L79" s="15" t="n"/>
+    </row>
+    <row r="80">
+      <c r="B80" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C80" s="11" t="n">
+        <v>11</v>
+      </c>
+      <c r="D80" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="E80" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="F80" s="11" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="B81" s="16" t="n"/>
+      <c r="C81" s="16" t="n"/>
+      <c r="D81" s="16" t="n"/>
+      <c r="E81" s="16" t="n">
+        <v>6</v>
+      </c>
+      <c r="F81" s="16" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="G81" s="15" t="n"/>
+      <c r="H81" s="15" t="n"/>
+      <c r="I81" s="15" t="n"/>
+      <c r="J81" s="15" t="n"/>
+      <c r="K81" s="15" t="n"/>
+      <c r="L81" s="15" t="n"/>
+    </row>
+    <row r="82">
+      <c r="B82" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C82" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="D82" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="E82" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="F82" s="11" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="B83" s="16" t="n"/>
+      <c r="C83" s="16" t="n"/>
+      <c r="D83" s="16" t="n"/>
+      <c r="E83" s="16" t="n">
+        <v>8</v>
+      </c>
+      <c r="F83" s="16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G83" s="15" t="n"/>
+      <c r="H83" s="15" t="n"/>
+      <c r="I83" s="15" t="n"/>
+      <c r="J83" s="15" t="n"/>
+      <c r="K83" s="15" t="n"/>
+      <c r="L83" s="15" t="n"/>
+    </row>
+    <row r="84">
+      <c r="B84" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="C84" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D84" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E84" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="F84" s="11" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="15" t="n"/>
+      <c r="B85" s="16" t="n"/>
+      <c r="C85" s="16" t="n"/>
+      <c r="D85" s="16" t="n"/>
+      <c r="E85" s="16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F85" s="16" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="G85" s="15" t="n"/>
+      <c r="H85" s="15" t="n"/>
+      <c r="I85" s="15" t="n"/>
+      <c r="J85" s="15" t="n"/>
+      <c r="K85" s="15" t="n"/>
+      <c r="L85" s="15" t="n"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="B86" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C86" s="11" t="inlineStr">
+        <is>
+          <t>Sit-Out</t>
+        </is>
+      </c>
+      <c r="D86" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="E86" s="11" t="n">
+        <v>15</v>
+      </c>
+      <c r="F86" s="11" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="B87" s="16" t="n"/>
+      <c r="C87" s="16" t="n"/>
+      <c r="D87" s="16" t="n"/>
+      <c r="E87" s="16" t="n">
+        <v>16</v>
+      </c>
+      <c r="F87" s="16" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="G87" s="15" t="n"/>
+      <c r="H87" s="15" t="n"/>
+      <c r="I87" s="15" t="n"/>
+      <c r="J87" s="15" t="n"/>
+      <c r="K87" s="15" t="n"/>
+      <c r="L87" s="15" t="n"/>
+    </row>
+    <row r="88">
+      <c r="B88" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C88" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="D88" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="E88" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F88" s="11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="B89" s="16" t="n"/>
+      <c r="C89" s="16" t="n"/>
+      <c r="D89" s="16" t="n"/>
+      <c r="E89" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="F89" s="16" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="G89" s="15" t="n"/>
+      <c r="H89" s="15" t="n"/>
+      <c r="I89" s="15" t="n"/>
+      <c r="J89" s="15" t="n"/>
+      <c r="K89" s="15" t="n"/>
+      <c r="L89" s="15" t="n"/>
+    </row>
+    <row r="90">
+      <c r="B90" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C90" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D90" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="E90" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="F90" s="11" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="B91" s="16" t="n"/>
+      <c r="C91" s="16" t="n"/>
+      <c r="D91" s="16" t="n"/>
+      <c r="E91" s="16" t="n">
+        <v>4</v>
+      </c>
+      <c r="F91" s="16" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="G91" s="15" t="n"/>
+      <c r="H91" s="15" t="n"/>
+      <c r="I91" s="15" t="n"/>
+      <c r="J91" s="15" t="n"/>
+      <c r="K91" s="15" t="n"/>
+      <c r="L91" s="15" t="n"/>
+    </row>
+    <row r="92">
+      <c r="B92" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C92" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D92" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="E92" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="F92" s="11" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="B93" s="16" t="n"/>
+      <c r="C93" s="16" t="n"/>
+      <c r="D93" s="16" t="n"/>
+      <c r="E93" s="16" t="n">
+        <v>8</v>
+      </c>
+      <c r="F93" s="16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G93" s="15" t="n"/>
+      <c r="H93" s="15" t="n"/>
+      <c r="I93" s="15" t="n"/>
+      <c r="J93" s="15" t="n"/>
+      <c r="K93" s="15" t="n"/>
+      <c r="L93" s="15" t="n"/>
+    </row>
+    <row r="94">
+      <c r="B94" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C94" s="11" t="n">
+        <v>11</v>
+      </c>
+      <c r="D94" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="E94" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="F94" s="11" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="B95" s="16" t="n"/>
+      <c r="C95" s="16" t="n"/>
+      <c r="D95" s="16" t="n"/>
+      <c r="E95" s="16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F95" s="16" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="G95" s="15" t="n"/>
+      <c r="H95" s="15" t="n"/>
+      <c r="I95" s="15" t="n"/>
+      <c r="J95" s="15" t="n"/>
+      <c r="K95" s="15" t="n"/>
+      <c r="L95" s="15" t="n"/>
+    </row>
+    <row r="96">
+      <c r="B96" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="C96" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D96" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E96" s="11" t="n">
+        <v>11</v>
+      </c>
+      <c r="F96" s="11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="15" t="n"/>
+      <c r="B97" s="16" t="n"/>
+      <c r="C97" s="16" t="n"/>
+      <c r="D97" s="16" t="n"/>
+      <c r="E97" s="16" t="n">
         <v>12</v>
       </c>
-      <c r="F8" s="16" t="inlineStr">
+      <c r="F97" s="16" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G8" s="15" t="n"/>
-      <c r="H8" s="15" t="n"/>
-      <c r="I8" s="15" t="n"/>
-      <c r="J8" s="15" t="n"/>
-      <c r="K8" s="15" t="n"/>
-    </row>
-    <row r="9">
-      <c r="B9" s="11" t="n">
+      <c r="G97" s="15" t="n"/>
+      <c r="H97" s="15" t="n"/>
+      <c r="I97" s="15" t="n"/>
+      <c r="J97" s="15" t="n"/>
+      <c r="K97" s="15" t="n"/>
+      <c r="L97" s="15" t="n"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B98" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C98" s="11" t="inlineStr">
+        <is>
+          <t>Sit-Out</t>
+        </is>
+      </c>
+      <c r="D98" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="E98" s="11" t="n">
+        <v>17</v>
+      </c>
+      <c r="F98" s="11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="B99" s="16" t="n"/>
+      <c r="C99" s="16" t="n"/>
+      <c r="D99" s="16" t="n"/>
+      <c r="E99" s="16" t="n">
+        <v>18</v>
+      </c>
+      <c r="F99" s="16" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="G99" s="15" t="n"/>
+      <c r="H99" s="15" t="n"/>
+      <c r="I99" s="15" t="n"/>
+      <c r="J99" s="15" t="n"/>
+      <c r="K99" s="15" t="n"/>
+      <c r="L99" s="15" t="n"/>
+    </row>
+    <row r="100">
+      <c r="B100" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C100" s="11" t="n">
+        <v>11</v>
+      </c>
+      <c r="D100" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="E100" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="F100" s="11" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="B101" s="16" t="n"/>
+      <c r="C101" s="16" t="n"/>
+      <c r="D101" s="16" t="n"/>
+      <c r="E101" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="C9" s="11" t="n">
+      <c r="F101" s="16" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="G101" s="15" t="n"/>
+      <c r="H101" s="15" t="n"/>
+      <c r="I101" s="15" t="n"/>
+      <c r="J101" s="15" t="n"/>
+      <c r="K101" s="15" t="n"/>
+      <c r="L101" s="15" t="n"/>
+    </row>
+    <row r="102">
+      <c r="B102" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C102" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="D9" s="11" t="n">
+      <c r="D102" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="E102" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="F102" s="11" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="B103" s="16" t="n"/>
+      <c r="C103" s="16" t="n"/>
+      <c r="D103" s="16" t="n"/>
+      <c r="E103" s="16" t="n">
+        <v>6</v>
+      </c>
+      <c r="F103" s="16" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="G103" s="15" t="n"/>
+      <c r="H103" s="15" t="n"/>
+      <c r="I103" s="15" t="n"/>
+      <c r="J103" s="15" t="n"/>
+      <c r="K103" s="15" t="n"/>
+      <c r="L103" s="15" t="n"/>
+    </row>
+    <row r="104">
+      <c r="B104" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C104" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D104" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="E104" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="F104" s="11" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="B105" s="16" t="n"/>
+      <c r="C105" s="16" t="n"/>
+      <c r="D105" s="16" t="n"/>
+      <c r="E105" s="16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F105" s="16" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="G105" s="15" t="n"/>
+      <c r="H105" s="15" t="n"/>
+      <c r="I105" s="15" t="n"/>
+      <c r="J105" s="15" t="n"/>
+      <c r="K105" s="15" t="n"/>
+      <c r="L105" s="15" t="n"/>
+    </row>
+    <row r="106">
+      <c r="B106" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C106" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D106" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E106" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="E9" s="11" t="n">
+      <c r="F106" s="11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="B107" s="16" t="n"/>
+      <c r="C107" s="16" t="n"/>
+      <c r="D107" s="16" t="n"/>
+      <c r="E107" s="16" t="n">
+        <v>12</v>
+      </c>
+      <c r="F107" s="16" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="G107" s="15" t="n"/>
+      <c r="H107" s="15" t="n"/>
+      <c r="I107" s="15" t="n"/>
+      <c r="J107" s="15" t="n"/>
+      <c r="K107" s="15" t="n"/>
+      <c r="L107" s="15" t="n"/>
+    </row>
+    <row r="108">
+      <c r="B108" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="C108" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="D108" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="E108" s="11" t="n">
+        <v>13</v>
+      </c>
+      <c r="F108" s="11" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="15" t="n"/>
+      <c r="B109" s="16" t="n"/>
+      <c r="C109" s="16" t="n"/>
+      <c r="D109" s="16" t="n"/>
+      <c r="E109" s="16" t="n">
+        <v>14</v>
+      </c>
+      <c r="F109" s="16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G109" s="15" t="n"/>
+      <c r="H109" s="15" t="n"/>
+      <c r="I109" s="15" t="n"/>
+      <c r="J109" s="15" t="n"/>
+      <c r="K109" s="15" t="n"/>
+      <c r="L109" s="15" t="n"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B110" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C110" s="11" t="inlineStr">
+        <is>
+          <t>Sit-Out</t>
+        </is>
+      </c>
+      <c r="D110" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E110" s="11" t="n">
+        <v>19</v>
+      </c>
+      <c r="F110" s="11" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="B111" s="16" t="n"/>
+      <c r="C111" s="16" t="n"/>
+      <c r="D111" s="16" t="n"/>
+      <c r="E111" s="16" t="n">
+        <v>20</v>
+      </c>
+      <c r="F111" s="16" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="G111" s="15" t="n"/>
+      <c r="H111" s="15" t="n"/>
+      <c r="I111" s="15" t="n"/>
+      <c r="J111" s="15" t="n"/>
+      <c r="K111" s="15" t="n"/>
+      <c r="L111" s="15" t="n"/>
+    </row>
+    <row r="112">
+      <c r="B112" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C112" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D112" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="E112" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="F112" s="11" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="B113" s="16" t="n"/>
+      <c r="C113" s="16" t="n"/>
+      <c r="D113" s="16" t="n"/>
+      <c r="E113" s="16" t="n">
+        <v>6</v>
+      </c>
+      <c r="F113" s="16" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="G113" s="15" t="n"/>
+      <c r="H113" s="15" t="n"/>
+      <c r="I113" s="15" t="n"/>
+      <c r="J113" s="15" t="n"/>
+      <c r="K113" s="15" t="n"/>
+      <c r="L113" s="15" t="n"/>
+    </row>
+    <row r="114">
+      <c r="B114" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C114" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="D114" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E114" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="F114" s="11" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="B115" s="16" t="n"/>
+      <c r="C115" s="16" t="n"/>
+      <c r="D115" s="16" t="n"/>
+      <c r="E115" s="16" t="n">
+        <v>8</v>
+      </c>
+      <c r="F115" s="16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G115" s="15" t="n"/>
+      <c r="H115" s="15" t="n"/>
+      <c r="I115" s="15" t="n"/>
+      <c r="J115" s="15" t="n"/>
+      <c r="K115" s="15" t="n"/>
+      <c r="L115" s="15" t="n"/>
+    </row>
+    <row r="116">
+      <c r="B116" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C116" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D116" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="E116" s="11" t="n">
+        <v>11</v>
+      </c>
+      <c r="F116" s="11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="B117" s="16" t="n"/>
+      <c r="C117" s="16" t="n"/>
+      <c r="D117" s="16" t="n"/>
+      <c r="E117" s="16" t="n">
+        <v>12</v>
+      </c>
+      <c r="F117" s="16" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="G117" s="15" t="n"/>
+      <c r="H117" s="15" t="n"/>
+      <c r="I117" s="15" t="n"/>
+      <c r="J117" s="15" t="n"/>
+      <c r="K117" s="15" t="n"/>
+      <c r="L117" s="15" t="n"/>
+    </row>
+    <row r="118">
+      <c r="B118" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C118" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D118" s="11" t="n">
+        <v>11</v>
+      </c>
+      <c r="E118" s="11" t="n">
+        <v>13</v>
+      </c>
+      <c r="F118" s="11" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="B119" s="16" t="n"/>
+      <c r="C119" s="16" t="n"/>
+      <c r="D119" s="16" t="n"/>
+      <c r="E119" s="16" t="n">
+        <v>14</v>
+      </c>
+      <c r="F119" s="16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G119" s="15" t="n"/>
+      <c r="H119" s="15" t="n"/>
+      <c r="I119" s="15" t="n"/>
+      <c r="J119" s="15" t="n"/>
+      <c r="K119" s="15" t="n"/>
+      <c r="L119" s="15" t="n"/>
+    </row>
+    <row r="120">
+      <c r="B120" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="C120" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="D120" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="E120" s="11" t="n">
         <v>15</v>
       </c>
-      <c r="F9" s="11" t="inlineStr">
+      <c r="F120" s="11" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="B10" s="16" t="n"/>
-      <c r="C10" s="16" t="n"/>
-      <c r="D10" s="16" t="n"/>
-      <c r="E10" s="16" t="n">
+    <row r="121">
+      <c r="A121" s="15" t="n"/>
+      <c r="B121" s="16" t="n"/>
+      <c r="C121" s="16" t="n"/>
+      <c r="D121" s="16" t="n"/>
+      <c r="E121" s="16" t="n">
         <v>16</v>
       </c>
-      <c r="F10" s="16" t="inlineStr">
+      <c r="F121" s="16" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G10" s="15" t="n"/>
-      <c r="H10" s="15" t="n"/>
-      <c r="I10" s="15" t="n"/>
-      <c r="J10" s="15" t="n"/>
-      <c r="K10" s="15" t="n"/>
-    </row>
-    <row r="11">
-      <c r="B11" s="11" t="n">
+      <c r="G121" s="15" t="n"/>
+      <c r="H121" s="15" t="n"/>
+      <c r="I121" s="15" t="n"/>
+      <c r="J121" s="15" t="n"/>
+      <c r="K121" s="15" t="n"/>
+      <c r="L121" s="15" t="n"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="11" t="n">
+        <v>11</v>
+      </c>
+      <c r="B122" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C122" s="11" t="inlineStr">
+        <is>
+          <t>Sit-Out</t>
+        </is>
+      </c>
+      <c r="D122" s="11" t="n">
+        <v>11</v>
+      </c>
+      <c r="E122" s="11" t="n">
+        <v>21</v>
+      </c>
+      <c r="F122" s="11" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="B123" s="16" t="n"/>
+      <c r="C123" s="16" t="n"/>
+      <c r="D123" s="16" t="n"/>
+      <c r="E123" s="16" t="n">
+        <v>22</v>
+      </c>
+      <c r="F123" s="16" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="G123" s="15" t="n"/>
+      <c r="H123" s="15" t="n"/>
+      <c r="I123" s="15" t="n"/>
+      <c r="J123" s="15" t="n"/>
+      <c r="K123" s="15" t="n"/>
+      <c r="L123" s="15" t="n"/>
+    </row>
+    <row r="124">
+      <c r="B124" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C124" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D124" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="E124" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="F124" s="11" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="B125" s="16" t="n"/>
+      <c r="C125" s="16" t="n"/>
+      <c r="D125" s="16" t="n"/>
+      <c r="E125" s="16" t="n">
+        <v>8</v>
+      </c>
+      <c r="F125" s="16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G125" s="15" t="n"/>
+      <c r="H125" s="15" t="n"/>
+      <c r="I125" s="15" t="n"/>
+      <c r="J125" s="15" t="n"/>
+      <c r="K125" s="15" t="n"/>
+      <c r="L125" s="15" t="n"/>
+    </row>
+    <row r="126">
+      <c r="B126" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C126" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="D126" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="E126" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="F126" s="11" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="B127" s="16" t="n"/>
+      <c r="C127" s="16" t="n"/>
+      <c r="D127" s="16" t="n"/>
+      <c r="E127" s="16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F127" s="16" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="G127" s="15" t="n"/>
+      <c r="H127" s="15" t="n"/>
+      <c r="I127" s="15" t="n"/>
+      <c r="J127" s="15" t="n"/>
+      <c r="K127" s="15" t="n"/>
+      <c r="L127" s="15" t="n"/>
+    </row>
+    <row r="128">
+      <c r="B128" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C128" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D128" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E128" s="11" t="n">
+        <v>13</v>
+      </c>
+      <c r="F128" s="11" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="B129" s="16" t="n"/>
+      <c r="C129" s="16" t="n"/>
+      <c r="D129" s="16" t="n"/>
+      <c r="E129" s="16" t="n">
+        <v>14</v>
+      </c>
+      <c r="F129" s="16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G129" s="15" t="n"/>
+      <c r="H129" s="15" t="n"/>
+      <c r="I129" s="15" t="n"/>
+      <c r="J129" s="15" t="n"/>
+      <c r="K129" s="15" t="n"/>
+      <c r="L129" s="15" t="n"/>
+    </row>
+    <row r="130">
+      <c r="B130" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="C11" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="D11" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="E11" s="11" t="n">
+      <c r="C130" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D130" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E130" s="11" t="n">
+        <v>15</v>
+      </c>
+      <c r="F130" s="11" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="B131" s="16" t="n"/>
+      <c r="C131" s="16" t="n"/>
+      <c r="D131" s="16" t="n"/>
+      <c r="E131" s="16" t="n">
+        <v>16</v>
+      </c>
+      <c r="F131" s="16" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="G131" s="15" t="n"/>
+      <c r="H131" s="15" t="n"/>
+      <c r="I131" s="15" t="n"/>
+      <c r="J131" s="15" t="n"/>
+      <c r="K131" s="15" t="n"/>
+      <c r="L131" s="15" t="n"/>
+    </row>
+    <row r="132">
+      <c r="B132" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="C132" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="D132" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E132" s="11" t="n">
         <v>17</v>
       </c>
-      <c r="F11" s="11" t="inlineStr">
+      <c r="F132" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="B12" s="16" t="n"/>
-      <c r="C12" s="16" t="n"/>
-      <c r="D12" s="16" t="n"/>
-      <c r="E12" s="16" t="n">
+    <row r="133">
+      <c r="A133" s="15" t="n"/>
+      <c r="B133" s="16" t="n"/>
+      <c r="C133" s="16" t="n"/>
+      <c r="D133" s="16" t="n"/>
+      <c r="E133" s="16" t="n">
         <v>18</v>
       </c>
-      <c r="F12" s="16" t="inlineStr">
+      <c r="F133" s="16" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G12" s="15" t="n"/>
-      <c r="H12" s="15" t="n"/>
-      <c r="I12" s="15" t="n"/>
-      <c r="J12" s="15" t="n"/>
-      <c r="K12" s="15" t="n"/>
-    </row>
-    <row r="13">
-      <c r="B13" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="C13" s="11" t="n">
-        <v>9</v>
-      </c>
-      <c r="D13" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="E13" s="11" t="n">
-        <v>19</v>
-      </c>
-      <c r="F13" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="15" t="n"/>
-      <c r="B14" s="16" t="n"/>
-      <c r="C14" s="16" t="n"/>
-      <c r="D14" s="16" t="n"/>
-      <c r="E14" s="16" t="n">
-        <v>20</v>
-      </c>
-      <c r="F14" s="16" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-      <c r="G14" s="15" t="n"/>
-      <c r="H14" s="15" t="n"/>
-      <c r="I14" s="15" t="n"/>
-      <c r="J14" s="15" t="n"/>
-      <c r="K14" s="15" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="B15" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="E15" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="F15" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" s="16" t="n"/>
-      <c r="C16" s="16" t="n"/>
-      <c r="D16" s="16" t="n"/>
-      <c r="E16" s="16" t="n">
-        <v>4</v>
-      </c>
-      <c r="F16" s="16" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-      <c r="G16" s="15" t="n"/>
-      <c r="H16" s="15" t="n"/>
-      <c r="I16" s="15" t="n"/>
-      <c r="J16" s="15" t="n"/>
-      <c r="K16" s="15" t="n"/>
-    </row>
-    <row r="17">
-      <c r="B17" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="C17" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="D17" s="11" t="n">
-        <v>11</v>
-      </c>
-      <c r="E17" s="11" t="n">
-        <v>11</v>
-      </c>
-      <c r="F17" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" s="16" t="n"/>
-      <c r="C18" s="16" t="n"/>
-      <c r="D18" s="16" t="n"/>
-      <c r="E18" s="16" t="n">
-        <v>12</v>
-      </c>
-      <c r="F18" s="16" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="G18" s="15" t="n"/>
-      <c r="H18" s="15" t="n"/>
-      <c r="I18" s="15" t="n"/>
-      <c r="J18" s="15" t="n"/>
-      <c r="K18" s="15" t="n"/>
-    </row>
-    <row r="19">
-      <c r="B19" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="C19" s="11" t="n">
-        <v>9</v>
-      </c>
-      <c r="D19" s="11" t="n">
-        <v>8</v>
-      </c>
-      <c r="E19" s="11" t="n">
-        <v>13</v>
-      </c>
-      <c r="F19" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" s="16" t="n"/>
-      <c r="C20" s="16" t="n"/>
-      <c r="D20" s="16" t="n"/>
-      <c r="E20" s="16" t="n">
-        <v>14</v>
-      </c>
-      <c r="F20" s="16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G20" s="15" t="n"/>
-      <c r="H20" s="15" t="n"/>
-      <c r="I20" s="15" t="n"/>
-      <c r="J20" s="15" t="n"/>
-      <c r="K20" s="15" t="n"/>
-    </row>
-    <row r="21">
-      <c r="B21" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="C21" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="D21" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="11" t="n">
-        <v>17</v>
-      </c>
-      <c r="F21" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" s="16" t="n"/>
-      <c r="C22" s="16" t="n"/>
-      <c r="D22" s="16" t="n"/>
-      <c r="E22" s="16" t="n">
-        <v>18</v>
-      </c>
-      <c r="F22" s="16" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="G22" s="15" t="n"/>
-      <c r="H22" s="15" t="n"/>
-      <c r="I22" s="15" t="n"/>
-      <c r="J22" s="15" t="n"/>
-      <c r="K22" s="15" t="n"/>
-    </row>
-    <row r="23">
-      <c r="B23" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C23" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="D23" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="E23" s="11" t="n">
-        <v>19</v>
-      </c>
-      <c r="F23" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" s="16" t="n"/>
-      <c r="C24" s="16" t="n"/>
-      <c r="D24" s="16" t="n"/>
-      <c r="E24" s="16" t="n">
-        <v>20</v>
-      </c>
-      <c r="F24" s="16" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-      <c r="G24" s="15" t="n"/>
-      <c r="H24" s="15" t="n"/>
-      <c r="I24" s="15" t="n"/>
-      <c r="J24" s="15" t="n"/>
-      <c r="K24" s="15" t="n"/>
-    </row>
-    <row r="25">
-      <c r="B25" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="C25" s="11" t="n">
-        <v>10</v>
-      </c>
-      <c r="D25" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="E25" s="11" t="n">
-        <v>21</v>
-      </c>
-      <c r="F25" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="15" t="n"/>
-      <c r="B26" s="16" t="n"/>
-      <c r="C26" s="16" t="n"/>
-      <c r="D26" s="16" t="n"/>
-      <c r="E26" s="16" t="n">
-        <v>22</v>
-      </c>
-      <c r="F26" s="16" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="G26" s="15" t="n"/>
-      <c r="H26" s="15" t="n"/>
-      <c r="I26" s="15" t="n"/>
-      <c r="J26" s="15" t="n"/>
-      <c r="K26" s="15" t="n"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="B27" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C27" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="E27" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="F27" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" s="16" t="n"/>
-      <c r="C28" s="16" t="n"/>
-      <c r="D28" s="16" t="n"/>
-      <c r="E28" s="16" t="n">
-        <v>6</v>
-      </c>
-      <c r="F28" s="16" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="G28" s="15" t="n"/>
-      <c r="H28" s="15" t="n"/>
-      <c r="I28" s="15" t="n"/>
-      <c r="J28" s="15" t="n"/>
-      <c r="K28" s="15" t="n"/>
-    </row>
-    <row r="29">
-      <c r="B29" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="C29" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="D29" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E29" s="11" t="n">
-        <v>13</v>
-      </c>
-      <c r="F29" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="B30" s="16" t="n"/>
-      <c r="C30" s="16" t="n"/>
-      <c r="D30" s="16" t="n"/>
-      <c r="E30" s="16" t="n">
-        <v>14</v>
-      </c>
-      <c r="F30" s="16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G30" s="15" t="n"/>
-      <c r="H30" s="15" t="n"/>
-      <c r="I30" s="15" t="n"/>
-      <c r="J30" s="15" t="n"/>
-      <c r="K30" s="15" t="n"/>
-    </row>
-    <row r="31">
-      <c r="B31" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="C31" s="11" t="n">
-        <v>10</v>
-      </c>
-      <c r="D31" s="11" t="n">
-        <v>9</v>
-      </c>
-      <c r="E31" s="11" t="n">
-        <v>15</v>
-      </c>
-      <c r="F31" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="B32" s="16" t="n"/>
-      <c r="C32" s="16" t="n"/>
-      <c r="D32" s="16" t="n"/>
-      <c r="E32" s="16" t="n">
-        <v>16</v>
-      </c>
-      <c r="F32" s="16" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="G32" s="15" t="n"/>
-      <c r="H32" s="15" t="n"/>
-      <c r="I32" s="15" t="n"/>
-      <c r="J32" s="15" t="n"/>
-      <c r="K32" s="15" t="n"/>
-    </row>
-    <row r="33">
-      <c r="B33" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="C33" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="D33" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="E33" s="11" t="n">
-        <v>19</v>
-      </c>
-      <c r="F33" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="B34" s="16" t="n"/>
-      <c r="C34" s="16" t="n"/>
-      <c r="D34" s="16" t="n"/>
-      <c r="E34" s="16" t="n">
-        <v>20</v>
-      </c>
-      <c r="F34" s="16" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-      <c r="G34" s="15" t="n"/>
-      <c r="H34" s="15" t="n"/>
-      <c r="I34" s="15" t="n"/>
-      <c r="J34" s="15" t="n"/>
-      <c r="K34" s="15" t="n"/>
-    </row>
-    <row r="35">
-      <c r="B35" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C35" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="D35" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="E35" s="11" t="n">
-        <v>21</v>
-      </c>
-      <c r="F35" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="B36" s="16" t="n"/>
-      <c r="C36" s="16" t="n"/>
-      <c r="D36" s="16" t="n"/>
-      <c r="E36" s="16" t="n">
-        <v>22</v>
-      </c>
-      <c r="F36" s="16" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="G36" s="15" t="n"/>
-      <c r="H36" s="15" t="n"/>
-      <c r="I36" s="15" t="n"/>
-      <c r="J36" s="15" t="n"/>
-      <c r="K36" s="15" t="n"/>
-    </row>
-    <row r="37">
-      <c r="B37" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="C37" s="11" t="n">
-        <v>11</v>
-      </c>
-      <c r="D37" s="11" t="n">
-        <v>8</v>
-      </c>
-      <c r="E37" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F37" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="15" t="n"/>
-      <c r="B38" s="16" t="n"/>
-      <c r="C38" s="16" t="n"/>
-      <c r="D38" s="16" t="n"/>
-      <c r="E38" s="16" t="n">
-        <v>2</v>
-      </c>
-      <c r="F38" s="16" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="G38" s="15" t="n"/>
-      <c r="H38" s="15" t="n"/>
-      <c r="I38" s="15" t="n"/>
-      <c r="J38" s="15" t="n"/>
-      <c r="K38" s="15" t="n"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="B39" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C39" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D39" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="E39" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="F39" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="B40" s="16" t="n"/>
-      <c r="C40" s="16" t="n"/>
-      <c r="D40" s="16" t="n"/>
-      <c r="E40" s="16" t="n">
-        <v>8</v>
-      </c>
-      <c r="F40" s="16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G40" s="15" t="n"/>
-      <c r="H40" s="15" t="n"/>
-      <c r="I40" s="15" t="n"/>
-      <c r="J40" s="15" t="n"/>
-      <c r="K40" s="15" t="n"/>
-    </row>
-    <row r="41">
-      <c r="B41" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="C41" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="D41" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="E41" s="11" t="n">
-        <v>15</v>
-      </c>
-      <c r="F41" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="B42" s="16" t="n"/>
-      <c r="C42" s="16" t="n"/>
-      <c r="D42" s="16" t="n"/>
-      <c r="E42" s="16" t="n">
-        <v>16</v>
-      </c>
-      <c r="F42" s="16" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="G42" s="15" t="n"/>
-      <c r="H42" s="15" t="n"/>
-      <c r="I42" s="15" t="n"/>
-      <c r="J42" s="15" t="n"/>
-      <c r="K42" s="15" t="n"/>
-    </row>
-    <row r="43">
-      <c r="B43" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="C43" s="11" t="n">
-        <v>11</v>
-      </c>
-      <c r="D43" s="11" t="n">
-        <v>10</v>
-      </c>
-      <c r="E43" s="11" t="n">
-        <v>17</v>
-      </c>
-      <c r="F43" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="B44" s="16" t="n"/>
-      <c r="C44" s="16" t="n"/>
-      <c r="D44" s="16" t="n"/>
-      <c r="E44" s="16" t="n">
-        <v>18</v>
-      </c>
-      <c r="F44" s="16" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="G44" s="15" t="n"/>
-      <c r="H44" s="15" t="n"/>
-      <c r="I44" s="15" t="n"/>
-      <c r="J44" s="15" t="n"/>
-      <c r="K44" s="15" t="n"/>
-    </row>
-    <row r="45">
-      <c r="B45" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="C45" s="11" t="n">
-        <v>8</v>
-      </c>
-      <c r="D45" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="E45" s="11" t="n">
-        <v>21</v>
-      </c>
-      <c r="F45" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="B46" s="16" t="n"/>
-      <c r="C46" s="16" t="n"/>
-      <c r="D46" s="16" t="n"/>
-      <c r="E46" s="16" t="n">
-        <v>22</v>
-      </c>
-      <c r="F46" s="16" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="G46" s="15" t="n"/>
-      <c r="H46" s="15" t="n"/>
-      <c r="I46" s="15" t="n"/>
-      <c r="J46" s="15" t="n"/>
-      <c r="K46" s="15" t="n"/>
-    </row>
-    <row r="47">
-      <c r="B47" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C47" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="D47" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="E47" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F47" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="B48" s="16" t="n"/>
-      <c r="C48" s="16" t="n"/>
-      <c r="D48" s="16" t="n"/>
-      <c r="E48" s="16" t="n">
-        <v>2</v>
-      </c>
-      <c r="F48" s="16" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="G48" s="15" t="n"/>
-      <c r="H48" s="15" t="n"/>
-      <c r="I48" s="15" t="n"/>
-      <c r="J48" s="15" t="n"/>
-      <c r="K48" s="15" t="n"/>
-    </row>
-    <row r="49">
-      <c r="B49" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="C49" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D49" s="11" t="n">
-        <v>9</v>
-      </c>
-      <c r="E49" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="F49" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="15" t="n"/>
-      <c r="B50" s="16" t="n"/>
-      <c r="C50" s="16" t="n"/>
-      <c r="D50" s="16" t="n"/>
-      <c r="E50" s="16" t="n">
-        <v>4</v>
-      </c>
-      <c r="F50" s="16" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-      <c r="G50" s="15" t="n"/>
-      <c r="H50" s="15" t="n"/>
-      <c r="I50" s="15" t="n"/>
-      <c r="J50" s="15" t="n"/>
-      <c r="K50" s="15" t="n"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="B51" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C51" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D51" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="E51" s="11" t="n">
-        <v>9</v>
-      </c>
-      <c r="F51" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="B52" s="16" t="n"/>
-      <c r="C52" s="16" t="n"/>
-      <c r="D52" s="16" t="n"/>
-      <c r="E52" s="16" t="n">
-        <v>10</v>
-      </c>
-      <c r="F52" s="16" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-      <c r="G52" s="15" t="n"/>
-      <c r="H52" s="15" t="n"/>
-      <c r="I52" s="15" t="n"/>
-      <c r="J52" s="15" t="n"/>
-      <c r="K52" s="15" t="n"/>
-    </row>
-    <row r="53">
-      <c r="B53" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="C53" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="D53" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="E53" s="11" t="n">
-        <v>17</v>
-      </c>
-      <c r="F53" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="B54" s="16" t="n"/>
-      <c r="C54" s="16" t="n"/>
-      <c r="D54" s="16" t="n"/>
-      <c r="E54" s="16" t="n">
-        <v>18</v>
-      </c>
-      <c r="F54" s="16" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="G54" s="15" t="n"/>
-      <c r="H54" s="15" t="n"/>
-      <c r="I54" s="15" t="n"/>
-      <c r="J54" s="15" t="n"/>
-      <c r="K54" s="15" t="n"/>
-    </row>
-    <row r="55">
-      <c r="B55" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="C55" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D55" s="11" t="n">
-        <v>11</v>
-      </c>
-      <c r="E55" s="11" t="n">
-        <v>19</v>
-      </c>
-      <c r="F55" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="B56" s="16" t="n"/>
-      <c r="C56" s="16" t="n"/>
-      <c r="D56" s="16" t="n"/>
-      <c r="E56" s="16" t="n">
-        <v>20</v>
-      </c>
-      <c r="F56" s="16" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-      <c r="G56" s="15" t="n"/>
-      <c r="H56" s="15" t="n"/>
-      <c r="I56" s="15" t="n"/>
-      <c r="J56" s="15" t="n"/>
-      <c r="K56" s="15" t="n"/>
-    </row>
-    <row r="57">
-      <c r="B57" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="C57" s="11" t="n">
-        <v>9</v>
-      </c>
-      <c r="D57" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="E57" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F57" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="B58" s="16" t="n"/>
-      <c r="C58" s="16" t="n"/>
-      <c r="D58" s="16" t="n"/>
-      <c r="E58" s="16" t="n">
-        <v>2</v>
-      </c>
-      <c r="F58" s="16" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="G58" s="15" t="n"/>
-      <c r="H58" s="15" t="n"/>
-      <c r="I58" s="15" t="n"/>
-      <c r="J58" s="15" t="n"/>
-      <c r="K58" s="15" t="n"/>
-    </row>
-    <row r="59">
-      <c r="B59" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C59" s="11" t="n">
-        <v>8</v>
-      </c>
-      <c r="D59" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="E59" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="F59" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="B60" s="16" t="n"/>
-      <c r="C60" s="16" t="n"/>
-      <c r="D60" s="16" t="n"/>
-      <c r="E60" s="16" t="n">
-        <v>4</v>
-      </c>
-      <c r="F60" s="16" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-      <c r="G60" s="15" t="n"/>
-      <c r="H60" s="15" t="n"/>
-      <c r="I60" s="15" t="n"/>
-      <c r="J60" s="15" t="n"/>
-      <c r="K60" s="15" t="n"/>
-    </row>
-    <row r="61">
-      <c r="B61" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="C61" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="D61" s="11" t="n">
-        <v>10</v>
-      </c>
-      <c r="E61" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="F61" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="15" t="n"/>
-      <c r="B62" s="16" t="n"/>
-      <c r="C62" s="16" t="n"/>
-      <c r="D62" s="16" t="n"/>
-      <c r="E62" s="16" t="n">
-        <v>6</v>
-      </c>
-      <c r="F62" s="16" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="G62" s="15" t="n"/>
-      <c r="H62" s="15" t="n"/>
-      <c r="I62" s="15" t="n"/>
-      <c r="J62" s="15" t="n"/>
-      <c r="K62" s="15" t="n"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="B63" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C63" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D63" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="E63" s="11" t="n">
-        <v>11</v>
-      </c>
-      <c r="F63" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="B64" s="16" t="n"/>
-      <c r="C64" s="16" t="n"/>
-      <c r="D64" s="16" t="n"/>
-      <c r="E64" s="16" t="n">
-        <v>12</v>
-      </c>
-      <c r="F64" s="16" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="G64" s="15" t="n"/>
-      <c r="H64" s="15" t="n"/>
-      <c r="I64" s="15" t="n"/>
-      <c r="J64" s="15" t="n"/>
-      <c r="K64" s="15" t="n"/>
-    </row>
-    <row r="65">
-      <c r="B65" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="C65" s="11" t="n">
-        <v>8</v>
-      </c>
-      <c r="D65" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="E65" s="11" t="n">
-        <v>19</v>
-      </c>
-      <c r="F65" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="B66" s="16" t="n"/>
-      <c r="C66" s="16" t="n"/>
-      <c r="D66" s="16" t="n"/>
-      <c r="E66" s="16" t="n">
-        <v>20</v>
-      </c>
-      <c r="F66" s="16" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-      <c r="G66" s="15" t="n"/>
-      <c r="H66" s="15" t="n"/>
-      <c r="I66" s="15" t="n"/>
-      <c r="J66" s="15" t="n"/>
-      <c r="K66" s="15" t="n"/>
-    </row>
-    <row r="67">
-      <c r="B67" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="C67" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="D67" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E67" s="11" t="n">
-        <v>21</v>
-      </c>
-      <c r="F67" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="B68" s="16" t="n"/>
-      <c r="C68" s="16" t="n"/>
-      <c r="D68" s="16" t="n"/>
-      <c r="E68" s="16" t="n">
-        <v>22</v>
-      </c>
-      <c r="F68" s="16" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="G68" s="15" t="n"/>
-      <c r="H68" s="15" t="n"/>
-      <c r="I68" s="15" t="n"/>
-      <c r="J68" s="15" t="n"/>
-      <c r="K68" s="15" t="n"/>
-    </row>
-    <row r="69">
-      <c r="B69" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="C69" s="11" t="n">
-        <v>10</v>
-      </c>
-      <c r="D69" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="E69" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="F69" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="B70" s="16" t="n"/>
-      <c r="C70" s="16" t="n"/>
-      <c r="D70" s="16" t="n"/>
-      <c r="E70" s="16" t="n">
-        <v>4</v>
-      </c>
-      <c r="F70" s="16" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-      <c r="G70" s="15" t="n"/>
-      <c r="H70" s="15" t="n"/>
-      <c r="I70" s="15" t="n"/>
-      <c r="J70" s="15" t="n"/>
-      <c r="K70" s="15" t="n"/>
-    </row>
-    <row r="71">
-      <c r="B71" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C71" s="11" t="n">
-        <v>9</v>
-      </c>
-      <c r="D71" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="E71" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="F71" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="B72" s="16" t="n"/>
-      <c r="C72" s="16" t="n"/>
-      <c r="D72" s="16" t="n"/>
-      <c r="E72" s="16" t="n">
-        <v>6</v>
-      </c>
-      <c r="F72" s="16" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="G72" s="15" t="n"/>
-      <c r="H72" s="15" t="n"/>
-      <c r="I72" s="15" t="n"/>
-      <c r="J72" s="15" t="n"/>
-      <c r="K72" s="15" t="n"/>
-    </row>
-    <row r="73">
-      <c r="B73" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="C73" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="D73" s="11" t="n">
-        <v>11</v>
-      </c>
-      <c r="E73" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="F73" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="15" t="n"/>
-      <c r="B74" s="16" t="n"/>
-      <c r="C74" s="16" t="n"/>
-      <c r="D74" s="16" t="n"/>
-      <c r="E74" s="16" t="n">
-        <v>8</v>
-      </c>
-      <c r="F74" s="16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G74" s="15" t="n"/>
-      <c r="H74" s="15" t="n"/>
-      <c r="I74" s="15" t="n"/>
-      <c r="J74" s="15" t="n"/>
-      <c r="K74" s="15" t="n"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="B75" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C75" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D75" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="E75" s="11" t="n">
-        <v>13</v>
-      </c>
-      <c r="F75" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="B76" s="16" t="n"/>
-      <c r="C76" s="16" t="n"/>
-      <c r="D76" s="16" t="n"/>
-      <c r="E76" s="16" t="n">
-        <v>14</v>
-      </c>
-      <c r="F76" s="16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G76" s="15" t="n"/>
-      <c r="H76" s="15" t="n"/>
-      <c r="I76" s="15" t="n"/>
-      <c r="J76" s="15" t="n"/>
-      <c r="K76" s="15" t="n"/>
-    </row>
-    <row r="77">
-      <c r="B77" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="C77" s="11" t="n">
-        <v>9</v>
-      </c>
-      <c r="D77" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="E77" s="11" t="n">
-        <v>21</v>
-      </c>
-      <c r="F77" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="B78" s="16" t="n"/>
-      <c r="C78" s="16" t="n"/>
-      <c r="D78" s="16" t="n"/>
-      <c r="E78" s="16" t="n">
-        <v>22</v>
-      </c>
-      <c r="F78" s="16" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="G78" s="15" t="n"/>
-      <c r="H78" s="15" t="n"/>
-      <c r="I78" s="15" t="n"/>
-      <c r="J78" s="15" t="n"/>
-      <c r="K78" s="15" t="n"/>
-    </row>
-    <row r="79">
-      <c r="B79" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="C79" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="D79" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="E79" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F79" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="B80" s="16" t="n"/>
-      <c r="C80" s="16" t="n"/>
-      <c r="D80" s="16" t="n"/>
-      <c r="E80" s="16" t="n">
-        <v>2</v>
-      </c>
-      <c r="F80" s="16" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="G80" s="15" t="n"/>
-      <c r="H80" s="15" t="n"/>
-      <c r="I80" s="15" t="n"/>
-      <c r="J80" s="15" t="n"/>
-      <c r="K80" s="15" t="n"/>
-    </row>
-    <row r="81">
-      <c r="B81" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="C81" s="11" t="n">
-        <v>11</v>
-      </c>
-      <c r="D81" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="E81" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="F81" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="B82" s="16" t="n"/>
-      <c r="C82" s="16" t="n"/>
-      <c r="D82" s="16" t="n"/>
-      <c r="E82" s="16" t="n">
-        <v>6</v>
-      </c>
-      <c r="F82" s="16" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="G82" s="15" t="n"/>
-      <c r="H82" s="15" t="n"/>
-      <c r="I82" s="15" t="n"/>
-      <c r="J82" s="15" t="n"/>
-      <c r="K82" s="15" t="n"/>
-    </row>
-    <row r="83">
-      <c r="B83" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C83" s="11" t="n">
-        <v>10</v>
-      </c>
-      <c r="D83" s="11" t="n">
-        <v>8</v>
-      </c>
-      <c r="E83" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="F83" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="B84" s="16" t="n"/>
-      <c r="C84" s="16" t="n"/>
-      <c r="D84" s="16" t="n"/>
-      <c r="E84" s="16" t="n">
-        <v>8</v>
-      </c>
-      <c r="F84" s="16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G84" s="15" t="n"/>
-      <c r="H84" s="15" t="n"/>
-      <c r="I84" s="15" t="n"/>
-      <c r="J84" s="15" t="n"/>
-      <c r="K84" s="15" t="n"/>
-    </row>
-    <row r="85">
-      <c r="B85" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="C85" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="D85" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E85" s="11" t="n">
-        <v>9</v>
-      </c>
-      <c r="F85" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="15" t="n"/>
-      <c r="B86" s="16" t="n"/>
-      <c r="C86" s="16" t="n"/>
-      <c r="D86" s="16" t="n"/>
-      <c r="E86" s="16" t="n">
-        <v>10</v>
-      </c>
-      <c r="F86" s="16" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-      <c r="G86" s="15" t="n"/>
-      <c r="H86" s="15" t="n"/>
-      <c r="I86" s="15" t="n"/>
-      <c r="J86" s="15" t="n"/>
-      <c r="K86" s="15" t="n"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="11" t="n">
-        <v>8</v>
-      </c>
-      <c r="B87" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C87" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D87" s="11" t="n">
-        <v>8</v>
-      </c>
-      <c r="E87" s="11" t="n">
-        <v>15</v>
-      </c>
-      <c r="F87" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="B88" s="16" t="n"/>
-      <c r="C88" s="16" t="n"/>
-      <c r="D88" s="16" t="n"/>
-      <c r="E88" s="16" t="n">
-        <v>16</v>
-      </c>
-      <c r="F88" s="16" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="G88" s="15" t="n"/>
-      <c r="H88" s="15" t="n"/>
-      <c r="I88" s="15" t="n"/>
-      <c r="J88" s="15" t="n"/>
-      <c r="K88" s="15" t="n"/>
-    </row>
-    <row r="89">
-      <c r="B89" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="C89" s="11" t="n">
-        <v>10</v>
-      </c>
-      <c r="D89" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="E89" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F89" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="B90" s="16" t="n"/>
-      <c r="C90" s="16" t="n"/>
-      <c r="D90" s="16" t="n"/>
-      <c r="E90" s="16" t="n">
-        <v>2</v>
-      </c>
-      <c r="F90" s="16" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="G90" s="15" t="n"/>
-      <c r="H90" s="15" t="n"/>
-      <c r="I90" s="15" t="n"/>
-      <c r="J90" s="15" t="n"/>
-      <c r="K90" s="15" t="n"/>
-    </row>
-    <row r="91">
-      <c r="B91" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="C91" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="D91" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="E91" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="F91" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="B92" s="16" t="n"/>
-      <c r="C92" s="16" t="n"/>
-      <c r="D92" s="16" t="n"/>
-      <c r="E92" s="16" t="n">
-        <v>4</v>
-      </c>
-      <c r="F92" s="16" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-      <c r="G92" s="15" t="n"/>
-      <c r="H92" s="15" t="n"/>
-      <c r="I92" s="15" t="n"/>
-      <c r="J92" s="15" t="n"/>
-      <c r="K92" s="15" t="n"/>
-    </row>
-    <row r="93">
-      <c r="B93" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="C93" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D93" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="E93" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="F93" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="B94" s="16" t="n"/>
-      <c r="C94" s="16" t="n"/>
-      <c r="D94" s="16" t="n"/>
-      <c r="E94" s="16" t="n">
-        <v>8</v>
-      </c>
-      <c r="F94" s="16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G94" s="15" t="n"/>
-      <c r="H94" s="15" t="n"/>
-      <c r="I94" s="15" t="n"/>
-      <c r="J94" s="15" t="n"/>
-      <c r="K94" s="15" t="n"/>
-    </row>
-    <row r="95">
-      <c r="B95" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C95" s="11" t="n">
-        <v>11</v>
-      </c>
-      <c r="D95" s="11" t="n">
-        <v>9</v>
-      </c>
-      <c r="E95" s="11" t="n">
-        <v>9</v>
-      </c>
-      <c r="F95" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="B96" s="16" t="n"/>
-      <c r="C96" s="16" t="n"/>
-      <c r="D96" s="16" t="n"/>
-      <c r="E96" s="16" t="n">
-        <v>10</v>
-      </c>
-      <c r="F96" s="16" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-      <c r="G96" s="15" t="n"/>
-      <c r="H96" s="15" t="n"/>
-      <c r="I96" s="15" t="n"/>
-      <c r="J96" s="15" t="n"/>
-      <c r="K96" s="15" t="n"/>
-    </row>
-    <row r="97">
-      <c r="B97" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="C97" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="D97" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="E97" s="11" t="n">
-        <v>11</v>
-      </c>
-      <c r="F97" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="15" t="n"/>
-      <c r="B98" s="16" t="n"/>
-      <c r="C98" s="16" t="n"/>
-      <c r="D98" s="16" t="n"/>
-      <c r="E98" s="16" t="n">
-        <v>12</v>
-      </c>
-      <c r="F98" s="16" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="G98" s="15" t="n"/>
-      <c r="H98" s="15" t="n"/>
-      <c r="I98" s="15" t="n"/>
-      <c r="J98" s="15" t="n"/>
-      <c r="K98" s="15" t="n"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="11" t="n">
-        <v>9</v>
-      </c>
-      <c r="B99" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C99" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D99" s="11" t="n">
-        <v>9</v>
-      </c>
-      <c r="E99" s="11" t="n">
-        <v>17</v>
-      </c>
-      <c r="F99" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="B100" s="16" t="n"/>
-      <c r="C100" s="16" t="n"/>
-      <c r="D100" s="16" t="n"/>
-      <c r="E100" s="16" t="n">
-        <v>18</v>
-      </c>
-      <c r="F100" s="16" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="G100" s="15" t="n"/>
-      <c r="H100" s="15" t="n"/>
-      <c r="I100" s="15" t="n"/>
-      <c r="J100" s="15" t="n"/>
-      <c r="K100" s="15" t="n"/>
-    </row>
-    <row r="101">
-      <c r="B101" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="C101" s="11" t="n">
-        <v>11</v>
-      </c>
-      <c r="D101" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="E101" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="F101" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="B102" s="16" t="n"/>
-      <c r="C102" s="16" t="n"/>
-      <c r="D102" s="16" t="n"/>
-      <c r="E102" s="16" t="n">
-        <v>4</v>
-      </c>
-      <c r="F102" s="16" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-      <c r="G102" s="15" t="n"/>
-      <c r="H102" s="15" t="n"/>
-      <c r="I102" s="15" t="n"/>
-      <c r="J102" s="15" t="n"/>
-      <c r="K102" s="15" t="n"/>
-    </row>
-    <row r="103">
-      <c r="B103" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="C103" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="D103" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="E103" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="F103" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="B104" s="16" t="n"/>
-      <c r="C104" s="16" t="n"/>
-      <c r="D104" s="16" t="n"/>
-      <c r="E104" s="16" t="n">
-        <v>6</v>
-      </c>
-      <c r="F104" s="16" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="G104" s="15" t="n"/>
-      <c r="H104" s="15" t="n"/>
-      <c r="I104" s="15" t="n"/>
-      <c r="J104" s="15" t="n"/>
-      <c r="K104" s="15" t="n"/>
-    </row>
-    <row r="105">
-      <c r="B105" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="C105" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="D105" s="11" t="n">
-        <v>8</v>
-      </c>
-      <c r="E105" s="11" t="n">
-        <v>9</v>
-      </c>
-      <c r="F105" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="B106" s="16" t="n"/>
-      <c r="C106" s="16" t="n"/>
-      <c r="D106" s="16" t="n"/>
-      <c r="E106" s="16" t="n">
-        <v>10</v>
-      </c>
-      <c r="F106" s="16" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-      <c r="G106" s="15" t="n"/>
-      <c r="H106" s="15" t="n"/>
-      <c r="I106" s="15" t="n"/>
-      <c r="J106" s="15" t="n"/>
-      <c r="K106" s="15" t="n"/>
-    </row>
-    <row r="107">
-      <c r="B107" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C107" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D107" s="11" t="n">
-        <v>10</v>
-      </c>
-      <c r="E107" s="11" t="n">
-        <v>11</v>
-      </c>
-      <c r="F107" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="B108" s="16" t="n"/>
-      <c r="C108" s="16" t="n"/>
-      <c r="D108" s="16" t="n"/>
-      <c r="E108" s="16" t="n">
-        <v>12</v>
-      </c>
-      <c r="F108" s="16" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="G108" s="15" t="n"/>
-      <c r="H108" s="15" t="n"/>
-      <c r="I108" s="15" t="n"/>
-      <c r="J108" s="15" t="n"/>
-      <c r="K108" s="15" t="n"/>
-    </row>
-    <row r="109">
-      <c r="B109" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="C109" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="D109" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="E109" s="11" t="n">
-        <v>13</v>
-      </c>
-      <c r="F109" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="15" t="n"/>
-      <c r="B110" s="16" t="n"/>
-      <c r="C110" s="16" t="n"/>
-      <c r="D110" s="16" t="n"/>
-      <c r="E110" s="16" t="n">
-        <v>14</v>
-      </c>
-      <c r="F110" s="16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G110" s="15" t="n"/>
-      <c r="H110" s="15" t="n"/>
-      <c r="I110" s="15" t="n"/>
-      <c r="J110" s="15" t="n"/>
-      <c r="K110" s="15" t="n"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B111" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C111" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D111" s="11" t="n">
-        <v>10</v>
-      </c>
-      <c r="E111" s="11" t="n">
-        <v>19</v>
-      </c>
-      <c r="F111" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="B112" s="16" t="n"/>
-      <c r="C112" s="16" t="n"/>
-      <c r="D112" s="16" t="n"/>
-      <c r="E112" s="16" t="n">
-        <v>20</v>
-      </c>
-      <c r="F112" s="16" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-      <c r="G112" s="15" t="n"/>
-      <c r="H112" s="15" t="n"/>
-      <c r="I112" s="15" t="n"/>
-      <c r="J112" s="15" t="n"/>
-      <c r="K112" s="15" t="n"/>
-    </row>
-    <row r="113">
-      <c r="B113" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="C113" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D113" s="11" t="n">
-        <v>8</v>
-      </c>
-      <c r="E113" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="F113" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="B114" s="16" t="n"/>
-      <c r="C114" s="16" t="n"/>
-      <c r="D114" s="16" t="n"/>
-      <c r="E114" s="16" t="n">
-        <v>6</v>
-      </c>
-      <c r="F114" s="16" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="G114" s="15" t="n"/>
-      <c r="H114" s="15" t="n"/>
-      <c r="I114" s="15" t="n"/>
-      <c r="J114" s="15" t="n"/>
-      <c r="K114" s="15" t="n"/>
-    </row>
-    <row r="115">
-      <c r="B115" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="C115" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="D115" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="E115" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="F115" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="B116" s="16" t="n"/>
-      <c r="C116" s="16" t="n"/>
-      <c r="D116" s="16" t="n"/>
-      <c r="E116" s="16" t="n">
-        <v>8</v>
-      </c>
-      <c r="F116" s="16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G116" s="15" t="n"/>
-      <c r="H116" s="15" t="n"/>
-      <c r="I116" s="15" t="n"/>
-      <c r="J116" s="15" t="n"/>
-      <c r="K116" s="15" t="n"/>
-    </row>
-    <row r="117">
-      <c r="B117" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="C117" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="D117" s="11" t="n">
-        <v>9</v>
-      </c>
-      <c r="E117" s="11" t="n">
-        <v>11</v>
-      </c>
-      <c r="F117" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="B118" s="16" t="n"/>
-      <c r="C118" s="16" t="n"/>
-      <c r="D118" s="16" t="n"/>
-      <c r="E118" s="16" t="n">
-        <v>12</v>
-      </c>
-      <c r="F118" s="16" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="G118" s="15" t="n"/>
-      <c r="H118" s="15" t="n"/>
-      <c r="I118" s="15" t="n"/>
-      <c r="J118" s="15" t="n"/>
-      <c r="K118" s="15" t="n"/>
-    </row>
-    <row r="119">
-      <c r="B119" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C119" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="D119" s="11" t="n">
-        <v>11</v>
-      </c>
-      <c r="E119" s="11" t="n">
-        <v>13</v>
-      </c>
-      <c r="F119" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="B120" s="16" t="n"/>
-      <c r="C120" s="16" t="n"/>
-      <c r="D120" s="16" t="n"/>
-      <c r="E120" s="16" t="n">
-        <v>14</v>
-      </c>
-      <c r="F120" s="16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G120" s="15" t="n"/>
-      <c r="H120" s="15" t="n"/>
-      <c r="I120" s="15" t="n"/>
-      <c r="J120" s="15" t="n"/>
-      <c r="K120" s="15" t="n"/>
-    </row>
-    <row r="121">
-      <c r="B121" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="C121" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="D121" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="E121" s="11" t="n">
-        <v>15</v>
-      </c>
-      <c r="F121" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="15" t="n"/>
-      <c r="B122" s="16" t="n"/>
-      <c r="C122" s="16" t="n"/>
-      <c r="D122" s="16" t="n"/>
-      <c r="E122" s="16" t="n">
-        <v>16</v>
-      </c>
-      <c r="F122" s="16" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="G122" s="15" t="n"/>
-      <c r="H122" s="15" t="n"/>
-      <c r="I122" s="15" t="n"/>
-      <c r="J122" s="15" t="n"/>
-      <c r="K122" s="15" t="n"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="11" t="n">
-        <v>11</v>
-      </c>
-      <c r="B123" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C123" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D123" s="11" t="n">
-        <v>11</v>
-      </c>
-      <c r="E123" s="11" t="n">
-        <v>21</v>
-      </c>
-      <c r="F123" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="B124" s="16" t="n"/>
-      <c r="C124" s="16" t="n"/>
-      <c r="D124" s="16" t="n"/>
-      <c r="E124" s="16" t="n">
-        <v>22</v>
-      </c>
-      <c r="F124" s="16" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="G124" s="15" t="n"/>
-      <c r="H124" s="15" t="n"/>
-      <c r="I124" s="15" t="n"/>
-      <c r="J124" s="15" t="n"/>
-      <c r="K124" s="15" t="n"/>
-    </row>
-    <row r="125">
-      <c r="B125" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="C125" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="D125" s="11" t="n">
-        <v>9</v>
-      </c>
-      <c r="E125" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="F125" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="B126" s="16" t="n"/>
-      <c r="C126" s="16" t="n"/>
-      <c r="D126" s="16" t="n"/>
-      <c r="E126" s="16" t="n">
-        <v>8</v>
-      </c>
-      <c r="F126" s="16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G126" s="15" t="n"/>
-      <c r="H126" s="15" t="n"/>
-      <c r="I126" s="15" t="n"/>
-      <c r="J126" s="15" t="n"/>
-      <c r="K126" s="15" t="n"/>
-    </row>
-    <row r="127">
-      <c r="B127" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="C127" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="D127" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="E127" s="11" t="n">
-        <v>9</v>
-      </c>
-      <c r="F127" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="B128" s="16" t="n"/>
-      <c r="C128" s="16" t="n"/>
-      <c r="D128" s="16" t="n"/>
-      <c r="E128" s="16" t="n">
-        <v>10</v>
-      </c>
-      <c r="F128" s="16" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-      <c r="G128" s="15" t="n"/>
-      <c r="H128" s="15" t="n"/>
-      <c r="I128" s="15" t="n"/>
-      <c r="J128" s="15" t="n"/>
-      <c r="K128" s="15" t="n"/>
-    </row>
-    <row r="129">
-      <c r="B129" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="C129" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="D129" s="11" t="n">
-        <v>10</v>
-      </c>
-      <c r="E129" s="11" t="n">
-        <v>13</v>
-      </c>
-      <c r="F129" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="B130" s="16" t="n"/>
-      <c r="C130" s="16" t="n"/>
-      <c r="D130" s="16" t="n"/>
-      <c r="E130" s="16" t="n">
-        <v>14</v>
-      </c>
-      <c r="F130" s="16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G130" s="15" t="n"/>
-      <c r="H130" s="15" t="n"/>
-      <c r="I130" s="15" t="n"/>
-      <c r="J130" s="15" t="n"/>
-      <c r="K130" s="15" t="n"/>
-    </row>
-    <row r="131">
-      <c r="B131" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C131" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="D131" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E131" s="11" t="n">
-        <v>15</v>
-      </c>
-      <c r="F131" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="B132" s="16" t="n"/>
-      <c r="C132" s="16" t="n"/>
-      <c r="D132" s="16" t="n"/>
-      <c r="E132" s="16" t="n">
-        <v>16</v>
-      </c>
-      <c r="F132" s="16" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="G132" s="15" t="n"/>
-      <c r="H132" s="15" t="n"/>
-      <c r="I132" s="15" t="n"/>
-      <c r="J132" s="15" t="n"/>
-      <c r="K132" s="15" t="n"/>
-    </row>
-    <row r="133">
-      <c r="B133" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="C133" s="11" t="n">
-        <v>8</v>
-      </c>
-      <c r="D133" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="E133" s="11" t="n">
-        <v>17</v>
-      </c>
-      <c r="F133" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="15" t="n"/>
-      <c r="B134" s="16" t="n"/>
-      <c r="C134" s="16" t="n"/>
-      <c r="D134" s="16" t="n"/>
-      <c r="E134" s="16" t="n">
-        <v>18</v>
-      </c>
-      <c r="F134" s="16" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="G134" s="15" t="n"/>
-      <c r="H134" s="15" t="n"/>
-      <c r="I134" s="15" t="n"/>
-      <c r="J134" s="15" t="n"/>
-      <c r="K134" s="15" t="n"/>
+      <c r="G133" s="15" t="n"/>
+      <c r="H133" s="15" t="n"/>
+      <c r="I133" s="15" t="n"/>
+      <c r="J133" s="15" t="n"/>
+      <c r="K133" s="15" t="n"/>
+      <c r="L133" s="15" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/howell11.xlsx
+++ b/howell11.xlsx
@@ -595,12 +595,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Name 52</t>
+          <t>Name 66</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Name 53</t>
+          <t>Name 77</t>
         </is>
       </c>
       <c r="D10" s="4">
@@ -618,12 +618,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Name 14</t>
+          <t>Name 21</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Name 57</t>
+          <t>Name 78</t>
         </is>
       </c>
       <c r="D11" s="4">
@@ -641,12 +641,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Name 46</t>
+          <t>Name 17</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Name 40</t>
+          <t>Name 24</t>
         </is>
       </c>
       <c r="D12" s="4">
@@ -664,12 +664,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Name 33</t>
+          <t>Name 14</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Name 77</t>
+          <t>Name 53</t>
         </is>
       </c>
       <c r="D13" s="4">
@@ -687,12 +687,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Name 66</t>
+          <t>Name 64</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Name 70</t>
+          <t>Name 34</t>
         </is>
       </c>
       <c r="D14" s="4">
@@ -710,12 +710,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Name 80</t>
+          <t>Name 39</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Name 27</t>
+          <t>Name 18</t>
         </is>
       </c>
       <c r="D15" s="4">
@@ -733,12 +733,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Name 11</t>
+          <t>Name 16</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Name 33</t>
+          <t>Name 36</t>
         </is>
       </c>
       <c r="D16" s="4">
@@ -756,12 +756,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Name 89</t>
+          <t>Name 34</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Name 50</t>
+          <t>Name 65</t>
         </is>
       </c>
       <c r="D17" s="4">
@@ -779,12 +779,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Name 31</t>
+          <t>Name 70</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Name 62</t>
+          <t>Name 14</t>
         </is>
       </c>
       <c r="D18" s="4">
@@ -802,12 +802,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Name 41</t>
+          <t>Name 89</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Name 48</t>
+          <t>Name 50</t>
         </is>
       </c>
       <c r="D19" s="4">
@@ -825,12 +825,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Name 80</t>
+          <t>Name 39</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Name 83</t>
+          <t>Name 67</t>
         </is>
       </c>
       <c r="D20" s="4">
@@ -21730,7 +21730,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M133"/>
+  <dimension ref="A2:K134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21741,2646 +21741,2572 @@
     <col width="30" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>Round</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>Table</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>Board</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>Vul</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t>Contract</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>By</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="I2" s="2" t="inlineStr">
         <is>
           <t>Result</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="J2" s="2" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="K2" s="2" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
-        <is>
-          <t>Scores</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="11" t="n">
+    </row>
+    <row r="3">
+      <c r="A3" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="n">
+      <c r="B3" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="inlineStr">
+      <c r="C3" s="11" t="inlineStr">
         <is>
           <t>Sit-Out</t>
         </is>
       </c>
-      <c r="D2" s="11" t="n">
+      <c r="D3" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="E2" s="11" t="n">
+      <c r="E3" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="F2" s="11" t="inlineStr">
+      <c r="F3" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="B3" s="16" t="n"/>
-      <c r="C3" s="16" t="n"/>
-      <c r="D3" s="16" t="n"/>
-      <c r="E3" s="16" t="n">
+    <row r="4">
+      <c r="B4" s="16" t="n"/>
+      <c r="C4" s="16" t="n"/>
+      <c r="D4" s="16" t="n"/>
+      <c r="E4" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="F3" s="16" t="inlineStr">
+      <c r="F4" s="16" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G3" s="15" t="n"/>
-      <c r="H3" s="15" t="n"/>
-      <c r="I3" s="15" t="n"/>
-      <c r="J3" s="15" t="n"/>
-      <c r="K3" s="15" t="n"/>
-      <c r="L3" s="15" t="n"/>
-    </row>
-    <row r="4">
-      <c r="B4" s="11" t="n">
+      <c r="G4" s="15" t="n"/>
+      <c r="H4" s="15" t="n"/>
+      <c r="I4" s="15" t="n"/>
+      <c r="J4" s="15" t="n"/>
+      <c r="K4" s="15" t="n"/>
+    </row>
+    <row r="5">
+      <c r="B5" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="C4" s="11" t="n">
+      <c r="C5" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="D4" s="11" t="n">
+      <c r="D5" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="E4" s="11" t="n">
+      <c r="E5" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="F4" s="11" t="inlineStr">
+      <c r="F5" s="11" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="B5" s="16" t="n"/>
-      <c r="C5" s="16" t="n"/>
-      <c r="D5" s="16" t="n"/>
-      <c r="E5" s="16" t="n">
+    <row r="6">
+      <c r="B6" s="16" t="n"/>
+      <c r="C6" s="16" t="n"/>
+      <c r="D6" s="16" t="n"/>
+      <c r="E6" s="16" t="n">
         <v>10</v>
       </c>
-      <c r="F5" s="16" t="inlineStr">
+      <c r="F6" s="16" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
-      <c r="G5" s="15" t="n"/>
-      <c r="H5" s="15" t="n"/>
-      <c r="I5" s="15" t="n"/>
-      <c r="J5" s="15" t="n"/>
-      <c r="K5" s="15" t="n"/>
-      <c r="L5" s="15" t="n"/>
-    </row>
-    <row r="6">
-      <c r="B6" s="11" t="n">
+      <c r="G6" s="15" t="n"/>
+      <c r="H6" s="15" t="n"/>
+      <c r="I6" s="15" t="n"/>
+      <c r="J6" s="15" t="n"/>
+      <c r="K6" s="15" t="n"/>
+    </row>
+    <row r="7">
+      <c r="B7" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="C6" s="11" t="n">
+      <c r="C7" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="D6" s="11" t="n">
+      <c r="D7" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="E6" s="11" t="n">
+      <c r="E7" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="F6" s="11" t="inlineStr">
+      <c r="F7" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="B7" s="16" t="n"/>
-      <c r="C7" s="16" t="n"/>
-      <c r="D7" s="16" t="n"/>
-      <c r="E7" s="16" t="n">
+    <row r="8">
+      <c r="B8" s="16" t="n"/>
+      <c r="C8" s="16" t="n"/>
+      <c r="D8" s="16" t="n"/>
+      <c r="E8" s="16" t="n">
         <v>12</v>
       </c>
-      <c r="F7" s="16" t="inlineStr">
+      <c r="F8" s="16" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G7" s="15" t="n"/>
-      <c r="H7" s="15" t="n"/>
-      <c r="I7" s="15" t="n"/>
-      <c r="J7" s="15" t="n"/>
-      <c r="K7" s="15" t="n"/>
-      <c r="L7" s="15" t="n"/>
-    </row>
-    <row r="8">
-      <c r="B8" s="11" t="n">
+      <c r="G8" s="15" t="n"/>
+      <c r="H8" s="15" t="n"/>
+      <c r="I8" s="15" t="n"/>
+      <c r="J8" s="15" t="n"/>
+      <c r="K8" s="15" t="n"/>
+    </row>
+    <row r="9">
+      <c r="B9" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="C8" s="11" t="n">
+      <c r="C9" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="D8" s="11" t="n">
+      <c r="D9" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="E8" s="11" t="n">
+      <c r="E9" s="11" t="n">
         <v>15</v>
       </c>
-      <c r="F8" s="11" t="inlineStr">
+      <c r="F9" s="11" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="B9" s="16" t="n"/>
-      <c r="C9" s="16" t="n"/>
-      <c r="D9" s="16" t="n"/>
-      <c r="E9" s="16" t="n">
+    <row r="10">
+      <c r="B10" s="16" t="n"/>
+      <c r="C10" s="16" t="n"/>
+      <c r="D10" s="16" t="n"/>
+      <c r="E10" s="16" t="n">
         <v>16</v>
       </c>
-      <c r="F9" s="16" t="inlineStr">
+      <c r="F10" s="16" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G9" s="15" t="n"/>
-      <c r="H9" s="15" t="n"/>
-      <c r="I9" s="15" t="n"/>
-      <c r="J9" s="15" t="n"/>
-      <c r="K9" s="15" t="n"/>
-      <c r="L9" s="15" t="n"/>
-    </row>
-    <row r="10">
-      <c r="B10" s="11" t="n">
+      <c r="G10" s="15" t="n"/>
+      <c r="H10" s="15" t="n"/>
+      <c r="I10" s="15" t="n"/>
+      <c r="J10" s="15" t="n"/>
+      <c r="K10" s="15" t="n"/>
+    </row>
+    <row r="11">
+      <c r="B11" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="C10" s="11" t="n">
+      <c r="C11" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="D10" s="11" t="n">
+      <c r="D11" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="E10" s="11" t="n">
+      <c r="E11" s="11" t="n">
         <v>17</v>
       </c>
-      <c r="F10" s="11" t="inlineStr">
+      <c r="F11" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="B11" s="16" t="n"/>
-      <c r="C11" s="16" t="n"/>
-      <c r="D11" s="16" t="n"/>
-      <c r="E11" s="16" t="n">
+    <row r="12">
+      <c r="B12" s="16" t="n"/>
+      <c r="C12" s="16" t="n"/>
+      <c r="D12" s="16" t="n"/>
+      <c r="E12" s="16" t="n">
         <v>18</v>
       </c>
-      <c r="F11" s="16" t="inlineStr">
+      <c r="F12" s="16" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G11" s="15" t="n"/>
-      <c r="H11" s="15" t="n"/>
-      <c r="I11" s="15" t="n"/>
-      <c r="J11" s="15" t="n"/>
-      <c r="K11" s="15" t="n"/>
-      <c r="L11" s="15" t="n"/>
-    </row>
-    <row r="12">
-      <c r="B12" s="11" t="n">
+      <c r="G12" s="15" t="n"/>
+      <c r="H12" s="15" t="n"/>
+      <c r="I12" s="15" t="n"/>
+      <c r="J12" s="15" t="n"/>
+      <c r="K12" s="15" t="n"/>
+    </row>
+    <row r="13">
+      <c r="B13" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="C12" s="11" t="n">
+      <c r="C13" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="D12" s="11" t="n">
+      <c r="D13" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="E12" s="11" t="n">
+      <c r="E13" s="11" t="n">
         <v>19</v>
       </c>
-      <c r="F12" s="11" t="inlineStr">
+      <c r="F13" s="11" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="15" t="n"/>
-      <c r="B13" s="16" t="n"/>
-      <c r="C13" s="16" t="n"/>
-      <c r="D13" s="16" t="n"/>
-      <c r="E13" s="16" t="n">
+    <row r="14">
+      <c r="A14" s="15" t="n"/>
+      <c r="B14" s="16" t="n"/>
+      <c r="C14" s="16" t="n"/>
+      <c r="D14" s="16" t="n"/>
+      <c r="E14" s="16" t="n">
         <v>20</v>
       </c>
-      <c r="F13" s="16" t="inlineStr">
+      <c r="F14" s="16" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
-      <c r="G13" s="15" t="n"/>
-      <c r="H13" s="15" t="n"/>
-      <c r="I13" s="15" t="n"/>
-      <c r="J13" s="15" t="n"/>
-      <c r="K13" s="15" t="n"/>
-      <c r="L13" s="15" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="11" t="n">
+      <c r="G14" s="15" t="n"/>
+      <c r="H14" s="15" t="n"/>
+      <c r="I14" s="15" t="n"/>
+      <c r="J14" s="15" t="n"/>
+      <c r="K14" s="15" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="B14" s="11" t="n">
+      <c r="B15" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C14" s="11" t="inlineStr">
+      <c r="C15" s="11" t="inlineStr">
         <is>
           <t>Sit-Out</t>
         </is>
       </c>
-      <c r="D14" s="11" t="n">
+      <c r="D15" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="E14" s="11" t="n">
+      <c r="E15" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="F14" s="11" t="inlineStr">
+      <c r="F15" s="11" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="B15" s="16" t="n"/>
-      <c r="C15" s="16" t="n"/>
-      <c r="D15" s="16" t="n"/>
-      <c r="E15" s="16" t="n">
+    <row r="16">
+      <c r="B16" s="16" t="n"/>
+      <c r="C16" s="16" t="n"/>
+      <c r="D16" s="16" t="n"/>
+      <c r="E16" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="F15" s="16" t="inlineStr">
+      <c r="F16" s="16" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
-      <c r="G15" s="15" t="n"/>
-      <c r="H15" s="15" t="n"/>
-      <c r="I15" s="15" t="n"/>
-      <c r="J15" s="15" t="n"/>
-      <c r="K15" s="15" t="n"/>
-      <c r="L15" s="15" t="n"/>
-    </row>
-    <row r="16">
-      <c r="B16" s="11" t="n">
+      <c r="G16" s="15" t="n"/>
+      <c r="H16" s="15" t="n"/>
+      <c r="I16" s="15" t="n"/>
+      <c r="J16" s="15" t="n"/>
+      <c r="K16" s="15" t="n"/>
+    </row>
+    <row r="17">
+      <c r="B17" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="C16" s="11" t="n">
+      <c r="C17" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="D16" s="11" t="n">
+      <c r="D17" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="E16" s="11" t="n">
+      <c r="E17" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="F16" s="11" t="inlineStr">
+      <c r="F17" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="B17" s="16" t="n"/>
-      <c r="C17" s="16" t="n"/>
-      <c r="D17" s="16" t="n"/>
-      <c r="E17" s="16" t="n">
+    <row r="18">
+      <c r="B18" s="16" t="n"/>
+      <c r="C18" s="16" t="n"/>
+      <c r="D18" s="16" t="n"/>
+      <c r="E18" s="16" t="n">
         <v>12</v>
       </c>
-      <c r="F17" s="16" t="inlineStr">
+      <c r="F18" s="16" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G17" s="15" t="n"/>
-      <c r="H17" s="15" t="n"/>
-      <c r="I17" s="15" t="n"/>
-      <c r="J17" s="15" t="n"/>
-      <c r="K17" s="15" t="n"/>
-      <c r="L17" s="15" t="n"/>
-    </row>
-    <row r="18">
-      <c r="B18" s="11" t="n">
+      <c r="G18" s="15" t="n"/>
+      <c r="H18" s="15" t="n"/>
+      <c r="I18" s="15" t="n"/>
+      <c r="J18" s="15" t="n"/>
+      <c r="K18" s="15" t="n"/>
+    </row>
+    <row r="19">
+      <c r="B19" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="C18" s="11" t="n">
+      <c r="C19" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="D18" s="11" t="n">
+      <c r="D19" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="E18" s="11" t="n">
+      <c r="E19" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="F18" s="11" t="inlineStr">
+      <c r="F19" s="11" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="B19" s="16" t="n"/>
-      <c r="C19" s="16" t="n"/>
-      <c r="D19" s="16" t="n"/>
-      <c r="E19" s="16" t="n">
+    <row r="20">
+      <c r="B20" s="16" t="n"/>
+      <c r="C20" s="16" t="n"/>
+      <c r="D20" s="16" t="n"/>
+      <c r="E20" s="16" t="n">
         <v>14</v>
       </c>
-      <c r="F19" s="16" t="inlineStr">
+      <c r="F20" s="16" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="G19" s="15" t="n"/>
-      <c r="H19" s="15" t="n"/>
-      <c r="I19" s="15" t="n"/>
-      <c r="J19" s="15" t="n"/>
-      <c r="K19" s="15" t="n"/>
-      <c r="L19" s="15" t="n"/>
-    </row>
-    <row r="20">
-      <c r="B20" s="11" t="n">
+      <c r="G20" s="15" t="n"/>
+      <c r="H20" s="15" t="n"/>
+      <c r="I20" s="15" t="n"/>
+      <c r="J20" s="15" t="n"/>
+      <c r="K20" s="15" t="n"/>
+    </row>
+    <row r="21">
+      <c r="B21" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="C20" s="11" t="n">
+      <c r="C21" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="D20" s="11" t="n">
+      <c r="D21" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="E20" s="11" t="n">
+      <c r="E21" s="11" t="n">
         <v>17</v>
       </c>
-      <c r="F20" s="11" t="inlineStr">
+      <c r="F21" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="B21" s="16" t="n"/>
-      <c r="C21" s="16" t="n"/>
-      <c r="D21" s="16" t="n"/>
-      <c r="E21" s="16" t="n">
+    <row r="22">
+      <c r="B22" s="16" t="n"/>
+      <c r="C22" s="16" t="n"/>
+      <c r="D22" s="16" t="n"/>
+      <c r="E22" s="16" t="n">
         <v>18</v>
       </c>
-      <c r="F21" s="16" t="inlineStr">
+      <c r="F22" s="16" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G21" s="15" t="n"/>
-      <c r="H21" s="15" t="n"/>
-      <c r="I21" s="15" t="n"/>
-      <c r="J21" s="15" t="n"/>
-      <c r="K21" s="15" t="n"/>
-      <c r="L21" s="15" t="n"/>
-    </row>
-    <row r="22">
-      <c r="B22" s="11" t="n">
+      <c r="G22" s="15" t="n"/>
+      <c r="H22" s="15" t="n"/>
+      <c r="I22" s="15" t="n"/>
+      <c r="J22" s="15" t="n"/>
+      <c r="K22" s="15" t="n"/>
+    </row>
+    <row r="23">
+      <c r="B23" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="C22" s="11" t="n">
+      <c r="C23" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="D22" s="11" t="n">
+      <c r="D23" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="E22" s="11" t="n">
+      <c r="E23" s="11" t="n">
         <v>19</v>
       </c>
-      <c r="F22" s="11" t="inlineStr">
+      <c r="F23" s="11" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="B23" s="16" t="n"/>
-      <c r="C23" s="16" t="n"/>
-      <c r="D23" s="16" t="n"/>
-      <c r="E23" s="16" t="n">
+    <row r="24">
+      <c r="B24" s="16" t="n"/>
+      <c r="C24" s="16" t="n"/>
+      <c r="D24" s="16" t="n"/>
+      <c r="E24" s="16" t="n">
         <v>20</v>
       </c>
-      <c r="F23" s="16" t="inlineStr">
+      <c r="F24" s="16" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
-      <c r="G23" s="15" t="n"/>
-      <c r="H23" s="15" t="n"/>
-      <c r="I23" s="15" t="n"/>
-      <c r="J23" s="15" t="n"/>
-      <c r="K23" s="15" t="n"/>
-      <c r="L23" s="15" t="n"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="11" t="n">
+      <c r="G24" s="15" t="n"/>
+      <c r="H24" s="15" t="n"/>
+      <c r="I24" s="15" t="n"/>
+      <c r="J24" s="15" t="n"/>
+      <c r="K24" s="15" t="n"/>
+    </row>
+    <row r="25">
+      <c r="B25" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="C24" s="11" t="n">
+      <c r="C25" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="D24" s="11" t="n">
+      <c r="D25" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="E24" s="11" t="n">
+      <c r="E25" s="11" t="n">
         <v>21</v>
       </c>
-      <c r="F24" s="11" t="inlineStr">
+      <c r="F25" s="11" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="15" t="n"/>
-      <c r="B25" s="16" t="n"/>
-      <c r="C25" s="16" t="n"/>
-      <c r="D25" s="16" t="n"/>
-      <c r="E25" s="16" t="n">
+    <row r="26">
+      <c r="A26" s="15" t="n"/>
+      <c r="B26" s="16" t="n"/>
+      <c r="C26" s="16" t="n"/>
+      <c r="D26" s="16" t="n"/>
+      <c r="E26" s="16" t="n">
         <v>22</v>
       </c>
-      <c r="F25" s="16" t="inlineStr">
+      <c r="F26" s="16" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G25" s="15" t="n"/>
-      <c r="H25" s="15" t="n"/>
-      <c r="I25" s="15" t="n"/>
-      <c r="J25" s="15" t="n"/>
-      <c r="K25" s="15" t="n"/>
-      <c r="L25" s="15" t="n"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="11" t="n">
+      <c r="G26" s="15" t="n"/>
+      <c r="H26" s="15" t="n"/>
+      <c r="I26" s="15" t="n"/>
+      <c r="J26" s="15" t="n"/>
+      <c r="K26" s="15" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="B26" s="11" t="n">
+      <c r="B27" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C26" s="11" t="inlineStr">
+      <c r="C27" s="11" t="inlineStr">
         <is>
           <t>Sit-Out</t>
         </is>
       </c>
-      <c r="D26" s="11" t="n">
+      <c r="D27" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="E26" s="11" t="n">
+      <c r="E27" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="F26" s="11" t="inlineStr">
+      <c r="F27" s="11" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="B27" s="16" t="n"/>
-      <c r="C27" s="16" t="n"/>
-      <c r="D27" s="16" t="n"/>
-      <c r="E27" s="16" t="n">
+    <row r="28">
+      <c r="B28" s="16" t="n"/>
+      <c r="C28" s="16" t="n"/>
+      <c r="D28" s="16" t="n"/>
+      <c r="E28" s="16" t="n">
         <v>6</v>
       </c>
-      <c r="F27" s="16" t="inlineStr">
+      <c r="F28" s="16" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G27" s="15" t="n"/>
-      <c r="H27" s="15" t="n"/>
-      <c r="I27" s="15" t="n"/>
-      <c r="J27" s="15" t="n"/>
-      <c r="K27" s="15" t="n"/>
-      <c r="L27" s="15" t="n"/>
-    </row>
-    <row r="28">
-      <c r="B28" s="11" t="n">
+      <c r="G28" s="15" t="n"/>
+      <c r="H28" s="15" t="n"/>
+      <c r="I28" s="15" t="n"/>
+      <c r="J28" s="15" t="n"/>
+      <c r="K28" s="15" t="n"/>
+    </row>
+    <row r="29">
+      <c r="B29" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="C28" s="11" t="n">
+      <c r="C29" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="D28" s="11" t="n">
+      <c r="D29" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="E28" s="11" t="n">
+      <c r="E29" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="F28" s="11" t="inlineStr">
+      <c r="F29" s="11" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="B29" s="16" t="n"/>
-      <c r="C29" s="16" t="n"/>
-      <c r="D29" s="16" t="n"/>
-      <c r="E29" s="16" t="n">
+    <row r="30">
+      <c r="B30" s="16" t="n"/>
+      <c r="C30" s="16" t="n"/>
+      <c r="D30" s="16" t="n"/>
+      <c r="E30" s="16" t="n">
         <v>14</v>
       </c>
-      <c r="F29" s="16" t="inlineStr">
+      <c r="F30" s="16" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="G29" s="15" t="n"/>
-      <c r="H29" s="15" t="n"/>
-      <c r="I29" s="15" t="n"/>
-      <c r="J29" s="15" t="n"/>
-      <c r="K29" s="15" t="n"/>
-      <c r="L29" s="15" t="n"/>
-    </row>
-    <row r="30">
-      <c r="B30" s="11" t="n">
+      <c r="G30" s="15" t="n"/>
+      <c r="H30" s="15" t="n"/>
+      <c r="I30" s="15" t="n"/>
+      <c r="J30" s="15" t="n"/>
+      <c r="K30" s="15" t="n"/>
+    </row>
+    <row r="31">
+      <c r="B31" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="C30" s="11" t="n">
+      <c r="C31" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="D30" s="11" t="n">
+      <c r="D31" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="E30" s="11" t="n">
+      <c r="E31" s="11" t="n">
         <v>15</v>
       </c>
-      <c r="F30" s="11" t="inlineStr">
+      <c r="F31" s="11" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="B31" s="16" t="n"/>
-      <c r="C31" s="16" t="n"/>
-      <c r="D31" s="16" t="n"/>
-      <c r="E31" s="16" t="n">
+    <row r="32">
+      <c r="B32" s="16" t="n"/>
+      <c r="C32" s="16" t="n"/>
+      <c r="D32" s="16" t="n"/>
+      <c r="E32" s="16" t="n">
         <v>16</v>
       </c>
-      <c r="F31" s="16" t="inlineStr">
+      <c r="F32" s="16" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G31" s="15" t="n"/>
-      <c r="H31" s="15" t="n"/>
-      <c r="I31" s="15" t="n"/>
-      <c r="J31" s="15" t="n"/>
-      <c r="K31" s="15" t="n"/>
-      <c r="L31" s="15" t="n"/>
-    </row>
-    <row r="32">
-      <c r="B32" s="11" t="n">
+      <c r="G32" s="15" t="n"/>
+      <c r="H32" s="15" t="n"/>
+      <c r="I32" s="15" t="n"/>
+      <c r="J32" s="15" t="n"/>
+      <c r="K32" s="15" t="n"/>
+    </row>
+    <row r="33">
+      <c r="B33" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="C32" s="11" t="n">
+      <c r="C33" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="D32" s="11" t="n">
+      <c r="D33" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="E32" s="11" t="n">
+      <c r="E33" s="11" t="n">
         <v>19</v>
       </c>
-      <c r="F32" s="11" t="inlineStr">
+      <c r="F33" s="11" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="B33" s="16" t="n"/>
-      <c r="C33" s="16" t="n"/>
-      <c r="D33" s="16" t="n"/>
-      <c r="E33" s="16" t="n">
+    <row r="34">
+      <c r="B34" s="16" t="n"/>
+      <c r="C34" s="16" t="n"/>
+      <c r="D34" s="16" t="n"/>
+      <c r="E34" s="16" t="n">
         <v>20</v>
       </c>
-      <c r="F33" s="16" t="inlineStr">
+      <c r="F34" s="16" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
-      <c r="G33" s="15" t="n"/>
-      <c r="H33" s="15" t="n"/>
-      <c r="I33" s="15" t="n"/>
-      <c r="J33" s="15" t="n"/>
-      <c r="K33" s="15" t="n"/>
-      <c r="L33" s="15" t="n"/>
-    </row>
-    <row r="34">
-      <c r="B34" s="11" t="n">
+      <c r="G34" s="15" t="n"/>
+      <c r="H34" s="15" t="n"/>
+      <c r="I34" s="15" t="n"/>
+      <c r="J34" s="15" t="n"/>
+      <c r="K34" s="15" t="n"/>
+    </row>
+    <row r="35">
+      <c r="B35" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="C34" s="11" t="n">
+      <c r="C35" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="D34" s="11" t="n">
+      <c r="D35" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="E34" s="11" t="n">
+      <c r="E35" s="11" t="n">
         <v>21</v>
       </c>
-      <c r="F34" s="11" t="inlineStr">
+      <c r="F35" s="11" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="B35" s="16" t="n"/>
-      <c r="C35" s="16" t="n"/>
-      <c r="D35" s="16" t="n"/>
-      <c r="E35" s="16" t="n">
+    <row r="36">
+      <c r="B36" s="16" t="n"/>
+      <c r="C36" s="16" t="n"/>
+      <c r="D36" s="16" t="n"/>
+      <c r="E36" s="16" t="n">
         <v>22</v>
       </c>
-      <c r="F35" s="16" t="inlineStr">
+      <c r="F36" s="16" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G35" s="15" t="n"/>
-      <c r="H35" s="15" t="n"/>
-      <c r="I35" s="15" t="n"/>
-      <c r="J35" s="15" t="n"/>
-      <c r="K35" s="15" t="n"/>
-      <c r="L35" s="15" t="n"/>
-    </row>
-    <row r="36">
-      <c r="B36" s="11" t="n">
+      <c r="G36" s="15" t="n"/>
+      <c r="H36" s="15" t="n"/>
+      <c r="I36" s="15" t="n"/>
+      <c r="J36" s="15" t="n"/>
+      <c r="K36" s="15" t="n"/>
+    </row>
+    <row r="37">
+      <c r="B37" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="C36" s="11" t="n">
+      <c r="C37" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="D36" s="11" t="n">
+      <c r="D37" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="E36" s="11" t="n">
+      <c r="E37" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="F36" s="11" t="inlineStr">
+      <c r="F37" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="15" t="n"/>
-      <c r="B37" s="16" t="n"/>
-      <c r="C37" s="16" t="n"/>
-      <c r="D37" s="16" t="n"/>
-      <c r="E37" s="16" t="n">
+    <row r="38">
+      <c r="A38" s="15" t="n"/>
+      <c r="B38" s="16" t="n"/>
+      <c r="C38" s="16" t="n"/>
+      <c r="D38" s="16" t="n"/>
+      <c r="E38" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="F37" s="16" t="inlineStr">
+      <c r="F38" s="16" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G37" s="15" t="n"/>
-      <c r="H37" s="15" t="n"/>
-      <c r="I37" s="15" t="n"/>
-      <c r="J37" s="15" t="n"/>
-      <c r="K37" s="15" t="n"/>
-      <c r="L37" s="15" t="n"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="11" t="n">
+      <c r="G38" s="15" t="n"/>
+      <c r="H38" s="15" t="n"/>
+      <c r="I38" s="15" t="n"/>
+      <c r="J38" s="15" t="n"/>
+      <c r="K38" s="15" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="B38" s="11" t="n">
+      <c r="B39" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C38" s="11" t="inlineStr">
+      <c r="C39" s="11" t="inlineStr">
         <is>
           <t>Sit-Out</t>
         </is>
       </c>
-      <c r="D38" s="11" t="n">
+      <c r="D39" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="E38" s="11" t="n">
+      <c r="E39" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="F38" s="11" t="inlineStr">
+      <c r="F39" s="11" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="B39" s="16" t="n"/>
-      <c r="C39" s="16" t="n"/>
-      <c r="D39" s="16" t="n"/>
-      <c r="E39" s="16" t="n">
+    <row r="40">
+      <c r="B40" s="16" t="n"/>
+      <c r="C40" s="16" t="n"/>
+      <c r="D40" s="16" t="n"/>
+      <c r="E40" s="16" t="n">
         <v>8</v>
       </c>
-      <c r="F39" s="16" t="inlineStr">
+      <c r="F40" s="16" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="G39" s="15" t="n"/>
-      <c r="H39" s="15" t="n"/>
-      <c r="I39" s="15" t="n"/>
-      <c r="J39" s="15" t="n"/>
-      <c r="K39" s="15" t="n"/>
-      <c r="L39" s="15" t="n"/>
-    </row>
-    <row r="40">
-      <c r="B40" s="11" t="n">
+      <c r="G40" s="15" t="n"/>
+      <c r="H40" s="15" t="n"/>
+      <c r="I40" s="15" t="n"/>
+      <c r="J40" s="15" t="n"/>
+      <c r="K40" s="15" t="n"/>
+    </row>
+    <row r="41">
+      <c r="B41" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="C40" s="11" t="n">
+      <c r="C41" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="D40" s="11" t="n">
+      <c r="D41" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="E40" s="11" t="n">
+      <c r="E41" s="11" t="n">
         <v>15</v>
       </c>
-      <c r="F40" s="11" t="inlineStr">
+      <c r="F41" s="11" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="B41" s="16" t="n"/>
-      <c r="C41" s="16" t="n"/>
-      <c r="D41" s="16" t="n"/>
-      <c r="E41" s="16" t="n">
+    <row r="42">
+      <c r="B42" s="16" t="n"/>
+      <c r="C42" s="16" t="n"/>
+      <c r="D42" s="16" t="n"/>
+      <c r="E42" s="16" t="n">
         <v>16</v>
       </c>
-      <c r="F41" s="16" t="inlineStr">
+      <c r="F42" s="16" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G41" s="15" t="n"/>
-      <c r="H41" s="15" t="n"/>
-      <c r="I41" s="15" t="n"/>
-      <c r="J41" s="15" t="n"/>
-      <c r="K41" s="15" t="n"/>
-      <c r="L41" s="15" t="n"/>
-    </row>
-    <row r="42">
-      <c r="B42" s="11" t="n">
+      <c r="G42" s="15" t="n"/>
+      <c r="H42" s="15" t="n"/>
+      <c r="I42" s="15" t="n"/>
+      <c r="J42" s="15" t="n"/>
+      <c r="K42" s="15" t="n"/>
+    </row>
+    <row r="43">
+      <c r="B43" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="C42" s="11" t="n">
+      <c r="C43" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="D42" s="11" t="n">
+      <c r="D43" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="E42" s="11" t="n">
+      <c r="E43" s="11" t="n">
         <v>17</v>
       </c>
-      <c r="F42" s="11" t="inlineStr">
+      <c r="F43" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="B43" s="16" t="n"/>
-      <c r="C43" s="16" t="n"/>
-      <c r="D43" s="16" t="n"/>
-      <c r="E43" s="16" t="n">
+    <row r="44">
+      <c r="B44" s="16" t="n"/>
+      <c r="C44" s="16" t="n"/>
+      <c r="D44" s="16" t="n"/>
+      <c r="E44" s="16" t="n">
         <v>18</v>
       </c>
-      <c r="F43" s="16" t="inlineStr">
+      <c r="F44" s="16" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G43" s="15" t="n"/>
-      <c r="H43" s="15" t="n"/>
-      <c r="I43" s="15" t="n"/>
-      <c r="J43" s="15" t="n"/>
-      <c r="K43" s="15" t="n"/>
-      <c r="L43" s="15" t="n"/>
-    </row>
-    <row r="44">
-      <c r="B44" s="11" t="n">
+      <c r="G44" s="15" t="n"/>
+      <c r="H44" s="15" t="n"/>
+      <c r="I44" s="15" t="n"/>
+      <c r="J44" s="15" t="n"/>
+      <c r="K44" s="15" t="n"/>
+    </row>
+    <row r="45">
+      <c r="B45" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="C44" s="11" t="n">
+      <c r="C45" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="D44" s="11" t="n">
+      <c r="D45" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="E44" s="11" t="n">
+      <c r="E45" s="11" t="n">
         <v>21</v>
       </c>
-      <c r="F44" s="11" t="inlineStr">
+      <c r="F45" s="11" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="B45" s="16" t="n"/>
-      <c r="C45" s="16" t="n"/>
-      <c r="D45" s="16" t="n"/>
-      <c r="E45" s="16" t="n">
+    <row r="46">
+      <c r="B46" s="16" t="n"/>
+      <c r="C46" s="16" t="n"/>
+      <c r="D46" s="16" t="n"/>
+      <c r="E46" s="16" t="n">
         <v>22</v>
       </c>
-      <c r="F45" s="16" t="inlineStr">
+      <c r="F46" s="16" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G45" s="15" t="n"/>
-      <c r="H45" s="15" t="n"/>
-      <c r="I45" s="15" t="n"/>
-      <c r="J45" s="15" t="n"/>
-      <c r="K45" s="15" t="n"/>
-      <c r="L45" s="15" t="n"/>
-    </row>
-    <row r="46">
-      <c r="B46" s="11" t="n">
+      <c r="G46" s="15" t="n"/>
+      <c r="H46" s="15" t="n"/>
+      <c r="I46" s="15" t="n"/>
+      <c r="J46" s="15" t="n"/>
+      <c r="K46" s="15" t="n"/>
+    </row>
+    <row r="47">
+      <c r="B47" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="C46" s="11" t="n">
+      <c r="C47" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="D46" s="11" t="n">
+      <c r="D47" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="E46" s="11" t="n">
+      <c r="E47" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="F46" s="11" t="inlineStr">
+      <c r="F47" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="B47" s="16" t="n"/>
-      <c r="C47" s="16" t="n"/>
-      <c r="D47" s="16" t="n"/>
-      <c r="E47" s="16" t="n">
+    <row r="48">
+      <c r="B48" s="16" t="n"/>
+      <c r="C48" s="16" t="n"/>
+      <c r="D48" s="16" t="n"/>
+      <c r="E48" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="F47" s="16" t="inlineStr">
+      <c r="F48" s="16" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G47" s="15" t="n"/>
-      <c r="H47" s="15" t="n"/>
-      <c r="I47" s="15" t="n"/>
-      <c r="J47" s="15" t="n"/>
-      <c r="K47" s="15" t="n"/>
-      <c r="L47" s="15" t="n"/>
-    </row>
-    <row r="48">
-      <c r="B48" s="11" t="n">
+      <c r="G48" s="15" t="n"/>
+      <c r="H48" s="15" t="n"/>
+      <c r="I48" s="15" t="n"/>
+      <c r="J48" s="15" t="n"/>
+      <c r="K48" s="15" t="n"/>
+    </row>
+    <row r="49">
+      <c r="B49" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="C48" s="11" t="n">
+      <c r="C49" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="D48" s="11" t="n">
+      <c r="D49" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="E48" s="11" t="n">
+      <c r="E49" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="F48" s="11" t="inlineStr">
+      <c r="F49" s="11" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="15" t="n"/>
-      <c r="B49" s="16" t="n"/>
-      <c r="C49" s="16" t="n"/>
-      <c r="D49" s="16" t="n"/>
-      <c r="E49" s="16" t="n">
+    <row r="50">
+      <c r="A50" s="15" t="n"/>
+      <c r="B50" s="16" t="n"/>
+      <c r="C50" s="16" t="n"/>
+      <c r="D50" s="16" t="n"/>
+      <c r="E50" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="F49" s="16" t="inlineStr">
+      <c r="F50" s="16" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
-      <c r="G49" s="15" t="n"/>
-      <c r="H49" s="15" t="n"/>
-      <c r="I49" s="15" t="n"/>
-      <c r="J49" s="15" t="n"/>
-      <c r="K49" s="15" t="n"/>
-      <c r="L49" s="15" t="n"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="11" t="n">
+      <c r="G50" s="15" t="n"/>
+      <c r="H50" s="15" t="n"/>
+      <c r="I50" s="15" t="n"/>
+      <c r="J50" s="15" t="n"/>
+      <c r="K50" s="15" t="n"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="B50" s="11" t="n">
+      <c r="B51" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C50" s="11" t="inlineStr">
+      <c r="C51" s="11" t="inlineStr">
         <is>
           <t>Sit-Out</t>
         </is>
       </c>
-      <c r="D50" s="11" t="n">
+      <c r="D51" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="E50" s="11" t="n">
+      <c r="E51" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="F50" s="11" t="inlineStr">
+      <c r="F51" s="11" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
     </row>
-    <row r="51">
-      <c r="B51" s="16" t="n"/>
-      <c r="C51" s="16" t="n"/>
-      <c r="D51" s="16" t="n"/>
-      <c r="E51" s="16" t="n">
+    <row r="52">
+      <c r="B52" s="16" t="n"/>
+      <c r="C52" s="16" t="n"/>
+      <c r="D52" s="16" t="n"/>
+      <c r="E52" s="16" t="n">
         <v>10</v>
       </c>
-      <c r="F51" s="16" t="inlineStr">
+      <c r="F52" s="16" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
-      <c r="G51" s="15" t="n"/>
-      <c r="H51" s="15" t="n"/>
-      <c r="I51" s="15" t="n"/>
-      <c r="J51" s="15" t="n"/>
-      <c r="K51" s="15" t="n"/>
-      <c r="L51" s="15" t="n"/>
-    </row>
-    <row r="52">
-      <c r="B52" s="11" t="n">
+      <c r="G52" s="15" t="n"/>
+      <c r="H52" s="15" t="n"/>
+      <c r="I52" s="15" t="n"/>
+      <c r="J52" s="15" t="n"/>
+      <c r="K52" s="15" t="n"/>
+    </row>
+    <row r="53">
+      <c r="B53" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="C52" s="11" t="n">
+      <c r="C53" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="D52" s="11" t="n">
+      <c r="D53" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="E52" s="11" t="n">
+      <c r="E53" s="11" t="n">
         <v>17</v>
       </c>
-      <c r="F52" s="11" t="inlineStr">
+      <c r="F53" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="53">
-      <c r="B53" s="16" t="n"/>
-      <c r="C53" s="16" t="n"/>
-      <c r="D53" s="16" t="n"/>
-      <c r="E53" s="16" t="n">
+    <row r="54">
+      <c r="B54" s="16" t="n"/>
+      <c r="C54" s="16" t="n"/>
+      <c r="D54" s="16" t="n"/>
+      <c r="E54" s="16" t="n">
         <v>18</v>
       </c>
-      <c r="F53" s="16" t="inlineStr">
+      <c r="F54" s="16" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G53" s="15" t="n"/>
-      <c r="H53" s="15" t="n"/>
-      <c r="I53" s="15" t="n"/>
-      <c r="J53" s="15" t="n"/>
-      <c r="K53" s="15" t="n"/>
-      <c r="L53" s="15" t="n"/>
-    </row>
-    <row r="54">
-      <c r="B54" s="11" t="n">
+      <c r="G54" s="15" t="n"/>
+      <c r="H54" s="15" t="n"/>
+      <c r="I54" s="15" t="n"/>
+      <c r="J54" s="15" t="n"/>
+      <c r="K54" s="15" t="n"/>
+    </row>
+    <row r="55">
+      <c r="B55" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="C54" s="11" t="n">
+      <c r="C55" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="D54" s="11" t="n">
+      <c r="D55" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="E54" s="11" t="n">
+      <c r="E55" s="11" t="n">
         <v>19</v>
       </c>
-      <c r="F54" s="11" t="inlineStr">
+      <c r="F55" s="11" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
     </row>
-    <row r="55">
-      <c r="B55" s="16" t="n"/>
-      <c r="C55" s="16" t="n"/>
-      <c r="D55" s="16" t="n"/>
-      <c r="E55" s="16" t="n">
+    <row r="56">
+      <c r="B56" s="16" t="n"/>
+      <c r="C56" s="16" t="n"/>
+      <c r="D56" s="16" t="n"/>
+      <c r="E56" s="16" t="n">
         <v>20</v>
       </c>
-      <c r="F55" s="16" t="inlineStr">
+      <c r="F56" s="16" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
-      <c r="G55" s="15" t="n"/>
-      <c r="H55" s="15" t="n"/>
-      <c r="I55" s="15" t="n"/>
-      <c r="J55" s="15" t="n"/>
-      <c r="K55" s="15" t="n"/>
-      <c r="L55" s="15" t="n"/>
-    </row>
-    <row r="56">
-      <c r="B56" s="11" t="n">
+      <c r="G56" s="15" t="n"/>
+      <c r="H56" s="15" t="n"/>
+      <c r="I56" s="15" t="n"/>
+      <c r="J56" s="15" t="n"/>
+      <c r="K56" s="15" t="n"/>
+    </row>
+    <row r="57">
+      <c r="B57" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="C56" s="11" t="n">
+      <c r="C57" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="D56" s="11" t="n">
+      <c r="D57" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="E56" s="11" t="n">
+      <c r="E57" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="F56" s="11" t="inlineStr">
+      <c r="F57" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="57">
-      <c r="B57" s="16" t="n"/>
-      <c r="C57" s="16" t="n"/>
-      <c r="D57" s="16" t="n"/>
-      <c r="E57" s="16" t="n">
+    <row r="58">
+      <c r="B58" s="16" t="n"/>
+      <c r="C58" s="16" t="n"/>
+      <c r="D58" s="16" t="n"/>
+      <c r="E58" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="F57" s="16" t="inlineStr">
+      <c r="F58" s="16" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G57" s="15" t="n"/>
-      <c r="H57" s="15" t="n"/>
-      <c r="I57" s="15" t="n"/>
-      <c r="J57" s="15" t="n"/>
-      <c r="K57" s="15" t="n"/>
-      <c r="L57" s="15" t="n"/>
-    </row>
-    <row r="58">
-      <c r="B58" s="11" t="n">
+      <c r="G58" s="15" t="n"/>
+      <c r="H58" s="15" t="n"/>
+      <c r="I58" s="15" t="n"/>
+      <c r="J58" s="15" t="n"/>
+      <c r="K58" s="15" t="n"/>
+    </row>
+    <row r="59">
+      <c r="B59" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="C58" s="11" t="n">
+      <c r="C59" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="D58" s="11" t="n">
+      <c r="D59" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="E58" s="11" t="n">
+      <c r="E59" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="F58" s="11" t="inlineStr">
+      <c r="F59" s="11" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
     </row>
-    <row r="59">
-      <c r="B59" s="16" t="n"/>
-      <c r="C59" s="16" t="n"/>
-      <c r="D59" s="16" t="n"/>
-      <c r="E59" s="16" t="n">
+    <row r="60">
+      <c r="B60" s="16" t="n"/>
+      <c r="C60" s="16" t="n"/>
+      <c r="D60" s="16" t="n"/>
+      <c r="E60" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="F59" s="16" t="inlineStr">
+      <c r="F60" s="16" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
-      <c r="G59" s="15" t="n"/>
-      <c r="H59" s="15" t="n"/>
-      <c r="I59" s="15" t="n"/>
-      <c r="J59" s="15" t="n"/>
-      <c r="K59" s="15" t="n"/>
-      <c r="L59" s="15" t="n"/>
-    </row>
-    <row r="60">
-      <c r="B60" s="11" t="n">
+      <c r="G60" s="15" t="n"/>
+      <c r="H60" s="15" t="n"/>
+      <c r="I60" s="15" t="n"/>
+      <c r="J60" s="15" t="n"/>
+      <c r="K60" s="15" t="n"/>
+    </row>
+    <row r="61">
+      <c r="B61" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="C60" s="11" t="n">
+      <c r="C61" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="D60" s="11" t="n">
+      <c r="D61" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="E60" s="11" t="n">
+      <c r="E61" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="F60" s="11" t="inlineStr">
+      <c r="F61" s="11" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="15" t="n"/>
-      <c r="B61" s="16" t="n"/>
-      <c r="C61" s="16" t="n"/>
-      <c r="D61" s="16" t="n"/>
-      <c r="E61" s="16" t="n">
+    <row r="62">
+      <c r="A62" s="15" t="n"/>
+      <c r="B62" s="16" t="n"/>
+      <c r="C62" s="16" t="n"/>
+      <c r="D62" s="16" t="n"/>
+      <c r="E62" s="16" t="n">
         <v>6</v>
       </c>
-      <c r="F61" s="16" t="inlineStr">
+      <c r="F62" s="16" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G61" s="15" t="n"/>
-      <c r="H61" s="15" t="n"/>
-      <c r="I61" s="15" t="n"/>
-      <c r="J61" s="15" t="n"/>
-      <c r="K61" s="15" t="n"/>
-      <c r="L61" s="15" t="n"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="11" t="n">
+      <c r="G62" s="15" t="n"/>
+      <c r="H62" s="15" t="n"/>
+      <c r="I62" s="15" t="n"/>
+      <c r="J62" s="15" t="n"/>
+      <c r="K62" s="15" t="n"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="B62" s="11" t="n">
+      <c r="B63" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C62" s="11" t="inlineStr">
+      <c r="C63" s="11" t="inlineStr">
         <is>
           <t>Sit-Out</t>
         </is>
       </c>
-      <c r="D62" s="11" t="n">
+      <c r="D63" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="E62" s="11" t="n">
+      <c r="E63" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="F62" s="11" t="inlineStr">
+      <c r="F63" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="63">
-      <c r="B63" s="16" t="n"/>
-      <c r="C63" s="16" t="n"/>
-      <c r="D63" s="16" t="n"/>
-      <c r="E63" s="16" t="n">
+    <row r="64">
+      <c r="B64" s="16" t="n"/>
+      <c r="C64" s="16" t="n"/>
+      <c r="D64" s="16" t="n"/>
+      <c r="E64" s="16" t="n">
         <v>12</v>
       </c>
-      <c r="F63" s="16" t="inlineStr">
+      <c r="F64" s="16" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G63" s="15" t="n"/>
-      <c r="H63" s="15" t="n"/>
-      <c r="I63" s="15" t="n"/>
-      <c r="J63" s="15" t="n"/>
-      <c r="K63" s="15" t="n"/>
-      <c r="L63" s="15" t="n"/>
-    </row>
-    <row r="64">
-      <c r="B64" s="11" t="n">
+      <c r="G64" s="15" t="n"/>
+      <c r="H64" s="15" t="n"/>
+      <c r="I64" s="15" t="n"/>
+      <c r="J64" s="15" t="n"/>
+      <c r="K64" s="15" t="n"/>
+    </row>
+    <row r="65">
+      <c r="B65" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="C64" s="11" t="n">
+      <c r="C65" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="D64" s="11" t="n">
+      <c r="D65" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="E64" s="11" t="n">
+      <c r="E65" s="11" t="n">
         <v>19</v>
       </c>
-      <c r="F64" s="11" t="inlineStr">
+      <c r="F65" s="11" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
     </row>
-    <row r="65">
-      <c r="B65" s="16" t="n"/>
-      <c r="C65" s="16" t="n"/>
-      <c r="D65" s="16" t="n"/>
-      <c r="E65" s="16" t="n">
+    <row r="66">
+      <c r="B66" s="16" t="n"/>
+      <c r="C66" s="16" t="n"/>
+      <c r="D66" s="16" t="n"/>
+      <c r="E66" s="16" t="n">
         <v>20</v>
       </c>
-      <c r="F65" s="16" t="inlineStr">
+      <c r="F66" s="16" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
-      <c r="G65" s="15" t="n"/>
-      <c r="H65" s="15" t="n"/>
-      <c r="I65" s="15" t="n"/>
-      <c r="J65" s="15" t="n"/>
-      <c r="K65" s="15" t="n"/>
-      <c r="L65" s="15" t="n"/>
-    </row>
-    <row r="66">
-      <c r="B66" s="11" t="n">
+      <c r="G66" s="15" t="n"/>
+      <c r="H66" s="15" t="n"/>
+      <c r="I66" s="15" t="n"/>
+      <c r="J66" s="15" t="n"/>
+      <c r="K66" s="15" t="n"/>
+    </row>
+    <row r="67">
+      <c r="B67" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="C66" s="11" t="n">
+      <c r="C67" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="D66" s="11" t="n">
+      <c r="D67" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="E66" s="11" t="n">
+      <c r="E67" s="11" t="n">
         <v>21</v>
       </c>
-      <c r="F66" s="11" t="inlineStr">
+      <c r="F67" s="11" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
     </row>
-    <row r="67">
-      <c r="B67" s="16" t="n"/>
-      <c r="C67" s="16" t="n"/>
-      <c r="D67" s="16" t="n"/>
-      <c r="E67" s="16" t="n">
+    <row r="68">
+      <c r="B68" s="16" t="n"/>
+      <c r="C68" s="16" t="n"/>
+      <c r="D68" s="16" t="n"/>
+      <c r="E68" s="16" t="n">
         <v>22</v>
       </c>
-      <c r="F67" s="16" t="inlineStr">
+      <c r="F68" s="16" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G67" s="15" t="n"/>
-      <c r="H67" s="15" t="n"/>
-      <c r="I67" s="15" t="n"/>
-      <c r="J67" s="15" t="n"/>
-      <c r="K67" s="15" t="n"/>
-      <c r="L67" s="15" t="n"/>
-    </row>
-    <row r="68">
-      <c r="B68" s="11" t="n">
+      <c r="G68" s="15" t="n"/>
+      <c r="H68" s="15" t="n"/>
+      <c r="I68" s="15" t="n"/>
+      <c r="J68" s="15" t="n"/>
+      <c r="K68" s="15" t="n"/>
+    </row>
+    <row r="69">
+      <c r="B69" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="C68" s="11" t="n">
+      <c r="C69" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="D68" s="11" t="n">
+      <c r="D69" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="E68" s="11" t="n">
+      <c r="E69" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="F68" s="11" t="inlineStr">
+      <c r="F69" s="11" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
     </row>
-    <row r="69">
-      <c r="B69" s="16" t="n"/>
-      <c r="C69" s="16" t="n"/>
-      <c r="D69" s="16" t="n"/>
-      <c r="E69" s="16" t="n">
+    <row r="70">
+      <c r="B70" s="16" t="n"/>
+      <c r="C70" s="16" t="n"/>
+      <c r="D70" s="16" t="n"/>
+      <c r="E70" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="F69" s="16" t="inlineStr">
+      <c r="F70" s="16" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
-      <c r="G69" s="15" t="n"/>
-      <c r="H69" s="15" t="n"/>
-      <c r="I69" s="15" t="n"/>
-      <c r="J69" s="15" t="n"/>
-      <c r="K69" s="15" t="n"/>
-      <c r="L69" s="15" t="n"/>
-    </row>
-    <row r="70">
-      <c r="B70" s="11" t="n">
+      <c r="G70" s="15" t="n"/>
+      <c r="H70" s="15" t="n"/>
+      <c r="I70" s="15" t="n"/>
+      <c r="J70" s="15" t="n"/>
+      <c r="K70" s="15" t="n"/>
+    </row>
+    <row r="71">
+      <c r="B71" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="C70" s="11" t="n">
+      <c r="C71" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="D70" s="11" t="n">
+      <c r="D71" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="E70" s="11" t="n">
+      <c r="E71" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="F70" s="11" t="inlineStr">
+      <c r="F71" s="11" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
     </row>
-    <row r="71">
-      <c r="B71" s="16" t="n"/>
-      <c r="C71" s="16" t="n"/>
-      <c r="D71" s="16" t="n"/>
-      <c r="E71" s="16" t="n">
+    <row r="72">
+      <c r="B72" s="16" t="n"/>
+      <c r="C72" s="16" t="n"/>
+      <c r="D72" s="16" t="n"/>
+      <c r="E72" s="16" t="n">
         <v>6</v>
       </c>
-      <c r="F71" s="16" t="inlineStr">
+      <c r="F72" s="16" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G71" s="15" t="n"/>
-      <c r="H71" s="15" t="n"/>
-      <c r="I71" s="15" t="n"/>
-      <c r="J71" s="15" t="n"/>
-      <c r="K71" s="15" t="n"/>
-      <c r="L71" s="15" t="n"/>
-    </row>
-    <row r="72">
-      <c r="B72" s="11" t="n">
+      <c r="G72" s="15" t="n"/>
+      <c r="H72" s="15" t="n"/>
+      <c r="I72" s="15" t="n"/>
+      <c r="J72" s="15" t="n"/>
+      <c r="K72" s="15" t="n"/>
+    </row>
+    <row r="73">
+      <c r="B73" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="C72" s="11" t="n">
+      <c r="C73" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="D72" s="11" t="n">
+      <c r="D73" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="E72" s="11" t="n">
+      <c r="E73" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="F72" s="11" t="inlineStr">
+      <c r="F73" s="11" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="15" t="n"/>
-      <c r="B73" s="16" t="n"/>
-      <c r="C73" s="16" t="n"/>
-      <c r="D73" s="16" t="n"/>
-      <c r="E73" s="16" t="n">
+    <row r="74">
+      <c r="A74" s="15" t="n"/>
+      <c r="B74" s="16" t="n"/>
+      <c r="C74" s="16" t="n"/>
+      <c r="D74" s="16" t="n"/>
+      <c r="E74" s="16" t="n">
         <v>8</v>
       </c>
-      <c r="F73" s="16" t="inlineStr">
+      <c r="F74" s="16" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="G73" s="15" t="n"/>
-      <c r="H73" s="15" t="n"/>
-      <c r="I73" s="15" t="n"/>
-      <c r="J73" s="15" t="n"/>
-      <c r="K73" s="15" t="n"/>
-      <c r="L73" s="15" t="n"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="11" t="n">
+      <c r="G74" s="15" t="n"/>
+      <c r="H74" s="15" t="n"/>
+      <c r="I74" s="15" t="n"/>
+      <c r="J74" s="15" t="n"/>
+      <c r="K74" s="15" t="n"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="B74" s="11" t="n">
+      <c r="B75" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C74" s="11" t="inlineStr">
+      <c r="C75" s="11" t="inlineStr">
         <is>
           <t>Sit-Out</t>
         </is>
       </c>
-      <c r="D74" s="11" t="n">
+      <c r="D75" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="E74" s="11" t="n">
+      <c r="E75" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="F74" s="11" t="inlineStr">
+      <c r="F75" s="11" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="75">
-      <c r="B75" s="16" t="n"/>
-      <c r="C75" s="16" t="n"/>
-      <c r="D75" s="16" t="n"/>
-      <c r="E75" s="16" t="n">
+    <row r="76">
+      <c r="B76" s="16" t="n"/>
+      <c r="C76" s="16" t="n"/>
+      <c r="D76" s="16" t="n"/>
+      <c r="E76" s="16" t="n">
         <v>14</v>
       </c>
-      <c r="F75" s="16" t="inlineStr">
+      <c r="F76" s="16" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="G75" s="15" t="n"/>
-      <c r="H75" s="15" t="n"/>
-      <c r="I75" s="15" t="n"/>
-      <c r="J75" s="15" t="n"/>
-      <c r="K75" s="15" t="n"/>
-      <c r="L75" s="15" t="n"/>
-    </row>
-    <row r="76">
-      <c r="B76" s="11" t="n">
+      <c r="G76" s="15" t="n"/>
+      <c r="H76" s="15" t="n"/>
+      <c r="I76" s="15" t="n"/>
+      <c r="J76" s="15" t="n"/>
+      <c r="K76" s="15" t="n"/>
+    </row>
+    <row r="77">
+      <c r="B77" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="C76" s="11" t="n">
+      <c r="C77" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="D76" s="11" t="n">
+      <c r="D77" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="E76" s="11" t="n">
+      <c r="E77" s="11" t="n">
         <v>21</v>
       </c>
-      <c r="F76" s="11" t="inlineStr">
+      <c r="F77" s="11" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
     </row>
-    <row r="77">
-      <c r="B77" s="16" t="n"/>
-      <c r="C77" s="16" t="n"/>
-      <c r="D77" s="16" t="n"/>
-      <c r="E77" s="16" t="n">
+    <row r="78">
+      <c r="B78" s="16" t="n"/>
+      <c r="C78" s="16" t="n"/>
+      <c r="D78" s="16" t="n"/>
+      <c r="E78" s="16" t="n">
         <v>22</v>
       </c>
-      <c r="F77" s="16" t="inlineStr">
+      <c r="F78" s="16" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G77" s="15" t="n"/>
-      <c r="H77" s="15" t="n"/>
-      <c r="I77" s="15" t="n"/>
-      <c r="J77" s="15" t="n"/>
-      <c r="K77" s="15" t="n"/>
-      <c r="L77" s="15" t="n"/>
-    </row>
-    <row r="78">
-      <c r="B78" s="11" t="n">
+      <c r="G78" s="15" t="n"/>
+      <c r="H78" s="15" t="n"/>
+      <c r="I78" s="15" t="n"/>
+      <c r="J78" s="15" t="n"/>
+      <c r="K78" s="15" t="n"/>
+    </row>
+    <row r="79">
+      <c r="B79" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="C78" s="11" t="n">
+      <c r="C79" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="D78" s="11" t="n">
+      <c r="D79" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="E78" s="11" t="n">
+      <c r="E79" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="F78" s="11" t="inlineStr">
+      <c r="F79" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="79">
-      <c r="B79" s="16" t="n"/>
-      <c r="C79" s="16" t="n"/>
-      <c r="D79" s="16" t="n"/>
-      <c r="E79" s="16" t="n">
+    <row r="80">
+      <c r="B80" s="16" t="n"/>
+      <c r="C80" s="16" t="n"/>
+      <c r="D80" s="16" t="n"/>
+      <c r="E80" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="F79" s="16" t="inlineStr">
+      <c r="F80" s="16" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G79" s="15" t="n"/>
-      <c r="H79" s="15" t="n"/>
-      <c r="I79" s="15" t="n"/>
-      <c r="J79" s="15" t="n"/>
-      <c r="K79" s="15" t="n"/>
-      <c r="L79" s="15" t="n"/>
-    </row>
-    <row r="80">
-      <c r="B80" s="11" t="n">
+      <c r="G80" s="15" t="n"/>
+      <c r="H80" s="15" t="n"/>
+      <c r="I80" s="15" t="n"/>
+      <c r="J80" s="15" t="n"/>
+      <c r="K80" s="15" t="n"/>
+    </row>
+    <row r="81">
+      <c r="B81" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="C80" s="11" t="n">
+      <c r="C81" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="D80" s="11" t="n">
+      <c r="D81" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="E80" s="11" t="n">
+      <c r="E81" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="F80" s="11" t="inlineStr">
+      <c r="F81" s="11" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
     </row>
-    <row r="81">
-      <c r="B81" s="16" t="n"/>
-      <c r="C81" s="16" t="n"/>
-      <c r="D81" s="16" t="n"/>
-      <c r="E81" s="16" t="n">
+    <row r="82">
+      <c r="B82" s="16" t="n"/>
+      <c r="C82" s="16" t="n"/>
+      <c r="D82" s="16" t="n"/>
+      <c r="E82" s="16" t="n">
         <v>6</v>
       </c>
-      <c r="F81" s="16" t="inlineStr">
+      <c r="F82" s="16" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G81" s="15" t="n"/>
-      <c r="H81" s="15" t="n"/>
-      <c r="I81" s="15" t="n"/>
-      <c r="J81" s="15" t="n"/>
-      <c r="K81" s="15" t="n"/>
-      <c r="L81" s="15" t="n"/>
-    </row>
-    <row r="82">
-      <c r="B82" s="11" t="n">
+      <c r="G82" s="15" t="n"/>
+      <c r="H82" s="15" t="n"/>
+      <c r="I82" s="15" t="n"/>
+      <c r="J82" s="15" t="n"/>
+      <c r="K82" s="15" t="n"/>
+    </row>
+    <row r="83">
+      <c r="B83" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="C82" s="11" t="n">
+      <c r="C83" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="D82" s="11" t="n">
+      <c r="D83" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="E82" s="11" t="n">
+      <c r="E83" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="F82" s="11" t="inlineStr">
+      <c r="F83" s="11" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="83">
-      <c r="B83" s="16" t="n"/>
-      <c r="C83" s="16" t="n"/>
-      <c r="D83" s="16" t="n"/>
-      <c r="E83" s="16" t="n">
+    <row r="84">
+      <c r="B84" s="16" t="n"/>
+      <c r="C84" s="16" t="n"/>
+      <c r="D84" s="16" t="n"/>
+      <c r="E84" s="16" t="n">
         <v>8</v>
       </c>
-      <c r="F83" s="16" t="inlineStr">
+      <c r="F84" s="16" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="G83" s="15" t="n"/>
-      <c r="H83" s="15" t="n"/>
-      <c r="I83" s="15" t="n"/>
-      <c r="J83" s="15" t="n"/>
-      <c r="K83" s="15" t="n"/>
-      <c r="L83" s="15" t="n"/>
-    </row>
-    <row r="84">
-      <c r="B84" s="11" t="n">
+      <c r="G84" s="15" t="n"/>
+      <c r="H84" s="15" t="n"/>
+      <c r="I84" s="15" t="n"/>
+      <c r="J84" s="15" t="n"/>
+      <c r="K84" s="15" t="n"/>
+    </row>
+    <row r="85">
+      <c r="B85" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="C84" s="11" t="n">
+      <c r="C85" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="D84" s="11" t="n">
+      <c r="D85" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="E84" s="11" t="n">
+      <c r="E85" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="F84" s="11" t="inlineStr">
+      <c r="F85" s="11" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="15" t="n"/>
-      <c r="B85" s="16" t="n"/>
-      <c r="C85" s="16" t="n"/>
-      <c r="D85" s="16" t="n"/>
-      <c r="E85" s="16" t="n">
+    <row r="86">
+      <c r="A86" s="15" t="n"/>
+      <c r="B86" s="16" t="n"/>
+      <c r="C86" s="16" t="n"/>
+      <c r="D86" s="16" t="n"/>
+      <c r="E86" s="16" t="n">
         <v>10</v>
       </c>
-      <c r="F85" s="16" t="inlineStr">
+      <c r="F86" s="16" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
-      <c r="G85" s="15" t="n"/>
-      <c r="H85" s="15" t="n"/>
-      <c r="I85" s="15" t="n"/>
-      <c r="J85" s="15" t="n"/>
-      <c r="K85" s="15" t="n"/>
-      <c r="L85" s="15" t="n"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="11" t="n">
+      <c r="G86" s="15" t="n"/>
+      <c r="H86" s="15" t="n"/>
+      <c r="I86" s="15" t="n"/>
+      <c r="J86" s="15" t="n"/>
+      <c r="K86" s="15" t="n"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="B86" s="11" t="n">
+      <c r="B87" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C86" s="11" t="inlineStr">
+      <c r="C87" s="11" t="inlineStr">
         <is>
           <t>Sit-Out</t>
         </is>
       </c>
-      <c r="D86" s="11" t="n">
+      <c r="D87" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="E86" s="11" t="n">
+      <c r="E87" s="11" t="n">
         <v>15</v>
       </c>
-      <c r="F86" s="11" t="inlineStr">
+      <c r="F87" s="11" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
     </row>
-    <row r="87">
-      <c r="B87" s="16" t="n"/>
-      <c r="C87" s="16" t="n"/>
-      <c r="D87" s="16" t="n"/>
-      <c r="E87" s="16" t="n">
+    <row r="88">
+      <c r="B88" s="16" t="n"/>
+      <c r="C88" s="16" t="n"/>
+      <c r="D88" s="16" t="n"/>
+      <c r="E88" s="16" t="n">
         <v>16</v>
       </c>
-      <c r="F87" s="16" t="inlineStr">
+      <c r="F88" s="16" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G87" s="15" t="n"/>
-      <c r="H87" s="15" t="n"/>
-      <c r="I87" s="15" t="n"/>
-      <c r="J87" s="15" t="n"/>
-      <c r="K87" s="15" t="n"/>
-      <c r="L87" s="15" t="n"/>
-    </row>
-    <row r="88">
-      <c r="B88" s="11" t="n">
+      <c r="G88" s="15" t="n"/>
+      <c r="H88" s="15" t="n"/>
+      <c r="I88" s="15" t="n"/>
+      <c r="J88" s="15" t="n"/>
+      <c r="K88" s="15" t="n"/>
+    </row>
+    <row r="89">
+      <c r="B89" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="C88" s="11" t="n">
+      <c r="C89" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="D88" s="11" t="n">
+      <c r="D89" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="E88" s="11" t="n">
+      <c r="E89" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="F88" s="11" t="inlineStr">
+      <c r="F89" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="89">
-      <c r="B89" s="16" t="n"/>
-      <c r="C89" s="16" t="n"/>
-      <c r="D89" s="16" t="n"/>
-      <c r="E89" s="16" t="n">
+    <row r="90">
+      <c r="B90" s="16" t="n"/>
+      <c r="C90" s="16" t="n"/>
+      <c r="D90" s="16" t="n"/>
+      <c r="E90" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="F89" s="16" t="inlineStr">
+      <c r="F90" s="16" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G89" s="15" t="n"/>
-      <c r="H89" s="15" t="n"/>
-      <c r="I89" s="15" t="n"/>
-      <c r="J89" s="15" t="n"/>
-      <c r="K89" s="15" t="n"/>
-      <c r="L89" s="15" t="n"/>
-    </row>
-    <row r="90">
-      <c r="B90" s="11" t="n">
+      <c r="G90" s="15" t="n"/>
+      <c r="H90" s="15" t="n"/>
+      <c r="I90" s="15" t="n"/>
+      <c r="J90" s="15" t="n"/>
+      <c r="K90" s="15" t="n"/>
+    </row>
+    <row r="91">
+      <c r="B91" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="C90" s="11" t="n">
+      <c r="C91" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="D90" s="11" t="n">
+      <c r="D91" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="E90" s="11" t="n">
+      <c r="E91" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="F90" s="11" t="inlineStr">
+      <c r="F91" s="11" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
     </row>
-    <row r="91">
-      <c r="B91" s="16" t="n"/>
-      <c r="C91" s="16" t="n"/>
-      <c r="D91" s="16" t="n"/>
-      <c r="E91" s="16" t="n">
+    <row r="92">
+      <c r="B92" s="16" t="n"/>
+      <c r="C92" s="16" t="n"/>
+      <c r="D92" s="16" t="n"/>
+      <c r="E92" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="F91" s="16" t="inlineStr">
+      <c r="F92" s="16" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
-      <c r="G91" s="15" t="n"/>
-      <c r="H91" s="15" t="n"/>
-      <c r="I91" s="15" t="n"/>
-      <c r="J91" s="15" t="n"/>
-      <c r="K91" s="15" t="n"/>
-      <c r="L91" s="15" t="n"/>
-    </row>
-    <row r="92">
-      <c r="B92" s="11" t="n">
+      <c r="G92" s="15" t="n"/>
+      <c r="H92" s="15" t="n"/>
+      <c r="I92" s="15" t="n"/>
+      <c r="J92" s="15" t="n"/>
+      <c r="K92" s="15" t="n"/>
+    </row>
+    <row r="93">
+      <c r="B93" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="C92" s="11" t="n">
+      <c r="C93" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="D92" s="11" t="n">
+      <c r="D93" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="E92" s="11" t="n">
+      <c r="E93" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="F92" s="11" t="inlineStr">
+      <c r="F93" s="11" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="93">
-      <c r="B93" s="16" t="n"/>
-      <c r="C93" s="16" t="n"/>
-      <c r="D93" s="16" t="n"/>
-      <c r="E93" s="16" t="n">
+    <row r="94">
+      <c r="B94" s="16" t="n"/>
+      <c r="C94" s="16" t="n"/>
+      <c r="D94" s="16" t="n"/>
+      <c r="E94" s="16" t="n">
         <v>8</v>
       </c>
-      <c r="F93" s="16" t="inlineStr">
+      <c r="F94" s="16" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="G93" s="15" t="n"/>
-      <c r="H93" s="15" t="n"/>
-      <c r="I93" s="15" t="n"/>
-      <c r="J93" s="15" t="n"/>
-      <c r="K93" s="15" t="n"/>
-      <c r="L93" s="15" t="n"/>
-    </row>
-    <row r="94">
-      <c r="B94" s="11" t="n">
+      <c r="G94" s="15" t="n"/>
+      <c r="H94" s="15" t="n"/>
+      <c r="I94" s="15" t="n"/>
+      <c r="J94" s="15" t="n"/>
+      <c r="K94" s="15" t="n"/>
+    </row>
+    <row r="95">
+      <c r="B95" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="C94" s="11" t="n">
+      <c r="C95" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="D94" s="11" t="n">
+      <c r="D95" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="E94" s="11" t="n">
+      <c r="E95" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="F94" s="11" t="inlineStr">
+      <c r="F95" s="11" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
     </row>
-    <row r="95">
-      <c r="B95" s="16" t="n"/>
-      <c r="C95" s="16" t="n"/>
-      <c r="D95" s="16" t="n"/>
-      <c r="E95" s="16" t="n">
+    <row r="96">
+      <c r="B96" s="16" t="n"/>
+      <c r="C96" s="16" t="n"/>
+      <c r="D96" s="16" t="n"/>
+      <c r="E96" s="16" t="n">
         <v>10</v>
       </c>
-      <c r="F95" s="16" t="inlineStr">
+      <c r="F96" s="16" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
-      <c r="G95" s="15" t="n"/>
-      <c r="H95" s="15" t="n"/>
-      <c r="I95" s="15" t="n"/>
-      <c r="J95" s="15" t="n"/>
-      <c r="K95" s="15" t="n"/>
-      <c r="L95" s="15" t="n"/>
-    </row>
-    <row r="96">
-      <c r="B96" s="11" t="n">
+      <c r="G96" s="15" t="n"/>
+      <c r="H96" s="15" t="n"/>
+      <c r="I96" s="15" t="n"/>
+      <c r="J96" s="15" t="n"/>
+      <c r="K96" s="15" t="n"/>
+    </row>
+    <row r="97">
+      <c r="B97" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="C96" s="11" t="n">
+      <c r="C97" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="D96" s="11" t="n">
+      <c r="D97" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="E96" s="11" t="n">
+      <c r="E97" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="F96" s="11" t="inlineStr">
+      <c r="F97" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="15" t="n"/>
-      <c r="B97" s="16" t="n"/>
-      <c r="C97" s="16" t="n"/>
-      <c r="D97" s="16" t="n"/>
-      <c r="E97" s="16" t="n">
+    <row r="98">
+      <c r="A98" s="15" t="n"/>
+      <c r="B98" s="16" t="n"/>
+      <c r="C98" s="16" t="n"/>
+      <c r="D98" s="16" t="n"/>
+      <c r="E98" s="16" t="n">
         <v>12</v>
       </c>
-      <c r="F97" s="16" t="inlineStr">
+      <c r="F98" s="16" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G97" s="15" t="n"/>
-      <c r="H97" s="15" t="n"/>
-      <c r="I97" s="15" t="n"/>
-      <c r="J97" s="15" t="n"/>
-      <c r="K97" s="15" t="n"/>
-      <c r="L97" s="15" t="n"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="11" t="n">
+      <c r="G98" s="15" t="n"/>
+      <c r="H98" s="15" t="n"/>
+      <c r="I98" s="15" t="n"/>
+      <c r="J98" s="15" t="n"/>
+      <c r="K98" s="15" t="n"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="B98" s="11" t="n">
+      <c r="B99" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C98" s="11" t="inlineStr">
+      <c r="C99" s="11" t="inlineStr">
         <is>
           <t>Sit-Out</t>
         </is>
       </c>
-      <c r="D98" s="11" t="n">
+      <c r="D99" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="E98" s="11" t="n">
+      <c r="E99" s="11" t="n">
         <v>17</v>
       </c>
-      <c r="F98" s="11" t="inlineStr">
+      <c r="F99" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="99">
-      <c r="B99" s="16" t="n"/>
-      <c r="C99" s="16" t="n"/>
-      <c r="D99" s="16" t="n"/>
-      <c r="E99" s="16" t="n">
+    <row r="100">
+      <c r="B100" s="16" t="n"/>
+      <c r="C100" s="16" t="n"/>
+      <c r="D100" s="16" t="n"/>
+      <c r="E100" s="16" t="n">
         <v>18</v>
       </c>
-      <c r="F99" s="16" t="inlineStr">
+      <c r="F100" s="16" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G99" s="15" t="n"/>
-      <c r="H99" s="15" t="n"/>
-      <c r="I99" s="15" t="n"/>
-      <c r="J99" s="15" t="n"/>
-      <c r="K99" s="15" t="n"/>
-      <c r="L99" s="15" t="n"/>
-    </row>
-    <row r="100">
-      <c r="B100" s="11" t="n">
+      <c r="G100" s="15" t="n"/>
+      <c r="H100" s="15" t="n"/>
+      <c r="I100" s="15" t="n"/>
+      <c r="J100" s="15" t="n"/>
+      <c r="K100" s="15" t="n"/>
+    </row>
+    <row r="101">
+      <c r="B101" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="C100" s="11" t="n">
+      <c r="C101" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="D100" s="11" t="n">
+      <c r="D101" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="E100" s="11" t="n">
+      <c r="E101" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="F100" s="11" t="inlineStr">
+      <c r="F101" s="11" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
     </row>
-    <row r="101">
-      <c r="B101" s="16" t="n"/>
-      <c r="C101" s="16" t="n"/>
-      <c r="D101" s="16" t="n"/>
-      <c r="E101" s="16" t="n">
+    <row r="102">
+      <c r="B102" s="16" t="n"/>
+      <c r="C102" s="16" t="n"/>
+      <c r="D102" s="16" t="n"/>
+      <c r="E102" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="F101" s="16" t="inlineStr">
+      <c r="F102" s="16" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
-      <c r="G101" s="15" t="n"/>
-      <c r="H101" s="15" t="n"/>
-      <c r="I101" s="15" t="n"/>
-      <c r="J101" s="15" t="n"/>
-      <c r="K101" s="15" t="n"/>
-      <c r="L101" s="15" t="n"/>
-    </row>
-    <row r="102">
-      <c r="B102" s="11" t="n">
+      <c r="G102" s="15" t="n"/>
+      <c r="H102" s="15" t="n"/>
+      <c r="I102" s="15" t="n"/>
+      <c r="J102" s="15" t="n"/>
+      <c r="K102" s="15" t="n"/>
+    </row>
+    <row r="103">
+      <c r="B103" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="C102" s="11" t="n">
+      <c r="C103" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="D102" s="11" t="n">
+      <c r="D103" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="E102" s="11" t="n">
+      <c r="E103" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="F102" s="11" t="inlineStr">
+      <c r="F103" s="11" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
     </row>
-    <row r="103">
-      <c r="B103" s="16" t="n"/>
-      <c r="C103" s="16" t="n"/>
-      <c r="D103" s="16" t="n"/>
-      <c r="E103" s="16" t="n">
+    <row r="104">
+      <c r="B104" s="16" t="n"/>
+      <c r="C104" s="16" t="n"/>
+      <c r="D104" s="16" t="n"/>
+      <c r="E104" s="16" t="n">
         <v>6</v>
       </c>
-      <c r="F103" s="16" t="inlineStr">
+      <c r="F104" s="16" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G103" s="15" t="n"/>
-      <c r="H103" s="15" t="n"/>
-      <c r="I103" s="15" t="n"/>
-      <c r="J103" s="15" t="n"/>
-      <c r="K103" s="15" t="n"/>
-      <c r="L103" s="15" t="n"/>
-    </row>
-    <row r="104">
-      <c r="B104" s="11" t="n">
+      <c r="G104" s="15" t="n"/>
+      <c r="H104" s="15" t="n"/>
+      <c r="I104" s="15" t="n"/>
+      <c r="J104" s="15" t="n"/>
+      <c r="K104" s="15" t="n"/>
+    </row>
+    <row r="105">
+      <c r="B105" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="C104" s="11" t="n">
+      <c r="C105" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="D104" s="11" t="n">
+      <c r="D105" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="E104" s="11" t="n">
+      <c r="E105" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="F104" s="11" t="inlineStr">
+      <c r="F105" s="11" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
     </row>
-    <row r="105">
-      <c r="B105" s="16" t="n"/>
-      <c r="C105" s="16" t="n"/>
-      <c r="D105" s="16" t="n"/>
-      <c r="E105" s="16" t="n">
+    <row r="106">
+      <c r="B106" s="16" t="n"/>
+      <c r="C106" s="16" t="n"/>
+      <c r="D106" s="16" t="n"/>
+      <c r="E106" s="16" t="n">
         <v>10</v>
       </c>
-      <c r="F105" s="16" t="inlineStr">
+      <c r="F106" s="16" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
-      <c r="G105" s="15" t="n"/>
-      <c r="H105" s="15" t="n"/>
-      <c r="I105" s="15" t="n"/>
-      <c r="J105" s="15" t="n"/>
-      <c r="K105" s="15" t="n"/>
-      <c r="L105" s="15" t="n"/>
-    </row>
-    <row r="106">
-      <c r="B106" s="11" t="n">
+      <c r="G106" s="15" t="n"/>
+      <c r="H106" s="15" t="n"/>
+      <c r="I106" s="15" t="n"/>
+      <c r="J106" s="15" t="n"/>
+      <c r="K106" s="15" t="n"/>
+    </row>
+    <row r="107">
+      <c r="B107" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="C106" s="11" t="n">
+      <c r="C107" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="D106" s="11" t="n">
+      <c r="D107" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="E106" s="11" t="n">
+      <c r="E107" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="F106" s="11" t="inlineStr">
+      <c r="F107" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="107">
-      <c r="B107" s="16" t="n"/>
-      <c r="C107" s="16" t="n"/>
-      <c r="D107" s="16" t="n"/>
-      <c r="E107" s="16" t="n">
+    <row r="108">
+      <c r="B108" s="16" t="n"/>
+      <c r="C108" s="16" t="n"/>
+      <c r="D108" s="16" t="n"/>
+      <c r="E108" s="16" t="n">
         <v>12</v>
       </c>
-      <c r="F107" s="16" t="inlineStr">
+      <c r="F108" s="16" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G107" s="15" t="n"/>
-      <c r="H107" s="15" t="n"/>
-      <c r="I107" s="15" t="n"/>
-      <c r="J107" s="15" t="n"/>
-      <c r="K107" s="15" t="n"/>
-      <c r="L107" s="15" t="n"/>
-    </row>
-    <row r="108">
-      <c r="B108" s="11" t="n">
+      <c r="G108" s="15" t="n"/>
+      <c r="H108" s="15" t="n"/>
+      <c r="I108" s="15" t="n"/>
+      <c r="J108" s="15" t="n"/>
+      <c r="K108" s="15" t="n"/>
+    </row>
+    <row r="109">
+      <c r="B109" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="C108" s="11" t="n">
+      <c r="C109" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="D108" s="11" t="n">
+      <c r="D109" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="E108" s="11" t="n">
+      <c r="E109" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="F108" s="11" t="inlineStr">
+      <c r="F109" s="11" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="15" t="n"/>
-      <c r="B109" s="16" t="n"/>
-      <c r="C109" s="16" t="n"/>
-      <c r="D109" s="16" t="n"/>
-      <c r="E109" s="16" t="n">
+    <row r="110">
+      <c r="A110" s="15" t="n"/>
+      <c r="B110" s="16" t="n"/>
+      <c r="C110" s="16" t="n"/>
+      <c r="D110" s="16" t="n"/>
+      <c r="E110" s="16" t="n">
         <v>14</v>
       </c>
-      <c r="F109" s="16" t="inlineStr">
+      <c r="F110" s="16" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="G109" s="15" t="n"/>
-      <c r="H109" s="15" t="n"/>
-      <c r="I109" s="15" t="n"/>
-      <c r="J109" s="15" t="n"/>
-      <c r="K109" s="15" t="n"/>
-      <c r="L109" s="15" t="n"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="11" t="n">
+      <c r="G110" s="15" t="n"/>
+      <c r="H110" s="15" t="n"/>
+      <c r="I110" s="15" t="n"/>
+      <c r="J110" s="15" t="n"/>
+      <c r="K110" s="15" t="n"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="B110" s="11" t="n">
+      <c r="B111" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C110" s="11" t="inlineStr">
+      <c r="C111" s="11" t="inlineStr">
         <is>
           <t>Sit-Out</t>
         </is>
       </c>
-      <c r="D110" s="11" t="n">
+      <c r="D111" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="E110" s="11" t="n">
+      <c r="E111" s="11" t="n">
         <v>19</v>
       </c>
-      <c r="F110" s="11" t="inlineStr">
+      <c r="F111" s="11" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
     </row>
-    <row r="111">
-      <c r="B111" s="16" t="n"/>
-      <c r="C111" s="16" t="n"/>
-      <c r="D111" s="16" t="n"/>
-      <c r="E111" s="16" t="n">
+    <row r="112">
+      <c r="B112" s="16" t="n"/>
+      <c r="C112" s="16" t="n"/>
+      <c r="D112" s="16" t="n"/>
+      <c r="E112" s="16" t="n">
         <v>20</v>
       </c>
-      <c r="F111" s="16" t="inlineStr">
+      <c r="F112" s="16" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
-      <c r="G111" s="15" t="n"/>
-      <c r="H111" s="15" t="n"/>
-      <c r="I111" s="15" t="n"/>
-      <c r="J111" s="15" t="n"/>
-      <c r="K111" s="15" t="n"/>
-      <c r="L111" s="15" t="n"/>
-    </row>
-    <row r="112">
-      <c r="B112" s="11" t="n">
+      <c r="G112" s="15" t="n"/>
+      <c r="H112" s="15" t="n"/>
+      <c r="I112" s="15" t="n"/>
+      <c r="J112" s="15" t="n"/>
+      <c r="K112" s="15" t="n"/>
+    </row>
+    <row r="113">
+      <c r="B113" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="C112" s="11" t="n">
+      <c r="C113" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="D112" s="11" t="n">
+      <c r="D113" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="E112" s="11" t="n">
+      <c r="E113" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="F112" s="11" t="inlineStr">
+      <c r="F113" s="11" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
     </row>
-    <row r="113">
-      <c r="B113" s="16" t="n"/>
-      <c r="C113" s="16" t="n"/>
-      <c r="D113" s="16" t="n"/>
-      <c r="E113" s="16" t="n">
+    <row r="114">
+      <c r="B114" s="16" t="n"/>
+      <c r="C114" s="16" t="n"/>
+      <c r="D114" s="16" t="n"/>
+      <c r="E114" s="16" t="n">
         <v>6</v>
       </c>
-      <c r="F113" s="16" t="inlineStr">
+      <c r="F114" s="16" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G113" s="15" t="n"/>
-      <c r="H113" s="15" t="n"/>
-      <c r="I113" s="15" t="n"/>
-      <c r="J113" s="15" t="n"/>
-      <c r="K113" s="15" t="n"/>
-      <c r="L113" s="15" t="n"/>
-    </row>
-    <row r="114">
-      <c r="B114" s="11" t="n">
+      <c r="G114" s="15" t="n"/>
+      <c r="H114" s="15" t="n"/>
+      <c r="I114" s="15" t="n"/>
+      <c r="J114" s="15" t="n"/>
+      <c r="K114" s="15" t="n"/>
+    </row>
+    <row r="115">
+      <c r="B115" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="C114" s="11" t="n">
+      <c r="C115" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="D114" s="11" t="n">
+      <c r="D115" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="E114" s="11" t="n">
+      <c r="E115" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="F114" s="11" t="inlineStr">
+      <c r="F115" s="11" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="115">
-      <c r="B115" s="16" t="n"/>
-      <c r="C115" s="16" t="n"/>
-      <c r="D115" s="16" t="n"/>
-      <c r="E115" s="16" t="n">
+    <row r="116">
+      <c r="B116" s="16" t="n"/>
+      <c r="C116" s="16" t="n"/>
+      <c r="D116" s="16" t="n"/>
+      <c r="E116" s="16" t="n">
         <v>8</v>
       </c>
-      <c r="F115" s="16" t="inlineStr">
+      <c r="F116" s="16" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="G115" s="15" t="n"/>
-      <c r="H115" s="15" t="n"/>
-      <c r="I115" s="15" t="n"/>
-      <c r="J115" s="15" t="n"/>
-      <c r="K115" s="15" t="n"/>
-      <c r="L115" s="15" t="n"/>
-    </row>
-    <row r="116">
-      <c r="B116" s="11" t="n">
+      <c r="G116" s="15" t="n"/>
+      <c r="H116" s="15" t="n"/>
+      <c r="I116" s="15" t="n"/>
+      <c r="J116" s="15" t="n"/>
+      <c r="K116" s="15" t="n"/>
+    </row>
+    <row r="117">
+      <c r="B117" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="C116" s="11" t="n">
+      <c r="C117" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="D116" s="11" t="n">
+      <c r="D117" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="E116" s="11" t="n">
+      <c r="E117" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="F116" s="11" t="inlineStr">
+      <c r="F117" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="117">
-      <c r="B117" s="16" t="n"/>
-      <c r="C117" s="16" t="n"/>
-      <c r="D117" s="16" t="n"/>
-      <c r="E117" s="16" t="n">
+    <row r="118">
+      <c r="B118" s="16" t="n"/>
+      <c r="C118" s="16" t="n"/>
+      <c r="D118" s="16" t="n"/>
+      <c r="E118" s="16" t="n">
         <v>12</v>
       </c>
-      <c r="F117" s="16" t="inlineStr">
+      <c r="F118" s="16" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G117" s="15" t="n"/>
-      <c r="H117" s="15" t="n"/>
-      <c r="I117" s="15" t="n"/>
-      <c r="J117" s="15" t="n"/>
-      <c r="K117" s="15" t="n"/>
-      <c r="L117" s="15" t="n"/>
-    </row>
-    <row r="118">
-      <c r="B118" s="11" t="n">
+      <c r="G118" s="15" t="n"/>
+      <c r="H118" s="15" t="n"/>
+      <c r="I118" s="15" t="n"/>
+      <c r="J118" s="15" t="n"/>
+      <c r="K118" s="15" t="n"/>
+    </row>
+    <row r="119">
+      <c r="B119" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="C118" s="11" t="n">
+      <c r="C119" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="D118" s="11" t="n">
+      <c r="D119" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="E118" s="11" t="n">
+      <c r="E119" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="F118" s="11" t="inlineStr">
+      <c r="F119" s="11" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="119">
-      <c r="B119" s="16" t="n"/>
-      <c r="C119" s="16" t="n"/>
-      <c r="D119" s="16" t="n"/>
-      <c r="E119" s="16" t="n">
+    <row r="120">
+      <c r="B120" s="16" t="n"/>
+      <c r="C120" s="16" t="n"/>
+      <c r="D120" s="16" t="n"/>
+      <c r="E120" s="16" t="n">
         <v>14</v>
       </c>
-      <c r="F119" s="16" t="inlineStr">
+      <c r="F120" s="16" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="G119" s="15" t="n"/>
-      <c r="H119" s="15" t="n"/>
-      <c r="I119" s="15" t="n"/>
-      <c r="J119" s="15" t="n"/>
-      <c r="K119" s="15" t="n"/>
-      <c r="L119" s="15" t="n"/>
-    </row>
-    <row r="120">
-      <c r="B120" s="11" t="n">
+      <c r="G120" s="15" t="n"/>
+      <c r="H120" s="15" t="n"/>
+      <c r="I120" s="15" t="n"/>
+      <c r="J120" s="15" t="n"/>
+      <c r="K120" s="15" t="n"/>
+    </row>
+    <row r="121">
+      <c r="B121" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="C120" s="11" t="n">
+      <c r="C121" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="D120" s="11" t="n">
+      <c r="D121" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="E120" s="11" t="n">
+      <c r="E121" s="11" t="n">
         <v>15</v>
       </c>
-      <c r="F120" s="11" t="inlineStr">
+      <c r="F121" s="11" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="15" t="n"/>
-      <c r="B121" s="16" t="n"/>
-      <c r="C121" s="16" t="n"/>
-      <c r="D121" s="16" t="n"/>
-      <c r="E121" s="16" t="n">
+    <row r="122">
+      <c r="A122" s="15" t="n"/>
+      <c r="B122" s="16" t="n"/>
+      <c r="C122" s="16" t="n"/>
+      <c r="D122" s="16" t="n"/>
+      <c r="E122" s="16" t="n">
         <v>16</v>
       </c>
-      <c r="F121" s="16" t="inlineStr">
+      <c r="F122" s="16" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G121" s="15" t="n"/>
-      <c r="H121" s="15" t="n"/>
-      <c r="I121" s="15" t="n"/>
-      <c r="J121" s="15" t="n"/>
-      <c r="K121" s="15" t="n"/>
-      <c r="L121" s="15" t="n"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="11" t="n">
+      <c r="G122" s="15" t="n"/>
+      <c r="H122" s="15" t="n"/>
+      <c r="I122" s="15" t="n"/>
+      <c r="J122" s="15" t="n"/>
+      <c r="K122" s="15" t="n"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="B122" s="11" t="n">
+      <c r="B123" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C122" s="11" t="inlineStr">
+      <c r="C123" s="11" t="inlineStr">
         <is>
           <t>Sit-Out</t>
         </is>
       </c>
-      <c r="D122" s="11" t="n">
+      <c r="D123" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="E122" s="11" t="n">
+      <c r="E123" s="11" t="n">
         <v>21</v>
       </c>
-      <c r="F122" s="11" t="inlineStr">
+      <c r="F123" s="11" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
     </row>
-    <row r="123">
-      <c r="B123" s="16" t="n"/>
-      <c r="C123" s="16" t="n"/>
-      <c r="D123" s="16" t="n"/>
-      <c r="E123" s="16" t="n">
+    <row r="124">
+      <c r="B124" s="16" t="n"/>
+      <c r="C124" s="16" t="n"/>
+      <c r="D124" s="16" t="n"/>
+      <c r="E124" s="16" t="n">
         <v>22</v>
       </c>
-      <c r="F123" s="16" t="inlineStr">
+      <c r="F124" s="16" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G123" s="15" t="n"/>
-      <c r="H123" s="15" t="n"/>
-      <c r="I123" s="15" t="n"/>
-      <c r="J123" s="15" t="n"/>
-      <c r="K123" s="15" t="n"/>
-      <c r="L123" s="15" t="n"/>
-    </row>
-    <row r="124">
-      <c r="B124" s="11" t="n">
+      <c r="G124" s="15" t="n"/>
+      <c r="H124" s="15" t="n"/>
+      <c r="I124" s="15" t="n"/>
+      <c r="J124" s="15" t="n"/>
+      <c r="K124" s="15" t="n"/>
+    </row>
+    <row r="125">
+      <c r="B125" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="C124" s="11" t="n">
+      <c r="C125" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="D124" s="11" t="n">
+      <c r="D125" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="E124" s="11" t="n">
+      <c r="E125" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="F124" s="11" t="inlineStr">
+      <c r="F125" s="11" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="125">
-      <c r="B125" s="16" t="n"/>
-      <c r="C125" s="16" t="n"/>
-      <c r="D125" s="16" t="n"/>
-      <c r="E125" s="16" t="n">
+    <row r="126">
+      <c r="B126" s="16" t="n"/>
+      <c r="C126" s="16" t="n"/>
+      <c r="D126" s="16" t="n"/>
+      <c r="E126" s="16" t="n">
         <v>8</v>
       </c>
-      <c r="F125" s="16" t="inlineStr">
+      <c r="F126" s="16" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="G125" s="15" t="n"/>
-      <c r="H125" s="15" t="n"/>
-      <c r="I125" s="15" t="n"/>
-      <c r="J125" s="15" t="n"/>
-      <c r="K125" s="15" t="n"/>
-      <c r="L125" s="15" t="n"/>
-    </row>
-    <row r="126">
-      <c r="B126" s="11" t="n">
+      <c r="G126" s="15" t="n"/>
+      <c r="H126" s="15" t="n"/>
+      <c r="I126" s="15" t="n"/>
+      <c r="J126" s="15" t="n"/>
+      <c r="K126" s="15" t="n"/>
+    </row>
+    <row r="127">
+      <c r="B127" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="C126" s="11" t="n">
+      <c r="C127" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="D126" s="11" t="n">
+      <c r="D127" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="E126" s="11" t="n">
+      <c r="E127" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="F126" s="11" t="inlineStr">
+      <c r="F127" s="11" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
     </row>
-    <row r="127">
-      <c r="B127" s="16" t="n"/>
-      <c r="C127" s="16" t="n"/>
-      <c r="D127" s="16" t="n"/>
-      <c r="E127" s="16" t="n">
+    <row r="128">
+      <c r="B128" s="16" t="n"/>
+      <c r="C128" s="16" t="n"/>
+      <c r="D128" s="16" t="n"/>
+      <c r="E128" s="16" t="n">
         <v>10</v>
       </c>
-      <c r="F127" s="16" t="inlineStr">
+      <c r="F128" s="16" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
-      <c r="G127" s="15" t="n"/>
-      <c r="H127" s="15" t="n"/>
-      <c r="I127" s="15" t="n"/>
-      <c r="J127" s="15" t="n"/>
-      <c r="K127" s="15" t="n"/>
-      <c r="L127" s="15" t="n"/>
-    </row>
-    <row r="128">
-      <c r="B128" s="11" t="n">
+      <c r="G128" s="15" t="n"/>
+      <c r="H128" s="15" t="n"/>
+      <c r="I128" s="15" t="n"/>
+      <c r="J128" s="15" t="n"/>
+      <c r="K128" s="15" t="n"/>
+    </row>
+    <row r="129">
+      <c r="B129" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="C128" s="11" t="n">
+      <c r="C129" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="D128" s="11" t="n">
+      <c r="D129" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="E128" s="11" t="n">
+      <c r="E129" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="F128" s="11" t="inlineStr">
+      <c r="F129" s="11" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="129">
-      <c r="B129" s="16" t="n"/>
-      <c r="C129" s="16" t="n"/>
-      <c r="D129" s="16" t="n"/>
-      <c r="E129" s="16" t="n">
+    <row r="130">
+      <c r="B130" s="16" t="n"/>
+      <c r="C130" s="16" t="n"/>
+      <c r="D130" s="16" t="n"/>
+      <c r="E130" s="16" t="n">
         <v>14</v>
       </c>
-      <c r="F129" s="16" t="inlineStr">
+      <c r="F130" s="16" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="G129" s="15" t="n"/>
-      <c r="H129" s="15" t="n"/>
-      <c r="I129" s="15" t="n"/>
-      <c r="J129" s="15" t="n"/>
-      <c r="K129" s="15" t="n"/>
-      <c r="L129" s="15" t="n"/>
-    </row>
-    <row r="130">
-      <c r="B130" s="11" t="n">
+      <c r="G130" s="15" t="n"/>
+      <c r="H130" s="15" t="n"/>
+      <c r="I130" s="15" t="n"/>
+      <c r="J130" s="15" t="n"/>
+      <c r="K130" s="15" t="n"/>
+    </row>
+    <row r="131">
+      <c r="B131" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="C130" s="11" t="n">
+      <c r="C131" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="D130" s="11" t="n">
+      <c r="D131" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="E130" s="11" t="n">
+      <c r="E131" s="11" t="n">
         <v>15</v>
       </c>
-      <c r="F130" s="11" t="inlineStr">
+      <c r="F131" s="11" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
     </row>
-    <row r="131">
-      <c r="B131" s="16" t="n"/>
-      <c r="C131" s="16" t="n"/>
-      <c r="D131" s="16" t="n"/>
-      <c r="E131" s="16" t="n">
+    <row r="132">
+      <c r="B132" s="16" t="n"/>
+      <c r="C132" s="16" t="n"/>
+      <c r="D132" s="16" t="n"/>
+      <c r="E132" s="16" t="n">
         <v>16</v>
       </c>
-      <c r="F131" s="16" t="inlineStr">
+      <c r="F132" s="16" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G131" s="15" t="n"/>
-      <c r="H131" s="15" t="n"/>
-      <c r="I131" s="15" t="n"/>
-      <c r="J131" s="15" t="n"/>
-      <c r="K131" s="15" t="n"/>
-      <c r="L131" s="15" t="n"/>
-    </row>
-    <row r="132">
-      <c r="B132" s="11" t="n">
+      <c r="G132" s="15" t="n"/>
+      <c r="H132" s="15" t="n"/>
+      <c r="I132" s="15" t="n"/>
+      <c r="J132" s="15" t="n"/>
+      <c r="K132" s="15" t="n"/>
+    </row>
+    <row r="133">
+      <c r="B133" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="C132" s="11" t="n">
+      <c r="C133" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="D132" s="11" t="n">
+      <c r="D133" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="E132" s="11" t="n">
+      <c r="E133" s="11" t="n">
         <v>17</v>
       </c>
-      <c r="F132" s="11" t="inlineStr">
+      <c r="F133" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" s="15" t="n"/>
-      <c r="B133" s="16" t="n"/>
-      <c r="C133" s="16" t="n"/>
-      <c r="D133" s="16" t="n"/>
-      <c r="E133" s="16" t="n">
+    <row r="134">
+      <c r="A134" s="15" t="n"/>
+      <c r="B134" s="16" t="n"/>
+      <c r="C134" s="16" t="n"/>
+      <c r="D134" s="16" t="n"/>
+      <c r="E134" s="16" t="n">
         <v>18</v>
       </c>
-      <c r="F133" s="16" t="inlineStr">
+      <c r="F134" s="16" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G133" s="15" t="n"/>
-      <c r="H133" s="15" t="n"/>
-      <c r="I133" s="15" t="n"/>
-      <c r="J133" s="15" t="n"/>
-      <c r="K133" s="15" t="n"/>
-      <c r="L133" s="15" t="n"/>
+      <c r="G134" s="15" t="n"/>
+      <c r="H134" s="15" t="n"/>
+      <c r="I134" s="15" t="n"/>
+      <c r="J134" s="15" t="n"/>
+      <c r="K134" s="15" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="L1:M1"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/howell11.xlsx
+++ b/howell11.xlsx
@@ -511,7 +511,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>For public domain. No rights reserved. Generated on Feb 06, 2026.</t>
+          <t>For public domain. No rights reserved. Generated on Feb 08, 2026.</t>
         </is>
       </c>
     </row>
@@ -595,12 +595,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Name 66</t>
+          <t>Name 37</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Name 77</t>
+          <t>Name 56</t>
         </is>
       </c>
       <c r="D10" s="4">
@@ -618,12 +618,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Name 21</t>
+          <t>Name 63</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Name 78</t>
+          <t>Name 90</t>
         </is>
       </c>
       <c r="D11" s="4">
@@ -641,12 +641,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Name 17</t>
+          <t>Name 13</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Name 24</t>
+          <t>Name 76</t>
         </is>
       </c>
       <c r="D12" s="4">
@@ -664,12 +664,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Name 14</t>
+          <t>Name 17</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Name 53</t>
+          <t>Name 66</t>
         </is>
       </c>
       <c r="D13" s="4">
@@ -687,12 +687,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Name 64</t>
+          <t>Name 38</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Name 34</t>
+          <t>Name 59</t>
         </is>
       </c>
       <c r="D14" s="4">
@@ -710,12 +710,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Name 39</t>
+          <t>Name 82</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Name 18</t>
+          <t>Name 57</t>
         </is>
       </c>
       <c r="D15" s="4">
@@ -733,12 +733,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Name 16</t>
+          <t>Name 45</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Name 36</t>
+          <t>Name 56</t>
         </is>
       </c>
       <c r="D16" s="4">
@@ -756,12 +756,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Name 34</t>
+          <t>Name 70</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Name 65</t>
+          <t>Name 26</t>
         </is>
       </c>
       <c r="D17" s="4">
@@ -779,12 +779,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Name 70</t>
+          <t>Name 29</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Name 14</t>
+          <t>Name 40</t>
         </is>
       </c>
       <c r="D18" s="4">
@@ -802,12 +802,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Name 89</t>
+          <t>Name 54</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Name 50</t>
+          <t>Name 84</t>
         </is>
       </c>
       <c r="D19" s="4">
@@ -825,12 +825,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Name 39</t>
+          <t>Name 85</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Name 67</t>
+          <t>Name 89</t>
         </is>
       </c>
       <c r="D20" s="4">
@@ -1159,29 +1159,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="11">
         <f>'By Round'!A3</f>
         <v/>
       </c>
-      <c r="C3">
+      <c r="C3" s="11">
         <f>'By Round'!B3</f>
         <v/>
       </c>
-      <c r="D3">
+      <c r="D3" s="11">
         <f>'By Round'!C3</f>
         <v/>
       </c>
-      <c r="E3">
+      <c r="E3" s="11">
         <f>'By Round'!D3</f>
         <v/>
       </c>
-      <c r="F3" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F3" s="11">
+        <f>IF(ISBLANK('By Round'!F3),"",'By Round'!F3)</f>
+        <v/>
       </c>
       <c r="G3">
         <f>IF(ISBLANK('By Round'!G3),"",'By Round'!G3)</f>
@@ -1317,26 +1316,25 @@
       </c>
     </row>
     <row r="4">
-      <c r="B4">
+      <c r="B4" s="11">
         <f>'By Round'!A27</f>
         <v/>
       </c>
-      <c r="C4">
+      <c r="C4" s="11">
         <f>'By Round'!B37</f>
         <v/>
       </c>
-      <c r="D4">
+      <c r="D4" s="11">
         <f>'By Round'!C37</f>
         <v/>
       </c>
-      <c r="E4">
+      <c r="E4" s="11">
         <f>'By Round'!D37</f>
         <v/>
       </c>
-      <c r="F4" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F4" s="11">
+        <f>IF(ISBLANK('By Round'!F37),"",'By Round'!F37)</f>
+        <v/>
       </c>
       <c r="G4">
         <f>IF(ISBLANK('By Round'!G37),"",'By Round'!G37)</f>
@@ -1472,26 +1470,25 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5">
+      <c r="B5" s="11">
         <f>'By Round'!A39</f>
         <v/>
       </c>
-      <c r="C5">
+      <c r="C5" s="11">
         <f>'By Round'!B47</f>
         <v/>
       </c>
-      <c r="D5">
+      <c r="D5" s="11">
         <f>'By Round'!C47</f>
         <v/>
       </c>
-      <c r="E5">
+      <c r="E5" s="11">
         <f>'By Round'!D47</f>
         <v/>
       </c>
-      <c r="F5" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F5" s="11">
+        <f>IF(ISBLANK('By Round'!F47),"",'By Round'!F47)</f>
+        <v/>
       </c>
       <c r="G5">
         <f>IF(ISBLANK('By Round'!G47),"",'By Round'!G47)</f>
@@ -1627,26 +1624,25 @@
       </c>
     </row>
     <row r="6">
-      <c r="B6">
+      <c r="B6" s="11">
         <f>'By Round'!A51</f>
         <v/>
       </c>
-      <c r="C6">
+      <c r="C6" s="11">
         <f>'By Round'!B57</f>
         <v/>
       </c>
-      <c r="D6">
+      <c r="D6" s="11">
         <f>'By Round'!C57</f>
         <v/>
       </c>
-      <c r="E6">
+      <c r="E6" s="11">
         <f>'By Round'!D57</f>
         <v/>
       </c>
-      <c r="F6" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F6" s="11">
+        <f>IF(ISBLANK('By Round'!F57),"",'By Round'!F57)</f>
+        <v/>
       </c>
       <c r="G6">
         <f>IF(ISBLANK('By Round'!G57),"",'By Round'!G57)</f>
@@ -1782,26 +1778,25 @@
       </c>
     </row>
     <row r="7">
-      <c r="B7">
+      <c r="B7" s="11">
         <f>'By Round'!A75</f>
         <v/>
       </c>
-      <c r="C7">
+      <c r="C7" s="11">
         <f>'By Round'!B79</f>
         <v/>
       </c>
-      <c r="D7">
+      <c r="D7" s="11">
         <f>'By Round'!C79</f>
         <v/>
       </c>
-      <c r="E7">
+      <c r="E7" s="11">
         <f>'By Round'!D79</f>
         <v/>
       </c>
-      <c r="F7" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F7" s="11">
+        <f>IF(ISBLANK('By Round'!F79),"",'By Round'!F79)</f>
+        <v/>
       </c>
       <c r="G7">
         <f>IF(ISBLANK('By Round'!G79),"",'By Round'!G79)</f>
@@ -1938,26 +1933,25 @@
     </row>
     <row r="8">
       <c r="A8" s="15" t="n"/>
-      <c r="B8" s="15">
+      <c r="B8" s="16">
         <f>'By Round'!A87</f>
         <v/>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="16">
         <f>'By Round'!B89</f>
         <v/>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="16">
         <f>'By Round'!C89</f>
         <v/>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="16">
         <f>'By Round'!D89</f>
         <v/>
       </c>
-      <c r="F8" s="16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F8" s="16">
+        <f>IF(ISBLANK('By Round'!F89),"",'By Round'!F89)</f>
+        <v/>
       </c>
       <c r="G8" s="15">
         <f>IF(ISBLANK('By Round'!G89),"",'By Round'!G89)</f>
@@ -2093,48 +2087,47 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="11">
         <f>'By Round'!A3</f>
         <v/>
       </c>
-      <c r="C9">
+      <c r="C9" s="11">
         <f>'By Round'!B3</f>
         <v/>
       </c>
-      <c r="D9">
+      <c r="D9" s="11">
         <f>'By Round'!C3</f>
         <v/>
       </c>
-      <c r="E9">
+      <c r="E9" s="11">
         <f>'By Round'!D3</f>
         <v/>
       </c>
-      <c r="F9" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F9" s="11">
+        <f>IF(ISBLANK('By Round'!F4),"",'By Round'!F4)</f>
+        <v/>
       </c>
       <c r="G9">
-        <f>IF(ISBLANK('By Round'!G3),"",'By Round'!G3)</f>
+        <f>IF(ISBLANK('By Round'!G4),"",'By Round'!G4)</f>
         <v/>
       </c>
       <c r="H9">
-        <f>IF(ISBLANK('By Round'!H3),"",'By Round'!H3)</f>
+        <f>IF(ISBLANK('By Round'!H4),"",'By Round'!H4)</f>
         <v/>
       </c>
       <c r="I9">
-        <f>IF(ISBLANK('By Round'!I3),"",'By Round'!I3)</f>
+        <f>IF(ISBLANK('By Round'!I4),"",'By Round'!I4)</f>
         <v/>
       </c>
       <c r="J9">
-        <f>IF(ISBLANK('By Round'!J3),"",'By Round'!J3)</f>
+        <f>IF(ISBLANK('By Round'!J4),"",'By Round'!J4)</f>
         <v/>
       </c>
       <c r="K9">
-        <f>IF(ISBLANK('By Round'!K3),"",'By Round'!K3)</f>
+        <f>IF(ISBLANK('By Round'!K4),"",'By Round'!K4)</f>
         <v/>
       </c>
       <c r="L9" s="12">
@@ -2251,45 +2244,44 @@
       </c>
     </row>
     <row r="10">
-      <c r="B10">
+      <c r="B10" s="11">
         <f>'By Round'!A27</f>
         <v/>
       </c>
-      <c r="C10">
+      <c r="C10" s="11">
         <f>'By Round'!B37</f>
         <v/>
       </c>
-      <c r="D10">
+      <c r="D10" s="11">
         <f>'By Round'!C37</f>
         <v/>
       </c>
-      <c r="E10">
+      <c r="E10" s="11">
         <f>'By Round'!D37</f>
         <v/>
       </c>
-      <c r="F10" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F10" s="11">
+        <f>IF(ISBLANK('By Round'!F38),"",'By Round'!F38)</f>
+        <v/>
       </c>
       <c r="G10">
-        <f>IF(ISBLANK('By Round'!G37),"",'By Round'!G37)</f>
+        <f>IF(ISBLANK('By Round'!G38),"",'By Round'!G38)</f>
         <v/>
       </c>
       <c r="H10">
-        <f>IF(ISBLANK('By Round'!H37),"",'By Round'!H37)</f>
+        <f>IF(ISBLANK('By Round'!H38),"",'By Round'!H38)</f>
         <v/>
       </c>
       <c r="I10">
-        <f>IF(ISBLANK('By Round'!I37),"",'By Round'!I37)</f>
+        <f>IF(ISBLANK('By Round'!I38),"",'By Round'!I38)</f>
         <v/>
       </c>
       <c r="J10">
-        <f>IF(ISBLANK('By Round'!J37),"",'By Round'!J37)</f>
+        <f>IF(ISBLANK('By Round'!J38),"",'By Round'!J38)</f>
         <v/>
       </c>
       <c r="K10">
-        <f>IF(ISBLANK('By Round'!K37),"",'By Round'!K37)</f>
+        <f>IF(ISBLANK('By Round'!K38),"",'By Round'!K38)</f>
         <v/>
       </c>
       <c r="L10" s="12">
@@ -2406,45 +2398,44 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11">
+      <c r="B11" s="11">
         <f>'By Round'!A39</f>
         <v/>
       </c>
-      <c r="C11">
+      <c r="C11" s="11">
         <f>'By Round'!B47</f>
         <v/>
       </c>
-      <c r="D11">
+      <c r="D11" s="11">
         <f>'By Round'!C47</f>
         <v/>
       </c>
-      <c r="E11">
+      <c r="E11" s="11">
         <f>'By Round'!D47</f>
         <v/>
       </c>
-      <c r="F11" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F11" s="11">
+        <f>IF(ISBLANK('By Round'!F48),"",'By Round'!F48)</f>
+        <v/>
       </c>
       <c r="G11">
-        <f>IF(ISBLANK('By Round'!G47),"",'By Round'!G47)</f>
+        <f>IF(ISBLANK('By Round'!G48),"",'By Round'!G48)</f>
         <v/>
       </c>
       <c r="H11">
-        <f>IF(ISBLANK('By Round'!H47),"",'By Round'!H47)</f>
+        <f>IF(ISBLANK('By Round'!H48),"",'By Round'!H48)</f>
         <v/>
       </c>
       <c r="I11">
-        <f>IF(ISBLANK('By Round'!I47),"",'By Round'!I47)</f>
+        <f>IF(ISBLANK('By Round'!I48),"",'By Round'!I48)</f>
         <v/>
       </c>
       <c r="J11">
-        <f>IF(ISBLANK('By Round'!J47),"",'By Round'!J47)</f>
+        <f>IF(ISBLANK('By Round'!J48),"",'By Round'!J48)</f>
         <v/>
       </c>
       <c r="K11">
-        <f>IF(ISBLANK('By Round'!K47),"",'By Round'!K47)</f>
+        <f>IF(ISBLANK('By Round'!K48),"",'By Round'!K48)</f>
         <v/>
       </c>
       <c r="L11" s="12">
@@ -2561,45 +2552,44 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12">
+      <c r="B12" s="11">
         <f>'By Round'!A51</f>
         <v/>
       </c>
-      <c r="C12">
+      <c r="C12" s="11">
         <f>'By Round'!B57</f>
         <v/>
       </c>
-      <c r="D12">
+      <c r="D12" s="11">
         <f>'By Round'!C57</f>
         <v/>
       </c>
-      <c r="E12">
+      <c r="E12" s="11">
         <f>'By Round'!D57</f>
         <v/>
       </c>
-      <c r="F12" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F12" s="11">
+        <f>IF(ISBLANK('By Round'!F58),"",'By Round'!F58)</f>
+        <v/>
       </c>
       <c r="G12">
-        <f>IF(ISBLANK('By Round'!G57),"",'By Round'!G57)</f>
+        <f>IF(ISBLANK('By Round'!G58),"",'By Round'!G58)</f>
         <v/>
       </c>
       <c r="H12">
-        <f>IF(ISBLANK('By Round'!H57),"",'By Round'!H57)</f>
+        <f>IF(ISBLANK('By Round'!H58),"",'By Round'!H58)</f>
         <v/>
       </c>
       <c r="I12">
-        <f>IF(ISBLANK('By Round'!I57),"",'By Round'!I57)</f>
+        <f>IF(ISBLANK('By Round'!I58),"",'By Round'!I58)</f>
         <v/>
       </c>
       <c r="J12">
-        <f>IF(ISBLANK('By Round'!J57),"",'By Round'!J57)</f>
+        <f>IF(ISBLANK('By Round'!J58),"",'By Round'!J58)</f>
         <v/>
       </c>
       <c r="K12">
-        <f>IF(ISBLANK('By Round'!K57),"",'By Round'!K57)</f>
+        <f>IF(ISBLANK('By Round'!K58),"",'By Round'!K58)</f>
         <v/>
       </c>
       <c r="L12" s="12">
@@ -2716,45 +2706,44 @@
       </c>
     </row>
     <row r="13">
-      <c r="B13">
+      <c r="B13" s="11">
         <f>'By Round'!A75</f>
         <v/>
       </c>
-      <c r="C13">
+      <c r="C13" s="11">
         <f>'By Round'!B79</f>
         <v/>
       </c>
-      <c r="D13">
+      <c r="D13" s="11">
         <f>'By Round'!C79</f>
         <v/>
       </c>
-      <c r="E13">
+      <c r="E13" s="11">
         <f>'By Round'!D79</f>
         <v/>
       </c>
-      <c r="F13" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F13" s="11">
+        <f>IF(ISBLANK('By Round'!F80),"",'By Round'!F80)</f>
+        <v/>
       </c>
       <c r="G13">
-        <f>IF(ISBLANK('By Round'!G79),"",'By Round'!G79)</f>
+        <f>IF(ISBLANK('By Round'!G80),"",'By Round'!G80)</f>
         <v/>
       </c>
       <c r="H13">
-        <f>IF(ISBLANK('By Round'!H79),"",'By Round'!H79)</f>
+        <f>IF(ISBLANK('By Round'!H80),"",'By Round'!H80)</f>
         <v/>
       </c>
       <c r="I13">
-        <f>IF(ISBLANK('By Round'!I79),"",'By Round'!I79)</f>
+        <f>IF(ISBLANK('By Round'!I80),"",'By Round'!I80)</f>
         <v/>
       </c>
       <c r="J13">
-        <f>IF(ISBLANK('By Round'!J79),"",'By Round'!J79)</f>
+        <f>IF(ISBLANK('By Round'!J80),"",'By Round'!J80)</f>
         <v/>
       </c>
       <c r="K13">
-        <f>IF(ISBLANK('By Round'!K79),"",'By Round'!K79)</f>
+        <f>IF(ISBLANK('By Round'!K80),"",'By Round'!K80)</f>
         <v/>
       </c>
       <c r="L13" s="12">
@@ -2872,45 +2861,44 @@
     </row>
     <row r="14">
       <c r="A14" s="15" t="n"/>
-      <c r="B14" s="15">
+      <c r="B14" s="16">
         <f>'By Round'!A87</f>
         <v/>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="16">
         <f>'By Round'!B89</f>
         <v/>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="16">
         <f>'By Round'!C89</f>
         <v/>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="16">
         <f>'By Round'!D89</f>
         <v/>
       </c>
-      <c r="F14" s="16" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F14" s="16">
+        <f>IF(ISBLANK('By Round'!F90),"",'By Round'!F90)</f>
+        <v/>
       </c>
       <c r="G14" s="15">
-        <f>IF(ISBLANK('By Round'!G89),"",'By Round'!G89)</f>
+        <f>IF(ISBLANK('By Round'!G90),"",'By Round'!G90)</f>
         <v/>
       </c>
       <c r="H14" s="15">
-        <f>IF(ISBLANK('By Round'!H89),"",'By Round'!H89)</f>
+        <f>IF(ISBLANK('By Round'!H90),"",'By Round'!H90)</f>
         <v/>
       </c>
       <c r="I14" s="15">
-        <f>IF(ISBLANK('By Round'!I89),"",'By Round'!I89)</f>
+        <f>IF(ISBLANK('By Round'!I90),"",'By Round'!I90)</f>
         <v/>
       </c>
       <c r="J14" s="15">
-        <f>IF(ISBLANK('By Round'!J89),"",'By Round'!J89)</f>
+        <f>IF(ISBLANK('By Round'!J90),"",'By Round'!J90)</f>
         <v/>
       </c>
       <c r="K14" s="15">
-        <f>IF(ISBLANK('By Round'!K89),"",'By Round'!K89)</f>
+        <f>IF(ISBLANK('By Round'!K90),"",'By Round'!K90)</f>
         <v/>
       </c>
       <c r="L14" s="17">
@@ -3027,29 +3015,28 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
+      <c r="A15" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="11">
         <f>'By Round'!A15</f>
         <v/>
       </c>
-      <c r="C15">
+      <c r="C15" s="11">
         <f>'By Round'!B15</f>
         <v/>
       </c>
-      <c r="D15">
+      <c r="D15" s="11">
         <f>'By Round'!C15</f>
         <v/>
       </c>
-      <c r="E15">
+      <c r="E15" s="11">
         <f>'By Round'!D15</f>
         <v/>
       </c>
-      <c r="F15" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F15" s="11">
+        <f>IF(ISBLANK('By Round'!F15),"",'By Round'!F15)</f>
+        <v/>
       </c>
       <c r="G15">
         <f>IF(ISBLANK('By Round'!G15),"",'By Round'!G15)</f>
@@ -3185,26 +3172,25 @@
       </c>
     </row>
     <row r="16">
-      <c r="B16">
+      <c r="B16" s="11">
         <f>'By Round'!A39</f>
         <v/>
       </c>
-      <c r="C16">
+      <c r="C16" s="11">
         <f>'By Round'!B49</f>
         <v/>
       </c>
-      <c r="D16">
+      <c r="D16" s="11">
         <f>'By Round'!C49</f>
         <v/>
       </c>
-      <c r="E16">
+      <c r="E16" s="11">
         <f>'By Round'!D49</f>
         <v/>
       </c>
-      <c r="F16" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F16" s="11">
+        <f>IF(ISBLANK('By Round'!F49),"",'By Round'!F49)</f>
+        <v/>
       </c>
       <c r="G16">
         <f>IF(ISBLANK('By Round'!G49),"",'By Round'!G49)</f>
@@ -3340,26 +3326,25 @@
       </c>
     </row>
     <row r="17">
-      <c r="B17">
+      <c r="B17" s="11">
         <f>'By Round'!A51</f>
         <v/>
       </c>
-      <c r="C17">
+      <c r="C17" s="11">
         <f>'By Round'!B59</f>
         <v/>
       </c>
-      <c r="D17">
+      <c r="D17" s="11">
         <f>'By Round'!C59</f>
         <v/>
       </c>
-      <c r="E17">
+      <c r="E17" s="11">
         <f>'By Round'!D59</f>
         <v/>
       </c>
-      <c r="F17" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F17" s="11">
+        <f>IF(ISBLANK('By Round'!F59),"",'By Round'!F59)</f>
+        <v/>
       </c>
       <c r="G17">
         <f>IF(ISBLANK('By Round'!G59),"",'By Round'!G59)</f>
@@ -3495,26 +3480,25 @@
       </c>
     </row>
     <row r="18">
-      <c r="B18">
+      <c r="B18" s="11">
         <f>'By Round'!A63</f>
         <v/>
       </c>
-      <c r="C18">
+      <c r="C18" s="11">
         <f>'By Round'!B69</f>
         <v/>
       </c>
-      <c r="D18">
+      <c r="D18" s="11">
         <f>'By Round'!C69</f>
         <v/>
       </c>
-      <c r="E18">
+      <c r="E18" s="11">
         <f>'By Round'!D69</f>
         <v/>
       </c>
-      <c r="F18" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F18" s="11">
+        <f>IF(ISBLANK('By Round'!F69),"",'By Round'!F69)</f>
+        <v/>
       </c>
       <c r="G18">
         <f>IF(ISBLANK('By Round'!G69),"",'By Round'!G69)</f>
@@ -3650,26 +3634,25 @@
       </c>
     </row>
     <row r="19">
-      <c r="B19">
+      <c r="B19" s="11">
         <f>'By Round'!A87</f>
         <v/>
       </c>
-      <c r="C19">
+      <c r="C19" s="11">
         <f>'By Round'!B91</f>
         <v/>
       </c>
-      <c r="D19">
+      <c r="D19" s="11">
         <f>'By Round'!C91</f>
         <v/>
       </c>
-      <c r="E19">
+      <c r="E19" s="11">
         <f>'By Round'!D91</f>
         <v/>
       </c>
-      <c r="F19" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F19" s="11">
+        <f>IF(ISBLANK('By Round'!F91),"",'By Round'!F91)</f>
+        <v/>
       </c>
       <c r="G19">
         <f>IF(ISBLANK('By Round'!G91),"",'By Round'!G91)</f>
@@ -3806,26 +3789,25 @@
     </row>
     <row r="20">
       <c r="A20" s="15" t="n"/>
-      <c r="B20" s="15">
+      <c r="B20" s="16">
         <f>'By Round'!A99</f>
         <v/>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="16">
         <f>'By Round'!B101</f>
         <v/>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="16">
         <f>'By Round'!C101</f>
         <v/>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="16">
         <f>'By Round'!D101</f>
         <v/>
       </c>
-      <c r="F20" s="16" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F20" s="16">
+        <f>IF(ISBLANK('By Round'!F101),"",'By Round'!F101)</f>
+        <v/>
       </c>
       <c r="G20" s="15">
         <f>IF(ISBLANK('By Round'!G101),"",'By Round'!G101)</f>
@@ -3961,48 +3943,47 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
+      <c r="A21" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="11">
         <f>'By Round'!A15</f>
         <v/>
       </c>
-      <c r="C21">
+      <c r="C21" s="11">
         <f>'By Round'!B15</f>
         <v/>
       </c>
-      <c r="D21">
+      <c r="D21" s="11">
         <f>'By Round'!C15</f>
         <v/>
       </c>
-      <c r="E21">
+      <c r="E21" s="11">
         <f>'By Round'!D15</f>
         <v/>
       </c>
-      <c r="F21" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F21" s="11">
+        <f>IF(ISBLANK('By Round'!F16),"",'By Round'!F16)</f>
+        <v/>
       </c>
       <c r="G21">
-        <f>IF(ISBLANK('By Round'!G15),"",'By Round'!G15)</f>
+        <f>IF(ISBLANK('By Round'!G16),"",'By Round'!G16)</f>
         <v/>
       </c>
       <c r="H21">
-        <f>IF(ISBLANK('By Round'!H15),"",'By Round'!H15)</f>
+        <f>IF(ISBLANK('By Round'!H16),"",'By Round'!H16)</f>
         <v/>
       </c>
       <c r="I21">
-        <f>IF(ISBLANK('By Round'!I15),"",'By Round'!I15)</f>
+        <f>IF(ISBLANK('By Round'!I16),"",'By Round'!I16)</f>
         <v/>
       </c>
       <c r="J21">
-        <f>IF(ISBLANK('By Round'!J15),"",'By Round'!J15)</f>
+        <f>IF(ISBLANK('By Round'!J16),"",'By Round'!J16)</f>
         <v/>
       </c>
       <c r="K21">
-        <f>IF(ISBLANK('By Round'!K15),"",'By Round'!K15)</f>
+        <f>IF(ISBLANK('By Round'!K16),"",'By Round'!K16)</f>
         <v/>
       </c>
       <c r="L21" s="12">
@@ -4119,45 +4100,44 @@
       </c>
     </row>
     <row r="22">
-      <c r="B22">
+      <c r="B22" s="11">
         <f>'By Round'!A39</f>
         <v/>
       </c>
-      <c r="C22">
+      <c r="C22" s="11">
         <f>'By Round'!B49</f>
         <v/>
       </c>
-      <c r="D22">
+      <c r="D22" s="11">
         <f>'By Round'!C49</f>
         <v/>
       </c>
-      <c r="E22">
+      <c r="E22" s="11">
         <f>'By Round'!D49</f>
         <v/>
       </c>
-      <c r="F22" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F22" s="11">
+        <f>IF(ISBLANK('By Round'!F50),"",'By Round'!F50)</f>
+        <v/>
       </c>
       <c r="G22">
-        <f>IF(ISBLANK('By Round'!G49),"",'By Round'!G49)</f>
+        <f>IF(ISBLANK('By Round'!G50),"",'By Round'!G50)</f>
         <v/>
       </c>
       <c r="H22">
-        <f>IF(ISBLANK('By Round'!H49),"",'By Round'!H49)</f>
+        <f>IF(ISBLANK('By Round'!H50),"",'By Round'!H50)</f>
         <v/>
       </c>
       <c r="I22">
-        <f>IF(ISBLANK('By Round'!I49),"",'By Round'!I49)</f>
+        <f>IF(ISBLANK('By Round'!I50),"",'By Round'!I50)</f>
         <v/>
       </c>
       <c r="J22">
-        <f>IF(ISBLANK('By Round'!J49),"",'By Round'!J49)</f>
+        <f>IF(ISBLANK('By Round'!J50),"",'By Round'!J50)</f>
         <v/>
       </c>
       <c r="K22">
-        <f>IF(ISBLANK('By Round'!K49),"",'By Round'!K49)</f>
+        <f>IF(ISBLANK('By Round'!K50),"",'By Round'!K50)</f>
         <v/>
       </c>
       <c r="L22" s="12">
@@ -4274,45 +4254,44 @@
       </c>
     </row>
     <row r="23">
-      <c r="B23">
+      <c r="B23" s="11">
         <f>'By Round'!A51</f>
         <v/>
       </c>
-      <c r="C23">
+      <c r="C23" s="11">
         <f>'By Round'!B59</f>
         <v/>
       </c>
-      <c r="D23">
+      <c r="D23" s="11">
         <f>'By Round'!C59</f>
         <v/>
       </c>
-      <c r="E23">
+      <c r="E23" s="11">
         <f>'By Round'!D59</f>
         <v/>
       </c>
-      <c r="F23" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F23" s="11">
+        <f>IF(ISBLANK('By Round'!F60),"",'By Round'!F60)</f>
+        <v/>
       </c>
       <c r="G23">
-        <f>IF(ISBLANK('By Round'!G59),"",'By Round'!G59)</f>
+        <f>IF(ISBLANK('By Round'!G60),"",'By Round'!G60)</f>
         <v/>
       </c>
       <c r="H23">
-        <f>IF(ISBLANK('By Round'!H59),"",'By Round'!H59)</f>
+        <f>IF(ISBLANK('By Round'!H60),"",'By Round'!H60)</f>
         <v/>
       </c>
       <c r="I23">
-        <f>IF(ISBLANK('By Round'!I59),"",'By Round'!I59)</f>
+        <f>IF(ISBLANK('By Round'!I60),"",'By Round'!I60)</f>
         <v/>
       </c>
       <c r="J23">
-        <f>IF(ISBLANK('By Round'!J59),"",'By Round'!J59)</f>
+        <f>IF(ISBLANK('By Round'!J60),"",'By Round'!J60)</f>
         <v/>
       </c>
       <c r="K23">
-        <f>IF(ISBLANK('By Round'!K59),"",'By Round'!K59)</f>
+        <f>IF(ISBLANK('By Round'!K60),"",'By Round'!K60)</f>
         <v/>
       </c>
       <c r="L23" s="12">
@@ -4429,45 +4408,44 @@
       </c>
     </row>
     <row r="24">
-      <c r="B24">
+      <c r="B24" s="11">
         <f>'By Round'!A63</f>
         <v/>
       </c>
-      <c r="C24">
+      <c r="C24" s="11">
         <f>'By Round'!B69</f>
         <v/>
       </c>
-      <c r="D24">
+      <c r="D24" s="11">
         <f>'By Round'!C69</f>
         <v/>
       </c>
-      <c r="E24">
+      <c r="E24" s="11">
         <f>'By Round'!D69</f>
         <v/>
       </c>
-      <c r="F24" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F24" s="11">
+        <f>IF(ISBLANK('By Round'!F70),"",'By Round'!F70)</f>
+        <v/>
       </c>
       <c r="G24">
-        <f>IF(ISBLANK('By Round'!G69),"",'By Round'!G69)</f>
+        <f>IF(ISBLANK('By Round'!G70),"",'By Round'!G70)</f>
         <v/>
       </c>
       <c r="H24">
-        <f>IF(ISBLANK('By Round'!H69),"",'By Round'!H69)</f>
+        <f>IF(ISBLANK('By Round'!H70),"",'By Round'!H70)</f>
         <v/>
       </c>
       <c r="I24">
-        <f>IF(ISBLANK('By Round'!I69),"",'By Round'!I69)</f>
+        <f>IF(ISBLANK('By Round'!I70),"",'By Round'!I70)</f>
         <v/>
       </c>
       <c r="J24">
-        <f>IF(ISBLANK('By Round'!J69),"",'By Round'!J69)</f>
+        <f>IF(ISBLANK('By Round'!J70),"",'By Round'!J70)</f>
         <v/>
       </c>
       <c r="K24">
-        <f>IF(ISBLANK('By Round'!K69),"",'By Round'!K69)</f>
+        <f>IF(ISBLANK('By Round'!K70),"",'By Round'!K70)</f>
         <v/>
       </c>
       <c r="L24" s="12">
@@ -4584,45 +4562,44 @@
       </c>
     </row>
     <row r="25">
-      <c r="B25">
+      <c r="B25" s="11">
         <f>'By Round'!A87</f>
         <v/>
       </c>
-      <c r="C25">
+      <c r="C25" s="11">
         <f>'By Round'!B91</f>
         <v/>
       </c>
-      <c r="D25">
+      <c r="D25" s="11">
         <f>'By Round'!C91</f>
         <v/>
       </c>
-      <c r="E25">
+      <c r="E25" s="11">
         <f>'By Round'!D91</f>
         <v/>
       </c>
-      <c r="F25" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F25" s="11">
+        <f>IF(ISBLANK('By Round'!F92),"",'By Round'!F92)</f>
+        <v/>
       </c>
       <c r="G25">
-        <f>IF(ISBLANK('By Round'!G91),"",'By Round'!G91)</f>
+        <f>IF(ISBLANK('By Round'!G92),"",'By Round'!G92)</f>
         <v/>
       </c>
       <c r="H25">
-        <f>IF(ISBLANK('By Round'!H91),"",'By Round'!H91)</f>
+        <f>IF(ISBLANK('By Round'!H92),"",'By Round'!H92)</f>
         <v/>
       </c>
       <c r="I25">
-        <f>IF(ISBLANK('By Round'!I91),"",'By Round'!I91)</f>
+        <f>IF(ISBLANK('By Round'!I92),"",'By Round'!I92)</f>
         <v/>
       </c>
       <c r="J25">
-        <f>IF(ISBLANK('By Round'!J91),"",'By Round'!J91)</f>
+        <f>IF(ISBLANK('By Round'!J92),"",'By Round'!J92)</f>
         <v/>
       </c>
       <c r="K25">
-        <f>IF(ISBLANK('By Round'!K91),"",'By Round'!K91)</f>
+        <f>IF(ISBLANK('By Round'!K92),"",'By Round'!K92)</f>
         <v/>
       </c>
       <c r="L25" s="12">
@@ -4740,45 +4717,44 @@
     </row>
     <row r="26">
       <c r="A26" s="15" t="n"/>
-      <c r="B26" s="15">
+      <c r="B26" s="16">
         <f>'By Round'!A99</f>
         <v/>
       </c>
-      <c r="C26" s="15">
+      <c r="C26" s="16">
         <f>'By Round'!B101</f>
         <v/>
       </c>
-      <c r="D26" s="15">
+      <c r="D26" s="16">
         <f>'By Round'!C101</f>
         <v/>
       </c>
-      <c r="E26" s="15">
+      <c r="E26" s="16">
         <f>'By Round'!D101</f>
         <v/>
       </c>
-      <c r="F26" s="16" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F26" s="16">
+        <f>IF(ISBLANK('By Round'!F102),"",'By Round'!F102)</f>
+        <v/>
       </c>
       <c r="G26" s="15">
-        <f>IF(ISBLANK('By Round'!G101),"",'By Round'!G101)</f>
+        <f>IF(ISBLANK('By Round'!G102),"",'By Round'!G102)</f>
         <v/>
       </c>
       <c r="H26" s="15">
-        <f>IF(ISBLANK('By Round'!H101),"",'By Round'!H101)</f>
+        <f>IF(ISBLANK('By Round'!H102),"",'By Round'!H102)</f>
         <v/>
       </c>
       <c r="I26" s="15">
-        <f>IF(ISBLANK('By Round'!I101),"",'By Round'!I101)</f>
+        <f>IF(ISBLANK('By Round'!I102),"",'By Round'!I102)</f>
         <v/>
       </c>
       <c r="J26" s="15">
-        <f>IF(ISBLANK('By Round'!J101),"",'By Round'!J101)</f>
+        <f>IF(ISBLANK('By Round'!J102),"",'By Round'!J102)</f>
         <v/>
       </c>
       <c r="K26" s="15">
-        <f>IF(ISBLANK('By Round'!K101),"",'By Round'!K101)</f>
+        <f>IF(ISBLANK('By Round'!K102),"",'By Round'!K102)</f>
         <v/>
       </c>
       <c r="L26" s="17">
@@ -4895,29 +4871,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
+      <c r="A27" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="11">
         <f>'By Round'!A27</f>
         <v/>
       </c>
-      <c r="C27">
+      <c r="C27" s="11">
         <f>'By Round'!B27</f>
         <v/>
       </c>
-      <c r="D27">
+      <c r="D27" s="11">
         <f>'By Round'!C27</f>
         <v/>
       </c>
-      <c r="E27">
+      <c r="E27" s="11">
         <f>'By Round'!D27</f>
         <v/>
       </c>
-      <c r="F27" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F27" s="11">
+        <f>IF(ISBLANK('By Round'!F27),"",'By Round'!F27)</f>
+        <v/>
       </c>
       <c r="G27">
         <f>IF(ISBLANK('By Round'!G27),"",'By Round'!G27)</f>
@@ -5053,26 +5028,25 @@
       </c>
     </row>
     <row r="28">
-      <c r="B28">
+      <c r="B28" s="11">
         <f>'By Round'!A51</f>
         <v/>
       </c>
-      <c r="C28">
+      <c r="C28" s="11">
         <f>'By Round'!B61</f>
         <v/>
       </c>
-      <c r="D28">
+      <c r="D28" s="11">
         <f>'By Round'!C61</f>
         <v/>
       </c>
-      <c r="E28">
+      <c r="E28" s="11">
         <f>'By Round'!D61</f>
         <v/>
       </c>
-      <c r="F28" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F28" s="11">
+        <f>IF(ISBLANK('By Round'!F61),"",'By Round'!F61)</f>
+        <v/>
       </c>
       <c r="G28">
         <f>IF(ISBLANK('By Round'!G61),"",'By Round'!G61)</f>
@@ -5208,26 +5182,25 @@
       </c>
     </row>
     <row r="29">
-      <c r="B29">
+      <c r="B29" s="11">
         <f>'By Round'!A63</f>
         <v/>
       </c>
-      <c r="C29">
+      <c r="C29" s="11">
         <f>'By Round'!B71</f>
         <v/>
       </c>
-      <c r="D29">
+      <c r="D29" s="11">
         <f>'By Round'!C71</f>
         <v/>
       </c>
-      <c r="E29">
+      <c r="E29" s="11">
         <f>'By Round'!D71</f>
         <v/>
       </c>
-      <c r="F29" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F29" s="11">
+        <f>IF(ISBLANK('By Round'!F71),"",'By Round'!F71)</f>
+        <v/>
       </c>
       <c r="G29">
         <f>IF(ISBLANK('By Round'!G71),"",'By Round'!G71)</f>
@@ -5363,26 +5336,25 @@
       </c>
     </row>
     <row r="30">
-      <c r="B30">
+      <c r="B30" s="11">
         <f>'By Round'!A75</f>
         <v/>
       </c>
-      <c r="C30">
+      <c r="C30" s="11">
         <f>'By Round'!B81</f>
         <v/>
       </c>
-      <c r="D30">
+      <c r="D30" s="11">
         <f>'By Round'!C81</f>
         <v/>
       </c>
-      <c r="E30">
+      <c r="E30" s="11">
         <f>'By Round'!D81</f>
         <v/>
       </c>
-      <c r="F30" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F30" s="11">
+        <f>IF(ISBLANK('By Round'!F81),"",'By Round'!F81)</f>
+        <v/>
       </c>
       <c r="G30">
         <f>IF(ISBLANK('By Round'!G81),"",'By Round'!G81)</f>
@@ -5518,26 +5490,25 @@
       </c>
     </row>
     <row r="31">
-      <c r="B31">
+      <c r="B31" s="11">
         <f>'By Round'!A99</f>
         <v/>
       </c>
-      <c r="C31">
+      <c r="C31" s="11">
         <f>'By Round'!B103</f>
         <v/>
       </c>
-      <c r="D31">
+      <c r="D31" s="11">
         <f>'By Round'!C103</f>
         <v/>
       </c>
-      <c r="E31">
+      <c r="E31" s="11">
         <f>'By Round'!D103</f>
         <v/>
       </c>
-      <c r="F31" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F31" s="11">
+        <f>IF(ISBLANK('By Round'!F103),"",'By Round'!F103)</f>
+        <v/>
       </c>
       <c r="G31">
         <f>IF(ISBLANK('By Round'!G103),"",'By Round'!G103)</f>
@@ -5674,26 +5645,25 @@
     </row>
     <row r="32">
       <c r="A32" s="15" t="n"/>
-      <c r="B32" s="15">
+      <c r="B32" s="16">
         <f>'By Round'!A111</f>
         <v/>
       </c>
-      <c r="C32" s="15">
+      <c r="C32" s="16">
         <f>'By Round'!B113</f>
         <v/>
       </c>
-      <c r="D32" s="15">
+      <c r="D32" s="16">
         <f>'By Round'!C113</f>
         <v/>
       </c>
-      <c r="E32" s="15">
+      <c r="E32" s="16">
         <f>'By Round'!D113</f>
         <v/>
       </c>
-      <c r="F32" s="16" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F32" s="16">
+        <f>IF(ISBLANK('By Round'!F113),"",'By Round'!F113)</f>
+        <v/>
       </c>
       <c r="G32" s="15">
         <f>IF(ISBLANK('By Round'!G113),"",'By Round'!G113)</f>
@@ -5829,48 +5799,47 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
+      <c r="A33" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="11">
         <f>'By Round'!A27</f>
         <v/>
       </c>
-      <c r="C33">
+      <c r="C33" s="11">
         <f>'By Round'!B27</f>
         <v/>
       </c>
-      <c r="D33">
+      <c r="D33" s="11">
         <f>'By Round'!C27</f>
         <v/>
       </c>
-      <c r="E33">
+      <c r="E33" s="11">
         <f>'By Round'!D27</f>
         <v/>
       </c>
-      <c r="F33" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F33" s="11">
+        <f>IF(ISBLANK('By Round'!F28),"",'By Round'!F28)</f>
+        <v/>
       </c>
       <c r="G33">
-        <f>IF(ISBLANK('By Round'!G27),"",'By Round'!G27)</f>
+        <f>IF(ISBLANK('By Round'!G28),"",'By Round'!G28)</f>
         <v/>
       </c>
       <c r="H33">
-        <f>IF(ISBLANK('By Round'!H27),"",'By Round'!H27)</f>
+        <f>IF(ISBLANK('By Round'!H28),"",'By Round'!H28)</f>
         <v/>
       </c>
       <c r="I33">
-        <f>IF(ISBLANK('By Round'!I27),"",'By Round'!I27)</f>
+        <f>IF(ISBLANK('By Round'!I28),"",'By Round'!I28)</f>
         <v/>
       </c>
       <c r="J33">
-        <f>IF(ISBLANK('By Round'!J27),"",'By Round'!J27)</f>
+        <f>IF(ISBLANK('By Round'!J28),"",'By Round'!J28)</f>
         <v/>
       </c>
       <c r="K33">
-        <f>IF(ISBLANK('By Round'!K27),"",'By Round'!K27)</f>
+        <f>IF(ISBLANK('By Round'!K28),"",'By Round'!K28)</f>
         <v/>
       </c>
       <c r="L33" s="12">
@@ -5987,45 +5956,44 @@
       </c>
     </row>
     <row r="34">
-      <c r="B34">
+      <c r="B34" s="11">
         <f>'By Round'!A51</f>
         <v/>
       </c>
-      <c r="C34">
+      <c r="C34" s="11">
         <f>'By Round'!B61</f>
         <v/>
       </c>
-      <c r="D34">
+      <c r="D34" s="11">
         <f>'By Round'!C61</f>
         <v/>
       </c>
-      <c r="E34">
+      <c r="E34" s="11">
         <f>'By Round'!D61</f>
         <v/>
       </c>
-      <c r="F34" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F34" s="11">
+        <f>IF(ISBLANK('By Round'!F62),"",'By Round'!F62)</f>
+        <v/>
       </c>
       <c r="G34">
-        <f>IF(ISBLANK('By Round'!G61),"",'By Round'!G61)</f>
+        <f>IF(ISBLANK('By Round'!G62),"",'By Round'!G62)</f>
         <v/>
       </c>
       <c r="H34">
-        <f>IF(ISBLANK('By Round'!H61),"",'By Round'!H61)</f>
+        <f>IF(ISBLANK('By Round'!H62),"",'By Round'!H62)</f>
         <v/>
       </c>
       <c r="I34">
-        <f>IF(ISBLANK('By Round'!I61),"",'By Round'!I61)</f>
+        <f>IF(ISBLANK('By Round'!I62),"",'By Round'!I62)</f>
         <v/>
       </c>
       <c r="J34">
-        <f>IF(ISBLANK('By Round'!J61),"",'By Round'!J61)</f>
+        <f>IF(ISBLANK('By Round'!J62),"",'By Round'!J62)</f>
         <v/>
       </c>
       <c r="K34">
-        <f>IF(ISBLANK('By Round'!K61),"",'By Round'!K61)</f>
+        <f>IF(ISBLANK('By Round'!K62),"",'By Round'!K62)</f>
         <v/>
       </c>
       <c r="L34" s="12">
@@ -6142,45 +6110,44 @@
       </c>
     </row>
     <row r="35">
-      <c r="B35">
+      <c r="B35" s="11">
         <f>'By Round'!A63</f>
         <v/>
       </c>
-      <c r="C35">
+      <c r="C35" s="11">
         <f>'By Round'!B71</f>
         <v/>
       </c>
-      <c r="D35">
+      <c r="D35" s="11">
         <f>'By Round'!C71</f>
         <v/>
       </c>
-      <c r="E35">
+      <c r="E35" s="11">
         <f>'By Round'!D71</f>
         <v/>
       </c>
-      <c r="F35" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F35" s="11">
+        <f>IF(ISBLANK('By Round'!F72),"",'By Round'!F72)</f>
+        <v/>
       </c>
       <c r="G35">
-        <f>IF(ISBLANK('By Round'!G71),"",'By Round'!G71)</f>
+        <f>IF(ISBLANK('By Round'!G72),"",'By Round'!G72)</f>
         <v/>
       </c>
       <c r="H35">
-        <f>IF(ISBLANK('By Round'!H71),"",'By Round'!H71)</f>
+        <f>IF(ISBLANK('By Round'!H72),"",'By Round'!H72)</f>
         <v/>
       </c>
       <c r="I35">
-        <f>IF(ISBLANK('By Round'!I71),"",'By Round'!I71)</f>
+        <f>IF(ISBLANK('By Round'!I72),"",'By Round'!I72)</f>
         <v/>
       </c>
       <c r="J35">
-        <f>IF(ISBLANK('By Round'!J71),"",'By Round'!J71)</f>
+        <f>IF(ISBLANK('By Round'!J72),"",'By Round'!J72)</f>
         <v/>
       </c>
       <c r="K35">
-        <f>IF(ISBLANK('By Round'!K71),"",'By Round'!K71)</f>
+        <f>IF(ISBLANK('By Round'!K72),"",'By Round'!K72)</f>
         <v/>
       </c>
       <c r="L35" s="12">
@@ -6297,45 +6264,44 @@
       </c>
     </row>
     <row r="36">
-      <c r="B36">
+      <c r="B36" s="11">
         <f>'By Round'!A75</f>
         <v/>
       </c>
-      <c r="C36">
+      <c r="C36" s="11">
         <f>'By Round'!B81</f>
         <v/>
       </c>
-      <c r="D36">
+      <c r="D36" s="11">
         <f>'By Round'!C81</f>
         <v/>
       </c>
-      <c r="E36">
+      <c r="E36" s="11">
         <f>'By Round'!D81</f>
         <v/>
       </c>
-      <c r="F36" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F36" s="11">
+        <f>IF(ISBLANK('By Round'!F82),"",'By Round'!F82)</f>
+        <v/>
       </c>
       <c r="G36">
-        <f>IF(ISBLANK('By Round'!G81),"",'By Round'!G81)</f>
+        <f>IF(ISBLANK('By Round'!G82),"",'By Round'!G82)</f>
         <v/>
       </c>
       <c r="H36">
-        <f>IF(ISBLANK('By Round'!H81),"",'By Round'!H81)</f>
+        <f>IF(ISBLANK('By Round'!H82),"",'By Round'!H82)</f>
         <v/>
       </c>
       <c r="I36">
-        <f>IF(ISBLANK('By Round'!I81),"",'By Round'!I81)</f>
+        <f>IF(ISBLANK('By Round'!I82),"",'By Round'!I82)</f>
         <v/>
       </c>
       <c r="J36">
-        <f>IF(ISBLANK('By Round'!J81),"",'By Round'!J81)</f>
+        <f>IF(ISBLANK('By Round'!J82),"",'By Round'!J82)</f>
         <v/>
       </c>
       <c r="K36">
-        <f>IF(ISBLANK('By Round'!K81),"",'By Round'!K81)</f>
+        <f>IF(ISBLANK('By Round'!K82),"",'By Round'!K82)</f>
         <v/>
       </c>
       <c r="L36" s="12">
@@ -6452,45 +6418,44 @@
       </c>
     </row>
     <row r="37">
-      <c r="B37">
+      <c r="B37" s="11">
         <f>'By Round'!A99</f>
         <v/>
       </c>
-      <c r="C37">
+      <c r="C37" s="11">
         <f>'By Round'!B103</f>
         <v/>
       </c>
-      <c r="D37">
+      <c r="D37" s="11">
         <f>'By Round'!C103</f>
         <v/>
       </c>
-      <c r="E37">
+      <c r="E37" s="11">
         <f>'By Round'!D103</f>
         <v/>
       </c>
-      <c r="F37" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F37" s="11">
+        <f>IF(ISBLANK('By Round'!F104),"",'By Round'!F104)</f>
+        <v/>
       </c>
       <c r="G37">
-        <f>IF(ISBLANK('By Round'!G103),"",'By Round'!G103)</f>
+        <f>IF(ISBLANK('By Round'!G104),"",'By Round'!G104)</f>
         <v/>
       </c>
       <c r="H37">
-        <f>IF(ISBLANK('By Round'!H103),"",'By Round'!H103)</f>
+        <f>IF(ISBLANK('By Round'!H104),"",'By Round'!H104)</f>
         <v/>
       </c>
       <c r="I37">
-        <f>IF(ISBLANK('By Round'!I103),"",'By Round'!I103)</f>
+        <f>IF(ISBLANK('By Round'!I104),"",'By Round'!I104)</f>
         <v/>
       </c>
       <c r="J37">
-        <f>IF(ISBLANK('By Round'!J103),"",'By Round'!J103)</f>
+        <f>IF(ISBLANK('By Round'!J104),"",'By Round'!J104)</f>
         <v/>
       </c>
       <c r="K37">
-        <f>IF(ISBLANK('By Round'!K103),"",'By Round'!K103)</f>
+        <f>IF(ISBLANK('By Round'!K104),"",'By Round'!K104)</f>
         <v/>
       </c>
       <c r="L37" s="12">
@@ -6608,45 +6573,44 @@
     </row>
     <row r="38">
       <c r="A38" s="15" t="n"/>
-      <c r="B38" s="15">
+      <c r="B38" s="16">
         <f>'By Round'!A111</f>
         <v/>
       </c>
-      <c r="C38" s="15">
+      <c r="C38" s="16">
         <f>'By Round'!B113</f>
         <v/>
       </c>
-      <c r="D38" s="15">
+      <c r="D38" s="16">
         <f>'By Round'!C113</f>
         <v/>
       </c>
-      <c r="E38" s="15">
+      <c r="E38" s="16">
         <f>'By Round'!D113</f>
         <v/>
       </c>
-      <c r="F38" s="16" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F38" s="16">
+        <f>IF(ISBLANK('By Round'!F114),"",'By Round'!F114)</f>
+        <v/>
       </c>
       <c r="G38" s="15">
-        <f>IF(ISBLANK('By Round'!G113),"",'By Round'!G113)</f>
+        <f>IF(ISBLANK('By Round'!G114),"",'By Round'!G114)</f>
         <v/>
       </c>
       <c r="H38" s="15">
-        <f>IF(ISBLANK('By Round'!H113),"",'By Round'!H113)</f>
+        <f>IF(ISBLANK('By Round'!H114),"",'By Round'!H114)</f>
         <v/>
       </c>
       <c r="I38" s="15">
-        <f>IF(ISBLANK('By Round'!I113),"",'By Round'!I113)</f>
+        <f>IF(ISBLANK('By Round'!I114),"",'By Round'!I114)</f>
         <v/>
       </c>
       <c r="J38" s="15">
-        <f>IF(ISBLANK('By Round'!J113),"",'By Round'!J113)</f>
+        <f>IF(ISBLANK('By Round'!J114),"",'By Round'!J114)</f>
         <v/>
       </c>
       <c r="K38" s="15">
-        <f>IF(ISBLANK('By Round'!K113),"",'By Round'!K113)</f>
+        <f>IF(ISBLANK('By Round'!K114),"",'By Round'!K114)</f>
         <v/>
       </c>
       <c r="L38" s="17">
@@ -6763,29 +6727,28 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
+      <c r="A39" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="11">
         <f>'By Round'!A39</f>
         <v/>
       </c>
-      <c r="C39">
+      <c r="C39" s="11">
         <f>'By Round'!B39</f>
         <v/>
       </c>
-      <c r="D39">
+      <c r="D39" s="11">
         <f>'By Round'!C39</f>
         <v/>
       </c>
-      <c r="E39">
+      <c r="E39" s="11">
         <f>'By Round'!D39</f>
         <v/>
       </c>
-      <c r="F39" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F39" s="11">
+        <f>IF(ISBLANK('By Round'!F39),"",'By Round'!F39)</f>
+        <v/>
       </c>
       <c r="G39">
         <f>IF(ISBLANK('By Round'!G39),"",'By Round'!G39)</f>
@@ -6921,26 +6884,25 @@
       </c>
     </row>
     <row r="40">
-      <c r="B40">
+      <c r="B40" s="11">
         <f>'By Round'!A63</f>
         <v/>
       </c>
-      <c r="C40">
+      <c r="C40" s="11">
         <f>'By Round'!B73</f>
         <v/>
       </c>
-      <c r="D40">
+      <c r="D40" s="11">
         <f>'By Round'!C73</f>
         <v/>
       </c>
-      <c r="E40">
+      <c r="E40" s="11">
         <f>'By Round'!D73</f>
         <v/>
       </c>
-      <c r="F40" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F40" s="11">
+        <f>IF(ISBLANK('By Round'!F73),"",'By Round'!F73)</f>
+        <v/>
       </c>
       <c r="G40">
         <f>IF(ISBLANK('By Round'!G73),"",'By Round'!G73)</f>
@@ -7076,26 +7038,25 @@
       </c>
     </row>
     <row r="41">
-      <c r="B41">
+      <c r="B41" s="11">
         <f>'By Round'!A75</f>
         <v/>
       </c>
-      <c r="C41">
+      <c r="C41" s="11">
         <f>'By Round'!B83</f>
         <v/>
       </c>
-      <c r="D41">
+      <c r="D41" s="11">
         <f>'By Round'!C83</f>
         <v/>
       </c>
-      <c r="E41">
+      <c r="E41" s="11">
         <f>'By Round'!D83</f>
         <v/>
       </c>
-      <c r="F41" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F41" s="11">
+        <f>IF(ISBLANK('By Round'!F83),"",'By Round'!F83)</f>
+        <v/>
       </c>
       <c r="G41">
         <f>IF(ISBLANK('By Round'!G83),"",'By Round'!G83)</f>
@@ -7231,26 +7192,25 @@
       </c>
     </row>
     <row r="42">
-      <c r="B42">
+      <c r="B42" s="11">
         <f>'By Round'!A87</f>
         <v/>
       </c>
-      <c r="C42">
+      <c r="C42" s="11">
         <f>'By Round'!B93</f>
         <v/>
       </c>
-      <c r="D42">
+      <c r="D42" s="11">
         <f>'By Round'!C93</f>
         <v/>
       </c>
-      <c r="E42">
+      <c r="E42" s="11">
         <f>'By Round'!D93</f>
         <v/>
       </c>
-      <c r="F42" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F42" s="11">
+        <f>IF(ISBLANK('By Round'!F93),"",'By Round'!F93)</f>
+        <v/>
       </c>
       <c r="G42">
         <f>IF(ISBLANK('By Round'!G93),"",'By Round'!G93)</f>
@@ -7386,26 +7346,25 @@
       </c>
     </row>
     <row r="43">
-      <c r="B43">
+      <c r="B43" s="11">
         <f>'By Round'!A111</f>
         <v/>
       </c>
-      <c r="C43">
+      <c r="C43" s="11">
         <f>'By Round'!B115</f>
         <v/>
       </c>
-      <c r="D43">
+      <c r="D43" s="11">
         <f>'By Round'!C115</f>
         <v/>
       </c>
-      <c r="E43">
+      <c r="E43" s="11">
         <f>'By Round'!D115</f>
         <v/>
       </c>
-      <c r="F43" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F43" s="11">
+        <f>IF(ISBLANK('By Round'!F115),"",'By Round'!F115)</f>
+        <v/>
       </c>
       <c r="G43">
         <f>IF(ISBLANK('By Round'!G115),"",'By Round'!G115)</f>
@@ -7542,26 +7501,25 @@
     </row>
     <row r="44">
       <c r="A44" s="15" t="n"/>
-      <c r="B44" s="15">
+      <c r="B44" s="16">
         <f>'By Round'!A123</f>
         <v/>
       </c>
-      <c r="C44" s="15">
+      <c r="C44" s="16">
         <f>'By Round'!B125</f>
         <v/>
       </c>
-      <c r="D44" s="15">
+      <c r="D44" s="16">
         <f>'By Round'!C125</f>
         <v/>
       </c>
-      <c r="E44" s="15">
+      <c r="E44" s="16">
         <f>'By Round'!D125</f>
         <v/>
       </c>
-      <c r="F44" s="16" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F44" s="16">
+        <f>IF(ISBLANK('By Round'!F125),"",'By Round'!F125)</f>
+        <v/>
       </c>
       <c r="G44" s="15">
         <f>IF(ISBLANK('By Round'!G125),"",'By Round'!G125)</f>
@@ -7697,48 +7655,47 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
+      <c r="A45" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="11">
         <f>'By Round'!A39</f>
         <v/>
       </c>
-      <c r="C45">
+      <c r="C45" s="11">
         <f>'By Round'!B39</f>
         <v/>
       </c>
-      <c r="D45">
+      <c r="D45" s="11">
         <f>'By Round'!C39</f>
         <v/>
       </c>
-      <c r="E45">
+      <c r="E45" s="11">
         <f>'By Round'!D39</f>
         <v/>
       </c>
-      <c r="F45" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F45" s="11">
+        <f>IF(ISBLANK('By Round'!F40),"",'By Round'!F40)</f>
+        <v/>
       </c>
       <c r="G45">
-        <f>IF(ISBLANK('By Round'!G39),"",'By Round'!G39)</f>
+        <f>IF(ISBLANK('By Round'!G40),"",'By Round'!G40)</f>
         <v/>
       </c>
       <c r="H45">
-        <f>IF(ISBLANK('By Round'!H39),"",'By Round'!H39)</f>
+        <f>IF(ISBLANK('By Round'!H40),"",'By Round'!H40)</f>
         <v/>
       </c>
       <c r="I45">
-        <f>IF(ISBLANK('By Round'!I39),"",'By Round'!I39)</f>
+        <f>IF(ISBLANK('By Round'!I40),"",'By Round'!I40)</f>
         <v/>
       </c>
       <c r="J45">
-        <f>IF(ISBLANK('By Round'!J39),"",'By Round'!J39)</f>
+        <f>IF(ISBLANK('By Round'!J40),"",'By Round'!J40)</f>
         <v/>
       </c>
       <c r="K45">
-        <f>IF(ISBLANK('By Round'!K39),"",'By Round'!K39)</f>
+        <f>IF(ISBLANK('By Round'!K40),"",'By Round'!K40)</f>
         <v/>
       </c>
       <c r="L45" s="12">
@@ -7855,45 +7812,44 @@
       </c>
     </row>
     <row r="46">
-      <c r="B46">
+      <c r="B46" s="11">
         <f>'By Round'!A63</f>
         <v/>
       </c>
-      <c r="C46">
+      <c r="C46" s="11">
         <f>'By Round'!B73</f>
         <v/>
       </c>
-      <c r="D46">
+      <c r="D46" s="11">
         <f>'By Round'!C73</f>
         <v/>
       </c>
-      <c r="E46">
+      <c r="E46" s="11">
         <f>'By Round'!D73</f>
         <v/>
       </c>
-      <c r="F46" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F46" s="11">
+        <f>IF(ISBLANK('By Round'!F74),"",'By Round'!F74)</f>
+        <v/>
       </c>
       <c r="G46">
-        <f>IF(ISBLANK('By Round'!G73),"",'By Round'!G73)</f>
+        <f>IF(ISBLANK('By Round'!G74),"",'By Round'!G74)</f>
         <v/>
       </c>
       <c r="H46">
-        <f>IF(ISBLANK('By Round'!H73),"",'By Round'!H73)</f>
+        <f>IF(ISBLANK('By Round'!H74),"",'By Round'!H74)</f>
         <v/>
       </c>
       <c r="I46">
-        <f>IF(ISBLANK('By Round'!I73),"",'By Round'!I73)</f>
+        <f>IF(ISBLANK('By Round'!I74),"",'By Round'!I74)</f>
         <v/>
       </c>
       <c r="J46">
-        <f>IF(ISBLANK('By Round'!J73),"",'By Round'!J73)</f>
+        <f>IF(ISBLANK('By Round'!J74),"",'By Round'!J74)</f>
         <v/>
       </c>
       <c r="K46">
-        <f>IF(ISBLANK('By Round'!K73),"",'By Round'!K73)</f>
+        <f>IF(ISBLANK('By Round'!K74),"",'By Round'!K74)</f>
         <v/>
       </c>
       <c r="L46" s="12">
@@ -8010,45 +7966,44 @@
       </c>
     </row>
     <row r="47">
-      <c r="B47">
+      <c r="B47" s="11">
         <f>'By Round'!A75</f>
         <v/>
       </c>
-      <c r="C47">
+      <c r="C47" s="11">
         <f>'By Round'!B83</f>
         <v/>
       </c>
-      <c r="D47">
+      <c r="D47" s="11">
         <f>'By Round'!C83</f>
         <v/>
       </c>
-      <c r="E47">
+      <c r="E47" s="11">
         <f>'By Round'!D83</f>
         <v/>
       </c>
-      <c r="F47" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F47" s="11">
+        <f>IF(ISBLANK('By Round'!F84),"",'By Round'!F84)</f>
+        <v/>
       </c>
       <c r="G47">
-        <f>IF(ISBLANK('By Round'!G83),"",'By Round'!G83)</f>
+        <f>IF(ISBLANK('By Round'!G84),"",'By Round'!G84)</f>
         <v/>
       </c>
       <c r="H47">
-        <f>IF(ISBLANK('By Round'!H83),"",'By Round'!H83)</f>
+        <f>IF(ISBLANK('By Round'!H84),"",'By Round'!H84)</f>
         <v/>
       </c>
       <c r="I47">
-        <f>IF(ISBLANK('By Round'!I83),"",'By Round'!I83)</f>
+        <f>IF(ISBLANK('By Round'!I84),"",'By Round'!I84)</f>
         <v/>
       </c>
       <c r="J47">
-        <f>IF(ISBLANK('By Round'!J83),"",'By Round'!J83)</f>
+        <f>IF(ISBLANK('By Round'!J84),"",'By Round'!J84)</f>
         <v/>
       </c>
       <c r="K47">
-        <f>IF(ISBLANK('By Round'!K83),"",'By Round'!K83)</f>
+        <f>IF(ISBLANK('By Round'!K84),"",'By Round'!K84)</f>
         <v/>
       </c>
       <c r="L47" s="12">
@@ -8165,45 +8120,44 @@
       </c>
     </row>
     <row r="48">
-      <c r="B48">
+      <c r="B48" s="11">
         <f>'By Round'!A87</f>
         <v/>
       </c>
-      <c r="C48">
+      <c r="C48" s="11">
         <f>'By Round'!B93</f>
         <v/>
       </c>
-      <c r="D48">
+      <c r="D48" s="11">
         <f>'By Round'!C93</f>
         <v/>
       </c>
-      <c r="E48">
+      <c r="E48" s="11">
         <f>'By Round'!D93</f>
         <v/>
       </c>
-      <c r="F48" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F48" s="11">
+        <f>IF(ISBLANK('By Round'!F94),"",'By Round'!F94)</f>
+        <v/>
       </c>
       <c r="G48">
-        <f>IF(ISBLANK('By Round'!G93),"",'By Round'!G93)</f>
+        <f>IF(ISBLANK('By Round'!G94),"",'By Round'!G94)</f>
         <v/>
       </c>
       <c r="H48">
-        <f>IF(ISBLANK('By Round'!H93),"",'By Round'!H93)</f>
+        <f>IF(ISBLANK('By Round'!H94),"",'By Round'!H94)</f>
         <v/>
       </c>
       <c r="I48">
-        <f>IF(ISBLANK('By Round'!I93),"",'By Round'!I93)</f>
+        <f>IF(ISBLANK('By Round'!I94),"",'By Round'!I94)</f>
         <v/>
       </c>
       <c r="J48">
-        <f>IF(ISBLANK('By Round'!J93),"",'By Round'!J93)</f>
+        <f>IF(ISBLANK('By Round'!J94),"",'By Round'!J94)</f>
         <v/>
       </c>
       <c r="K48">
-        <f>IF(ISBLANK('By Round'!K93),"",'By Round'!K93)</f>
+        <f>IF(ISBLANK('By Round'!K94),"",'By Round'!K94)</f>
         <v/>
       </c>
       <c r="L48" s="12">
@@ -8320,45 +8274,44 @@
       </c>
     </row>
     <row r="49">
-      <c r="B49">
+      <c r="B49" s="11">
         <f>'By Round'!A111</f>
         <v/>
       </c>
-      <c r="C49">
+      <c r="C49" s="11">
         <f>'By Round'!B115</f>
         <v/>
       </c>
-      <c r="D49">
+      <c r="D49" s="11">
         <f>'By Round'!C115</f>
         <v/>
       </c>
-      <c r="E49">
+      <c r="E49" s="11">
         <f>'By Round'!D115</f>
         <v/>
       </c>
-      <c r="F49" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F49" s="11">
+        <f>IF(ISBLANK('By Round'!F116),"",'By Round'!F116)</f>
+        <v/>
       </c>
       <c r="G49">
-        <f>IF(ISBLANK('By Round'!G115),"",'By Round'!G115)</f>
+        <f>IF(ISBLANK('By Round'!G116),"",'By Round'!G116)</f>
         <v/>
       </c>
       <c r="H49">
-        <f>IF(ISBLANK('By Round'!H115),"",'By Round'!H115)</f>
+        <f>IF(ISBLANK('By Round'!H116),"",'By Round'!H116)</f>
         <v/>
       </c>
       <c r="I49">
-        <f>IF(ISBLANK('By Round'!I115),"",'By Round'!I115)</f>
+        <f>IF(ISBLANK('By Round'!I116),"",'By Round'!I116)</f>
         <v/>
       </c>
       <c r="J49">
-        <f>IF(ISBLANK('By Round'!J115),"",'By Round'!J115)</f>
+        <f>IF(ISBLANK('By Round'!J116),"",'By Round'!J116)</f>
         <v/>
       </c>
       <c r="K49">
-        <f>IF(ISBLANK('By Round'!K115),"",'By Round'!K115)</f>
+        <f>IF(ISBLANK('By Round'!K116),"",'By Round'!K116)</f>
         <v/>
       </c>
       <c r="L49" s="12">
@@ -8476,45 +8429,44 @@
     </row>
     <row r="50">
       <c r="A50" s="15" t="n"/>
-      <c r="B50" s="15">
+      <c r="B50" s="16">
         <f>'By Round'!A123</f>
         <v/>
       </c>
-      <c r="C50" s="15">
+      <c r="C50" s="16">
         <f>'By Round'!B125</f>
         <v/>
       </c>
-      <c r="D50" s="15">
+      <c r="D50" s="16">
         <f>'By Round'!C125</f>
         <v/>
       </c>
-      <c r="E50" s="15">
+      <c r="E50" s="16">
         <f>'By Round'!D125</f>
         <v/>
       </c>
-      <c r="F50" s="16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F50" s="16">
+        <f>IF(ISBLANK('By Round'!F126),"",'By Round'!F126)</f>
+        <v/>
       </c>
       <c r="G50" s="15">
-        <f>IF(ISBLANK('By Round'!G125),"",'By Round'!G125)</f>
+        <f>IF(ISBLANK('By Round'!G126),"",'By Round'!G126)</f>
         <v/>
       </c>
       <c r="H50" s="15">
-        <f>IF(ISBLANK('By Round'!H125),"",'By Round'!H125)</f>
+        <f>IF(ISBLANK('By Round'!H126),"",'By Round'!H126)</f>
         <v/>
       </c>
       <c r="I50" s="15">
-        <f>IF(ISBLANK('By Round'!I125),"",'By Round'!I125)</f>
+        <f>IF(ISBLANK('By Round'!I126),"",'By Round'!I126)</f>
         <v/>
       </c>
       <c r="J50" s="15">
-        <f>IF(ISBLANK('By Round'!J125),"",'By Round'!J125)</f>
+        <f>IF(ISBLANK('By Round'!J126),"",'By Round'!J126)</f>
         <v/>
       </c>
       <c r="K50" s="15">
-        <f>IF(ISBLANK('By Round'!K125),"",'By Round'!K125)</f>
+        <f>IF(ISBLANK('By Round'!K126),"",'By Round'!K126)</f>
         <v/>
       </c>
       <c r="L50" s="17">
@@ -8631,29 +8583,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
+      <c r="A51" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="11">
         <f>'By Round'!A3</f>
         <v/>
       </c>
-      <c r="C51">
+      <c r="C51" s="11">
         <f>'By Round'!B5</f>
         <v/>
       </c>
-      <c r="D51">
+      <c r="D51" s="11">
         <f>'By Round'!C5</f>
         <v/>
       </c>
-      <c r="E51">
+      <c r="E51" s="11">
         <f>'By Round'!D5</f>
         <v/>
       </c>
-      <c r="F51" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F51" s="11">
+        <f>IF(ISBLANK('By Round'!F5),"",'By Round'!F5)</f>
+        <v/>
       </c>
       <c r="G51">
         <f>IF(ISBLANK('By Round'!G5),"",'By Round'!G5)</f>
@@ -8789,26 +8740,25 @@
       </c>
     </row>
     <row r="52">
-      <c r="B52">
+      <c r="B52" s="11">
         <f>'By Round'!A51</f>
         <v/>
       </c>
-      <c r="C52">
+      <c r="C52" s="11">
         <f>'By Round'!B51</f>
         <v/>
       </c>
-      <c r="D52">
+      <c r="D52" s="11">
         <f>'By Round'!C51</f>
         <v/>
       </c>
-      <c r="E52">
+      <c r="E52" s="11">
         <f>'By Round'!D51</f>
         <v/>
       </c>
-      <c r="F52" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F52" s="11">
+        <f>IF(ISBLANK('By Round'!F51),"",'By Round'!F51)</f>
+        <v/>
       </c>
       <c r="G52">
         <f>IF(ISBLANK('By Round'!G51),"",'By Round'!G51)</f>
@@ -8944,26 +8894,25 @@
       </c>
     </row>
     <row r="53">
-      <c r="B53">
+      <c r="B53" s="11">
         <f>'By Round'!A75</f>
         <v/>
       </c>
-      <c r="C53">
+      <c r="C53" s="11">
         <f>'By Round'!B85</f>
         <v/>
       </c>
-      <c r="D53">
+      <c r="D53" s="11">
         <f>'By Round'!C85</f>
         <v/>
       </c>
-      <c r="E53">
+      <c r="E53" s="11">
         <f>'By Round'!D85</f>
         <v/>
       </c>
-      <c r="F53" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F53" s="11">
+        <f>IF(ISBLANK('By Round'!F85),"",'By Round'!F85)</f>
+        <v/>
       </c>
       <c r="G53">
         <f>IF(ISBLANK('By Round'!G85),"",'By Round'!G85)</f>
@@ -9099,26 +9048,25 @@
       </c>
     </row>
     <row r="54">
-      <c r="B54">
+      <c r="B54" s="11">
         <f>'By Round'!A87</f>
         <v/>
       </c>
-      <c r="C54">
+      <c r="C54" s="11">
         <f>'By Round'!B95</f>
         <v/>
       </c>
-      <c r="D54">
+      <c r="D54" s="11">
         <f>'By Round'!C95</f>
         <v/>
       </c>
-      <c r="E54">
+      <c r="E54" s="11">
         <f>'By Round'!D95</f>
         <v/>
       </c>
-      <c r="F54" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F54" s="11">
+        <f>IF(ISBLANK('By Round'!F95),"",'By Round'!F95)</f>
+        <v/>
       </c>
       <c r="G54">
         <f>IF(ISBLANK('By Round'!G95),"",'By Round'!G95)</f>
@@ -9254,26 +9202,25 @@
       </c>
     </row>
     <row r="55">
-      <c r="B55">
+      <c r="B55" s="11">
         <f>'By Round'!A99</f>
         <v/>
       </c>
-      <c r="C55">
+      <c r="C55" s="11">
         <f>'By Round'!B105</f>
         <v/>
       </c>
-      <c r="D55">
+      <c r="D55" s="11">
         <f>'By Round'!C105</f>
         <v/>
       </c>
-      <c r="E55">
+      <c r="E55" s="11">
         <f>'By Round'!D105</f>
         <v/>
       </c>
-      <c r="F55" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F55" s="11">
+        <f>IF(ISBLANK('By Round'!F105),"",'By Round'!F105)</f>
+        <v/>
       </c>
       <c r="G55">
         <f>IF(ISBLANK('By Round'!G105),"",'By Round'!G105)</f>
@@ -9410,26 +9357,25 @@
     </row>
     <row r="56">
       <c r="A56" s="15" t="n"/>
-      <c r="B56" s="15">
+      <c r="B56" s="16">
         <f>'By Round'!A123</f>
         <v/>
       </c>
-      <c r="C56" s="15">
+      <c r="C56" s="16">
         <f>'By Round'!B127</f>
         <v/>
       </c>
-      <c r="D56" s="15">
+      <c r="D56" s="16">
         <f>'By Round'!C127</f>
         <v/>
       </c>
-      <c r="E56" s="15">
+      <c r="E56" s="16">
         <f>'By Round'!D127</f>
         <v/>
       </c>
-      <c r="F56" s="16" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F56" s="16">
+        <f>IF(ISBLANK('By Round'!F127),"",'By Round'!F127)</f>
+        <v/>
       </c>
       <c r="G56" s="15">
         <f>IF(ISBLANK('By Round'!G127),"",'By Round'!G127)</f>
@@ -9565,48 +9511,47 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
+      <c r="A57" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="11">
         <f>'By Round'!A3</f>
         <v/>
       </c>
-      <c r="C57">
+      <c r="C57" s="11">
         <f>'By Round'!B5</f>
         <v/>
       </c>
-      <c r="D57">
+      <c r="D57" s="11">
         <f>'By Round'!C5</f>
         <v/>
       </c>
-      <c r="E57">
+      <c r="E57" s="11">
         <f>'By Round'!D5</f>
         <v/>
       </c>
-      <c r="F57" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F57" s="11">
+        <f>IF(ISBLANK('By Round'!F6),"",'By Round'!F6)</f>
+        <v/>
       </c>
       <c r="G57">
-        <f>IF(ISBLANK('By Round'!G5),"",'By Round'!G5)</f>
+        <f>IF(ISBLANK('By Round'!G6),"",'By Round'!G6)</f>
         <v/>
       </c>
       <c r="H57">
-        <f>IF(ISBLANK('By Round'!H5),"",'By Round'!H5)</f>
+        <f>IF(ISBLANK('By Round'!H6),"",'By Round'!H6)</f>
         <v/>
       </c>
       <c r="I57">
-        <f>IF(ISBLANK('By Round'!I5),"",'By Round'!I5)</f>
+        <f>IF(ISBLANK('By Round'!I6),"",'By Round'!I6)</f>
         <v/>
       </c>
       <c r="J57">
-        <f>IF(ISBLANK('By Round'!J5),"",'By Round'!J5)</f>
+        <f>IF(ISBLANK('By Round'!J6),"",'By Round'!J6)</f>
         <v/>
       </c>
       <c r="K57">
-        <f>IF(ISBLANK('By Round'!K5),"",'By Round'!K5)</f>
+        <f>IF(ISBLANK('By Round'!K6),"",'By Round'!K6)</f>
         <v/>
       </c>
       <c r="L57" s="12">
@@ -9723,45 +9668,44 @@
       </c>
     </row>
     <row r="58">
-      <c r="B58">
+      <c r="B58" s="11">
         <f>'By Round'!A51</f>
         <v/>
       </c>
-      <c r="C58">
+      <c r="C58" s="11">
         <f>'By Round'!B51</f>
         <v/>
       </c>
-      <c r="D58">
+      <c r="D58" s="11">
         <f>'By Round'!C51</f>
         <v/>
       </c>
-      <c r="E58">
+      <c r="E58" s="11">
         <f>'By Round'!D51</f>
         <v/>
       </c>
-      <c r="F58" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F58" s="11">
+        <f>IF(ISBLANK('By Round'!F52),"",'By Round'!F52)</f>
+        <v/>
       </c>
       <c r="G58">
-        <f>IF(ISBLANK('By Round'!G51),"",'By Round'!G51)</f>
+        <f>IF(ISBLANK('By Round'!G52),"",'By Round'!G52)</f>
         <v/>
       </c>
       <c r="H58">
-        <f>IF(ISBLANK('By Round'!H51),"",'By Round'!H51)</f>
+        <f>IF(ISBLANK('By Round'!H52),"",'By Round'!H52)</f>
         <v/>
       </c>
       <c r="I58">
-        <f>IF(ISBLANK('By Round'!I51),"",'By Round'!I51)</f>
+        <f>IF(ISBLANK('By Round'!I52),"",'By Round'!I52)</f>
         <v/>
       </c>
       <c r="J58">
-        <f>IF(ISBLANK('By Round'!J51),"",'By Round'!J51)</f>
+        <f>IF(ISBLANK('By Round'!J52),"",'By Round'!J52)</f>
         <v/>
       </c>
       <c r="K58">
-        <f>IF(ISBLANK('By Round'!K51),"",'By Round'!K51)</f>
+        <f>IF(ISBLANK('By Round'!K52),"",'By Round'!K52)</f>
         <v/>
       </c>
       <c r="L58" s="12">
@@ -9878,45 +9822,44 @@
       </c>
     </row>
     <row r="59">
-      <c r="B59">
+      <c r="B59" s="11">
         <f>'By Round'!A75</f>
         <v/>
       </c>
-      <c r="C59">
+      <c r="C59" s="11">
         <f>'By Round'!B85</f>
         <v/>
       </c>
-      <c r="D59">
+      <c r="D59" s="11">
         <f>'By Round'!C85</f>
         <v/>
       </c>
-      <c r="E59">
+      <c r="E59" s="11">
         <f>'By Round'!D85</f>
         <v/>
       </c>
-      <c r="F59" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F59" s="11">
+        <f>IF(ISBLANK('By Round'!F86),"",'By Round'!F86)</f>
+        <v/>
       </c>
       <c r="G59">
-        <f>IF(ISBLANK('By Round'!G85),"",'By Round'!G85)</f>
+        <f>IF(ISBLANK('By Round'!G86),"",'By Round'!G86)</f>
         <v/>
       </c>
       <c r="H59">
-        <f>IF(ISBLANK('By Round'!H85),"",'By Round'!H85)</f>
+        <f>IF(ISBLANK('By Round'!H86),"",'By Round'!H86)</f>
         <v/>
       </c>
       <c r="I59">
-        <f>IF(ISBLANK('By Round'!I85),"",'By Round'!I85)</f>
+        <f>IF(ISBLANK('By Round'!I86),"",'By Round'!I86)</f>
         <v/>
       </c>
       <c r="J59">
-        <f>IF(ISBLANK('By Round'!J85),"",'By Round'!J85)</f>
+        <f>IF(ISBLANK('By Round'!J86),"",'By Round'!J86)</f>
         <v/>
       </c>
       <c r="K59">
-        <f>IF(ISBLANK('By Round'!K85),"",'By Round'!K85)</f>
+        <f>IF(ISBLANK('By Round'!K86),"",'By Round'!K86)</f>
         <v/>
       </c>
       <c r="L59" s="12">
@@ -10033,45 +9976,44 @@
       </c>
     </row>
     <row r="60">
-      <c r="B60">
+      <c r="B60" s="11">
         <f>'By Round'!A87</f>
         <v/>
       </c>
-      <c r="C60">
+      <c r="C60" s="11">
         <f>'By Round'!B95</f>
         <v/>
       </c>
-      <c r="D60">
+      <c r="D60" s="11">
         <f>'By Round'!C95</f>
         <v/>
       </c>
-      <c r="E60">
+      <c r="E60" s="11">
         <f>'By Round'!D95</f>
         <v/>
       </c>
-      <c r="F60" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F60" s="11">
+        <f>IF(ISBLANK('By Round'!F96),"",'By Round'!F96)</f>
+        <v/>
       </c>
       <c r="G60">
-        <f>IF(ISBLANK('By Round'!G95),"",'By Round'!G95)</f>
+        <f>IF(ISBLANK('By Round'!G96),"",'By Round'!G96)</f>
         <v/>
       </c>
       <c r="H60">
-        <f>IF(ISBLANK('By Round'!H95),"",'By Round'!H95)</f>
+        <f>IF(ISBLANK('By Round'!H96),"",'By Round'!H96)</f>
         <v/>
       </c>
       <c r="I60">
-        <f>IF(ISBLANK('By Round'!I95),"",'By Round'!I95)</f>
+        <f>IF(ISBLANK('By Round'!I96),"",'By Round'!I96)</f>
         <v/>
       </c>
       <c r="J60">
-        <f>IF(ISBLANK('By Round'!J95),"",'By Round'!J95)</f>
+        <f>IF(ISBLANK('By Round'!J96),"",'By Round'!J96)</f>
         <v/>
       </c>
       <c r="K60">
-        <f>IF(ISBLANK('By Round'!K95),"",'By Round'!K95)</f>
+        <f>IF(ISBLANK('By Round'!K96),"",'By Round'!K96)</f>
         <v/>
       </c>
       <c r="L60" s="12">
@@ -10188,45 +10130,44 @@
       </c>
     </row>
     <row r="61">
-      <c r="B61">
+      <c r="B61" s="11">
         <f>'By Round'!A99</f>
         <v/>
       </c>
-      <c r="C61">
+      <c r="C61" s="11">
         <f>'By Round'!B105</f>
         <v/>
       </c>
-      <c r="D61">
+      <c r="D61" s="11">
         <f>'By Round'!C105</f>
         <v/>
       </c>
-      <c r="E61">
+      <c r="E61" s="11">
         <f>'By Round'!D105</f>
         <v/>
       </c>
-      <c r="F61" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F61" s="11">
+        <f>IF(ISBLANK('By Round'!F106),"",'By Round'!F106)</f>
+        <v/>
       </c>
       <c r="G61">
-        <f>IF(ISBLANK('By Round'!G105),"",'By Round'!G105)</f>
+        <f>IF(ISBLANK('By Round'!G106),"",'By Round'!G106)</f>
         <v/>
       </c>
       <c r="H61">
-        <f>IF(ISBLANK('By Round'!H105),"",'By Round'!H105)</f>
+        <f>IF(ISBLANK('By Round'!H106),"",'By Round'!H106)</f>
         <v/>
       </c>
       <c r="I61">
-        <f>IF(ISBLANK('By Round'!I105),"",'By Round'!I105)</f>
+        <f>IF(ISBLANK('By Round'!I106),"",'By Round'!I106)</f>
         <v/>
       </c>
       <c r="J61">
-        <f>IF(ISBLANK('By Round'!J105),"",'By Round'!J105)</f>
+        <f>IF(ISBLANK('By Round'!J106),"",'By Round'!J106)</f>
         <v/>
       </c>
       <c r="K61">
-        <f>IF(ISBLANK('By Round'!K105),"",'By Round'!K105)</f>
+        <f>IF(ISBLANK('By Round'!K106),"",'By Round'!K106)</f>
         <v/>
       </c>
       <c r="L61" s="12">
@@ -10344,45 +10285,44 @@
     </row>
     <row r="62">
       <c r="A62" s="15" t="n"/>
-      <c r="B62" s="15">
+      <c r="B62" s="16">
         <f>'By Round'!A123</f>
         <v/>
       </c>
-      <c r="C62" s="15">
+      <c r="C62" s="16">
         <f>'By Round'!B127</f>
         <v/>
       </c>
-      <c r="D62" s="15">
+      <c r="D62" s="16">
         <f>'By Round'!C127</f>
         <v/>
       </c>
-      <c r="E62" s="15">
+      <c r="E62" s="16">
         <f>'By Round'!D127</f>
         <v/>
       </c>
-      <c r="F62" s="16" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F62" s="16">
+        <f>IF(ISBLANK('By Round'!F128),"",'By Round'!F128)</f>
+        <v/>
       </c>
       <c r="G62" s="15">
-        <f>IF(ISBLANK('By Round'!G127),"",'By Round'!G127)</f>
+        <f>IF(ISBLANK('By Round'!G128),"",'By Round'!G128)</f>
         <v/>
       </c>
       <c r="H62" s="15">
-        <f>IF(ISBLANK('By Round'!H127),"",'By Round'!H127)</f>
+        <f>IF(ISBLANK('By Round'!H128),"",'By Round'!H128)</f>
         <v/>
       </c>
       <c r="I62" s="15">
-        <f>IF(ISBLANK('By Round'!I127),"",'By Round'!I127)</f>
+        <f>IF(ISBLANK('By Round'!I128),"",'By Round'!I128)</f>
         <v/>
       </c>
       <c r="J62" s="15">
-        <f>IF(ISBLANK('By Round'!J127),"",'By Round'!J127)</f>
+        <f>IF(ISBLANK('By Round'!J128),"",'By Round'!J128)</f>
         <v/>
       </c>
       <c r="K62" s="15">
-        <f>IF(ISBLANK('By Round'!K127),"",'By Round'!K127)</f>
+        <f>IF(ISBLANK('By Round'!K128),"",'By Round'!K128)</f>
         <v/>
       </c>
       <c r="L62" s="17">
@@ -10499,29 +10439,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="n">
+      <c r="A63" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="11">
         <f>'By Round'!A3</f>
         <v/>
       </c>
-      <c r="C63">
+      <c r="C63" s="11">
         <f>'By Round'!B7</f>
         <v/>
       </c>
-      <c r="D63">
+      <c r="D63" s="11">
         <f>'By Round'!C7</f>
         <v/>
       </c>
-      <c r="E63">
+      <c r="E63" s="11">
         <f>'By Round'!D7</f>
         <v/>
       </c>
-      <c r="F63" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F63" s="11">
+        <f>IF(ISBLANK('By Round'!F7),"",'By Round'!F7)</f>
+        <v/>
       </c>
       <c r="G63">
         <f>IF(ISBLANK('By Round'!G7),"",'By Round'!G7)</f>
@@ -10657,26 +10596,25 @@
       </c>
     </row>
     <row r="64">
-      <c r="B64">
+      <c r="B64" s="11">
         <f>'By Round'!A15</f>
         <v/>
       </c>
-      <c r="C64">
+      <c r="C64" s="11">
         <f>'By Round'!B17</f>
         <v/>
       </c>
-      <c r="D64">
+      <c r="D64" s="11">
         <f>'By Round'!C17</f>
         <v/>
       </c>
-      <c r="E64">
+      <c r="E64" s="11">
         <f>'By Round'!D17</f>
         <v/>
       </c>
-      <c r="F64" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F64" s="11">
+        <f>IF(ISBLANK('By Round'!F17),"",'By Round'!F17)</f>
+        <v/>
       </c>
       <c r="G64">
         <f>IF(ISBLANK('By Round'!G17),"",'By Round'!G17)</f>
@@ -10812,26 +10750,25 @@
       </c>
     </row>
     <row r="65">
-      <c r="B65">
+      <c r="B65" s="11">
         <f>'By Round'!A63</f>
         <v/>
       </c>
-      <c r="C65">
+      <c r="C65" s="11">
         <f>'By Round'!B63</f>
         <v/>
       </c>
-      <c r="D65">
+      <c r="D65" s="11">
         <f>'By Round'!C63</f>
         <v/>
       </c>
-      <c r="E65">
+      <c r="E65" s="11">
         <f>'By Round'!D63</f>
         <v/>
       </c>
-      <c r="F65" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F65" s="11">
+        <f>IF(ISBLANK('By Round'!F63),"",'By Round'!F63)</f>
+        <v/>
       </c>
       <c r="G65">
         <f>IF(ISBLANK('By Round'!G63),"",'By Round'!G63)</f>
@@ -10967,26 +10904,25 @@
       </c>
     </row>
     <row r="66">
-      <c r="B66">
+      <c r="B66" s="11">
         <f>'By Round'!A87</f>
         <v/>
       </c>
-      <c r="C66">
+      <c r="C66" s="11">
         <f>'By Round'!B97</f>
         <v/>
       </c>
-      <c r="D66">
+      <c r="D66" s="11">
         <f>'By Round'!C97</f>
         <v/>
       </c>
-      <c r="E66">
+      <c r="E66" s="11">
         <f>'By Round'!D97</f>
         <v/>
       </c>
-      <c r="F66" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F66" s="11">
+        <f>IF(ISBLANK('By Round'!F97),"",'By Round'!F97)</f>
+        <v/>
       </c>
       <c r="G66">
         <f>IF(ISBLANK('By Round'!G97),"",'By Round'!G97)</f>
@@ -11122,26 +11058,25 @@
       </c>
     </row>
     <row r="67">
-      <c r="B67">
+      <c r="B67" s="11">
         <f>'By Round'!A99</f>
         <v/>
       </c>
-      <c r="C67">
+      <c r="C67" s="11">
         <f>'By Round'!B107</f>
         <v/>
       </c>
-      <c r="D67">
+      <c r="D67" s="11">
         <f>'By Round'!C107</f>
         <v/>
       </c>
-      <c r="E67">
+      <c r="E67" s="11">
         <f>'By Round'!D107</f>
         <v/>
       </c>
-      <c r="F67" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F67" s="11">
+        <f>IF(ISBLANK('By Round'!F107),"",'By Round'!F107)</f>
+        <v/>
       </c>
       <c r="G67">
         <f>IF(ISBLANK('By Round'!G107),"",'By Round'!G107)</f>
@@ -11278,26 +11213,25 @@
     </row>
     <row r="68">
       <c r="A68" s="15" t="n"/>
-      <c r="B68" s="15">
+      <c r="B68" s="16">
         <f>'By Round'!A111</f>
         <v/>
       </c>
-      <c r="C68" s="15">
+      <c r="C68" s="16">
         <f>'By Round'!B117</f>
         <v/>
       </c>
-      <c r="D68" s="15">
+      <c r="D68" s="16">
         <f>'By Round'!C117</f>
         <v/>
       </c>
-      <c r="E68" s="15">
+      <c r="E68" s="16">
         <f>'By Round'!D117</f>
         <v/>
       </c>
-      <c r="F68" s="16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F68" s="16">
+        <f>IF(ISBLANK('By Round'!F117),"",'By Round'!F117)</f>
+        <v/>
       </c>
       <c r="G68" s="15">
         <f>IF(ISBLANK('By Round'!G117),"",'By Round'!G117)</f>
@@ -11433,48 +11367,47 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="n">
+      <c r="A69" s="11" t="n">
         <v>12</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="11">
         <f>'By Round'!A3</f>
         <v/>
       </c>
-      <c r="C69">
+      <c r="C69" s="11">
         <f>'By Round'!B7</f>
         <v/>
       </c>
-      <c r="D69">
+      <c r="D69" s="11">
         <f>'By Round'!C7</f>
         <v/>
       </c>
-      <c r="E69">
+      <c r="E69" s="11">
         <f>'By Round'!D7</f>
         <v/>
       </c>
-      <c r="F69" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F69" s="11">
+        <f>IF(ISBLANK('By Round'!F8),"",'By Round'!F8)</f>
+        <v/>
       </c>
       <c r="G69">
-        <f>IF(ISBLANK('By Round'!G7),"",'By Round'!G7)</f>
+        <f>IF(ISBLANK('By Round'!G8),"",'By Round'!G8)</f>
         <v/>
       </c>
       <c r="H69">
-        <f>IF(ISBLANK('By Round'!H7),"",'By Round'!H7)</f>
+        <f>IF(ISBLANK('By Round'!H8),"",'By Round'!H8)</f>
         <v/>
       </c>
       <c r="I69">
-        <f>IF(ISBLANK('By Round'!I7),"",'By Round'!I7)</f>
+        <f>IF(ISBLANK('By Round'!I8),"",'By Round'!I8)</f>
         <v/>
       </c>
       <c r="J69">
-        <f>IF(ISBLANK('By Round'!J7),"",'By Round'!J7)</f>
+        <f>IF(ISBLANK('By Round'!J8),"",'By Round'!J8)</f>
         <v/>
       </c>
       <c r="K69">
-        <f>IF(ISBLANK('By Round'!K7),"",'By Round'!K7)</f>
+        <f>IF(ISBLANK('By Round'!K8),"",'By Round'!K8)</f>
         <v/>
       </c>
       <c r="L69" s="12">
@@ -11591,45 +11524,44 @@
       </c>
     </row>
     <row r="70">
-      <c r="B70">
+      <c r="B70" s="11">
         <f>'By Round'!A15</f>
         <v/>
       </c>
-      <c r="C70">
+      <c r="C70" s="11">
         <f>'By Round'!B17</f>
         <v/>
       </c>
-      <c r="D70">
+      <c r="D70" s="11">
         <f>'By Round'!C17</f>
         <v/>
       </c>
-      <c r="E70">
+      <c r="E70" s="11">
         <f>'By Round'!D17</f>
         <v/>
       </c>
-      <c r="F70" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F70" s="11">
+        <f>IF(ISBLANK('By Round'!F18),"",'By Round'!F18)</f>
+        <v/>
       </c>
       <c r="G70">
-        <f>IF(ISBLANK('By Round'!G17),"",'By Round'!G17)</f>
+        <f>IF(ISBLANK('By Round'!G18),"",'By Round'!G18)</f>
         <v/>
       </c>
       <c r="H70">
-        <f>IF(ISBLANK('By Round'!H17),"",'By Round'!H17)</f>
+        <f>IF(ISBLANK('By Round'!H18),"",'By Round'!H18)</f>
         <v/>
       </c>
       <c r="I70">
-        <f>IF(ISBLANK('By Round'!I17),"",'By Round'!I17)</f>
+        <f>IF(ISBLANK('By Round'!I18),"",'By Round'!I18)</f>
         <v/>
       </c>
       <c r="J70">
-        <f>IF(ISBLANK('By Round'!J17),"",'By Round'!J17)</f>
+        <f>IF(ISBLANK('By Round'!J18),"",'By Round'!J18)</f>
         <v/>
       </c>
       <c r="K70">
-        <f>IF(ISBLANK('By Round'!K17),"",'By Round'!K17)</f>
+        <f>IF(ISBLANK('By Round'!K18),"",'By Round'!K18)</f>
         <v/>
       </c>
       <c r="L70" s="12">
@@ -11746,45 +11678,44 @@
       </c>
     </row>
     <row r="71">
-      <c r="B71">
+      <c r="B71" s="11">
         <f>'By Round'!A63</f>
         <v/>
       </c>
-      <c r="C71">
+      <c r="C71" s="11">
         <f>'By Round'!B63</f>
         <v/>
       </c>
-      <c r="D71">
+      <c r="D71" s="11">
         <f>'By Round'!C63</f>
         <v/>
       </c>
-      <c r="E71">
+      <c r="E71" s="11">
         <f>'By Round'!D63</f>
         <v/>
       </c>
-      <c r="F71" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F71" s="11">
+        <f>IF(ISBLANK('By Round'!F64),"",'By Round'!F64)</f>
+        <v/>
       </c>
       <c r="G71">
-        <f>IF(ISBLANK('By Round'!G63),"",'By Round'!G63)</f>
+        <f>IF(ISBLANK('By Round'!G64),"",'By Round'!G64)</f>
         <v/>
       </c>
       <c r="H71">
-        <f>IF(ISBLANK('By Round'!H63),"",'By Round'!H63)</f>
+        <f>IF(ISBLANK('By Round'!H64),"",'By Round'!H64)</f>
         <v/>
       </c>
       <c r="I71">
-        <f>IF(ISBLANK('By Round'!I63),"",'By Round'!I63)</f>
+        <f>IF(ISBLANK('By Round'!I64),"",'By Round'!I64)</f>
         <v/>
       </c>
       <c r="J71">
-        <f>IF(ISBLANK('By Round'!J63),"",'By Round'!J63)</f>
+        <f>IF(ISBLANK('By Round'!J64),"",'By Round'!J64)</f>
         <v/>
       </c>
       <c r="K71">
-        <f>IF(ISBLANK('By Round'!K63),"",'By Round'!K63)</f>
+        <f>IF(ISBLANK('By Round'!K64),"",'By Round'!K64)</f>
         <v/>
       </c>
       <c r="L71" s="12">
@@ -11901,45 +11832,44 @@
       </c>
     </row>
     <row r="72">
-      <c r="B72">
+      <c r="B72" s="11">
         <f>'By Round'!A87</f>
         <v/>
       </c>
-      <c r="C72">
+      <c r="C72" s="11">
         <f>'By Round'!B97</f>
         <v/>
       </c>
-      <c r="D72">
+      <c r="D72" s="11">
         <f>'By Round'!C97</f>
         <v/>
       </c>
-      <c r="E72">
+      <c r="E72" s="11">
         <f>'By Round'!D97</f>
         <v/>
       </c>
-      <c r="F72" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F72" s="11">
+        <f>IF(ISBLANK('By Round'!F98),"",'By Round'!F98)</f>
+        <v/>
       </c>
       <c r="G72">
-        <f>IF(ISBLANK('By Round'!G97),"",'By Round'!G97)</f>
+        <f>IF(ISBLANK('By Round'!G98),"",'By Round'!G98)</f>
         <v/>
       </c>
       <c r="H72">
-        <f>IF(ISBLANK('By Round'!H97),"",'By Round'!H97)</f>
+        <f>IF(ISBLANK('By Round'!H98),"",'By Round'!H98)</f>
         <v/>
       </c>
       <c r="I72">
-        <f>IF(ISBLANK('By Round'!I97),"",'By Round'!I97)</f>
+        <f>IF(ISBLANK('By Round'!I98),"",'By Round'!I98)</f>
         <v/>
       </c>
       <c r="J72">
-        <f>IF(ISBLANK('By Round'!J97),"",'By Round'!J97)</f>
+        <f>IF(ISBLANK('By Round'!J98),"",'By Round'!J98)</f>
         <v/>
       </c>
       <c r="K72">
-        <f>IF(ISBLANK('By Round'!K97),"",'By Round'!K97)</f>
+        <f>IF(ISBLANK('By Round'!K98),"",'By Round'!K98)</f>
         <v/>
       </c>
       <c r="L72" s="12">
@@ -12056,45 +11986,44 @@
       </c>
     </row>
     <row r="73">
-      <c r="B73">
+      <c r="B73" s="11">
         <f>'By Round'!A99</f>
         <v/>
       </c>
-      <c r="C73">
+      <c r="C73" s="11">
         <f>'By Round'!B107</f>
         <v/>
       </c>
-      <c r="D73">
+      <c r="D73" s="11">
         <f>'By Round'!C107</f>
         <v/>
       </c>
-      <c r="E73">
+      <c r="E73" s="11">
         <f>'By Round'!D107</f>
         <v/>
       </c>
-      <c r="F73" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F73" s="11">
+        <f>IF(ISBLANK('By Round'!F108),"",'By Round'!F108)</f>
+        <v/>
       </c>
       <c r="G73">
-        <f>IF(ISBLANK('By Round'!G107),"",'By Round'!G107)</f>
+        <f>IF(ISBLANK('By Round'!G108),"",'By Round'!G108)</f>
         <v/>
       </c>
       <c r="H73">
-        <f>IF(ISBLANK('By Round'!H107),"",'By Round'!H107)</f>
+        <f>IF(ISBLANK('By Round'!H108),"",'By Round'!H108)</f>
         <v/>
       </c>
       <c r="I73">
-        <f>IF(ISBLANK('By Round'!I107),"",'By Round'!I107)</f>
+        <f>IF(ISBLANK('By Round'!I108),"",'By Round'!I108)</f>
         <v/>
       </c>
       <c r="J73">
-        <f>IF(ISBLANK('By Round'!J107),"",'By Round'!J107)</f>
+        <f>IF(ISBLANK('By Round'!J108),"",'By Round'!J108)</f>
         <v/>
       </c>
       <c r="K73">
-        <f>IF(ISBLANK('By Round'!K107),"",'By Round'!K107)</f>
+        <f>IF(ISBLANK('By Round'!K108),"",'By Round'!K108)</f>
         <v/>
       </c>
       <c r="L73" s="12">
@@ -12212,45 +12141,44 @@
     </row>
     <row r="74">
       <c r="A74" s="15" t="n"/>
-      <c r="B74" s="15">
+      <c r="B74" s="16">
         <f>'By Round'!A111</f>
         <v/>
       </c>
-      <c r="C74" s="15">
+      <c r="C74" s="16">
         <f>'By Round'!B117</f>
         <v/>
       </c>
-      <c r="D74" s="15">
+      <c r="D74" s="16">
         <f>'By Round'!C117</f>
         <v/>
       </c>
-      <c r="E74" s="15">
+      <c r="E74" s="16">
         <f>'By Round'!D117</f>
         <v/>
       </c>
-      <c r="F74" s="16" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F74" s="16">
+        <f>IF(ISBLANK('By Round'!F118),"",'By Round'!F118)</f>
+        <v/>
       </c>
       <c r="G74" s="15">
-        <f>IF(ISBLANK('By Round'!G117),"",'By Round'!G117)</f>
+        <f>IF(ISBLANK('By Round'!G118),"",'By Round'!G118)</f>
         <v/>
       </c>
       <c r="H74" s="15">
-        <f>IF(ISBLANK('By Round'!H117),"",'By Round'!H117)</f>
+        <f>IF(ISBLANK('By Round'!H118),"",'By Round'!H118)</f>
         <v/>
       </c>
       <c r="I74" s="15">
-        <f>IF(ISBLANK('By Round'!I117),"",'By Round'!I117)</f>
+        <f>IF(ISBLANK('By Round'!I118),"",'By Round'!I118)</f>
         <v/>
       </c>
       <c r="J74" s="15">
-        <f>IF(ISBLANK('By Round'!J117),"",'By Round'!J117)</f>
+        <f>IF(ISBLANK('By Round'!J118),"",'By Round'!J118)</f>
         <v/>
       </c>
       <c r="K74" s="15">
-        <f>IF(ISBLANK('By Round'!K117),"",'By Round'!K117)</f>
+        <f>IF(ISBLANK('By Round'!K118),"",'By Round'!K118)</f>
         <v/>
       </c>
       <c r="L74" s="17">
@@ -12367,29 +12295,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="n">
+      <c r="A75" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="11">
         <f>'By Round'!A15</f>
         <v/>
       </c>
-      <c r="C75">
+      <c r="C75" s="11">
         <f>'By Round'!B19</f>
         <v/>
       </c>
-      <c r="D75">
+      <c r="D75" s="11">
         <f>'By Round'!C19</f>
         <v/>
       </c>
-      <c r="E75">
+      <c r="E75" s="11">
         <f>'By Round'!D19</f>
         <v/>
       </c>
-      <c r="F75" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F75" s="11">
+        <f>IF(ISBLANK('By Round'!F19),"",'By Round'!F19)</f>
+        <v/>
       </c>
       <c r="G75">
         <f>IF(ISBLANK('By Round'!G19),"",'By Round'!G19)</f>
@@ -12525,26 +12452,25 @@
       </c>
     </row>
     <row r="76">
-      <c r="B76">
+      <c r="B76" s="11">
         <f>'By Round'!A27</f>
         <v/>
       </c>
-      <c r="C76">
+      <c r="C76" s="11">
         <f>'By Round'!B29</f>
         <v/>
       </c>
-      <c r="D76">
+      <c r="D76" s="11">
         <f>'By Round'!C29</f>
         <v/>
       </c>
-      <c r="E76">
+      <c r="E76" s="11">
         <f>'By Round'!D29</f>
         <v/>
       </c>
-      <c r="F76" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F76" s="11">
+        <f>IF(ISBLANK('By Round'!F29),"",'By Round'!F29)</f>
+        <v/>
       </c>
       <c r="G76">
         <f>IF(ISBLANK('By Round'!G29),"",'By Round'!G29)</f>
@@ -12680,26 +12606,25 @@
       </c>
     </row>
     <row r="77">
-      <c r="B77">
+      <c r="B77" s="11">
         <f>'By Round'!A75</f>
         <v/>
       </c>
-      <c r="C77">
+      <c r="C77" s="11">
         <f>'By Round'!B75</f>
         <v/>
       </c>
-      <c r="D77">
+      <c r="D77" s="11">
         <f>'By Round'!C75</f>
         <v/>
       </c>
-      <c r="E77">
+      <c r="E77" s="11">
         <f>'By Round'!D75</f>
         <v/>
       </c>
-      <c r="F77" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F77" s="11">
+        <f>IF(ISBLANK('By Round'!F75),"",'By Round'!F75)</f>
+        <v/>
       </c>
       <c r="G77">
         <f>IF(ISBLANK('By Round'!G75),"",'By Round'!G75)</f>
@@ -12835,26 +12760,25 @@
       </c>
     </row>
     <row r="78">
-      <c r="B78">
+      <c r="B78" s="11">
         <f>'By Round'!A99</f>
         <v/>
       </c>
-      <c r="C78">
+      <c r="C78" s="11">
         <f>'By Round'!B109</f>
         <v/>
       </c>
-      <c r="D78">
+      <c r="D78" s="11">
         <f>'By Round'!C109</f>
         <v/>
       </c>
-      <c r="E78">
+      <c r="E78" s="11">
         <f>'By Round'!D109</f>
         <v/>
       </c>
-      <c r="F78" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F78" s="11">
+        <f>IF(ISBLANK('By Round'!F109),"",'By Round'!F109)</f>
+        <v/>
       </c>
       <c r="G78">
         <f>IF(ISBLANK('By Round'!G109),"",'By Round'!G109)</f>
@@ -12990,26 +12914,25 @@
       </c>
     </row>
     <row r="79">
-      <c r="B79">
+      <c r="B79" s="11">
         <f>'By Round'!A111</f>
         <v/>
       </c>
-      <c r="C79">
+      <c r="C79" s="11">
         <f>'By Round'!B119</f>
         <v/>
       </c>
-      <c r="D79">
+      <c r="D79" s="11">
         <f>'By Round'!C119</f>
         <v/>
       </c>
-      <c r="E79">
+      <c r="E79" s="11">
         <f>'By Round'!D119</f>
         <v/>
       </c>
-      <c r="F79" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F79" s="11">
+        <f>IF(ISBLANK('By Round'!F119),"",'By Round'!F119)</f>
+        <v/>
       </c>
       <c r="G79">
         <f>IF(ISBLANK('By Round'!G119),"",'By Round'!G119)</f>
@@ -13146,26 +13069,25 @@
     </row>
     <row r="80">
       <c r="A80" s="15" t="n"/>
-      <c r="B80" s="15">
+      <c r="B80" s="16">
         <f>'By Round'!A123</f>
         <v/>
       </c>
-      <c r="C80" s="15">
+      <c r="C80" s="16">
         <f>'By Round'!B129</f>
         <v/>
       </c>
-      <c r="D80" s="15">
+      <c r="D80" s="16">
         <f>'By Round'!C129</f>
         <v/>
       </c>
-      <c r="E80" s="15">
+      <c r="E80" s="16">
         <f>'By Round'!D129</f>
         <v/>
       </c>
-      <c r="F80" s="16" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F80" s="16">
+        <f>IF(ISBLANK('By Round'!F129),"",'By Round'!F129)</f>
+        <v/>
       </c>
       <c r="G80" s="15">
         <f>IF(ISBLANK('By Round'!G129),"",'By Round'!G129)</f>
@@ -13301,48 +13223,47 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="n">
+      <c r="A81" s="11" t="n">
         <v>14</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="11">
         <f>'By Round'!A15</f>
         <v/>
       </c>
-      <c r="C81">
+      <c r="C81" s="11">
         <f>'By Round'!B19</f>
         <v/>
       </c>
-      <c r="D81">
+      <c r="D81" s="11">
         <f>'By Round'!C19</f>
         <v/>
       </c>
-      <c r="E81">
+      <c r="E81" s="11">
         <f>'By Round'!D19</f>
         <v/>
       </c>
-      <c r="F81" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F81" s="11">
+        <f>IF(ISBLANK('By Round'!F20),"",'By Round'!F20)</f>
+        <v/>
       </c>
       <c r="G81">
-        <f>IF(ISBLANK('By Round'!G19),"",'By Round'!G19)</f>
+        <f>IF(ISBLANK('By Round'!G20),"",'By Round'!G20)</f>
         <v/>
       </c>
       <c r="H81">
-        <f>IF(ISBLANK('By Round'!H19),"",'By Round'!H19)</f>
+        <f>IF(ISBLANK('By Round'!H20),"",'By Round'!H20)</f>
         <v/>
       </c>
       <c r="I81">
-        <f>IF(ISBLANK('By Round'!I19),"",'By Round'!I19)</f>
+        <f>IF(ISBLANK('By Round'!I20),"",'By Round'!I20)</f>
         <v/>
       </c>
       <c r="J81">
-        <f>IF(ISBLANK('By Round'!J19),"",'By Round'!J19)</f>
+        <f>IF(ISBLANK('By Round'!J20),"",'By Round'!J20)</f>
         <v/>
       </c>
       <c r="K81">
-        <f>IF(ISBLANK('By Round'!K19),"",'By Round'!K19)</f>
+        <f>IF(ISBLANK('By Round'!K20),"",'By Round'!K20)</f>
         <v/>
       </c>
       <c r="L81" s="12">
@@ -13459,45 +13380,44 @@
       </c>
     </row>
     <row r="82">
-      <c r="B82">
+      <c r="B82" s="11">
         <f>'By Round'!A27</f>
         <v/>
       </c>
-      <c r="C82">
+      <c r="C82" s="11">
         <f>'By Round'!B29</f>
         <v/>
       </c>
-      <c r="D82">
+      <c r="D82" s="11">
         <f>'By Round'!C29</f>
         <v/>
       </c>
-      <c r="E82">
+      <c r="E82" s="11">
         <f>'By Round'!D29</f>
         <v/>
       </c>
-      <c r="F82" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F82" s="11">
+        <f>IF(ISBLANK('By Round'!F30),"",'By Round'!F30)</f>
+        <v/>
       </c>
       <c r="G82">
-        <f>IF(ISBLANK('By Round'!G29),"",'By Round'!G29)</f>
+        <f>IF(ISBLANK('By Round'!G30),"",'By Round'!G30)</f>
         <v/>
       </c>
       <c r="H82">
-        <f>IF(ISBLANK('By Round'!H29),"",'By Round'!H29)</f>
+        <f>IF(ISBLANK('By Round'!H30),"",'By Round'!H30)</f>
         <v/>
       </c>
       <c r="I82">
-        <f>IF(ISBLANK('By Round'!I29),"",'By Round'!I29)</f>
+        <f>IF(ISBLANK('By Round'!I30),"",'By Round'!I30)</f>
         <v/>
       </c>
       <c r="J82">
-        <f>IF(ISBLANK('By Round'!J29),"",'By Round'!J29)</f>
+        <f>IF(ISBLANK('By Round'!J30),"",'By Round'!J30)</f>
         <v/>
       </c>
       <c r="K82">
-        <f>IF(ISBLANK('By Round'!K29),"",'By Round'!K29)</f>
+        <f>IF(ISBLANK('By Round'!K30),"",'By Round'!K30)</f>
         <v/>
       </c>
       <c r="L82" s="12">
@@ -13614,45 +13534,44 @@
       </c>
     </row>
     <row r="83">
-      <c r="B83">
+      <c r="B83" s="11">
         <f>'By Round'!A75</f>
         <v/>
       </c>
-      <c r="C83">
+      <c r="C83" s="11">
         <f>'By Round'!B75</f>
         <v/>
       </c>
-      <c r="D83">
+      <c r="D83" s="11">
         <f>'By Round'!C75</f>
         <v/>
       </c>
-      <c r="E83">
+      <c r="E83" s="11">
         <f>'By Round'!D75</f>
         <v/>
       </c>
-      <c r="F83" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F83" s="11">
+        <f>IF(ISBLANK('By Round'!F76),"",'By Round'!F76)</f>
+        <v/>
       </c>
       <c r="G83">
-        <f>IF(ISBLANK('By Round'!G75),"",'By Round'!G75)</f>
+        <f>IF(ISBLANK('By Round'!G76),"",'By Round'!G76)</f>
         <v/>
       </c>
       <c r="H83">
-        <f>IF(ISBLANK('By Round'!H75),"",'By Round'!H75)</f>
+        <f>IF(ISBLANK('By Round'!H76),"",'By Round'!H76)</f>
         <v/>
       </c>
       <c r="I83">
-        <f>IF(ISBLANK('By Round'!I75),"",'By Round'!I75)</f>
+        <f>IF(ISBLANK('By Round'!I76),"",'By Round'!I76)</f>
         <v/>
       </c>
       <c r="J83">
-        <f>IF(ISBLANK('By Round'!J75),"",'By Round'!J75)</f>
+        <f>IF(ISBLANK('By Round'!J76),"",'By Round'!J76)</f>
         <v/>
       </c>
       <c r="K83">
-        <f>IF(ISBLANK('By Round'!K75),"",'By Round'!K75)</f>
+        <f>IF(ISBLANK('By Round'!K76),"",'By Round'!K76)</f>
         <v/>
       </c>
       <c r="L83" s="12">
@@ -13769,45 +13688,44 @@
       </c>
     </row>
     <row r="84">
-      <c r="B84">
+      <c r="B84" s="11">
         <f>'By Round'!A99</f>
         <v/>
       </c>
-      <c r="C84">
+      <c r="C84" s="11">
         <f>'By Round'!B109</f>
         <v/>
       </c>
-      <c r="D84">
+      <c r="D84" s="11">
         <f>'By Round'!C109</f>
         <v/>
       </c>
-      <c r="E84">
+      <c r="E84" s="11">
         <f>'By Round'!D109</f>
         <v/>
       </c>
-      <c r="F84" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F84" s="11">
+        <f>IF(ISBLANK('By Round'!F110),"",'By Round'!F110)</f>
+        <v/>
       </c>
       <c r="G84">
-        <f>IF(ISBLANK('By Round'!G109),"",'By Round'!G109)</f>
+        <f>IF(ISBLANK('By Round'!G110),"",'By Round'!G110)</f>
         <v/>
       </c>
       <c r="H84">
-        <f>IF(ISBLANK('By Round'!H109),"",'By Round'!H109)</f>
+        <f>IF(ISBLANK('By Round'!H110),"",'By Round'!H110)</f>
         <v/>
       </c>
       <c r="I84">
-        <f>IF(ISBLANK('By Round'!I109),"",'By Round'!I109)</f>
+        <f>IF(ISBLANK('By Round'!I110),"",'By Round'!I110)</f>
         <v/>
       </c>
       <c r="J84">
-        <f>IF(ISBLANK('By Round'!J109),"",'By Round'!J109)</f>
+        <f>IF(ISBLANK('By Round'!J110),"",'By Round'!J110)</f>
         <v/>
       </c>
       <c r="K84">
-        <f>IF(ISBLANK('By Round'!K109),"",'By Round'!K109)</f>
+        <f>IF(ISBLANK('By Round'!K110),"",'By Round'!K110)</f>
         <v/>
       </c>
       <c r="L84" s="12">
@@ -13924,45 +13842,44 @@
       </c>
     </row>
     <row r="85">
-      <c r="B85">
+      <c r="B85" s="11">
         <f>'By Round'!A111</f>
         <v/>
       </c>
-      <c r="C85">
+      <c r="C85" s="11">
         <f>'By Round'!B119</f>
         <v/>
       </c>
-      <c r="D85">
+      <c r="D85" s="11">
         <f>'By Round'!C119</f>
         <v/>
       </c>
-      <c r="E85">
+      <c r="E85" s="11">
         <f>'By Round'!D119</f>
         <v/>
       </c>
-      <c r="F85" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F85" s="11">
+        <f>IF(ISBLANK('By Round'!F120),"",'By Round'!F120)</f>
+        <v/>
       </c>
       <c r="G85">
-        <f>IF(ISBLANK('By Round'!G119),"",'By Round'!G119)</f>
+        <f>IF(ISBLANK('By Round'!G120),"",'By Round'!G120)</f>
         <v/>
       </c>
       <c r="H85">
-        <f>IF(ISBLANK('By Round'!H119),"",'By Round'!H119)</f>
+        <f>IF(ISBLANK('By Round'!H120),"",'By Round'!H120)</f>
         <v/>
       </c>
       <c r="I85">
-        <f>IF(ISBLANK('By Round'!I119),"",'By Round'!I119)</f>
+        <f>IF(ISBLANK('By Round'!I120),"",'By Round'!I120)</f>
         <v/>
       </c>
       <c r="J85">
-        <f>IF(ISBLANK('By Round'!J119),"",'By Round'!J119)</f>
+        <f>IF(ISBLANK('By Round'!J120),"",'By Round'!J120)</f>
         <v/>
       </c>
       <c r="K85">
-        <f>IF(ISBLANK('By Round'!K119),"",'By Round'!K119)</f>
+        <f>IF(ISBLANK('By Round'!K120),"",'By Round'!K120)</f>
         <v/>
       </c>
       <c r="L85" s="12">
@@ -14080,45 +13997,44 @@
     </row>
     <row r="86">
       <c r="A86" s="15" t="n"/>
-      <c r="B86" s="15">
+      <c r="B86" s="16">
         <f>'By Round'!A123</f>
         <v/>
       </c>
-      <c r="C86" s="15">
+      <c r="C86" s="16">
         <f>'By Round'!B129</f>
         <v/>
       </c>
-      <c r="D86" s="15">
+      <c r="D86" s="16">
         <f>'By Round'!C129</f>
         <v/>
       </c>
-      <c r="E86" s="15">
+      <c r="E86" s="16">
         <f>'By Round'!D129</f>
         <v/>
       </c>
-      <c r="F86" s="16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F86" s="16">
+        <f>IF(ISBLANK('By Round'!F130),"",'By Round'!F130)</f>
+        <v/>
       </c>
       <c r="G86" s="15">
-        <f>IF(ISBLANK('By Round'!G129),"",'By Round'!G129)</f>
+        <f>IF(ISBLANK('By Round'!G130),"",'By Round'!G130)</f>
         <v/>
       </c>
       <c r="H86" s="15">
-        <f>IF(ISBLANK('By Round'!H129),"",'By Round'!H129)</f>
+        <f>IF(ISBLANK('By Round'!H130),"",'By Round'!H130)</f>
         <v/>
       </c>
       <c r="I86" s="15">
-        <f>IF(ISBLANK('By Round'!I129),"",'By Round'!I129)</f>
+        <f>IF(ISBLANK('By Round'!I130),"",'By Round'!I130)</f>
         <v/>
       </c>
       <c r="J86" s="15">
-        <f>IF(ISBLANK('By Round'!J129),"",'By Round'!J129)</f>
+        <f>IF(ISBLANK('By Round'!J130),"",'By Round'!J130)</f>
         <v/>
       </c>
       <c r="K86" s="15">
-        <f>IF(ISBLANK('By Round'!K129),"",'By Round'!K129)</f>
+        <f>IF(ISBLANK('By Round'!K130),"",'By Round'!K130)</f>
         <v/>
       </c>
       <c r="L86" s="17">
@@ -14235,29 +14151,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="n">
+      <c r="A87" s="11" t="n">
         <v>15</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="11">
         <f>'By Round'!A3</f>
         <v/>
       </c>
-      <c r="C87">
+      <c r="C87" s="11">
         <f>'By Round'!B9</f>
         <v/>
       </c>
-      <c r="D87">
+      <c r="D87" s="11">
         <f>'By Round'!C9</f>
         <v/>
       </c>
-      <c r="E87">
+      <c r="E87" s="11">
         <f>'By Round'!D9</f>
         <v/>
       </c>
-      <c r="F87" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F87" s="11">
+        <f>IF(ISBLANK('By Round'!F9),"",'By Round'!F9)</f>
+        <v/>
       </c>
       <c r="G87">
         <f>IF(ISBLANK('By Round'!G9),"",'By Round'!G9)</f>
@@ -14393,26 +14308,25 @@
       </c>
     </row>
     <row r="88">
-      <c r="B88">
+      <c r="B88" s="11">
         <f>'By Round'!A27</f>
         <v/>
       </c>
-      <c r="C88">
+      <c r="C88" s="11">
         <f>'By Round'!B31</f>
         <v/>
       </c>
-      <c r="D88">
+      <c r="D88" s="11">
         <f>'By Round'!C31</f>
         <v/>
       </c>
-      <c r="E88">
+      <c r="E88" s="11">
         <f>'By Round'!D31</f>
         <v/>
       </c>
-      <c r="F88" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F88" s="11">
+        <f>IF(ISBLANK('By Round'!F31),"",'By Round'!F31)</f>
+        <v/>
       </c>
       <c r="G88">
         <f>IF(ISBLANK('By Round'!G31),"",'By Round'!G31)</f>
@@ -14548,26 +14462,25 @@
       </c>
     </row>
     <row r="89">
-      <c r="B89">
+      <c r="B89" s="11">
         <f>'By Round'!A39</f>
         <v/>
       </c>
-      <c r="C89">
+      <c r="C89" s="11">
         <f>'By Round'!B41</f>
         <v/>
       </c>
-      <c r="D89">
+      <c r="D89" s="11">
         <f>'By Round'!C41</f>
         <v/>
       </c>
-      <c r="E89">
+      <c r="E89" s="11">
         <f>'By Round'!D41</f>
         <v/>
       </c>
-      <c r="F89" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F89" s="11">
+        <f>IF(ISBLANK('By Round'!F41),"",'By Round'!F41)</f>
+        <v/>
       </c>
       <c r="G89">
         <f>IF(ISBLANK('By Round'!G41),"",'By Round'!G41)</f>
@@ -14703,26 +14616,25 @@
       </c>
     </row>
     <row r="90">
-      <c r="B90">
+      <c r="B90" s="11">
         <f>'By Round'!A87</f>
         <v/>
       </c>
-      <c r="C90">
+      <c r="C90" s="11">
         <f>'By Round'!B87</f>
         <v/>
       </c>
-      <c r="D90">
+      <c r="D90" s="11">
         <f>'By Round'!C87</f>
         <v/>
       </c>
-      <c r="E90">
+      <c r="E90" s="11">
         <f>'By Round'!D87</f>
         <v/>
       </c>
-      <c r="F90" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F90" s="11">
+        <f>IF(ISBLANK('By Round'!F87),"",'By Round'!F87)</f>
+        <v/>
       </c>
       <c r="G90">
         <f>IF(ISBLANK('By Round'!G87),"",'By Round'!G87)</f>
@@ -14858,26 +14770,25 @@
       </c>
     </row>
     <row r="91">
-      <c r="B91">
+      <c r="B91" s="11">
         <f>'By Round'!A111</f>
         <v/>
       </c>
-      <c r="C91">
+      <c r="C91" s="11">
         <f>'By Round'!B121</f>
         <v/>
       </c>
-      <c r="D91">
+      <c r="D91" s="11">
         <f>'By Round'!C121</f>
         <v/>
       </c>
-      <c r="E91">
+      <c r="E91" s="11">
         <f>'By Round'!D121</f>
         <v/>
       </c>
-      <c r="F91" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F91" s="11">
+        <f>IF(ISBLANK('By Round'!F121),"",'By Round'!F121)</f>
+        <v/>
       </c>
       <c r="G91">
         <f>IF(ISBLANK('By Round'!G121),"",'By Round'!G121)</f>
@@ -15014,26 +14925,25 @@
     </row>
     <row r="92">
       <c r="A92" s="15" t="n"/>
-      <c r="B92" s="15">
+      <c r="B92" s="16">
         <f>'By Round'!A123</f>
         <v/>
       </c>
-      <c r="C92" s="15">
+      <c r="C92" s="16">
         <f>'By Round'!B131</f>
         <v/>
       </c>
-      <c r="D92" s="15">
+      <c r="D92" s="16">
         <f>'By Round'!C131</f>
         <v/>
       </c>
-      <c r="E92" s="15">
+      <c r="E92" s="16">
         <f>'By Round'!D131</f>
         <v/>
       </c>
-      <c r="F92" s="16" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F92" s="16">
+        <f>IF(ISBLANK('By Round'!F131),"",'By Round'!F131)</f>
+        <v/>
       </c>
       <c r="G92" s="15">
         <f>IF(ISBLANK('By Round'!G131),"",'By Round'!G131)</f>
@@ -15169,48 +15079,47 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="n">
+      <c r="A93" s="11" t="n">
         <v>16</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="11">
         <f>'By Round'!A3</f>
         <v/>
       </c>
-      <c r="C93">
+      <c r="C93" s="11">
         <f>'By Round'!B9</f>
         <v/>
       </c>
-      <c r="D93">
+      <c r="D93" s="11">
         <f>'By Round'!C9</f>
         <v/>
       </c>
-      <c r="E93">
+      <c r="E93" s="11">
         <f>'By Round'!D9</f>
         <v/>
       </c>
-      <c r="F93" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F93" s="11">
+        <f>IF(ISBLANK('By Round'!F10),"",'By Round'!F10)</f>
+        <v/>
       </c>
       <c r="G93">
-        <f>IF(ISBLANK('By Round'!G9),"",'By Round'!G9)</f>
+        <f>IF(ISBLANK('By Round'!G10),"",'By Round'!G10)</f>
         <v/>
       </c>
       <c r="H93">
-        <f>IF(ISBLANK('By Round'!H9),"",'By Round'!H9)</f>
+        <f>IF(ISBLANK('By Round'!H10),"",'By Round'!H10)</f>
         <v/>
       </c>
       <c r="I93">
-        <f>IF(ISBLANK('By Round'!I9),"",'By Round'!I9)</f>
+        <f>IF(ISBLANK('By Round'!I10),"",'By Round'!I10)</f>
         <v/>
       </c>
       <c r="J93">
-        <f>IF(ISBLANK('By Round'!J9),"",'By Round'!J9)</f>
+        <f>IF(ISBLANK('By Round'!J10),"",'By Round'!J10)</f>
         <v/>
       </c>
       <c r="K93">
-        <f>IF(ISBLANK('By Round'!K9),"",'By Round'!K9)</f>
+        <f>IF(ISBLANK('By Round'!K10),"",'By Round'!K10)</f>
         <v/>
       </c>
       <c r="L93" s="12">
@@ -15327,45 +15236,44 @@
       </c>
     </row>
     <row r="94">
-      <c r="B94">
+      <c r="B94" s="11">
         <f>'By Round'!A27</f>
         <v/>
       </c>
-      <c r="C94">
+      <c r="C94" s="11">
         <f>'By Round'!B31</f>
         <v/>
       </c>
-      <c r="D94">
+      <c r="D94" s="11">
         <f>'By Round'!C31</f>
         <v/>
       </c>
-      <c r="E94">
+      <c r="E94" s="11">
         <f>'By Round'!D31</f>
         <v/>
       </c>
-      <c r="F94" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F94" s="11">
+        <f>IF(ISBLANK('By Round'!F32),"",'By Round'!F32)</f>
+        <v/>
       </c>
       <c r="G94">
-        <f>IF(ISBLANK('By Round'!G31),"",'By Round'!G31)</f>
+        <f>IF(ISBLANK('By Round'!G32),"",'By Round'!G32)</f>
         <v/>
       </c>
       <c r="H94">
-        <f>IF(ISBLANK('By Round'!H31),"",'By Round'!H31)</f>
+        <f>IF(ISBLANK('By Round'!H32),"",'By Round'!H32)</f>
         <v/>
       </c>
       <c r="I94">
-        <f>IF(ISBLANK('By Round'!I31),"",'By Round'!I31)</f>
+        <f>IF(ISBLANK('By Round'!I32),"",'By Round'!I32)</f>
         <v/>
       </c>
       <c r="J94">
-        <f>IF(ISBLANK('By Round'!J31),"",'By Round'!J31)</f>
+        <f>IF(ISBLANK('By Round'!J32),"",'By Round'!J32)</f>
         <v/>
       </c>
       <c r="K94">
-        <f>IF(ISBLANK('By Round'!K31),"",'By Round'!K31)</f>
+        <f>IF(ISBLANK('By Round'!K32),"",'By Round'!K32)</f>
         <v/>
       </c>
       <c r="L94" s="12">
@@ -15482,45 +15390,44 @@
       </c>
     </row>
     <row r="95">
-      <c r="B95">
+      <c r="B95" s="11">
         <f>'By Round'!A39</f>
         <v/>
       </c>
-      <c r="C95">
+      <c r="C95" s="11">
         <f>'By Round'!B41</f>
         <v/>
       </c>
-      <c r="D95">
+      <c r="D95" s="11">
         <f>'By Round'!C41</f>
         <v/>
       </c>
-      <c r="E95">
+      <c r="E95" s="11">
         <f>'By Round'!D41</f>
         <v/>
       </c>
-      <c r="F95" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F95" s="11">
+        <f>IF(ISBLANK('By Round'!F42),"",'By Round'!F42)</f>
+        <v/>
       </c>
       <c r="G95">
-        <f>IF(ISBLANK('By Round'!G41),"",'By Round'!G41)</f>
+        <f>IF(ISBLANK('By Round'!G42),"",'By Round'!G42)</f>
         <v/>
       </c>
       <c r="H95">
-        <f>IF(ISBLANK('By Round'!H41),"",'By Round'!H41)</f>
+        <f>IF(ISBLANK('By Round'!H42),"",'By Round'!H42)</f>
         <v/>
       </c>
       <c r="I95">
-        <f>IF(ISBLANK('By Round'!I41),"",'By Round'!I41)</f>
+        <f>IF(ISBLANK('By Round'!I42),"",'By Round'!I42)</f>
         <v/>
       </c>
       <c r="J95">
-        <f>IF(ISBLANK('By Round'!J41),"",'By Round'!J41)</f>
+        <f>IF(ISBLANK('By Round'!J42),"",'By Round'!J42)</f>
         <v/>
       </c>
       <c r="K95">
-        <f>IF(ISBLANK('By Round'!K41),"",'By Round'!K41)</f>
+        <f>IF(ISBLANK('By Round'!K42),"",'By Round'!K42)</f>
         <v/>
       </c>
       <c r="L95" s="12">
@@ -15637,45 +15544,44 @@
       </c>
     </row>
     <row r="96">
-      <c r="B96">
+      <c r="B96" s="11">
         <f>'By Round'!A87</f>
         <v/>
       </c>
-      <c r="C96">
+      <c r="C96" s="11">
         <f>'By Round'!B87</f>
         <v/>
       </c>
-      <c r="D96">
+      <c r="D96" s="11">
         <f>'By Round'!C87</f>
         <v/>
       </c>
-      <c r="E96">
+      <c r="E96" s="11">
         <f>'By Round'!D87</f>
         <v/>
       </c>
-      <c r="F96" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F96" s="11">
+        <f>IF(ISBLANK('By Round'!F88),"",'By Round'!F88)</f>
+        <v/>
       </c>
       <c r="G96">
-        <f>IF(ISBLANK('By Round'!G87),"",'By Round'!G87)</f>
+        <f>IF(ISBLANK('By Round'!G88),"",'By Round'!G88)</f>
         <v/>
       </c>
       <c r="H96">
-        <f>IF(ISBLANK('By Round'!H87),"",'By Round'!H87)</f>
+        <f>IF(ISBLANK('By Round'!H88),"",'By Round'!H88)</f>
         <v/>
       </c>
       <c r="I96">
-        <f>IF(ISBLANK('By Round'!I87),"",'By Round'!I87)</f>
+        <f>IF(ISBLANK('By Round'!I88),"",'By Round'!I88)</f>
         <v/>
       </c>
       <c r="J96">
-        <f>IF(ISBLANK('By Round'!J87),"",'By Round'!J87)</f>
+        <f>IF(ISBLANK('By Round'!J88),"",'By Round'!J88)</f>
         <v/>
       </c>
       <c r="K96">
-        <f>IF(ISBLANK('By Round'!K87),"",'By Round'!K87)</f>
+        <f>IF(ISBLANK('By Round'!K88),"",'By Round'!K88)</f>
         <v/>
       </c>
       <c r="L96" s="12">
@@ -15792,45 +15698,44 @@
       </c>
     </row>
     <row r="97">
-      <c r="B97">
+      <c r="B97" s="11">
         <f>'By Round'!A111</f>
         <v/>
       </c>
-      <c r="C97">
+      <c r="C97" s="11">
         <f>'By Round'!B121</f>
         <v/>
       </c>
-      <c r="D97">
+      <c r="D97" s="11">
         <f>'By Round'!C121</f>
         <v/>
       </c>
-      <c r="E97">
+      <c r="E97" s="11">
         <f>'By Round'!D121</f>
         <v/>
       </c>
-      <c r="F97" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F97" s="11">
+        <f>IF(ISBLANK('By Round'!F122),"",'By Round'!F122)</f>
+        <v/>
       </c>
       <c r="G97">
-        <f>IF(ISBLANK('By Round'!G121),"",'By Round'!G121)</f>
+        <f>IF(ISBLANK('By Round'!G122),"",'By Round'!G122)</f>
         <v/>
       </c>
       <c r="H97">
-        <f>IF(ISBLANK('By Round'!H121),"",'By Round'!H121)</f>
+        <f>IF(ISBLANK('By Round'!H122),"",'By Round'!H122)</f>
         <v/>
       </c>
       <c r="I97">
-        <f>IF(ISBLANK('By Round'!I121),"",'By Round'!I121)</f>
+        <f>IF(ISBLANK('By Round'!I122),"",'By Round'!I122)</f>
         <v/>
       </c>
       <c r="J97">
-        <f>IF(ISBLANK('By Round'!J121),"",'By Round'!J121)</f>
+        <f>IF(ISBLANK('By Round'!J122),"",'By Round'!J122)</f>
         <v/>
       </c>
       <c r="K97">
-        <f>IF(ISBLANK('By Round'!K121),"",'By Round'!K121)</f>
+        <f>IF(ISBLANK('By Round'!K122),"",'By Round'!K122)</f>
         <v/>
       </c>
       <c r="L97" s="12">
@@ -15948,45 +15853,44 @@
     </row>
     <row r="98">
       <c r="A98" s="15" t="n"/>
-      <c r="B98" s="15">
+      <c r="B98" s="16">
         <f>'By Round'!A123</f>
         <v/>
       </c>
-      <c r="C98" s="15">
+      <c r="C98" s="16">
         <f>'By Round'!B131</f>
         <v/>
       </c>
-      <c r="D98" s="15">
+      <c r="D98" s="16">
         <f>'By Round'!C131</f>
         <v/>
       </c>
-      <c r="E98" s="15">
+      <c r="E98" s="16">
         <f>'By Round'!D131</f>
         <v/>
       </c>
-      <c r="F98" s="16" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F98" s="16">
+        <f>IF(ISBLANK('By Round'!F132),"",'By Round'!F132)</f>
+        <v/>
       </c>
       <c r="G98" s="15">
-        <f>IF(ISBLANK('By Round'!G131),"",'By Round'!G131)</f>
+        <f>IF(ISBLANK('By Round'!G132),"",'By Round'!G132)</f>
         <v/>
       </c>
       <c r="H98" s="15">
-        <f>IF(ISBLANK('By Round'!H131),"",'By Round'!H131)</f>
+        <f>IF(ISBLANK('By Round'!H132),"",'By Round'!H132)</f>
         <v/>
       </c>
       <c r="I98" s="15">
-        <f>IF(ISBLANK('By Round'!I131),"",'By Round'!I131)</f>
+        <f>IF(ISBLANK('By Round'!I132),"",'By Round'!I132)</f>
         <v/>
       </c>
       <c r="J98" s="15">
-        <f>IF(ISBLANK('By Round'!J131),"",'By Round'!J131)</f>
+        <f>IF(ISBLANK('By Round'!J132),"",'By Round'!J132)</f>
         <v/>
       </c>
       <c r="K98" s="15">
-        <f>IF(ISBLANK('By Round'!K131),"",'By Round'!K131)</f>
+        <f>IF(ISBLANK('By Round'!K132),"",'By Round'!K132)</f>
         <v/>
       </c>
       <c r="L98" s="17">
@@ -16103,29 +16007,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="n">
+      <c r="A99" s="11" t="n">
         <v>17</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="11">
         <f>'By Round'!A3</f>
         <v/>
       </c>
-      <c r="C99">
+      <c r="C99" s="11">
         <f>'By Round'!B11</f>
         <v/>
       </c>
-      <c r="D99">
+      <c r="D99" s="11">
         <f>'By Round'!C11</f>
         <v/>
       </c>
-      <c r="E99">
+      <c r="E99" s="11">
         <f>'By Round'!D11</f>
         <v/>
       </c>
-      <c r="F99" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F99" s="11">
+        <f>IF(ISBLANK('By Round'!F11),"",'By Round'!F11)</f>
+        <v/>
       </c>
       <c r="G99">
         <f>IF(ISBLANK('By Round'!G11),"",'By Round'!G11)</f>
@@ -16261,26 +16164,25 @@
       </c>
     </row>
     <row r="100">
-      <c r="B100">
+      <c r="B100" s="11">
         <f>'By Round'!A15</f>
         <v/>
       </c>
-      <c r="C100">
+      <c r="C100" s="11">
         <f>'By Round'!B21</f>
         <v/>
       </c>
-      <c r="D100">
+      <c r="D100" s="11">
         <f>'By Round'!C21</f>
         <v/>
       </c>
-      <c r="E100">
+      <c r="E100" s="11">
         <f>'By Round'!D21</f>
         <v/>
       </c>
-      <c r="F100" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F100" s="11">
+        <f>IF(ISBLANK('By Round'!F21),"",'By Round'!F21)</f>
+        <v/>
       </c>
       <c r="G100">
         <f>IF(ISBLANK('By Round'!G21),"",'By Round'!G21)</f>
@@ -16416,26 +16318,25 @@
       </c>
     </row>
     <row r="101">
-      <c r="B101">
+      <c r="B101" s="11">
         <f>'By Round'!A39</f>
         <v/>
       </c>
-      <c r="C101">
+      <c r="C101" s="11">
         <f>'By Round'!B43</f>
         <v/>
       </c>
-      <c r="D101">
+      <c r="D101" s="11">
         <f>'By Round'!C43</f>
         <v/>
       </c>
-      <c r="E101">
+      <c r="E101" s="11">
         <f>'By Round'!D43</f>
         <v/>
       </c>
-      <c r="F101" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F101" s="11">
+        <f>IF(ISBLANK('By Round'!F43),"",'By Round'!F43)</f>
+        <v/>
       </c>
       <c r="G101">
         <f>IF(ISBLANK('By Round'!G43),"",'By Round'!G43)</f>
@@ -16571,26 +16472,25 @@
       </c>
     </row>
     <row r="102">
-      <c r="B102">
+      <c r="B102" s="11">
         <f>'By Round'!A51</f>
         <v/>
       </c>
-      <c r="C102">
+      <c r="C102" s="11">
         <f>'By Round'!B53</f>
         <v/>
       </c>
-      <c r="D102">
+      <c r="D102" s="11">
         <f>'By Round'!C53</f>
         <v/>
       </c>
-      <c r="E102">
+      <c r="E102" s="11">
         <f>'By Round'!D53</f>
         <v/>
       </c>
-      <c r="F102" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F102" s="11">
+        <f>IF(ISBLANK('By Round'!F53),"",'By Round'!F53)</f>
+        <v/>
       </c>
       <c r="G102">
         <f>IF(ISBLANK('By Round'!G53),"",'By Round'!G53)</f>
@@ -16726,26 +16626,25 @@
       </c>
     </row>
     <row r="103">
-      <c r="B103">
+      <c r="B103" s="11">
         <f>'By Round'!A99</f>
         <v/>
       </c>
-      <c r="C103">
+      <c r="C103" s="11">
         <f>'By Round'!B99</f>
         <v/>
       </c>
-      <c r="D103">
+      <c r="D103" s="11">
         <f>'By Round'!C99</f>
         <v/>
       </c>
-      <c r="E103">
+      <c r="E103" s="11">
         <f>'By Round'!D99</f>
         <v/>
       </c>
-      <c r="F103" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F103" s="11">
+        <f>IF(ISBLANK('By Round'!F99),"",'By Round'!F99)</f>
+        <v/>
       </c>
       <c r="G103">
         <f>IF(ISBLANK('By Round'!G99),"",'By Round'!G99)</f>
@@ -16882,26 +16781,25 @@
     </row>
     <row r="104">
       <c r="A104" s="15" t="n"/>
-      <c r="B104" s="15">
+      <c r="B104" s="16">
         <f>'By Round'!A123</f>
         <v/>
       </c>
-      <c r="C104" s="15">
+      <c r="C104" s="16">
         <f>'By Round'!B133</f>
         <v/>
       </c>
-      <c r="D104" s="15">
+      <c r="D104" s="16">
         <f>'By Round'!C133</f>
         <v/>
       </c>
-      <c r="E104" s="15">
+      <c r="E104" s="16">
         <f>'By Round'!D133</f>
         <v/>
       </c>
-      <c r="F104" s="16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F104" s="16">
+        <f>IF(ISBLANK('By Round'!F133),"",'By Round'!F133)</f>
+        <v/>
       </c>
       <c r="G104" s="15">
         <f>IF(ISBLANK('By Round'!G133),"",'By Round'!G133)</f>
@@ -17037,48 +16935,47 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="n">
+      <c r="A105" s="11" t="n">
         <v>18</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="11">
         <f>'By Round'!A3</f>
         <v/>
       </c>
-      <c r="C105">
+      <c r="C105" s="11">
         <f>'By Round'!B11</f>
         <v/>
       </c>
-      <c r="D105">
+      <c r="D105" s="11">
         <f>'By Round'!C11</f>
         <v/>
       </c>
-      <c r="E105">
+      <c r="E105" s="11">
         <f>'By Round'!D11</f>
         <v/>
       </c>
-      <c r="F105" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F105" s="11">
+        <f>IF(ISBLANK('By Round'!F12),"",'By Round'!F12)</f>
+        <v/>
       </c>
       <c r="G105">
-        <f>IF(ISBLANK('By Round'!G11),"",'By Round'!G11)</f>
+        <f>IF(ISBLANK('By Round'!G12),"",'By Round'!G12)</f>
         <v/>
       </c>
       <c r="H105">
-        <f>IF(ISBLANK('By Round'!H11),"",'By Round'!H11)</f>
+        <f>IF(ISBLANK('By Round'!H12),"",'By Round'!H12)</f>
         <v/>
       </c>
       <c r="I105">
-        <f>IF(ISBLANK('By Round'!I11),"",'By Round'!I11)</f>
+        <f>IF(ISBLANK('By Round'!I12),"",'By Round'!I12)</f>
         <v/>
       </c>
       <c r="J105">
-        <f>IF(ISBLANK('By Round'!J11),"",'By Round'!J11)</f>
+        <f>IF(ISBLANK('By Round'!J12),"",'By Round'!J12)</f>
         <v/>
       </c>
       <c r="K105">
-        <f>IF(ISBLANK('By Round'!K11),"",'By Round'!K11)</f>
+        <f>IF(ISBLANK('By Round'!K12),"",'By Round'!K12)</f>
         <v/>
       </c>
       <c r="L105" s="12">
@@ -17195,45 +17092,44 @@
       </c>
     </row>
     <row r="106">
-      <c r="B106">
+      <c r="B106" s="11">
         <f>'By Round'!A15</f>
         <v/>
       </c>
-      <c r="C106">
+      <c r="C106" s="11">
         <f>'By Round'!B21</f>
         <v/>
       </c>
-      <c r="D106">
+      <c r="D106" s="11">
         <f>'By Round'!C21</f>
         <v/>
       </c>
-      <c r="E106">
+      <c r="E106" s="11">
         <f>'By Round'!D21</f>
         <v/>
       </c>
-      <c r="F106" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F106" s="11">
+        <f>IF(ISBLANK('By Round'!F22),"",'By Round'!F22)</f>
+        <v/>
       </c>
       <c r="G106">
-        <f>IF(ISBLANK('By Round'!G21),"",'By Round'!G21)</f>
+        <f>IF(ISBLANK('By Round'!G22),"",'By Round'!G22)</f>
         <v/>
       </c>
       <c r="H106">
-        <f>IF(ISBLANK('By Round'!H21),"",'By Round'!H21)</f>
+        <f>IF(ISBLANK('By Round'!H22),"",'By Round'!H22)</f>
         <v/>
       </c>
       <c r="I106">
-        <f>IF(ISBLANK('By Round'!I21),"",'By Round'!I21)</f>
+        <f>IF(ISBLANK('By Round'!I22),"",'By Round'!I22)</f>
         <v/>
       </c>
       <c r="J106">
-        <f>IF(ISBLANK('By Round'!J21),"",'By Round'!J21)</f>
+        <f>IF(ISBLANK('By Round'!J22),"",'By Round'!J22)</f>
         <v/>
       </c>
       <c r="K106">
-        <f>IF(ISBLANK('By Round'!K21),"",'By Round'!K21)</f>
+        <f>IF(ISBLANK('By Round'!K22),"",'By Round'!K22)</f>
         <v/>
       </c>
       <c r="L106" s="12">
@@ -17350,45 +17246,44 @@
       </c>
     </row>
     <row r="107">
-      <c r="B107">
+      <c r="B107" s="11">
         <f>'By Round'!A39</f>
         <v/>
       </c>
-      <c r="C107">
+      <c r="C107" s="11">
         <f>'By Round'!B43</f>
         <v/>
       </c>
-      <c r="D107">
+      <c r="D107" s="11">
         <f>'By Round'!C43</f>
         <v/>
       </c>
-      <c r="E107">
+      <c r="E107" s="11">
         <f>'By Round'!D43</f>
         <v/>
       </c>
-      <c r="F107" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F107" s="11">
+        <f>IF(ISBLANK('By Round'!F44),"",'By Round'!F44)</f>
+        <v/>
       </c>
       <c r="G107">
-        <f>IF(ISBLANK('By Round'!G43),"",'By Round'!G43)</f>
+        <f>IF(ISBLANK('By Round'!G44),"",'By Round'!G44)</f>
         <v/>
       </c>
       <c r="H107">
-        <f>IF(ISBLANK('By Round'!H43),"",'By Round'!H43)</f>
+        <f>IF(ISBLANK('By Round'!H44),"",'By Round'!H44)</f>
         <v/>
       </c>
       <c r="I107">
-        <f>IF(ISBLANK('By Round'!I43),"",'By Round'!I43)</f>
+        <f>IF(ISBLANK('By Round'!I44),"",'By Round'!I44)</f>
         <v/>
       </c>
       <c r="J107">
-        <f>IF(ISBLANK('By Round'!J43),"",'By Round'!J43)</f>
+        <f>IF(ISBLANK('By Round'!J44),"",'By Round'!J44)</f>
         <v/>
       </c>
       <c r="K107">
-        <f>IF(ISBLANK('By Round'!K43),"",'By Round'!K43)</f>
+        <f>IF(ISBLANK('By Round'!K44),"",'By Round'!K44)</f>
         <v/>
       </c>
       <c r="L107" s="12">
@@ -17505,45 +17400,44 @@
       </c>
     </row>
     <row r="108">
-      <c r="B108">
+      <c r="B108" s="11">
         <f>'By Round'!A51</f>
         <v/>
       </c>
-      <c r="C108">
+      <c r="C108" s="11">
         <f>'By Round'!B53</f>
         <v/>
       </c>
-      <c r="D108">
+      <c r="D108" s="11">
         <f>'By Round'!C53</f>
         <v/>
       </c>
-      <c r="E108">
+      <c r="E108" s="11">
         <f>'By Round'!D53</f>
         <v/>
       </c>
-      <c r="F108" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F108" s="11">
+        <f>IF(ISBLANK('By Round'!F54),"",'By Round'!F54)</f>
+        <v/>
       </c>
       <c r="G108">
-        <f>IF(ISBLANK('By Round'!G53),"",'By Round'!G53)</f>
+        <f>IF(ISBLANK('By Round'!G54),"",'By Round'!G54)</f>
         <v/>
       </c>
       <c r="H108">
-        <f>IF(ISBLANK('By Round'!H53),"",'By Round'!H53)</f>
+        <f>IF(ISBLANK('By Round'!H54),"",'By Round'!H54)</f>
         <v/>
       </c>
       <c r="I108">
-        <f>IF(ISBLANK('By Round'!I53),"",'By Round'!I53)</f>
+        <f>IF(ISBLANK('By Round'!I54),"",'By Round'!I54)</f>
         <v/>
       </c>
       <c r="J108">
-        <f>IF(ISBLANK('By Round'!J53),"",'By Round'!J53)</f>
+        <f>IF(ISBLANK('By Round'!J54),"",'By Round'!J54)</f>
         <v/>
       </c>
       <c r="K108">
-        <f>IF(ISBLANK('By Round'!K53),"",'By Round'!K53)</f>
+        <f>IF(ISBLANK('By Round'!K54),"",'By Round'!K54)</f>
         <v/>
       </c>
       <c r="L108" s="12">
@@ -17660,45 +17554,44 @@
       </c>
     </row>
     <row r="109">
-      <c r="B109">
+      <c r="B109" s="11">
         <f>'By Round'!A99</f>
         <v/>
       </c>
-      <c r="C109">
+      <c r="C109" s="11">
         <f>'By Round'!B99</f>
         <v/>
       </c>
-      <c r="D109">
+      <c r="D109" s="11">
         <f>'By Round'!C99</f>
         <v/>
       </c>
-      <c r="E109">
+      <c r="E109" s="11">
         <f>'By Round'!D99</f>
         <v/>
       </c>
-      <c r="F109" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F109" s="11">
+        <f>IF(ISBLANK('By Round'!F100),"",'By Round'!F100)</f>
+        <v/>
       </c>
       <c r="G109">
-        <f>IF(ISBLANK('By Round'!G99),"",'By Round'!G99)</f>
+        <f>IF(ISBLANK('By Round'!G100),"",'By Round'!G100)</f>
         <v/>
       </c>
       <c r="H109">
-        <f>IF(ISBLANK('By Round'!H99),"",'By Round'!H99)</f>
+        <f>IF(ISBLANK('By Round'!H100),"",'By Round'!H100)</f>
         <v/>
       </c>
       <c r="I109">
-        <f>IF(ISBLANK('By Round'!I99),"",'By Round'!I99)</f>
+        <f>IF(ISBLANK('By Round'!I100),"",'By Round'!I100)</f>
         <v/>
       </c>
       <c r="J109">
-        <f>IF(ISBLANK('By Round'!J99),"",'By Round'!J99)</f>
+        <f>IF(ISBLANK('By Round'!J100),"",'By Round'!J100)</f>
         <v/>
       </c>
       <c r="K109">
-        <f>IF(ISBLANK('By Round'!K99),"",'By Round'!K99)</f>
+        <f>IF(ISBLANK('By Round'!K100),"",'By Round'!K100)</f>
         <v/>
       </c>
       <c r="L109" s="12">
@@ -17816,45 +17709,44 @@
     </row>
     <row r="110">
       <c r="A110" s="15" t="n"/>
-      <c r="B110" s="15">
+      <c r="B110" s="16">
         <f>'By Round'!A123</f>
         <v/>
       </c>
-      <c r="C110" s="15">
+      <c r="C110" s="16">
         <f>'By Round'!B133</f>
         <v/>
       </c>
-      <c r="D110" s="15">
+      <c r="D110" s="16">
         <f>'By Round'!C133</f>
         <v/>
       </c>
-      <c r="E110" s="15">
+      <c r="E110" s="16">
         <f>'By Round'!D133</f>
         <v/>
       </c>
-      <c r="F110" s="16" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F110" s="16">
+        <f>IF(ISBLANK('By Round'!F134),"",'By Round'!F134)</f>
+        <v/>
       </c>
       <c r="G110" s="15">
-        <f>IF(ISBLANK('By Round'!G133),"",'By Round'!G133)</f>
+        <f>IF(ISBLANK('By Round'!G134),"",'By Round'!G134)</f>
         <v/>
       </c>
       <c r="H110" s="15">
-        <f>IF(ISBLANK('By Round'!H133),"",'By Round'!H133)</f>
+        <f>IF(ISBLANK('By Round'!H134),"",'By Round'!H134)</f>
         <v/>
       </c>
       <c r="I110" s="15">
-        <f>IF(ISBLANK('By Round'!I133),"",'By Round'!I133)</f>
+        <f>IF(ISBLANK('By Round'!I134),"",'By Round'!I134)</f>
         <v/>
       </c>
       <c r="J110" s="15">
-        <f>IF(ISBLANK('By Round'!J133),"",'By Round'!J133)</f>
+        <f>IF(ISBLANK('By Round'!J134),"",'By Round'!J134)</f>
         <v/>
       </c>
       <c r="K110" s="15">
-        <f>IF(ISBLANK('By Round'!K133),"",'By Round'!K133)</f>
+        <f>IF(ISBLANK('By Round'!K134),"",'By Round'!K134)</f>
         <v/>
       </c>
       <c r="L110" s="17">
@@ -17971,29 +17863,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="n">
+      <c r="A111" s="11" t="n">
         <v>19</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="11">
         <f>'By Round'!A3</f>
         <v/>
       </c>
-      <c r="C111">
+      <c r="C111" s="11">
         <f>'By Round'!B13</f>
         <v/>
       </c>
-      <c r="D111">
+      <c r="D111" s="11">
         <f>'By Round'!C13</f>
         <v/>
       </c>
-      <c r="E111">
+      <c r="E111" s="11">
         <f>'By Round'!D13</f>
         <v/>
       </c>
-      <c r="F111" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F111" s="11">
+        <f>IF(ISBLANK('By Round'!F13),"",'By Round'!F13)</f>
+        <v/>
       </c>
       <c r="G111">
         <f>IF(ISBLANK('By Round'!G13),"",'By Round'!G13)</f>
@@ -18129,26 +18020,25 @@
       </c>
     </row>
     <row r="112">
-      <c r="B112">
+      <c r="B112" s="11">
         <f>'By Round'!A15</f>
         <v/>
       </c>
-      <c r="C112">
+      <c r="C112" s="11">
         <f>'By Round'!B23</f>
         <v/>
       </c>
-      <c r="D112">
+      <c r="D112" s="11">
         <f>'By Round'!C23</f>
         <v/>
       </c>
-      <c r="E112">
+      <c r="E112" s="11">
         <f>'By Round'!D23</f>
         <v/>
       </c>
-      <c r="F112" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F112" s="11">
+        <f>IF(ISBLANK('By Round'!F23),"",'By Round'!F23)</f>
+        <v/>
       </c>
       <c r="G112">
         <f>IF(ISBLANK('By Round'!G23),"",'By Round'!G23)</f>
@@ -18284,26 +18174,25 @@
       </c>
     </row>
     <row r="113">
-      <c r="B113">
+      <c r="B113" s="11">
         <f>'By Round'!A27</f>
         <v/>
       </c>
-      <c r="C113">
+      <c r="C113" s="11">
         <f>'By Round'!B33</f>
         <v/>
       </c>
-      <c r="D113">
+      <c r="D113" s="11">
         <f>'By Round'!C33</f>
         <v/>
       </c>
-      <c r="E113">
+      <c r="E113" s="11">
         <f>'By Round'!D33</f>
         <v/>
       </c>
-      <c r="F113" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F113" s="11">
+        <f>IF(ISBLANK('By Round'!F33),"",'By Round'!F33)</f>
+        <v/>
       </c>
       <c r="G113">
         <f>IF(ISBLANK('By Round'!G33),"",'By Round'!G33)</f>
@@ -18439,26 +18328,25 @@
       </c>
     </row>
     <row r="114">
-      <c r="B114">
+      <c r="B114" s="11">
         <f>'By Round'!A51</f>
         <v/>
       </c>
-      <c r="C114">
+      <c r="C114" s="11">
         <f>'By Round'!B55</f>
         <v/>
       </c>
-      <c r="D114">
+      <c r="D114" s="11">
         <f>'By Round'!C55</f>
         <v/>
       </c>
-      <c r="E114">
+      <c r="E114" s="11">
         <f>'By Round'!D55</f>
         <v/>
       </c>
-      <c r="F114" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F114" s="11">
+        <f>IF(ISBLANK('By Round'!F55),"",'By Round'!F55)</f>
+        <v/>
       </c>
       <c r="G114">
         <f>IF(ISBLANK('By Round'!G55),"",'By Round'!G55)</f>
@@ -18594,26 +18482,25 @@
       </c>
     </row>
     <row r="115">
-      <c r="B115">
+      <c r="B115" s="11">
         <f>'By Round'!A63</f>
         <v/>
       </c>
-      <c r="C115">
+      <c r="C115" s="11">
         <f>'By Round'!B65</f>
         <v/>
       </c>
-      <c r="D115">
+      <c r="D115" s="11">
         <f>'By Round'!C65</f>
         <v/>
       </c>
-      <c r="E115">
+      <c r="E115" s="11">
         <f>'By Round'!D65</f>
         <v/>
       </c>
-      <c r="F115" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F115" s="11">
+        <f>IF(ISBLANK('By Round'!F65),"",'By Round'!F65)</f>
+        <v/>
       </c>
       <c r="G115">
         <f>IF(ISBLANK('By Round'!G65),"",'By Round'!G65)</f>
@@ -18750,26 +18637,25 @@
     </row>
     <row r="116">
       <c r="A116" s="15" t="n"/>
-      <c r="B116" s="15">
+      <c r="B116" s="16">
         <f>'By Round'!A111</f>
         <v/>
       </c>
-      <c r="C116" s="15">
+      <c r="C116" s="16">
         <f>'By Round'!B111</f>
         <v/>
       </c>
-      <c r="D116" s="15">
+      <c r="D116" s="16">
         <f>'By Round'!C111</f>
         <v/>
       </c>
-      <c r="E116" s="15">
+      <c r="E116" s="16">
         <f>'By Round'!D111</f>
         <v/>
       </c>
-      <c r="F116" s="16" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F116" s="16">
+        <f>IF(ISBLANK('By Round'!F111),"",'By Round'!F111)</f>
+        <v/>
       </c>
       <c r="G116" s="15">
         <f>IF(ISBLANK('By Round'!G111),"",'By Round'!G111)</f>
@@ -18905,48 +18791,47 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="n">
+      <c r="A117" s="11" t="n">
         <v>20</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="11">
         <f>'By Round'!A3</f>
         <v/>
       </c>
-      <c r="C117">
+      <c r="C117" s="11">
         <f>'By Round'!B13</f>
         <v/>
       </c>
-      <c r="D117">
+      <c r="D117" s="11">
         <f>'By Round'!C13</f>
         <v/>
       </c>
-      <c r="E117">
+      <c r="E117" s="11">
         <f>'By Round'!D13</f>
         <v/>
       </c>
-      <c r="F117" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F117" s="11">
+        <f>IF(ISBLANK('By Round'!F14),"",'By Round'!F14)</f>
+        <v/>
       </c>
       <c r="G117">
-        <f>IF(ISBLANK('By Round'!G13),"",'By Round'!G13)</f>
+        <f>IF(ISBLANK('By Round'!G14),"",'By Round'!G14)</f>
         <v/>
       </c>
       <c r="H117">
-        <f>IF(ISBLANK('By Round'!H13),"",'By Round'!H13)</f>
+        <f>IF(ISBLANK('By Round'!H14),"",'By Round'!H14)</f>
         <v/>
       </c>
       <c r="I117">
-        <f>IF(ISBLANK('By Round'!I13),"",'By Round'!I13)</f>
+        <f>IF(ISBLANK('By Round'!I14),"",'By Round'!I14)</f>
         <v/>
       </c>
       <c r="J117">
-        <f>IF(ISBLANK('By Round'!J13),"",'By Round'!J13)</f>
+        <f>IF(ISBLANK('By Round'!J14),"",'By Round'!J14)</f>
         <v/>
       </c>
       <c r="K117">
-        <f>IF(ISBLANK('By Round'!K13),"",'By Round'!K13)</f>
+        <f>IF(ISBLANK('By Round'!K14),"",'By Round'!K14)</f>
         <v/>
       </c>
       <c r="L117" s="12">
@@ -19063,45 +18948,44 @@
       </c>
     </row>
     <row r="118">
-      <c r="B118">
+      <c r="B118" s="11">
         <f>'By Round'!A15</f>
         <v/>
       </c>
-      <c r="C118">
+      <c r="C118" s="11">
         <f>'By Round'!B23</f>
         <v/>
       </c>
-      <c r="D118">
+      <c r="D118" s="11">
         <f>'By Round'!C23</f>
         <v/>
       </c>
-      <c r="E118">
+      <c r="E118" s="11">
         <f>'By Round'!D23</f>
         <v/>
       </c>
-      <c r="F118" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F118" s="11">
+        <f>IF(ISBLANK('By Round'!F24),"",'By Round'!F24)</f>
+        <v/>
       </c>
       <c r="G118">
-        <f>IF(ISBLANK('By Round'!G23),"",'By Round'!G23)</f>
+        <f>IF(ISBLANK('By Round'!G24),"",'By Round'!G24)</f>
         <v/>
       </c>
       <c r="H118">
-        <f>IF(ISBLANK('By Round'!H23),"",'By Round'!H23)</f>
+        <f>IF(ISBLANK('By Round'!H24),"",'By Round'!H24)</f>
         <v/>
       </c>
       <c r="I118">
-        <f>IF(ISBLANK('By Round'!I23),"",'By Round'!I23)</f>
+        <f>IF(ISBLANK('By Round'!I24),"",'By Round'!I24)</f>
         <v/>
       </c>
       <c r="J118">
-        <f>IF(ISBLANK('By Round'!J23),"",'By Round'!J23)</f>
+        <f>IF(ISBLANK('By Round'!J24),"",'By Round'!J24)</f>
         <v/>
       </c>
       <c r="K118">
-        <f>IF(ISBLANK('By Round'!K23),"",'By Round'!K23)</f>
+        <f>IF(ISBLANK('By Round'!K24),"",'By Round'!K24)</f>
         <v/>
       </c>
       <c r="L118" s="12">
@@ -19218,45 +19102,44 @@
       </c>
     </row>
     <row r="119">
-      <c r="B119">
+      <c r="B119" s="11">
         <f>'By Round'!A27</f>
         <v/>
       </c>
-      <c r="C119">
+      <c r="C119" s="11">
         <f>'By Round'!B33</f>
         <v/>
       </c>
-      <c r="D119">
+      <c r="D119" s="11">
         <f>'By Round'!C33</f>
         <v/>
       </c>
-      <c r="E119">
+      <c r="E119" s="11">
         <f>'By Round'!D33</f>
         <v/>
       </c>
-      <c r="F119" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F119" s="11">
+        <f>IF(ISBLANK('By Round'!F34),"",'By Round'!F34)</f>
+        <v/>
       </c>
       <c r="G119">
-        <f>IF(ISBLANK('By Round'!G33),"",'By Round'!G33)</f>
+        <f>IF(ISBLANK('By Round'!G34),"",'By Round'!G34)</f>
         <v/>
       </c>
       <c r="H119">
-        <f>IF(ISBLANK('By Round'!H33),"",'By Round'!H33)</f>
+        <f>IF(ISBLANK('By Round'!H34),"",'By Round'!H34)</f>
         <v/>
       </c>
       <c r="I119">
-        <f>IF(ISBLANK('By Round'!I33),"",'By Round'!I33)</f>
+        <f>IF(ISBLANK('By Round'!I34),"",'By Round'!I34)</f>
         <v/>
       </c>
       <c r="J119">
-        <f>IF(ISBLANK('By Round'!J33),"",'By Round'!J33)</f>
+        <f>IF(ISBLANK('By Round'!J34),"",'By Round'!J34)</f>
         <v/>
       </c>
       <c r="K119">
-        <f>IF(ISBLANK('By Round'!K33),"",'By Round'!K33)</f>
+        <f>IF(ISBLANK('By Round'!K34),"",'By Round'!K34)</f>
         <v/>
       </c>
       <c r="L119" s="12">
@@ -19373,45 +19256,44 @@
       </c>
     </row>
     <row r="120">
-      <c r="B120">
+      <c r="B120" s="11">
         <f>'By Round'!A51</f>
         <v/>
       </c>
-      <c r="C120">
+      <c r="C120" s="11">
         <f>'By Round'!B55</f>
         <v/>
       </c>
-      <c r="D120">
+      <c r="D120" s="11">
         <f>'By Round'!C55</f>
         <v/>
       </c>
-      <c r="E120">
+      <c r="E120" s="11">
         <f>'By Round'!D55</f>
         <v/>
       </c>
-      <c r="F120" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F120" s="11">
+        <f>IF(ISBLANK('By Round'!F56),"",'By Round'!F56)</f>
+        <v/>
       </c>
       <c r="G120">
-        <f>IF(ISBLANK('By Round'!G55),"",'By Round'!G55)</f>
+        <f>IF(ISBLANK('By Round'!G56),"",'By Round'!G56)</f>
         <v/>
       </c>
       <c r="H120">
-        <f>IF(ISBLANK('By Round'!H55),"",'By Round'!H55)</f>
+        <f>IF(ISBLANK('By Round'!H56),"",'By Round'!H56)</f>
         <v/>
       </c>
       <c r="I120">
-        <f>IF(ISBLANK('By Round'!I55),"",'By Round'!I55)</f>
+        <f>IF(ISBLANK('By Round'!I56),"",'By Round'!I56)</f>
         <v/>
       </c>
       <c r="J120">
-        <f>IF(ISBLANK('By Round'!J55),"",'By Round'!J55)</f>
+        <f>IF(ISBLANK('By Round'!J56),"",'By Round'!J56)</f>
         <v/>
       </c>
       <c r="K120">
-        <f>IF(ISBLANK('By Round'!K55),"",'By Round'!K55)</f>
+        <f>IF(ISBLANK('By Round'!K56),"",'By Round'!K56)</f>
         <v/>
       </c>
       <c r="L120" s="12">
@@ -19528,45 +19410,44 @@
       </c>
     </row>
     <row r="121">
-      <c r="B121">
+      <c r="B121" s="11">
         <f>'By Round'!A63</f>
         <v/>
       </c>
-      <c r="C121">
+      <c r="C121" s="11">
         <f>'By Round'!B65</f>
         <v/>
       </c>
-      <c r="D121">
+      <c r="D121" s="11">
         <f>'By Round'!C65</f>
         <v/>
       </c>
-      <c r="E121">
+      <c r="E121" s="11">
         <f>'By Round'!D65</f>
         <v/>
       </c>
-      <c r="F121" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F121" s="11">
+        <f>IF(ISBLANK('By Round'!F66),"",'By Round'!F66)</f>
+        <v/>
       </c>
       <c r="G121">
-        <f>IF(ISBLANK('By Round'!G65),"",'By Round'!G65)</f>
+        <f>IF(ISBLANK('By Round'!G66),"",'By Round'!G66)</f>
         <v/>
       </c>
       <c r="H121">
-        <f>IF(ISBLANK('By Round'!H65),"",'By Round'!H65)</f>
+        <f>IF(ISBLANK('By Round'!H66),"",'By Round'!H66)</f>
         <v/>
       </c>
       <c r="I121">
-        <f>IF(ISBLANK('By Round'!I65),"",'By Round'!I65)</f>
+        <f>IF(ISBLANK('By Round'!I66),"",'By Round'!I66)</f>
         <v/>
       </c>
       <c r="J121">
-        <f>IF(ISBLANK('By Round'!J65),"",'By Round'!J65)</f>
+        <f>IF(ISBLANK('By Round'!J66),"",'By Round'!J66)</f>
         <v/>
       </c>
       <c r="K121">
-        <f>IF(ISBLANK('By Round'!K65),"",'By Round'!K65)</f>
+        <f>IF(ISBLANK('By Round'!K66),"",'By Round'!K66)</f>
         <v/>
       </c>
       <c r="L121" s="12">
@@ -19684,45 +19565,44 @@
     </row>
     <row r="122">
       <c r="A122" s="15" t="n"/>
-      <c r="B122" s="15">
+      <c r="B122" s="16">
         <f>'By Round'!A111</f>
         <v/>
       </c>
-      <c r="C122" s="15">
+      <c r="C122" s="16">
         <f>'By Round'!B111</f>
         <v/>
       </c>
-      <c r="D122" s="15">
+      <c r="D122" s="16">
         <f>'By Round'!C111</f>
         <v/>
       </c>
-      <c r="E122" s="15">
+      <c r="E122" s="16">
         <f>'By Round'!D111</f>
         <v/>
       </c>
-      <c r="F122" s="16" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F122" s="16">
+        <f>IF(ISBLANK('By Round'!F112),"",'By Round'!F112)</f>
+        <v/>
       </c>
       <c r="G122" s="15">
-        <f>IF(ISBLANK('By Round'!G111),"",'By Round'!G111)</f>
+        <f>IF(ISBLANK('By Round'!G112),"",'By Round'!G112)</f>
         <v/>
       </c>
       <c r="H122" s="15">
-        <f>IF(ISBLANK('By Round'!H111),"",'By Round'!H111)</f>
+        <f>IF(ISBLANK('By Round'!H112),"",'By Round'!H112)</f>
         <v/>
       </c>
       <c r="I122" s="15">
-        <f>IF(ISBLANK('By Round'!I111),"",'By Round'!I111)</f>
+        <f>IF(ISBLANK('By Round'!I112),"",'By Round'!I112)</f>
         <v/>
       </c>
       <c r="J122" s="15">
-        <f>IF(ISBLANK('By Round'!J111),"",'By Round'!J111)</f>
+        <f>IF(ISBLANK('By Round'!J112),"",'By Round'!J112)</f>
         <v/>
       </c>
       <c r="K122" s="15">
-        <f>IF(ISBLANK('By Round'!K111),"",'By Round'!K111)</f>
+        <f>IF(ISBLANK('By Round'!K112),"",'By Round'!K112)</f>
         <v/>
       </c>
       <c r="L122" s="17">
@@ -19839,29 +19719,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="n">
+      <c r="A123" s="11" t="n">
         <v>21</v>
       </c>
-      <c r="B123">
+      <c r="B123" s="11">
         <f>'By Round'!A15</f>
         <v/>
       </c>
-      <c r="C123">
+      <c r="C123" s="11">
         <f>'By Round'!B25</f>
         <v/>
       </c>
-      <c r="D123">
+      <c r="D123" s="11">
         <f>'By Round'!C25</f>
         <v/>
       </c>
-      <c r="E123">
+      <c r="E123" s="11">
         <f>'By Round'!D25</f>
         <v/>
       </c>
-      <c r="F123" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F123" s="11">
+        <f>IF(ISBLANK('By Round'!F25),"",'By Round'!F25)</f>
+        <v/>
       </c>
       <c r="G123">
         <f>IF(ISBLANK('By Round'!G25),"",'By Round'!G25)</f>
@@ -19997,26 +19876,25 @@
       </c>
     </row>
     <row r="124">
-      <c r="B124">
+      <c r="B124" s="11">
         <f>'By Round'!A27</f>
         <v/>
       </c>
-      <c r="C124">
+      <c r="C124" s="11">
         <f>'By Round'!B35</f>
         <v/>
       </c>
-      <c r="D124">
+      <c r="D124" s="11">
         <f>'By Round'!C35</f>
         <v/>
       </c>
-      <c r="E124">
+      <c r="E124" s="11">
         <f>'By Round'!D35</f>
         <v/>
       </c>
-      <c r="F124" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F124" s="11">
+        <f>IF(ISBLANK('By Round'!F35),"",'By Round'!F35)</f>
+        <v/>
       </c>
       <c r="G124">
         <f>IF(ISBLANK('By Round'!G35),"",'By Round'!G35)</f>
@@ -20152,26 +20030,25 @@
       </c>
     </row>
     <row r="125">
-      <c r="B125">
+      <c r="B125" s="11">
         <f>'By Round'!A39</f>
         <v/>
       </c>
-      <c r="C125">
+      <c r="C125" s="11">
         <f>'By Round'!B45</f>
         <v/>
       </c>
-      <c r="D125">
+      <c r="D125" s="11">
         <f>'By Round'!C45</f>
         <v/>
       </c>
-      <c r="E125">
+      <c r="E125" s="11">
         <f>'By Round'!D45</f>
         <v/>
       </c>
-      <c r="F125" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F125" s="11">
+        <f>IF(ISBLANK('By Round'!F45),"",'By Round'!F45)</f>
+        <v/>
       </c>
       <c r="G125">
         <f>IF(ISBLANK('By Round'!G45),"",'By Round'!G45)</f>
@@ -20307,26 +20184,25 @@
       </c>
     </row>
     <row r="126">
-      <c r="B126">
+      <c r="B126" s="11">
         <f>'By Round'!A63</f>
         <v/>
       </c>
-      <c r="C126">
+      <c r="C126" s="11">
         <f>'By Round'!B67</f>
         <v/>
       </c>
-      <c r="D126">
+      <c r="D126" s="11">
         <f>'By Round'!C67</f>
         <v/>
       </c>
-      <c r="E126">
+      <c r="E126" s="11">
         <f>'By Round'!D67</f>
         <v/>
       </c>
-      <c r="F126" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F126" s="11">
+        <f>IF(ISBLANK('By Round'!F67),"",'By Round'!F67)</f>
+        <v/>
       </c>
       <c r="G126">
         <f>IF(ISBLANK('By Round'!G67),"",'By Round'!G67)</f>
@@ -20462,26 +20338,25 @@
       </c>
     </row>
     <row r="127">
-      <c r="B127">
+      <c r="B127" s="11">
         <f>'By Round'!A75</f>
         <v/>
       </c>
-      <c r="C127">
+      <c r="C127" s="11">
         <f>'By Round'!B77</f>
         <v/>
       </c>
-      <c r="D127">
+      <c r="D127" s="11">
         <f>'By Round'!C77</f>
         <v/>
       </c>
-      <c r="E127">
+      <c r="E127" s="11">
         <f>'By Round'!D77</f>
         <v/>
       </c>
-      <c r="F127" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F127" s="11">
+        <f>IF(ISBLANK('By Round'!F77),"",'By Round'!F77)</f>
+        <v/>
       </c>
       <c r="G127">
         <f>IF(ISBLANK('By Round'!G77),"",'By Round'!G77)</f>
@@ -20618,26 +20493,25 @@
     </row>
     <row r="128">
       <c r="A128" s="15" t="n"/>
-      <c r="B128" s="15">
+      <c r="B128" s="16">
         <f>'By Round'!A123</f>
         <v/>
       </c>
-      <c r="C128" s="15">
+      <c r="C128" s="16">
         <f>'By Round'!B123</f>
         <v/>
       </c>
-      <c r="D128" s="15">
+      <c r="D128" s="16">
         <f>'By Round'!C123</f>
         <v/>
       </c>
-      <c r="E128" s="15">
+      <c r="E128" s="16">
         <f>'By Round'!D123</f>
         <v/>
       </c>
-      <c r="F128" s="16" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F128" s="16">
+        <f>IF(ISBLANK('By Round'!F123),"",'By Round'!F123)</f>
+        <v/>
       </c>
       <c r="G128" s="15">
         <f>IF(ISBLANK('By Round'!G123),"",'By Round'!G123)</f>
@@ -20773,48 +20647,47 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="n">
+      <c r="A129" s="11" t="n">
         <v>22</v>
       </c>
-      <c r="B129">
+      <c r="B129" s="11">
         <f>'By Round'!A15</f>
         <v/>
       </c>
-      <c r="C129">
+      <c r="C129" s="11">
         <f>'By Round'!B25</f>
         <v/>
       </c>
-      <c r="D129">
+      <c r="D129" s="11">
         <f>'By Round'!C25</f>
         <v/>
       </c>
-      <c r="E129">
+      <c r="E129" s="11">
         <f>'By Round'!D25</f>
         <v/>
       </c>
-      <c r="F129" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F129" s="11">
+        <f>IF(ISBLANK('By Round'!F26),"",'By Round'!F26)</f>
+        <v/>
       </c>
       <c r="G129">
-        <f>IF(ISBLANK('By Round'!G25),"",'By Round'!G25)</f>
+        <f>IF(ISBLANK('By Round'!G26),"",'By Round'!G26)</f>
         <v/>
       </c>
       <c r="H129">
-        <f>IF(ISBLANK('By Round'!H25),"",'By Round'!H25)</f>
+        <f>IF(ISBLANK('By Round'!H26),"",'By Round'!H26)</f>
         <v/>
       </c>
       <c r="I129">
-        <f>IF(ISBLANK('By Round'!I25),"",'By Round'!I25)</f>
+        <f>IF(ISBLANK('By Round'!I26),"",'By Round'!I26)</f>
         <v/>
       </c>
       <c r="J129">
-        <f>IF(ISBLANK('By Round'!J25),"",'By Round'!J25)</f>
+        <f>IF(ISBLANK('By Round'!J26),"",'By Round'!J26)</f>
         <v/>
       </c>
       <c r="K129">
-        <f>IF(ISBLANK('By Round'!K25),"",'By Round'!K25)</f>
+        <f>IF(ISBLANK('By Round'!K26),"",'By Round'!K26)</f>
         <v/>
       </c>
       <c r="L129" s="12">
@@ -20931,45 +20804,44 @@
       </c>
     </row>
     <row r="130">
-      <c r="B130">
+      <c r="B130" s="11">
         <f>'By Round'!A27</f>
         <v/>
       </c>
-      <c r="C130">
+      <c r="C130" s="11">
         <f>'By Round'!B35</f>
         <v/>
       </c>
-      <c r="D130">
+      <c r="D130" s="11">
         <f>'By Round'!C35</f>
         <v/>
       </c>
-      <c r="E130">
+      <c r="E130" s="11">
         <f>'By Round'!D35</f>
         <v/>
       </c>
-      <c r="F130" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F130" s="11">
+        <f>IF(ISBLANK('By Round'!F36),"",'By Round'!F36)</f>
+        <v/>
       </c>
       <c r="G130">
-        <f>IF(ISBLANK('By Round'!G35),"",'By Round'!G35)</f>
+        <f>IF(ISBLANK('By Round'!G36),"",'By Round'!G36)</f>
         <v/>
       </c>
       <c r="H130">
-        <f>IF(ISBLANK('By Round'!H35),"",'By Round'!H35)</f>
+        <f>IF(ISBLANK('By Round'!H36),"",'By Round'!H36)</f>
         <v/>
       </c>
       <c r="I130">
-        <f>IF(ISBLANK('By Round'!I35),"",'By Round'!I35)</f>
+        <f>IF(ISBLANK('By Round'!I36),"",'By Round'!I36)</f>
         <v/>
       </c>
       <c r="J130">
-        <f>IF(ISBLANK('By Round'!J35),"",'By Round'!J35)</f>
+        <f>IF(ISBLANK('By Round'!J36),"",'By Round'!J36)</f>
         <v/>
       </c>
       <c r="K130">
-        <f>IF(ISBLANK('By Round'!K35),"",'By Round'!K35)</f>
+        <f>IF(ISBLANK('By Round'!K36),"",'By Round'!K36)</f>
         <v/>
       </c>
       <c r="L130" s="12">
@@ -21086,45 +20958,44 @@
       </c>
     </row>
     <row r="131">
-      <c r="B131">
+      <c r="B131" s="11">
         <f>'By Round'!A39</f>
         <v/>
       </c>
-      <c r="C131">
+      <c r="C131" s="11">
         <f>'By Round'!B45</f>
         <v/>
       </c>
-      <c r="D131">
+      <c r="D131" s="11">
         <f>'By Round'!C45</f>
         <v/>
       </c>
-      <c r="E131">
+      <c r="E131" s="11">
         <f>'By Round'!D45</f>
         <v/>
       </c>
-      <c r="F131" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F131" s="11">
+        <f>IF(ISBLANK('By Round'!F46),"",'By Round'!F46)</f>
+        <v/>
       </c>
       <c r="G131">
-        <f>IF(ISBLANK('By Round'!G45),"",'By Round'!G45)</f>
+        <f>IF(ISBLANK('By Round'!G46),"",'By Round'!G46)</f>
         <v/>
       </c>
       <c r="H131">
-        <f>IF(ISBLANK('By Round'!H45),"",'By Round'!H45)</f>
+        <f>IF(ISBLANK('By Round'!H46),"",'By Round'!H46)</f>
         <v/>
       </c>
       <c r="I131">
-        <f>IF(ISBLANK('By Round'!I45),"",'By Round'!I45)</f>
+        <f>IF(ISBLANK('By Round'!I46),"",'By Round'!I46)</f>
         <v/>
       </c>
       <c r="J131">
-        <f>IF(ISBLANK('By Round'!J45),"",'By Round'!J45)</f>
+        <f>IF(ISBLANK('By Round'!J46),"",'By Round'!J46)</f>
         <v/>
       </c>
       <c r="K131">
-        <f>IF(ISBLANK('By Round'!K45),"",'By Round'!K45)</f>
+        <f>IF(ISBLANK('By Round'!K46),"",'By Round'!K46)</f>
         <v/>
       </c>
       <c r="L131" s="12">
@@ -21241,45 +21112,44 @@
       </c>
     </row>
     <row r="132">
-      <c r="B132">
+      <c r="B132" s="11">
         <f>'By Round'!A63</f>
         <v/>
       </c>
-      <c r="C132">
+      <c r="C132" s="11">
         <f>'By Round'!B67</f>
         <v/>
       </c>
-      <c r="D132">
+      <c r="D132" s="11">
         <f>'By Round'!C67</f>
         <v/>
       </c>
-      <c r="E132">
+      <c r="E132" s="11">
         <f>'By Round'!D67</f>
         <v/>
       </c>
-      <c r="F132" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F132" s="11">
+        <f>IF(ISBLANK('By Round'!F68),"",'By Round'!F68)</f>
+        <v/>
       </c>
       <c r="G132">
-        <f>IF(ISBLANK('By Round'!G67),"",'By Round'!G67)</f>
+        <f>IF(ISBLANK('By Round'!G68),"",'By Round'!G68)</f>
         <v/>
       </c>
       <c r="H132">
-        <f>IF(ISBLANK('By Round'!H67),"",'By Round'!H67)</f>
+        <f>IF(ISBLANK('By Round'!H68),"",'By Round'!H68)</f>
         <v/>
       </c>
       <c r="I132">
-        <f>IF(ISBLANK('By Round'!I67),"",'By Round'!I67)</f>
+        <f>IF(ISBLANK('By Round'!I68),"",'By Round'!I68)</f>
         <v/>
       </c>
       <c r="J132">
-        <f>IF(ISBLANK('By Round'!J67),"",'By Round'!J67)</f>
+        <f>IF(ISBLANK('By Round'!J68),"",'By Round'!J68)</f>
         <v/>
       </c>
       <c r="K132">
-        <f>IF(ISBLANK('By Round'!K67),"",'By Round'!K67)</f>
+        <f>IF(ISBLANK('By Round'!K68),"",'By Round'!K68)</f>
         <v/>
       </c>
       <c r="L132" s="12">
@@ -21396,45 +21266,44 @@
       </c>
     </row>
     <row r="133">
-      <c r="B133">
+      <c r="B133" s="11">
         <f>'By Round'!A75</f>
         <v/>
       </c>
-      <c r="C133">
+      <c r="C133" s="11">
         <f>'By Round'!B77</f>
         <v/>
       </c>
-      <c r="D133">
+      <c r="D133" s="11">
         <f>'By Round'!C77</f>
         <v/>
       </c>
-      <c r="E133">
+      <c r="E133" s="11">
         <f>'By Round'!D77</f>
         <v/>
       </c>
-      <c r="F133" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F133" s="11">
+        <f>IF(ISBLANK('By Round'!F78),"",'By Round'!F78)</f>
+        <v/>
       </c>
       <c r="G133">
-        <f>IF(ISBLANK('By Round'!G77),"",'By Round'!G77)</f>
+        <f>IF(ISBLANK('By Round'!G78),"",'By Round'!G78)</f>
         <v/>
       </c>
       <c r="H133">
-        <f>IF(ISBLANK('By Round'!H77),"",'By Round'!H77)</f>
+        <f>IF(ISBLANK('By Round'!H78),"",'By Round'!H78)</f>
         <v/>
       </c>
       <c r="I133">
-        <f>IF(ISBLANK('By Round'!I77),"",'By Round'!I77)</f>
+        <f>IF(ISBLANK('By Round'!I78),"",'By Round'!I78)</f>
         <v/>
       </c>
       <c r="J133">
-        <f>IF(ISBLANK('By Round'!J77),"",'By Round'!J77)</f>
+        <f>IF(ISBLANK('By Round'!J78),"",'By Round'!J78)</f>
         <v/>
       </c>
       <c r="K133">
-        <f>IF(ISBLANK('By Round'!K77),"",'By Round'!K77)</f>
+        <f>IF(ISBLANK('By Round'!K78),"",'By Round'!K78)</f>
         <v/>
       </c>
       <c r="L133" s="12">
@@ -21552,45 +21421,44 @@
     </row>
     <row r="134">
       <c r="A134" s="15" t="n"/>
-      <c r="B134" s="15">
+      <c r="B134" s="16">
         <f>'By Round'!A123</f>
         <v/>
       </c>
-      <c r="C134" s="15">
+      <c r="C134" s="16">
         <f>'By Round'!B123</f>
         <v/>
       </c>
-      <c r="D134" s="15">
+      <c r="D134" s="16">
         <f>'By Round'!C123</f>
         <v/>
       </c>
-      <c r="E134" s="15">
+      <c r="E134" s="16">
         <f>'By Round'!D123</f>
         <v/>
       </c>
-      <c r="F134" s="16" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F134" s="16">
+        <f>IF(ISBLANK('By Round'!F124),"",'By Round'!F124)</f>
+        <v/>
       </c>
       <c r="G134" s="15">
-        <f>IF(ISBLANK('By Round'!G123),"",'By Round'!G123)</f>
+        <f>IF(ISBLANK('By Round'!G124),"",'By Round'!G124)</f>
         <v/>
       </c>
       <c r="H134" s="15">
-        <f>IF(ISBLANK('By Round'!H123),"",'By Round'!H123)</f>
+        <f>IF(ISBLANK('By Round'!H124),"",'By Round'!H124)</f>
         <v/>
       </c>
       <c r="I134" s="15">
-        <f>IF(ISBLANK('By Round'!I123),"",'By Round'!I123)</f>
+        <f>IF(ISBLANK('By Round'!I124),"",'By Round'!I124)</f>
         <v/>
       </c>
       <c r="J134" s="15">
-        <f>IF(ISBLANK('By Round'!J123),"",'By Round'!J123)</f>
+        <f>IF(ISBLANK('By Round'!J124),"",'By Round'!J124)</f>
         <v/>
       </c>
       <c r="K134" s="15">
-        <f>IF(ISBLANK('By Round'!K123),"",'By Round'!K123)</f>
+        <f>IF(ISBLANK('By Round'!K124),"",'By Round'!K124)</f>
         <v/>
       </c>
       <c r="L134" s="17">

--- a/howell11.xlsx
+++ b/howell11.xlsx
@@ -511,7 +511,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>For public domain. No rights reserved. Generated on Feb 08, 2026.</t>
+          <t>For public domain. No rights reserved. Generated on Feb 10, 2026.</t>
         </is>
       </c>
     </row>
@@ -595,12 +595,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Name 37</t>
+          <t>Name 63</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Name 56</t>
+          <t>Name 45</t>
         </is>
       </c>
       <c r="D10" s="4">
@@ -618,219 +618,219 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Name 63</t>
+          <t>Name 23</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
+        <is>
+          <t>Name 51</t>
+        </is>
+      </c>
+      <c r="D11" s="4">
+        <f>SUMIF('By Board'!$D$3:$D$122,"=2",'By Board'!$N$3:$N$122)/20+SUMIF('By Board'!$E$3:$E$122,"=2",'By Board'!$O$3:$O$122)/20</f>
+        <v/>
+      </c>
+      <c r="E11" s="5">
+        <f>SUMIF('By Board'!$D$3:$D$122,"=2",'By Board'!$L$3:$L$122)+SUMIF('By Board'!$E$3:$E$122,"=2",'By Board'!$M$3:$M$122)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>Name 90</t>
         </is>
       </c>
-      <c r="D11" s="4">
-        <f>SUMIF('By Board'!$D$3:$D$122,"=2",'By Board'!$N$3:$N$122)/20+SUMIF('By Board'!$E$3:$E$122,"=2",'By Board'!$O$3:$O$122)/20</f>
-        <v/>
-      </c>
-      <c r="E11" s="5">
-        <f>SUMIF('By Board'!$D$3:$D$122,"=2",'By Board'!$L$3:$L$122)+SUMIF('By Board'!$E$3:$E$122,"=2",'By Board'!$M$3:$M$122)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
-          <t>Name 13</t>
+          <t>Name 42</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" s="4">
+        <f>SUMIF('By Board'!$D$3:$D$122,"=3",'By Board'!$N$3:$N$122)/20+SUMIF('By Board'!$E$3:$E$122,"=3",'By Board'!$O$3:$O$122)/20</f>
+        <v/>
+      </c>
+      <c r="E12" s="5">
+        <f>SUMIF('By Board'!$D$3:$D$122,"=3",'By Board'!$L$3:$L$122)+SUMIF('By Board'!$E$3:$E$122,"=3",'By Board'!$M$3:$M$122)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Name 73</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Name 37</t>
+        </is>
+      </c>
+      <c r="D13" s="4">
+        <f>SUMIF('By Board'!$D$3:$D$122,"=4",'By Board'!$N$3:$N$122)/20+SUMIF('By Board'!$E$3:$E$122,"=4",'By Board'!$O$3:$O$122)/20</f>
+        <v/>
+      </c>
+      <c r="E13" s="5">
+        <f>SUMIF('By Board'!$D$3:$D$122,"=4",'By Board'!$L$3:$L$122)+SUMIF('By Board'!$E$3:$E$122,"=4",'By Board'!$M$3:$M$122)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Name 16</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Name 22</t>
+        </is>
+      </c>
+      <c r="D14" s="4">
+        <f>SUMIF('By Board'!$D$3:$D$122,"=5",'By Board'!$N$3:$N$122)/20+SUMIF('By Board'!$E$3:$E$122,"=5",'By Board'!$O$3:$O$122)/20</f>
+        <v/>
+      </c>
+      <c r="E14" s="5">
+        <f>SUMIF('By Board'!$D$3:$D$122,"=5",'By Board'!$L$3:$L$122)+SUMIF('By Board'!$E$3:$E$122,"=5",'By Board'!$M$3:$M$122)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Name 29</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Name 37</t>
+        </is>
+      </c>
+      <c r="D15" s="4">
+        <f>SUMIF('By Board'!$D$3:$D$122,"=6",'By Board'!$N$3:$N$122)/20+SUMIF('By Board'!$E$3:$E$122,"=6",'By Board'!$O$3:$O$122)/20</f>
+        <v/>
+      </c>
+      <c r="E15" s="5">
+        <f>SUMIF('By Board'!$D$3:$D$122,"=6",'By Board'!$L$3:$L$122)+SUMIF('By Board'!$E$3:$E$122,"=6",'By Board'!$M$3:$M$122)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Name 59</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Name 59</t>
+        </is>
+      </c>
+      <c r="D16" s="4">
+        <f>SUMIF('By Board'!$D$3:$D$122,"=7",'By Board'!$N$3:$N$122)/20+SUMIF('By Board'!$E$3:$E$122,"=7",'By Board'!$O$3:$O$122)/20</f>
+        <v/>
+      </c>
+      <c r="E16" s="5">
+        <f>SUMIF('By Board'!$D$3:$D$122,"=7",'By Board'!$L$3:$L$122)+SUMIF('By Board'!$E$3:$E$122,"=7",'By Board'!$M$3:$M$122)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Name 25</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Name 54</t>
+        </is>
+      </c>
+      <c r="D17" s="4">
+        <f>SUMIF('By Board'!$D$3:$D$122,"=8",'By Board'!$N$3:$N$122)/20+SUMIF('By Board'!$E$3:$E$122,"=8",'By Board'!$O$3:$O$122)/20</f>
+        <v/>
+      </c>
+      <c r="E17" s="5">
+        <f>SUMIF('By Board'!$D$3:$D$122,"=8",'By Board'!$L$3:$L$122)+SUMIF('By Board'!$E$3:$E$122,"=8",'By Board'!$M$3:$M$122)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Name 53</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Name 43</t>
+        </is>
+      </c>
+      <c r="D18" s="4">
+        <f>SUMIF('By Board'!$D$3:$D$122,"=9",'By Board'!$N$3:$N$122)/20+SUMIF('By Board'!$E$3:$E$122,"=9",'By Board'!$O$3:$O$122)/20</f>
+        <v/>
+      </c>
+      <c r="E18" s="5">
+        <f>SUMIF('By Board'!$D$3:$D$122,"=9",'By Board'!$L$3:$L$122)+SUMIF('By Board'!$E$3:$E$122,"=9",'By Board'!$M$3:$M$122)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Name 20</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Name 74</t>
+        </is>
+      </c>
+      <c r="D19" s="4">
+        <f>SUMIF('By Board'!$D$3:$D$122,"=10",'By Board'!$N$3:$N$122)/20+SUMIF('By Board'!$E$3:$E$122,"=10",'By Board'!$O$3:$O$122)/20</f>
+        <v/>
+      </c>
+      <c r="E19" s="5">
+        <f>SUMIF('By Board'!$D$3:$D$122,"=10",'By Board'!$L$3:$L$122)+SUMIF('By Board'!$E$3:$E$122,"=10",'By Board'!$M$3:$M$122)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>Name 76</t>
         </is>
       </c>
-      <c r="D12" s="4">
-        <f>SUMIF('By Board'!$D$3:$D$122,"=3",'By Board'!$N$3:$N$122)/20+SUMIF('By Board'!$E$3:$E$122,"=3",'By Board'!$O$3:$O$122)/20</f>
-        <v/>
-      </c>
-      <c r="E12" s="5">
-        <f>SUMIF('By Board'!$D$3:$D$122,"=3",'By Board'!$L$3:$L$122)+SUMIF('By Board'!$E$3:$E$122,"=3",'By Board'!$M$3:$M$122)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Name 17</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Name 66</t>
-        </is>
-      </c>
-      <c r="D13" s="4">
-        <f>SUMIF('By Board'!$D$3:$D$122,"=4",'By Board'!$N$3:$N$122)/20+SUMIF('By Board'!$E$3:$E$122,"=4",'By Board'!$O$3:$O$122)/20</f>
-        <v/>
-      </c>
-      <c r="E13" s="5">
-        <f>SUMIF('By Board'!$D$3:$D$122,"=4",'By Board'!$L$3:$L$122)+SUMIF('By Board'!$E$3:$E$122,"=4",'By Board'!$M$3:$M$122)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Name 38</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Name 59</t>
-        </is>
-      </c>
-      <c r="D14" s="4">
-        <f>SUMIF('By Board'!$D$3:$D$122,"=5",'By Board'!$N$3:$N$122)/20+SUMIF('By Board'!$E$3:$E$122,"=5",'By Board'!$O$3:$O$122)/20</f>
-        <v/>
-      </c>
-      <c r="E14" s="5">
-        <f>SUMIF('By Board'!$D$3:$D$122,"=5",'By Board'!$L$3:$L$122)+SUMIF('By Board'!$E$3:$E$122,"=5",'By Board'!$M$3:$M$122)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Name 82</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Name 57</t>
-        </is>
-      </c>
-      <c r="D15" s="4">
-        <f>SUMIF('By Board'!$D$3:$D$122,"=6",'By Board'!$N$3:$N$122)/20+SUMIF('By Board'!$E$3:$E$122,"=6",'By Board'!$O$3:$O$122)/20</f>
-        <v/>
-      </c>
-      <c r="E15" s="5">
-        <f>SUMIF('By Board'!$D$3:$D$122,"=6",'By Board'!$L$3:$L$122)+SUMIF('By Board'!$E$3:$E$122,"=6",'By Board'!$M$3:$M$122)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Name 45</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Name 56</t>
-        </is>
-      </c>
-      <c r="D16" s="4">
-        <f>SUMIF('By Board'!$D$3:$D$122,"=7",'By Board'!$N$3:$N$122)/20+SUMIF('By Board'!$E$3:$E$122,"=7",'By Board'!$O$3:$O$122)/20</f>
-        <v/>
-      </c>
-      <c r="E16" s="5">
-        <f>SUMIF('By Board'!$D$3:$D$122,"=7",'By Board'!$L$3:$L$122)+SUMIF('By Board'!$E$3:$E$122,"=7",'By Board'!$M$3:$M$122)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Name 70</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Name 26</t>
-        </is>
-      </c>
-      <c r="D17" s="4">
-        <f>SUMIF('By Board'!$D$3:$D$122,"=8",'By Board'!$N$3:$N$122)/20+SUMIF('By Board'!$E$3:$E$122,"=8",'By Board'!$O$3:$O$122)/20</f>
-        <v/>
-      </c>
-      <c r="E17" s="5">
-        <f>SUMIF('By Board'!$D$3:$D$122,"=8",'By Board'!$L$3:$L$122)+SUMIF('By Board'!$E$3:$E$122,"=8",'By Board'!$M$3:$M$122)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Name 29</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Name 40</t>
-        </is>
-      </c>
-      <c r="D18" s="4">
-        <f>SUMIF('By Board'!$D$3:$D$122,"=9",'By Board'!$N$3:$N$122)/20+SUMIF('By Board'!$E$3:$E$122,"=9",'By Board'!$O$3:$O$122)/20</f>
-        <v/>
-      </c>
-      <c r="E18" s="5">
-        <f>SUMIF('By Board'!$D$3:$D$122,"=9",'By Board'!$L$3:$L$122)+SUMIF('By Board'!$E$3:$E$122,"=9",'By Board'!$M$3:$M$122)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Name 54</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Name 84</t>
-        </is>
-      </c>
-      <c r="D19" s="4">
-        <f>SUMIF('By Board'!$D$3:$D$122,"=10",'By Board'!$N$3:$N$122)/20+SUMIF('By Board'!$E$3:$E$122,"=10",'By Board'!$O$3:$O$122)/20</f>
-        <v/>
-      </c>
-      <c r="E19" s="5">
-        <f>SUMIF('By Board'!$D$3:$D$122,"=10",'By Board'!$L$3:$L$122)+SUMIF('By Board'!$E$3:$E$122,"=10",'By Board'!$M$3:$M$122)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Name 85</t>
-        </is>
-      </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Name 89</t>
+          <t>Name 83</t>
         </is>
       </c>
       <c r="D20" s="4">

--- a/howell11.xlsx
+++ b/howell11.xlsx
@@ -511,7 +511,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>For public domain. No rights reserved. Generated on Feb 10, 2026.</t>
+          <t>For public domain. No rights reserved. Generated on Feb 11, 2026.</t>
         </is>
       </c>
     </row>
@@ -595,12 +595,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Name 63</t>
+          <t>Name 31</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Name 45</t>
+          <t>Name 56</t>
         </is>
       </c>
       <c r="D10" s="4">
@@ -618,12 +618,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Name 23</t>
+          <t>Name 21</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Name 51</t>
+          <t>Name 59</t>
         </is>
       </c>
       <c r="D11" s="4">
@@ -641,12 +641,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Name 90</t>
+          <t>Name 52</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Name 42</t>
+          <t>Name 28</t>
         </is>
       </c>
       <c r="D12" s="4">
@@ -664,7 +664,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Name 73</t>
+          <t>Name 65</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -687,12 +687,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Name 16</t>
+          <t>Name 35</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Name 22</t>
+          <t>Name 27</t>
         </is>
       </c>
       <c r="D14" s="4">
@@ -710,12 +710,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Name 29</t>
+          <t>Name 58</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Name 37</t>
+          <t>Name 56</t>
         </is>
       </c>
       <c r="D15" s="4">
@@ -733,12 +733,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Name 59</t>
+          <t>Name 87</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Name 59</t>
+          <t>Name 89</t>
         </is>
       </c>
       <c r="D16" s="4">
@@ -756,12 +756,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Name 25</t>
+          <t>Name 26</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Name 54</t>
+          <t>Name 16</t>
         </is>
       </c>
       <c r="D17" s="4">
@@ -779,12 +779,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Name 53</t>
+          <t>Name 78</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Name 43</t>
+          <t>Name 68</t>
         </is>
       </c>
       <c r="D18" s="4">
@@ -802,12 +802,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Name 20</t>
+          <t>Name 88</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Name 74</t>
+          <t>Name 61</t>
         </is>
       </c>
       <c r="D19" s="4">
@@ -825,12 +825,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Name 76</t>
+          <t>Name 15</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Name 83</t>
+          <t>Name 14</t>
         </is>
       </c>
       <c r="D20" s="4">
@@ -1203,11 +1203,11 @@
         <v/>
       </c>
       <c r="L3" s="12">
-        <f>SUM(AD3:AH3)</f>
+        <f>AVERAGE(AD3:AH3)</f>
         <v/>
       </c>
       <c r="M3" s="13">
-        <f>SUM(AI3:AM3)</f>
+        <f>AVERAGE(AI3:AM3)</f>
         <v/>
       </c>
       <c r="N3" s="8">
@@ -1317,51 +1317,51 @@
     </row>
     <row r="4">
       <c r="B4" s="11">
-        <f>'By Round'!A27</f>
+        <f>'By Round'!A75</f>
         <v/>
       </c>
       <c r="C4" s="11">
-        <f>'By Round'!B37</f>
+        <f>'By Round'!B79</f>
         <v/>
       </c>
       <c r="D4" s="11">
-        <f>'By Round'!C37</f>
+        <f>'By Round'!C79</f>
         <v/>
       </c>
       <c r="E4" s="11">
-        <f>'By Round'!D37</f>
+        <f>'By Round'!D79</f>
         <v/>
       </c>
       <c r="F4" s="11">
-        <f>IF(ISBLANK('By Round'!F37),"",'By Round'!F37)</f>
+        <f>IF(ISBLANK('By Round'!F79),"",'By Round'!F79)</f>
         <v/>
       </c>
       <c r="G4">
-        <f>IF(ISBLANK('By Round'!G37),"",'By Round'!G37)</f>
+        <f>IF(ISBLANK('By Round'!G79),"",'By Round'!G79)</f>
         <v/>
       </c>
       <c r="H4">
-        <f>IF(ISBLANK('By Round'!H37),"",'By Round'!H37)</f>
+        <f>IF(ISBLANK('By Round'!H79),"",'By Round'!H79)</f>
         <v/>
       </c>
       <c r="I4">
-        <f>IF(ISBLANK('By Round'!I37),"",'By Round'!I37)</f>
+        <f>IF(ISBLANK('By Round'!I79),"",'By Round'!I79)</f>
         <v/>
       </c>
       <c r="J4">
-        <f>IF(ISBLANK('By Round'!J37),"",'By Round'!J37)</f>
+        <f>IF(ISBLANK('By Round'!J79),"",'By Round'!J79)</f>
         <v/>
       </c>
       <c r="K4">
-        <f>IF(ISBLANK('By Round'!K37),"",'By Round'!K37)</f>
+        <f>IF(ISBLANK('By Round'!K79),"",'By Round'!K79)</f>
         <v/>
       </c>
       <c r="L4" s="12">
-        <f>SUM(AD4:AH4)</f>
+        <f>AVERAGE(AD4:AH4)</f>
         <v/>
       </c>
       <c r="M4" s="13">
-        <f>SUM(AI4:AM4)</f>
+        <f>AVERAGE(AI4:AM4)</f>
         <v/>
       </c>
       <c r="N4" s="8">
@@ -1511,11 +1511,11 @@
         <v/>
       </c>
       <c r="L5" s="12">
-        <f>SUM(AD5:AH5)</f>
+        <f>AVERAGE(AD5:AH5)</f>
         <v/>
       </c>
       <c r="M5" s="13">
-        <f>SUM(AI5:AM5)</f>
+        <f>AVERAGE(AI5:AM5)</f>
         <v/>
       </c>
       <c r="N5" s="8">
@@ -1665,11 +1665,11 @@
         <v/>
       </c>
       <c r="L6" s="12">
-        <f>SUM(AD6:AH6)</f>
+        <f>AVERAGE(AD6:AH6)</f>
         <v/>
       </c>
       <c r="M6" s="13">
-        <f>SUM(AI6:AM6)</f>
+        <f>AVERAGE(AI6:AM6)</f>
         <v/>
       </c>
       <c r="N6" s="8">
@@ -1779,51 +1779,51 @@
     </row>
     <row r="7">
       <c r="B7" s="11">
-        <f>'By Round'!A75</f>
+        <f>'By Round'!A87</f>
         <v/>
       </c>
       <c r="C7" s="11">
-        <f>'By Round'!B79</f>
+        <f>'By Round'!B89</f>
         <v/>
       </c>
       <c r="D7" s="11">
-        <f>'By Round'!C79</f>
+        <f>'By Round'!C89</f>
         <v/>
       </c>
       <c r="E7" s="11">
-        <f>'By Round'!D79</f>
+        <f>'By Round'!D89</f>
         <v/>
       </c>
       <c r="F7" s="11">
-        <f>IF(ISBLANK('By Round'!F79),"",'By Round'!F79)</f>
+        <f>IF(ISBLANK('By Round'!F89),"",'By Round'!F89)</f>
         <v/>
       </c>
       <c r="G7">
-        <f>IF(ISBLANK('By Round'!G79),"",'By Round'!G79)</f>
+        <f>IF(ISBLANK('By Round'!G89),"",'By Round'!G89)</f>
         <v/>
       </c>
       <c r="H7">
-        <f>IF(ISBLANK('By Round'!H79),"",'By Round'!H79)</f>
+        <f>IF(ISBLANK('By Round'!H89),"",'By Round'!H89)</f>
         <v/>
       </c>
       <c r="I7">
-        <f>IF(ISBLANK('By Round'!I79),"",'By Round'!I79)</f>
+        <f>IF(ISBLANK('By Round'!I89),"",'By Round'!I89)</f>
         <v/>
       </c>
       <c r="J7">
-        <f>IF(ISBLANK('By Round'!J79),"",'By Round'!J79)</f>
+        <f>IF(ISBLANK('By Round'!J89),"",'By Round'!J89)</f>
         <v/>
       </c>
       <c r="K7">
-        <f>IF(ISBLANK('By Round'!K79),"",'By Round'!K79)</f>
+        <f>IF(ISBLANK('By Round'!K89),"",'By Round'!K89)</f>
         <v/>
       </c>
       <c r="L7" s="12">
-        <f>SUM(AD7:AH7)</f>
+        <f>AVERAGE(AD7:AH7)</f>
         <v/>
       </c>
       <c r="M7" s="13">
-        <f>SUM(AI7:AM7)</f>
+        <f>AVERAGE(AI7:AM7)</f>
         <v/>
       </c>
       <c r="N7" s="8">
@@ -1934,51 +1934,51 @@
     <row r="8">
       <c r="A8" s="15" t="n"/>
       <c r="B8" s="16">
-        <f>'By Round'!A87</f>
+        <f>'By Round'!A27</f>
         <v/>
       </c>
       <c r="C8" s="16">
-        <f>'By Round'!B89</f>
+        <f>'By Round'!B37</f>
         <v/>
       </c>
       <c r="D8" s="16">
-        <f>'By Round'!C89</f>
+        <f>'By Round'!C37</f>
         <v/>
       </c>
       <c r="E8" s="16">
-        <f>'By Round'!D89</f>
+        <f>'By Round'!D37</f>
         <v/>
       </c>
       <c r="F8" s="16">
-        <f>IF(ISBLANK('By Round'!F89),"",'By Round'!F89)</f>
+        <f>IF(ISBLANK('By Round'!F37),"",'By Round'!F37)</f>
         <v/>
       </c>
       <c r="G8" s="15">
-        <f>IF(ISBLANK('By Round'!G89),"",'By Round'!G89)</f>
+        <f>IF(ISBLANK('By Round'!G37),"",'By Round'!G37)</f>
         <v/>
       </c>
       <c r="H8" s="15">
-        <f>IF(ISBLANK('By Round'!H89),"",'By Round'!H89)</f>
+        <f>IF(ISBLANK('By Round'!H37),"",'By Round'!H37)</f>
         <v/>
       </c>
       <c r="I8" s="15">
-        <f>IF(ISBLANK('By Round'!I89),"",'By Round'!I89)</f>
+        <f>IF(ISBLANK('By Round'!I37),"",'By Round'!I37)</f>
         <v/>
       </c>
       <c r="J8" s="15">
-        <f>IF(ISBLANK('By Round'!J89),"",'By Round'!J89)</f>
+        <f>IF(ISBLANK('By Round'!J37),"",'By Round'!J37)</f>
         <v/>
       </c>
       <c r="K8" s="15">
-        <f>IF(ISBLANK('By Round'!K89),"",'By Round'!K89)</f>
+        <f>IF(ISBLANK('By Round'!K37),"",'By Round'!K37)</f>
         <v/>
       </c>
       <c r="L8" s="17">
-        <f>SUM(AD8:AH8)</f>
+        <f>AVERAGE(AD8:AH8)</f>
         <v/>
       </c>
       <c r="M8" s="18">
-        <f>SUM(AI8:AM8)</f>
+        <f>AVERAGE(AI8:AM8)</f>
         <v/>
       </c>
       <c r="N8" s="19">
@@ -2131,11 +2131,11 @@
         <v/>
       </c>
       <c r="L9" s="12">
-        <f>SUM(AD9:AH9)</f>
+        <f>AVERAGE(AD9:AH9)</f>
         <v/>
       </c>
       <c r="M9" s="13">
-        <f>SUM(AI9:AM9)</f>
+        <f>AVERAGE(AI9:AM9)</f>
         <v/>
       </c>
       <c r="N9" s="8">
@@ -2245,51 +2245,51 @@
     </row>
     <row r="10">
       <c r="B10" s="11">
-        <f>'By Round'!A27</f>
+        <f>'By Round'!A75</f>
         <v/>
       </c>
       <c r="C10" s="11">
-        <f>'By Round'!B37</f>
+        <f>'By Round'!B79</f>
         <v/>
       </c>
       <c r="D10" s="11">
-        <f>'By Round'!C37</f>
+        <f>'By Round'!C79</f>
         <v/>
       </c>
       <c r="E10" s="11">
-        <f>'By Round'!D37</f>
+        <f>'By Round'!D79</f>
         <v/>
       </c>
       <c r="F10" s="11">
-        <f>IF(ISBLANK('By Round'!F38),"",'By Round'!F38)</f>
+        <f>IF(ISBLANK('By Round'!F80),"",'By Round'!F80)</f>
         <v/>
       </c>
       <c r="G10">
-        <f>IF(ISBLANK('By Round'!G38),"",'By Round'!G38)</f>
+        <f>IF(ISBLANK('By Round'!G80),"",'By Round'!G80)</f>
         <v/>
       </c>
       <c r="H10">
-        <f>IF(ISBLANK('By Round'!H38),"",'By Round'!H38)</f>
+        <f>IF(ISBLANK('By Round'!H80),"",'By Round'!H80)</f>
         <v/>
       </c>
       <c r="I10">
-        <f>IF(ISBLANK('By Round'!I38),"",'By Round'!I38)</f>
+        <f>IF(ISBLANK('By Round'!I80),"",'By Round'!I80)</f>
         <v/>
       </c>
       <c r="J10">
-        <f>IF(ISBLANK('By Round'!J38),"",'By Round'!J38)</f>
+        <f>IF(ISBLANK('By Round'!J80),"",'By Round'!J80)</f>
         <v/>
       </c>
       <c r="K10">
-        <f>IF(ISBLANK('By Round'!K38),"",'By Round'!K38)</f>
+        <f>IF(ISBLANK('By Round'!K80),"",'By Round'!K80)</f>
         <v/>
       </c>
       <c r="L10" s="12">
-        <f>SUM(AD10:AH10)</f>
+        <f>AVERAGE(AD10:AH10)</f>
         <v/>
       </c>
       <c r="M10" s="13">
-        <f>SUM(AI10:AM10)</f>
+        <f>AVERAGE(AI10:AM10)</f>
         <v/>
       </c>
       <c r="N10" s="8">
@@ -2439,11 +2439,11 @@
         <v/>
       </c>
       <c r="L11" s="12">
-        <f>SUM(AD11:AH11)</f>
+        <f>AVERAGE(AD11:AH11)</f>
         <v/>
       </c>
       <c r="M11" s="13">
-        <f>SUM(AI11:AM11)</f>
+        <f>AVERAGE(AI11:AM11)</f>
         <v/>
       </c>
       <c r="N11" s="8">
@@ -2593,11 +2593,11 @@
         <v/>
       </c>
       <c r="L12" s="12">
-        <f>SUM(AD12:AH12)</f>
+        <f>AVERAGE(AD12:AH12)</f>
         <v/>
       </c>
       <c r="M12" s="13">
-        <f>SUM(AI12:AM12)</f>
+        <f>AVERAGE(AI12:AM12)</f>
         <v/>
       </c>
       <c r="N12" s="8">
@@ -2707,51 +2707,51 @@
     </row>
     <row r="13">
       <c r="B13" s="11">
-        <f>'By Round'!A75</f>
+        <f>'By Round'!A87</f>
         <v/>
       </c>
       <c r="C13" s="11">
-        <f>'By Round'!B79</f>
+        <f>'By Round'!B89</f>
         <v/>
       </c>
       <c r="D13" s="11">
-        <f>'By Round'!C79</f>
+        <f>'By Round'!C89</f>
         <v/>
       </c>
       <c r="E13" s="11">
-        <f>'By Round'!D79</f>
+        <f>'By Round'!D89</f>
         <v/>
       </c>
       <c r="F13" s="11">
-        <f>IF(ISBLANK('By Round'!F80),"",'By Round'!F80)</f>
+        <f>IF(ISBLANK('By Round'!F90),"",'By Round'!F90)</f>
         <v/>
       </c>
       <c r="G13">
-        <f>IF(ISBLANK('By Round'!G80),"",'By Round'!G80)</f>
+        <f>IF(ISBLANK('By Round'!G90),"",'By Round'!G90)</f>
         <v/>
       </c>
       <c r="H13">
-        <f>IF(ISBLANK('By Round'!H80),"",'By Round'!H80)</f>
+        <f>IF(ISBLANK('By Round'!H90),"",'By Round'!H90)</f>
         <v/>
       </c>
       <c r="I13">
-        <f>IF(ISBLANK('By Round'!I80),"",'By Round'!I80)</f>
+        <f>IF(ISBLANK('By Round'!I90),"",'By Round'!I90)</f>
         <v/>
       </c>
       <c r="J13">
-        <f>IF(ISBLANK('By Round'!J80),"",'By Round'!J80)</f>
+        <f>IF(ISBLANK('By Round'!J90),"",'By Round'!J90)</f>
         <v/>
       </c>
       <c r="K13">
-        <f>IF(ISBLANK('By Round'!K80),"",'By Round'!K80)</f>
+        <f>IF(ISBLANK('By Round'!K90),"",'By Round'!K90)</f>
         <v/>
       </c>
       <c r="L13" s="12">
-        <f>SUM(AD13:AH13)</f>
+        <f>AVERAGE(AD13:AH13)</f>
         <v/>
       </c>
       <c r="M13" s="13">
-        <f>SUM(AI13:AM13)</f>
+        <f>AVERAGE(AI13:AM13)</f>
         <v/>
       </c>
       <c r="N13" s="8">
@@ -2862,51 +2862,51 @@
     <row r="14">
       <c r="A14" s="15" t="n"/>
       <c r="B14" s="16">
-        <f>'By Round'!A87</f>
+        <f>'By Round'!A27</f>
         <v/>
       </c>
       <c r="C14" s="16">
-        <f>'By Round'!B89</f>
+        <f>'By Round'!B37</f>
         <v/>
       </c>
       <c r="D14" s="16">
-        <f>'By Round'!C89</f>
+        <f>'By Round'!C37</f>
         <v/>
       </c>
       <c r="E14" s="16">
-        <f>'By Round'!D89</f>
+        <f>'By Round'!D37</f>
         <v/>
       </c>
       <c r="F14" s="16">
-        <f>IF(ISBLANK('By Round'!F90),"",'By Round'!F90)</f>
+        <f>IF(ISBLANK('By Round'!F38),"",'By Round'!F38)</f>
         <v/>
       </c>
       <c r="G14" s="15">
-        <f>IF(ISBLANK('By Round'!G90),"",'By Round'!G90)</f>
+        <f>IF(ISBLANK('By Round'!G38),"",'By Round'!G38)</f>
         <v/>
       </c>
       <c r="H14" s="15">
-        <f>IF(ISBLANK('By Round'!H90),"",'By Round'!H90)</f>
+        <f>IF(ISBLANK('By Round'!H38),"",'By Round'!H38)</f>
         <v/>
       </c>
       <c r="I14" s="15">
-        <f>IF(ISBLANK('By Round'!I90),"",'By Round'!I90)</f>
+        <f>IF(ISBLANK('By Round'!I38),"",'By Round'!I38)</f>
         <v/>
       </c>
       <c r="J14" s="15">
-        <f>IF(ISBLANK('By Round'!J90),"",'By Round'!J90)</f>
+        <f>IF(ISBLANK('By Round'!J38),"",'By Round'!J38)</f>
         <v/>
       </c>
       <c r="K14" s="15">
-        <f>IF(ISBLANK('By Round'!K90),"",'By Round'!K90)</f>
+        <f>IF(ISBLANK('By Round'!K38),"",'By Round'!K38)</f>
         <v/>
       </c>
       <c r="L14" s="17">
-        <f>SUM(AD14:AH14)</f>
+        <f>AVERAGE(AD14:AH14)</f>
         <v/>
       </c>
       <c r="M14" s="18">
-        <f>SUM(AI14:AM14)</f>
+        <f>AVERAGE(AI14:AM14)</f>
         <v/>
       </c>
       <c r="N14" s="19">
@@ -3059,11 +3059,11 @@
         <v/>
       </c>
       <c r="L15" s="12">
-        <f>SUM(AD15:AH15)</f>
+        <f>AVERAGE(AD15:AH15)</f>
         <v/>
       </c>
       <c r="M15" s="13">
-        <f>SUM(AI15:AM15)</f>
+        <f>AVERAGE(AI15:AM15)</f>
         <v/>
       </c>
       <c r="N15" s="8">
@@ -3213,11 +3213,11 @@
         <v/>
       </c>
       <c r="L16" s="12">
-        <f>SUM(AD16:AH16)</f>
+        <f>AVERAGE(AD16:AH16)</f>
         <v/>
       </c>
       <c r="M16" s="13">
-        <f>SUM(AI16:AM16)</f>
+        <f>AVERAGE(AI16:AM16)</f>
         <v/>
       </c>
       <c r="N16" s="8">
@@ -3327,51 +3327,51 @@
     </row>
     <row r="17">
       <c r="B17" s="11">
-        <f>'By Round'!A51</f>
+        <f>'By Round'!A87</f>
         <v/>
       </c>
       <c r="C17" s="11">
-        <f>'By Round'!B59</f>
+        <f>'By Round'!B91</f>
         <v/>
       </c>
       <c r="D17" s="11">
-        <f>'By Round'!C59</f>
+        <f>'By Round'!C91</f>
         <v/>
       </c>
       <c r="E17" s="11">
-        <f>'By Round'!D59</f>
+        <f>'By Round'!D91</f>
         <v/>
       </c>
       <c r="F17" s="11">
-        <f>IF(ISBLANK('By Round'!F59),"",'By Round'!F59)</f>
+        <f>IF(ISBLANK('By Round'!F91),"",'By Round'!F91)</f>
         <v/>
       </c>
       <c r="G17">
-        <f>IF(ISBLANK('By Round'!G59),"",'By Round'!G59)</f>
+        <f>IF(ISBLANK('By Round'!G91),"",'By Round'!G91)</f>
         <v/>
       </c>
       <c r="H17">
-        <f>IF(ISBLANK('By Round'!H59),"",'By Round'!H59)</f>
+        <f>IF(ISBLANK('By Round'!H91),"",'By Round'!H91)</f>
         <v/>
       </c>
       <c r="I17">
-        <f>IF(ISBLANK('By Round'!I59),"",'By Round'!I59)</f>
+        <f>IF(ISBLANK('By Round'!I91),"",'By Round'!I91)</f>
         <v/>
       </c>
       <c r="J17">
-        <f>IF(ISBLANK('By Round'!J59),"",'By Round'!J59)</f>
+        <f>IF(ISBLANK('By Round'!J91),"",'By Round'!J91)</f>
         <v/>
       </c>
       <c r="K17">
-        <f>IF(ISBLANK('By Round'!K59),"",'By Round'!K59)</f>
+        <f>IF(ISBLANK('By Round'!K91),"",'By Round'!K91)</f>
         <v/>
       </c>
       <c r="L17" s="12">
-        <f>SUM(AD17:AH17)</f>
+        <f>AVERAGE(AD17:AH17)</f>
         <v/>
       </c>
       <c r="M17" s="13">
-        <f>SUM(AI17:AM17)</f>
+        <f>AVERAGE(AI17:AM17)</f>
         <v/>
       </c>
       <c r="N17" s="8">
@@ -3481,51 +3481,51 @@
     </row>
     <row r="18">
       <c r="B18" s="11">
-        <f>'By Round'!A63</f>
+        <f>'By Round'!A51</f>
         <v/>
       </c>
       <c r="C18" s="11">
-        <f>'By Round'!B69</f>
+        <f>'By Round'!B59</f>
         <v/>
       </c>
       <c r="D18" s="11">
-        <f>'By Round'!C69</f>
+        <f>'By Round'!C59</f>
         <v/>
       </c>
       <c r="E18" s="11">
-        <f>'By Round'!D69</f>
+        <f>'By Round'!D59</f>
         <v/>
       </c>
       <c r="F18" s="11">
-        <f>IF(ISBLANK('By Round'!F69),"",'By Round'!F69)</f>
+        <f>IF(ISBLANK('By Round'!F59),"",'By Round'!F59)</f>
         <v/>
       </c>
       <c r="G18">
-        <f>IF(ISBLANK('By Round'!G69),"",'By Round'!G69)</f>
+        <f>IF(ISBLANK('By Round'!G59),"",'By Round'!G59)</f>
         <v/>
       </c>
       <c r="H18">
-        <f>IF(ISBLANK('By Round'!H69),"",'By Round'!H69)</f>
+        <f>IF(ISBLANK('By Round'!H59),"",'By Round'!H59)</f>
         <v/>
       </c>
       <c r="I18">
-        <f>IF(ISBLANK('By Round'!I69),"",'By Round'!I69)</f>
+        <f>IF(ISBLANK('By Round'!I59),"",'By Round'!I59)</f>
         <v/>
       </c>
       <c r="J18">
-        <f>IF(ISBLANK('By Round'!J69),"",'By Round'!J69)</f>
+        <f>IF(ISBLANK('By Round'!J59),"",'By Round'!J59)</f>
         <v/>
       </c>
       <c r="K18">
-        <f>IF(ISBLANK('By Round'!K69),"",'By Round'!K69)</f>
+        <f>IF(ISBLANK('By Round'!K59),"",'By Round'!K59)</f>
         <v/>
       </c>
       <c r="L18" s="12">
-        <f>SUM(AD18:AH18)</f>
+        <f>AVERAGE(AD18:AH18)</f>
         <v/>
       </c>
       <c r="M18" s="13">
-        <f>SUM(AI18:AM18)</f>
+        <f>AVERAGE(AI18:AM18)</f>
         <v/>
       </c>
       <c r="N18" s="8">
@@ -3635,51 +3635,51 @@
     </row>
     <row r="19">
       <c r="B19" s="11">
-        <f>'By Round'!A87</f>
+        <f>'By Round'!A63</f>
         <v/>
       </c>
       <c r="C19" s="11">
-        <f>'By Round'!B91</f>
+        <f>'By Round'!B69</f>
         <v/>
       </c>
       <c r="D19" s="11">
-        <f>'By Round'!C91</f>
+        <f>'By Round'!C69</f>
         <v/>
       </c>
       <c r="E19" s="11">
-        <f>'By Round'!D91</f>
+        <f>'By Round'!D69</f>
         <v/>
       </c>
       <c r="F19" s="11">
-        <f>IF(ISBLANK('By Round'!F91),"",'By Round'!F91)</f>
+        <f>IF(ISBLANK('By Round'!F69),"",'By Round'!F69)</f>
         <v/>
       </c>
       <c r="G19">
-        <f>IF(ISBLANK('By Round'!G91),"",'By Round'!G91)</f>
+        <f>IF(ISBLANK('By Round'!G69),"",'By Round'!G69)</f>
         <v/>
       </c>
       <c r="H19">
-        <f>IF(ISBLANK('By Round'!H91),"",'By Round'!H91)</f>
+        <f>IF(ISBLANK('By Round'!H69),"",'By Round'!H69)</f>
         <v/>
       </c>
       <c r="I19">
-        <f>IF(ISBLANK('By Round'!I91),"",'By Round'!I91)</f>
+        <f>IF(ISBLANK('By Round'!I69),"",'By Round'!I69)</f>
         <v/>
       </c>
       <c r="J19">
-        <f>IF(ISBLANK('By Round'!J91),"",'By Round'!J91)</f>
+        <f>IF(ISBLANK('By Round'!J69),"",'By Round'!J69)</f>
         <v/>
       </c>
       <c r="K19">
-        <f>IF(ISBLANK('By Round'!K91),"",'By Round'!K91)</f>
+        <f>IF(ISBLANK('By Round'!K69),"",'By Round'!K69)</f>
         <v/>
       </c>
       <c r="L19" s="12">
-        <f>SUM(AD19:AH19)</f>
+        <f>AVERAGE(AD19:AH19)</f>
         <v/>
       </c>
       <c r="M19" s="13">
-        <f>SUM(AI19:AM19)</f>
+        <f>AVERAGE(AI19:AM19)</f>
         <v/>
       </c>
       <c r="N19" s="8">
@@ -3830,11 +3830,11 @@
         <v/>
       </c>
       <c r="L20" s="17">
-        <f>SUM(AD20:AH20)</f>
+        <f>AVERAGE(AD20:AH20)</f>
         <v/>
       </c>
       <c r="M20" s="18">
-        <f>SUM(AI20:AM20)</f>
+        <f>AVERAGE(AI20:AM20)</f>
         <v/>
       </c>
       <c r="N20" s="19">
@@ -3987,11 +3987,11 @@
         <v/>
       </c>
       <c r="L21" s="12">
-        <f>SUM(AD21:AH21)</f>
+        <f>AVERAGE(AD21:AH21)</f>
         <v/>
       </c>
       <c r="M21" s="13">
-        <f>SUM(AI21:AM21)</f>
+        <f>AVERAGE(AI21:AM21)</f>
         <v/>
       </c>
       <c r="N21" s="8">
@@ -4141,11 +4141,11 @@
         <v/>
       </c>
       <c r="L22" s="12">
-        <f>SUM(AD22:AH22)</f>
+        <f>AVERAGE(AD22:AH22)</f>
         <v/>
       </c>
       <c r="M22" s="13">
-        <f>SUM(AI22:AM22)</f>
+        <f>AVERAGE(AI22:AM22)</f>
         <v/>
       </c>
       <c r="N22" s="8">
@@ -4255,51 +4255,51 @@
     </row>
     <row r="23">
       <c r="B23" s="11">
-        <f>'By Round'!A51</f>
+        <f>'By Round'!A87</f>
         <v/>
       </c>
       <c r="C23" s="11">
-        <f>'By Round'!B59</f>
+        <f>'By Round'!B91</f>
         <v/>
       </c>
       <c r="D23" s="11">
-        <f>'By Round'!C59</f>
+        <f>'By Round'!C91</f>
         <v/>
       </c>
       <c r="E23" s="11">
-        <f>'By Round'!D59</f>
+        <f>'By Round'!D91</f>
         <v/>
       </c>
       <c r="F23" s="11">
-        <f>IF(ISBLANK('By Round'!F60),"",'By Round'!F60)</f>
+        <f>IF(ISBLANK('By Round'!F92),"",'By Round'!F92)</f>
         <v/>
       </c>
       <c r="G23">
-        <f>IF(ISBLANK('By Round'!G60),"",'By Round'!G60)</f>
+        <f>IF(ISBLANK('By Round'!G92),"",'By Round'!G92)</f>
         <v/>
       </c>
       <c r="H23">
-        <f>IF(ISBLANK('By Round'!H60),"",'By Round'!H60)</f>
+        <f>IF(ISBLANK('By Round'!H92),"",'By Round'!H92)</f>
         <v/>
       </c>
       <c r="I23">
-        <f>IF(ISBLANK('By Round'!I60),"",'By Round'!I60)</f>
+        <f>IF(ISBLANK('By Round'!I92),"",'By Round'!I92)</f>
         <v/>
       </c>
       <c r="J23">
-        <f>IF(ISBLANK('By Round'!J60),"",'By Round'!J60)</f>
+        <f>IF(ISBLANK('By Round'!J92),"",'By Round'!J92)</f>
         <v/>
       </c>
       <c r="K23">
-        <f>IF(ISBLANK('By Round'!K60),"",'By Round'!K60)</f>
+        <f>IF(ISBLANK('By Round'!K92),"",'By Round'!K92)</f>
         <v/>
       </c>
       <c r="L23" s="12">
-        <f>SUM(AD23:AH23)</f>
+        <f>AVERAGE(AD23:AH23)</f>
         <v/>
       </c>
       <c r="M23" s="13">
-        <f>SUM(AI23:AM23)</f>
+        <f>AVERAGE(AI23:AM23)</f>
         <v/>
       </c>
       <c r="N23" s="8">
@@ -4409,51 +4409,51 @@
     </row>
     <row r="24">
       <c r="B24" s="11">
-        <f>'By Round'!A63</f>
+        <f>'By Round'!A51</f>
         <v/>
       </c>
       <c r="C24" s="11">
-        <f>'By Round'!B69</f>
+        <f>'By Round'!B59</f>
         <v/>
       </c>
       <c r="D24" s="11">
-        <f>'By Round'!C69</f>
+        <f>'By Round'!C59</f>
         <v/>
       </c>
       <c r="E24" s="11">
-        <f>'By Round'!D69</f>
+        <f>'By Round'!D59</f>
         <v/>
       </c>
       <c r="F24" s="11">
-        <f>IF(ISBLANK('By Round'!F70),"",'By Round'!F70)</f>
+        <f>IF(ISBLANK('By Round'!F60),"",'By Round'!F60)</f>
         <v/>
       </c>
       <c r="G24">
-        <f>IF(ISBLANK('By Round'!G70),"",'By Round'!G70)</f>
+        <f>IF(ISBLANK('By Round'!G60),"",'By Round'!G60)</f>
         <v/>
       </c>
       <c r="H24">
-        <f>IF(ISBLANK('By Round'!H70),"",'By Round'!H70)</f>
+        <f>IF(ISBLANK('By Round'!H60),"",'By Round'!H60)</f>
         <v/>
       </c>
       <c r="I24">
-        <f>IF(ISBLANK('By Round'!I70),"",'By Round'!I70)</f>
+        <f>IF(ISBLANK('By Round'!I60),"",'By Round'!I60)</f>
         <v/>
       </c>
       <c r="J24">
-        <f>IF(ISBLANK('By Round'!J70),"",'By Round'!J70)</f>
+        <f>IF(ISBLANK('By Round'!J60),"",'By Round'!J60)</f>
         <v/>
       </c>
       <c r="K24">
-        <f>IF(ISBLANK('By Round'!K70),"",'By Round'!K70)</f>
+        <f>IF(ISBLANK('By Round'!K60),"",'By Round'!K60)</f>
         <v/>
       </c>
       <c r="L24" s="12">
-        <f>SUM(AD24:AH24)</f>
+        <f>AVERAGE(AD24:AH24)</f>
         <v/>
       </c>
       <c r="M24" s="13">
-        <f>SUM(AI24:AM24)</f>
+        <f>AVERAGE(AI24:AM24)</f>
         <v/>
       </c>
       <c r="N24" s="8">
@@ -4563,51 +4563,51 @@
     </row>
     <row r="25">
       <c r="B25" s="11">
-        <f>'By Round'!A87</f>
+        <f>'By Round'!A63</f>
         <v/>
       </c>
       <c r="C25" s="11">
-        <f>'By Round'!B91</f>
+        <f>'By Round'!B69</f>
         <v/>
       </c>
       <c r="D25" s="11">
-        <f>'By Round'!C91</f>
+        <f>'By Round'!C69</f>
         <v/>
       </c>
       <c r="E25" s="11">
-        <f>'By Round'!D91</f>
+        <f>'By Round'!D69</f>
         <v/>
       </c>
       <c r="F25" s="11">
-        <f>IF(ISBLANK('By Round'!F92),"",'By Round'!F92)</f>
+        <f>IF(ISBLANK('By Round'!F70),"",'By Round'!F70)</f>
         <v/>
       </c>
       <c r="G25">
-        <f>IF(ISBLANK('By Round'!G92),"",'By Round'!G92)</f>
+        <f>IF(ISBLANK('By Round'!G70),"",'By Round'!G70)</f>
         <v/>
       </c>
       <c r="H25">
-        <f>IF(ISBLANK('By Round'!H92),"",'By Round'!H92)</f>
+        <f>IF(ISBLANK('By Round'!H70),"",'By Round'!H70)</f>
         <v/>
       </c>
       <c r="I25">
-        <f>IF(ISBLANK('By Round'!I92),"",'By Round'!I92)</f>
+        <f>IF(ISBLANK('By Round'!I70),"",'By Round'!I70)</f>
         <v/>
       </c>
       <c r="J25">
-        <f>IF(ISBLANK('By Round'!J92),"",'By Round'!J92)</f>
+        <f>IF(ISBLANK('By Round'!J70),"",'By Round'!J70)</f>
         <v/>
       </c>
       <c r="K25">
-        <f>IF(ISBLANK('By Round'!K92),"",'By Round'!K92)</f>
+        <f>IF(ISBLANK('By Round'!K70),"",'By Round'!K70)</f>
         <v/>
       </c>
       <c r="L25" s="12">
-        <f>SUM(AD25:AH25)</f>
+        <f>AVERAGE(AD25:AH25)</f>
         <v/>
       </c>
       <c r="M25" s="13">
-        <f>SUM(AI25:AM25)</f>
+        <f>AVERAGE(AI25:AM25)</f>
         <v/>
       </c>
       <c r="N25" s="8">
@@ -4758,11 +4758,11 @@
         <v/>
       </c>
       <c r="L26" s="17">
-        <f>SUM(AD26:AH26)</f>
+        <f>AVERAGE(AD26:AH26)</f>
         <v/>
       </c>
       <c r="M26" s="18">
-        <f>SUM(AI26:AM26)</f>
+        <f>AVERAGE(AI26:AM26)</f>
         <v/>
       </c>
       <c r="N26" s="19">
@@ -4915,11 +4915,11 @@
         <v/>
       </c>
       <c r="L27" s="12">
-        <f>SUM(AD27:AH27)</f>
+        <f>AVERAGE(AD27:AH27)</f>
         <v/>
       </c>
       <c r="M27" s="13">
-        <f>SUM(AI27:AM27)</f>
+        <f>AVERAGE(AI27:AM27)</f>
         <v/>
       </c>
       <c r="N27" s="8">
@@ -5029,51 +5029,51 @@
     </row>
     <row r="28">
       <c r="B28" s="11">
-        <f>'By Round'!A51</f>
+        <f>'By Round'!A111</f>
         <v/>
       </c>
       <c r="C28" s="11">
-        <f>'By Round'!B61</f>
+        <f>'By Round'!B113</f>
         <v/>
       </c>
       <c r="D28" s="11">
-        <f>'By Round'!C61</f>
+        <f>'By Round'!C113</f>
         <v/>
       </c>
       <c r="E28" s="11">
-        <f>'By Round'!D61</f>
+        <f>'By Round'!D113</f>
         <v/>
       </c>
       <c r="F28" s="11">
-        <f>IF(ISBLANK('By Round'!F61),"",'By Round'!F61)</f>
+        <f>IF(ISBLANK('By Round'!F113),"",'By Round'!F113)</f>
         <v/>
       </c>
       <c r="G28">
-        <f>IF(ISBLANK('By Round'!G61),"",'By Round'!G61)</f>
+        <f>IF(ISBLANK('By Round'!G113),"",'By Round'!G113)</f>
         <v/>
       </c>
       <c r="H28">
-        <f>IF(ISBLANK('By Round'!H61),"",'By Round'!H61)</f>
+        <f>IF(ISBLANK('By Round'!H113),"",'By Round'!H113)</f>
         <v/>
       </c>
       <c r="I28">
-        <f>IF(ISBLANK('By Round'!I61),"",'By Round'!I61)</f>
+        <f>IF(ISBLANK('By Round'!I113),"",'By Round'!I113)</f>
         <v/>
       </c>
       <c r="J28">
-        <f>IF(ISBLANK('By Round'!J61),"",'By Round'!J61)</f>
+        <f>IF(ISBLANK('By Round'!J113),"",'By Round'!J113)</f>
         <v/>
       </c>
       <c r="K28">
-        <f>IF(ISBLANK('By Round'!K61),"",'By Round'!K61)</f>
+        <f>IF(ISBLANK('By Round'!K113),"",'By Round'!K113)</f>
         <v/>
       </c>
       <c r="L28" s="12">
-        <f>SUM(AD28:AH28)</f>
+        <f>AVERAGE(AD28:AH28)</f>
         <v/>
       </c>
       <c r="M28" s="13">
-        <f>SUM(AI28:AM28)</f>
+        <f>AVERAGE(AI28:AM28)</f>
         <v/>
       </c>
       <c r="N28" s="8">
@@ -5183,51 +5183,51 @@
     </row>
     <row r="29">
       <c r="B29" s="11">
-        <f>'By Round'!A63</f>
+        <f>'By Round'!A51</f>
         <v/>
       </c>
       <c r="C29" s="11">
-        <f>'By Round'!B71</f>
+        <f>'By Round'!B61</f>
         <v/>
       </c>
       <c r="D29" s="11">
-        <f>'By Round'!C71</f>
+        <f>'By Round'!C61</f>
         <v/>
       </c>
       <c r="E29" s="11">
-        <f>'By Round'!D71</f>
+        <f>'By Round'!D61</f>
         <v/>
       </c>
       <c r="F29" s="11">
-        <f>IF(ISBLANK('By Round'!F71),"",'By Round'!F71)</f>
+        <f>IF(ISBLANK('By Round'!F61),"",'By Round'!F61)</f>
         <v/>
       </c>
       <c r="G29">
-        <f>IF(ISBLANK('By Round'!G71),"",'By Round'!G71)</f>
+        <f>IF(ISBLANK('By Round'!G61),"",'By Round'!G61)</f>
         <v/>
       </c>
       <c r="H29">
-        <f>IF(ISBLANK('By Round'!H71),"",'By Round'!H71)</f>
+        <f>IF(ISBLANK('By Round'!H61),"",'By Round'!H61)</f>
         <v/>
       </c>
       <c r="I29">
-        <f>IF(ISBLANK('By Round'!I71),"",'By Round'!I71)</f>
+        <f>IF(ISBLANK('By Round'!I61),"",'By Round'!I61)</f>
         <v/>
       </c>
       <c r="J29">
-        <f>IF(ISBLANK('By Round'!J71),"",'By Round'!J71)</f>
+        <f>IF(ISBLANK('By Round'!J61),"",'By Round'!J61)</f>
         <v/>
       </c>
       <c r="K29">
-        <f>IF(ISBLANK('By Round'!K71),"",'By Round'!K71)</f>
+        <f>IF(ISBLANK('By Round'!K61),"",'By Round'!K61)</f>
         <v/>
       </c>
       <c r="L29" s="12">
-        <f>SUM(AD29:AH29)</f>
+        <f>AVERAGE(AD29:AH29)</f>
         <v/>
       </c>
       <c r="M29" s="13">
-        <f>SUM(AI29:AM29)</f>
+        <f>AVERAGE(AI29:AM29)</f>
         <v/>
       </c>
       <c r="N29" s="8">
@@ -5337,51 +5337,51 @@
     </row>
     <row r="30">
       <c r="B30" s="11">
-        <f>'By Round'!A75</f>
+        <f>'By Round'!A99</f>
         <v/>
       </c>
       <c r="C30" s="11">
-        <f>'By Round'!B81</f>
+        <f>'By Round'!B103</f>
         <v/>
       </c>
       <c r="D30" s="11">
-        <f>'By Round'!C81</f>
+        <f>'By Round'!C103</f>
         <v/>
       </c>
       <c r="E30" s="11">
-        <f>'By Round'!D81</f>
+        <f>'By Round'!D103</f>
         <v/>
       </c>
       <c r="F30" s="11">
-        <f>IF(ISBLANK('By Round'!F81),"",'By Round'!F81)</f>
+        <f>IF(ISBLANK('By Round'!F103),"",'By Round'!F103)</f>
         <v/>
       </c>
       <c r="G30">
-        <f>IF(ISBLANK('By Round'!G81),"",'By Round'!G81)</f>
+        <f>IF(ISBLANK('By Round'!G103),"",'By Round'!G103)</f>
         <v/>
       </c>
       <c r="H30">
-        <f>IF(ISBLANK('By Round'!H81),"",'By Round'!H81)</f>
+        <f>IF(ISBLANK('By Round'!H103),"",'By Round'!H103)</f>
         <v/>
       </c>
       <c r="I30">
-        <f>IF(ISBLANK('By Round'!I81),"",'By Round'!I81)</f>
+        <f>IF(ISBLANK('By Round'!I103),"",'By Round'!I103)</f>
         <v/>
       </c>
       <c r="J30">
-        <f>IF(ISBLANK('By Round'!J81),"",'By Round'!J81)</f>
+        <f>IF(ISBLANK('By Round'!J103),"",'By Round'!J103)</f>
         <v/>
       </c>
       <c r="K30">
-        <f>IF(ISBLANK('By Round'!K81),"",'By Round'!K81)</f>
+        <f>IF(ISBLANK('By Round'!K103),"",'By Round'!K103)</f>
         <v/>
       </c>
       <c r="L30" s="12">
-        <f>SUM(AD30:AH30)</f>
+        <f>AVERAGE(AD30:AH30)</f>
         <v/>
       </c>
       <c r="M30" s="13">
-        <f>SUM(AI30:AM30)</f>
+        <f>AVERAGE(AI30:AM30)</f>
         <v/>
       </c>
       <c r="N30" s="8">
@@ -5491,51 +5491,51 @@
     </row>
     <row r="31">
       <c r="B31" s="11">
-        <f>'By Round'!A99</f>
+        <f>'By Round'!A63</f>
         <v/>
       </c>
       <c r="C31" s="11">
-        <f>'By Round'!B103</f>
+        <f>'By Round'!B71</f>
         <v/>
       </c>
       <c r="D31" s="11">
-        <f>'By Round'!C103</f>
+        <f>'By Round'!C71</f>
         <v/>
       </c>
       <c r="E31" s="11">
-        <f>'By Round'!D103</f>
+        <f>'By Round'!D71</f>
         <v/>
       </c>
       <c r="F31" s="11">
-        <f>IF(ISBLANK('By Round'!F103),"",'By Round'!F103)</f>
+        <f>IF(ISBLANK('By Round'!F71),"",'By Round'!F71)</f>
         <v/>
       </c>
       <c r="G31">
-        <f>IF(ISBLANK('By Round'!G103),"",'By Round'!G103)</f>
+        <f>IF(ISBLANK('By Round'!G71),"",'By Round'!G71)</f>
         <v/>
       </c>
       <c r="H31">
-        <f>IF(ISBLANK('By Round'!H103),"",'By Round'!H103)</f>
+        <f>IF(ISBLANK('By Round'!H71),"",'By Round'!H71)</f>
         <v/>
       </c>
       <c r="I31">
-        <f>IF(ISBLANK('By Round'!I103),"",'By Round'!I103)</f>
+        <f>IF(ISBLANK('By Round'!I71),"",'By Round'!I71)</f>
         <v/>
       </c>
       <c r="J31">
-        <f>IF(ISBLANK('By Round'!J103),"",'By Round'!J103)</f>
+        <f>IF(ISBLANK('By Round'!J71),"",'By Round'!J71)</f>
         <v/>
       </c>
       <c r="K31">
-        <f>IF(ISBLANK('By Round'!K103),"",'By Round'!K103)</f>
+        <f>IF(ISBLANK('By Round'!K71),"",'By Round'!K71)</f>
         <v/>
       </c>
       <c r="L31" s="12">
-        <f>SUM(AD31:AH31)</f>
+        <f>AVERAGE(AD31:AH31)</f>
         <v/>
       </c>
       <c r="M31" s="13">
-        <f>SUM(AI31:AM31)</f>
+        <f>AVERAGE(AI31:AM31)</f>
         <v/>
       </c>
       <c r="N31" s="8">
@@ -5646,51 +5646,51 @@
     <row r="32">
       <c r="A32" s="15" t="n"/>
       <c r="B32" s="16">
-        <f>'By Round'!A111</f>
+        <f>'By Round'!A75</f>
         <v/>
       </c>
       <c r="C32" s="16">
-        <f>'By Round'!B113</f>
+        <f>'By Round'!B81</f>
         <v/>
       </c>
       <c r="D32" s="16">
-        <f>'By Round'!C113</f>
+        <f>'By Round'!C81</f>
         <v/>
       </c>
       <c r="E32" s="16">
-        <f>'By Round'!D113</f>
+        <f>'By Round'!D81</f>
         <v/>
       </c>
       <c r="F32" s="16">
-        <f>IF(ISBLANK('By Round'!F113),"",'By Round'!F113)</f>
+        <f>IF(ISBLANK('By Round'!F81),"",'By Round'!F81)</f>
         <v/>
       </c>
       <c r="G32" s="15">
-        <f>IF(ISBLANK('By Round'!G113),"",'By Round'!G113)</f>
+        <f>IF(ISBLANK('By Round'!G81),"",'By Round'!G81)</f>
         <v/>
       </c>
       <c r="H32" s="15">
-        <f>IF(ISBLANK('By Round'!H113),"",'By Round'!H113)</f>
+        <f>IF(ISBLANK('By Round'!H81),"",'By Round'!H81)</f>
         <v/>
       </c>
       <c r="I32" s="15">
-        <f>IF(ISBLANK('By Round'!I113),"",'By Round'!I113)</f>
+        <f>IF(ISBLANK('By Round'!I81),"",'By Round'!I81)</f>
         <v/>
       </c>
       <c r="J32" s="15">
-        <f>IF(ISBLANK('By Round'!J113),"",'By Round'!J113)</f>
+        <f>IF(ISBLANK('By Round'!J81),"",'By Round'!J81)</f>
         <v/>
       </c>
       <c r="K32" s="15">
-        <f>IF(ISBLANK('By Round'!K113),"",'By Round'!K113)</f>
+        <f>IF(ISBLANK('By Round'!K81),"",'By Round'!K81)</f>
         <v/>
       </c>
       <c r="L32" s="17">
-        <f>SUM(AD32:AH32)</f>
+        <f>AVERAGE(AD32:AH32)</f>
         <v/>
       </c>
       <c r="M32" s="18">
-        <f>SUM(AI32:AM32)</f>
+        <f>AVERAGE(AI32:AM32)</f>
         <v/>
       </c>
       <c r="N32" s="19">
@@ -5843,11 +5843,11 @@
         <v/>
       </c>
       <c r="L33" s="12">
-        <f>SUM(AD33:AH33)</f>
+        <f>AVERAGE(AD33:AH33)</f>
         <v/>
       </c>
       <c r="M33" s="13">
-        <f>SUM(AI33:AM33)</f>
+        <f>AVERAGE(AI33:AM33)</f>
         <v/>
       </c>
       <c r="N33" s="8">
@@ -5957,51 +5957,51 @@
     </row>
     <row r="34">
       <c r="B34" s="11">
-        <f>'By Round'!A51</f>
+        <f>'By Round'!A111</f>
         <v/>
       </c>
       <c r="C34" s="11">
-        <f>'By Round'!B61</f>
+        <f>'By Round'!B113</f>
         <v/>
       </c>
       <c r="D34" s="11">
-        <f>'By Round'!C61</f>
+        <f>'By Round'!C113</f>
         <v/>
       </c>
       <c r="E34" s="11">
-        <f>'By Round'!D61</f>
+        <f>'By Round'!D113</f>
         <v/>
       </c>
       <c r="F34" s="11">
-        <f>IF(ISBLANK('By Round'!F62),"",'By Round'!F62)</f>
+        <f>IF(ISBLANK('By Round'!F114),"",'By Round'!F114)</f>
         <v/>
       </c>
       <c r="G34">
-        <f>IF(ISBLANK('By Round'!G62),"",'By Round'!G62)</f>
+        <f>IF(ISBLANK('By Round'!G114),"",'By Round'!G114)</f>
         <v/>
       </c>
       <c r="H34">
-        <f>IF(ISBLANK('By Round'!H62),"",'By Round'!H62)</f>
+        <f>IF(ISBLANK('By Round'!H114),"",'By Round'!H114)</f>
         <v/>
       </c>
       <c r="I34">
-        <f>IF(ISBLANK('By Round'!I62),"",'By Round'!I62)</f>
+        <f>IF(ISBLANK('By Round'!I114),"",'By Round'!I114)</f>
         <v/>
       </c>
       <c r="J34">
-        <f>IF(ISBLANK('By Round'!J62),"",'By Round'!J62)</f>
+        <f>IF(ISBLANK('By Round'!J114),"",'By Round'!J114)</f>
         <v/>
       </c>
       <c r="K34">
-        <f>IF(ISBLANK('By Round'!K62),"",'By Round'!K62)</f>
+        <f>IF(ISBLANK('By Round'!K114),"",'By Round'!K114)</f>
         <v/>
       </c>
       <c r="L34" s="12">
-        <f>SUM(AD34:AH34)</f>
+        <f>AVERAGE(AD34:AH34)</f>
         <v/>
       </c>
       <c r="M34" s="13">
-        <f>SUM(AI34:AM34)</f>
+        <f>AVERAGE(AI34:AM34)</f>
         <v/>
       </c>
       <c r="N34" s="8">
@@ -6111,51 +6111,51 @@
     </row>
     <row r="35">
       <c r="B35" s="11">
-        <f>'By Round'!A63</f>
+        <f>'By Round'!A51</f>
         <v/>
       </c>
       <c r="C35" s="11">
-        <f>'By Round'!B71</f>
+        <f>'By Round'!B61</f>
         <v/>
       </c>
       <c r="D35" s="11">
-        <f>'By Round'!C71</f>
+        <f>'By Round'!C61</f>
         <v/>
       </c>
       <c r="E35" s="11">
-        <f>'By Round'!D71</f>
+        <f>'By Round'!D61</f>
         <v/>
       </c>
       <c r="F35" s="11">
-        <f>IF(ISBLANK('By Round'!F72),"",'By Round'!F72)</f>
+        <f>IF(ISBLANK('By Round'!F62),"",'By Round'!F62)</f>
         <v/>
       </c>
       <c r="G35">
-        <f>IF(ISBLANK('By Round'!G72),"",'By Round'!G72)</f>
+        <f>IF(ISBLANK('By Round'!G62),"",'By Round'!G62)</f>
         <v/>
       </c>
       <c r="H35">
-        <f>IF(ISBLANK('By Round'!H72),"",'By Round'!H72)</f>
+        <f>IF(ISBLANK('By Round'!H62),"",'By Round'!H62)</f>
         <v/>
       </c>
       <c r="I35">
-        <f>IF(ISBLANK('By Round'!I72),"",'By Round'!I72)</f>
+        <f>IF(ISBLANK('By Round'!I62),"",'By Round'!I62)</f>
         <v/>
       </c>
       <c r="J35">
-        <f>IF(ISBLANK('By Round'!J72),"",'By Round'!J72)</f>
+        <f>IF(ISBLANK('By Round'!J62),"",'By Round'!J62)</f>
         <v/>
       </c>
       <c r="K35">
-        <f>IF(ISBLANK('By Round'!K72),"",'By Round'!K72)</f>
+        <f>IF(ISBLANK('By Round'!K62),"",'By Round'!K62)</f>
         <v/>
       </c>
       <c r="L35" s="12">
-        <f>SUM(AD35:AH35)</f>
+        <f>AVERAGE(AD35:AH35)</f>
         <v/>
       </c>
       <c r="M35" s="13">
-        <f>SUM(AI35:AM35)</f>
+        <f>AVERAGE(AI35:AM35)</f>
         <v/>
       </c>
       <c r="N35" s="8">
@@ -6265,51 +6265,51 @@
     </row>
     <row r="36">
       <c r="B36" s="11">
-        <f>'By Round'!A75</f>
+        <f>'By Round'!A99</f>
         <v/>
       </c>
       <c r="C36" s="11">
-        <f>'By Round'!B81</f>
+        <f>'By Round'!B103</f>
         <v/>
       </c>
       <c r="D36" s="11">
-        <f>'By Round'!C81</f>
+        <f>'By Round'!C103</f>
         <v/>
       </c>
       <c r="E36" s="11">
-        <f>'By Round'!D81</f>
+        <f>'By Round'!D103</f>
         <v/>
       </c>
       <c r="F36" s="11">
-        <f>IF(ISBLANK('By Round'!F82),"",'By Round'!F82)</f>
+        <f>IF(ISBLANK('By Round'!F104),"",'By Round'!F104)</f>
         <v/>
       </c>
       <c r="G36">
-        <f>IF(ISBLANK('By Round'!G82),"",'By Round'!G82)</f>
+        <f>IF(ISBLANK('By Round'!G104),"",'By Round'!G104)</f>
         <v/>
       </c>
       <c r="H36">
-        <f>IF(ISBLANK('By Round'!H82),"",'By Round'!H82)</f>
+        <f>IF(ISBLANK('By Round'!H104),"",'By Round'!H104)</f>
         <v/>
       </c>
       <c r="I36">
-        <f>IF(ISBLANK('By Round'!I82),"",'By Round'!I82)</f>
+        <f>IF(ISBLANK('By Round'!I104),"",'By Round'!I104)</f>
         <v/>
       </c>
       <c r="J36">
-        <f>IF(ISBLANK('By Round'!J82),"",'By Round'!J82)</f>
+        <f>IF(ISBLANK('By Round'!J104),"",'By Round'!J104)</f>
         <v/>
       </c>
       <c r="K36">
-        <f>IF(ISBLANK('By Round'!K82),"",'By Round'!K82)</f>
+        <f>IF(ISBLANK('By Round'!K104),"",'By Round'!K104)</f>
         <v/>
       </c>
       <c r="L36" s="12">
-        <f>SUM(AD36:AH36)</f>
+        <f>AVERAGE(AD36:AH36)</f>
         <v/>
       </c>
       <c r="M36" s="13">
-        <f>SUM(AI36:AM36)</f>
+        <f>AVERAGE(AI36:AM36)</f>
         <v/>
       </c>
       <c r="N36" s="8">
@@ -6419,51 +6419,51 @@
     </row>
     <row r="37">
       <c r="B37" s="11">
-        <f>'By Round'!A99</f>
+        <f>'By Round'!A63</f>
         <v/>
       </c>
       <c r="C37" s="11">
-        <f>'By Round'!B103</f>
+        <f>'By Round'!B71</f>
         <v/>
       </c>
       <c r="D37" s="11">
-        <f>'By Round'!C103</f>
+        <f>'By Round'!C71</f>
         <v/>
       </c>
       <c r="E37" s="11">
-        <f>'By Round'!D103</f>
+        <f>'By Round'!D71</f>
         <v/>
       </c>
       <c r="F37" s="11">
-        <f>IF(ISBLANK('By Round'!F104),"",'By Round'!F104)</f>
+        <f>IF(ISBLANK('By Round'!F72),"",'By Round'!F72)</f>
         <v/>
       </c>
       <c r="G37">
-        <f>IF(ISBLANK('By Round'!G104),"",'By Round'!G104)</f>
+        <f>IF(ISBLANK('By Round'!G72),"",'By Round'!G72)</f>
         <v/>
       </c>
       <c r="H37">
-        <f>IF(ISBLANK('By Round'!H104),"",'By Round'!H104)</f>
+        <f>IF(ISBLANK('By Round'!H72),"",'By Round'!H72)</f>
         <v/>
       </c>
       <c r="I37">
-        <f>IF(ISBLANK('By Round'!I104),"",'By Round'!I104)</f>
+        <f>IF(ISBLANK('By Round'!I72),"",'By Round'!I72)</f>
         <v/>
       </c>
       <c r="J37">
-        <f>IF(ISBLANK('By Round'!J104),"",'By Round'!J104)</f>
+        <f>IF(ISBLANK('By Round'!J72),"",'By Round'!J72)</f>
         <v/>
       </c>
       <c r="K37">
-        <f>IF(ISBLANK('By Round'!K104),"",'By Round'!K104)</f>
+        <f>IF(ISBLANK('By Round'!K72),"",'By Round'!K72)</f>
         <v/>
       </c>
       <c r="L37" s="12">
-        <f>SUM(AD37:AH37)</f>
+        <f>AVERAGE(AD37:AH37)</f>
         <v/>
       </c>
       <c r="M37" s="13">
-        <f>SUM(AI37:AM37)</f>
+        <f>AVERAGE(AI37:AM37)</f>
         <v/>
       </c>
       <c r="N37" s="8">
@@ -6574,51 +6574,51 @@
     <row r="38">
       <c r="A38" s="15" t="n"/>
       <c r="B38" s="16">
-        <f>'By Round'!A111</f>
+        <f>'By Round'!A75</f>
         <v/>
       </c>
       <c r="C38" s="16">
-        <f>'By Round'!B113</f>
+        <f>'By Round'!B81</f>
         <v/>
       </c>
       <c r="D38" s="16">
-        <f>'By Round'!C113</f>
+        <f>'By Round'!C81</f>
         <v/>
       </c>
       <c r="E38" s="16">
-        <f>'By Round'!D113</f>
+        <f>'By Round'!D81</f>
         <v/>
       </c>
       <c r="F38" s="16">
-        <f>IF(ISBLANK('By Round'!F114),"",'By Round'!F114)</f>
+        <f>IF(ISBLANK('By Round'!F82),"",'By Round'!F82)</f>
         <v/>
       </c>
       <c r="G38" s="15">
-        <f>IF(ISBLANK('By Round'!G114),"",'By Round'!G114)</f>
+        <f>IF(ISBLANK('By Round'!G82),"",'By Round'!G82)</f>
         <v/>
       </c>
       <c r="H38" s="15">
-        <f>IF(ISBLANK('By Round'!H114),"",'By Round'!H114)</f>
+        <f>IF(ISBLANK('By Round'!H82),"",'By Round'!H82)</f>
         <v/>
       </c>
       <c r="I38" s="15">
-        <f>IF(ISBLANK('By Round'!I114),"",'By Round'!I114)</f>
+        <f>IF(ISBLANK('By Round'!I82),"",'By Round'!I82)</f>
         <v/>
       </c>
       <c r="J38" s="15">
-        <f>IF(ISBLANK('By Round'!J114),"",'By Round'!J114)</f>
+        <f>IF(ISBLANK('By Round'!J82),"",'By Round'!J82)</f>
         <v/>
       </c>
       <c r="K38" s="15">
-        <f>IF(ISBLANK('By Round'!K114),"",'By Round'!K114)</f>
+        <f>IF(ISBLANK('By Round'!K82),"",'By Round'!K82)</f>
         <v/>
       </c>
       <c r="L38" s="17">
-        <f>SUM(AD38:AH38)</f>
+        <f>AVERAGE(AD38:AH38)</f>
         <v/>
       </c>
       <c r="M38" s="18">
-        <f>SUM(AI38:AM38)</f>
+        <f>AVERAGE(AI38:AM38)</f>
         <v/>
       </c>
       <c r="N38" s="19">
@@ -6771,11 +6771,11 @@
         <v/>
       </c>
       <c r="L39" s="12">
-        <f>SUM(AD39:AH39)</f>
+        <f>AVERAGE(AD39:AH39)</f>
         <v/>
       </c>
       <c r="M39" s="13">
-        <f>SUM(AI39:AM39)</f>
+        <f>AVERAGE(AI39:AM39)</f>
         <v/>
       </c>
       <c r="N39" s="8">
@@ -6885,51 +6885,51 @@
     </row>
     <row r="40">
       <c r="B40" s="11">
-        <f>'By Round'!A63</f>
+        <f>'By Round'!A87</f>
         <v/>
       </c>
       <c r="C40" s="11">
-        <f>'By Round'!B73</f>
+        <f>'By Round'!B93</f>
         <v/>
       </c>
       <c r="D40" s="11">
-        <f>'By Round'!C73</f>
+        <f>'By Round'!C93</f>
         <v/>
       </c>
       <c r="E40" s="11">
-        <f>'By Round'!D73</f>
+        <f>'By Round'!D93</f>
         <v/>
       </c>
       <c r="F40" s="11">
-        <f>IF(ISBLANK('By Round'!F73),"",'By Round'!F73)</f>
+        <f>IF(ISBLANK('By Round'!F93),"",'By Round'!F93)</f>
         <v/>
       </c>
       <c r="G40">
-        <f>IF(ISBLANK('By Round'!G73),"",'By Round'!G73)</f>
+        <f>IF(ISBLANK('By Round'!G93),"",'By Round'!G93)</f>
         <v/>
       </c>
       <c r="H40">
-        <f>IF(ISBLANK('By Round'!H73),"",'By Round'!H73)</f>
+        <f>IF(ISBLANK('By Round'!H93),"",'By Round'!H93)</f>
         <v/>
       </c>
       <c r="I40">
-        <f>IF(ISBLANK('By Round'!I73),"",'By Round'!I73)</f>
+        <f>IF(ISBLANK('By Round'!I93),"",'By Round'!I93)</f>
         <v/>
       </c>
       <c r="J40">
-        <f>IF(ISBLANK('By Round'!J73),"",'By Round'!J73)</f>
+        <f>IF(ISBLANK('By Round'!J93),"",'By Round'!J93)</f>
         <v/>
       </c>
       <c r="K40">
-        <f>IF(ISBLANK('By Round'!K73),"",'By Round'!K73)</f>
+        <f>IF(ISBLANK('By Round'!K93),"",'By Round'!K93)</f>
         <v/>
       </c>
       <c r="L40" s="12">
-        <f>SUM(AD40:AH40)</f>
+        <f>AVERAGE(AD40:AH40)</f>
         <v/>
       </c>
       <c r="M40" s="13">
-        <f>SUM(AI40:AM40)</f>
+        <f>AVERAGE(AI40:AM40)</f>
         <v/>
       </c>
       <c r="N40" s="8">
@@ -7039,51 +7039,51 @@
     </row>
     <row r="41">
       <c r="B41" s="11">
-        <f>'By Round'!A75</f>
+        <f>'By Round'!A123</f>
         <v/>
       </c>
       <c r="C41" s="11">
-        <f>'By Round'!B83</f>
+        <f>'By Round'!B125</f>
         <v/>
       </c>
       <c r="D41" s="11">
-        <f>'By Round'!C83</f>
+        <f>'By Round'!C125</f>
         <v/>
       </c>
       <c r="E41" s="11">
-        <f>'By Round'!D83</f>
+        <f>'By Round'!D125</f>
         <v/>
       </c>
       <c r="F41" s="11">
-        <f>IF(ISBLANK('By Round'!F83),"",'By Round'!F83)</f>
+        <f>IF(ISBLANK('By Round'!F125),"",'By Round'!F125)</f>
         <v/>
       </c>
       <c r="G41">
-        <f>IF(ISBLANK('By Round'!G83),"",'By Round'!G83)</f>
+        <f>IF(ISBLANK('By Round'!G125),"",'By Round'!G125)</f>
         <v/>
       </c>
       <c r="H41">
-        <f>IF(ISBLANK('By Round'!H83),"",'By Round'!H83)</f>
+        <f>IF(ISBLANK('By Round'!H125),"",'By Round'!H125)</f>
         <v/>
       </c>
       <c r="I41">
-        <f>IF(ISBLANK('By Round'!I83),"",'By Round'!I83)</f>
+        <f>IF(ISBLANK('By Round'!I125),"",'By Round'!I125)</f>
         <v/>
       </c>
       <c r="J41">
-        <f>IF(ISBLANK('By Round'!J83),"",'By Round'!J83)</f>
+        <f>IF(ISBLANK('By Round'!J125),"",'By Round'!J125)</f>
         <v/>
       </c>
       <c r="K41">
-        <f>IF(ISBLANK('By Round'!K83),"",'By Round'!K83)</f>
+        <f>IF(ISBLANK('By Round'!K125),"",'By Round'!K125)</f>
         <v/>
       </c>
       <c r="L41" s="12">
-        <f>SUM(AD41:AH41)</f>
+        <f>AVERAGE(AD41:AH41)</f>
         <v/>
       </c>
       <c r="M41" s="13">
-        <f>SUM(AI41:AM41)</f>
+        <f>AVERAGE(AI41:AM41)</f>
         <v/>
       </c>
       <c r="N41" s="8">
@@ -7193,51 +7193,51 @@
     </row>
     <row r="42">
       <c r="B42" s="11">
-        <f>'By Round'!A87</f>
+        <f>'By Round'!A63</f>
         <v/>
       </c>
       <c r="C42" s="11">
-        <f>'By Round'!B93</f>
+        <f>'By Round'!B73</f>
         <v/>
       </c>
       <c r="D42" s="11">
-        <f>'By Round'!C93</f>
+        <f>'By Round'!C73</f>
         <v/>
       </c>
       <c r="E42" s="11">
-        <f>'By Round'!D93</f>
+        <f>'By Round'!D73</f>
         <v/>
       </c>
       <c r="F42" s="11">
-        <f>IF(ISBLANK('By Round'!F93),"",'By Round'!F93)</f>
+        <f>IF(ISBLANK('By Round'!F73),"",'By Round'!F73)</f>
         <v/>
       </c>
       <c r="G42">
-        <f>IF(ISBLANK('By Round'!G93),"",'By Round'!G93)</f>
+        <f>IF(ISBLANK('By Round'!G73),"",'By Round'!G73)</f>
         <v/>
       </c>
       <c r="H42">
-        <f>IF(ISBLANK('By Round'!H93),"",'By Round'!H93)</f>
+        <f>IF(ISBLANK('By Round'!H73),"",'By Round'!H73)</f>
         <v/>
       </c>
       <c r="I42">
-        <f>IF(ISBLANK('By Round'!I93),"",'By Round'!I93)</f>
+        <f>IF(ISBLANK('By Round'!I73),"",'By Round'!I73)</f>
         <v/>
       </c>
       <c r="J42">
-        <f>IF(ISBLANK('By Round'!J93),"",'By Round'!J93)</f>
+        <f>IF(ISBLANK('By Round'!J73),"",'By Round'!J73)</f>
         <v/>
       </c>
       <c r="K42">
-        <f>IF(ISBLANK('By Round'!K93),"",'By Round'!K93)</f>
+        <f>IF(ISBLANK('By Round'!K73),"",'By Round'!K73)</f>
         <v/>
       </c>
       <c r="L42" s="12">
-        <f>SUM(AD42:AH42)</f>
+        <f>AVERAGE(AD42:AH42)</f>
         <v/>
       </c>
       <c r="M42" s="13">
-        <f>SUM(AI42:AM42)</f>
+        <f>AVERAGE(AI42:AM42)</f>
         <v/>
       </c>
       <c r="N42" s="8">
@@ -7387,11 +7387,11 @@
         <v/>
       </c>
       <c r="L43" s="12">
-        <f>SUM(AD43:AH43)</f>
+        <f>AVERAGE(AD43:AH43)</f>
         <v/>
       </c>
       <c r="M43" s="13">
-        <f>SUM(AI43:AM43)</f>
+        <f>AVERAGE(AI43:AM43)</f>
         <v/>
       </c>
       <c r="N43" s="8">
@@ -7502,51 +7502,51 @@
     <row r="44">
       <c r="A44" s="15" t="n"/>
       <c r="B44" s="16">
-        <f>'By Round'!A123</f>
+        <f>'By Round'!A75</f>
         <v/>
       </c>
       <c r="C44" s="16">
-        <f>'By Round'!B125</f>
+        <f>'By Round'!B83</f>
         <v/>
       </c>
       <c r="D44" s="16">
-        <f>'By Round'!C125</f>
+        <f>'By Round'!C83</f>
         <v/>
       </c>
       <c r="E44" s="16">
-        <f>'By Round'!D125</f>
+        <f>'By Round'!D83</f>
         <v/>
       </c>
       <c r="F44" s="16">
-        <f>IF(ISBLANK('By Round'!F125),"",'By Round'!F125)</f>
+        <f>IF(ISBLANK('By Round'!F83),"",'By Round'!F83)</f>
         <v/>
       </c>
       <c r="G44" s="15">
-        <f>IF(ISBLANK('By Round'!G125),"",'By Round'!G125)</f>
+        <f>IF(ISBLANK('By Round'!G83),"",'By Round'!G83)</f>
         <v/>
       </c>
       <c r="H44" s="15">
-        <f>IF(ISBLANK('By Round'!H125),"",'By Round'!H125)</f>
+        <f>IF(ISBLANK('By Round'!H83),"",'By Round'!H83)</f>
         <v/>
       </c>
       <c r="I44" s="15">
-        <f>IF(ISBLANK('By Round'!I125),"",'By Round'!I125)</f>
+        <f>IF(ISBLANK('By Round'!I83),"",'By Round'!I83)</f>
         <v/>
       </c>
       <c r="J44" s="15">
-        <f>IF(ISBLANK('By Round'!J125),"",'By Round'!J125)</f>
+        <f>IF(ISBLANK('By Round'!J83),"",'By Round'!J83)</f>
         <v/>
       </c>
       <c r="K44" s="15">
-        <f>IF(ISBLANK('By Round'!K125),"",'By Round'!K125)</f>
+        <f>IF(ISBLANK('By Round'!K83),"",'By Round'!K83)</f>
         <v/>
       </c>
       <c r="L44" s="17">
-        <f>SUM(AD44:AH44)</f>
+        <f>AVERAGE(AD44:AH44)</f>
         <v/>
       </c>
       <c r="M44" s="18">
-        <f>SUM(AI44:AM44)</f>
+        <f>AVERAGE(AI44:AM44)</f>
         <v/>
       </c>
       <c r="N44" s="19">
@@ -7699,11 +7699,11 @@
         <v/>
       </c>
       <c r="L45" s="12">
-        <f>SUM(AD45:AH45)</f>
+        <f>AVERAGE(AD45:AH45)</f>
         <v/>
       </c>
       <c r="M45" s="13">
-        <f>SUM(AI45:AM45)</f>
+        <f>AVERAGE(AI45:AM45)</f>
         <v/>
       </c>
       <c r="N45" s="8">
@@ -7813,51 +7813,51 @@
     </row>
     <row r="46">
       <c r="B46" s="11">
-        <f>'By Round'!A63</f>
+        <f>'By Round'!A87</f>
         <v/>
       </c>
       <c r="C46" s="11">
-        <f>'By Round'!B73</f>
+        <f>'By Round'!B93</f>
         <v/>
       </c>
       <c r="D46" s="11">
-        <f>'By Round'!C73</f>
+        <f>'By Round'!C93</f>
         <v/>
       </c>
       <c r="E46" s="11">
-        <f>'By Round'!D73</f>
+        <f>'By Round'!D93</f>
         <v/>
       </c>
       <c r="F46" s="11">
-        <f>IF(ISBLANK('By Round'!F74),"",'By Round'!F74)</f>
+        <f>IF(ISBLANK('By Round'!F94),"",'By Round'!F94)</f>
         <v/>
       </c>
       <c r="G46">
-        <f>IF(ISBLANK('By Round'!G74),"",'By Round'!G74)</f>
+        <f>IF(ISBLANK('By Round'!G94),"",'By Round'!G94)</f>
         <v/>
       </c>
       <c r="H46">
-        <f>IF(ISBLANK('By Round'!H74),"",'By Round'!H74)</f>
+        <f>IF(ISBLANK('By Round'!H94),"",'By Round'!H94)</f>
         <v/>
       </c>
       <c r="I46">
-        <f>IF(ISBLANK('By Round'!I74),"",'By Round'!I74)</f>
+        <f>IF(ISBLANK('By Round'!I94),"",'By Round'!I94)</f>
         <v/>
       </c>
       <c r="J46">
-        <f>IF(ISBLANK('By Round'!J74),"",'By Round'!J74)</f>
+        <f>IF(ISBLANK('By Round'!J94),"",'By Round'!J94)</f>
         <v/>
       </c>
       <c r="K46">
-        <f>IF(ISBLANK('By Round'!K74),"",'By Round'!K74)</f>
+        <f>IF(ISBLANK('By Round'!K94),"",'By Round'!K94)</f>
         <v/>
       </c>
       <c r="L46" s="12">
-        <f>SUM(AD46:AH46)</f>
+        <f>AVERAGE(AD46:AH46)</f>
         <v/>
       </c>
       <c r="M46" s="13">
-        <f>SUM(AI46:AM46)</f>
+        <f>AVERAGE(AI46:AM46)</f>
         <v/>
       </c>
       <c r="N46" s="8">
@@ -7967,51 +7967,51 @@
     </row>
     <row r="47">
       <c r="B47" s="11">
-        <f>'By Round'!A75</f>
+        <f>'By Round'!A123</f>
         <v/>
       </c>
       <c r="C47" s="11">
-        <f>'By Round'!B83</f>
+        <f>'By Round'!B125</f>
         <v/>
       </c>
       <c r="D47" s="11">
-        <f>'By Round'!C83</f>
+        <f>'By Round'!C125</f>
         <v/>
       </c>
       <c r="E47" s="11">
-        <f>'By Round'!D83</f>
+        <f>'By Round'!D125</f>
         <v/>
       </c>
       <c r="F47" s="11">
-        <f>IF(ISBLANK('By Round'!F84),"",'By Round'!F84)</f>
+        <f>IF(ISBLANK('By Round'!F126),"",'By Round'!F126)</f>
         <v/>
       </c>
       <c r="G47">
-        <f>IF(ISBLANK('By Round'!G84),"",'By Round'!G84)</f>
+        <f>IF(ISBLANK('By Round'!G126),"",'By Round'!G126)</f>
         <v/>
       </c>
       <c r="H47">
-        <f>IF(ISBLANK('By Round'!H84),"",'By Round'!H84)</f>
+        <f>IF(ISBLANK('By Round'!H126),"",'By Round'!H126)</f>
         <v/>
       </c>
       <c r="I47">
-        <f>IF(ISBLANK('By Round'!I84),"",'By Round'!I84)</f>
+        <f>IF(ISBLANK('By Round'!I126),"",'By Round'!I126)</f>
         <v/>
       </c>
       <c r="J47">
-        <f>IF(ISBLANK('By Round'!J84),"",'By Round'!J84)</f>
+        <f>IF(ISBLANK('By Round'!J126),"",'By Round'!J126)</f>
         <v/>
       </c>
       <c r="K47">
-        <f>IF(ISBLANK('By Round'!K84),"",'By Round'!K84)</f>
+        <f>IF(ISBLANK('By Round'!K126),"",'By Round'!K126)</f>
         <v/>
       </c>
       <c r="L47" s="12">
-        <f>SUM(AD47:AH47)</f>
+        <f>AVERAGE(AD47:AH47)</f>
         <v/>
       </c>
       <c r="M47" s="13">
-        <f>SUM(AI47:AM47)</f>
+        <f>AVERAGE(AI47:AM47)</f>
         <v/>
       </c>
       <c r="N47" s="8">
@@ -8121,51 +8121,51 @@
     </row>
     <row r="48">
       <c r="B48" s="11">
-        <f>'By Round'!A87</f>
+        <f>'By Round'!A63</f>
         <v/>
       </c>
       <c r="C48" s="11">
-        <f>'By Round'!B93</f>
+        <f>'By Round'!B73</f>
         <v/>
       </c>
       <c r="D48" s="11">
-        <f>'By Round'!C93</f>
+        <f>'By Round'!C73</f>
         <v/>
       </c>
       <c r="E48" s="11">
-        <f>'By Round'!D93</f>
+        <f>'By Round'!D73</f>
         <v/>
       </c>
       <c r="F48" s="11">
-        <f>IF(ISBLANK('By Round'!F94),"",'By Round'!F94)</f>
+        <f>IF(ISBLANK('By Round'!F74),"",'By Round'!F74)</f>
         <v/>
       </c>
       <c r="G48">
-        <f>IF(ISBLANK('By Round'!G94),"",'By Round'!G94)</f>
+        <f>IF(ISBLANK('By Round'!G74),"",'By Round'!G74)</f>
         <v/>
       </c>
       <c r="H48">
-        <f>IF(ISBLANK('By Round'!H94),"",'By Round'!H94)</f>
+        <f>IF(ISBLANK('By Round'!H74),"",'By Round'!H74)</f>
         <v/>
       </c>
       <c r="I48">
-        <f>IF(ISBLANK('By Round'!I94),"",'By Round'!I94)</f>
+        <f>IF(ISBLANK('By Round'!I74),"",'By Round'!I74)</f>
         <v/>
       </c>
       <c r="J48">
-        <f>IF(ISBLANK('By Round'!J94),"",'By Round'!J94)</f>
+        <f>IF(ISBLANK('By Round'!J74),"",'By Round'!J74)</f>
         <v/>
       </c>
       <c r="K48">
-        <f>IF(ISBLANK('By Round'!K94),"",'By Round'!K94)</f>
+        <f>IF(ISBLANK('By Round'!K74),"",'By Round'!K74)</f>
         <v/>
       </c>
       <c r="L48" s="12">
-        <f>SUM(AD48:AH48)</f>
+        <f>AVERAGE(AD48:AH48)</f>
         <v/>
       </c>
       <c r="M48" s="13">
-        <f>SUM(AI48:AM48)</f>
+        <f>AVERAGE(AI48:AM48)</f>
         <v/>
       </c>
       <c r="N48" s="8">
@@ -8315,11 +8315,11 @@
         <v/>
       </c>
       <c r="L49" s="12">
-        <f>SUM(AD49:AH49)</f>
+        <f>AVERAGE(AD49:AH49)</f>
         <v/>
       </c>
       <c r="M49" s="13">
-        <f>SUM(AI49:AM49)</f>
+        <f>AVERAGE(AI49:AM49)</f>
         <v/>
       </c>
       <c r="N49" s="8">
@@ -8430,51 +8430,51 @@
     <row r="50">
       <c r="A50" s="15" t="n"/>
       <c r="B50" s="16">
-        <f>'By Round'!A123</f>
+        <f>'By Round'!A75</f>
         <v/>
       </c>
       <c r="C50" s="16">
-        <f>'By Round'!B125</f>
+        <f>'By Round'!B83</f>
         <v/>
       </c>
       <c r="D50" s="16">
-        <f>'By Round'!C125</f>
+        <f>'By Round'!C83</f>
         <v/>
       </c>
       <c r="E50" s="16">
-        <f>'By Round'!D125</f>
+        <f>'By Round'!D83</f>
         <v/>
       </c>
       <c r="F50" s="16">
-        <f>IF(ISBLANK('By Round'!F126),"",'By Round'!F126)</f>
+        <f>IF(ISBLANK('By Round'!F84),"",'By Round'!F84)</f>
         <v/>
       </c>
       <c r="G50" s="15">
-        <f>IF(ISBLANK('By Round'!G126),"",'By Round'!G126)</f>
+        <f>IF(ISBLANK('By Round'!G84),"",'By Round'!G84)</f>
         <v/>
       </c>
       <c r="H50" s="15">
-        <f>IF(ISBLANK('By Round'!H126),"",'By Round'!H126)</f>
+        <f>IF(ISBLANK('By Round'!H84),"",'By Round'!H84)</f>
         <v/>
       </c>
       <c r="I50" s="15">
-        <f>IF(ISBLANK('By Round'!I126),"",'By Round'!I126)</f>
+        <f>IF(ISBLANK('By Round'!I84),"",'By Round'!I84)</f>
         <v/>
       </c>
       <c r="J50" s="15">
-        <f>IF(ISBLANK('By Round'!J126),"",'By Round'!J126)</f>
+        <f>IF(ISBLANK('By Round'!J84),"",'By Round'!J84)</f>
         <v/>
       </c>
       <c r="K50" s="15">
-        <f>IF(ISBLANK('By Round'!K126),"",'By Round'!K126)</f>
+        <f>IF(ISBLANK('By Round'!K84),"",'By Round'!K84)</f>
         <v/>
       </c>
       <c r="L50" s="17">
-        <f>SUM(AD50:AH50)</f>
+        <f>AVERAGE(AD50:AH50)</f>
         <v/>
       </c>
       <c r="M50" s="18">
-        <f>SUM(AI50:AM50)</f>
+        <f>AVERAGE(AI50:AM50)</f>
         <v/>
       </c>
       <c r="N50" s="19">
@@ -8587,51 +8587,51 @@
         <v>9</v>
       </c>
       <c r="B51" s="11">
-        <f>'By Round'!A3</f>
+        <f>'By Round'!A51</f>
         <v/>
       </c>
       <c r="C51" s="11">
-        <f>'By Round'!B5</f>
+        <f>'By Round'!B51</f>
         <v/>
       </c>
       <c r="D51" s="11">
-        <f>'By Round'!C5</f>
+        <f>'By Round'!C51</f>
         <v/>
       </c>
       <c r="E51" s="11">
-        <f>'By Round'!D5</f>
+        <f>'By Round'!D51</f>
         <v/>
       </c>
       <c r="F51" s="11">
-        <f>IF(ISBLANK('By Round'!F5),"",'By Round'!F5)</f>
+        <f>IF(ISBLANK('By Round'!F51),"",'By Round'!F51)</f>
         <v/>
       </c>
       <c r="G51">
-        <f>IF(ISBLANK('By Round'!G5),"",'By Round'!G5)</f>
+        <f>IF(ISBLANK('By Round'!G51),"",'By Round'!G51)</f>
         <v/>
       </c>
       <c r="H51">
-        <f>IF(ISBLANK('By Round'!H5),"",'By Round'!H5)</f>
+        <f>IF(ISBLANK('By Round'!H51),"",'By Round'!H51)</f>
         <v/>
       </c>
       <c r="I51">
-        <f>IF(ISBLANK('By Round'!I5),"",'By Round'!I5)</f>
+        <f>IF(ISBLANK('By Round'!I51),"",'By Round'!I51)</f>
         <v/>
       </c>
       <c r="J51">
-        <f>IF(ISBLANK('By Round'!J5),"",'By Round'!J5)</f>
+        <f>IF(ISBLANK('By Round'!J51),"",'By Round'!J51)</f>
         <v/>
       </c>
       <c r="K51">
-        <f>IF(ISBLANK('By Round'!K5),"",'By Round'!K5)</f>
+        <f>IF(ISBLANK('By Round'!K51),"",'By Round'!K51)</f>
         <v/>
       </c>
       <c r="L51" s="12">
-        <f>SUM(AD51:AH51)</f>
+        <f>AVERAGE(AD51:AH51)</f>
         <v/>
       </c>
       <c r="M51" s="13">
-        <f>SUM(AI51:AM51)</f>
+        <f>AVERAGE(AI51:AM51)</f>
         <v/>
       </c>
       <c r="N51" s="8">
@@ -8741,51 +8741,51 @@
     </row>
     <row r="52">
       <c r="B52" s="11">
-        <f>'By Round'!A51</f>
+        <f>'By Round'!A99</f>
         <v/>
       </c>
       <c r="C52" s="11">
-        <f>'By Round'!B51</f>
+        <f>'By Round'!B105</f>
         <v/>
       </c>
       <c r="D52" s="11">
-        <f>'By Round'!C51</f>
+        <f>'By Round'!C105</f>
         <v/>
       </c>
       <c r="E52" s="11">
-        <f>'By Round'!D51</f>
+        <f>'By Round'!D105</f>
         <v/>
       </c>
       <c r="F52" s="11">
-        <f>IF(ISBLANK('By Round'!F51),"",'By Round'!F51)</f>
+        <f>IF(ISBLANK('By Round'!F105),"",'By Round'!F105)</f>
         <v/>
       </c>
       <c r="G52">
-        <f>IF(ISBLANK('By Round'!G51),"",'By Round'!G51)</f>
+        <f>IF(ISBLANK('By Round'!G105),"",'By Round'!G105)</f>
         <v/>
       </c>
       <c r="H52">
-        <f>IF(ISBLANK('By Round'!H51),"",'By Round'!H51)</f>
+        <f>IF(ISBLANK('By Round'!H105),"",'By Round'!H105)</f>
         <v/>
       </c>
       <c r="I52">
-        <f>IF(ISBLANK('By Round'!I51),"",'By Round'!I51)</f>
+        <f>IF(ISBLANK('By Round'!I105),"",'By Round'!I105)</f>
         <v/>
       </c>
       <c r="J52">
-        <f>IF(ISBLANK('By Round'!J51),"",'By Round'!J51)</f>
+        <f>IF(ISBLANK('By Round'!J105),"",'By Round'!J105)</f>
         <v/>
       </c>
       <c r="K52">
-        <f>IF(ISBLANK('By Round'!K51),"",'By Round'!K51)</f>
+        <f>IF(ISBLANK('By Round'!K105),"",'By Round'!K105)</f>
         <v/>
       </c>
       <c r="L52" s="12">
-        <f>SUM(AD52:AH52)</f>
+        <f>AVERAGE(AD52:AH52)</f>
         <v/>
       </c>
       <c r="M52" s="13">
-        <f>SUM(AI52:AM52)</f>
+        <f>AVERAGE(AI52:AM52)</f>
         <v/>
       </c>
       <c r="N52" s="8">
@@ -8895,51 +8895,51 @@
     </row>
     <row r="53">
       <c r="B53" s="11">
-        <f>'By Round'!A75</f>
+        <f>'By Round'!A3</f>
         <v/>
       </c>
       <c r="C53" s="11">
-        <f>'By Round'!B85</f>
+        <f>'By Round'!B5</f>
         <v/>
       </c>
       <c r="D53" s="11">
-        <f>'By Round'!C85</f>
+        <f>'By Round'!C5</f>
         <v/>
       </c>
       <c r="E53" s="11">
-        <f>'By Round'!D85</f>
+        <f>'By Round'!D5</f>
         <v/>
       </c>
       <c r="F53" s="11">
-        <f>IF(ISBLANK('By Round'!F85),"",'By Round'!F85)</f>
+        <f>IF(ISBLANK('By Round'!F5),"",'By Round'!F5)</f>
         <v/>
       </c>
       <c r="G53">
-        <f>IF(ISBLANK('By Round'!G85),"",'By Round'!G85)</f>
+        <f>IF(ISBLANK('By Round'!G5),"",'By Round'!G5)</f>
         <v/>
       </c>
       <c r="H53">
-        <f>IF(ISBLANK('By Round'!H85),"",'By Round'!H85)</f>
+        <f>IF(ISBLANK('By Round'!H5),"",'By Round'!H5)</f>
         <v/>
       </c>
       <c r="I53">
-        <f>IF(ISBLANK('By Round'!I85),"",'By Round'!I85)</f>
+        <f>IF(ISBLANK('By Round'!I5),"",'By Round'!I5)</f>
         <v/>
       </c>
       <c r="J53">
-        <f>IF(ISBLANK('By Round'!J85),"",'By Round'!J85)</f>
+        <f>IF(ISBLANK('By Round'!J5),"",'By Round'!J5)</f>
         <v/>
       </c>
       <c r="K53">
-        <f>IF(ISBLANK('By Round'!K85),"",'By Round'!K85)</f>
+        <f>IF(ISBLANK('By Round'!K5),"",'By Round'!K5)</f>
         <v/>
       </c>
       <c r="L53" s="12">
-        <f>SUM(AD53:AH53)</f>
+        <f>AVERAGE(AD53:AH53)</f>
         <v/>
       </c>
       <c r="M53" s="13">
-        <f>SUM(AI53:AM53)</f>
+        <f>AVERAGE(AI53:AM53)</f>
         <v/>
       </c>
       <c r="N53" s="8">
@@ -9049,51 +9049,51 @@
     </row>
     <row r="54">
       <c r="B54" s="11">
-        <f>'By Round'!A87</f>
+        <f>'By Round'!A75</f>
         <v/>
       </c>
       <c r="C54" s="11">
-        <f>'By Round'!B95</f>
+        <f>'By Round'!B85</f>
         <v/>
       </c>
       <c r="D54" s="11">
-        <f>'By Round'!C95</f>
+        <f>'By Round'!C85</f>
         <v/>
       </c>
       <c r="E54" s="11">
-        <f>'By Round'!D95</f>
+        <f>'By Round'!D85</f>
         <v/>
       </c>
       <c r="F54" s="11">
-        <f>IF(ISBLANK('By Round'!F95),"",'By Round'!F95)</f>
+        <f>IF(ISBLANK('By Round'!F85),"",'By Round'!F85)</f>
         <v/>
       </c>
       <c r="G54">
-        <f>IF(ISBLANK('By Round'!G95),"",'By Round'!G95)</f>
+        <f>IF(ISBLANK('By Round'!G85),"",'By Round'!G85)</f>
         <v/>
       </c>
       <c r="H54">
-        <f>IF(ISBLANK('By Round'!H95),"",'By Round'!H95)</f>
+        <f>IF(ISBLANK('By Round'!H85),"",'By Round'!H85)</f>
         <v/>
       </c>
       <c r="I54">
-        <f>IF(ISBLANK('By Round'!I95),"",'By Round'!I95)</f>
+        <f>IF(ISBLANK('By Round'!I85),"",'By Round'!I85)</f>
         <v/>
       </c>
       <c r="J54">
-        <f>IF(ISBLANK('By Round'!J95),"",'By Round'!J95)</f>
+        <f>IF(ISBLANK('By Round'!J85),"",'By Round'!J85)</f>
         <v/>
       </c>
       <c r="K54">
-        <f>IF(ISBLANK('By Round'!K95),"",'By Round'!K95)</f>
+        <f>IF(ISBLANK('By Round'!K85),"",'By Round'!K85)</f>
         <v/>
       </c>
       <c r="L54" s="12">
-        <f>SUM(AD54:AH54)</f>
+        <f>AVERAGE(AD54:AH54)</f>
         <v/>
       </c>
       <c r="M54" s="13">
-        <f>SUM(AI54:AM54)</f>
+        <f>AVERAGE(AI54:AM54)</f>
         <v/>
       </c>
       <c r="N54" s="8">
@@ -9203,51 +9203,51 @@
     </row>
     <row r="55">
       <c r="B55" s="11">
-        <f>'By Round'!A99</f>
+        <f>'By Round'!A123</f>
         <v/>
       </c>
       <c r="C55" s="11">
-        <f>'By Round'!B105</f>
+        <f>'By Round'!B127</f>
         <v/>
       </c>
       <c r="D55" s="11">
-        <f>'By Round'!C105</f>
+        <f>'By Round'!C127</f>
         <v/>
       </c>
       <c r="E55" s="11">
-        <f>'By Round'!D105</f>
+        <f>'By Round'!D127</f>
         <v/>
       </c>
       <c r="F55" s="11">
-        <f>IF(ISBLANK('By Round'!F105),"",'By Round'!F105)</f>
+        <f>IF(ISBLANK('By Round'!F127),"",'By Round'!F127)</f>
         <v/>
       </c>
       <c r="G55">
-        <f>IF(ISBLANK('By Round'!G105),"",'By Round'!G105)</f>
+        <f>IF(ISBLANK('By Round'!G127),"",'By Round'!G127)</f>
         <v/>
       </c>
       <c r="H55">
-        <f>IF(ISBLANK('By Round'!H105),"",'By Round'!H105)</f>
+        <f>IF(ISBLANK('By Round'!H127),"",'By Round'!H127)</f>
         <v/>
       </c>
       <c r="I55">
-        <f>IF(ISBLANK('By Round'!I105),"",'By Round'!I105)</f>
+        <f>IF(ISBLANK('By Round'!I127),"",'By Round'!I127)</f>
         <v/>
       </c>
       <c r="J55">
-        <f>IF(ISBLANK('By Round'!J105),"",'By Round'!J105)</f>
+        <f>IF(ISBLANK('By Round'!J127),"",'By Round'!J127)</f>
         <v/>
       </c>
       <c r="K55">
-        <f>IF(ISBLANK('By Round'!K105),"",'By Round'!K105)</f>
+        <f>IF(ISBLANK('By Round'!K127),"",'By Round'!K127)</f>
         <v/>
       </c>
       <c r="L55" s="12">
-        <f>SUM(AD55:AH55)</f>
+        <f>AVERAGE(AD55:AH55)</f>
         <v/>
       </c>
       <c r="M55" s="13">
-        <f>SUM(AI55:AM55)</f>
+        <f>AVERAGE(AI55:AM55)</f>
         <v/>
       </c>
       <c r="N55" s="8">
@@ -9358,51 +9358,51 @@
     <row r="56">
       <c r="A56" s="15" t="n"/>
       <c r="B56" s="16">
-        <f>'By Round'!A123</f>
+        <f>'By Round'!A87</f>
         <v/>
       </c>
       <c r="C56" s="16">
-        <f>'By Round'!B127</f>
+        <f>'By Round'!B95</f>
         <v/>
       </c>
       <c r="D56" s="16">
-        <f>'By Round'!C127</f>
+        <f>'By Round'!C95</f>
         <v/>
       </c>
       <c r="E56" s="16">
-        <f>'By Round'!D127</f>
+        <f>'By Round'!D95</f>
         <v/>
       </c>
       <c r="F56" s="16">
-        <f>IF(ISBLANK('By Round'!F127),"",'By Round'!F127)</f>
+        <f>IF(ISBLANK('By Round'!F95),"",'By Round'!F95)</f>
         <v/>
       </c>
       <c r="G56" s="15">
-        <f>IF(ISBLANK('By Round'!G127),"",'By Round'!G127)</f>
+        <f>IF(ISBLANK('By Round'!G95),"",'By Round'!G95)</f>
         <v/>
       </c>
       <c r="H56" s="15">
-        <f>IF(ISBLANK('By Round'!H127),"",'By Round'!H127)</f>
+        <f>IF(ISBLANK('By Round'!H95),"",'By Round'!H95)</f>
         <v/>
       </c>
       <c r="I56" s="15">
-        <f>IF(ISBLANK('By Round'!I127),"",'By Round'!I127)</f>
+        <f>IF(ISBLANK('By Round'!I95),"",'By Round'!I95)</f>
         <v/>
       </c>
       <c r="J56" s="15">
-        <f>IF(ISBLANK('By Round'!J127),"",'By Round'!J127)</f>
+        <f>IF(ISBLANK('By Round'!J95),"",'By Round'!J95)</f>
         <v/>
       </c>
       <c r="K56" s="15">
-        <f>IF(ISBLANK('By Round'!K127),"",'By Round'!K127)</f>
+        <f>IF(ISBLANK('By Round'!K95),"",'By Round'!K95)</f>
         <v/>
       </c>
       <c r="L56" s="17">
-        <f>SUM(AD56:AH56)</f>
+        <f>AVERAGE(AD56:AH56)</f>
         <v/>
       </c>
       <c r="M56" s="18">
-        <f>SUM(AI56:AM56)</f>
+        <f>AVERAGE(AI56:AM56)</f>
         <v/>
       </c>
       <c r="N56" s="19">
@@ -9515,51 +9515,51 @@
         <v>10</v>
       </c>
       <c r="B57" s="11">
-        <f>'By Round'!A3</f>
+        <f>'By Round'!A51</f>
         <v/>
       </c>
       <c r="C57" s="11">
-        <f>'By Round'!B5</f>
+        <f>'By Round'!B51</f>
         <v/>
       </c>
       <c r="D57" s="11">
-        <f>'By Round'!C5</f>
+        <f>'By Round'!C51</f>
         <v/>
       </c>
       <c r="E57" s="11">
-        <f>'By Round'!D5</f>
+        <f>'By Round'!D51</f>
         <v/>
       </c>
       <c r="F57" s="11">
-        <f>IF(ISBLANK('By Round'!F6),"",'By Round'!F6)</f>
+        <f>IF(ISBLANK('By Round'!F52),"",'By Round'!F52)</f>
         <v/>
       </c>
       <c r="G57">
-        <f>IF(ISBLANK('By Round'!G6),"",'By Round'!G6)</f>
+        <f>IF(ISBLANK('By Round'!G52),"",'By Round'!G52)</f>
         <v/>
       </c>
       <c r="H57">
-        <f>IF(ISBLANK('By Round'!H6),"",'By Round'!H6)</f>
+        <f>IF(ISBLANK('By Round'!H52),"",'By Round'!H52)</f>
         <v/>
       </c>
       <c r="I57">
-        <f>IF(ISBLANK('By Round'!I6),"",'By Round'!I6)</f>
+        <f>IF(ISBLANK('By Round'!I52),"",'By Round'!I52)</f>
         <v/>
       </c>
       <c r="J57">
-        <f>IF(ISBLANK('By Round'!J6),"",'By Round'!J6)</f>
+        <f>IF(ISBLANK('By Round'!J52),"",'By Round'!J52)</f>
         <v/>
       </c>
       <c r="K57">
-        <f>IF(ISBLANK('By Round'!K6),"",'By Round'!K6)</f>
+        <f>IF(ISBLANK('By Round'!K52),"",'By Round'!K52)</f>
         <v/>
       </c>
       <c r="L57" s="12">
-        <f>SUM(AD57:AH57)</f>
+        <f>AVERAGE(AD57:AH57)</f>
         <v/>
       </c>
       <c r="M57" s="13">
-        <f>SUM(AI57:AM57)</f>
+        <f>AVERAGE(AI57:AM57)</f>
         <v/>
       </c>
       <c r="N57" s="8">
@@ -9669,51 +9669,51 @@
     </row>
     <row r="58">
       <c r="B58" s="11">
-        <f>'By Round'!A51</f>
+        <f>'By Round'!A99</f>
         <v/>
       </c>
       <c r="C58" s="11">
-        <f>'By Round'!B51</f>
+        <f>'By Round'!B105</f>
         <v/>
       </c>
       <c r="D58" s="11">
-        <f>'By Round'!C51</f>
+        <f>'By Round'!C105</f>
         <v/>
       </c>
       <c r="E58" s="11">
-        <f>'By Round'!D51</f>
+        <f>'By Round'!D105</f>
         <v/>
       </c>
       <c r="F58" s="11">
-        <f>IF(ISBLANK('By Round'!F52),"",'By Round'!F52)</f>
+        <f>IF(ISBLANK('By Round'!F106),"",'By Round'!F106)</f>
         <v/>
       </c>
       <c r="G58">
-        <f>IF(ISBLANK('By Round'!G52),"",'By Round'!G52)</f>
+        <f>IF(ISBLANK('By Round'!G106),"",'By Round'!G106)</f>
         <v/>
       </c>
       <c r="H58">
-        <f>IF(ISBLANK('By Round'!H52),"",'By Round'!H52)</f>
+        <f>IF(ISBLANK('By Round'!H106),"",'By Round'!H106)</f>
         <v/>
       </c>
       <c r="I58">
-        <f>IF(ISBLANK('By Round'!I52),"",'By Round'!I52)</f>
+        <f>IF(ISBLANK('By Round'!I106),"",'By Round'!I106)</f>
         <v/>
       </c>
       <c r="J58">
-        <f>IF(ISBLANK('By Round'!J52),"",'By Round'!J52)</f>
+        <f>IF(ISBLANK('By Round'!J106),"",'By Round'!J106)</f>
         <v/>
       </c>
       <c r="K58">
-        <f>IF(ISBLANK('By Round'!K52),"",'By Round'!K52)</f>
+        <f>IF(ISBLANK('By Round'!K106),"",'By Round'!K106)</f>
         <v/>
       </c>
       <c r="L58" s="12">
-        <f>SUM(AD58:AH58)</f>
+        <f>AVERAGE(AD58:AH58)</f>
         <v/>
       </c>
       <c r="M58" s="13">
-        <f>SUM(AI58:AM58)</f>
+        <f>AVERAGE(AI58:AM58)</f>
         <v/>
       </c>
       <c r="N58" s="8">
@@ -9823,51 +9823,51 @@
     </row>
     <row r="59">
       <c r="B59" s="11">
-        <f>'By Round'!A75</f>
+        <f>'By Round'!A3</f>
         <v/>
       </c>
       <c r="C59" s="11">
-        <f>'By Round'!B85</f>
+        <f>'By Round'!B5</f>
         <v/>
       </c>
       <c r="D59" s="11">
-        <f>'By Round'!C85</f>
+        <f>'By Round'!C5</f>
         <v/>
       </c>
       <c r="E59" s="11">
-        <f>'By Round'!D85</f>
+        <f>'By Round'!D5</f>
         <v/>
       </c>
       <c r="F59" s="11">
-        <f>IF(ISBLANK('By Round'!F86),"",'By Round'!F86)</f>
+        <f>IF(ISBLANK('By Round'!F6),"",'By Round'!F6)</f>
         <v/>
       </c>
       <c r="G59">
-        <f>IF(ISBLANK('By Round'!G86),"",'By Round'!G86)</f>
+        <f>IF(ISBLANK('By Round'!G6),"",'By Round'!G6)</f>
         <v/>
       </c>
       <c r="H59">
-        <f>IF(ISBLANK('By Round'!H86),"",'By Round'!H86)</f>
+        <f>IF(ISBLANK('By Round'!H6),"",'By Round'!H6)</f>
         <v/>
       </c>
       <c r="I59">
-        <f>IF(ISBLANK('By Round'!I86),"",'By Round'!I86)</f>
+        <f>IF(ISBLANK('By Round'!I6),"",'By Round'!I6)</f>
         <v/>
       </c>
       <c r="J59">
-        <f>IF(ISBLANK('By Round'!J86),"",'By Round'!J86)</f>
+        <f>IF(ISBLANK('By Round'!J6),"",'By Round'!J6)</f>
         <v/>
       </c>
       <c r="K59">
-        <f>IF(ISBLANK('By Round'!K86),"",'By Round'!K86)</f>
+        <f>IF(ISBLANK('By Round'!K6),"",'By Round'!K6)</f>
         <v/>
       </c>
       <c r="L59" s="12">
-        <f>SUM(AD59:AH59)</f>
+        <f>AVERAGE(AD59:AH59)</f>
         <v/>
       </c>
       <c r="M59" s="13">
-        <f>SUM(AI59:AM59)</f>
+        <f>AVERAGE(AI59:AM59)</f>
         <v/>
       </c>
       <c r="N59" s="8">
@@ -9977,51 +9977,51 @@
     </row>
     <row r="60">
       <c r="B60" s="11">
-        <f>'By Round'!A87</f>
+        <f>'By Round'!A75</f>
         <v/>
       </c>
       <c r="C60" s="11">
-        <f>'By Round'!B95</f>
+        <f>'By Round'!B85</f>
         <v/>
       </c>
       <c r="D60" s="11">
-        <f>'By Round'!C95</f>
+        <f>'By Round'!C85</f>
         <v/>
       </c>
       <c r="E60" s="11">
-        <f>'By Round'!D95</f>
+        <f>'By Round'!D85</f>
         <v/>
       </c>
       <c r="F60" s="11">
-        <f>IF(ISBLANK('By Round'!F96),"",'By Round'!F96)</f>
+        <f>IF(ISBLANK('By Round'!F86),"",'By Round'!F86)</f>
         <v/>
       </c>
       <c r="G60">
-        <f>IF(ISBLANK('By Round'!G96),"",'By Round'!G96)</f>
+        <f>IF(ISBLANK('By Round'!G86),"",'By Round'!G86)</f>
         <v/>
       </c>
       <c r="H60">
-        <f>IF(ISBLANK('By Round'!H96),"",'By Round'!H96)</f>
+        <f>IF(ISBLANK('By Round'!H86),"",'By Round'!H86)</f>
         <v/>
       </c>
       <c r="I60">
-        <f>IF(ISBLANK('By Round'!I96),"",'By Round'!I96)</f>
+        <f>IF(ISBLANK('By Round'!I86),"",'By Round'!I86)</f>
         <v/>
       </c>
       <c r="J60">
-        <f>IF(ISBLANK('By Round'!J96),"",'By Round'!J96)</f>
+        <f>IF(ISBLANK('By Round'!J86),"",'By Round'!J86)</f>
         <v/>
       </c>
       <c r="K60">
-        <f>IF(ISBLANK('By Round'!K96),"",'By Round'!K96)</f>
+        <f>IF(ISBLANK('By Round'!K86),"",'By Round'!K86)</f>
         <v/>
       </c>
       <c r="L60" s="12">
-        <f>SUM(AD60:AH60)</f>
+        <f>AVERAGE(AD60:AH60)</f>
         <v/>
       </c>
       <c r="M60" s="13">
-        <f>SUM(AI60:AM60)</f>
+        <f>AVERAGE(AI60:AM60)</f>
         <v/>
       </c>
       <c r="N60" s="8">
@@ -10131,51 +10131,51 @@
     </row>
     <row r="61">
       <c r="B61" s="11">
-        <f>'By Round'!A99</f>
+        <f>'By Round'!A123</f>
         <v/>
       </c>
       <c r="C61" s="11">
-        <f>'By Round'!B105</f>
+        <f>'By Round'!B127</f>
         <v/>
       </c>
       <c r="D61" s="11">
-        <f>'By Round'!C105</f>
+        <f>'By Round'!C127</f>
         <v/>
       </c>
       <c r="E61" s="11">
-        <f>'By Round'!D105</f>
+        <f>'By Round'!D127</f>
         <v/>
       </c>
       <c r="F61" s="11">
-        <f>IF(ISBLANK('By Round'!F106),"",'By Round'!F106)</f>
+        <f>IF(ISBLANK('By Round'!F128),"",'By Round'!F128)</f>
         <v/>
       </c>
       <c r="G61">
-        <f>IF(ISBLANK('By Round'!G106),"",'By Round'!G106)</f>
+        <f>IF(ISBLANK('By Round'!G128),"",'By Round'!G128)</f>
         <v/>
       </c>
       <c r="H61">
-        <f>IF(ISBLANK('By Round'!H106),"",'By Round'!H106)</f>
+        <f>IF(ISBLANK('By Round'!H128),"",'By Round'!H128)</f>
         <v/>
       </c>
       <c r="I61">
-        <f>IF(ISBLANK('By Round'!I106),"",'By Round'!I106)</f>
+        <f>IF(ISBLANK('By Round'!I128),"",'By Round'!I128)</f>
         <v/>
       </c>
       <c r="J61">
-        <f>IF(ISBLANK('By Round'!J106),"",'By Round'!J106)</f>
+        <f>IF(ISBLANK('By Round'!J128),"",'By Round'!J128)</f>
         <v/>
       </c>
       <c r="K61">
-        <f>IF(ISBLANK('By Round'!K106),"",'By Round'!K106)</f>
+        <f>IF(ISBLANK('By Round'!K128),"",'By Round'!K128)</f>
         <v/>
       </c>
       <c r="L61" s="12">
-        <f>SUM(AD61:AH61)</f>
+        <f>AVERAGE(AD61:AH61)</f>
         <v/>
       </c>
       <c r="M61" s="13">
-        <f>SUM(AI61:AM61)</f>
+        <f>AVERAGE(AI61:AM61)</f>
         <v/>
       </c>
       <c r="N61" s="8">
@@ -10286,51 +10286,51 @@
     <row r="62">
       <c r="A62" s="15" t="n"/>
       <c r="B62" s="16">
-        <f>'By Round'!A123</f>
+        <f>'By Round'!A87</f>
         <v/>
       </c>
       <c r="C62" s="16">
-        <f>'By Round'!B127</f>
+        <f>'By Round'!B95</f>
         <v/>
       </c>
       <c r="D62" s="16">
-        <f>'By Round'!C127</f>
+        <f>'By Round'!C95</f>
         <v/>
       </c>
       <c r="E62" s="16">
-        <f>'By Round'!D127</f>
+        <f>'By Round'!D95</f>
         <v/>
       </c>
       <c r="F62" s="16">
-        <f>IF(ISBLANK('By Round'!F128),"",'By Round'!F128)</f>
+        <f>IF(ISBLANK('By Round'!F96),"",'By Round'!F96)</f>
         <v/>
       </c>
       <c r="G62" s="15">
-        <f>IF(ISBLANK('By Round'!G128),"",'By Round'!G128)</f>
+        <f>IF(ISBLANK('By Round'!G96),"",'By Round'!G96)</f>
         <v/>
       </c>
       <c r="H62" s="15">
-        <f>IF(ISBLANK('By Round'!H128),"",'By Round'!H128)</f>
+        <f>IF(ISBLANK('By Round'!H96),"",'By Round'!H96)</f>
         <v/>
       </c>
       <c r="I62" s="15">
-        <f>IF(ISBLANK('By Round'!I128),"",'By Round'!I128)</f>
+        <f>IF(ISBLANK('By Round'!I96),"",'By Round'!I96)</f>
         <v/>
       </c>
       <c r="J62" s="15">
-        <f>IF(ISBLANK('By Round'!J128),"",'By Round'!J128)</f>
+        <f>IF(ISBLANK('By Round'!J96),"",'By Round'!J96)</f>
         <v/>
       </c>
       <c r="K62" s="15">
-        <f>IF(ISBLANK('By Round'!K128),"",'By Round'!K128)</f>
+        <f>IF(ISBLANK('By Round'!K96),"",'By Round'!K96)</f>
         <v/>
       </c>
       <c r="L62" s="17">
-        <f>SUM(AD62:AH62)</f>
+        <f>AVERAGE(AD62:AH62)</f>
         <v/>
       </c>
       <c r="M62" s="18">
-        <f>SUM(AI62:AM62)</f>
+        <f>AVERAGE(AI62:AM62)</f>
         <v/>
       </c>
       <c r="N62" s="19">
@@ -10443,51 +10443,51 @@
         <v>11</v>
       </c>
       <c r="B63" s="11">
-        <f>'By Round'!A3</f>
+        <f>'By Round'!A63</f>
         <v/>
       </c>
       <c r="C63" s="11">
-        <f>'By Round'!B7</f>
+        <f>'By Round'!B63</f>
         <v/>
       </c>
       <c r="D63" s="11">
-        <f>'By Round'!C7</f>
+        <f>'By Round'!C63</f>
         <v/>
       </c>
       <c r="E63" s="11">
-        <f>'By Round'!D7</f>
+        <f>'By Round'!D63</f>
         <v/>
       </c>
       <c r="F63" s="11">
-        <f>IF(ISBLANK('By Round'!F7),"",'By Round'!F7)</f>
+        <f>IF(ISBLANK('By Round'!F63),"",'By Round'!F63)</f>
         <v/>
       </c>
       <c r="G63">
-        <f>IF(ISBLANK('By Round'!G7),"",'By Round'!G7)</f>
+        <f>IF(ISBLANK('By Round'!G63),"",'By Round'!G63)</f>
         <v/>
       </c>
       <c r="H63">
-        <f>IF(ISBLANK('By Round'!H7),"",'By Round'!H7)</f>
+        <f>IF(ISBLANK('By Round'!H63),"",'By Round'!H63)</f>
         <v/>
       </c>
       <c r="I63">
-        <f>IF(ISBLANK('By Round'!I7),"",'By Round'!I7)</f>
+        <f>IF(ISBLANK('By Round'!I63),"",'By Round'!I63)</f>
         <v/>
       </c>
       <c r="J63">
-        <f>IF(ISBLANK('By Round'!J7),"",'By Round'!J7)</f>
+        <f>IF(ISBLANK('By Round'!J63),"",'By Round'!J63)</f>
         <v/>
       </c>
       <c r="K63">
-        <f>IF(ISBLANK('By Round'!K7),"",'By Round'!K7)</f>
+        <f>IF(ISBLANK('By Round'!K63),"",'By Round'!K63)</f>
         <v/>
       </c>
       <c r="L63" s="12">
-        <f>SUM(AD63:AH63)</f>
+        <f>AVERAGE(AD63:AH63)</f>
         <v/>
       </c>
       <c r="M63" s="13">
-        <f>SUM(AI63:AM63)</f>
+        <f>AVERAGE(AI63:AM63)</f>
         <v/>
       </c>
       <c r="N63" s="8">
@@ -10597,51 +10597,51 @@
     </row>
     <row r="64">
       <c r="B64" s="11">
-        <f>'By Round'!A15</f>
+        <f>'By Round'!A99</f>
         <v/>
       </c>
       <c r="C64" s="11">
-        <f>'By Round'!B17</f>
+        <f>'By Round'!B107</f>
         <v/>
       </c>
       <c r="D64" s="11">
-        <f>'By Round'!C17</f>
+        <f>'By Round'!C107</f>
         <v/>
       </c>
       <c r="E64" s="11">
-        <f>'By Round'!D17</f>
+        <f>'By Round'!D107</f>
         <v/>
       </c>
       <c r="F64" s="11">
-        <f>IF(ISBLANK('By Round'!F17),"",'By Round'!F17)</f>
+        <f>IF(ISBLANK('By Round'!F107),"",'By Round'!F107)</f>
         <v/>
       </c>
       <c r="G64">
-        <f>IF(ISBLANK('By Round'!G17),"",'By Round'!G17)</f>
+        <f>IF(ISBLANK('By Round'!G107),"",'By Round'!G107)</f>
         <v/>
       </c>
       <c r="H64">
-        <f>IF(ISBLANK('By Round'!H17),"",'By Round'!H17)</f>
+        <f>IF(ISBLANK('By Round'!H107),"",'By Round'!H107)</f>
         <v/>
       </c>
       <c r="I64">
-        <f>IF(ISBLANK('By Round'!I17),"",'By Round'!I17)</f>
+        <f>IF(ISBLANK('By Round'!I107),"",'By Round'!I107)</f>
         <v/>
       </c>
       <c r="J64">
-        <f>IF(ISBLANK('By Round'!J17),"",'By Round'!J17)</f>
+        <f>IF(ISBLANK('By Round'!J107),"",'By Round'!J107)</f>
         <v/>
       </c>
       <c r="K64">
-        <f>IF(ISBLANK('By Round'!K17),"",'By Round'!K17)</f>
+        <f>IF(ISBLANK('By Round'!K107),"",'By Round'!K107)</f>
         <v/>
       </c>
       <c r="L64" s="12">
-        <f>SUM(AD64:AH64)</f>
+        <f>AVERAGE(AD64:AH64)</f>
         <v/>
       </c>
       <c r="M64" s="13">
-        <f>SUM(AI64:AM64)</f>
+        <f>AVERAGE(AI64:AM64)</f>
         <v/>
       </c>
       <c r="N64" s="8">
@@ -10751,51 +10751,51 @@
     </row>
     <row r="65">
       <c r="B65" s="11">
-        <f>'By Round'!A63</f>
+        <f>'By Round'!A111</f>
         <v/>
       </c>
       <c r="C65" s="11">
-        <f>'By Round'!B63</f>
+        <f>'By Round'!B117</f>
         <v/>
       </c>
       <c r="D65" s="11">
-        <f>'By Round'!C63</f>
+        <f>'By Round'!C117</f>
         <v/>
       </c>
       <c r="E65" s="11">
-        <f>'By Round'!D63</f>
+        <f>'By Round'!D117</f>
         <v/>
       </c>
       <c r="F65" s="11">
-        <f>IF(ISBLANK('By Round'!F63),"",'By Round'!F63)</f>
+        <f>IF(ISBLANK('By Round'!F117),"",'By Round'!F117)</f>
         <v/>
       </c>
       <c r="G65">
-        <f>IF(ISBLANK('By Round'!G63),"",'By Round'!G63)</f>
+        <f>IF(ISBLANK('By Round'!G117),"",'By Round'!G117)</f>
         <v/>
       </c>
       <c r="H65">
-        <f>IF(ISBLANK('By Round'!H63),"",'By Round'!H63)</f>
+        <f>IF(ISBLANK('By Round'!H117),"",'By Round'!H117)</f>
         <v/>
       </c>
       <c r="I65">
-        <f>IF(ISBLANK('By Round'!I63),"",'By Round'!I63)</f>
+        <f>IF(ISBLANK('By Round'!I117),"",'By Round'!I117)</f>
         <v/>
       </c>
       <c r="J65">
-        <f>IF(ISBLANK('By Round'!J63),"",'By Round'!J63)</f>
+        <f>IF(ISBLANK('By Round'!J117),"",'By Round'!J117)</f>
         <v/>
       </c>
       <c r="K65">
-        <f>IF(ISBLANK('By Round'!K63),"",'By Round'!K63)</f>
+        <f>IF(ISBLANK('By Round'!K117),"",'By Round'!K117)</f>
         <v/>
       </c>
       <c r="L65" s="12">
-        <f>SUM(AD65:AH65)</f>
+        <f>AVERAGE(AD65:AH65)</f>
         <v/>
       </c>
       <c r="M65" s="13">
-        <f>SUM(AI65:AM65)</f>
+        <f>AVERAGE(AI65:AM65)</f>
         <v/>
       </c>
       <c r="N65" s="8">
@@ -10905,51 +10905,51 @@
     </row>
     <row r="66">
       <c r="B66" s="11">
-        <f>'By Round'!A87</f>
+        <f>'By Round'!A15</f>
         <v/>
       </c>
       <c r="C66" s="11">
-        <f>'By Round'!B97</f>
+        <f>'By Round'!B17</f>
         <v/>
       </c>
       <c r="D66" s="11">
-        <f>'By Round'!C97</f>
+        <f>'By Round'!C17</f>
         <v/>
       </c>
       <c r="E66" s="11">
-        <f>'By Round'!D97</f>
+        <f>'By Round'!D17</f>
         <v/>
       </c>
       <c r="F66" s="11">
-        <f>IF(ISBLANK('By Round'!F97),"",'By Round'!F97)</f>
+        <f>IF(ISBLANK('By Round'!F17),"",'By Round'!F17)</f>
         <v/>
       </c>
       <c r="G66">
-        <f>IF(ISBLANK('By Round'!G97),"",'By Round'!G97)</f>
+        <f>IF(ISBLANK('By Round'!G17),"",'By Round'!G17)</f>
         <v/>
       </c>
       <c r="H66">
-        <f>IF(ISBLANK('By Round'!H97),"",'By Round'!H97)</f>
+        <f>IF(ISBLANK('By Round'!H17),"",'By Round'!H17)</f>
         <v/>
       </c>
       <c r="I66">
-        <f>IF(ISBLANK('By Round'!I97),"",'By Round'!I97)</f>
+        <f>IF(ISBLANK('By Round'!I17),"",'By Round'!I17)</f>
         <v/>
       </c>
       <c r="J66">
-        <f>IF(ISBLANK('By Round'!J97),"",'By Round'!J97)</f>
+        <f>IF(ISBLANK('By Round'!J17),"",'By Round'!J17)</f>
         <v/>
       </c>
       <c r="K66">
-        <f>IF(ISBLANK('By Round'!K97),"",'By Round'!K97)</f>
+        <f>IF(ISBLANK('By Round'!K17),"",'By Round'!K17)</f>
         <v/>
       </c>
       <c r="L66" s="12">
-        <f>SUM(AD66:AH66)</f>
+        <f>AVERAGE(AD66:AH66)</f>
         <v/>
       </c>
       <c r="M66" s="13">
-        <f>SUM(AI66:AM66)</f>
+        <f>AVERAGE(AI66:AM66)</f>
         <v/>
       </c>
       <c r="N66" s="8">
@@ -11059,51 +11059,51 @@
     </row>
     <row r="67">
       <c r="B67" s="11">
-        <f>'By Round'!A99</f>
+        <f>'By Round'!A87</f>
         <v/>
       </c>
       <c r="C67" s="11">
-        <f>'By Round'!B107</f>
+        <f>'By Round'!B97</f>
         <v/>
       </c>
       <c r="D67" s="11">
-        <f>'By Round'!C107</f>
+        <f>'By Round'!C97</f>
         <v/>
       </c>
       <c r="E67" s="11">
-        <f>'By Round'!D107</f>
+        <f>'By Round'!D97</f>
         <v/>
       </c>
       <c r="F67" s="11">
-        <f>IF(ISBLANK('By Round'!F107),"",'By Round'!F107)</f>
+        <f>IF(ISBLANK('By Round'!F97),"",'By Round'!F97)</f>
         <v/>
       </c>
       <c r="G67">
-        <f>IF(ISBLANK('By Round'!G107),"",'By Round'!G107)</f>
+        <f>IF(ISBLANK('By Round'!G97),"",'By Round'!G97)</f>
         <v/>
       </c>
       <c r="H67">
-        <f>IF(ISBLANK('By Round'!H107),"",'By Round'!H107)</f>
+        <f>IF(ISBLANK('By Round'!H97),"",'By Round'!H97)</f>
         <v/>
       </c>
       <c r="I67">
-        <f>IF(ISBLANK('By Round'!I107),"",'By Round'!I107)</f>
+        <f>IF(ISBLANK('By Round'!I97),"",'By Round'!I97)</f>
         <v/>
       </c>
       <c r="J67">
-        <f>IF(ISBLANK('By Round'!J107),"",'By Round'!J107)</f>
+        <f>IF(ISBLANK('By Round'!J97),"",'By Round'!J97)</f>
         <v/>
       </c>
       <c r="K67">
-        <f>IF(ISBLANK('By Round'!K107),"",'By Round'!K107)</f>
+        <f>IF(ISBLANK('By Round'!K97),"",'By Round'!K97)</f>
         <v/>
       </c>
       <c r="L67" s="12">
-        <f>SUM(AD67:AH67)</f>
+        <f>AVERAGE(AD67:AH67)</f>
         <v/>
       </c>
       <c r="M67" s="13">
-        <f>SUM(AI67:AM67)</f>
+        <f>AVERAGE(AI67:AM67)</f>
         <v/>
       </c>
       <c r="N67" s="8">
@@ -11214,51 +11214,51 @@
     <row r="68">
       <c r="A68" s="15" t="n"/>
       <c r="B68" s="16">
-        <f>'By Round'!A111</f>
+        <f>'By Round'!A3</f>
         <v/>
       </c>
       <c r="C68" s="16">
-        <f>'By Round'!B117</f>
+        <f>'By Round'!B7</f>
         <v/>
       </c>
       <c r="D68" s="16">
-        <f>'By Round'!C117</f>
+        <f>'By Round'!C7</f>
         <v/>
       </c>
       <c r="E68" s="16">
-        <f>'By Round'!D117</f>
+        <f>'By Round'!D7</f>
         <v/>
       </c>
       <c r="F68" s="16">
-        <f>IF(ISBLANK('By Round'!F117),"",'By Round'!F117)</f>
+        <f>IF(ISBLANK('By Round'!F7),"",'By Round'!F7)</f>
         <v/>
       </c>
       <c r="G68" s="15">
-        <f>IF(ISBLANK('By Round'!G117),"",'By Round'!G117)</f>
+        <f>IF(ISBLANK('By Round'!G7),"",'By Round'!G7)</f>
         <v/>
       </c>
       <c r="H68" s="15">
-        <f>IF(ISBLANK('By Round'!H117),"",'By Round'!H117)</f>
+        <f>IF(ISBLANK('By Round'!H7),"",'By Round'!H7)</f>
         <v/>
       </c>
       <c r="I68" s="15">
-        <f>IF(ISBLANK('By Round'!I117),"",'By Round'!I117)</f>
+        <f>IF(ISBLANK('By Round'!I7),"",'By Round'!I7)</f>
         <v/>
       </c>
       <c r="J68" s="15">
-        <f>IF(ISBLANK('By Round'!J117),"",'By Round'!J117)</f>
+        <f>IF(ISBLANK('By Round'!J7),"",'By Round'!J7)</f>
         <v/>
       </c>
       <c r="K68" s="15">
-        <f>IF(ISBLANK('By Round'!K117),"",'By Round'!K117)</f>
+        <f>IF(ISBLANK('By Round'!K7),"",'By Round'!K7)</f>
         <v/>
       </c>
       <c r="L68" s="17">
-        <f>SUM(AD68:AH68)</f>
+        <f>AVERAGE(AD68:AH68)</f>
         <v/>
       </c>
       <c r="M68" s="18">
-        <f>SUM(AI68:AM68)</f>
+        <f>AVERAGE(AI68:AM68)</f>
         <v/>
       </c>
       <c r="N68" s="19">
@@ -11371,51 +11371,51 @@
         <v>12</v>
       </c>
       <c r="B69" s="11">
-        <f>'By Round'!A3</f>
+        <f>'By Round'!A63</f>
         <v/>
       </c>
       <c r="C69" s="11">
-        <f>'By Round'!B7</f>
+        <f>'By Round'!B63</f>
         <v/>
       </c>
       <c r="D69" s="11">
-        <f>'By Round'!C7</f>
+        <f>'By Round'!C63</f>
         <v/>
       </c>
       <c r="E69" s="11">
-        <f>'By Round'!D7</f>
+        <f>'By Round'!D63</f>
         <v/>
       </c>
       <c r="F69" s="11">
-        <f>IF(ISBLANK('By Round'!F8),"",'By Round'!F8)</f>
+        <f>IF(ISBLANK('By Round'!F64),"",'By Round'!F64)</f>
         <v/>
       </c>
       <c r="G69">
-        <f>IF(ISBLANK('By Round'!G8),"",'By Round'!G8)</f>
+        <f>IF(ISBLANK('By Round'!G64),"",'By Round'!G64)</f>
         <v/>
       </c>
       <c r="H69">
-        <f>IF(ISBLANK('By Round'!H8),"",'By Round'!H8)</f>
+        <f>IF(ISBLANK('By Round'!H64),"",'By Round'!H64)</f>
         <v/>
       </c>
       <c r="I69">
-        <f>IF(ISBLANK('By Round'!I8),"",'By Round'!I8)</f>
+        <f>IF(ISBLANK('By Round'!I64),"",'By Round'!I64)</f>
         <v/>
       </c>
       <c r="J69">
-        <f>IF(ISBLANK('By Round'!J8),"",'By Round'!J8)</f>
+        <f>IF(ISBLANK('By Round'!J64),"",'By Round'!J64)</f>
         <v/>
       </c>
       <c r="K69">
-        <f>IF(ISBLANK('By Round'!K8),"",'By Round'!K8)</f>
+        <f>IF(ISBLANK('By Round'!K64),"",'By Round'!K64)</f>
         <v/>
       </c>
       <c r="L69" s="12">
-        <f>SUM(AD69:AH69)</f>
+        <f>AVERAGE(AD69:AH69)</f>
         <v/>
       </c>
       <c r="M69" s="13">
-        <f>SUM(AI69:AM69)</f>
+        <f>AVERAGE(AI69:AM69)</f>
         <v/>
       </c>
       <c r="N69" s="8">
@@ -11525,51 +11525,51 @@
     </row>
     <row r="70">
       <c r="B70" s="11">
-        <f>'By Round'!A15</f>
+        <f>'By Round'!A99</f>
         <v/>
       </c>
       <c r="C70" s="11">
-        <f>'By Round'!B17</f>
+        <f>'By Round'!B107</f>
         <v/>
       </c>
       <c r="D70" s="11">
-        <f>'By Round'!C17</f>
+        <f>'By Round'!C107</f>
         <v/>
       </c>
       <c r="E70" s="11">
-        <f>'By Round'!D17</f>
+        <f>'By Round'!D107</f>
         <v/>
       </c>
       <c r="F70" s="11">
-        <f>IF(ISBLANK('By Round'!F18),"",'By Round'!F18)</f>
+        <f>IF(ISBLANK('By Round'!F108),"",'By Round'!F108)</f>
         <v/>
       </c>
       <c r="G70">
-        <f>IF(ISBLANK('By Round'!G18),"",'By Round'!G18)</f>
+        <f>IF(ISBLANK('By Round'!G108),"",'By Round'!G108)</f>
         <v/>
       </c>
       <c r="H70">
-        <f>IF(ISBLANK('By Round'!H18),"",'By Round'!H18)</f>
+        <f>IF(ISBLANK('By Round'!H108),"",'By Round'!H108)</f>
         <v/>
       </c>
       <c r="I70">
-        <f>IF(ISBLANK('By Round'!I18),"",'By Round'!I18)</f>
+        <f>IF(ISBLANK('By Round'!I108),"",'By Round'!I108)</f>
         <v/>
       </c>
       <c r="J70">
-        <f>IF(ISBLANK('By Round'!J18),"",'By Round'!J18)</f>
+        <f>IF(ISBLANK('By Round'!J108),"",'By Round'!J108)</f>
         <v/>
       </c>
       <c r="K70">
-        <f>IF(ISBLANK('By Round'!K18),"",'By Round'!K18)</f>
+        <f>IF(ISBLANK('By Round'!K108),"",'By Round'!K108)</f>
         <v/>
       </c>
       <c r="L70" s="12">
-        <f>SUM(AD70:AH70)</f>
+        <f>AVERAGE(AD70:AH70)</f>
         <v/>
       </c>
       <c r="M70" s="13">
-        <f>SUM(AI70:AM70)</f>
+        <f>AVERAGE(AI70:AM70)</f>
         <v/>
       </c>
       <c r="N70" s="8">
@@ -11679,51 +11679,51 @@
     </row>
     <row r="71">
       <c r="B71" s="11">
-        <f>'By Round'!A63</f>
+        <f>'By Round'!A111</f>
         <v/>
       </c>
       <c r="C71" s="11">
-        <f>'By Round'!B63</f>
+        <f>'By Round'!B117</f>
         <v/>
       </c>
       <c r="D71" s="11">
-        <f>'By Round'!C63</f>
+        <f>'By Round'!C117</f>
         <v/>
       </c>
       <c r="E71" s="11">
-        <f>'By Round'!D63</f>
+        <f>'By Round'!D117</f>
         <v/>
       </c>
       <c r="F71" s="11">
-        <f>IF(ISBLANK('By Round'!F64),"",'By Round'!F64)</f>
+        <f>IF(ISBLANK('By Round'!F118),"",'By Round'!F118)</f>
         <v/>
       </c>
       <c r="G71">
-        <f>IF(ISBLANK('By Round'!G64),"",'By Round'!G64)</f>
+        <f>IF(ISBLANK('By Round'!G118),"",'By Round'!G118)</f>
         <v/>
       </c>
       <c r="H71">
-        <f>IF(ISBLANK('By Round'!H64),"",'By Round'!H64)</f>
+        <f>IF(ISBLANK('By Round'!H118),"",'By Round'!H118)</f>
         <v/>
       </c>
       <c r="I71">
-        <f>IF(ISBLANK('By Round'!I64),"",'By Round'!I64)</f>
+        <f>IF(ISBLANK('By Round'!I118),"",'By Round'!I118)</f>
         <v/>
       </c>
       <c r="J71">
-        <f>IF(ISBLANK('By Round'!J64),"",'By Round'!J64)</f>
+        <f>IF(ISBLANK('By Round'!J118),"",'By Round'!J118)</f>
         <v/>
       </c>
       <c r="K71">
-        <f>IF(ISBLANK('By Round'!K64),"",'By Round'!K64)</f>
+        <f>IF(ISBLANK('By Round'!K118),"",'By Round'!K118)</f>
         <v/>
       </c>
       <c r="L71" s="12">
-        <f>SUM(AD71:AH71)</f>
+        <f>AVERAGE(AD71:AH71)</f>
         <v/>
       </c>
       <c r="M71" s="13">
-        <f>SUM(AI71:AM71)</f>
+        <f>AVERAGE(AI71:AM71)</f>
         <v/>
       </c>
       <c r="N71" s="8">
@@ -11833,51 +11833,51 @@
     </row>
     <row r="72">
       <c r="B72" s="11">
-        <f>'By Round'!A87</f>
+        <f>'By Round'!A15</f>
         <v/>
       </c>
       <c r="C72" s="11">
-        <f>'By Round'!B97</f>
+        <f>'By Round'!B17</f>
         <v/>
       </c>
       <c r="D72" s="11">
-        <f>'By Round'!C97</f>
+        <f>'By Round'!C17</f>
         <v/>
       </c>
       <c r="E72" s="11">
-        <f>'By Round'!D97</f>
+        <f>'By Round'!D17</f>
         <v/>
       </c>
       <c r="F72" s="11">
-        <f>IF(ISBLANK('By Round'!F98),"",'By Round'!F98)</f>
+        <f>IF(ISBLANK('By Round'!F18),"",'By Round'!F18)</f>
         <v/>
       </c>
       <c r="G72">
-        <f>IF(ISBLANK('By Round'!G98),"",'By Round'!G98)</f>
+        <f>IF(ISBLANK('By Round'!G18),"",'By Round'!G18)</f>
         <v/>
       </c>
       <c r="H72">
-        <f>IF(ISBLANK('By Round'!H98),"",'By Round'!H98)</f>
+        <f>IF(ISBLANK('By Round'!H18),"",'By Round'!H18)</f>
         <v/>
       </c>
       <c r="I72">
-        <f>IF(ISBLANK('By Round'!I98),"",'By Round'!I98)</f>
+        <f>IF(ISBLANK('By Round'!I18),"",'By Round'!I18)</f>
         <v/>
       </c>
       <c r="J72">
-        <f>IF(ISBLANK('By Round'!J98),"",'By Round'!J98)</f>
+        <f>IF(ISBLANK('By Round'!J18),"",'By Round'!J18)</f>
         <v/>
       </c>
       <c r="K72">
-        <f>IF(ISBLANK('By Round'!K98),"",'By Round'!K98)</f>
+        <f>IF(ISBLANK('By Round'!K18),"",'By Round'!K18)</f>
         <v/>
       </c>
       <c r="L72" s="12">
-        <f>SUM(AD72:AH72)</f>
+        <f>AVERAGE(AD72:AH72)</f>
         <v/>
       </c>
       <c r="M72" s="13">
-        <f>SUM(AI72:AM72)</f>
+        <f>AVERAGE(AI72:AM72)</f>
         <v/>
       </c>
       <c r="N72" s="8">
@@ -11987,51 +11987,51 @@
     </row>
     <row r="73">
       <c r="B73" s="11">
-        <f>'By Round'!A99</f>
+        <f>'By Round'!A87</f>
         <v/>
       </c>
       <c r="C73" s="11">
-        <f>'By Round'!B107</f>
+        <f>'By Round'!B97</f>
         <v/>
       </c>
       <c r="D73" s="11">
-        <f>'By Round'!C107</f>
+        <f>'By Round'!C97</f>
         <v/>
       </c>
       <c r="E73" s="11">
-        <f>'By Round'!D107</f>
+        <f>'By Round'!D97</f>
         <v/>
       </c>
       <c r="F73" s="11">
-        <f>IF(ISBLANK('By Round'!F108),"",'By Round'!F108)</f>
+        <f>IF(ISBLANK('By Round'!F98),"",'By Round'!F98)</f>
         <v/>
       </c>
       <c r="G73">
-        <f>IF(ISBLANK('By Round'!G108),"",'By Round'!G108)</f>
+        <f>IF(ISBLANK('By Round'!G98),"",'By Round'!G98)</f>
         <v/>
       </c>
       <c r="H73">
-        <f>IF(ISBLANK('By Round'!H108),"",'By Round'!H108)</f>
+        <f>IF(ISBLANK('By Round'!H98),"",'By Round'!H98)</f>
         <v/>
       </c>
       <c r="I73">
-        <f>IF(ISBLANK('By Round'!I108),"",'By Round'!I108)</f>
+        <f>IF(ISBLANK('By Round'!I98),"",'By Round'!I98)</f>
         <v/>
       </c>
       <c r="J73">
-        <f>IF(ISBLANK('By Round'!J108),"",'By Round'!J108)</f>
+        <f>IF(ISBLANK('By Round'!J98),"",'By Round'!J98)</f>
         <v/>
       </c>
       <c r="K73">
-        <f>IF(ISBLANK('By Round'!K108),"",'By Round'!K108)</f>
+        <f>IF(ISBLANK('By Round'!K98),"",'By Round'!K98)</f>
         <v/>
       </c>
       <c r="L73" s="12">
-        <f>SUM(AD73:AH73)</f>
+        <f>AVERAGE(AD73:AH73)</f>
         <v/>
       </c>
       <c r="M73" s="13">
-        <f>SUM(AI73:AM73)</f>
+        <f>AVERAGE(AI73:AM73)</f>
         <v/>
       </c>
       <c r="N73" s="8">
@@ -12142,51 +12142,51 @@
     <row r="74">
       <c r="A74" s="15" t="n"/>
       <c r="B74" s="16">
-        <f>'By Round'!A111</f>
+        <f>'By Round'!A3</f>
         <v/>
       </c>
       <c r="C74" s="16">
-        <f>'By Round'!B117</f>
+        <f>'By Round'!B7</f>
         <v/>
       </c>
       <c r="D74" s="16">
-        <f>'By Round'!C117</f>
+        <f>'By Round'!C7</f>
         <v/>
       </c>
       <c r="E74" s="16">
-        <f>'By Round'!D117</f>
+        <f>'By Round'!D7</f>
         <v/>
       </c>
       <c r="F74" s="16">
-        <f>IF(ISBLANK('By Round'!F118),"",'By Round'!F118)</f>
+        <f>IF(ISBLANK('By Round'!F8),"",'By Round'!F8)</f>
         <v/>
       </c>
       <c r="G74" s="15">
-        <f>IF(ISBLANK('By Round'!G118),"",'By Round'!G118)</f>
+        <f>IF(ISBLANK('By Round'!G8),"",'By Round'!G8)</f>
         <v/>
       </c>
       <c r="H74" s="15">
-        <f>IF(ISBLANK('By Round'!H118),"",'By Round'!H118)</f>
+        <f>IF(ISBLANK('By Round'!H8),"",'By Round'!H8)</f>
         <v/>
       </c>
       <c r="I74" s="15">
-        <f>IF(ISBLANK('By Round'!I118),"",'By Round'!I118)</f>
+        <f>IF(ISBLANK('By Round'!I8),"",'By Round'!I8)</f>
         <v/>
       </c>
       <c r="J74" s="15">
-        <f>IF(ISBLANK('By Round'!J118),"",'By Round'!J118)</f>
+        <f>IF(ISBLANK('By Round'!J8),"",'By Round'!J8)</f>
         <v/>
       </c>
       <c r="K74" s="15">
-        <f>IF(ISBLANK('By Round'!K118),"",'By Round'!K118)</f>
+        <f>IF(ISBLANK('By Round'!K8),"",'By Round'!K8)</f>
         <v/>
       </c>
       <c r="L74" s="17">
-        <f>SUM(AD74:AH74)</f>
+        <f>AVERAGE(AD74:AH74)</f>
         <v/>
       </c>
       <c r="M74" s="18">
-        <f>SUM(AI74:AM74)</f>
+        <f>AVERAGE(AI74:AM74)</f>
         <v/>
       </c>
       <c r="N74" s="19">
@@ -12299,51 +12299,51 @@
         <v>13</v>
       </c>
       <c r="B75" s="11">
-        <f>'By Round'!A15</f>
+        <f>'By Round'!A75</f>
         <v/>
       </c>
       <c r="C75" s="11">
-        <f>'By Round'!B19</f>
+        <f>'By Round'!B75</f>
         <v/>
       </c>
       <c r="D75" s="11">
-        <f>'By Round'!C19</f>
+        <f>'By Round'!C75</f>
         <v/>
       </c>
       <c r="E75" s="11">
-        <f>'By Round'!D19</f>
+        <f>'By Round'!D75</f>
         <v/>
       </c>
       <c r="F75" s="11">
-        <f>IF(ISBLANK('By Round'!F19),"",'By Round'!F19)</f>
+        <f>IF(ISBLANK('By Round'!F75),"",'By Round'!F75)</f>
         <v/>
       </c>
       <c r="G75">
-        <f>IF(ISBLANK('By Round'!G19),"",'By Round'!G19)</f>
+        <f>IF(ISBLANK('By Round'!G75),"",'By Round'!G75)</f>
         <v/>
       </c>
       <c r="H75">
-        <f>IF(ISBLANK('By Round'!H19),"",'By Round'!H19)</f>
+        <f>IF(ISBLANK('By Round'!H75),"",'By Round'!H75)</f>
         <v/>
       </c>
       <c r="I75">
-        <f>IF(ISBLANK('By Round'!I19),"",'By Round'!I19)</f>
+        <f>IF(ISBLANK('By Round'!I75),"",'By Round'!I75)</f>
         <v/>
       </c>
       <c r="J75">
-        <f>IF(ISBLANK('By Round'!J19),"",'By Round'!J19)</f>
+        <f>IF(ISBLANK('By Round'!J75),"",'By Round'!J75)</f>
         <v/>
       </c>
       <c r="K75">
-        <f>IF(ISBLANK('By Round'!K19),"",'By Round'!K19)</f>
+        <f>IF(ISBLANK('By Round'!K75),"",'By Round'!K75)</f>
         <v/>
       </c>
       <c r="L75" s="12">
-        <f>SUM(AD75:AH75)</f>
+        <f>AVERAGE(AD75:AH75)</f>
         <v/>
       </c>
       <c r="M75" s="13">
-        <f>SUM(AI75:AM75)</f>
+        <f>AVERAGE(AI75:AM75)</f>
         <v/>
       </c>
       <c r="N75" s="8">
@@ -12453,51 +12453,51 @@
     </row>
     <row r="76">
       <c r="B76" s="11">
-        <f>'By Round'!A27</f>
+        <f>'By Round'!A111</f>
         <v/>
       </c>
       <c r="C76" s="11">
-        <f>'By Round'!B29</f>
+        <f>'By Round'!B119</f>
         <v/>
       </c>
       <c r="D76" s="11">
-        <f>'By Round'!C29</f>
+        <f>'By Round'!C119</f>
         <v/>
       </c>
       <c r="E76" s="11">
-        <f>'By Round'!D29</f>
+        <f>'By Round'!D119</f>
         <v/>
       </c>
       <c r="F76" s="11">
-        <f>IF(ISBLANK('By Round'!F29),"",'By Round'!F29)</f>
+        <f>IF(ISBLANK('By Round'!F119),"",'By Round'!F119)</f>
         <v/>
       </c>
       <c r="G76">
-        <f>IF(ISBLANK('By Round'!G29),"",'By Round'!G29)</f>
+        <f>IF(ISBLANK('By Round'!G119),"",'By Round'!G119)</f>
         <v/>
       </c>
       <c r="H76">
-        <f>IF(ISBLANK('By Round'!H29),"",'By Round'!H29)</f>
+        <f>IF(ISBLANK('By Round'!H119),"",'By Round'!H119)</f>
         <v/>
       </c>
       <c r="I76">
-        <f>IF(ISBLANK('By Round'!I29),"",'By Round'!I29)</f>
+        <f>IF(ISBLANK('By Round'!I119),"",'By Round'!I119)</f>
         <v/>
       </c>
       <c r="J76">
-        <f>IF(ISBLANK('By Round'!J29),"",'By Round'!J29)</f>
+        <f>IF(ISBLANK('By Round'!J119),"",'By Round'!J119)</f>
         <v/>
       </c>
       <c r="K76">
-        <f>IF(ISBLANK('By Round'!K29),"",'By Round'!K29)</f>
+        <f>IF(ISBLANK('By Round'!K119),"",'By Round'!K119)</f>
         <v/>
       </c>
       <c r="L76" s="12">
-        <f>SUM(AD76:AH76)</f>
+        <f>AVERAGE(AD76:AH76)</f>
         <v/>
       </c>
       <c r="M76" s="13">
-        <f>SUM(AI76:AM76)</f>
+        <f>AVERAGE(AI76:AM76)</f>
         <v/>
       </c>
       <c r="N76" s="8">
@@ -12607,51 +12607,51 @@
     </row>
     <row r="77">
       <c r="B77" s="11">
-        <f>'By Round'!A75</f>
+        <f>'By Round'!A123</f>
         <v/>
       </c>
       <c r="C77" s="11">
-        <f>'By Round'!B75</f>
+        <f>'By Round'!B129</f>
         <v/>
       </c>
       <c r="D77" s="11">
-        <f>'By Round'!C75</f>
+        <f>'By Round'!C129</f>
         <v/>
       </c>
       <c r="E77" s="11">
-        <f>'By Round'!D75</f>
+        <f>'By Round'!D129</f>
         <v/>
       </c>
       <c r="F77" s="11">
-        <f>IF(ISBLANK('By Round'!F75),"",'By Round'!F75)</f>
+        <f>IF(ISBLANK('By Round'!F129),"",'By Round'!F129)</f>
         <v/>
       </c>
       <c r="G77">
-        <f>IF(ISBLANK('By Round'!G75),"",'By Round'!G75)</f>
+        <f>IF(ISBLANK('By Round'!G129),"",'By Round'!G129)</f>
         <v/>
       </c>
       <c r="H77">
-        <f>IF(ISBLANK('By Round'!H75),"",'By Round'!H75)</f>
+        <f>IF(ISBLANK('By Round'!H129),"",'By Round'!H129)</f>
         <v/>
       </c>
       <c r="I77">
-        <f>IF(ISBLANK('By Round'!I75),"",'By Round'!I75)</f>
+        <f>IF(ISBLANK('By Round'!I129),"",'By Round'!I129)</f>
         <v/>
       </c>
       <c r="J77">
-        <f>IF(ISBLANK('By Round'!J75),"",'By Round'!J75)</f>
+        <f>IF(ISBLANK('By Round'!J129),"",'By Round'!J129)</f>
         <v/>
       </c>
       <c r="K77">
-        <f>IF(ISBLANK('By Round'!K75),"",'By Round'!K75)</f>
+        <f>IF(ISBLANK('By Round'!K129),"",'By Round'!K129)</f>
         <v/>
       </c>
       <c r="L77" s="12">
-        <f>SUM(AD77:AH77)</f>
+        <f>AVERAGE(AD77:AH77)</f>
         <v/>
       </c>
       <c r="M77" s="13">
-        <f>SUM(AI77:AM77)</f>
+        <f>AVERAGE(AI77:AM77)</f>
         <v/>
       </c>
       <c r="N77" s="8">
@@ -12761,51 +12761,51 @@
     </row>
     <row r="78">
       <c r="B78" s="11">
-        <f>'By Round'!A99</f>
+        <f>'By Round'!A27</f>
         <v/>
       </c>
       <c r="C78" s="11">
-        <f>'By Round'!B109</f>
+        <f>'By Round'!B29</f>
         <v/>
       </c>
       <c r="D78" s="11">
-        <f>'By Round'!C109</f>
+        <f>'By Round'!C29</f>
         <v/>
       </c>
       <c r="E78" s="11">
-        <f>'By Round'!D109</f>
+        <f>'By Round'!D29</f>
         <v/>
       </c>
       <c r="F78" s="11">
-        <f>IF(ISBLANK('By Round'!F109),"",'By Round'!F109)</f>
+        <f>IF(ISBLANK('By Round'!F29),"",'By Round'!F29)</f>
         <v/>
       </c>
       <c r="G78">
-        <f>IF(ISBLANK('By Round'!G109),"",'By Round'!G109)</f>
+        <f>IF(ISBLANK('By Round'!G29),"",'By Round'!G29)</f>
         <v/>
       </c>
       <c r="H78">
-        <f>IF(ISBLANK('By Round'!H109),"",'By Round'!H109)</f>
+        <f>IF(ISBLANK('By Round'!H29),"",'By Round'!H29)</f>
         <v/>
       </c>
       <c r="I78">
-        <f>IF(ISBLANK('By Round'!I109),"",'By Round'!I109)</f>
+        <f>IF(ISBLANK('By Round'!I29),"",'By Round'!I29)</f>
         <v/>
       </c>
       <c r="J78">
-        <f>IF(ISBLANK('By Round'!J109),"",'By Round'!J109)</f>
+        <f>IF(ISBLANK('By Round'!J29),"",'By Round'!J29)</f>
         <v/>
       </c>
       <c r="K78">
-        <f>IF(ISBLANK('By Round'!K109),"",'By Round'!K109)</f>
+        <f>IF(ISBLANK('By Round'!K29),"",'By Round'!K29)</f>
         <v/>
       </c>
       <c r="L78" s="12">
-        <f>SUM(AD78:AH78)</f>
+        <f>AVERAGE(AD78:AH78)</f>
         <v/>
       </c>
       <c r="M78" s="13">
-        <f>SUM(AI78:AM78)</f>
+        <f>AVERAGE(AI78:AM78)</f>
         <v/>
       </c>
       <c r="N78" s="8">
@@ -12915,51 +12915,51 @@
     </row>
     <row r="79">
       <c r="B79" s="11">
-        <f>'By Round'!A111</f>
+        <f>'By Round'!A99</f>
         <v/>
       </c>
       <c r="C79" s="11">
-        <f>'By Round'!B119</f>
+        <f>'By Round'!B109</f>
         <v/>
       </c>
       <c r="D79" s="11">
-        <f>'By Round'!C119</f>
+        <f>'By Round'!C109</f>
         <v/>
       </c>
       <c r="E79" s="11">
-        <f>'By Round'!D119</f>
+        <f>'By Round'!D109</f>
         <v/>
       </c>
       <c r="F79" s="11">
-        <f>IF(ISBLANK('By Round'!F119),"",'By Round'!F119)</f>
+        <f>IF(ISBLANK('By Round'!F109),"",'By Round'!F109)</f>
         <v/>
       </c>
       <c r="G79">
-        <f>IF(ISBLANK('By Round'!G119),"",'By Round'!G119)</f>
+        <f>IF(ISBLANK('By Round'!G109),"",'By Round'!G109)</f>
         <v/>
       </c>
       <c r="H79">
-        <f>IF(ISBLANK('By Round'!H119),"",'By Round'!H119)</f>
+        <f>IF(ISBLANK('By Round'!H109),"",'By Round'!H109)</f>
         <v/>
       </c>
       <c r="I79">
-        <f>IF(ISBLANK('By Round'!I119),"",'By Round'!I119)</f>
+        <f>IF(ISBLANK('By Round'!I109),"",'By Round'!I109)</f>
         <v/>
       </c>
       <c r="J79">
-        <f>IF(ISBLANK('By Round'!J119),"",'By Round'!J119)</f>
+        <f>IF(ISBLANK('By Round'!J109),"",'By Round'!J109)</f>
         <v/>
       </c>
       <c r="K79">
-        <f>IF(ISBLANK('By Round'!K119),"",'By Round'!K119)</f>
+        <f>IF(ISBLANK('By Round'!K109),"",'By Round'!K109)</f>
         <v/>
       </c>
       <c r="L79" s="12">
-        <f>SUM(AD79:AH79)</f>
+        <f>AVERAGE(AD79:AH79)</f>
         <v/>
       </c>
       <c r="M79" s="13">
-        <f>SUM(AI79:AM79)</f>
+        <f>AVERAGE(AI79:AM79)</f>
         <v/>
       </c>
       <c r="N79" s="8">
@@ -13070,51 +13070,51 @@
     <row r="80">
       <c r="A80" s="15" t="n"/>
       <c r="B80" s="16">
-        <f>'By Round'!A123</f>
+        <f>'By Round'!A15</f>
         <v/>
       </c>
       <c r="C80" s="16">
-        <f>'By Round'!B129</f>
+        <f>'By Round'!B19</f>
         <v/>
       </c>
       <c r="D80" s="16">
-        <f>'By Round'!C129</f>
+        <f>'By Round'!C19</f>
         <v/>
       </c>
       <c r="E80" s="16">
-        <f>'By Round'!D129</f>
+        <f>'By Round'!D19</f>
         <v/>
       </c>
       <c r="F80" s="16">
-        <f>IF(ISBLANK('By Round'!F129),"",'By Round'!F129)</f>
+        <f>IF(ISBLANK('By Round'!F19),"",'By Round'!F19)</f>
         <v/>
       </c>
       <c r="G80" s="15">
-        <f>IF(ISBLANK('By Round'!G129),"",'By Round'!G129)</f>
+        <f>IF(ISBLANK('By Round'!G19),"",'By Round'!G19)</f>
         <v/>
       </c>
       <c r="H80" s="15">
-        <f>IF(ISBLANK('By Round'!H129),"",'By Round'!H129)</f>
+        <f>IF(ISBLANK('By Round'!H19),"",'By Round'!H19)</f>
         <v/>
       </c>
       <c r="I80" s="15">
-        <f>IF(ISBLANK('By Round'!I129),"",'By Round'!I129)</f>
+        <f>IF(ISBLANK('By Round'!I19),"",'By Round'!I19)</f>
         <v/>
       </c>
       <c r="J80" s="15">
-        <f>IF(ISBLANK('By Round'!J129),"",'By Round'!J129)</f>
+        <f>IF(ISBLANK('By Round'!J19),"",'By Round'!J19)</f>
         <v/>
       </c>
       <c r="K80" s="15">
-        <f>IF(ISBLANK('By Round'!K129),"",'By Round'!K129)</f>
+        <f>IF(ISBLANK('By Round'!K19),"",'By Round'!K19)</f>
         <v/>
       </c>
       <c r="L80" s="17">
-        <f>SUM(AD80:AH80)</f>
+        <f>AVERAGE(AD80:AH80)</f>
         <v/>
       </c>
       <c r="M80" s="18">
-        <f>SUM(AI80:AM80)</f>
+        <f>AVERAGE(AI80:AM80)</f>
         <v/>
       </c>
       <c r="N80" s="19">
@@ -13227,51 +13227,51 @@
         <v>14</v>
       </c>
       <c r="B81" s="11">
-        <f>'By Round'!A15</f>
+        <f>'By Round'!A75</f>
         <v/>
       </c>
       <c r="C81" s="11">
-        <f>'By Round'!B19</f>
+        <f>'By Round'!B75</f>
         <v/>
       </c>
       <c r="D81" s="11">
-        <f>'By Round'!C19</f>
+        <f>'By Round'!C75</f>
         <v/>
       </c>
       <c r="E81" s="11">
-        <f>'By Round'!D19</f>
+        <f>'By Round'!D75</f>
         <v/>
       </c>
       <c r="F81" s="11">
-        <f>IF(ISBLANK('By Round'!F20),"",'By Round'!F20)</f>
+        <f>IF(ISBLANK('By Round'!F76),"",'By Round'!F76)</f>
         <v/>
       </c>
       <c r="G81">
-        <f>IF(ISBLANK('By Round'!G20),"",'By Round'!G20)</f>
+        <f>IF(ISBLANK('By Round'!G76),"",'By Round'!G76)</f>
         <v/>
       </c>
       <c r="H81">
-        <f>IF(ISBLANK('By Round'!H20),"",'By Round'!H20)</f>
+        <f>IF(ISBLANK('By Round'!H76),"",'By Round'!H76)</f>
         <v/>
       </c>
       <c r="I81">
-        <f>IF(ISBLANK('By Round'!I20),"",'By Round'!I20)</f>
+        <f>IF(ISBLANK('By Round'!I76),"",'By Round'!I76)</f>
         <v/>
       </c>
       <c r="J81">
-        <f>IF(ISBLANK('By Round'!J20),"",'By Round'!J20)</f>
+        <f>IF(ISBLANK('By Round'!J76),"",'By Round'!J76)</f>
         <v/>
       </c>
       <c r="K81">
-        <f>IF(ISBLANK('By Round'!K20),"",'By Round'!K20)</f>
+        <f>IF(ISBLANK('By Round'!K76),"",'By Round'!K76)</f>
         <v/>
       </c>
       <c r="L81" s="12">
-        <f>SUM(AD81:AH81)</f>
+        <f>AVERAGE(AD81:AH81)</f>
         <v/>
       </c>
       <c r="M81" s="13">
-        <f>SUM(AI81:AM81)</f>
+        <f>AVERAGE(AI81:AM81)</f>
         <v/>
       </c>
       <c r="N81" s="8">
@@ -13381,51 +13381,51 @@
     </row>
     <row r="82">
       <c r="B82" s="11">
-        <f>'By Round'!A27</f>
+        <f>'By Round'!A111</f>
         <v/>
       </c>
       <c r="C82" s="11">
-        <f>'By Round'!B29</f>
+        <f>'By Round'!B119</f>
         <v/>
       </c>
       <c r="D82" s="11">
-        <f>'By Round'!C29</f>
+        <f>'By Round'!C119</f>
         <v/>
       </c>
       <c r="E82" s="11">
-        <f>'By Round'!D29</f>
+        <f>'By Round'!D119</f>
         <v/>
       </c>
       <c r="F82" s="11">
-        <f>IF(ISBLANK('By Round'!F30),"",'By Round'!F30)</f>
+        <f>IF(ISBLANK('By Round'!F120),"",'By Round'!F120)</f>
         <v/>
       </c>
       <c r="G82">
-        <f>IF(ISBLANK('By Round'!G30),"",'By Round'!G30)</f>
+        <f>IF(ISBLANK('By Round'!G120),"",'By Round'!G120)</f>
         <v/>
       </c>
       <c r="H82">
-        <f>IF(ISBLANK('By Round'!H30),"",'By Round'!H30)</f>
+        <f>IF(ISBLANK('By Round'!H120),"",'By Round'!H120)</f>
         <v/>
       </c>
       <c r="I82">
-        <f>IF(ISBLANK('By Round'!I30),"",'By Round'!I30)</f>
+        <f>IF(ISBLANK('By Round'!I120),"",'By Round'!I120)</f>
         <v/>
       </c>
       <c r="J82">
-        <f>IF(ISBLANK('By Round'!J30),"",'By Round'!J30)</f>
+        <f>IF(ISBLANK('By Round'!J120),"",'By Round'!J120)</f>
         <v/>
       </c>
       <c r="K82">
-        <f>IF(ISBLANK('By Round'!K30),"",'By Round'!K30)</f>
+        <f>IF(ISBLANK('By Round'!K120),"",'By Round'!K120)</f>
         <v/>
       </c>
       <c r="L82" s="12">
-        <f>SUM(AD82:AH82)</f>
+        <f>AVERAGE(AD82:AH82)</f>
         <v/>
       </c>
       <c r="M82" s="13">
-        <f>SUM(AI82:AM82)</f>
+        <f>AVERAGE(AI82:AM82)</f>
         <v/>
       </c>
       <c r="N82" s="8">
@@ -13535,51 +13535,51 @@
     </row>
     <row r="83">
       <c r="B83" s="11">
-        <f>'By Round'!A75</f>
+        <f>'By Round'!A123</f>
         <v/>
       </c>
       <c r="C83" s="11">
-        <f>'By Round'!B75</f>
+        <f>'By Round'!B129</f>
         <v/>
       </c>
       <c r="D83" s="11">
-        <f>'By Round'!C75</f>
+        <f>'By Round'!C129</f>
         <v/>
       </c>
       <c r="E83" s="11">
-        <f>'By Round'!D75</f>
+        <f>'By Round'!D129</f>
         <v/>
       </c>
       <c r="F83" s="11">
-        <f>IF(ISBLANK('By Round'!F76),"",'By Round'!F76)</f>
+        <f>IF(ISBLANK('By Round'!F130),"",'By Round'!F130)</f>
         <v/>
       </c>
       <c r="G83">
-        <f>IF(ISBLANK('By Round'!G76),"",'By Round'!G76)</f>
+        <f>IF(ISBLANK('By Round'!G130),"",'By Round'!G130)</f>
         <v/>
       </c>
       <c r="H83">
-        <f>IF(ISBLANK('By Round'!H76),"",'By Round'!H76)</f>
+        <f>IF(ISBLANK('By Round'!H130),"",'By Round'!H130)</f>
         <v/>
       </c>
       <c r="I83">
-        <f>IF(ISBLANK('By Round'!I76),"",'By Round'!I76)</f>
+        <f>IF(ISBLANK('By Round'!I130),"",'By Round'!I130)</f>
         <v/>
       </c>
       <c r="J83">
-        <f>IF(ISBLANK('By Round'!J76),"",'By Round'!J76)</f>
+        <f>IF(ISBLANK('By Round'!J130),"",'By Round'!J130)</f>
         <v/>
       </c>
       <c r="K83">
-        <f>IF(ISBLANK('By Round'!K76),"",'By Round'!K76)</f>
+        <f>IF(ISBLANK('By Round'!K130),"",'By Round'!K130)</f>
         <v/>
       </c>
       <c r="L83" s="12">
-        <f>SUM(AD83:AH83)</f>
+        <f>AVERAGE(AD83:AH83)</f>
         <v/>
       </c>
       <c r="M83" s="13">
-        <f>SUM(AI83:AM83)</f>
+        <f>AVERAGE(AI83:AM83)</f>
         <v/>
       </c>
       <c r="N83" s="8">
@@ -13689,51 +13689,51 @@
     </row>
     <row r="84">
       <c r="B84" s="11">
-        <f>'By Round'!A99</f>
+        <f>'By Round'!A27</f>
         <v/>
       </c>
       <c r="C84" s="11">
-        <f>'By Round'!B109</f>
+        <f>'By Round'!B29</f>
         <v/>
       </c>
       <c r="D84" s="11">
-        <f>'By Round'!C109</f>
+        <f>'By Round'!C29</f>
         <v/>
       </c>
       <c r="E84" s="11">
-        <f>'By Round'!D109</f>
+        <f>'By Round'!D29</f>
         <v/>
       </c>
       <c r="F84" s="11">
-        <f>IF(ISBLANK('By Round'!F110),"",'By Round'!F110)</f>
+        <f>IF(ISBLANK('By Round'!F30),"",'By Round'!F30)</f>
         <v/>
       </c>
       <c r="G84">
-        <f>IF(ISBLANK('By Round'!G110),"",'By Round'!G110)</f>
+        <f>IF(ISBLANK('By Round'!G30),"",'By Round'!G30)</f>
         <v/>
       </c>
       <c r="H84">
-        <f>IF(ISBLANK('By Round'!H110),"",'By Round'!H110)</f>
+        <f>IF(ISBLANK('By Round'!H30),"",'By Round'!H30)</f>
         <v/>
       </c>
       <c r="I84">
-        <f>IF(ISBLANK('By Round'!I110),"",'By Round'!I110)</f>
+        <f>IF(ISBLANK('By Round'!I30),"",'By Round'!I30)</f>
         <v/>
       </c>
       <c r="J84">
-        <f>IF(ISBLANK('By Round'!J110),"",'By Round'!J110)</f>
+        <f>IF(ISBLANK('By Round'!J30),"",'By Round'!J30)</f>
         <v/>
       </c>
       <c r="K84">
-        <f>IF(ISBLANK('By Round'!K110),"",'By Round'!K110)</f>
+        <f>IF(ISBLANK('By Round'!K30),"",'By Round'!K30)</f>
         <v/>
       </c>
       <c r="L84" s="12">
-        <f>SUM(AD84:AH84)</f>
+        <f>AVERAGE(AD84:AH84)</f>
         <v/>
       </c>
       <c r="M84" s="13">
-        <f>SUM(AI84:AM84)</f>
+        <f>AVERAGE(AI84:AM84)</f>
         <v/>
       </c>
       <c r="N84" s="8">
@@ -13843,51 +13843,51 @@
     </row>
     <row r="85">
       <c r="B85" s="11">
-        <f>'By Round'!A111</f>
+        <f>'By Round'!A99</f>
         <v/>
       </c>
       <c r="C85" s="11">
-        <f>'By Round'!B119</f>
+        <f>'By Round'!B109</f>
         <v/>
       </c>
       <c r="D85" s="11">
-        <f>'By Round'!C119</f>
+        <f>'By Round'!C109</f>
         <v/>
       </c>
       <c r="E85" s="11">
-        <f>'By Round'!D119</f>
+        <f>'By Round'!D109</f>
         <v/>
       </c>
       <c r="F85" s="11">
-        <f>IF(ISBLANK('By Round'!F120),"",'By Round'!F120)</f>
+        <f>IF(ISBLANK('By Round'!F110),"",'By Round'!F110)</f>
         <v/>
       </c>
       <c r="G85">
-        <f>IF(ISBLANK('By Round'!G120),"",'By Round'!G120)</f>
+        <f>IF(ISBLANK('By Round'!G110),"",'By Round'!G110)</f>
         <v/>
       </c>
       <c r="H85">
-        <f>IF(ISBLANK('By Round'!H120),"",'By Round'!H120)</f>
+        <f>IF(ISBLANK('By Round'!H110),"",'By Round'!H110)</f>
         <v/>
       </c>
       <c r="I85">
-        <f>IF(ISBLANK('By Round'!I120),"",'By Round'!I120)</f>
+        <f>IF(ISBLANK('By Round'!I110),"",'By Round'!I110)</f>
         <v/>
       </c>
       <c r="J85">
-        <f>IF(ISBLANK('By Round'!J120),"",'By Round'!J120)</f>
+        <f>IF(ISBLANK('By Round'!J110),"",'By Round'!J110)</f>
         <v/>
       </c>
       <c r="K85">
-        <f>IF(ISBLANK('By Round'!K120),"",'By Round'!K120)</f>
+        <f>IF(ISBLANK('By Round'!K110),"",'By Round'!K110)</f>
         <v/>
       </c>
       <c r="L85" s="12">
-        <f>SUM(AD85:AH85)</f>
+        <f>AVERAGE(AD85:AH85)</f>
         <v/>
       </c>
       <c r="M85" s="13">
-        <f>SUM(AI85:AM85)</f>
+        <f>AVERAGE(AI85:AM85)</f>
         <v/>
       </c>
       <c r="N85" s="8">
@@ -13998,51 +13998,51 @@
     <row r="86">
       <c r="A86" s="15" t="n"/>
       <c r="B86" s="16">
-        <f>'By Round'!A123</f>
+        <f>'By Round'!A15</f>
         <v/>
       </c>
       <c r="C86" s="16">
-        <f>'By Round'!B129</f>
+        <f>'By Round'!B19</f>
         <v/>
       </c>
       <c r="D86" s="16">
-        <f>'By Round'!C129</f>
+        <f>'By Round'!C19</f>
         <v/>
       </c>
       <c r="E86" s="16">
-        <f>'By Round'!D129</f>
+        <f>'By Round'!D19</f>
         <v/>
       </c>
       <c r="F86" s="16">
-        <f>IF(ISBLANK('By Round'!F130),"",'By Round'!F130)</f>
+        <f>IF(ISBLANK('By Round'!F20),"",'By Round'!F20)</f>
         <v/>
       </c>
       <c r="G86" s="15">
-        <f>IF(ISBLANK('By Round'!G130),"",'By Round'!G130)</f>
+        <f>IF(ISBLANK('By Round'!G20),"",'By Round'!G20)</f>
         <v/>
       </c>
       <c r="H86" s="15">
-        <f>IF(ISBLANK('By Round'!H130),"",'By Round'!H130)</f>
+        <f>IF(ISBLANK('By Round'!H20),"",'By Round'!H20)</f>
         <v/>
       </c>
       <c r="I86" s="15">
-        <f>IF(ISBLANK('By Round'!I130),"",'By Round'!I130)</f>
+        <f>IF(ISBLANK('By Round'!I20),"",'By Round'!I20)</f>
         <v/>
       </c>
       <c r="J86" s="15">
-        <f>IF(ISBLANK('By Round'!J130),"",'By Round'!J130)</f>
+        <f>IF(ISBLANK('By Round'!J20),"",'By Round'!J20)</f>
         <v/>
       </c>
       <c r="K86" s="15">
-        <f>IF(ISBLANK('By Round'!K130),"",'By Round'!K130)</f>
+        <f>IF(ISBLANK('By Round'!K20),"",'By Round'!K20)</f>
         <v/>
       </c>
       <c r="L86" s="17">
-        <f>SUM(AD86:AH86)</f>
+        <f>AVERAGE(AD86:AH86)</f>
         <v/>
       </c>
       <c r="M86" s="18">
-        <f>SUM(AI86:AM86)</f>
+        <f>AVERAGE(AI86:AM86)</f>
         <v/>
       </c>
       <c r="N86" s="19">
@@ -14155,51 +14155,51 @@
         <v>15</v>
       </c>
       <c r="B87" s="11">
-        <f>'By Round'!A3</f>
+        <f>'By Round'!A87</f>
         <v/>
       </c>
       <c r="C87" s="11">
-        <f>'By Round'!B9</f>
+        <f>'By Round'!B87</f>
         <v/>
       </c>
       <c r="D87" s="11">
-        <f>'By Round'!C9</f>
+        <f>'By Round'!C87</f>
         <v/>
       </c>
       <c r="E87" s="11">
-        <f>'By Round'!D9</f>
+        <f>'By Round'!D87</f>
         <v/>
       </c>
       <c r="F87" s="11">
-        <f>IF(ISBLANK('By Round'!F9),"",'By Round'!F9)</f>
+        <f>IF(ISBLANK('By Round'!F87),"",'By Round'!F87)</f>
         <v/>
       </c>
       <c r="G87">
-        <f>IF(ISBLANK('By Round'!G9),"",'By Round'!G9)</f>
+        <f>IF(ISBLANK('By Round'!G87),"",'By Round'!G87)</f>
         <v/>
       </c>
       <c r="H87">
-        <f>IF(ISBLANK('By Round'!H9),"",'By Round'!H9)</f>
+        <f>IF(ISBLANK('By Round'!H87),"",'By Round'!H87)</f>
         <v/>
       </c>
       <c r="I87">
-        <f>IF(ISBLANK('By Round'!I9),"",'By Round'!I9)</f>
+        <f>IF(ISBLANK('By Round'!I87),"",'By Round'!I87)</f>
         <v/>
       </c>
       <c r="J87">
-        <f>IF(ISBLANK('By Round'!J9),"",'By Round'!J9)</f>
+        <f>IF(ISBLANK('By Round'!J87),"",'By Round'!J87)</f>
         <v/>
       </c>
       <c r="K87">
-        <f>IF(ISBLANK('By Round'!K9),"",'By Round'!K9)</f>
+        <f>IF(ISBLANK('By Round'!K87),"",'By Round'!K87)</f>
         <v/>
       </c>
       <c r="L87" s="12">
-        <f>SUM(AD87:AH87)</f>
+        <f>AVERAGE(AD87:AH87)</f>
         <v/>
       </c>
       <c r="M87" s="13">
-        <f>SUM(AI87:AM87)</f>
+        <f>AVERAGE(AI87:AM87)</f>
         <v/>
       </c>
       <c r="N87" s="8">
@@ -14309,51 +14309,51 @@
     </row>
     <row r="88">
       <c r="B88" s="11">
-        <f>'By Round'!A27</f>
+        <f>'By Round'!A123</f>
         <v/>
       </c>
       <c r="C88" s="11">
-        <f>'By Round'!B31</f>
+        <f>'By Round'!B131</f>
         <v/>
       </c>
       <c r="D88" s="11">
-        <f>'By Round'!C31</f>
+        <f>'By Round'!C131</f>
         <v/>
       </c>
       <c r="E88" s="11">
-        <f>'By Round'!D31</f>
+        <f>'By Round'!D131</f>
         <v/>
       </c>
       <c r="F88" s="11">
-        <f>IF(ISBLANK('By Round'!F31),"",'By Round'!F31)</f>
+        <f>IF(ISBLANK('By Round'!F131),"",'By Round'!F131)</f>
         <v/>
       </c>
       <c r="G88">
-        <f>IF(ISBLANK('By Round'!G31),"",'By Round'!G31)</f>
+        <f>IF(ISBLANK('By Round'!G131),"",'By Round'!G131)</f>
         <v/>
       </c>
       <c r="H88">
-        <f>IF(ISBLANK('By Round'!H31),"",'By Round'!H31)</f>
+        <f>IF(ISBLANK('By Round'!H131),"",'By Round'!H131)</f>
         <v/>
       </c>
       <c r="I88">
-        <f>IF(ISBLANK('By Round'!I31),"",'By Round'!I31)</f>
+        <f>IF(ISBLANK('By Round'!I131),"",'By Round'!I131)</f>
         <v/>
       </c>
       <c r="J88">
-        <f>IF(ISBLANK('By Round'!J31),"",'By Round'!J31)</f>
+        <f>IF(ISBLANK('By Round'!J131),"",'By Round'!J131)</f>
         <v/>
       </c>
       <c r="K88">
-        <f>IF(ISBLANK('By Round'!K31),"",'By Round'!K31)</f>
+        <f>IF(ISBLANK('By Round'!K131),"",'By Round'!K131)</f>
         <v/>
       </c>
       <c r="L88" s="12">
-        <f>SUM(AD88:AH88)</f>
+        <f>AVERAGE(AD88:AH88)</f>
         <v/>
       </c>
       <c r="M88" s="13">
-        <f>SUM(AI88:AM88)</f>
+        <f>AVERAGE(AI88:AM88)</f>
         <v/>
       </c>
       <c r="N88" s="8">
@@ -14463,51 +14463,51 @@
     </row>
     <row r="89">
       <c r="B89" s="11">
-        <f>'By Round'!A39</f>
+        <f>'By Round'!A3</f>
         <v/>
       </c>
       <c r="C89" s="11">
-        <f>'By Round'!B41</f>
+        <f>'By Round'!B9</f>
         <v/>
       </c>
       <c r="D89" s="11">
-        <f>'By Round'!C41</f>
+        <f>'By Round'!C9</f>
         <v/>
       </c>
       <c r="E89" s="11">
-        <f>'By Round'!D41</f>
+        <f>'By Round'!D9</f>
         <v/>
       </c>
       <c r="F89" s="11">
-        <f>IF(ISBLANK('By Round'!F41),"",'By Round'!F41)</f>
+        <f>IF(ISBLANK('By Round'!F9),"",'By Round'!F9)</f>
         <v/>
       </c>
       <c r="G89">
-        <f>IF(ISBLANK('By Round'!G41),"",'By Round'!G41)</f>
+        <f>IF(ISBLANK('By Round'!G9),"",'By Round'!G9)</f>
         <v/>
       </c>
       <c r="H89">
-        <f>IF(ISBLANK('By Round'!H41),"",'By Round'!H41)</f>
+        <f>IF(ISBLANK('By Round'!H9),"",'By Round'!H9)</f>
         <v/>
       </c>
       <c r="I89">
-        <f>IF(ISBLANK('By Round'!I41),"",'By Round'!I41)</f>
+        <f>IF(ISBLANK('By Round'!I9),"",'By Round'!I9)</f>
         <v/>
       </c>
       <c r="J89">
-        <f>IF(ISBLANK('By Round'!J41),"",'By Round'!J41)</f>
+        <f>IF(ISBLANK('By Round'!J9),"",'By Round'!J9)</f>
         <v/>
       </c>
       <c r="K89">
-        <f>IF(ISBLANK('By Round'!K41),"",'By Round'!K41)</f>
+        <f>IF(ISBLANK('By Round'!K9),"",'By Round'!K9)</f>
         <v/>
       </c>
       <c r="L89" s="12">
-        <f>SUM(AD89:AH89)</f>
+        <f>AVERAGE(AD89:AH89)</f>
         <v/>
       </c>
       <c r="M89" s="13">
-        <f>SUM(AI89:AM89)</f>
+        <f>AVERAGE(AI89:AM89)</f>
         <v/>
       </c>
       <c r="N89" s="8">
@@ -14617,51 +14617,51 @@
     </row>
     <row r="90">
       <c r="B90" s="11">
-        <f>'By Round'!A87</f>
+        <f>'By Round'!A39</f>
         <v/>
       </c>
       <c r="C90" s="11">
-        <f>'By Round'!B87</f>
+        <f>'By Round'!B41</f>
         <v/>
       </c>
       <c r="D90" s="11">
-        <f>'By Round'!C87</f>
+        <f>'By Round'!C41</f>
         <v/>
       </c>
       <c r="E90" s="11">
-        <f>'By Round'!D87</f>
+        <f>'By Round'!D41</f>
         <v/>
       </c>
       <c r="F90" s="11">
-        <f>IF(ISBLANK('By Round'!F87),"",'By Round'!F87)</f>
+        <f>IF(ISBLANK('By Round'!F41),"",'By Round'!F41)</f>
         <v/>
       </c>
       <c r="G90">
-        <f>IF(ISBLANK('By Round'!G87),"",'By Round'!G87)</f>
+        <f>IF(ISBLANK('By Round'!G41),"",'By Round'!G41)</f>
         <v/>
       </c>
       <c r="H90">
-        <f>IF(ISBLANK('By Round'!H87),"",'By Round'!H87)</f>
+        <f>IF(ISBLANK('By Round'!H41),"",'By Round'!H41)</f>
         <v/>
       </c>
       <c r="I90">
-        <f>IF(ISBLANK('By Round'!I87),"",'By Round'!I87)</f>
+        <f>IF(ISBLANK('By Round'!I41),"",'By Round'!I41)</f>
         <v/>
       </c>
       <c r="J90">
-        <f>IF(ISBLANK('By Round'!J87),"",'By Round'!J87)</f>
+        <f>IF(ISBLANK('By Round'!J41),"",'By Round'!J41)</f>
         <v/>
       </c>
       <c r="K90">
-        <f>IF(ISBLANK('By Round'!K87),"",'By Round'!K87)</f>
+        <f>IF(ISBLANK('By Round'!K41),"",'By Round'!K41)</f>
         <v/>
       </c>
       <c r="L90" s="12">
-        <f>SUM(AD90:AH90)</f>
+        <f>AVERAGE(AD90:AH90)</f>
         <v/>
       </c>
       <c r="M90" s="13">
-        <f>SUM(AI90:AM90)</f>
+        <f>AVERAGE(AI90:AM90)</f>
         <v/>
       </c>
       <c r="N90" s="8">
@@ -14811,11 +14811,11 @@
         <v/>
       </c>
       <c r="L91" s="12">
-        <f>SUM(AD91:AH91)</f>
+        <f>AVERAGE(AD91:AH91)</f>
         <v/>
       </c>
       <c r="M91" s="13">
-        <f>SUM(AI91:AM91)</f>
+        <f>AVERAGE(AI91:AM91)</f>
         <v/>
       </c>
       <c r="N91" s="8">
@@ -14926,51 +14926,51 @@
     <row r="92">
       <c r="A92" s="15" t="n"/>
       <c r="B92" s="16">
-        <f>'By Round'!A123</f>
+        <f>'By Round'!A27</f>
         <v/>
       </c>
       <c r="C92" s="16">
-        <f>'By Round'!B131</f>
+        <f>'By Round'!B31</f>
         <v/>
       </c>
       <c r="D92" s="16">
-        <f>'By Round'!C131</f>
+        <f>'By Round'!C31</f>
         <v/>
       </c>
       <c r="E92" s="16">
-        <f>'By Round'!D131</f>
+        <f>'By Round'!D31</f>
         <v/>
       </c>
       <c r="F92" s="16">
-        <f>IF(ISBLANK('By Round'!F131),"",'By Round'!F131)</f>
+        <f>IF(ISBLANK('By Round'!F31),"",'By Round'!F31)</f>
         <v/>
       </c>
       <c r="G92" s="15">
-        <f>IF(ISBLANK('By Round'!G131),"",'By Round'!G131)</f>
+        <f>IF(ISBLANK('By Round'!G31),"",'By Round'!G31)</f>
         <v/>
       </c>
       <c r="H92" s="15">
-        <f>IF(ISBLANK('By Round'!H131),"",'By Round'!H131)</f>
+        <f>IF(ISBLANK('By Round'!H31),"",'By Round'!H31)</f>
         <v/>
       </c>
       <c r="I92" s="15">
-        <f>IF(ISBLANK('By Round'!I131),"",'By Round'!I131)</f>
+        <f>IF(ISBLANK('By Round'!I31),"",'By Round'!I31)</f>
         <v/>
       </c>
       <c r="J92" s="15">
-        <f>IF(ISBLANK('By Round'!J131),"",'By Round'!J131)</f>
+        <f>IF(ISBLANK('By Round'!J31),"",'By Round'!J31)</f>
         <v/>
       </c>
       <c r="K92" s="15">
-        <f>IF(ISBLANK('By Round'!K131),"",'By Round'!K131)</f>
+        <f>IF(ISBLANK('By Round'!K31),"",'By Round'!K31)</f>
         <v/>
       </c>
       <c r="L92" s="17">
-        <f>SUM(AD92:AH92)</f>
+        <f>AVERAGE(AD92:AH92)</f>
         <v/>
       </c>
       <c r="M92" s="18">
-        <f>SUM(AI92:AM92)</f>
+        <f>AVERAGE(AI92:AM92)</f>
         <v/>
       </c>
       <c r="N92" s="19">
@@ -15083,51 +15083,51 @@
         <v>16</v>
       </c>
       <c r="B93" s="11">
-        <f>'By Round'!A3</f>
+        <f>'By Round'!A87</f>
         <v/>
       </c>
       <c r="C93" s="11">
-        <f>'By Round'!B9</f>
+        <f>'By Round'!B87</f>
         <v/>
       </c>
       <c r="D93" s="11">
-        <f>'By Round'!C9</f>
+        <f>'By Round'!C87</f>
         <v/>
       </c>
       <c r="E93" s="11">
-        <f>'By Round'!D9</f>
+        <f>'By Round'!D87</f>
         <v/>
       </c>
       <c r="F93" s="11">
-        <f>IF(ISBLANK('By Round'!F10),"",'By Round'!F10)</f>
+        <f>IF(ISBLANK('By Round'!F88),"",'By Round'!F88)</f>
         <v/>
       </c>
       <c r="G93">
-        <f>IF(ISBLANK('By Round'!G10),"",'By Round'!G10)</f>
+        <f>IF(ISBLANK('By Round'!G88),"",'By Round'!G88)</f>
         <v/>
       </c>
       <c r="H93">
-        <f>IF(ISBLANK('By Round'!H10),"",'By Round'!H10)</f>
+        <f>IF(ISBLANK('By Round'!H88),"",'By Round'!H88)</f>
         <v/>
       </c>
       <c r="I93">
-        <f>IF(ISBLANK('By Round'!I10),"",'By Round'!I10)</f>
+        <f>IF(ISBLANK('By Round'!I88),"",'By Round'!I88)</f>
         <v/>
       </c>
       <c r="J93">
-        <f>IF(ISBLANK('By Round'!J10),"",'By Round'!J10)</f>
+        <f>IF(ISBLANK('By Round'!J88),"",'By Round'!J88)</f>
         <v/>
       </c>
       <c r="K93">
-        <f>IF(ISBLANK('By Round'!K10),"",'By Round'!K10)</f>
+        <f>IF(ISBLANK('By Round'!K88),"",'By Round'!K88)</f>
         <v/>
       </c>
       <c r="L93" s="12">
-        <f>SUM(AD93:AH93)</f>
+        <f>AVERAGE(AD93:AH93)</f>
         <v/>
       </c>
       <c r="M93" s="13">
-        <f>SUM(AI93:AM93)</f>
+        <f>AVERAGE(AI93:AM93)</f>
         <v/>
       </c>
       <c r="N93" s="8">
@@ -15237,51 +15237,51 @@
     </row>
     <row r="94">
       <c r="B94" s="11">
-        <f>'By Round'!A27</f>
+        <f>'By Round'!A123</f>
         <v/>
       </c>
       <c r="C94" s="11">
-        <f>'By Round'!B31</f>
+        <f>'By Round'!B131</f>
         <v/>
       </c>
       <c r="D94" s="11">
-        <f>'By Round'!C31</f>
+        <f>'By Round'!C131</f>
         <v/>
       </c>
       <c r="E94" s="11">
-        <f>'By Round'!D31</f>
+        <f>'By Round'!D131</f>
         <v/>
       </c>
       <c r="F94" s="11">
-        <f>IF(ISBLANK('By Round'!F32),"",'By Round'!F32)</f>
+        <f>IF(ISBLANK('By Round'!F132),"",'By Round'!F132)</f>
         <v/>
       </c>
       <c r="G94">
-        <f>IF(ISBLANK('By Round'!G32),"",'By Round'!G32)</f>
+        <f>IF(ISBLANK('By Round'!G132),"",'By Round'!G132)</f>
         <v/>
       </c>
       <c r="H94">
-        <f>IF(ISBLANK('By Round'!H32),"",'By Round'!H32)</f>
+        <f>IF(ISBLANK('By Round'!H132),"",'By Round'!H132)</f>
         <v/>
       </c>
       <c r="I94">
-        <f>IF(ISBLANK('By Round'!I32),"",'By Round'!I32)</f>
+        <f>IF(ISBLANK('By Round'!I132),"",'By Round'!I132)</f>
         <v/>
       </c>
       <c r="J94">
-        <f>IF(ISBLANK('By Round'!J32),"",'By Round'!J32)</f>
+        <f>IF(ISBLANK('By Round'!J132),"",'By Round'!J132)</f>
         <v/>
       </c>
       <c r="K94">
-        <f>IF(ISBLANK('By Round'!K32),"",'By Round'!K32)</f>
+        <f>IF(ISBLANK('By Round'!K132),"",'By Round'!K132)</f>
         <v/>
       </c>
       <c r="L94" s="12">
-        <f>SUM(AD94:AH94)</f>
+        <f>AVERAGE(AD94:AH94)</f>
         <v/>
       </c>
       <c r="M94" s="13">
-        <f>SUM(AI94:AM94)</f>
+        <f>AVERAGE(AI94:AM94)</f>
         <v/>
       </c>
       <c r="N94" s="8">
@@ -15391,51 +15391,51 @@
     </row>
     <row r="95">
       <c r="B95" s="11">
-        <f>'By Round'!A39</f>
+        <f>'By Round'!A3</f>
         <v/>
       </c>
       <c r="C95" s="11">
-        <f>'By Round'!B41</f>
+        <f>'By Round'!B9</f>
         <v/>
       </c>
       <c r="D95" s="11">
-        <f>'By Round'!C41</f>
+        <f>'By Round'!C9</f>
         <v/>
       </c>
       <c r="E95" s="11">
-        <f>'By Round'!D41</f>
+        <f>'By Round'!D9</f>
         <v/>
       </c>
       <c r="F95" s="11">
-        <f>IF(ISBLANK('By Round'!F42),"",'By Round'!F42)</f>
+        <f>IF(ISBLANK('By Round'!F10),"",'By Round'!F10)</f>
         <v/>
       </c>
       <c r="G95">
-        <f>IF(ISBLANK('By Round'!G42),"",'By Round'!G42)</f>
+        <f>IF(ISBLANK('By Round'!G10),"",'By Round'!G10)</f>
         <v/>
       </c>
       <c r="H95">
-        <f>IF(ISBLANK('By Round'!H42),"",'By Round'!H42)</f>
+        <f>IF(ISBLANK('By Round'!H10),"",'By Round'!H10)</f>
         <v/>
       </c>
       <c r="I95">
-        <f>IF(ISBLANK('By Round'!I42),"",'By Round'!I42)</f>
+        <f>IF(ISBLANK('By Round'!I10),"",'By Round'!I10)</f>
         <v/>
       </c>
       <c r="J95">
-        <f>IF(ISBLANK('By Round'!J42),"",'By Round'!J42)</f>
+        <f>IF(ISBLANK('By Round'!J10),"",'By Round'!J10)</f>
         <v/>
       </c>
       <c r="K95">
-        <f>IF(ISBLANK('By Round'!K42),"",'By Round'!K42)</f>
+        <f>IF(ISBLANK('By Round'!K10),"",'By Round'!K10)</f>
         <v/>
       </c>
       <c r="L95" s="12">
-        <f>SUM(AD95:AH95)</f>
+        <f>AVERAGE(AD95:AH95)</f>
         <v/>
       </c>
       <c r="M95" s="13">
-        <f>SUM(AI95:AM95)</f>
+        <f>AVERAGE(AI95:AM95)</f>
         <v/>
       </c>
       <c r="N95" s="8">
@@ -15545,51 +15545,51 @@
     </row>
     <row r="96">
       <c r="B96" s="11">
-        <f>'By Round'!A87</f>
+        <f>'By Round'!A39</f>
         <v/>
       </c>
       <c r="C96" s="11">
-        <f>'By Round'!B87</f>
+        <f>'By Round'!B41</f>
         <v/>
       </c>
       <c r="D96" s="11">
-        <f>'By Round'!C87</f>
+        <f>'By Round'!C41</f>
         <v/>
       </c>
       <c r="E96" s="11">
-        <f>'By Round'!D87</f>
+        <f>'By Round'!D41</f>
         <v/>
       </c>
       <c r="F96" s="11">
-        <f>IF(ISBLANK('By Round'!F88),"",'By Round'!F88)</f>
+        <f>IF(ISBLANK('By Round'!F42),"",'By Round'!F42)</f>
         <v/>
       </c>
       <c r="G96">
-        <f>IF(ISBLANK('By Round'!G88),"",'By Round'!G88)</f>
+        <f>IF(ISBLANK('By Round'!G42),"",'By Round'!G42)</f>
         <v/>
       </c>
       <c r="H96">
-        <f>IF(ISBLANK('By Round'!H88),"",'By Round'!H88)</f>
+        <f>IF(ISBLANK('By Round'!H42),"",'By Round'!H42)</f>
         <v/>
       </c>
       <c r="I96">
-        <f>IF(ISBLANK('By Round'!I88),"",'By Round'!I88)</f>
+        <f>IF(ISBLANK('By Round'!I42),"",'By Round'!I42)</f>
         <v/>
       </c>
       <c r="J96">
-        <f>IF(ISBLANK('By Round'!J88),"",'By Round'!J88)</f>
+        <f>IF(ISBLANK('By Round'!J42),"",'By Round'!J42)</f>
         <v/>
       </c>
       <c r="K96">
-        <f>IF(ISBLANK('By Round'!K88),"",'By Round'!K88)</f>
+        <f>IF(ISBLANK('By Round'!K42),"",'By Round'!K42)</f>
         <v/>
       </c>
       <c r="L96" s="12">
-        <f>SUM(AD96:AH96)</f>
+        <f>AVERAGE(AD96:AH96)</f>
         <v/>
       </c>
       <c r="M96" s="13">
-        <f>SUM(AI96:AM96)</f>
+        <f>AVERAGE(AI96:AM96)</f>
         <v/>
       </c>
       <c r="N96" s="8">
@@ -15739,11 +15739,11 @@
         <v/>
       </c>
       <c r="L97" s="12">
-        <f>SUM(AD97:AH97)</f>
+        <f>AVERAGE(AD97:AH97)</f>
         <v/>
       </c>
       <c r="M97" s="13">
-        <f>SUM(AI97:AM97)</f>
+        <f>AVERAGE(AI97:AM97)</f>
         <v/>
       </c>
       <c r="N97" s="8">
@@ -15854,51 +15854,51 @@
     <row r="98">
       <c r="A98" s="15" t="n"/>
       <c r="B98" s="16">
-        <f>'By Round'!A123</f>
+        <f>'By Round'!A27</f>
         <v/>
       </c>
       <c r="C98" s="16">
-        <f>'By Round'!B131</f>
+        <f>'By Round'!B31</f>
         <v/>
       </c>
       <c r="D98" s="16">
-        <f>'By Round'!C131</f>
+        <f>'By Round'!C31</f>
         <v/>
       </c>
       <c r="E98" s="16">
-        <f>'By Round'!D131</f>
+        <f>'By Round'!D31</f>
         <v/>
       </c>
       <c r="F98" s="16">
-        <f>IF(ISBLANK('By Round'!F132),"",'By Round'!F132)</f>
+        <f>IF(ISBLANK('By Round'!F32),"",'By Round'!F32)</f>
         <v/>
       </c>
       <c r="G98" s="15">
-        <f>IF(ISBLANK('By Round'!G132),"",'By Round'!G132)</f>
+        <f>IF(ISBLANK('By Round'!G32),"",'By Round'!G32)</f>
         <v/>
       </c>
       <c r="H98" s="15">
-        <f>IF(ISBLANK('By Round'!H132),"",'By Round'!H132)</f>
+        <f>IF(ISBLANK('By Round'!H32),"",'By Round'!H32)</f>
         <v/>
       </c>
       <c r="I98" s="15">
-        <f>IF(ISBLANK('By Round'!I132),"",'By Round'!I132)</f>
+        <f>IF(ISBLANK('By Round'!I32),"",'By Round'!I32)</f>
         <v/>
       </c>
       <c r="J98" s="15">
-        <f>IF(ISBLANK('By Round'!J132),"",'By Round'!J132)</f>
+        <f>IF(ISBLANK('By Round'!J32),"",'By Round'!J32)</f>
         <v/>
       </c>
       <c r="K98" s="15">
-        <f>IF(ISBLANK('By Round'!K132),"",'By Round'!K132)</f>
+        <f>IF(ISBLANK('By Round'!K32),"",'By Round'!K32)</f>
         <v/>
       </c>
       <c r="L98" s="17">
-        <f>SUM(AD98:AH98)</f>
+        <f>AVERAGE(AD98:AH98)</f>
         <v/>
       </c>
       <c r="M98" s="18">
-        <f>SUM(AI98:AM98)</f>
+        <f>AVERAGE(AI98:AM98)</f>
         <v/>
       </c>
       <c r="N98" s="19">
@@ -16011,51 +16011,51 @@
         <v>17</v>
       </c>
       <c r="B99" s="11">
-        <f>'By Round'!A3</f>
+        <f>'By Round'!A99</f>
         <v/>
       </c>
       <c r="C99" s="11">
-        <f>'By Round'!B11</f>
+        <f>'By Round'!B99</f>
         <v/>
       </c>
       <c r="D99" s="11">
-        <f>'By Round'!C11</f>
+        <f>'By Round'!C99</f>
         <v/>
       </c>
       <c r="E99" s="11">
-        <f>'By Round'!D11</f>
+        <f>'By Round'!D99</f>
         <v/>
       </c>
       <c r="F99" s="11">
-        <f>IF(ISBLANK('By Round'!F11),"",'By Round'!F11)</f>
+        <f>IF(ISBLANK('By Round'!F99),"",'By Round'!F99)</f>
         <v/>
       </c>
       <c r="G99">
-        <f>IF(ISBLANK('By Round'!G11),"",'By Round'!G11)</f>
+        <f>IF(ISBLANK('By Round'!G99),"",'By Round'!G99)</f>
         <v/>
       </c>
       <c r="H99">
-        <f>IF(ISBLANK('By Round'!H11),"",'By Round'!H11)</f>
+        <f>IF(ISBLANK('By Round'!H99),"",'By Round'!H99)</f>
         <v/>
       </c>
       <c r="I99">
-        <f>IF(ISBLANK('By Round'!I11),"",'By Round'!I11)</f>
+        <f>IF(ISBLANK('By Round'!I99),"",'By Round'!I99)</f>
         <v/>
       </c>
       <c r="J99">
-        <f>IF(ISBLANK('By Round'!J11),"",'By Round'!J11)</f>
+        <f>IF(ISBLANK('By Round'!J99),"",'By Round'!J99)</f>
         <v/>
       </c>
       <c r="K99">
-        <f>IF(ISBLANK('By Round'!K11),"",'By Round'!K11)</f>
+        <f>IF(ISBLANK('By Round'!K99),"",'By Round'!K99)</f>
         <v/>
       </c>
       <c r="L99" s="12">
-        <f>SUM(AD99:AH99)</f>
+        <f>AVERAGE(AD99:AH99)</f>
         <v/>
       </c>
       <c r="M99" s="13">
-        <f>SUM(AI99:AM99)</f>
+        <f>AVERAGE(AI99:AM99)</f>
         <v/>
       </c>
       <c r="N99" s="8">
@@ -16165,51 +16165,51 @@
     </row>
     <row r="100">
       <c r="B100" s="11">
-        <f>'By Round'!A15</f>
+        <f>'By Round'!A3</f>
         <v/>
       </c>
       <c r="C100" s="11">
-        <f>'By Round'!B21</f>
+        <f>'By Round'!B11</f>
         <v/>
       </c>
       <c r="D100" s="11">
-        <f>'By Round'!C21</f>
+        <f>'By Round'!C11</f>
         <v/>
       </c>
       <c r="E100" s="11">
-        <f>'By Round'!D21</f>
+        <f>'By Round'!D11</f>
         <v/>
       </c>
       <c r="F100" s="11">
-        <f>IF(ISBLANK('By Round'!F21),"",'By Round'!F21)</f>
+        <f>IF(ISBLANK('By Round'!F11),"",'By Round'!F11)</f>
         <v/>
       </c>
       <c r="G100">
-        <f>IF(ISBLANK('By Round'!G21),"",'By Round'!G21)</f>
+        <f>IF(ISBLANK('By Round'!G11),"",'By Round'!G11)</f>
         <v/>
       </c>
       <c r="H100">
-        <f>IF(ISBLANK('By Round'!H21),"",'By Round'!H21)</f>
+        <f>IF(ISBLANK('By Round'!H11),"",'By Round'!H11)</f>
         <v/>
       </c>
       <c r="I100">
-        <f>IF(ISBLANK('By Round'!I21),"",'By Round'!I21)</f>
+        <f>IF(ISBLANK('By Round'!I11),"",'By Round'!I11)</f>
         <v/>
       </c>
       <c r="J100">
-        <f>IF(ISBLANK('By Round'!J21),"",'By Round'!J21)</f>
+        <f>IF(ISBLANK('By Round'!J11),"",'By Round'!J11)</f>
         <v/>
       </c>
       <c r="K100">
-        <f>IF(ISBLANK('By Round'!K21),"",'By Round'!K21)</f>
+        <f>IF(ISBLANK('By Round'!K11),"",'By Round'!K11)</f>
         <v/>
       </c>
       <c r="L100" s="12">
-        <f>SUM(AD100:AH100)</f>
+        <f>AVERAGE(AD100:AH100)</f>
         <v/>
       </c>
       <c r="M100" s="13">
-        <f>SUM(AI100:AM100)</f>
+        <f>AVERAGE(AI100:AM100)</f>
         <v/>
       </c>
       <c r="N100" s="8">
@@ -16319,51 +16319,51 @@
     </row>
     <row r="101">
       <c r="B101" s="11">
-        <f>'By Round'!A39</f>
+        <f>'By Round'!A15</f>
         <v/>
       </c>
       <c r="C101" s="11">
-        <f>'By Round'!B43</f>
+        <f>'By Round'!B21</f>
         <v/>
       </c>
       <c r="D101" s="11">
-        <f>'By Round'!C43</f>
+        <f>'By Round'!C21</f>
         <v/>
       </c>
       <c r="E101" s="11">
-        <f>'By Round'!D43</f>
+        <f>'By Round'!D21</f>
         <v/>
       </c>
       <c r="F101" s="11">
-        <f>IF(ISBLANK('By Round'!F43),"",'By Round'!F43)</f>
+        <f>IF(ISBLANK('By Round'!F21),"",'By Round'!F21)</f>
         <v/>
       </c>
       <c r="G101">
-        <f>IF(ISBLANK('By Round'!G43),"",'By Round'!G43)</f>
+        <f>IF(ISBLANK('By Round'!G21),"",'By Round'!G21)</f>
         <v/>
       </c>
       <c r="H101">
-        <f>IF(ISBLANK('By Round'!H43),"",'By Round'!H43)</f>
+        <f>IF(ISBLANK('By Round'!H21),"",'By Round'!H21)</f>
         <v/>
       </c>
       <c r="I101">
-        <f>IF(ISBLANK('By Round'!I43),"",'By Round'!I43)</f>
+        <f>IF(ISBLANK('By Round'!I21),"",'By Round'!I21)</f>
         <v/>
       </c>
       <c r="J101">
-        <f>IF(ISBLANK('By Round'!J43),"",'By Round'!J43)</f>
+        <f>IF(ISBLANK('By Round'!J21),"",'By Round'!J21)</f>
         <v/>
       </c>
       <c r="K101">
-        <f>IF(ISBLANK('By Round'!K43),"",'By Round'!K43)</f>
+        <f>IF(ISBLANK('By Round'!K21),"",'By Round'!K21)</f>
         <v/>
       </c>
       <c r="L101" s="12">
-        <f>SUM(AD101:AH101)</f>
+        <f>AVERAGE(AD101:AH101)</f>
         <v/>
       </c>
       <c r="M101" s="13">
-        <f>SUM(AI101:AM101)</f>
+        <f>AVERAGE(AI101:AM101)</f>
         <v/>
       </c>
       <c r="N101" s="8">
@@ -16513,11 +16513,11 @@
         <v/>
       </c>
       <c r="L102" s="12">
-        <f>SUM(AD102:AH102)</f>
+        <f>AVERAGE(AD102:AH102)</f>
         <v/>
       </c>
       <c r="M102" s="13">
-        <f>SUM(AI102:AM102)</f>
+        <f>AVERAGE(AI102:AM102)</f>
         <v/>
       </c>
       <c r="N102" s="8">
@@ -16627,51 +16627,51 @@
     </row>
     <row r="103">
       <c r="B103" s="11">
-        <f>'By Round'!A99</f>
+        <f>'By Round'!A123</f>
         <v/>
       </c>
       <c r="C103" s="11">
-        <f>'By Round'!B99</f>
+        <f>'By Round'!B133</f>
         <v/>
       </c>
       <c r="D103" s="11">
-        <f>'By Round'!C99</f>
+        <f>'By Round'!C133</f>
         <v/>
       </c>
       <c r="E103" s="11">
-        <f>'By Round'!D99</f>
+        <f>'By Round'!D133</f>
         <v/>
       </c>
       <c r="F103" s="11">
-        <f>IF(ISBLANK('By Round'!F99),"",'By Round'!F99)</f>
+        <f>IF(ISBLANK('By Round'!F133),"",'By Round'!F133)</f>
         <v/>
       </c>
       <c r="G103">
-        <f>IF(ISBLANK('By Round'!G99),"",'By Round'!G99)</f>
+        <f>IF(ISBLANK('By Round'!G133),"",'By Round'!G133)</f>
         <v/>
       </c>
       <c r="H103">
-        <f>IF(ISBLANK('By Round'!H99),"",'By Round'!H99)</f>
+        <f>IF(ISBLANK('By Round'!H133),"",'By Round'!H133)</f>
         <v/>
       </c>
       <c r="I103">
-        <f>IF(ISBLANK('By Round'!I99),"",'By Round'!I99)</f>
+        <f>IF(ISBLANK('By Round'!I133),"",'By Round'!I133)</f>
         <v/>
       </c>
       <c r="J103">
-        <f>IF(ISBLANK('By Round'!J99),"",'By Round'!J99)</f>
+        <f>IF(ISBLANK('By Round'!J133),"",'By Round'!J133)</f>
         <v/>
       </c>
       <c r="K103">
-        <f>IF(ISBLANK('By Round'!K99),"",'By Round'!K99)</f>
+        <f>IF(ISBLANK('By Round'!K133),"",'By Round'!K133)</f>
         <v/>
       </c>
       <c r="L103" s="12">
-        <f>SUM(AD103:AH103)</f>
+        <f>AVERAGE(AD103:AH103)</f>
         <v/>
       </c>
       <c r="M103" s="13">
-        <f>SUM(AI103:AM103)</f>
+        <f>AVERAGE(AI103:AM103)</f>
         <v/>
       </c>
       <c r="N103" s="8">
@@ -16782,51 +16782,51 @@
     <row r="104">
       <c r="A104" s="15" t="n"/>
       <c r="B104" s="16">
-        <f>'By Round'!A123</f>
+        <f>'By Round'!A39</f>
         <v/>
       </c>
       <c r="C104" s="16">
-        <f>'By Round'!B133</f>
+        <f>'By Round'!B43</f>
         <v/>
       </c>
       <c r="D104" s="16">
-        <f>'By Round'!C133</f>
+        <f>'By Round'!C43</f>
         <v/>
       </c>
       <c r="E104" s="16">
-        <f>'By Round'!D133</f>
+        <f>'By Round'!D43</f>
         <v/>
       </c>
       <c r="F104" s="16">
-        <f>IF(ISBLANK('By Round'!F133),"",'By Round'!F133)</f>
+        <f>IF(ISBLANK('By Round'!F43),"",'By Round'!F43)</f>
         <v/>
       </c>
       <c r="G104" s="15">
-        <f>IF(ISBLANK('By Round'!G133),"",'By Round'!G133)</f>
+        <f>IF(ISBLANK('By Round'!G43),"",'By Round'!G43)</f>
         <v/>
       </c>
       <c r="H104" s="15">
-        <f>IF(ISBLANK('By Round'!H133),"",'By Round'!H133)</f>
+        <f>IF(ISBLANK('By Round'!H43),"",'By Round'!H43)</f>
         <v/>
       </c>
       <c r="I104" s="15">
-        <f>IF(ISBLANK('By Round'!I133),"",'By Round'!I133)</f>
+        <f>IF(ISBLANK('By Round'!I43),"",'By Round'!I43)</f>
         <v/>
       </c>
       <c r="J104" s="15">
-        <f>IF(ISBLANK('By Round'!J133),"",'By Round'!J133)</f>
+        <f>IF(ISBLANK('By Round'!J43),"",'By Round'!J43)</f>
         <v/>
       </c>
       <c r="K104" s="15">
-        <f>IF(ISBLANK('By Round'!K133),"",'By Round'!K133)</f>
+        <f>IF(ISBLANK('By Round'!K43),"",'By Round'!K43)</f>
         <v/>
       </c>
       <c r="L104" s="17">
-        <f>SUM(AD104:AH104)</f>
+        <f>AVERAGE(AD104:AH104)</f>
         <v/>
       </c>
       <c r="M104" s="18">
-        <f>SUM(AI104:AM104)</f>
+        <f>AVERAGE(AI104:AM104)</f>
         <v/>
       </c>
       <c r="N104" s="19">
@@ -16939,51 +16939,51 @@
         <v>18</v>
       </c>
       <c r="B105" s="11">
-        <f>'By Round'!A3</f>
+        <f>'By Round'!A99</f>
         <v/>
       </c>
       <c r="C105" s="11">
-        <f>'By Round'!B11</f>
+        <f>'By Round'!B99</f>
         <v/>
       </c>
       <c r="D105" s="11">
-        <f>'By Round'!C11</f>
+        <f>'By Round'!C99</f>
         <v/>
       </c>
       <c r="E105" s="11">
-        <f>'By Round'!D11</f>
+        <f>'By Round'!D99</f>
         <v/>
       </c>
       <c r="F105" s="11">
-        <f>IF(ISBLANK('By Round'!F12),"",'By Round'!F12)</f>
+        <f>IF(ISBLANK('By Round'!F100),"",'By Round'!F100)</f>
         <v/>
       </c>
       <c r="G105">
-        <f>IF(ISBLANK('By Round'!G12),"",'By Round'!G12)</f>
+        <f>IF(ISBLANK('By Round'!G100),"",'By Round'!G100)</f>
         <v/>
       </c>
       <c r="H105">
-        <f>IF(ISBLANK('By Round'!H12),"",'By Round'!H12)</f>
+        <f>IF(ISBLANK('By Round'!H100),"",'By Round'!H100)</f>
         <v/>
       </c>
       <c r="I105">
-        <f>IF(ISBLANK('By Round'!I12),"",'By Round'!I12)</f>
+        <f>IF(ISBLANK('By Round'!I100),"",'By Round'!I100)</f>
         <v/>
       </c>
       <c r="J105">
-        <f>IF(ISBLANK('By Round'!J12),"",'By Round'!J12)</f>
+        <f>IF(ISBLANK('By Round'!J100),"",'By Round'!J100)</f>
         <v/>
       </c>
       <c r="K105">
-        <f>IF(ISBLANK('By Round'!K12),"",'By Round'!K12)</f>
+        <f>IF(ISBLANK('By Round'!K100),"",'By Round'!K100)</f>
         <v/>
       </c>
       <c r="L105" s="12">
-        <f>SUM(AD105:AH105)</f>
+        <f>AVERAGE(AD105:AH105)</f>
         <v/>
       </c>
       <c r="M105" s="13">
-        <f>SUM(AI105:AM105)</f>
+        <f>AVERAGE(AI105:AM105)</f>
         <v/>
       </c>
       <c r="N105" s="8">
@@ -17093,51 +17093,51 @@
     </row>
     <row r="106">
       <c r="B106" s="11">
-        <f>'By Round'!A15</f>
+        <f>'By Round'!A3</f>
         <v/>
       </c>
       <c r="C106" s="11">
-        <f>'By Round'!B21</f>
+        <f>'By Round'!B11</f>
         <v/>
       </c>
       <c r="D106" s="11">
-        <f>'By Round'!C21</f>
+        <f>'By Round'!C11</f>
         <v/>
       </c>
       <c r="E106" s="11">
-        <f>'By Round'!D21</f>
+        <f>'By Round'!D11</f>
         <v/>
       </c>
       <c r="F106" s="11">
-        <f>IF(ISBLANK('By Round'!F22),"",'By Round'!F22)</f>
+        <f>IF(ISBLANK('By Round'!F12),"",'By Round'!F12)</f>
         <v/>
       </c>
       <c r="G106">
-        <f>IF(ISBLANK('By Round'!G22),"",'By Round'!G22)</f>
+        <f>IF(ISBLANK('By Round'!G12),"",'By Round'!G12)</f>
         <v/>
       </c>
       <c r="H106">
-        <f>IF(ISBLANK('By Round'!H22),"",'By Round'!H22)</f>
+        <f>IF(ISBLANK('By Round'!H12),"",'By Round'!H12)</f>
         <v/>
       </c>
       <c r="I106">
-        <f>IF(ISBLANK('By Round'!I22),"",'By Round'!I22)</f>
+        <f>IF(ISBLANK('By Round'!I12),"",'By Round'!I12)</f>
         <v/>
       </c>
       <c r="J106">
-        <f>IF(ISBLANK('By Round'!J22),"",'By Round'!J22)</f>
+        <f>IF(ISBLANK('By Round'!J12),"",'By Round'!J12)</f>
         <v/>
       </c>
       <c r="K106">
-        <f>IF(ISBLANK('By Round'!K22),"",'By Round'!K22)</f>
+        <f>IF(ISBLANK('By Round'!K12),"",'By Round'!K12)</f>
         <v/>
       </c>
       <c r="L106" s="12">
-        <f>SUM(AD106:AH106)</f>
+        <f>AVERAGE(AD106:AH106)</f>
         <v/>
       </c>
       <c r="M106" s="13">
-        <f>SUM(AI106:AM106)</f>
+        <f>AVERAGE(AI106:AM106)</f>
         <v/>
       </c>
       <c r="N106" s="8">
@@ -17247,51 +17247,51 @@
     </row>
     <row r="107">
       <c r="B107" s="11">
-        <f>'By Round'!A39</f>
+        <f>'By Round'!A15</f>
         <v/>
       </c>
       <c r="C107" s="11">
-        <f>'By Round'!B43</f>
+        <f>'By Round'!B21</f>
         <v/>
       </c>
       <c r="D107" s="11">
-        <f>'By Round'!C43</f>
+        <f>'By Round'!C21</f>
         <v/>
       </c>
       <c r="E107" s="11">
-        <f>'By Round'!D43</f>
+        <f>'By Round'!D21</f>
         <v/>
       </c>
       <c r="F107" s="11">
-        <f>IF(ISBLANK('By Round'!F44),"",'By Round'!F44)</f>
+        <f>IF(ISBLANK('By Round'!F22),"",'By Round'!F22)</f>
         <v/>
       </c>
       <c r="G107">
-        <f>IF(ISBLANK('By Round'!G44),"",'By Round'!G44)</f>
+        <f>IF(ISBLANK('By Round'!G22),"",'By Round'!G22)</f>
         <v/>
       </c>
       <c r="H107">
-        <f>IF(ISBLANK('By Round'!H44),"",'By Round'!H44)</f>
+        <f>IF(ISBLANK('By Round'!H22),"",'By Round'!H22)</f>
         <v/>
       </c>
       <c r="I107">
-        <f>IF(ISBLANK('By Round'!I44),"",'By Round'!I44)</f>
+        <f>IF(ISBLANK('By Round'!I22),"",'By Round'!I22)</f>
         <v/>
       </c>
       <c r="J107">
-        <f>IF(ISBLANK('By Round'!J44),"",'By Round'!J44)</f>
+        <f>IF(ISBLANK('By Round'!J22),"",'By Round'!J22)</f>
         <v/>
       </c>
       <c r="K107">
-        <f>IF(ISBLANK('By Round'!K44),"",'By Round'!K44)</f>
+        <f>IF(ISBLANK('By Round'!K22),"",'By Round'!K22)</f>
         <v/>
       </c>
       <c r="L107" s="12">
-        <f>SUM(AD107:AH107)</f>
+        <f>AVERAGE(AD107:AH107)</f>
         <v/>
       </c>
       <c r="M107" s="13">
-        <f>SUM(AI107:AM107)</f>
+        <f>AVERAGE(AI107:AM107)</f>
         <v/>
       </c>
       <c r="N107" s="8">
@@ -17441,11 +17441,11 @@
         <v/>
       </c>
       <c r="L108" s="12">
-        <f>SUM(AD108:AH108)</f>
+        <f>AVERAGE(AD108:AH108)</f>
         <v/>
       </c>
       <c r="M108" s="13">
-        <f>SUM(AI108:AM108)</f>
+        <f>AVERAGE(AI108:AM108)</f>
         <v/>
       </c>
       <c r="N108" s="8">
@@ -17555,51 +17555,51 @@
     </row>
     <row r="109">
       <c r="B109" s="11">
-        <f>'By Round'!A99</f>
+        <f>'By Round'!A123</f>
         <v/>
       </c>
       <c r="C109" s="11">
-        <f>'By Round'!B99</f>
+        <f>'By Round'!B133</f>
         <v/>
       </c>
       <c r="D109" s="11">
-        <f>'By Round'!C99</f>
+        <f>'By Round'!C133</f>
         <v/>
       </c>
       <c r="E109" s="11">
-        <f>'By Round'!D99</f>
+        <f>'By Round'!D133</f>
         <v/>
       </c>
       <c r="F109" s="11">
-        <f>IF(ISBLANK('By Round'!F100),"",'By Round'!F100)</f>
+        <f>IF(ISBLANK('By Round'!F134),"",'By Round'!F134)</f>
         <v/>
       </c>
       <c r="G109">
-        <f>IF(ISBLANK('By Round'!G100),"",'By Round'!G100)</f>
+        <f>IF(ISBLANK('By Round'!G134),"",'By Round'!G134)</f>
         <v/>
       </c>
       <c r="H109">
-        <f>IF(ISBLANK('By Round'!H100),"",'By Round'!H100)</f>
+        <f>IF(ISBLANK('By Round'!H134),"",'By Round'!H134)</f>
         <v/>
       </c>
       <c r="I109">
-        <f>IF(ISBLANK('By Round'!I100),"",'By Round'!I100)</f>
+        <f>IF(ISBLANK('By Round'!I134),"",'By Round'!I134)</f>
         <v/>
       </c>
       <c r="J109">
-        <f>IF(ISBLANK('By Round'!J100),"",'By Round'!J100)</f>
+        <f>IF(ISBLANK('By Round'!J134),"",'By Round'!J134)</f>
         <v/>
       </c>
       <c r="K109">
-        <f>IF(ISBLANK('By Round'!K100),"",'By Round'!K100)</f>
+        <f>IF(ISBLANK('By Round'!K134),"",'By Round'!K134)</f>
         <v/>
       </c>
       <c r="L109" s="12">
-        <f>SUM(AD109:AH109)</f>
+        <f>AVERAGE(AD109:AH109)</f>
         <v/>
       </c>
       <c r="M109" s="13">
-        <f>SUM(AI109:AM109)</f>
+        <f>AVERAGE(AI109:AM109)</f>
         <v/>
       </c>
       <c r="N109" s="8">
@@ -17710,51 +17710,51 @@
     <row r="110">
       <c r="A110" s="15" t="n"/>
       <c r="B110" s="16">
-        <f>'By Round'!A123</f>
+        <f>'By Round'!A39</f>
         <v/>
       </c>
       <c r="C110" s="16">
-        <f>'By Round'!B133</f>
+        <f>'By Round'!B43</f>
         <v/>
       </c>
       <c r="D110" s="16">
-        <f>'By Round'!C133</f>
+        <f>'By Round'!C43</f>
         <v/>
       </c>
       <c r="E110" s="16">
-        <f>'By Round'!D133</f>
+        <f>'By Round'!D43</f>
         <v/>
       </c>
       <c r="F110" s="16">
-        <f>IF(ISBLANK('By Round'!F134),"",'By Round'!F134)</f>
+        <f>IF(ISBLANK('By Round'!F44),"",'By Round'!F44)</f>
         <v/>
       </c>
       <c r="G110" s="15">
-        <f>IF(ISBLANK('By Round'!G134),"",'By Round'!G134)</f>
+        <f>IF(ISBLANK('By Round'!G44),"",'By Round'!G44)</f>
         <v/>
       </c>
       <c r="H110" s="15">
-        <f>IF(ISBLANK('By Round'!H134),"",'By Round'!H134)</f>
+        <f>IF(ISBLANK('By Round'!H44),"",'By Round'!H44)</f>
         <v/>
       </c>
       <c r="I110" s="15">
-        <f>IF(ISBLANK('By Round'!I134),"",'By Round'!I134)</f>
+        <f>IF(ISBLANK('By Round'!I44),"",'By Round'!I44)</f>
         <v/>
       </c>
       <c r="J110" s="15">
-        <f>IF(ISBLANK('By Round'!J134),"",'By Round'!J134)</f>
+        <f>IF(ISBLANK('By Round'!J44),"",'By Round'!J44)</f>
         <v/>
       </c>
       <c r="K110" s="15">
-        <f>IF(ISBLANK('By Round'!K134),"",'By Round'!K134)</f>
+        <f>IF(ISBLANK('By Round'!K44),"",'By Round'!K44)</f>
         <v/>
       </c>
       <c r="L110" s="17">
-        <f>SUM(AD110:AH110)</f>
+        <f>AVERAGE(AD110:AH110)</f>
         <v/>
       </c>
       <c r="M110" s="18">
-        <f>SUM(AI110:AM110)</f>
+        <f>AVERAGE(AI110:AM110)</f>
         <v/>
       </c>
       <c r="N110" s="19">
@@ -17867,51 +17867,51 @@
         <v>19</v>
       </c>
       <c r="B111" s="11">
-        <f>'By Round'!A3</f>
+        <f>'By Round'!A111</f>
         <v/>
       </c>
       <c r="C111" s="11">
-        <f>'By Round'!B13</f>
+        <f>'By Round'!B111</f>
         <v/>
       </c>
       <c r="D111" s="11">
-        <f>'By Round'!C13</f>
+        <f>'By Round'!C111</f>
         <v/>
       </c>
       <c r="E111" s="11">
-        <f>'By Round'!D13</f>
+        <f>'By Round'!D111</f>
         <v/>
       </c>
       <c r="F111" s="11">
-        <f>IF(ISBLANK('By Round'!F13),"",'By Round'!F13)</f>
+        <f>IF(ISBLANK('By Round'!F111),"",'By Round'!F111)</f>
         <v/>
       </c>
       <c r="G111">
-        <f>IF(ISBLANK('By Round'!G13),"",'By Round'!G13)</f>
+        <f>IF(ISBLANK('By Round'!G111),"",'By Round'!G111)</f>
         <v/>
       </c>
       <c r="H111">
-        <f>IF(ISBLANK('By Round'!H13),"",'By Round'!H13)</f>
+        <f>IF(ISBLANK('By Round'!H111),"",'By Round'!H111)</f>
         <v/>
       </c>
       <c r="I111">
-        <f>IF(ISBLANK('By Round'!I13),"",'By Round'!I13)</f>
+        <f>IF(ISBLANK('By Round'!I111),"",'By Round'!I111)</f>
         <v/>
       </c>
       <c r="J111">
-        <f>IF(ISBLANK('By Round'!J13),"",'By Round'!J13)</f>
+        <f>IF(ISBLANK('By Round'!J111),"",'By Round'!J111)</f>
         <v/>
       </c>
       <c r="K111">
-        <f>IF(ISBLANK('By Round'!K13),"",'By Round'!K13)</f>
+        <f>IF(ISBLANK('By Round'!K111),"",'By Round'!K111)</f>
         <v/>
       </c>
       <c r="L111" s="12">
-        <f>SUM(AD111:AH111)</f>
+        <f>AVERAGE(AD111:AH111)</f>
         <v/>
       </c>
       <c r="M111" s="13">
-        <f>SUM(AI111:AM111)</f>
+        <f>AVERAGE(AI111:AM111)</f>
         <v/>
       </c>
       <c r="N111" s="8">
@@ -18021,51 +18021,51 @@
     </row>
     <row r="112">
       <c r="B112" s="11">
-        <f>'By Round'!A15</f>
+        <f>'By Round'!A51</f>
         <v/>
       </c>
       <c r="C112" s="11">
-        <f>'By Round'!B23</f>
+        <f>'By Round'!B55</f>
         <v/>
       </c>
       <c r="D112" s="11">
-        <f>'By Round'!C23</f>
+        <f>'By Round'!C55</f>
         <v/>
       </c>
       <c r="E112" s="11">
-        <f>'By Round'!D23</f>
+        <f>'By Round'!D55</f>
         <v/>
       </c>
       <c r="F112" s="11">
-        <f>IF(ISBLANK('By Round'!F23),"",'By Round'!F23)</f>
+        <f>IF(ISBLANK('By Round'!F55),"",'By Round'!F55)</f>
         <v/>
       </c>
       <c r="G112">
-        <f>IF(ISBLANK('By Round'!G23),"",'By Round'!G23)</f>
+        <f>IF(ISBLANK('By Round'!G55),"",'By Round'!G55)</f>
         <v/>
       </c>
       <c r="H112">
-        <f>IF(ISBLANK('By Round'!H23),"",'By Round'!H23)</f>
+        <f>IF(ISBLANK('By Round'!H55),"",'By Round'!H55)</f>
         <v/>
       </c>
       <c r="I112">
-        <f>IF(ISBLANK('By Round'!I23),"",'By Round'!I23)</f>
+        <f>IF(ISBLANK('By Round'!I55),"",'By Round'!I55)</f>
         <v/>
       </c>
       <c r="J112">
-        <f>IF(ISBLANK('By Round'!J23),"",'By Round'!J23)</f>
+        <f>IF(ISBLANK('By Round'!J55),"",'By Round'!J55)</f>
         <v/>
       </c>
       <c r="K112">
-        <f>IF(ISBLANK('By Round'!K23),"",'By Round'!K23)</f>
+        <f>IF(ISBLANK('By Round'!K55),"",'By Round'!K55)</f>
         <v/>
       </c>
       <c r="L112" s="12">
-        <f>SUM(AD112:AH112)</f>
+        <f>AVERAGE(AD112:AH112)</f>
         <v/>
       </c>
       <c r="M112" s="13">
-        <f>SUM(AI112:AM112)</f>
+        <f>AVERAGE(AI112:AM112)</f>
         <v/>
       </c>
       <c r="N112" s="8">
@@ -18175,51 +18175,51 @@
     </row>
     <row r="113">
       <c r="B113" s="11">
-        <f>'By Round'!A27</f>
+        <f>'By Round'!A15</f>
         <v/>
       </c>
       <c r="C113" s="11">
-        <f>'By Round'!B33</f>
+        <f>'By Round'!B23</f>
         <v/>
       </c>
       <c r="D113" s="11">
-        <f>'By Round'!C33</f>
+        <f>'By Round'!C23</f>
         <v/>
       </c>
       <c r="E113" s="11">
-        <f>'By Round'!D33</f>
+        <f>'By Round'!D23</f>
         <v/>
       </c>
       <c r="F113" s="11">
-        <f>IF(ISBLANK('By Round'!F33),"",'By Round'!F33)</f>
+        <f>IF(ISBLANK('By Round'!F23),"",'By Round'!F23)</f>
         <v/>
       </c>
       <c r="G113">
-        <f>IF(ISBLANK('By Round'!G33),"",'By Round'!G33)</f>
+        <f>IF(ISBLANK('By Round'!G23),"",'By Round'!G23)</f>
         <v/>
       </c>
       <c r="H113">
-        <f>IF(ISBLANK('By Round'!H33),"",'By Round'!H33)</f>
+        <f>IF(ISBLANK('By Round'!H23),"",'By Round'!H23)</f>
         <v/>
       </c>
       <c r="I113">
-        <f>IF(ISBLANK('By Round'!I33),"",'By Round'!I33)</f>
+        <f>IF(ISBLANK('By Round'!I23),"",'By Round'!I23)</f>
         <v/>
       </c>
       <c r="J113">
-        <f>IF(ISBLANK('By Round'!J33),"",'By Round'!J33)</f>
+        <f>IF(ISBLANK('By Round'!J23),"",'By Round'!J23)</f>
         <v/>
       </c>
       <c r="K113">
-        <f>IF(ISBLANK('By Round'!K33),"",'By Round'!K33)</f>
+        <f>IF(ISBLANK('By Round'!K23),"",'By Round'!K23)</f>
         <v/>
       </c>
       <c r="L113" s="12">
-        <f>SUM(AD113:AH113)</f>
+        <f>AVERAGE(AD113:AH113)</f>
         <v/>
       </c>
       <c r="M113" s="13">
-        <f>SUM(AI113:AM113)</f>
+        <f>AVERAGE(AI113:AM113)</f>
         <v/>
       </c>
       <c r="N113" s="8">
@@ -18329,51 +18329,51 @@
     </row>
     <row r="114">
       <c r="B114" s="11">
-        <f>'By Round'!A51</f>
+        <f>'By Round'!A27</f>
         <v/>
       </c>
       <c r="C114" s="11">
-        <f>'By Round'!B55</f>
+        <f>'By Round'!B33</f>
         <v/>
       </c>
       <c r="D114" s="11">
-        <f>'By Round'!C55</f>
+        <f>'By Round'!C33</f>
         <v/>
       </c>
       <c r="E114" s="11">
-        <f>'By Round'!D55</f>
+        <f>'By Round'!D33</f>
         <v/>
       </c>
       <c r="F114" s="11">
-        <f>IF(ISBLANK('By Round'!F55),"",'By Round'!F55)</f>
+        <f>IF(ISBLANK('By Round'!F33),"",'By Round'!F33)</f>
         <v/>
       </c>
       <c r="G114">
-        <f>IF(ISBLANK('By Round'!G55),"",'By Round'!G55)</f>
+        <f>IF(ISBLANK('By Round'!G33),"",'By Round'!G33)</f>
         <v/>
       </c>
       <c r="H114">
-        <f>IF(ISBLANK('By Round'!H55),"",'By Round'!H55)</f>
+        <f>IF(ISBLANK('By Round'!H33),"",'By Round'!H33)</f>
         <v/>
       </c>
       <c r="I114">
-        <f>IF(ISBLANK('By Round'!I55),"",'By Round'!I55)</f>
+        <f>IF(ISBLANK('By Round'!I33),"",'By Round'!I33)</f>
         <v/>
       </c>
       <c r="J114">
-        <f>IF(ISBLANK('By Round'!J55),"",'By Round'!J55)</f>
+        <f>IF(ISBLANK('By Round'!J33),"",'By Round'!J33)</f>
         <v/>
       </c>
       <c r="K114">
-        <f>IF(ISBLANK('By Round'!K55),"",'By Round'!K55)</f>
+        <f>IF(ISBLANK('By Round'!K33),"",'By Round'!K33)</f>
         <v/>
       </c>
       <c r="L114" s="12">
-        <f>SUM(AD114:AH114)</f>
+        <f>AVERAGE(AD114:AH114)</f>
         <v/>
       </c>
       <c r="M114" s="13">
-        <f>SUM(AI114:AM114)</f>
+        <f>AVERAGE(AI114:AM114)</f>
         <v/>
       </c>
       <c r="N114" s="8">
@@ -18523,11 +18523,11 @@
         <v/>
       </c>
       <c r="L115" s="12">
-        <f>SUM(AD115:AH115)</f>
+        <f>AVERAGE(AD115:AH115)</f>
         <v/>
       </c>
       <c r="M115" s="13">
-        <f>SUM(AI115:AM115)</f>
+        <f>AVERAGE(AI115:AM115)</f>
         <v/>
       </c>
       <c r="N115" s="8">
@@ -18638,51 +18638,51 @@
     <row r="116">
       <c r="A116" s="15" t="n"/>
       <c r="B116" s="16">
-        <f>'By Round'!A111</f>
+        <f>'By Round'!A3</f>
         <v/>
       </c>
       <c r="C116" s="16">
-        <f>'By Round'!B111</f>
+        <f>'By Round'!B13</f>
         <v/>
       </c>
       <c r="D116" s="16">
-        <f>'By Round'!C111</f>
+        <f>'By Round'!C13</f>
         <v/>
       </c>
       <c r="E116" s="16">
-        <f>'By Round'!D111</f>
+        <f>'By Round'!D13</f>
         <v/>
       </c>
       <c r="F116" s="16">
-        <f>IF(ISBLANK('By Round'!F111),"",'By Round'!F111)</f>
+        <f>IF(ISBLANK('By Round'!F13),"",'By Round'!F13)</f>
         <v/>
       </c>
       <c r="G116" s="15">
-        <f>IF(ISBLANK('By Round'!G111),"",'By Round'!G111)</f>
+        <f>IF(ISBLANK('By Round'!G13),"",'By Round'!G13)</f>
         <v/>
       </c>
       <c r="H116" s="15">
-        <f>IF(ISBLANK('By Round'!H111),"",'By Round'!H111)</f>
+        <f>IF(ISBLANK('By Round'!H13),"",'By Round'!H13)</f>
         <v/>
       </c>
       <c r="I116" s="15">
-        <f>IF(ISBLANK('By Round'!I111),"",'By Round'!I111)</f>
+        <f>IF(ISBLANK('By Round'!I13),"",'By Round'!I13)</f>
         <v/>
       </c>
       <c r="J116" s="15">
-        <f>IF(ISBLANK('By Round'!J111),"",'By Round'!J111)</f>
+        <f>IF(ISBLANK('By Round'!J13),"",'By Round'!J13)</f>
         <v/>
       </c>
       <c r="K116" s="15">
-        <f>IF(ISBLANK('By Round'!K111),"",'By Round'!K111)</f>
+        <f>IF(ISBLANK('By Round'!K13),"",'By Round'!K13)</f>
         <v/>
       </c>
       <c r="L116" s="17">
-        <f>SUM(AD116:AH116)</f>
+        <f>AVERAGE(AD116:AH116)</f>
         <v/>
       </c>
       <c r="M116" s="18">
-        <f>SUM(AI116:AM116)</f>
+        <f>AVERAGE(AI116:AM116)</f>
         <v/>
       </c>
       <c r="N116" s="19">
@@ -18795,51 +18795,51 @@
         <v>20</v>
       </c>
       <c r="B117" s="11">
-        <f>'By Round'!A3</f>
+        <f>'By Round'!A111</f>
         <v/>
       </c>
       <c r="C117" s="11">
-        <f>'By Round'!B13</f>
+        <f>'By Round'!B111</f>
         <v/>
       </c>
       <c r="D117" s="11">
-        <f>'By Round'!C13</f>
+        <f>'By Round'!C111</f>
         <v/>
       </c>
       <c r="E117" s="11">
-        <f>'By Round'!D13</f>
+        <f>'By Round'!D111</f>
         <v/>
       </c>
       <c r="F117" s="11">
-        <f>IF(ISBLANK('By Round'!F14),"",'By Round'!F14)</f>
+        <f>IF(ISBLANK('By Round'!F112),"",'By Round'!F112)</f>
         <v/>
       </c>
       <c r="G117">
-        <f>IF(ISBLANK('By Round'!G14),"",'By Round'!G14)</f>
+        <f>IF(ISBLANK('By Round'!G112),"",'By Round'!G112)</f>
         <v/>
       </c>
       <c r="H117">
-        <f>IF(ISBLANK('By Round'!H14),"",'By Round'!H14)</f>
+        <f>IF(ISBLANK('By Round'!H112),"",'By Round'!H112)</f>
         <v/>
       </c>
       <c r="I117">
-        <f>IF(ISBLANK('By Round'!I14),"",'By Round'!I14)</f>
+        <f>IF(ISBLANK('By Round'!I112),"",'By Round'!I112)</f>
         <v/>
       </c>
       <c r="J117">
-        <f>IF(ISBLANK('By Round'!J14),"",'By Round'!J14)</f>
+        <f>IF(ISBLANK('By Round'!J112),"",'By Round'!J112)</f>
         <v/>
       </c>
       <c r="K117">
-        <f>IF(ISBLANK('By Round'!K14),"",'By Round'!K14)</f>
+        <f>IF(ISBLANK('By Round'!K112),"",'By Round'!K112)</f>
         <v/>
       </c>
       <c r="L117" s="12">
-        <f>SUM(AD117:AH117)</f>
+        <f>AVERAGE(AD117:AH117)</f>
         <v/>
       </c>
       <c r="M117" s="13">
-        <f>SUM(AI117:AM117)</f>
+        <f>AVERAGE(AI117:AM117)</f>
         <v/>
       </c>
       <c r="N117" s="8">
@@ -18949,51 +18949,51 @@
     </row>
     <row r="118">
       <c r="B118" s="11">
-        <f>'By Round'!A15</f>
+        <f>'By Round'!A51</f>
         <v/>
       </c>
       <c r="C118" s="11">
-        <f>'By Round'!B23</f>
+        <f>'By Round'!B55</f>
         <v/>
       </c>
       <c r="D118" s="11">
-        <f>'By Round'!C23</f>
+        <f>'By Round'!C55</f>
         <v/>
       </c>
       <c r="E118" s="11">
-        <f>'By Round'!D23</f>
+        <f>'By Round'!D55</f>
         <v/>
       </c>
       <c r="F118" s="11">
-        <f>IF(ISBLANK('By Round'!F24),"",'By Round'!F24)</f>
+        <f>IF(ISBLANK('By Round'!F56),"",'By Round'!F56)</f>
         <v/>
       </c>
       <c r="G118">
-        <f>IF(ISBLANK('By Round'!G24),"",'By Round'!G24)</f>
+        <f>IF(ISBLANK('By Round'!G56),"",'By Round'!G56)</f>
         <v/>
       </c>
       <c r="H118">
-        <f>IF(ISBLANK('By Round'!H24),"",'By Round'!H24)</f>
+        <f>IF(ISBLANK('By Round'!H56),"",'By Round'!H56)</f>
         <v/>
       </c>
       <c r="I118">
-        <f>IF(ISBLANK('By Round'!I24),"",'By Round'!I24)</f>
+        <f>IF(ISBLANK('By Round'!I56),"",'By Round'!I56)</f>
         <v/>
       </c>
       <c r="J118">
-        <f>IF(ISBLANK('By Round'!J24),"",'By Round'!J24)</f>
+        <f>IF(ISBLANK('By Round'!J56),"",'By Round'!J56)</f>
         <v/>
       </c>
       <c r="K118">
-        <f>IF(ISBLANK('By Round'!K24),"",'By Round'!K24)</f>
+        <f>IF(ISBLANK('By Round'!K56),"",'By Round'!K56)</f>
         <v/>
       </c>
       <c r="L118" s="12">
-        <f>SUM(AD118:AH118)</f>
+        <f>AVERAGE(AD118:AH118)</f>
         <v/>
       </c>
       <c r="M118" s="13">
-        <f>SUM(AI118:AM118)</f>
+        <f>AVERAGE(AI118:AM118)</f>
         <v/>
       </c>
       <c r="N118" s="8">
@@ -19103,51 +19103,51 @@
     </row>
     <row r="119">
       <c r="B119" s="11">
-        <f>'By Round'!A27</f>
+        <f>'By Round'!A15</f>
         <v/>
       </c>
       <c r="C119" s="11">
-        <f>'By Round'!B33</f>
+        <f>'By Round'!B23</f>
         <v/>
       </c>
       <c r="D119" s="11">
-        <f>'By Round'!C33</f>
+        <f>'By Round'!C23</f>
         <v/>
       </c>
       <c r="E119" s="11">
-        <f>'By Round'!D33</f>
+        <f>'By Round'!D23</f>
         <v/>
       </c>
       <c r="F119" s="11">
-        <f>IF(ISBLANK('By Round'!F34),"",'By Round'!F34)</f>
+        <f>IF(ISBLANK('By Round'!F24),"",'By Round'!F24)</f>
         <v/>
       </c>
       <c r="G119">
-        <f>IF(ISBLANK('By Round'!G34),"",'By Round'!G34)</f>
+        <f>IF(ISBLANK('By Round'!G24),"",'By Round'!G24)</f>
         <v/>
       </c>
       <c r="H119">
-        <f>IF(ISBLANK('By Round'!H34),"",'By Round'!H34)</f>
+        <f>IF(ISBLANK('By Round'!H24),"",'By Round'!H24)</f>
         <v/>
       </c>
       <c r="I119">
-        <f>IF(ISBLANK('By Round'!I34),"",'By Round'!I34)</f>
+        <f>IF(ISBLANK('By Round'!I24),"",'By Round'!I24)</f>
         <v/>
       </c>
       <c r="J119">
-        <f>IF(ISBLANK('By Round'!J34),"",'By Round'!J34)</f>
+        <f>IF(ISBLANK('By Round'!J24),"",'By Round'!J24)</f>
         <v/>
       </c>
       <c r="K119">
-        <f>IF(ISBLANK('By Round'!K34),"",'By Round'!K34)</f>
+        <f>IF(ISBLANK('By Round'!K24),"",'By Round'!K24)</f>
         <v/>
       </c>
       <c r="L119" s="12">
-        <f>SUM(AD119:AH119)</f>
+        <f>AVERAGE(AD119:AH119)</f>
         <v/>
       </c>
       <c r="M119" s="13">
-        <f>SUM(AI119:AM119)</f>
+        <f>AVERAGE(AI119:AM119)</f>
         <v/>
       </c>
       <c r="N119" s="8">
@@ -19257,51 +19257,51 @@
     </row>
     <row r="120">
       <c r="B120" s="11">
-        <f>'By Round'!A51</f>
+        <f>'By Round'!A27</f>
         <v/>
       </c>
       <c r="C120" s="11">
-        <f>'By Round'!B55</f>
+        <f>'By Round'!B33</f>
         <v/>
       </c>
       <c r="D120" s="11">
-        <f>'By Round'!C55</f>
+        <f>'By Round'!C33</f>
         <v/>
       </c>
       <c r="E120" s="11">
-        <f>'By Round'!D55</f>
+        <f>'By Round'!D33</f>
         <v/>
       </c>
       <c r="F120" s="11">
-        <f>IF(ISBLANK('By Round'!F56),"",'By Round'!F56)</f>
+        <f>IF(ISBLANK('By Round'!F34),"",'By Round'!F34)</f>
         <v/>
       </c>
       <c r="G120">
-        <f>IF(ISBLANK('By Round'!G56),"",'By Round'!G56)</f>
+        <f>IF(ISBLANK('By Round'!G34),"",'By Round'!G34)</f>
         <v/>
       </c>
       <c r="H120">
-        <f>IF(ISBLANK('By Round'!H56),"",'By Round'!H56)</f>
+        <f>IF(ISBLANK('By Round'!H34),"",'By Round'!H34)</f>
         <v/>
       </c>
       <c r="I120">
-        <f>IF(ISBLANK('By Round'!I56),"",'By Round'!I56)</f>
+        <f>IF(ISBLANK('By Round'!I34),"",'By Round'!I34)</f>
         <v/>
       </c>
       <c r="J120">
-        <f>IF(ISBLANK('By Round'!J56),"",'By Round'!J56)</f>
+        <f>IF(ISBLANK('By Round'!J34),"",'By Round'!J34)</f>
         <v/>
       </c>
       <c r="K120">
-        <f>IF(ISBLANK('By Round'!K56),"",'By Round'!K56)</f>
+        <f>IF(ISBLANK('By Round'!K34),"",'By Round'!K34)</f>
         <v/>
       </c>
       <c r="L120" s="12">
-        <f>SUM(AD120:AH120)</f>
+        <f>AVERAGE(AD120:AH120)</f>
         <v/>
       </c>
       <c r="M120" s="13">
-        <f>SUM(AI120:AM120)</f>
+        <f>AVERAGE(AI120:AM120)</f>
         <v/>
       </c>
       <c r="N120" s="8">
@@ -19451,11 +19451,11 @@
         <v/>
       </c>
       <c r="L121" s="12">
-        <f>SUM(AD121:AH121)</f>
+        <f>AVERAGE(AD121:AH121)</f>
         <v/>
       </c>
       <c r="M121" s="13">
-        <f>SUM(AI121:AM121)</f>
+        <f>AVERAGE(AI121:AM121)</f>
         <v/>
       </c>
       <c r="N121" s="8">
@@ -19566,51 +19566,51 @@
     <row r="122">
       <c r="A122" s="15" t="n"/>
       <c r="B122" s="16">
-        <f>'By Round'!A111</f>
+        <f>'By Round'!A3</f>
         <v/>
       </c>
       <c r="C122" s="16">
-        <f>'By Round'!B111</f>
+        <f>'By Round'!B13</f>
         <v/>
       </c>
       <c r="D122" s="16">
-        <f>'By Round'!C111</f>
+        <f>'By Round'!C13</f>
         <v/>
       </c>
       <c r="E122" s="16">
-        <f>'By Round'!D111</f>
+        <f>'By Round'!D13</f>
         <v/>
       </c>
       <c r="F122" s="16">
-        <f>IF(ISBLANK('By Round'!F112),"",'By Round'!F112)</f>
+        <f>IF(ISBLANK('By Round'!F14),"",'By Round'!F14)</f>
         <v/>
       </c>
       <c r="G122" s="15">
-        <f>IF(ISBLANK('By Round'!G112),"",'By Round'!G112)</f>
+        <f>IF(ISBLANK('By Round'!G14),"",'By Round'!G14)</f>
         <v/>
       </c>
       <c r="H122" s="15">
-        <f>IF(ISBLANK('By Round'!H112),"",'By Round'!H112)</f>
+        <f>IF(ISBLANK('By Round'!H14),"",'By Round'!H14)</f>
         <v/>
       </c>
       <c r="I122" s="15">
-        <f>IF(ISBLANK('By Round'!I112),"",'By Round'!I112)</f>
+        <f>IF(ISBLANK('By Round'!I14),"",'By Round'!I14)</f>
         <v/>
       </c>
       <c r="J122" s="15">
-        <f>IF(ISBLANK('By Round'!J112),"",'By Round'!J112)</f>
+        <f>IF(ISBLANK('By Round'!J14),"",'By Round'!J14)</f>
         <v/>
       </c>
       <c r="K122" s="15">
-        <f>IF(ISBLANK('By Round'!K112),"",'By Round'!K112)</f>
+        <f>IF(ISBLANK('By Round'!K14),"",'By Round'!K14)</f>
         <v/>
       </c>
       <c r="L122" s="17">
-        <f>SUM(AD122:AH122)</f>
+        <f>AVERAGE(AD122:AH122)</f>
         <v/>
       </c>
       <c r="M122" s="18">
-        <f>SUM(AI122:AM122)</f>
+        <f>AVERAGE(AI122:AM122)</f>
         <v/>
       </c>
       <c r="N122" s="19">
@@ -19723,51 +19723,51 @@
         <v>21</v>
       </c>
       <c r="B123" s="11">
-        <f>'By Round'!A15</f>
+        <f>'By Round'!A123</f>
         <v/>
       </c>
       <c r="C123" s="11">
-        <f>'By Round'!B25</f>
+        <f>'By Round'!B123</f>
         <v/>
       </c>
       <c r="D123" s="11">
-        <f>'By Round'!C25</f>
+        <f>'By Round'!C123</f>
         <v/>
       </c>
       <c r="E123" s="11">
-        <f>'By Round'!D25</f>
+        <f>'By Round'!D123</f>
         <v/>
       </c>
       <c r="F123" s="11">
-        <f>IF(ISBLANK('By Round'!F25),"",'By Round'!F25)</f>
+        <f>IF(ISBLANK('By Round'!F123),"",'By Round'!F123)</f>
         <v/>
       </c>
       <c r="G123">
-        <f>IF(ISBLANK('By Round'!G25),"",'By Round'!G25)</f>
+        <f>IF(ISBLANK('By Round'!G123),"",'By Round'!G123)</f>
         <v/>
       </c>
       <c r="H123">
-        <f>IF(ISBLANK('By Round'!H25),"",'By Round'!H25)</f>
+        <f>IF(ISBLANK('By Round'!H123),"",'By Round'!H123)</f>
         <v/>
       </c>
       <c r="I123">
-        <f>IF(ISBLANK('By Round'!I25),"",'By Round'!I25)</f>
+        <f>IF(ISBLANK('By Round'!I123),"",'By Round'!I123)</f>
         <v/>
       </c>
       <c r="J123">
-        <f>IF(ISBLANK('By Round'!J25),"",'By Round'!J25)</f>
+        <f>IF(ISBLANK('By Round'!J123),"",'By Round'!J123)</f>
         <v/>
       </c>
       <c r="K123">
-        <f>IF(ISBLANK('By Round'!K25),"",'By Round'!K25)</f>
+        <f>IF(ISBLANK('By Round'!K123),"",'By Round'!K123)</f>
         <v/>
       </c>
       <c r="L123" s="12">
-        <f>SUM(AD123:AH123)</f>
+        <f>AVERAGE(AD123:AH123)</f>
         <v/>
       </c>
       <c r="M123" s="13">
-        <f>SUM(AI123:AM123)</f>
+        <f>AVERAGE(AI123:AM123)</f>
         <v/>
       </c>
       <c r="N123" s="8">
@@ -19877,51 +19877,51 @@
     </row>
     <row r="124">
       <c r="B124" s="11">
-        <f>'By Round'!A27</f>
+        <f>'By Round'!A63</f>
         <v/>
       </c>
       <c r="C124" s="11">
-        <f>'By Round'!B35</f>
+        <f>'By Round'!B67</f>
         <v/>
       </c>
       <c r="D124" s="11">
-        <f>'By Round'!C35</f>
+        <f>'By Round'!C67</f>
         <v/>
       </c>
       <c r="E124" s="11">
-        <f>'By Round'!D35</f>
+        <f>'By Round'!D67</f>
         <v/>
       </c>
       <c r="F124" s="11">
-        <f>IF(ISBLANK('By Round'!F35),"",'By Round'!F35)</f>
+        <f>IF(ISBLANK('By Round'!F67),"",'By Round'!F67)</f>
         <v/>
       </c>
       <c r="G124">
-        <f>IF(ISBLANK('By Round'!G35),"",'By Round'!G35)</f>
+        <f>IF(ISBLANK('By Round'!G67),"",'By Round'!G67)</f>
         <v/>
       </c>
       <c r="H124">
-        <f>IF(ISBLANK('By Round'!H35),"",'By Round'!H35)</f>
+        <f>IF(ISBLANK('By Round'!H67),"",'By Round'!H67)</f>
         <v/>
       </c>
       <c r="I124">
-        <f>IF(ISBLANK('By Round'!I35),"",'By Round'!I35)</f>
+        <f>IF(ISBLANK('By Round'!I67),"",'By Round'!I67)</f>
         <v/>
       </c>
       <c r="J124">
-        <f>IF(ISBLANK('By Round'!J35),"",'By Round'!J35)</f>
+        <f>IF(ISBLANK('By Round'!J67),"",'By Round'!J67)</f>
         <v/>
       </c>
       <c r="K124">
-        <f>IF(ISBLANK('By Round'!K35),"",'By Round'!K35)</f>
+        <f>IF(ISBLANK('By Round'!K67),"",'By Round'!K67)</f>
         <v/>
       </c>
       <c r="L124" s="12">
-        <f>SUM(AD124:AH124)</f>
+        <f>AVERAGE(AD124:AH124)</f>
         <v/>
       </c>
       <c r="M124" s="13">
-        <f>SUM(AI124:AM124)</f>
+        <f>AVERAGE(AI124:AM124)</f>
         <v/>
       </c>
       <c r="N124" s="8">
@@ -20031,51 +20031,51 @@
     </row>
     <row r="125">
       <c r="B125" s="11">
-        <f>'By Round'!A39</f>
+        <f>'By Round'!A27</f>
         <v/>
       </c>
       <c r="C125" s="11">
-        <f>'By Round'!B45</f>
+        <f>'By Round'!B35</f>
         <v/>
       </c>
       <c r="D125" s="11">
-        <f>'By Round'!C45</f>
+        <f>'By Round'!C35</f>
         <v/>
       </c>
       <c r="E125" s="11">
-        <f>'By Round'!D45</f>
+        <f>'By Round'!D35</f>
         <v/>
       </c>
       <c r="F125" s="11">
-        <f>IF(ISBLANK('By Round'!F45),"",'By Round'!F45)</f>
+        <f>IF(ISBLANK('By Round'!F35),"",'By Round'!F35)</f>
         <v/>
       </c>
       <c r="G125">
-        <f>IF(ISBLANK('By Round'!G45),"",'By Round'!G45)</f>
+        <f>IF(ISBLANK('By Round'!G35),"",'By Round'!G35)</f>
         <v/>
       </c>
       <c r="H125">
-        <f>IF(ISBLANK('By Round'!H45),"",'By Round'!H45)</f>
+        <f>IF(ISBLANK('By Round'!H35),"",'By Round'!H35)</f>
         <v/>
       </c>
       <c r="I125">
-        <f>IF(ISBLANK('By Round'!I45),"",'By Round'!I45)</f>
+        <f>IF(ISBLANK('By Round'!I35),"",'By Round'!I35)</f>
         <v/>
       </c>
       <c r="J125">
-        <f>IF(ISBLANK('By Round'!J45),"",'By Round'!J45)</f>
+        <f>IF(ISBLANK('By Round'!J35),"",'By Round'!J35)</f>
         <v/>
       </c>
       <c r="K125">
-        <f>IF(ISBLANK('By Round'!K45),"",'By Round'!K45)</f>
+        <f>IF(ISBLANK('By Round'!K35),"",'By Round'!K35)</f>
         <v/>
       </c>
       <c r="L125" s="12">
-        <f>SUM(AD125:AH125)</f>
+        <f>AVERAGE(AD125:AH125)</f>
         <v/>
       </c>
       <c r="M125" s="13">
-        <f>SUM(AI125:AM125)</f>
+        <f>AVERAGE(AI125:AM125)</f>
         <v/>
       </c>
       <c r="N125" s="8">
@@ -20185,51 +20185,51 @@
     </row>
     <row r="126">
       <c r="B126" s="11">
-        <f>'By Round'!A63</f>
+        <f>'By Round'!A39</f>
         <v/>
       </c>
       <c r="C126" s="11">
-        <f>'By Round'!B67</f>
+        <f>'By Round'!B45</f>
         <v/>
       </c>
       <c r="D126" s="11">
-        <f>'By Round'!C67</f>
+        <f>'By Round'!C45</f>
         <v/>
       </c>
       <c r="E126" s="11">
-        <f>'By Round'!D67</f>
+        <f>'By Round'!D45</f>
         <v/>
       </c>
       <c r="F126" s="11">
-        <f>IF(ISBLANK('By Round'!F67),"",'By Round'!F67)</f>
+        <f>IF(ISBLANK('By Round'!F45),"",'By Round'!F45)</f>
         <v/>
       </c>
       <c r="G126">
-        <f>IF(ISBLANK('By Round'!G67),"",'By Round'!G67)</f>
+        <f>IF(ISBLANK('By Round'!G45),"",'By Round'!G45)</f>
         <v/>
       </c>
       <c r="H126">
-        <f>IF(ISBLANK('By Round'!H67),"",'By Round'!H67)</f>
+        <f>IF(ISBLANK('By Round'!H45),"",'By Round'!H45)</f>
         <v/>
       </c>
       <c r="I126">
-        <f>IF(ISBLANK('By Round'!I67),"",'By Round'!I67)</f>
+        <f>IF(ISBLANK('By Round'!I45),"",'By Round'!I45)</f>
         <v/>
       </c>
       <c r="J126">
-        <f>IF(ISBLANK('By Round'!J67),"",'By Round'!J67)</f>
+        <f>IF(ISBLANK('By Round'!J45),"",'By Round'!J45)</f>
         <v/>
       </c>
       <c r="K126">
-        <f>IF(ISBLANK('By Round'!K67),"",'By Round'!K67)</f>
+        <f>IF(ISBLANK('By Round'!K45),"",'By Round'!K45)</f>
         <v/>
       </c>
       <c r="L126" s="12">
-        <f>SUM(AD126:AH126)</f>
+        <f>AVERAGE(AD126:AH126)</f>
         <v/>
       </c>
       <c r="M126" s="13">
-        <f>SUM(AI126:AM126)</f>
+        <f>AVERAGE(AI126:AM126)</f>
         <v/>
       </c>
       <c r="N126" s="8">
@@ -20379,11 +20379,11 @@
         <v/>
       </c>
       <c r="L127" s="12">
-        <f>SUM(AD127:AH127)</f>
+        <f>AVERAGE(AD127:AH127)</f>
         <v/>
       </c>
       <c r="M127" s="13">
-        <f>SUM(AI127:AM127)</f>
+        <f>AVERAGE(AI127:AM127)</f>
         <v/>
       </c>
       <c r="N127" s="8">
@@ -20494,51 +20494,51 @@
     <row r="128">
       <c r="A128" s="15" t="n"/>
       <c r="B128" s="16">
-        <f>'By Round'!A123</f>
+        <f>'By Round'!A15</f>
         <v/>
       </c>
       <c r="C128" s="16">
-        <f>'By Round'!B123</f>
+        <f>'By Round'!B25</f>
         <v/>
       </c>
       <c r="D128" s="16">
-        <f>'By Round'!C123</f>
+        <f>'By Round'!C25</f>
         <v/>
       </c>
       <c r="E128" s="16">
-        <f>'By Round'!D123</f>
+        <f>'By Round'!D25</f>
         <v/>
       </c>
       <c r="F128" s="16">
-        <f>IF(ISBLANK('By Round'!F123),"",'By Round'!F123)</f>
+        <f>IF(ISBLANK('By Round'!F25),"",'By Round'!F25)</f>
         <v/>
       </c>
       <c r="G128" s="15">
-        <f>IF(ISBLANK('By Round'!G123),"",'By Round'!G123)</f>
+        <f>IF(ISBLANK('By Round'!G25),"",'By Round'!G25)</f>
         <v/>
       </c>
       <c r="H128" s="15">
-        <f>IF(ISBLANK('By Round'!H123),"",'By Round'!H123)</f>
+        <f>IF(ISBLANK('By Round'!H25),"",'By Round'!H25)</f>
         <v/>
       </c>
       <c r="I128" s="15">
-        <f>IF(ISBLANK('By Round'!I123),"",'By Round'!I123)</f>
+        <f>IF(ISBLANK('By Round'!I25),"",'By Round'!I25)</f>
         <v/>
       </c>
       <c r="J128" s="15">
-        <f>IF(ISBLANK('By Round'!J123),"",'By Round'!J123)</f>
+        <f>IF(ISBLANK('By Round'!J25),"",'By Round'!J25)</f>
         <v/>
       </c>
       <c r="K128" s="15">
-        <f>IF(ISBLANK('By Round'!K123),"",'By Round'!K123)</f>
+        <f>IF(ISBLANK('By Round'!K25),"",'By Round'!K25)</f>
         <v/>
       </c>
       <c r="L128" s="17">
-        <f>SUM(AD128:AH128)</f>
+        <f>AVERAGE(AD128:AH128)</f>
         <v/>
       </c>
       <c r="M128" s="18">
-        <f>SUM(AI128:AM128)</f>
+        <f>AVERAGE(AI128:AM128)</f>
         <v/>
       </c>
       <c r="N128" s="19">
@@ -20651,51 +20651,51 @@
         <v>22</v>
       </c>
       <c r="B129" s="11">
-        <f>'By Round'!A15</f>
+        <f>'By Round'!A123</f>
         <v/>
       </c>
       <c r="C129" s="11">
-        <f>'By Round'!B25</f>
+        <f>'By Round'!B123</f>
         <v/>
       </c>
       <c r="D129" s="11">
-        <f>'By Round'!C25</f>
+        <f>'By Round'!C123</f>
         <v/>
       </c>
       <c r="E129" s="11">
-        <f>'By Round'!D25</f>
+        <f>'By Round'!D123</f>
         <v/>
       </c>
       <c r="F129" s="11">
-        <f>IF(ISBLANK('By Round'!F26),"",'By Round'!F26)</f>
+        <f>IF(ISBLANK('By Round'!F124),"",'By Round'!F124)</f>
         <v/>
       </c>
       <c r="G129">
-        <f>IF(ISBLANK('By Round'!G26),"",'By Round'!G26)</f>
+        <f>IF(ISBLANK('By Round'!G124),"",'By Round'!G124)</f>
         <v/>
       </c>
       <c r="H129">
-        <f>IF(ISBLANK('By Round'!H26),"",'By Round'!H26)</f>
+        <f>IF(ISBLANK('By Round'!H124),"",'By Round'!H124)</f>
         <v/>
       </c>
       <c r="I129">
-        <f>IF(ISBLANK('By Round'!I26),"",'By Round'!I26)</f>
+        <f>IF(ISBLANK('By Round'!I124),"",'By Round'!I124)</f>
         <v/>
       </c>
       <c r="J129">
-        <f>IF(ISBLANK('By Round'!J26),"",'By Round'!J26)</f>
+        <f>IF(ISBLANK('By Round'!J124),"",'By Round'!J124)</f>
         <v/>
       </c>
       <c r="K129">
-        <f>IF(ISBLANK('By Round'!K26),"",'By Round'!K26)</f>
+        <f>IF(ISBLANK('By Round'!K124),"",'By Round'!K124)</f>
         <v/>
       </c>
       <c r="L129" s="12">
-        <f>SUM(AD129:AH129)</f>
+        <f>AVERAGE(AD129:AH129)</f>
         <v/>
       </c>
       <c r="M129" s="13">
-        <f>SUM(AI129:AM129)</f>
+        <f>AVERAGE(AI129:AM129)</f>
         <v/>
       </c>
       <c r="N129" s="8">
@@ -20805,51 +20805,51 @@
     </row>
     <row r="130">
       <c r="B130" s="11">
-        <f>'By Round'!A27</f>
+        <f>'By Round'!A63</f>
         <v/>
       </c>
       <c r="C130" s="11">
-        <f>'By Round'!B35</f>
+        <f>'By Round'!B67</f>
         <v/>
       </c>
       <c r="D130" s="11">
-        <f>'By Round'!C35</f>
+        <f>'By Round'!C67</f>
         <v/>
       </c>
       <c r="E130" s="11">
-        <f>'By Round'!D35</f>
+        <f>'By Round'!D67</f>
         <v/>
       </c>
       <c r="F130" s="11">
-        <f>IF(ISBLANK('By Round'!F36),"",'By Round'!F36)</f>
+        <f>IF(ISBLANK('By Round'!F68),"",'By Round'!F68)</f>
         <v/>
       </c>
       <c r="G130">
-        <f>IF(ISBLANK('By Round'!G36),"",'By Round'!G36)</f>
+        <f>IF(ISBLANK('By Round'!G68),"",'By Round'!G68)</f>
         <v/>
       </c>
       <c r="H130">
-        <f>IF(ISBLANK('By Round'!H36),"",'By Round'!H36)</f>
+        <f>IF(ISBLANK('By Round'!H68),"",'By Round'!H68)</f>
         <v/>
       </c>
       <c r="I130">
-        <f>IF(ISBLANK('By Round'!I36),"",'By Round'!I36)</f>
+        <f>IF(ISBLANK('By Round'!I68),"",'By Round'!I68)</f>
         <v/>
       </c>
       <c r="J130">
-        <f>IF(ISBLANK('By Round'!J36),"",'By Round'!J36)</f>
+        <f>IF(ISBLANK('By Round'!J68),"",'By Round'!J68)</f>
         <v/>
       </c>
       <c r="K130">
-        <f>IF(ISBLANK('By Round'!K36),"",'By Round'!K36)</f>
+        <f>IF(ISBLANK('By Round'!K68),"",'By Round'!K68)</f>
         <v/>
       </c>
       <c r="L130" s="12">
-        <f>SUM(AD130:AH130)</f>
+        <f>AVERAGE(AD130:AH130)</f>
         <v/>
       </c>
       <c r="M130" s="13">
-        <f>SUM(AI130:AM130)</f>
+        <f>AVERAGE(AI130:AM130)</f>
         <v/>
       </c>
       <c r="N130" s="8">
@@ -20959,51 +20959,51 @@
     </row>
     <row r="131">
       <c r="B131" s="11">
-        <f>'By Round'!A39</f>
+        <f>'By Round'!A27</f>
         <v/>
       </c>
       <c r="C131" s="11">
-        <f>'By Round'!B45</f>
+        <f>'By Round'!B35</f>
         <v/>
       </c>
       <c r="D131" s="11">
-        <f>'By Round'!C45</f>
+        <f>'By Round'!C35</f>
         <v/>
       </c>
       <c r="E131" s="11">
-        <f>'By Round'!D45</f>
+        <f>'By Round'!D35</f>
         <v/>
       </c>
       <c r="F131" s="11">
-        <f>IF(ISBLANK('By Round'!F46),"",'By Round'!F46)</f>
+        <f>IF(ISBLANK('By Round'!F36),"",'By Round'!F36)</f>
         <v/>
       </c>
       <c r="G131">
-        <f>IF(ISBLANK('By Round'!G46),"",'By Round'!G46)</f>
+        <f>IF(ISBLANK('By Round'!G36),"",'By Round'!G36)</f>
         <v/>
       </c>
       <c r="H131">
-        <f>IF(ISBLANK('By Round'!H46),"",'By Round'!H46)</f>
+        <f>IF(ISBLANK('By Round'!H36),"",'By Round'!H36)</f>
         <v/>
       </c>
       <c r="I131">
-        <f>IF(ISBLANK('By Round'!I46),"",'By Round'!I46)</f>
+        <f>IF(ISBLANK('By Round'!I36),"",'By Round'!I36)</f>
         <v/>
       </c>
       <c r="J131">
-        <f>IF(ISBLANK('By Round'!J46),"",'By Round'!J46)</f>
+        <f>IF(ISBLANK('By Round'!J36),"",'By Round'!J36)</f>
         <v/>
       </c>
       <c r="K131">
-        <f>IF(ISBLANK('By Round'!K46),"",'By Round'!K46)</f>
+        <f>IF(ISBLANK('By Round'!K36),"",'By Round'!K36)</f>
         <v/>
       </c>
       <c r="L131" s="12">
-        <f>SUM(AD131:AH131)</f>
+        <f>AVERAGE(AD131:AH131)</f>
         <v/>
       </c>
       <c r="M131" s="13">
-        <f>SUM(AI131:AM131)</f>
+        <f>AVERAGE(AI131:AM131)</f>
         <v/>
       </c>
       <c r="N131" s="8">
@@ -21113,51 +21113,51 @@
     </row>
     <row r="132">
       <c r="B132" s="11">
-        <f>'By Round'!A63</f>
+        <f>'By Round'!A39</f>
         <v/>
       </c>
       <c r="C132" s="11">
-        <f>'By Round'!B67</f>
+        <f>'By Round'!B45</f>
         <v/>
       </c>
       <c r="D132" s="11">
-        <f>'By Round'!C67</f>
+        <f>'By Round'!C45</f>
         <v/>
       </c>
       <c r="E132" s="11">
-        <f>'By Round'!D67</f>
+        <f>'By Round'!D45</f>
         <v/>
       </c>
       <c r="F132" s="11">
-        <f>IF(ISBLANK('By Round'!F68),"",'By Round'!F68)</f>
+        <f>IF(ISBLANK('By Round'!F46),"",'By Round'!F46)</f>
         <v/>
       </c>
       <c r="G132">
-        <f>IF(ISBLANK('By Round'!G68),"",'By Round'!G68)</f>
+        <f>IF(ISBLANK('By Round'!G46),"",'By Round'!G46)</f>
         <v/>
       </c>
       <c r="H132">
-        <f>IF(ISBLANK('By Round'!H68),"",'By Round'!H68)</f>
+        <f>IF(ISBLANK('By Round'!H46),"",'By Round'!H46)</f>
         <v/>
       </c>
       <c r="I132">
-        <f>IF(ISBLANK('By Round'!I68),"",'By Round'!I68)</f>
+        <f>IF(ISBLANK('By Round'!I46),"",'By Round'!I46)</f>
         <v/>
       </c>
       <c r="J132">
-        <f>IF(ISBLANK('By Round'!J68),"",'By Round'!J68)</f>
+        <f>IF(ISBLANK('By Round'!J46),"",'By Round'!J46)</f>
         <v/>
       </c>
       <c r="K132">
-        <f>IF(ISBLANK('By Round'!K68),"",'By Round'!K68)</f>
+        <f>IF(ISBLANK('By Round'!K46),"",'By Round'!K46)</f>
         <v/>
       </c>
       <c r="L132" s="12">
-        <f>SUM(AD132:AH132)</f>
+        <f>AVERAGE(AD132:AH132)</f>
         <v/>
       </c>
       <c r="M132" s="13">
-        <f>SUM(AI132:AM132)</f>
+        <f>AVERAGE(AI132:AM132)</f>
         <v/>
       </c>
       <c r="N132" s="8">
@@ -21307,11 +21307,11 @@
         <v/>
       </c>
       <c r="L133" s="12">
-        <f>SUM(AD133:AH133)</f>
+        <f>AVERAGE(AD133:AH133)</f>
         <v/>
       </c>
       <c r="M133" s="13">
-        <f>SUM(AI133:AM133)</f>
+        <f>AVERAGE(AI133:AM133)</f>
         <v/>
       </c>
       <c r="N133" s="8">
@@ -21422,51 +21422,51 @@
     <row r="134">
       <c r="A134" s="15" t="n"/>
       <c r="B134" s="16">
-        <f>'By Round'!A123</f>
+        <f>'By Round'!A15</f>
         <v/>
       </c>
       <c r="C134" s="16">
-        <f>'By Round'!B123</f>
+        <f>'By Round'!B25</f>
         <v/>
       </c>
       <c r="D134" s="16">
-        <f>'By Round'!C123</f>
+        <f>'By Round'!C25</f>
         <v/>
       </c>
       <c r="E134" s="16">
-        <f>'By Round'!D123</f>
+        <f>'By Round'!D25</f>
         <v/>
       </c>
       <c r="F134" s="16">
-        <f>IF(ISBLANK('By Round'!F124),"",'By Round'!F124)</f>
+        <f>IF(ISBLANK('By Round'!F26),"",'By Round'!F26)</f>
         <v/>
       </c>
       <c r="G134" s="15">
-        <f>IF(ISBLANK('By Round'!G124),"",'By Round'!G124)</f>
+        <f>IF(ISBLANK('By Round'!G26),"",'By Round'!G26)</f>
         <v/>
       </c>
       <c r="H134" s="15">
-        <f>IF(ISBLANK('By Round'!H124),"",'By Round'!H124)</f>
+        <f>IF(ISBLANK('By Round'!H26),"",'By Round'!H26)</f>
         <v/>
       </c>
       <c r="I134" s="15">
-        <f>IF(ISBLANK('By Round'!I124),"",'By Round'!I124)</f>
+        <f>IF(ISBLANK('By Round'!I26),"",'By Round'!I26)</f>
         <v/>
       </c>
       <c r="J134" s="15">
-        <f>IF(ISBLANK('By Round'!J124),"",'By Round'!J124)</f>
+        <f>IF(ISBLANK('By Round'!J26),"",'By Round'!J26)</f>
         <v/>
       </c>
       <c r="K134" s="15">
-        <f>IF(ISBLANK('By Round'!K124),"",'By Round'!K124)</f>
+        <f>IF(ISBLANK('By Round'!K26),"",'By Round'!K26)</f>
         <v/>
       </c>
       <c r="L134" s="17">
-        <f>SUM(AD134:AH134)</f>
+        <f>AVERAGE(AD134:AH134)</f>
         <v/>
       </c>
       <c r="M134" s="18">
-        <f>SUM(AI134:AM134)</f>
+        <f>AVERAGE(AI134:AM134)</f>
         <v/>
       </c>
       <c r="N134" s="19">
@@ -25442,7 +25442,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24" s="22" t="n">
         <v>90</v>
@@ -25465,7 +25465,7 @@
     </row>
     <row r="25">
       <c r="B25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C25" s="22" t="n">
         <v>110</v>
@@ -25488,7 +25488,7 @@
     </row>
     <row r="26">
       <c r="B26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C26" s="22" t="n">
         <v>130</v>
@@ -25511,7 +25511,7 @@
     </row>
     <row r="27">
       <c r="B27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C27" s="22" t="n">
         <v>150</v>
@@ -25534,7 +25534,7 @@
     </row>
     <row r="28">
       <c r="B28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C28" s="22" t="n">
         <v>170</v>
@@ -25557,7 +25557,7 @@
     </row>
     <row r="29">
       <c r="B29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C29" s="22" t="n">
         <v>190</v>
@@ -25585,7 +25585,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30" s="22" t="n">
         <v>110</v>
@@ -25608,7 +25608,7 @@
     </row>
     <row r="31">
       <c r="B31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C31" s="22" t="n">
         <v>140</v>
@@ -25631,7 +25631,7 @@
     </row>
     <row r="32">
       <c r="B32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C32" s="22" t="n">
         <v>170</v>
@@ -25654,7 +25654,7 @@
     </row>
     <row r="33">
       <c r="B33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C33" s="22" t="n">
         <v>200</v>
@@ -25677,7 +25677,7 @@
     </row>
     <row r="34">
       <c r="B34" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C34" s="22" t="n">
         <v>230</v>
@@ -25700,7 +25700,7 @@
     </row>
     <row r="35">
       <c r="B35" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C35" s="22" t="n">
         <v>260</v>
@@ -25728,7 +25728,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C36" s="22" t="n">
         <v>120</v>
@@ -25751,7 +25751,7 @@
     </row>
     <row r="37">
       <c r="B37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C37" s="22" t="n">
         <v>150</v>
@@ -25774,7 +25774,7 @@
     </row>
     <row r="38">
       <c r="B38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C38" s="22" t="n">
         <v>180</v>
@@ -25797,7 +25797,7 @@
     </row>
     <row r="39">
       <c r="B39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C39" s="22" t="n">
         <v>210</v>
@@ -25820,7 +25820,7 @@
     </row>
     <row r="40">
       <c r="B40" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C40" s="22" t="n">
         <v>240</v>
@@ -25843,7 +25843,7 @@
     </row>
     <row r="41">
       <c r="B41" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C41" s="22" t="n">
         <v>270</v>
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C42" s="22" t="n">
         <v>110</v>
@@ -25894,7 +25894,7 @@
     </row>
     <row r="43">
       <c r="B43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C43" s="22" t="n">
         <v>130</v>
@@ -25917,7 +25917,7 @@
     </row>
     <row r="44">
       <c r="B44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C44" s="22" t="n">
         <v>150</v>
@@ -25940,7 +25940,7 @@
     </row>
     <row r="45">
       <c r="B45" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C45" s="22" t="n">
         <v>170</v>
@@ -25963,7 +25963,7 @@
     </row>
     <row r="46">
       <c r="B46" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C46" s="22" t="n">
         <v>190</v>
@@ -25991,7 +25991,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C47" s="22" t="n">
         <v>140</v>
@@ -26014,7 +26014,7 @@
     </row>
     <row r="48">
       <c r="B48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C48" s="22" t="n">
         <v>170</v>
@@ -26037,7 +26037,7 @@
     </row>
     <row r="49">
       <c r="B49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C49" s="22" t="n">
         <v>200</v>
@@ -26060,7 +26060,7 @@
     </row>
     <row r="50">
       <c r="B50" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C50" s="22" t="n">
         <v>230</v>
@@ -26083,7 +26083,7 @@
     </row>
     <row r="51">
       <c r="B51" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C51" s="22" t="n">
         <v>260</v>
@@ -26111,7 +26111,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C52" s="22" t="n">
         <v>400</v>
@@ -26134,7 +26134,7 @@
     </row>
     <row r="53">
       <c r="B53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C53" s="22" t="n">
         <v>430</v>
@@ -26157,7 +26157,7 @@
     </row>
     <row r="54">
       <c r="B54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C54" s="22" t="n">
         <v>460</v>
@@ -26180,7 +26180,7 @@
     </row>
     <row r="55">
       <c r="B55" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C55" s="22" t="n">
         <v>490</v>
@@ -26203,7 +26203,7 @@
     </row>
     <row r="56">
       <c r="B56" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C56" s="22" t="n">
         <v>520</v>
@@ -26231,7 +26231,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C57" s="22" t="n">
         <v>130</v>
@@ -26254,7 +26254,7 @@
     </row>
     <row r="58">
       <c r="B58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C58" s="22" t="n">
         <v>150</v>
@@ -26277,7 +26277,7 @@
     </row>
     <row r="59">
       <c r="B59" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C59" s="22" t="n">
         <v>170</v>
@@ -26300,7 +26300,7 @@
     </row>
     <row r="60">
       <c r="B60" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C60" s="22" t="n">
         <v>190</v>
@@ -26328,7 +26328,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C61" s="22" t="n">
         <v>420</v>
@@ -26351,7 +26351,7 @@
     </row>
     <row r="62">
       <c r="B62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C62" s="22" t="n">
         <v>450</v>
@@ -26374,7 +26374,7 @@
     </row>
     <row r="63">
       <c r="B63" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C63" s="22" t="n">
         <v>480</v>
@@ -26397,7 +26397,7 @@
     </row>
     <row r="64">
       <c r="B64" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C64" s="22" t="n">
         <v>510</v>
@@ -26425,7 +26425,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C65" s="22" t="n">
         <v>430</v>
@@ -26448,7 +26448,7 @@
     </row>
     <row r="66">
       <c r="B66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C66" s="22" t="n">
         <v>460</v>
@@ -26471,7 +26471,7 @@
     </row>
     <row r="67">
       <c r="B67" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C67" s="22" t="n">
         <v>490</v>
@@ -26494,7 +26494,7 @@
     </row>
     <row r="68">
       <c r="B68" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C68" s="22" t="n">
         <v>520</v>
@@ -26522,7 +26522,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C69" s="22" t="n">
         <v>400</v>
@@ -26545,7 +26545,7 @@
     </row>
     <row r="70">
       <c r="B70" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C70" s="22" t="n">
         <v>420</v>
@@ -26568,7 +26568,7 @@
     </row>
     <row r="71">
       <c r="B71" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C71" s="22" t="n">
         <v>440</v>
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C72" s="22" t="n">
         <v>450</v>
@@ -26619,7 +26619,7 @@
     </row>
     <row r="73">
       <c r="B73" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C73" s="22" t="n">
         <v>480</v>
@@ -26642,7 +26642,7 @@
     </row>
     <row r="74">
       <c r="B74" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C74" s="22" t="n">
         <v>510</v>
@@ -26670,7 +26670,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C75" s="22" t="n">
         <v>460</v>
@@ -26693,7 +26693,7 @@
     </row>
     <row r="76">
       <c r="B76" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C76" s="22" t="n">
         <v>490</v>
@@ -26716,7 +26716,7 @@
     </row>
     <row r="77">
       <c r="B77" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C77" s="22" t="n">
         <v>520</v>
@@ -26744,7 +26744,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C78" s="22" t="n">
         <v>920</v>
@@ -26767,7 +26767,7 @@
     </row>
     <row r="79">
       <c r="B79" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C79" s="22" t="n">
         <v>940</v>
@@ -26795,7 +26795,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C80" s="22" t="n">
         <v>980</v>
@@ -26818,7 +26818,7 @@
     </row>
     <row r="81">
       <c r="B81" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C81" s="22" t="n">
         <v>1010</v>
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C82" s="22" t="n">
         <v>990</v>
@@ -26869,7 +26869,7 @@
     </row>
     <row r="83">
       <c r="B83" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C83" s="22" t="n">
         <v>1020</v>
@@ -26897,7 +26897,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C84" s="22" t="n">
         <v>1440</v>
@@ -26925,7 +26925,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C85" s="22" t="n">
         <v>1510</v>
@@ -26953,7 +26953,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C86" s="22" t="n">
         <v>1520</v>

--- a/howell11.xlsx
+++ b/howell11.xlsx
@@ -511,7 +511,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>For public domain. No rights reserved. Generated on Feb 11, 2026.</t>
+          <t>For public domain. No rights reserved. Generated on Feb 12, 2026.</t>
         </is>
       </c>
     </row>
@@ -595,12 +595,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Name 31</t>
+          <t>Name 16</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Name 56</t>
+          <t>Name 71</t>
         </is>
       </c>
       <c r="D10" s="4">
@@ -618,12 +618,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Name 21</t>
+          <t>Name 65</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Name 59</t>
+          <t>Name 22</t>
         </is>
       </c>
       <c r="D11" s="4">
@@ -641,12 +641,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Name 52</t>
+          <t>Name 68</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Name 28</t>
+          <t>Name 50</t>
         </is>
       </c>
       <c r="D12" s="4">
@@ -664,12 +664,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Name 65</t>
+          <t>Name 33</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Name 37</t>
+          <t>Name 38</t>
         </is>
       </c>
       <c r="D13" s="4">
@@ -687,37 +687,37 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Name 35</t>
+          <t>Name 26</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
+        <is>
+          <t>Name 66</t>
+        </is>
+      </c>
+      <c r="D14" s="4">
+        <f>SUMIF('By Board'!$D$3:$D$122,"=5",'By Board'!$N$3:$N$122)/20+SUMIF('By Board'!$E$3:$E$122,"=5",'By Board'!$O$3:$O$122)/20</f>
+        <v/>
+      </c>
+      <c r="E14" s="5">
+        <f>SUMIF('By Board'!$D$3:$D$122,"=5",'By Board'!$L$3:$L$122)+SUMIF('By Board'!$E$3:$E$122,"=5",'By Board'!$M$3:$M$122)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Name 80</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
         <is>
           <t>Name 27</t>
         </is>
       </c>
-      <c r="D14" s="4">
-        <f>SUMIF('By Board'!$D$3:$D$122,"=5",'By Board'!$N$3:$N$122)/20+SUMIF('By Board'!$E$3:$E$122,"=5",'By Board'!$O$3:$O$122)/20</f>
-        <v/>
-      </c>
-      <c r="E14" s="5">
-        <f>SUMIF('By Board'!$D$3:$D$122,"=5",'By Board'!$L$3:$L$122)+SUMIF('By Board'!$E$3:$E$122,"=5",'By Board'!$M$3:$M$122)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Name 58</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Name 56</t>
-        </is>
-      </c>
       <c r="D15" s="4">
         <f>SUMIF('By Board'!$D$3:$D$122,"=6",'By Board'!$N$3:$N$122)/20+SUMIF('By Board'!$E$3:$E$122,"=6",'By Board'!$O$3:$O$122)/20</f>
         <v/>
@@ -733,12 +733,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Name 87</t>
+          <t>Name 13</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Name 89</t>
+          <t>Name 27</t>
         </is>
       </c>
       <c r="D16" s="4">
@@ -756,12 +756,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Name 26</t>
+          <t>Name 42</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Name 16</t>
+          <t>Name 15</t>
         </is>
       </c>
       <c r="D17" s="4">
@@ -779,12 +779,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Name 78</t>
+          <t>Name 68</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Name 68</t>
+          <t>Name 29</t>
         </is>
       </c>
       <c r="D18" s="4">
@@ -802,12 +802,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Name 88</t>
+          <t>Name 14</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Name 61</t>
+          <t>Name 42</t>
         </is>
       </c>
       <c r="D19" s="4">
@@ -825,12 +825,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Name 15</t>
+          <t>Name 41</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Name 14</t>
+          <t>Name 17</t>
         </is>
       </c>
       <c r="D20" s="4">

--- a/howell11.xlsx
+++ b/howell11.xlsx
@@ -511,7 +511,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>For public domain. No rights reserved. Generated on Feb 13, 2026.</t>
+          <t>For public domain. No rights reserved. Generated on Feb 19, 2026.</t>
         </is>
       </c>
     </row>
@@ -595,129 +595,129 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Name 32</t>
+          <t>Name 36</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
+        <is>
+          <t>Name 81</t>
+        </is>
+      </c>
+      <c r="D10" s="4">
+        <f>SUMIF('By Board'!$D$3:$D$122,"=1",'By Board'!$O$3:$O$122)/20+SUMIF('By Board'!$E$3:$E$122,"=1",'By Board'!$P$3:$P$122)/20</f>
+        <v/>
+      </c>
+      <c r="E10" s="5">
+        <f>SUMIF('By Board'!$D$3:$D$122,"=1",'By Board'!$M$3:$M$122)+SUMIF('By Board'!$E$3:$E$122,"=1",'By Board'!$N$3:$N$122)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Name 21</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Name 75</t>
+        </is>
+      </c>
+      <c r="D11" s="4">
+        <f>SUMIF('By Board'!$D$3:$D$122,"=2",'By Board'!$O$3:$O$122)/20+SUMIF('By Board'!$E$3:$E$122,"=2",'By Board'!$P$3:$P$122)/20</f>
+        <v/>
+      </c>
+      <c r="E11" s="5">
+        <f>SUMIF('By Board'!$D$3:$D$122,"=2",'By Board'!$M$3:$M$122)+SUMIF('By Board'!$E$3:$E$122,"=2",'By Board'!$N$3:$N$122)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Name 87</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Name 88</t>
+        </is>
+      </c>
+      <c r="D12" s="4">
+        <f>SUMIF('By Board'!$D$3:$D$122,"=3",'By Board'!$O$3:$O$122)/20+SUMIF('By Board'!$E$3:$E$122,"=3",'By Board'!$P$3:$P$122)/20</f>
+        <v/>
+      </c>
+      <c r="E12" s="5">
+        <f>SUMIF('By Board'!$D$3:$D$122,"=3",'By Board'!$M$3:$M$122)+SUMIF('By Board'!$E$3:$E$122,"=3",'By Board'!$N$3:$N$122)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Name 81</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Name 28</t>
+        </is>
+      </c>
+      <c r="D13" s="4">
+        <f>SUMIF('By Board'!$D$3:$D$122,"=4",'By Board'!$O$3:$O$122)/20+SUMIF('By Board'!$E$3:$E$122,"=4",'By Board'!$P$3:$P$122)/20</f>
+        <v/>
+      </c>
+      <c r="E13" s="5">
+        <f>SUMIF('By Board'!$D$3:$D$122,"=4",'By Board'!$M$3:$M$122)+SUMIF('By Board'!$E$3:$E$122,"=4",'By Board'!$N$3:$N$122)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Name 28</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Name 47</t>
+        </is>
+      </c>
+      <c r="D14" s="4">
+        <f>SUMIF('By Board'!$D$3:$D$122,"=5",'By Board'!$O$3:$O$122)/20+SUMIF('By Board'!$E$3:$E$122,"=5",'By Board'!$P$3:$P$122)/20</f>
+        <v/>
+      </c>
+      <c r="E14" s="5">
+        <f>SUMIF('By Board'!$D$3:$D$122,"=5",'By Board'!$M$3:$M$122)+SUMIF('By Board'!$E$3:$E$122,"=5",'By Board'!$N$3:$N$122)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Name 59</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
         <is>
           <t>Name 84</t>
         </is>
       </c>
-      <c r="D10" s="4">
-        <f>SUMIF('By Board'!$D$3:$D$122,"=1",'By Board'!$O$3:$O$122)/20+SUMIF('By Board'!$E$3:$E$122,"=1",'By Board'!$P$3:$P$122)/20</f>
-        <v/>
-      </c>
-      <c r="E10" s="5">
-        <f>SUMIF('By Board'!$D$3:$D$122,"=1",'By Board'!$M$3:$M$122)+SUMIF('By Board'!$E$3:$E$122,"=1",'By Board'!$N$3:$N$122)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Name 69</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Name 37</t>
-        </is>
-      </c>
-      <c r="D11" s="4">
-        <f>SUMIF('By Board'!$D$3:$D$122,"=2",'By Board'!$O$3:$O$122)/20+SUMIF('By Board'!$E$3:$E$122,"=2",'By Board'!$P$3:$P$122)/20</f>
-        <v/>
-      </c>
-      <c r="E11" s="5">
-        <f>SUMIF('By Board'!$D$3:$D$122,"=2",'By Board'!$M$3:$M$122)+SUMIF('By Board'!$E$3:$E$122,"=2",'By Board'!$N$3:$N$122)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Name 51</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Name 48</t>
-        </is>
-      </c>
-      <c r="D12" s="4">
-        <f>SUMIF('By Board'!$D$3:$D$122,"=3",'By Board'!$O$3:$O$122)/20+SUMIF('By Board'!$E$3:$E$122,"=3",'By Board'!$P$3:$P$122)/20</f>
-        <v/>
-      </c>
-      <c r="E12" s="5">
-        <f>SUMIF('By Board'!$D$3:$D$122,"=3",'By Board'!$M$3:$M$122)+SUMIF('By Board'!$E$3:$E$122,"=3",'By Board'!$N$3:$N$122)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Name 77</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Name 11</t>
-        </is>
-      </c>
-      <c r="D13" s="4">
-        <f>SUMIF('By Board'!$D$3:$D$122,"=4",'By Board'!$O$3:$O$122)/20+SUMIF('By Board'!$E$3:$E$122,"=4",'By Board'!$P$3:$P$122)/20</f>
-        <v/>
-      </c>
-      <c r="E13" s="5">
-        <f>SUMIF('By Board'!$D$3:$D$122,"=4",'By Board'!$M$3:$M$122)+SUMIF('By Board'!$E$3:$E$122,"=4",'By Board'!$N$3:$N$122)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Name 63</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Name 52</t>
-        </is>
-      </c>
-      <c r="D14" s="4">
-        <f>SUMIF('By Board'!$D$3:$D$122,"=5",'By Board'!$O$3:$O$122)/20+SUMIF('By Board'!$E$3:$E$122,"=5",'By Board'!$P$3:$P$122)/20</f>
-        <v/>
-      </c>
-      <c r="E14" s="5">
-        <f>SUMIF('By Board'!$D$3:$D$122,"=5",'By Board'!$M$3:$M$122)+SUMIF('By Board'!$E$3:$E$122,"=5",'By Board'!$N$3:$N$122)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Name 51</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Name 23</t>
-        </is>
-      </c>
       <c r="D15" s="4">
         <f>SUMIF('By Board'!$D$3:$D$122,"=6",'By Board'!$O$3:$O$122)/20+SUMIF('By Board'!$E$3:$E$122,"=6",'By Board'!$P$3:$P$122)/20</f>
         <v/>
@@ -733,12 +733,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Name 77</t>
+          <t>Name 88</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Name 85</t>
+          <t>Name 59</t>
         </is>
       </c>
       <c r="D16" s="4">
@@ -756,60 +756,60 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Name 90</t>
+          <t>Name 16</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
+        <is>
+          <t>Name 67</t>
+        </is>
+      </c>
+      <c r="D17" s="4">
+        <f>SUMIF('By Board'!$D$3:$D$122,"=8",'By Board'!$O$3:$O$122)/20+SUMIF('By Board'!$E$3:$E$122,"=8",'By Board'!$P$3:$P$122)/20</f>
+        <v/>
+      </c>
+      <c r="E17" s="5">
+        <f>SUMIF('By Board'!$D$3:$D$122,"=8",'By Board'!$M$3:$M$122)+SUMIF('By Board'!$E$3:$E$122,"=8",'By Board'!$N$3:$N$122)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Name 56</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Name 83</t>
+        </is>
+      </c>
+      <c r="D18" s="4">
+        <f>SUMIF('By Board'!$D$3:$D$122,"=9",'By Board'!$O$3:$O$122)/20+SUMIF('By Board'!$E$3:$E$122,"=9",'By Board'!$P$3:$P$122)/20</f>
+        <v/>
+      </c>
+      <c r="E18" s="5">
+        <f>SUMIF('By Board'!$D$3:$D$122,"=9",'By Board'!$M$3:$M$122)+SUMIF('By Board'!$E$3:$E$122,"=9",'By Board'!$N$3:$N$122)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Name 62</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
         <is>
           <t>Name 42</t>
         </is>
       </c>
-      <c r="D17" s="4">
-        <f>SUMIF('By Board'!$D$3:$D$122,"=8",'By Board'!$O$3:$O$122)/20+SUMIF('By Board'!$E$3:$E$122,"=8",'By Board'!$P$3:$P$122)/20</f>
-        <v/>
-      </c>
-      <c r="E17" s="5">
-        <f>SUMIF('By Board'!$D$3:$D$122,"=8",'By Board'!$M$3:$M$122)+SUMIF('By Board'!$E$3:$E$122,"=8",'By Board'!$N$3:$N$122)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Name 28</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Name 62</t>
-        </is>
-      </c>
-      <c r="D18" s="4">
-        <f>SUMIF('By Board'!$D$3:$D$122,"=9",'By Board'!$O$3:$O$122)/20+SUMIF('By Board'!$E$3:$E$122,"=9",'By Board'!$P$3:$P$122)/20</f>
-        <v/>
-      </c>
-      <c r="E18" s="5">
-        <f>SUMIF('By Board'!$D$3:$D$122,"=9",'By Board'!$M$3:$M$122)+SUMIF('By Board'!$E$3:$E$122,"=9",'By Board'!$N$3:$N$122)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Name 38</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Name 25</t>
-        </is>
-      </c>
       <c r="D19" s="4">
         <f>SUMIF('By Board'!$D$3:$D$122,"=10",'By Board'!$O$3:$O$122)/20+SUMIF('By Board'!$E$3:$E$122,"=10",'By Board'!$P$3:$P$122)/20</f>
         <v/>
@@ -825,12 +825,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Name 17</t>
+          <t>Name 14</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Name 20</t>
+          <t>Name 83</t>
         </is>
       </c>
       <c r="D20" s="4">
